--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3864240646362</t>
+    <t xml:space="preserve">13.3864250183105</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
@@ -50,40 +50,40 @@
     <t xml:space="preserve">13.4030332565308</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0874719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5809135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4563493728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715620040894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1372966766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6106386184692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1206884384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0210380554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2950782775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.647346496582</t>
+    <t xml:space="preserve">13.0874729156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5809125900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4563512802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.871561050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1372976303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6106376647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1206903457642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0210390090942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2950773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6473474502563</t>
   </si>
   <si>
     <t xml:space="preserve">12.9795169830322</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7719106674194</t>
+    <t xml:space="preserve">12.7719125747681</t>
   </si>
   <si>
     <t xml:space="preserve">12.9463005065918</t>
@@ -95,31 +95,31 @@
     <t xml:space="preserve">12.3483953475952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2072219848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840572357178</t>
+    <t xml:space="preserve">12.2072238922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5726089477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840553283691</t>
   </si>
   <si>
     <t xml:space="preserve">11.5345802307129</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0245294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6508388519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.057746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.107572555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.916576385498</t>
+    <t xml:space="preserve">12.0245304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.650839805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0577478408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1075716018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9165754318237</t>
   </si>
   <si>
     <t xml:space="preserve">12.4397411346436</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">12.0826597213745</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2902669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4148292541504</t>
+    <t xml:space="preserve">12.290265083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4148283004761</t>
   </si>
   <si>
     <t xml:space="preserve">12.2487449645996</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">11.9580945968628</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7338819503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5560007095337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961242675781</t>
+    <t xml:space="preserve">11.7338809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.556001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">13.0376462936401</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">12.8300399780273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7054767608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7469997406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7137823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4528579711914</t>
+    <t xml:space="preserve">12.7054777145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7469987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7137813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4528589248657</t>
   </si>
   <si>
     <t xml:space="preserve">13.6189432144165</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5857276916504</t>
+    <t xml:space="preserve">13.5857257843018</t>
   </si>
   <si>
     <t xml:space="preserve">13.7850275039673</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">14.0258502960205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9926328659058</t>
+    <t xml:space="preserve">13.9926338195801</t>
   </si>
   <si>
     <t xml:space="preserve">14.1171970367432</t>
@@ -194,43 +194,43 @@
     <t xml:space="preserve">14.2417602539062</t>
   </si>
   <si>
-    <t xml:space="preserve">14.266674041748</t>
+    <t xml:space="preserve">14.2666730880737</t>
   </si>
   <si>
     <t xml:space="preserve">14.0175457000732</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6770715713501</t>
+    <t xml:space="preserve">13.6770725250244</t>
   </si>
   <si>
     <t xml:space="preserve">13.3781204223633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7601146697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7518110275269</t>
+    <t xml:space="preserve">13.7601127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7518091201782</t>
   </si>
   <si>
     <t xml:space="preserve">13.8431577682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6272468566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6604642868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7352027893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7185955047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687669754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3199911117554</t>
+    <t xml:space="preserve">13.6272478103638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6604652404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7352018356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7185935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687660217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3199901580811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2203397750854</t>
@@ -245,31 +245,31 @@
     <t xml:space="preserve">13.2037305831909</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0791683197021</t>
+    <t xml:space="preserve">13.0791654586792</t>
   </si>
   <si>
     <t xml:space="preserve">12.971212387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1954259872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3526620864868</t>
+    <t xml:space="preserve">13.1954278945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3526630401611</t>
   </si>
   <si>
     <t xml:space="preserve">12.7449560165405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7027540206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5761489868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5086250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8209180831909</t>
+    <t xml:space="preserve">12.7027549743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5761480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5086259841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8209190368652</t>
   </si>
   <si>
     <t xml:space="preserve">12.8293590545654</t>
@@ -287,25 +287,25 @@
     <t xml:space="preserve">13.107892036438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.437066078186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5045881271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6649570465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4539461135864</t>
+    <t xml:space="preserve">13.3357839584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4370670318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5045890808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6649560928345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4539470672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.4961490631104</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4455070495605</t>
+    <t xml:space="preserve">13.4455060958862</t>
   </si>
   <si>
     <t xml:space="preserve">13.2176170349121</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">12.3144979476929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9600009918213</t>
+    <t xml:space="preserve">11.9600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">11.8418369293213</t>
@@ -329,22 +329,22 @@
     <t xml:space="preserve">11.4113779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">11.622386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1710119247437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605520248413</t>
+    <t xml:space="preserve">11.6223878860474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.171010017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605529785156</t>
   </si>
   <si>
     <t xml:space="preserve">12.1794519424438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9262390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0528469085693</t>
+    <t xml:space="preserve">11.9262399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0528450012207</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847719192505</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">10.5673408508301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9724788665771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5633039474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132139205933</t>
+    <t xml:space="preserve">10.9724779129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5633058547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132120132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.2047729492188</t>
@@ -368,163 +368,163 @@
     <t xml:space="preserve">11.782753944397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5211029052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658729553223</t>
+    <t xml:space="preserve">11.5211019515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620199203491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658720016479</t>
   </si>
   <si>
     <t xml:space="preserve">12.2976160049438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1372499465942</t>
+    <t xml:space="preserve">12.3229379653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1372489929199</t>
   </si>
   <si>
     <t xml:space="preserve">12.4748640060425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1541299819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579830169678</t>
+    <t xml:space="preserve">12.1541290283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579839706421</t>
   </si>
   <si>
     <t xml:space="preserve">12.3735790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7871589660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0403690338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5214710235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6902761459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311950683594</t>
+    <t xml:space="preserve">12.7871570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0403680801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5214700698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6902770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311941146851</t>
   </si>
   <si>
     <t xml:space="preserve">13.7662401199341</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8000011444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6227531433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155981063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0025720596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9478893280029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6018371582031</t>
+    <t xml:space="preserve">13.8000030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6227540969849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0025701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9478902816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6018352508545</t>
   </si>
   <si>
     <t xml:space="preserve">15.0491771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5343132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8550510406494</t>
+    <t xml:space="preserve">14.53431224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8550481796265</t>
   </si>
   <si>
     <t xml:space="preserve">15.4121131896973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4880771636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3445892333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5471591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192701339722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1082592010498</t>
+    <t xml:space="preserve">15.488076210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3445901870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5471601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1082582473755</t>
   </si>
   <si>
     <t xml:space="preserve">15.0154151916504</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699064254761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4796333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8594532012939</t>
+    <t xml:space="preserve">15.3699102401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4796371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8594512939453</t>
   </si>
   <si>
     <t xml:space="preserve">15.8932104110718</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8678913116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8256902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7834892272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0451412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1801853179932</t>
+    <t xml:space="preserve">15.8678922653198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8256893157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7834901809692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0451393127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1801872253418</t>
   </si>
   <si>
     <t xml:space="preserve">16.2139472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">16.112663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5977983474731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4458703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.564037322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5133962631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6231231689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.247709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1970691680908</t>
+    <t xml:space="preserve">16.1126613616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0367012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5978002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.445873260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640382766724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133981704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6231212615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2477111816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1970672607422</t>
   </si>
   <si>
     <t xml:space="preserve">15.9607362747192</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5302782058716</t>
+    <t xml:space="preserve">15.5302762985229</t>
   </si>
   <si>
     <t xml:space="preserve">16.1464233398438</t>
@@ -533,109 +533,109 @@
     <t xml:space="preserve">16.0029373168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9100961685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.289909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9691762924194</t>
+    <t xml:space="preserve">15.9100952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2899112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9691781997681</t>
   </si>
   <si>
     <t xml:space="preserve">15.7497262954712</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6146841049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9438533782959</t>
+    <t xml:space="preserve">15.6146821975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9438571929932</t>
   </si>
   <si>
     <t xml:space="preserve">16.0789012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0620212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1211051940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.053581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9269752502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614692687988</t>
+    <t xml:space="preserve">16.0620231628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1211032867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0535793304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9269742965698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614711761475</t>
   </si>
   <si>
     <t xml:space="preserve">15.6990852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">15.994499206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5555992126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.251745223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.268627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044061660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1335792541504</t>
+    <t xml:space="preserve">15.9945001602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5555973052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2517442703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2686262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.804407119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335802078247</t>
   </si>
   <si>
     <t xml:space="preserve">14.981653213501</t>
   </si>
   <si>
-    <t xml:space="preserve">15.192663192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9141292572021</t>
+    <t xml:space="preserve">15.1926622390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9141302108765</t>
   </si>
   <si>
     <t xml:space="preserve">15.11669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2770690917969</t>
+    <t xml:space="preserve">15.2770671844482</t>
   </si>
   <si>
     <t xml:space="preserve">15.1673431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0069751739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959651947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.023853302002</t>
+    <t xml:space="preserve">15.0069770812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959671020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0238561630249</t>
   </si>
   <si>
     <t xml:space="preserve">14.6355981826782</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3486251831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0616521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0194501876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8337621688843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5889940261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9688081741333</t>
+    <t xml:space="preserve">14.3486261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0616540908813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8337631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5889930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9688091278076</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557821273804</t>
@@ -644,157 +644,157 @@
     <t xml:space="preserve">14.4499111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5933990478516</t>
+    <t xml:space="preserve">14.5933961868286</t>
   </si>
   <si>
     <t xml:space="preserve">14.8972492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6862411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7159652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7750492095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4374332427979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5724792480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6484432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0113792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.365873336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152313232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2983512878418</t>
+    <t xml:space="preserve">14.686240196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.715968132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.775050163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4374351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5724811553955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6484460830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0113773345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3658695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152332305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2983493804932</t>
   </si>
   <si>
     <t xml:space="preserve">16.2223892211914</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1379852294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3743133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2645893096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1633033752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510131835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9522972106934</t>
+    <t xml:space="preserve">16.1379814147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3743152618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.264591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1633071899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510112762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9522953033447</t>
   </si>
   <si>
     <t xml:space="preserve">16.6022033691406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6697273254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6781692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7288093566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7963352203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1508274078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1001873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3449535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.395601272583</t>
+    <t xml:space="preserve">16.6697254180908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6781711578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7288112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7963314056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1508312225342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1001853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3449573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3955993652344</t>
   </si>
   <si>
     <t xml:space="preserve">17.1339473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2605533599854</t>
+    <t xml:space="preserve">17.2605514526367</t>
   </si>
   <si>
     <t xml:space="preserve">16.9651393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9482612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7625732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5431232452393</t>
+    <t xml:space="preserve">16.9482593536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7625713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5431213378906</t>
   </si>
   <si>
     <t xml:space="preserve">16.8807353973389</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7878952026367</t>
+    <t xml:space="preserve">16.7878913879395</t>
   </si>
   <si>
     <t xml:space="preserve">16.8300933837891</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2858734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247734069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.809175491333</t>
+    <t xml:space="preserve">17.2858753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8091793060303</t>
   </si>
   <si>
     <t xml:space="preserve">17.8766994476318</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2311935424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3746814727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.644775390625</t>
+    <t xml:space="preserve">18.2311954498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.374683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6447734832764</t>
   </si>
   <si>
     <t xml:space="preserve">19.2862415313721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6660556793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6407375335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9530277252197</t>
+    <t xml:space="preserve">19.6660575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.640739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9530296325684</t>
   </si>
   <si>
     <t xml:space="preserve">20.2146835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3412895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3581676483154</t>
+    <t xml:space="preserve">20.341287612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3581714630127</t>
   </si>
   <si>
     <t xml:space="preserve">20.400369644165</t>
@@ -803,22 +803,22 @@
     <t xml:space="preserve">20.7211036682129</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4594535827637</t>
+    <t xml:space="preserve">20.459451675415</t>
   </si>
   <si>
     <t xml:space="preserve">20.5691795349121</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5944957733154</t>
+    <t xml:space="preserve">20.5944976806641</t>
   </si>
   <si>
     <t xml:space="preserve">20.6789016723633</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3328475952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5438575744629</t>
+    <t xml:space="preserve">20.3328456878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5438556671143</t>
   </si>
   <si>
     <t xml:space="preserve">20.2568836212158</t>
@@ -827,28 +827,28 @@
     <t xml:space="preserve">20.5016555786133</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4172534942627</t>
+    <t xml:space="preserve">20.4172496795654</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036754608154</t>
   </si>
   <si>
-    <t xml:space="preserve">20.012113571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7589015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9614734649658</t>
+    <t xml:space="preserve">20.0121116638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.758903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9614696502686</t>
   </si>
   <si>
     <t xml:space="preserve">19.9023876190186</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4719314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4128475189209</t>
+    <t xml:space="preserve">19.4719276428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4128494262695</t>
   </si>
   <si>
     <t xml:space="preserve">19.5310115814209</t>
@@ -860,22 +860,22 @@
     <t xml:space="preserve">20.7886257171631</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2528457641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7761478424072</t>
+    <t xml:space="preserve">21.2528495788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7761497497559</t>
   </si>
   <si>
     <t xml:space="preserve">21.5651416778564</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9811038970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.22021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9469451904297</t>
+    <t xml:space="preserve">21.9811019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2202129364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9469470977783</t>
   </si>
   <si>
     <t xml:space="preserve">22.1177368164062</t>
@@ -893,52 +893,52 @@
     <t xml:space="preserve">21.5455799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5626602172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4943408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3918628692627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3235473632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3491649627686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5199604034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0152606964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0238018035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9640254974365</t>
+    <t xml:space="preserve">21.5626583099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4943428039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3918647766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3235454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3491668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5199642181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0152626037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0237998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9640216827393</t>
   </si>
   <si>
     <t xml:space="preserve">22.160436630249</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0664978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8615493774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8359260559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945915222168</t>
+    <t xml:space="preserve">22.066499710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8615455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8359279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945934295654</t>
   </si>
   <si>
     <t xml:space="preserve">21.2893886566162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6053581237793</t>
+    <t xml:space="preserve">21.6053562164307</t>
   </si>
   <si>
     <t xml:space="preserve">21.3150081634521</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">21.0673580169678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1356735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.964879989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1185970306396</t>
+    <t xml:space="preserve">21.1356754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9648818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.118595123291</t>
   </si>
   <si>
     <t xml:space="preserve">21.366247177124</t>
@@ -965,22 +965,22 @@
     <t xml:space="preserve">21.7419910430908</t>
   </si>
   <si>
-    <t xml:space="preserve">21.306468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9563407897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3073272705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1279926300049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7266311645508</t>
+    <t xml:space="preserve">21.3064708709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9563446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3073253631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1279945373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7266330718994</t>
   </si>
   <si>
     <t xml:space="preserve">19.624153137207</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">20.0340576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5472984313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0682144165039</t>
+    <t xml:space="preserve">19.5472965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0682163238525</t>
   </si>
   <si>
     <t xml:space="preserve">20.4354228973389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4866580963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954517364502</t>
+    <t xml:space="preserve">20.4866600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954536437988</t>
   </si>
   <si>
     <t xml:space="preserve">20.7513904571533</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">21.9298629760742</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6907501220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2031326293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3226852416992</t>
+    <t xml:space="preserve">21.6907520294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2031307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3226871490479</t>
   </si>
   <si>
     <t xml:space="preserve">22.0921192169189</t>
@@ -1043,46 +1043,46 @@
     <t xml:space="preserve">22.1348171234131</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5959568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4764022827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5874214172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3653869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9973239898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8521499633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5532608032227</t>
+    <t xml:space="preserve">22.5959587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4764041900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5874195098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3653888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9973220825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8521480560303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5532569885254</t>
   </si>
   <si>
     <t xml:space="preserve">22.4422435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8436069488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6813526153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1510372161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7752914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.620719909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1074810028076</t>
+    <t xml:space="preserve">22.8436088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6813545227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1510391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7752933502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6207180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1074771881104</t>
   </si>
   <si>
     <t xml:space="preserve">23.7402744293213</t>
@@ -1097,70 +1097,70 @@
     <t xml:space="preserve">24.3380508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6198577880859</t>
+    <t xml:space="preserve">24.3038921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6198596954346</t>
   </si>
   <si>
     <t xml:space="preserve">25.029764175415</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8931293487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2090950012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1407794952393</t>
+    <t xml:space="preserve">24.8931274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2090969085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1407814025879</t>
   </si>
   <si>
     <t xml:space="preserve">25.2005577087402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592250823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0724639892578</t>
+    <t xml:space="preserve">25.5592231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0724601745605</t>
   </si>
   <si>
     <t xml:space="preserve">25.1663990020752</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7564907073975</t>
+    <t xml:space="preserve">24.7564964294434</t>
   </si>
   <si>
     <t xml:space="preserve">24.6796360015869</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7735729217529</t>
+    <t xml:space="preserve">24.7735710144043</t>
   </si>
   <si>
     <t xml:space="preserve">25.1578559875488</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4225883483887</t>
+    <t xml:space="preserve">25.42258644104</t>
   </si>
   <si>
     <t xml:space="preserve">26.6864604949951</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2167778015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2850952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2338562011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0972213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0459823608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8751907348633</t>
+    <t xml:space="preserve">26.2167797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2850971221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2338542938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0972232818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0459842681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.875186920166</t>
   </si>
   <si>
     <t xml:space="preserve">25.8581123352051</t>
@@ -1169,13 +1169,13 @@
     <t xml:space="preserve">26.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2329978942871</t>
+    <t xml:space="preserve">27.2329959869385</t>
   </si>
   <si>
     <t xml:space="preserve">26.7291564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4131908416748</t>
+    <t xml:space="preserve">26.4131870269775</t>
   </si>
   <si>
     <t xml:space="preserve">25.3457317352295</t>
@@ -1184,22 +1184,22 @@
     <t xml:space="preserve">25.7641754150391</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9605865478516</t>
+    <t xml:space="preserve">25.9605884552002</t>
   </si>
   <si>
     <t xml:space="preserve">25.7812557220459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7035388946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5660438537598</t>
+    <t xml:space="preserve">26.7035369873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5660457611084</t>
   </si>
   <si>
     <t xml:space="preserve">27.2586154937744</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4370880126953</t>
+    <t xml:space="preserve">28.4370899200439</t>
   </si>
   <si>
     <t xml:space="preserve">29.1288032531738</t>
@@ -1211,64 +1211,64 @@
     <t xml:space="preserve">28.2406768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8555335998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3346138000488</t>
+    <t xml:space="preserve">28.8555355072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3346118927002</t>
   </si>
   <si>
     <t xml:space="preserve">28.0015678405762</t>
   </si>
   <si>
-    <t xml:space="preserve">26.515661239624</t>
+    <t xml:space="preserve">26.5156650543213</t>
   </si>
   <si>
     <t xml:space="preserve">26.1313800811768</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7043952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8239498138428</t>
+    <t xml:space="preserve">25.7043972015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8239517211914</t>
   </si>
   <si>
     <t xml:space="preserve">25.7897930145264</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4815063476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0630626678467</t>
+    <t xml:space="preserve">26.4815082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.063060760498</t>
   </si>
   <si>
     <t xml:space="preserve">25.9520473480225</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4302673339844</t>
+    <t xml:space="preserve">26.4302711486816</t>
   </si>
   <si>
     <t xml:space="preserve">26.8999500274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8401737213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9853496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9511871337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7974720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0195064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7718544006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5583629608154</t>
+    <t xml:space="preserve">26.8401718139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9853477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9511890411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7974739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0195045471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.771858215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5583648681641</t>
   </si>
   <si>
     <t xml:space="preserve">26.6437606811523</t>
@@ -1277,13 +1277,13 @@
     <t xml:space="preserve">26.7633152008057</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0280456542969</t>
+    <t xml:space="preserve">27.0280437469482</t>
   </si>
   <si>
     <t xml:space="preserve">27.3269348144531</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4388084411621</t>
+    <t xml:space="preserve">26.4388065338135</t>
   </si>
   <si>
     <t xml:space="preserve">26.276554107666</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">26.6096019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2509365081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6266822814941</t>
+    <t xml:space="preserve">26.2509346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6266803741455</t>
   </si>
   <si>
     <t xml:space="preserve">26.3192520141602</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">25.9264278411865</t>
   </si>
   <si>
-    <t xml:space="preserve">26.94264793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.052806854248</t>
+    <t xml:space="preserve">26.9426460266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0528049468994</t>
   </si>
   <si>
     <t xml:space="preserve">27.8820133209229</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7359828948975</t>
+    <t xml:space="preserve">28.7359809875488</t>
   </si>
   <si>
     <t xml:space="preserve">27.9674091339111</t>
@@ -1340,52 +1340,52 @@
     <t xml:space="preserve">28.0955047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6505813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2483558654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1382026672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9247093200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4550304412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3021755218506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8324928283691</t>
+    <t xml:space="preserve">28.6505832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2483577728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5651836395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.138204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.924711227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4550285339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.302173614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8324909210205</t>
   </si>
   <si>
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1493186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8145503997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6010627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3448734283447</t>
+    <t xml:space="preserve">25.149320602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8145542144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6010608673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3448715209961</t>
   </si>
   <si>
     <t xml:space="preserve">26.4729671478271</t>
   </si>
   <si>
-    <t xml:space="preserve">24.508846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6190032958984</t>
+    <t xml:space="preserve">24.5088424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6190013885498</t>
   </si>
   <si>
     <t xml:space="preserve">27.5404262542725</t>
@@ -1403,40 +1403,40 @@
     <t xml:space="preserve">21.6480560302734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7334518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6659927368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4772624969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2458305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7155151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8009090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5267810821533</t>
+    <t xml:space="preserve">21.7334537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.665994644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4772605895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2458324432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7155132293701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8009128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5267848968506</t>
   </si>
   <si>
     <t xml:space="preserve">22.8863067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9042472839355</t>
+    <t xml:space="preserve">21.9042434692383</t>
   </si>
   <si>
     <t xml:space="preserve">22.5020217895508</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3739261627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7582111358643</t>
+    <t xml:space="preserve">22.3739280700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7582130432129</t>
   </si>
   <si>
     <t xml:space="preserve">23.5694808959961</t>
@@ -1445,19 +1445,19 @@
     <t xml:space="preserve">23.2705917358398</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6975746154785</t>
+    <t xml:space="preserve">23.6975727081299</t>
   </si>
   <si>
     <t xml:space="preserve">23.099796295166</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4413871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2953548431396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8256683349609</t>
+    <t xml:space="preserve">23.441385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2953491210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8256721496582</t>
   </si>
   <si>
     <t xml:space="preserve">24.7650337219238</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">27.070743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9178905487061</t>
+    <t xml:space="preserve">25.9178886413574</t>
   </si>
   <si>
     <t xml:space="preserve">25.5763034820557</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4055080413818</t>
+    <t xml:space="preserve">25.4055099487305</t>
   </si>
   <si>
     <t xml:space="preserve">25.3628120422363</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4909038543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0032863616943</t>
+    <t xml:space="preserve">25.4909057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0032844543457</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164638519287</t>
@@ -1493,7 +1493,7 @@
     <t xml:space="preserve">25.8730525970459</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1335182189941</t>
+    <t xml:space="preserve">26.1335201263428</t>
   </si>
   <si>
     <t xml:space="preserve">26.4373970031738</t>
@@ -1514,52 +1514,52 @@
     <t xml:space="preserve">27.5660858154297</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4777202606201</t>
+    <t xml:space="preserve">28.4777240753174</t>
   </si>
   <si>
     <t xml:space="preserve">28.2606658935547</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4792652130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7412776947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.784688949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3071632385254</t>
+    <t xml:space="preserve">27.4792633056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7412757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7846870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3071613311768</t>
   </si>
   <si>
     <t xml:space="preserve">26.6110420227051</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9583282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5242195129395</t>
+    <t xml:space="preserve">26.9583320617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5242176055908</t>
   </si>
   <si>
     <t xml:space="preserve">26.9149188995361</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4358558654785</t>
+    <t xml:space="preserve">27.4358539581299</t>
   </si>
   <si>
     <t xml:space="preserve">27.0885639190674</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2187976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3490295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.175386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6094989776611</t>
+    <t xml:space="preserve">27.2187995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3490314483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1753883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6094970703125</t>
   </si>
   <si>
     <t xml:space="preserve">28.3908996582031</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">28.3474903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7877731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9180088043213</t>
+    <t xml:space="preserve">25.4389400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7877712249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9180068969727</t>
   </si>
   <si>
     <t xml:space="preserve">25.2218837738037</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0048294067383</t>
+    <t xml:space="preserve">25.0048274993896</t>
   </si>
   <si>
     <t xml:space="preserve">24.527307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9614181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0482387542725</t>
+    <t xml:space="preserve">24.9614162445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0482406616211</t>
   </si>
   <si>
     <t xml:space="preserve">25.0916500091553</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">25.395528793335</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5257606506348</t>
+    <t xml:space="preserve">25.525764465332</t>
   </si>
   <si>
     <t xml:space="preserve">26.6978645324707</t>
@@ -1607,16 +1607,16 @@
     <t xml:space="preserve">27.8265533447266</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1319751739502</t>
+    <t xml:space="preserve">27.1319770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.3056201934814</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8699645996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8280982971191</t>
+    <t xml:space="preserve">27.8699626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8280944824219</t>
   </si>
   <si>
     <t xml:space="preserve">27.9133777618408</t>
@@ -1625,64 +1625,64 @@
     <t xml:space="preserve">28.3040752410889</t>
   </si>
   <si>
-    <t xml:space="preserve">27.26220703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7397327423096</t>
+    <t xml:space="preserve">27.2622108459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7397308349609</t>
   </si>
   <si>
     <t xml:space="preserve">27.956787109375</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6529102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6994075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2234268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7908592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4869823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.964506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7924022674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7040405273438</t>
+    <t xml:space="preserve">27.6529083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.699405670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2234287261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7908611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4869804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9645042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7924041748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7040386199951</t>
   </si>
   <si>
     <t xml:space="preserve">22.5303936004639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1396903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8358154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6637115478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8373584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3582916259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2280597686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8776817321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9660453796387</t>
+    <t xml:space="preserve">22.1396923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8358135223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6637134552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8373565673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3582897186279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2280578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8776836395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9660472869873</t>
   </si>
   <si>
     <t xml:space="preserve">23.0079154968262</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">23.1381492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.35520362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838539123535</t>
+    <t xml:space="preserve">24.049783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3552055358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838558197021</t>
   </si>
   <si>
     <t xml:space="preserve">18.3195095062256</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">19.1009101867676</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4047927856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6218452453613</t>
+    <t xml:space="preserve">19.4047889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6218433380127</t>
   </si>
   <si>
     <t xml:space="preserve">19.7520771026611</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5350189208984</t>
+    <t xml:space="preserve">19.5350227355957</t>
   </si>
   <si>
     <t xml:space="preserve">19.7954883575439</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">20.3164215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4900703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4466552734375</t>
+    <t xml:space="preserve">20.4900684356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4466571807861</t>
   </si>
   <si>
     <t xml:space="preserve">20.012544631958</t>
@@ -1757,103 +1757,103 @@
     <t xml:space="preserve">18.6233882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2326889038086</t>
+    <t xml:space="preserve">18.0156326293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.23268699646</t>
   </si>
   <si>
     <t xml:space="preserve">17.7985763549805</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4512882232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.581521987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7117519378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.364465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3179683685303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0993690490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3598346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5334777832031</t>
+    <t xml:space="preserve">17.451286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5815200805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7117538452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3644638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.144323348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3179664611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0993671417236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3598365783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5334796905518</t>
   </si>
   <si>
     <t xml:space="preserve">20.4032440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7939472198486</t>
+    <t xml:space="preserve">20.880765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7939453125</t>
   </si>
   <si>
     <t xml:space="preserve">21.5319347381592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6621685028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3148765563965</t>
+    <t xml:space="preserve">21.6621704101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3148803710938</t>
   </si>
   <si>
     <t xml:space="preserve">21.0978240966797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7505359649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2296009063721</t>
+    <t xml:space="preserve">20.7505340576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2295989990234</t>
   </si>
   <si>
     <t xml:space="preserve">21.0110034942627</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6203002929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9241809844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1861896514893</t>
+    <t xml:space="preserve">20.6203022003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9241790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1861915588379</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730140686035</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9691333770752</t>
+    <t xml:space="preserve">19.9691352844238</t>
   </si>
   <si>
     <t xml:space="preserve">18.1458644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3470993041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4078750610352</t>
+    <t xml:space="preserve">17.3471012115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4078769683838</t>
   </si>
   <si>
     <t xml:space="preserve">17.2950057983398</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2602767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9288082122803</t>
+    <t xml:space="preserve">17.2602787017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9288101196289</t>
   </si>
   <si>
     <t xml:space="preserve">18.0590419769287</t>
@@ -1871,34 +1871,34 @@
     <t xml:space="preserve">19.5176582336426</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2398262023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9446315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5105171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4931545257568</t>
+    <t xml:space="preserve">19.2398281097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9446296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.51051902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4931526184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.9619960784912</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0140895843506</t>
+    <t xml:space="preserve">19.014087677002</t>
   </si>
   <si>
     <t xml:space="preserve">18.5278835296631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6494331359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8578090667725</t>
+    <t xml:space="preserve">18.649435043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8578071594238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1182765960693</t>
@@ -1910,55 +1910,55 @@
     <t xml:space="preserve">17.3991947174072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4339237213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3123722076416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2705039978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1836814880371</t>
+    <t xml:space="preserve">17.4339218139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.312370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2705020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">16.0187206268311</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5672416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3501873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3935976028442</t>
+    <t xml:space="preserve">15.5672426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3501863479614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3935966491699</t>
   </si>
   <si>
     <t xml:space="preserve">16.383373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8087997436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7132987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.801661491394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7929830551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7842979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3849143981934</t>
+    <t xml:space="preserve">16.8088035583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7132968902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016633987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7929801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7842988967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3849153518677</t>
   </si>
   <si>
     <t xml:space="preserve">15.5498781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0768413543701</t>
+    <t xml:space="preserve">16.0768432617188</t>
   </si>
   <si>
     <t xml:space="preserve">16.0947036743164</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">15.4337682723999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5677423477173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3801784515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3623161315918</t>
+    <t xml:space="preserve">15.5677404403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3801794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3623151779175</t>
   </si>
   <si>
     <t xml:space="preserve">15.5320148468018</t>
@@ -1982,52 +1982,52 @@
     <t xml:space="preserve">15.2551355361938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6213302612305</t>
+    <t xml:space="preserve">15.6213312149048</t>
   </si>
   <si>
     <t xml:space="preserve">16.7645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.434103012085</t>
+    <t xml:space="preserve">16.4341049194336</t>
   </si>
   <si>
     <t xml:space="preserve">15.6391944885254</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2372713088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1836833953857</t>
+    <t xml:space="preserve">15.2372722625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1836843490601</t>
   </si>
   <si>
     <t xml:space="preserve">14.897873878479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0943670272827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3176574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1390256881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9335994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7371044158936</t>
+    <t xml:space="preserve">15.094367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3176565170288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1390266418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9335985183716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7371034622192</t>
   </si>
   <si>
     <t xml:space="preserve">14.8800106048584</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5588092803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2640695571899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0229148864746</t>
+    <t xml:space="preserve">15.5588102340698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.264066696167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0229139328003</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
@@ -2039,16 +2039,16 @@
     <t xml:space="preserve">15.1300945281982</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0407791137695</t>
+    <t xml:space="preserve">15.0407772064209</t>
   </si>
   <si>
     <t xml:space="preserve">15.0586414337158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6299257278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3619775772095</t>
+    <t xml:space="preserve">14.6299247741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3619785308838</t>
   </si>
   <si>
     <t xml:space="preserve">14.4155673980713</t>
@@ -2060,64 +2060,64 @@
     <t xml:space="preserve">14.2994575500488</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7367687225342</t>
+    <t xml:space="preserve">13.7367668151855</t>
   </si>
   <si>
     <t xml:space="preserve">13.9332628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1032972335815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7906951904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5674047470093</t>
+    <t xml:space="preserve">15.1032981872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7906942367554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.567403793335</t>
   </si>
   <si>
     <t xml:space="preserve">14.4959516525269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8707408905029</t>
+    <t xml:space="preserve">13.8707418441772</t>
   </si>
   <si>
     <t xml:space="preserve">14.245867729187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2905254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833477020264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8260831832886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7992897033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8618097305298</t>
+    <t xml:space="preserve">14.2905263900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833457946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8260841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7992887496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8618106842041</t>
   </si>
   <si>
     <t xml:space="preserve">12.7632255554199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5038738250732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5128059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4860095977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0662269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2716522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7182302474976</t>
+    <t xml:space="preserve">11.5038728713989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5128040313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4860105514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0662260055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2716512680054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7182312011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805843353271</t>
@@ -2126,25 +2126,25 @@
     <t xml:space="preserve">11.5753259658813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7092990875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4145574569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.316309928894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2895154953003</t>
+    <t xml:space="preserve">11.7092981338501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4145565032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3163089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2895164489746</t>
   </si>
   <si>
     <t xml:space="preserve">10.7536201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6021203994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3788299560547</t>
+    <t xml:space="preserve">11.6021194458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.378830909729</t>
   </si>
   <si>
     <t xml:space="preserve">11.1912679672241</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">11.2537889480591</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9236574172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1022891998291</t>
+    <t xml:space="preserve">11.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1022882461548</t>
   </si>
   <si>
     <t xml:space="preserve">12.2362623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2630577087402</t>
+    <t xml:space="preserve">12.2630567550659</t>
   </si>
   <si>
     <t xml:space="preserve">12.3166475296021</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">12.3523731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6381826400757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0219049453735</t>
+    <t xml:space="preserve">12.63818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0219058990479</t>
   </si>
   <si>
     <t xml:space="preserve">12.0665626525879</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">11.6914358139038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4324207305908</t>
+    <t xml:space="preserve">11.4324216842651</t>
   </si>
   <si>
     <t xml:space="preserve">11.8432722091675</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">11.7628889083862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2359256744385</t>
+    <t xml:space="preserve">11.2359266281128</t>
   </si>
   <si>
     <t xml:space="preserve">10.9858417510986</t>
@@ -2213,34 +2213,34 @@
     <t xml:space="preserve">11.182336807251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5574626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6289157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5931882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6735725402832</t>
+    <t xml:space="preserve">11.5574617385864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6289167404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.593189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6735734939575</t>
   </si>
   <si>
     <t xml:space="preserve">11.5395994186401</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5485315322876</t>
+    <t xml:space="preserve">11.5485305786133</t>
   </si>
   <si>
     <t xml:space="preserve">11.8164777755737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2719879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3880996704102</t>
+    <t xml:space="preserve">12.2719888687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541255950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3880987167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.9779195785522</t>
@@ -2252,25 +2252,25 @@
     <t xml:space="preserve">13.8886041641235</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1744155883789</t>
+    <t xml:space="preserve">14.1744146347046</t>
   </si>
   <si>
     <t xml:space="preserve">14.3441143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2101421356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1211614608765</t>
+    <t xml:space="preserve">14.2101411819458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1211624145508</t>
   </si>
   <si>
     <t xml:space="preserve">14.5316781997681</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9157371520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5584716796875</t>
+    <t xml:space="preserve">14.9157381057739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5584726333618</t>
   </si>
   <si>
     <t xml:space="preserve">14.4512948989868</t>
@@ -2282,67 +2282,67 @@
     <t xml:space="preserve">14.5227470397949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1568880081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3444519042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.657057762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.264404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3087253570557</t>
+    <t xml:space="preserve">15.156888961792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3444528579712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6570568084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2644023895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.30872631073</t>
   </si>
   <si>
     <t xml:space="preserve">15.2729997634888</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6749200820923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7017154693604</t>
+    <t xml:space="preserve">15.674919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.701714515686</t>
   </si>
   <si>
     <t xml:space="preserve">15.4069728851318</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7553052902222</t>
+    <t xml:space="preserve">15.7553033828735</t>
   </si>
   <si>
     <t xml:space="preserve">15.8892774581909</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0679092407227</t>
+    <t xml:space="preserve">16.067907333374</t>
   </si>
   <si>
     <t xml:space="preserve">16.4073104858398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.219747543335</t>
+    <t xml:space="preserve">16.2197456359863</t>
   </si>
   <si>
     <t xml:space="preserve">15.1747522354126</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0675735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0318450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926136016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442850112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8264207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2908630371094</t>
+    <t xml:space="preserve">15.067572593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0318470001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926145553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8264198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2908639907837</t>
   </si>
   <si>
     <t xml:space="preserve">14.808557510376</t>
@@ -2351,22 +2351,22 @@
     <t xml:space="preserve">15.2015476226807</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0854349136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2104778289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4962892532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3798418045044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6120634078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1654844284058</t>
+    <t xml:space="preserve">15.0854358673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2104787826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4962882995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3798408508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6120624542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1654834747314</t>
   </si>
   <si>
     <t xml:space="preserve">13.9689893722534</t>
@@ -2378,34 +2378,34 @@
     <t xml:space="preserve">14.2012100219727</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1122312545776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9693269729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9961214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2194118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2283420562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8889417648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334316253662</t>
+    <t xml:space="preserve">15.112232208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9693250656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9961204528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.219409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2283411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8889408111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334306716919</t>
   </si>
   <si>
     <t xml:space="preserve">14.0761671066284</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1740770339966</t>
+    <t xml:space="preserve">13.1740789413452</t>
   </si>
   <si>
     <t xml:space="preserve">12.9418573379517</t>
@@ -2420,19 +2420,19 @@
     <t xml:space="preserve">12.1916036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0040416717529</t>
+    <t xml:space="preserve">12.0040407180786</t>
   </si>
   <si>
     <t xml:space="preserve">10.834005355835</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3070411682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88725662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177248001099</t>
+    <t xml:space="preserve">10.3070421218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88725757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177257537842</t>
   </si>
   <si>
     <t xml:space="preserve">8.48053359985352</t>
@@ -2444,13 +2444,13 @@
     <t xml:space="preserve">8.67702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72168731689453</t>
+    <t xml:space="preserve">8.72168636322021</t>
   </si>
   <si>
     <t xml:space="preserve">8.35102558135986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03842067718506</t>
+    <t xml:space="preserve">8.03842163085938</t>
   </si>
   <si>
     <t xml:space="preserve">9.55678844451904</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">9.94084644317627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0480251312256</t>
+    <t xml:space="preserve">10.0480260848999</t>
   </si>
   <si>
     <t xml:space="preserve">9.90512084960938</t>
@@ -2477,10 +2477,10 @@
     <t xml:space="preserve">9.53892517089844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.619309425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0033674240112</t>
+    <t xml:space="preserve">9.61931037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0033683776855</t>
   </si>
   <si>
     <t xml:space="preserve">9.94977855682373</t>
@@ -2489,13 +2489,13 @@
     <t xml:space="preserve">10.0926837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5839214324951</t>
+    <t xml:space="preserve">10.5839204788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.6285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5392637252808</t>
+    <t xml:space="preserve">10.5392627716064</t>
   </si>
   <si>
     <t xml:space="preserve">10.2355890274048</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">10.4588785171509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5481958389282</t>
+    <t xml:space="preserve">10.5481948852539</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982788085938</t>
@@ -2516,31 +2516,31 @@
     <t xml:space="preserve">10.8250732421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.94118309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.468147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7450256347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4770784378052</t>
+    <t xml:space="preserve">10.9411840438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4681463241577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7450246810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4770793914795</t>
   </si>
   <si>
     <t xml:space="preserve">10.4499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427686691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623825073242</t>
+    <t xml:space="preserve">10.3427677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623834609985</t>
   </si>
   <si>
     <t xml:space="preserve">9.76221561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97657299041748</t>
+    <t xml:space="preserve">9.9765739440918</t>
   </si>
   <si>
     <t xml:space="preserve">9.98550510406494</t>
@@ -2555,10 +2555,10 @@
     <t xml:space="preserve">9.70862579345703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82473754882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29777336120605</t>
+    <t xml:space="preserve">9.82473659515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29777240753174</t>
   </si>
   <si>
     <t xml:space="preserve">9.36922550201416</t>
@@ -2576,22 +2576,22 @@
     <t xml:space="preserve">10.1016159057617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.333836555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7360935211182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3609685897827</t>
+    <t xml:space="preserve">10.3338356018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7360944747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3609676361084</t>
   </si>
   <si>
     <t xml:space="preserve">11.0572948455811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7357568740845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0837535858154</t>
+    <t xml:space="preserve">10.7357587814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0837526321411</t>
   </si>
   <si>
     <t xml:space="preserve">10.4523181915283</t>
@@ -2603,16 +2603,16 @@
     <t xml:space="preserve">10.6815357208252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6998729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.663197517395</t>
+    <t xml:space="preserve">10.6998739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6631984710693</t>
   </si>
   <si>
     <t xml:space="preserve">10.5531740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.956597328186</t>
+    <t xml:space="preserve">10.9565963745117</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073308944702</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">10.3881378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047643661499</t>
+    <t xml:space="preserve">10.2047634124756</t>
   </si>
   <si>
     <t xml:space="preserve">10.113076210022</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73715972900391</t>
+    <t xml:space="preserve">9.73716068267822</t>
   </si>
   <si>
     <t xml:space="preserve">10.0305576324463</t>
@@ -2636,10 +2636,10 @@
     <t xml:space="preserve">9.87469005584717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99388313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95720863342285</t>
+    <t xml:space="preserve">9.99388217926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95720767974854</t>
   </si>
   <si>
     <t xml:space="preserve">9.86552238464355</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">9.46209812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34290599822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0488967895508</t>
+    <t xml:space="preserve">9.34290409088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0488948822021</t>
   </si>
   <si>
     <t xml:space="preserve">9.65464115142822</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">9.81967830657959</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63630485534668</t>
+    <t xml:space="preserve">9.63630390167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.7921724319458</t>
@@ -2678,19 +2678,19 @@
     <t xml:space="preserve">9.9113655090332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74632835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45293045043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8557405471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9474277496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9382591247559</t>
+    <t xml:space="preserve">9.74632930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45292949676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8557415008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9474267959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9382600784302</t>
   </si>
   <si>
     <t xml:space="preserve">11.5158882141113</t>
@@ -2708,28 +2708,28 @@
     <t xml:space="preserve">11.6259126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4242000579834</t>
+    <t xml:space="preserve">11.4242010116577</t>
   </si>
   <si>
     <t xml:space="preserve">11.3233451843262</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1491384506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0666208267212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.791561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7273797988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6265230178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4706563949585</t>
+    <t xml:space="preserve">11.1491394042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0666198730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7915601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7273788452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6265239715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4706554412842</t>
   </si>
   <si>
     <t xml:space="preserve">10.4248123168945</t>
@@ -2738,7 +2738,7 @@
     <t xml:space="preserve">10.5898485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6081867218018</t>
+    <t xml:space="preserve">10.6081857681274</t>
   </si>
   <si>
     <t xml:space="preserve">10.5164995193481</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">10.48899269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8282356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2591638565063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2775011062622</t>
+    <t xml:space="preserve">10.8282346725464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.259162902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2775020599365</t>
   </si>
   <si>
     <t xml:space="preserve">10.9749345779419</t>
@@ -2783,28 +2783,28 @@
     <t xml:space="preserve">10.8740787506104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0116100311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2133207321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1308031082153</t>
+    <t xml:space="preserve">11.0116090774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2133197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.130802154541</t>
   </si>
   <si>
     <t xml:space="preserve">10.9932718276978</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0941286087036</t>
+    <t xml:space="preserve">11.0941276550293</t>
   </si>
   <si>
     <t xml:space="preserve">11.0849590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0757894515991</t>
+    <t xml:space="preserve">11.0391159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0757904052734</t>
   </si>
   <si>
     <t xml:space="preserve">10.9841022491455</t>
@@ -2816,52 +2816,52 @@
     <t xml:space="preserve">10.5623435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4798250198364</t>
+    <t xml:space="preserve">10.4798240661621</t>
   </si>
   <si>
     <t xml:space="preserve">10.3056192398071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3514633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0855712890625</t>
+    <t xml:space="preserve">10.3514623641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0855703353882</t>
   </si>
   <si>
     <t xml:space="preserve">9.44376182556152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26038837432861</t>
+    <t xml:space="preserve">9.2603874206543</t>
   </si>
   <si>
     <t xml:space="preserve">8.77903079986572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95323657989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06784534454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57212162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61796569824219</t>
+    <t xml:space="preserve">8.9532356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06784439086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6179666519165</t>
   </si>
   <si>
     <t xml:space="preserve">9.32456874847412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42542362213135</t>
+    <t xml:space="preserve">9.42542457580566</t>
   </si>
   <si>
     <t xml:space="preserve">10.4339809417725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1680898666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4425382614136</t>
+    <t xml:space="preserve">10.1680889129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4425373077393</t>
   </si>
   <si>
     <t xml:space="preserve">11.6809234619141</t>
@@ -2870,31 +2870,31 @@
     <t xml:space="preserve">12.1760339736938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9370365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.964542388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.175422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4694318771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0929040908813</t>
+    <t xml:space="preserve">12.9370355606079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9645433425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1754217147827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4694328308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.092903137207</t>
   </si>
   <si>
     <t xml:space="preserve">12.7903366088867</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7078189849854</t>
+    <t xml:space="preserve">12.707818031311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8086748123169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2585525512695</t>
+    <t xml:space="preserve">12.2585515975952</t>
   </si>
   <si>
     <t xml:space="preserve">12.6619758605957</t>
@@ -2909,10 +2909,10 @@
     <t xml:space="preserve">12.5336141586304</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6528062820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7261562347412</t>
+    <t xml:space="preserve">12.6528072357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7261571884155</t>
   </si>
   <si>
     <t xml:space="preserve">12.6344680786133</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">12.4786005020142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5977935791016</t>
+    <t xml:space="preserve">12.5977945327759</t>
   </si>
   <si>
     <t xml:space="preserve">12.6069631576538</t>
@@ -2933,10 +2933,10 @@
     <t xml:space="preserve">13.2946147918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1020727157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287227630615</t>
+    <t xml:space="preserve">13.102071762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287237167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.184591293335</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">12.8361806869507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0562295913696</t>
+    <t xml:space="preserve">13.0562286376953</t>
   </si>
   <si>
     <t xml:space="preserve">13.1295785903931</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">13.5421714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4504833221436</t>
+    <t xml:space="preserve">13.4504823684692</t>
   </si>
   <si>
     <t xml:space="preserve">13.6246891021729</t>
@@ -2984,19 +2984,19 @@
     <t xml:space="preserve">13.9639301300049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8630743026733</t>
+    <t xml:space="preserve">13.8630752563477</t>
   </si>
   <si>
     <t xml:space="preserve">13.8997497558594</t>
   </si>
   <si>
-    <t xml:space="preserve">13.386302947998</t>
+    <t xml:space="preserve">13.3863039016724</t>
   </si>
   <si>
     <t xml:space="preserve">13.2487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5880146026611</t>
+    <t xml:space="preserve">13.5880136489868</t>
   </si>
   <si>
     <t xml:space="preserve">13.6155204772949</t>
@@ -3008,22 +3008,22 @@
     <t xml:space="preserve">13.9547624588013</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0647869110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8355693817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8722438812256</t>
+    <t xml:space="preserve">14.0647859573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8355684280396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8722429275513</t>
   </si>
   <si>
     <t xml:space="preserve">14.4773778915405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7157640457153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7982816696167</t>
+    <t xml:space="preserve">14.715763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.798282623291</t>
   </si>
   <si>
     <t xml:space="preserve">15.100848197937</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">15.2108736038208</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1100168228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2750558853149</t>
+    <t xml:space="preserve">15.1100187301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2750549316406</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083070755005</t>
@@ -3044,28 +3044,28 @@
     <t xml:space="preserve">14.4223651885986</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7891130447388</t>
+    <t xml:space="preserve">14.7891120910645</t>
   </si>
   <si>
     <t xml:space="preserve">14.3948593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0916805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3850793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4309215545654</t>
+    <t xml:space="preserve">15.0916795730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3850803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4309225082397</t>
   </si>
   <si>
     <t xml:space="preserve">15.3392353057861</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7518262863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9260330200195</t>
+    <t xml:space="preserve">15.7518272399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9260320663452</t>
   </si>
   <si>
     <t xml:space="preserve">16.1185760498047</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">15.1650314331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3300666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4859352111816</t>
+    <t xml:space="preserve">15.3300647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4859342575073</t>
   </si>
   <si>
     <t xml:space="preserve">17.1454696655273</t>
@@ -3110,55 +3110,55 @@
     <t xml:space="preserve">16.1919250488281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3294544219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1094074249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2010955810547</t>
+    <t xml:space="preserve">16.3294563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1094055175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2010936737061</t>
   </si>
   <si>
     <t xml:space="preserve">16.0818996429443</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9902143478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9718770980835</t>
+    <t xml:space="preserve">15.990213394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9718761444092</t>
   </si>
   <si>
     <t xml:space="preserve">16.0360565185547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0268878936768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.999382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8801898956299</t>
+    <t xml:space="preserve">16.0268898010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9993810653687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068380355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8801889419556</t>
   </si>
   <si>
     <t xml:space="preserve">16.1827564239502</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7609968185425</t>
+    <t xml:space="preserve">15.7609958648682</t>
   </si>
   <si>
     <t xml:space="preserve">15.6234664916992</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5501136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825177192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.650972366333</t>
+    <t xml:space="preserve">15.5501155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8251762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6509704589844</t>
   </si>
   <si>
     <t xml:space="preserve">15.7334899902344</t>
@@ -3170,19 +3170,19 @@
     <t xml:space="preserve">15.8893575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5776233673096</t>
+    <t xml:space="preserve">15.5776224136353</t>
   </si>
   <si>
     <t xml:space="preserve">15.8435144424438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0085487365723</t>
+    <t xml:space="preserve">16.0085506439209</t>
   </si>
   <si>
     <t xml:space="preserve">16.0543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.568452835083</t>
+    <t xml:space="preserve">15.5684518814087</t>
   </si>
   <si>
     <t xml:space="preserve">15.1283550262451</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">17.6039047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2915592193604</t>
+    <t xml:space="preserve">18.2915573120117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3190631866455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9608745574951</t>
+    <t xml:space="preserve">18.9608726501465</t>
   </si>
   <si>
     <t xml:space="preserve">19.1809215545654</t>
@@ -3209,34 +3209,34 @@
     <t xml:space="preserve">19.7632808685303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.412015914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6523551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3750419616699</t>
+    <t xml:space="preserve">19.4120178222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6523571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3750400543213</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817687988281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7447929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3179092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8926944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0590858459473</t>
+    <t xml:space="preserve">19.7447948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3179111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8926963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0590839385986</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9111843109131</t>
+    <t xml:space="preserve">19.9111824035645</t>
   </si>
   <si>
     <t xml:space="preserve">19.800256729126</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">19.0977268218994</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6153812408447</t>
+    <t xml:space="preserve">19.6153793334961</t>
   </si>
   <si>
     <t xml:space="preserve">19.4489917755127</t>
@@ -3257,13 +3257,13 @@
     <t xml:space="preserve">19.1347026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6338672637939</t>
+    <t xml:space="preserve">19.6338691711426</t>
   </si>
   <si>
     <t xml:space="preserve">19.19016456604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.153190612793</t>
+    <t xml:space="preserve">19.1531887054443</t>
   </si>
   <si>
     <t xml:space="preserve">19.0422649383545</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">18.9128494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6909980773926</t>
+    <t xml:space="preserve">18.6909999847412</t>
   </si>
   <si>
     <t xml:space="preserve">18.7834377288818</t>
@@ -3293,25 +3293,25 @@
     <t xml:space="preserve">18.5246105194092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3859519958496</t>
+    <t xml:space="preserve">18.3859539031982</t>
   </si>
   <si>
     <t xml:space="preserve">18.2195625305176</t>
   </si>
   <si>
-    <t xml:space="preserve">17.988468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3212451934814</t>
+    <t xml:space="preserve">17.9884662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3212471008301</t>
   </si>
   <si>
     <t xml:space="preserve">18.8573875427246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7094879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3397350311279</t>
+    <t xml:space="preserve">18.7094860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3397331237793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0439319610596</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">17.4523277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2380504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0901489257812</t>
+    <t xml:space="preserve">18.2380523681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0901508331299</t>
   </si>
   <si>
     <t xml:space="preserve">18.2288074493408</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">18.6540241241455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6170463562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3951950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4876365661621</t>
+    <t xml:space="preserve">18.6170482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3951969146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4876346588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.7019100189209</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">17.9237613677979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0161991119385</t>
+    <t xml:space="preserve">18.0162010192871</t>
   </si>
   <si>
     <t xml:space="preserve">18.1918334960938</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">17.5077896118164</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4893016815186</t>
+    <t xml:space="preserve">17.4893035888672</t>
   </si>
   <si>
     <t xml:space="preserve">17.2951812744141</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">18.7464618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5430965423584</t>
+    <t xml:space="preserve">18.543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">18.4414157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4599018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1363716125488</t>
+    <t xml:space="preserve">18.459903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1363697052002</t>
   </si>
   <si>
     <t xml:space="preserve">17.8775424957275</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">17.1195507049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5464344024658</t>
+    <t xml:space="preserve">16.5464324951172</t>
   </si>
   <si>
     <t xml:space="preserve">16.2783622741699</t>
@@ -3458,61 +3458,61 @@
     <t xml:space="preserve">16.1119747161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7699518203735</t>
+    <t xml:space="preserve">15.7699527740479</t>
   </si>
   <si>
     <t xml:space="preserve">16.0657539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7514667510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9640731811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.927098274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7607078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8531465530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8439025878906</t>
+    <t xml:space="preserve">15.7514657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9640741348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9270973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7607069015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8531475067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8439016342163</t>
   </si>
   <si>
     <t xml:space="preserve">16.2506313323975</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8901233673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8254165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7144899368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5481004714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3354940414429</t>
+    <t xml:space="preserve">15.8901224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8254156112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7144889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5481014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3354930877686</t>
   </si>
   <si>
     <t xml:space="preserve">15.1043977737427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6884260177612</t>
+    <t xml:space="preserve">14.6884269714355</t>
   </si>
   <si>
     <t xml:space="preserve">14.762375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5220375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5775003433228</t>
+    <t xml:space="preserve">14.5220365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5775012969971</t>
   </si>
   <si>
     <t xml:space="preserve">14.8917903900146</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">15.0119590759277</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0489349365234</t>
+    <t xml:space="preserve">15.0489358901978</t>
   </si>
   <si>
     <t xml:space="preserve">14.632963180542</t>
@@ -3533,25 +3533,25 @@
     <t xml:space="preserve">16.8976974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2615432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1875925064087</t>
+    <t xml:space="preserve">15.2615423202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1875915527344</t>
   </si>
   <si>
     <t xml:space="preserve">14.8825464248657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8178396224976</t>
+    <t xml:space="preserve">14.8178405761719</t>
   </si>
   <si>
     <t xml:space="preserve">14.7531328201294</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4943056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2724533081055</t>
+    <t xml:space="preserve">14.4943065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2724542617798</t>
   </si>
   <si>
     <t xml:space="preserve">14.4480867385864</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.6716060638428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0598468780518</t>
+    <t xml:space="preserve">14.0598459243774</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732877731323</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">14.327917098999</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1985025405884</t>
+    <t xml:space="preserve">14.1985034942627</t>
   </si>
   <si>
     <t xml:space="preserve">14.2262353897095</t>
@@ -3593,10 +3593,10 @@
     <t xml:space="preserve">13.8749704360962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2909421920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9674072265625</t>
+    <t xml:space="preserve">14.2909412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9674081802368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9119453430176</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">14.2354784011841</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3833799362183</t>
+    <t xml:space="preserve">14.3833808898926</t>
   </si>
   <si>
     <t xml:space="preserve">14.1060657501221</t>
@@ -3635,13 +3635,13 @@
     <t xml:space="preserve">13.4682416915894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6068992614746</t>
+    <t xml:space="preserve">13.6069002151489</t>
   </si>
   <si>
     <t xml:space="preserve">13.4220237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3203411102295</t>
+    <t xml:space="preserve">13.3203401565552</t>
   </si>
   <si>
     <t xml:space="preserve">13.3110971450806</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">13.0152950286865</t>
   </si>
   <si>
-    <t xml:space="preserve">12.220326423645</t>
+    <t xml:space="preserve">12.2203273773193</t>
   </si>
   <si>
     <t xml:space="preserve">12.1556196212769</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">12.4883975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4236907958984</t>
+    <t xml:space="preserve">12.4236898422241</t>
   </si>
   <si>
     <t xml:space="preserve">12.737979888916</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">12.5715923309326</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1001567840576</t>
+    <t xml:space="preserve">12.1001577377319</t>
   </si>
   <si>
     <t xml:space="preserve">12.0262069702148</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">11.3514070510864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3329210281372</t>
+    <t xml:space="preserve">11.3329200744629</t>
   </si>
   <si>
     <t xml:space="preserve">11.7396478652954</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">11.4715766906738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2219953536987</t>
+    <t xml:space="preserve">11.2219944000244</t>
   </si>
   <si>
     <t xml:space="preserve">11.5917472839355</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">10.0110540390015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0387859344482</t>
+    <t xml:space="preserve">10.0387849807739</t>
   </si>
   <si>
     <t xml:space="preserve">10.5379514694214</t>
@@ -3770,16 +3770,16 @@
     <t xml:space="preserve">9.32701206207275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30852317810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7060079574585</t>
+    <t xml:space="preserve">9.3085241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70600891113281</t>
   </si>
   <si>
     <t xml:space="preserve">9.49340057373047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2715482711792</t>
+    <t xml:space="preserve">9.27154922485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.13289165496826</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">9.03583145141602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68456745147705</t>
+    <t xml:space="preserve">8.68456649780273</t>
   </si>
   <si>
     <t xml:space="preserve">8.64759063720703</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">8.85095500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76313877105713</t>
+    <t xml:space="preserve">8.76313781738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.67994499206543</t>
@@ -3824,10 +3824,10 @@
     <t xml:space="preserve">8.77238273620605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72154235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83709049224854</t>
+    <t xml:space="preserve">8.72154140472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83708953857422</t>
   </si>
   <si>
     <t xml:space="preserve">8.53204345703125</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">8.40725231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27321720123291</t>
+    <t xml:space="preserve">8.27321624755859</t>
   </si>
   <si>
     <t xml:space="preserve">8.52279949188232</t>
@@ -3860,16 +3860,16 @@
     <t xml:space="preserve">8.31943607330322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19002151489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94968318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06985187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03749847412109</t>
+    <t xml:space="preserve">8.19002246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94968366622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06985282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03749942779541</t>
   </si>
   <si>
     <t xml:space="preserve">8.16691303253174</t>
@@ -61079,7 +61079,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6496296296</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>50541</v>
@@ -61100,6 +61100,32 @@
         <v>1573</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.649525463</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>42502</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>5.98999977111816</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>5.92999982833862</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>5.98000001907349</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>5.92999982833862</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="1679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1680">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4113368988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4030313491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0874719619751</t>
+    <t xml:space="preserve">13.411337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4030332565308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0874729156494</t>
   </si>
   <si>
     <t xml:space="preserve">12.5809125900269</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">12.4563503265381</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8715620040894</t>
+    <t xml:space="preserve">12.871561050415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1372976303101</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6106367111206</t>
+    <t xml:space="preserve">13.6106386184692</t>
   </si>
   <si>
     <t xml:space="preserve">13.1206893920898</t>
@@ -74,37 +74,37 @@
     <t xml:space="preserve">13.0210380554199</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2950782775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6473474502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9795160293579</t>
+    <t xml:space="preserve">13.2950773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9795169830322</t>
   </si>
   <si>
     <t xml:space="preserve">12.7719106674194</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9462995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7885189056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3483963012695</t>
+    <t xml:space="preserve">12.9462985992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.788519859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3483943939209</t>
   </si>
   <si>
     <t xml:space="preserve">12.2072229385376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840572357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5345811843872</t>
+    <t xml:space="preserve">12.5726118087769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840581893921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">12.0245294570923</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">12.057746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1075735092163</t>
+    <t xml:space="preserve">12.107572555542</t>
   </si>
   <si>
     <t xml:space="preserve">11.9165754318237</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4397411346436</t>
+    <t xml:space="preserve">12.4397420883179</t>
   </si>
   <si>
     <t xml:space="preserve">12.0826587677002</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">12.2902660369873</t>
   </si>
   <si>
-    <t xml:space="preserve">12.414831161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.248743057251</t>
+    <t xml:space="preserve">12.4148292541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2487459182739</t>
   </si>
   <si>
     <t xml:space="preserve">12.240439414978</t>
@@ -143,7 +143,7 @@
     <t xml:space="preserve">11.9580945968628</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7338829040527</t>
+    <t xml:space="preserve">11.7338809967041</t>
   </si>
   <si>
     <t xml:space="preserve">12.556001663208</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">13.0376462936401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8300399780273</t>
+    <t xml:space="preserve">12.8300409317017</t>
   </si>
   <si>
     <t xml:space="preserve">12.7054777145386</t>
   </si>
   <si>
-    <t xml:space="preserve">12.746997833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7137813568115</t>
+    <t xml:space="preserve">12.7469987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7137823104858</t>
   </si>
   <si>
     <t xml:space="preserve">13.4528589248657</t>
@@ -173,28 +173,28 @@
     <t xml:space="preserve">13.6189422607422</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5857257843018</t>
+    <t xml:space="preserve">13.5857267379761</t>
   </si>
   <si>
     <t xml:space="preserve">13.7850284576416</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9262008666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0258502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9926347732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1171960830688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2417612075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2666721343994</t>
+    <t xml:space="preserve">13.9261999130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0258483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9926328659058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1171979904175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2417593002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2666730880737</t>
   </si>
   <si>
     <t xml:space="preserve">14.0175457000732</t>
@@ -203,10 +203,10 @@
     <t xml:space="preserve">13.6770715713501</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3781213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7601156234741</t>
+    <t xml:space="preserve">13.378119468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7601165771484</t>
   </si>
   <si>
     <t xml:space="preserve">13.7518100738525</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">13.8431568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6272459030151</t>
+    <t xml:space="preserve">13.6272468566895</t>
   </si>
   <si>
     <t xml:space="preserve">13.6604652404785</t>
@@ -224,25 +224,25 @@
     <t xml:space="preserve">13.7352027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7185945510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687669754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3199920654297</t>
+    <t xml:space="preserve">13.7185955047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687688827515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3199901580811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2203397750854</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2701644897461</t>
+    <t xml:space="preserve">13.2701654434204</t>
   </si>
   <si>
     <t xml:space="preserve">13.4943790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2037315368652</t>
+    <t xml:space="preserve">13.2037305831909</t>
   </si>
   <si>
     <t xml:space="preserve">13.0791664123535</t>
@@ -260,28 +260,28 @@
     <t xml:space="preserve">12.7449560165405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7027540206909</t>
+    <t xml:space="preserve">12.7027549743652</t>
   </si>
   <si>
     <t xml:space="preserve">12.5761489868164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5086259841919</t>
+    <t xml:space="preserve">12.5086240768433</t>
   </si>
   <si>
     <t xml:space="preserve">12.8209199905396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8293581008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8968811035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8631210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8884439468384</t>
+    <t xml:space="preserve">12.8293600082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8968830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8631200790405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8884420394897</t>
   </si>
   <si>
     <t xml:space="preserve">13.1078929901123</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">13.6649580001831</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539461135864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.496148109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4455080032349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2176160812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9728450775146</t>
+    <t xml:space="preserve">13.4539470672607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4961490631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4455070495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2176170349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.972846031189</t>
   </si>
   <si>
     <t xml:space="preserve">12.913763999939</t>
@@ -320,49 +320,49 @@
     <t xml:space="preserve">12.3144979476929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9600019454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8418369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4113798141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6223878860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1710109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605539321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1794519424438</t>
+    <t xml:space="preserve">11.9600028991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.841835975647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4113788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.622386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.171010017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1794528961182</t>
   </si>
   <si>
     <t xml:space="preserve">11.9262399673462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.052845954895</t>
+    <t xml:space="preserve">12.0528450012207</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847719192505</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5673427581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9724788665771</t>
+    <t xml:space="preserve">10.5673418045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9724798202515</t>
   </si>
   <si>
     <t xml:space="preserve">11.5633039474487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2132139205933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2047729492188</t>
+    <t xml:space="preserve">12.2132129669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2047739028931</t>
   </si>
   <si>
     <t xml:space="preserve">11.7827548980713</t>
@@ -371,19 +371,19 @@
     <t xml:space="preserve">11.5211019515991</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620208740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658729553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2976160049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3229389190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1372499465942</t>
+    <t xml:space="preserve">11.4620189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658720016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2976179122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3229379653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1372489929199</t>
   </si>
   <si>
     <t xml:space="preserve">12.4748649597168</t>
@@ -392,25 +392,25 @@
     <t xml:space="preserve">12.1541299819946</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579830169678</t>
+    <t xml:space="preserve">12.4579839706421</t>
   </si>
   <si>
     <t xml:space="preserve">12.3735790252686</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7871580123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0403690338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5214700698853</t>
+    <t xml:space="preserve">12.7871570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0403680801392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5214710235596</t>
   </si>
   <si>
     <t xml:space="preserve">13.6902770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311941146851</t>
+    <t xml:space="preserve">13.6311950683594</t>
   </si>
   <si>
     <t xml:space="preserve">13.7662410736084</t>
@@ -419,61 +419,61 @@
     <t xml:space="preserve">13.8000020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6227531433105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7155981063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.002571105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9478912353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6018371582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0491781234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5343132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8550500869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4121112823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4880771636963</t>
+    <t xml:space="preserve">13.6227550506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0025701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9478902816772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6018362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0491771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.53431224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8550481796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4121122360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4880781173706</t>
   </si>
   <si>
     <t xml:space="preserve">15.3445892333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.547158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192682266235</t>
+    <t xml:space="preserve">15.5471601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192672729492</t>
   </si>
   <si>
     <t xml:space="preserve">15.1082592010498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0154161453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699102401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4796333312988</t>
+    <t xml:space="preserve">15.0154151916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699111938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4796342849731</t>
   </si>
   <si>
     <t xml:space="preserve">15.8594532012939</t>
   </si>
   <si>
-    <t xml:space="preserve">15.893214225769</t>
+    <t xml:space="preserve">15.8932123184204</t>
   </si>
   <si>
     <t xml:space="preserve">15.8678913116455</t>
@@ -482,40 +482,40 @@
     <t xml:space="preserve">15.8256902694702</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7834911346436</t>
+    <t xml:space="preserve">15.7834920883179</t>
   </si>
   <si>
     <t xml:space="preserve">16.0451412200928</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1801872253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2139472961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.112663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0367012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5978002548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4458703994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5640411376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5133962631226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.623122215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2477111816406</t>
+    <t xml:space="preserve">16.1801853179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2139492034912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1126613616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0366992950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5978021621704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4458723068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640392303467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6231212615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.247709274292</t>
   </si>
   <si>
     <t xml:space="preserve">16.1970672607422</t>
@@ -530,31 +530,31 @@
     <t xml:space="preserve">16.1464233398438</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0029392242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9100923538208</t>
+    <t xml:space="preserve">16.0029373168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9100933074951</t>
   </si>
   <si>
     <t xml:space="preserve">16.289909362793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9691781997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7497301101685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146841049194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9438552856445</t>
+    <t xml:space="preserve">15.9691791534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7497291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146802902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9438543319702</t>
   </si>
   <si>
     <t xml:space="preserve">16.0789012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0620212554932</t>
+    <t xml:space="preserve">16.0620231628418</t>
   </si>
   <si>
     <t xml:space="preserve">16.1211032867432</t>
@@ -569,121 +569,121 @@
     <t xml:space="preserve">15.3614721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6990842819214</t>
+    <t xml:space="preserve">15.6990852355957</t>
   </si>
   <si>
     <t xml:space="preserve">15.9944982528687</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5555992126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.251745223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2686233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044061660767</t>
+    <t xml:space="preserve">15.5555963516235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2517471313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2686262130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.804407119751</t>
   </si>
   <si>
     <t xml:space="preserve">15.133581161499</t>
   </si>
   <si>
-    <t xml:space="preserve">14.981653213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926622390747</t>
+    <t xml:space="preserve">14.9816541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926641464233</t>
   </si>
   <si>
     <t xml:space="preserve">14.9141302108765</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1167001724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2770681381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1673412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0069732666016</t>
+    <t xml:space="preserve">15.11669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2770690917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1673402786255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0069742202759</t>
   </si>
   <si>
     <t xml:space="preserve">14.7959651947021</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0238552093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6356000900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3486261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0616521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0194520950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.83376121521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5889930725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9688091278076</t>
+    <t xml:space="preserve">15.0238571166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6355991363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3486270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0194501876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8337621688843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5889940261841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9688100814819</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557811737061</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4499111175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5933952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8972492218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.686240196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7159652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7750492095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4374341964722</t>
+    <t xml:space="preserve">14.4499101638794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5933971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8972501754761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6862392425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7159643173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.775050163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4374322891235</t>
   </si>
   <si>
     <t xml:space="preserve">15.5724811553955</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6484432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0113773345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.365873336792</t>
+    <t xml:space="preserve">15.6484422683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0113792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3658752441406</t>
   </si>
   <si>
     <t xml:space="preserve">16.3152313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2983493804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2223873138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1379833221436</t>
+    <t xml:space="preserve">16.2983512878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2223854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1379852294922</t>
   </si>
   <si>
     <t xml:space="preserve">16.3743114471436</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">16.1633033752441</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9522953033447</t>
+    <t xml:space="preserve">15.8510131835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9522981643677</t>
   </si>
   <si>
     <t xml:space="preserve">16.6022033691406</t>
@@ -716,76 +716,76 @@
     <t xml:space="preserve">16.7963333129883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1508293151855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1001873016357</t>
+    <t xml:space="preserve">17.1508274078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1001834869385</t>
   </si>
   <si>
     <t xml:space="preserve">17.3449554443359</t>
   </si>
   <si>
-    <t xml:space="preserve">17.395601272583</t>
+    <t xml:space="preserve">17.3955993652344</t>
   </si>
   <si>
     <t xml:space="preserve">17.1339473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2605514526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9482593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7625694274902</t>
+    <t xml:space="preserve">17.260555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9482612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7625713348389</t>
   </si>
   <si>
     <t xml:space="preserve">16.5431232452393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8807373046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7878932952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8300933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2858734130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7247714996338</t>
+    <t xml:space="preserve">16.8807353973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7878894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8300971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2858753204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7247734069824</t>
   </si>
   <si>
     <t xml:space="preserve">17.8091773986816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8767013549805</t>
+    <t xml:space="preserve">17.8767032623291</t>
   </si>
   <si>
     <t xml:space="preserve">18.2311954498291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3746814727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6447715759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2862396240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6660556793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.640739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9530296325684</t>
+    <t xml:space="preserve">18.3746795654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.644775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2862415313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6407375335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.953031539917</t>
   </si>
   <si>
     <t xml:space="preserve">20.2146816253662</t>
@@ -806,40 +806,40 @@
     <t xml:space="preserve">20.459451675415</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5691795349121</t>
+    <t xml:space="preserve">20.5691776275635</t>
   </si>
   <si>
     <t xml:space="preserve">20.5944976806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6789035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3328456878662</t>
+    <t xml:space="preserve">20.6789016723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3328475952148</t>
   </si>
   <si>
     <t xml:space="preserve">20.5438575744629</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2568836212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5016555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4172496795654</t>
+    <t xml:space="preserve">20.2568855285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5016536712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4172534942627</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036735534668</t>
   </si>
   <si>
-    <t xml:space="preserve">20.012113571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7589015960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9614696502686</t>
+    <t xml:space="preserve">20.0121116638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.758903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9614715576172</t>
   </si>
   <si>
     <t xml:space="preserve">19.9023876190186</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">19.4719295501709</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4128475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5310115814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1049575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7886276245117</t>
+    <t xml:space="preserve">19.4128456115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5310096740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1049556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7886257171631</t>
   </si>
   <si>
     <t xml:space="preserve">21.2528495788574</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7761497497559</t>
+    <t xml:space="preserve">21.7761516571045</t>
   </si>
   <si>
     <t xml:space="preserve">21.5651416778564</t>
@@ -881,22 +881,22 @@
     <t xml:space="preserve">22.1177368164062</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7846927642822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0323390960693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6301174163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5455799102783</t>
+    <t xml:space="preserve">21.7846908569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0323429107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6301193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5455780029297</t>
   </si>
   <si>
     <t xml:space="preserve">21.5626602172852</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4943389892578</t>
+    <t xml:space="preserve">21.4943408966064</t>
   </si>
   <si>
     <t xml:space="preserve">21.3918647766113</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">21.3235473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3491706848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5199604034424</t>
+    <t xml:space="preserve">21.3491687774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5199584960938</t>
   </si>
   <si>
     <t xml:space="preserve">22.0152626037598</t>
@@ -917,10 +917,10 @@
     <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9640235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.160436630249</t>
+    <t xml:space="preserve">21.9640216827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1604347229004</t>
   </si>
   <si>
     <t xml:space="preserve">22.0664978027344</t>
@@ -929,37 +929,37 @@
     <t xml:space="preserve">21.8615493774414</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8359298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945934295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2893924713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6053562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3150062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8111686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0673599243164</t>
+    <t xml:space="preserve">21.8359279632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945915222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2893905639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.605354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3150081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8111667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0673580169678</t>
   </si>
   <si>
     <t xml:space="preserve">21.1356735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">20.964879989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.118595123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.366247177124</t>
+    <t xml:space="preserve">20.9648818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1185970306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3662452697754</t>
   </si>
   <si>
     <t xml:space="preserve">21.7419910430908</t>
@@ -968,7 +968,7 @@
     <t xml:space="preserve">21.306468963623</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9563407897949</t>
+    <t xml:space="preserve">20.9563426971436</t>
   </si>
   <si>
     <t xml:space="preserve">20.3073272705078</t>
@@ -977,31 +977,31 @@
     <t xml:space="preserve">20.1279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9059638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7266311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0340557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0682144165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4354228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4866580963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954517364502</t>
+    <t xml:space="preserve">19.9059619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7266292572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6241550445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0340576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5472984313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0682163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4354248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4866600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954536437988</t>
   </si>
   <si>
     <t xml:space="preserve">20.7513885498047</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">21.2296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8017692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7932300567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9298629760742</t>
+    <t xml:space="preserve">21.8017711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7932319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9298648834229</t>
   </si>
   <si>
     <t xml:space="preserve">21.6907520294189</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2031307220459</t>
+    <t xml:space="preserve">22.2031326293945</t>
   </si>
   <si>
     <t xml:space="preserve">22.3226890563965</t>
@@ -1040,13 +1040,13 @@
     <t xml:space="preserve">21.6992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1348171234131</t>
+    <t xml:space="preserve">22.1348152160645</t>
   </si>
   <si>
     <t xml:space="preserve">22.5959587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4764041900635</t>
+    <t xml:space="preserve">22.4764060974121</t>
   </si>
   <si>
     <t xml:space="preserve">22.5874195098877</t>
@@ -1061,52 +1061,52 @@
     <t xml:space="preserve">22.8521480560303</t>
   </si>
   <si>
-    <t xml:space="preserve">22.553258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4422416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8436069488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6813526153564</t>
+    <t xml:space="preserve">22.5532608032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4422435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8436088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6813545227051</t>
   </si>
   <si>
     <t xml:space="preserve">23.1510372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7752914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6207180023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1074771881104</t>
+    <t xml:space="preserve">22.7752933502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6207160949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.107479095459</t>
   </si>
   <si>
     <t xml:space="preserve">23.7402744293213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1843357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1160182952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3380508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6198616027832</t>
+    <t xml:space="preserve">24.1843376159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1160202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3380527496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3038921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6198596954346</t>
   </si>
   <si>
     <t xml:space="preserve">25.029764175415</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8931293487549</t>
+    <t xml:space="preserve">24.8931274414062</t>
   </si>
   <si>
     <t xml:space="preserve">25.2090950012207</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">25.1407794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2005577087402</t>
+    <t xml:space="preserve">25.2005558013916</t>
   </si>
   <si>
     <t xml:space="preserve">25.5592231750488</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0724620819092</t>
+    <t xml:space="preserve">25.0724639892578</t>
   </si>
   <si>
     <t xml:space="preserve">25.1663990020752</t>
@@ -1130,19 +1130,19 @@
     <t xml:space="preserve">24.7564926147461</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6796379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7735729217529</t>
+    <t xml:space="preserve">24.6796360015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7735710144043</t>
   </si>
   <si>
     <t xml:space="preserve">25.1578578948975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4225883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6864585876465</t>
+    <t xml:space="preserve">25.42258644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6864604949951</t>
   </si>
   <si>
     <t xml:space="preserve">26.2167778015137</t>
@@ -1163,10 +1163,10 @@
     <t xml:space="preserve">25.8751907348633</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8581104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9597282409668</t>
+    <t xml:space="preserve">25.8581123352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9597263336182</t>
   </si>
   <si>
     <t xml:space="preserve">27.2329978942871</t>
@@ -1175,13 +1175,13 @@
     <t xml:space="preserve">26.7291564941406</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4131927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3457336425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7641735076904</t>
+    <t xml:space="preserve">26.4131889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3457317352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7641754150391</t>
   </si>
   <si>
     <t xml:space="preserve">25.9605865478516</t>
@@ -1193,31 +1193,31 @@
     <t xml:space="preserve">26.7035388946533</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5660419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2586193084717</t>
+    <t xml:space="preserve">27.5660438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2586154937744</t>
   </si>
   <si>
     <t xml:space="preserve">28.4370899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1288032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7274398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2406749725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8555374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3346138000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0015659332275</t>
+    <t xml:space="preserve">29.1288070678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7274379730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2406787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8555355072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3346176147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0015678405762</t>
   </si>
   <si>
     <t xml:space="preserve">26.5156631469727</t>
@@ -1235,10 +1235,10 @@
     <t xml:space="preserve">25.789794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4815063476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0630626678467</t>
+    <t xml:space="preserve">26.4815044403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0630645751953</t>
   </si>
   <si>
     <t xml:space="preserve">25.9520454406738</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">26.8999500274658</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8401737213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9853496551514</t>
+    <t xml:space="preserve">26.8401718139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9853477478027</t>
   </si>
   <si>
     <t xml:space="preserve">26.9511871337891</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">26.7718563079834</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5583629608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6437587738037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7633171081543</t>
+    <t xml:space="preserve">26.5583648681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.643762588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7633190155029</t>
   </si>
   <si>
     <t xml:space="preserve">27.0280456542969</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">26.276554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6616992950439</t>
+    <t xml:space="preserve">25.6616973876953</t>
   </si>
   <si>
     <t xml:space="preserve">26.6096038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2509346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6266822814941</t>
+    <t xml:space="preserve">26.2509326934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6266803741455</t>
   </si>
   <si>
     <t xml:space="preserve">26.3192539215088</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">26.94264793396</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0528030395508</t>
+    <t xml:space="preserve">28.0528011322021</t>
   </si>
   <si>
     <t xml:space="preserve">27.8820133209229</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">28.7359790802002</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9674110412598</t>
+    <t xml:space="preserve">27.9674091339111</t>
   </si>
   <si>
     <t xml:space="preserve">27.7966175079346</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4123287200928</t>
+    <t xml:space="preserve">27.4123306274414</t>
   </si>
   <si>
     <t xml:space="preserve">26.8572521209717</t>
@@ -1340,22 +1340,22 @@
     <t xml:space="preserve">28.0955047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6505794525146</t>
+    <t xml:space="preserve">28.6505813598633</t>
   </si>
   <si>
     <t xml:space="preserve">29.2483577728271</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5651836395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1382026672363</t>
+    <t xml:space="preserve">28.565185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1382007598877</t>
   </si>
   <si>
     <t xml:space="preserve">27.924711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4550285339355</t>
+    <t xml:space="preserve">27.4550304412842</t>
   </si>
   <si>
     <t xml:space="preserve">26.302173614502</t>
@@ -1364,13 +1364,13 @@
     <t xml:space="preserve">25.8324928283691</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0212211608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1493186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8145542144775</t>
+    <t xml:space="preserve">25.0212230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.149320602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8145523071289</t>
   </si>
   <si>
     <t xml:space="preserve">26.6010627746582</t>
@@ -1379,13 +1379,13 @@
     <t xml:space="preserve">26.3448715209961</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4729671478271</t>
+    <t xml:space="preserve">26.4729652404785</t>
   </si>
   <si>
     <t xml:space="preserve">24.5088443756104</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6189994812012</t>
+    <t xml:space="preserve">25.6190013885498</t>
   </si>
   <si>
     <t xml:space="preserve">27.5404262542725</t>
@@ -1397,37 +1397,37 @@
     <t xml:space="preserve">24.7223358154297</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1783714294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6480560302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7334518432617</t>
+    <t xml:space="preserve">21.178373336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6480579376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7334537506104</t>
   </si>
   <si>
     <t xml:space="preserve">20.665994644165</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4772624969482</t>
+    <t xml:space="preserve">21.4772605895996</t>
   </si>
   <si>
     <t xml:space="preserve">22.2458324432373</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7155151367188</t>
+    <t xml:space="preserve">22.7155132293701</t>
   </si>
   <si>
     <t xml:space="preserve">22.800910949707</t>
   </si>
   <si>
-    <t xml:space="preserve">23.526782989502</t>
+    <t xml:space="preserve">23.5267810821533</t>
   </si>
   <si>
     <t xml:space="preserve">22.8863067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9042453765869</t>
+    <t xml:space="preserve">21.9042434692383</t>
   </si>
   <si>
     <t xml:space="preserve">22.5020236968994</t>
@@ -1436,46 +1436,46 @@
     <t xml:space="preserve">22.3739261627197</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7582130432129</t>
+    <t xml:space="preserve">22.7582111358643</t>
   </si>
   <si>
     <t xml:space="preserve">23.5694828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2705917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6975765228271</t>
+    <t xml:space="preserve">23.2705936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6975746154785</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997982025146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.441385269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.295352935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8256683349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7650356292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0707454681396</t>
+    <t xml:space="preserve">23.4413871765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2953510284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8256702423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7650318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.070743560791</t>
   </si>
   <si>
     <t xml:space="preserve">25.9178905487061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5763034820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4055080413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.362813949585</t>
+    <t xml:space="preserve">25.576301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4055099487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3628120422363</t>
   </si>
   <si>
     <t xml:space="preserve">25.4909038543701</t>
@@ -1487,19 +1487,19 @@
     <t xml:space="preserve">25.9164638519287</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3087062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8730525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1335201263428</t>
+    <t xml:space="preserve">25.308708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8730506896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1335182189941</t>
   </si>
   <si>
     <t xml:space="preserve">26.4373970031738</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6544532775879</t>
+    <t xml:space="preserve">26.6544551849365</t>
   </si>
   <si>
     <t xml:space="preserve">27.0451526641846</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">27.0017433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5676307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5660858154297</t>
+    <t xml:space="preserve">26.5676288604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5660877227783</t>
   </si>
   <si>
     <t xml:space="preserve">28.4777221679688</t>
@@ -1529,43 +1529,43 @@
     <t xml:space="preserve">26.7846870422363</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3071632385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6110420227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9583320617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5242195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9149208068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4358539581299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.088565826416</t>
+    <t xml:space="preserve">26.3071613311768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6110439300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9583282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9149188995361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4358558654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0885639190674</t>
   </si>
   <si>
     <t xml:space="preserve">27.2187995910645</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3490314483643</t>
+    <t xml:space="preserve">27.3490295410156</t>
   </si>
   <si>
     <t xml:space="preserve">27.1753883361816</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6094970703125</t>
+    <t xml:space="preserve">27.6094951629639</t>
   </si>
   <si>
     <t xml:space="preserve">28.3908996582031</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3474903106689</t>
+    <t xml:space="preserve">28.3474884033203</t>
   </si>
   <si>
     <t xml:space="preserve">25.4389400482178</t>
@@ -1574,19 +1574,19 @@
     <t xml:space="preserve">24.7877731323242</t>
   </si>
   <si>
-    <t xml:space="preserve">24.918004989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2218837738037</t>
+    <t xml:space="preserve">24.9180068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2218818664551</t>
   </si>
   <si>
     <t xml:space="preserve">25.0048294067383</t>
   </si>
   <si>
-    <t xml:space="preserve">24.527307510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9614181518555</t>
+    <t xml:space="preserve">24.5273056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9614162445068</t>
   </si>
   <si>
     <t xml:space="preserve">25.0482406616211</t>
@@ -1598,19 +1598,19 @@
     <t xml:space="preserve">25.3955307006836</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5257625579834</t>
+    <t xml:space="preserve">25.525764465332</t>
   </si>
   <si>
     <t xml:space="preserve">26.6978645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8265533447266</t>
+    <t xml:space="preserve">27.8265552520752</t>
   </si>
   <si>
     <t xml:space="preserve">27.1319770812988</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3056221008301</t>
+    <t xml:space="preserve">27.3056201934814</t>
   </si>
   <si>
     <t xml:space="preserve">27.8699645996094</t>
@@ -1622,19 +1622,19 @@
     <t xml:space="preserve">27.9133777618408</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3040771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2622108459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7397327423096</t>
+    <t xml:space="preserve">28.3040752410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2622089385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7397308349609</t>
   </si>
   <si>
     <t xml:space="preserve">27.9567890167236</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6529121398926</t>
+    <t xml:space="preserve">27.6529083251953</t>
   </si>
   <si>
     <t xml:space="preserve">25.6994075775146</t>
@@ -1646,34 +1646,34 @@
     <t xml:space="preserve">22.7908592224121</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4869823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.964506149292</t>
+    <t xml:space="preserve">22.4869804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9645042419434</t>
   </si>
   <si>
     <t xml:space="preserve">21.7924041748047</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7040386199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5303936004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8358154296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6637115478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8373565673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3582935333252</t>
+    <t xml:space="preserve">22.7040367126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5303916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1396903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8358135223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6637096405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8373584747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3582916259766</t>
   </si>
   <si>
     <t xml:space="preserve">21.2280578613281</t>
@@ -1688,13 +1688,13 @@
     <t xml:space="preserve">23.0079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1381492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.35520362854</t>
+    <t xml:space="preserve">23.1381511688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0497817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3552017211914</t>
   </si>
   <si>
     <t xml:space="preserve">18.8838558197021</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">18.4063320159912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5365657806396</t>
+    <t xml:space="preserve">18.536563873291</t>
   </si>
   <si>
     <t xml:space="preserve">18.7536220550537</t>
@@ -1715,70 +1715,70 @@
     <t xml:space="preserve">19.1009120941162</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4047889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6218452453613</t>
+    <t xml:space="preserve">19.4047908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6218433380127</t>
   </si>
   <si>
     <t xml:space="preserve">19.7520771026611</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5350208282471</t>
+    <t xml:space="preserve">19.5350227355957</t>
   </si>
   <si>
     <t xml:space="preserve">19.7954883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3164234161377</t>
+    <t xml:space="preserve">20.3164215087891</t>
   </si>
   <si>
     <t xml:space="preserve">20.4900703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4466571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0125465393066</t>
+    <t xml:space="preserve">20.4466590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.012544631958</t>
   </si>
   <si>
     <t xml:space="preserve">20.0559577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.927267074585</t>
+    <t xml:space="preserve">18.9272651672363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6667995452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.668342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6233882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0156326293945</t>
+    <t xml:space="preserve">17.6683444976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6233901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0156307220459</t>
   </si>
   <si>
     <t xml:space="preserve">18.23268699646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7985782623291</t>
+    <t xml:space="preserve">17.7985763549805</t>
   </si>
   <si>
     <t xml:space="preserve">17.451286315918</t>
   </si>
   <si>
-    <t xml:space="preserve">17.581521987915</t>
+    <t xml:space="preserve">17.5815200805664</t>
   </si>
   <si>
     <t xml:space="preserve">17.7117538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.364465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.144323348999</t>
+    <t xml:space="preserve">17.3644638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443214416504</t>
   </si>
   <si>
     <t xml:space="preserve">19.3179664611816</t>
@@ -1787,28 +1787,28 @@
     <t xml:space="preserve">20.0993671417236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3598346710205</t>
+    <t xml:space="preserve">20.3598327636719</t>
   </si>
   <si>
     <t xml:space="preserve">20.5334796905518</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4032459259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.880765914917</t>
+    <t xml:space="preserve">20.4032440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8807678222656</t>
   </si>
   <si>
     <t xml:space="preserve">20.7939472198486</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5319366455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6621704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3148784637451</t>
+    <t xml:space="preserve">21.5319347381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6621723175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3148803710938</t>
   </si>
   <si>
     <t xml:space="preserve">21.0978221893311</t>
@@ -1832,7 +1832,7 @@
     <t xml:space="preserve">20.1861915588379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2730140686035</t>
+    <t xml:space="preserve">20.2730121612549</t>
   </si>
   <si>
     <t xml:space="preserve">19.9691333770752</t>
@@ -1841,7 +1841,7 @@
     <t xml:space="preserve">18.1458644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3471012115479</t>
+    <t xml:space="preserve">17.3470993041992</t>
   </si>
   <si>
     <t xml:space="preserve">17.4078750610352</t>
@@ -1853,10 +1853,10 @@
     <t xml:space="preserve">17.2602767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9288101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0590419769287</t>
+    <t xml:space="preserve">17.9288082122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0590438842773</t>
   </si>
   <si>
     <t xml:space="preserve">18.1805934906006</t>
@@ -1865,28 +1865,28 @@
     <t xml:space="preserve">18.2153224945068</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1877346038818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5176582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2398281097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9446296691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.51051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4931545257568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9619960784912</t>
+    <t xml:space="preserve">19.1877326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5176563262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2398262023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9446315765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5105171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4931526184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9619941711426</t>
   </si>
   <si>
     <t xml:space="preserve">19.014087677002</t>
@@ -1901,43 +1901,43 @@
     <t xml:space="preserve">18.8578090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1182765960693</t>
+    <t xml:space="preserve">19.1182746887207</t>
   </si>
   <si>
     <t xml:space="preserve">18.6320686340332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3991966247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4339237213135</t>
+    <t xml:space="preserve">17.3991947174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4339218139648</t>
   </si>
   <si>
     <t xml:space="preserve">17.3123722076416</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2705039978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1836814880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0187206268311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5672416687012</t>
+    <t xml:space="preserve">16.2705020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1836795806885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0187187194824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5672435760498</t>
   </si>
   <si>
     <t xml:space="preserve">15.3501863479614</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3935956954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3833751678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8088035583496</t>
+    <t xml:space="preserve">15.3935976028442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3833713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.808801651001</t>
   </si>
   <si>
     <t xml:space="preserve">16.7132968902588</t>
@@ -1946,19 +1946,19 @@
     <t xml:space="preserve">15.8016633987427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7929830551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7842998504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3849143981934</t>
+    <t xml:space="preserve">15.7929801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7842988967896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3849153518677</t>
   </si>
   <si>
     <t xml:space="preserve">15.5498781204224</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0768413543701</t>
+    <t xml:space="preserve">16.0768432617188</t>
   </si>
   <si>
     <t xml:space="preserve">16.0947036743164</t>
@@ -1967,22 +1967,22 @@
     <t xml:space="preserve">15.4337682723999</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5677404403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3801784515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3623161315918</t>
+    <t xml:space="preserve">15.5677423477173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3801794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3623151779175</t>
   </si>
   <si>
     <t xml:space="preserve">15.5320148468018</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2551355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6213321685791</t>
+    <t xml:space="preserve">15.2551364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6213312149048</t>
   </si>
   <si>
     <t xml:space="preserve">16.7645721435547</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">16.4341049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.639196395874</t>
+    <t xml:space="preserve">15.6391944885254</t>
   </si>
   <si>
     <t xml:space="preserve">15.2372722625732</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">14.897873878479</t>
   </si>
   <si>
-    <t xml:space="preserve">15.094367980957</t>
+    <t xml:space="preserve">15.0943670272827</t>
   </si>
   <si>
     <t xml:space="preserve">15.3176574707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1390266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9335985183716</t>
+    <t xml:space="preserve">15.1390256881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9335975646973</t>
   </si>
   <si>
     <t xml:space="preserve">14.7371044158936</t>
@@ -2021,28 +2021,28 @@
     <t xml:space="preserve">14.8800096511841</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5588092803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.264066696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0229139328003</t>
+    <t xml:space="preserve">15.5588083267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2640676498413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0229148864746</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7374429702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1300926208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0407781600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0586423873901</t>
+    <t xml:space="preserve">15.7374420166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1300954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0407791137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0586414337158</t>
   </si>
   <si>
     <t xml:space="preserve">14.6299247741699</t>
@@ -2051,10 +2051,10 @@
     <t xml:space="preserve">14.3619785308838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.415566444397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4691572189331</t>
+    <t xml:space="preserve">14.4155673980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4691581726074</t>
   </si>
   <si>
     <t xml:space="preserve">14.2994575500488</t>
@@ -2066,10 +2066,10 @@
     <t xml:space="preserve">13.9332628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1032991409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7906942367554</t>
+    <t xml:space="preserve">15.1033000946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7906923294067</t>
   </si>
   <si>
     <t xml:space="preserve">14.567403793335</t>
@@ -2093,13 +2093,13 @@
     <t xml:space="preserve">13.8260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7992887496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8618097305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7632246017456</t>
+    <t xml:space="preserve">13.7992877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8618106842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7632255554199</t>
   </si>
   <si>
     <t xml:space="preserve">11.5038728713989</t>
@@ -2111,16 +2111,16 @@
     <t xml:space="preserve">11.4860095977783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662250518799</t>
+    <t xml:space="preserve">11.0662260055542</t>
   </si>
   <si>
     <t xml:space="preserve">11.2716522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7182312011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2805843353271</t>
+    <t xml:space="preserve">11.7182302474976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2805833816528</t>
   </si>
   <si>
     <t xml:space="preserve">11.5753259658813</t>
@@ -2129,43 +2129,43 @@
     <t xml:space="preserve">11.7092990875244</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4145574569702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3163089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2895164489746</t>
+    <t xml:space="preserve">11.4145565032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.316309928894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2895154953003</t>
   </si>
   <si>
     <t xml:space="preserve">10.7536201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6021194458008</t>
+    <t xml:space="preserve">11.6021203994751</t>
   </si>
   <si>
     <t xml:space="preserve">11.378830909729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1912679672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2537889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9236574172974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1022891998291</t>
+    <t xml:space="preserve">11.1912670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2537899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1022901535034</t>
   </si>
   <si>
     <t xml:space="preserve">12.2362623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2630577087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3166475296021</t>
+    <t xml:space="preserve">12.2630567550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3166465759277</t>
   </si>
   <si>
     <t xml:space="preserve">12.3255786895752</t>
@@ -2183,34 +2183,34 @@
     <t xml:space="preserve">12.3523731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6381826400757</t>
+    <t xml:space="preserve">12.63818359375</t>
   </si>
   <si>
     <t xml:space="preserve">12.0219049453735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665626525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6914358139038</t>
+    <t xml:space="preserve">12.0665616989136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6914367675781</t>
   </si>
   <si>
     <t xml:space="preserve">11.4324207305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8432722091675</t>
+    <t xml:space="preserve">11.8432731628418</t>
   </si>
   <si>
     <t xml:space="preserve">11.7628889083862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2359256744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9858427047729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.182336807251</t>
+    <t xml:space="preserve">11.2359266281128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9858417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1823358535767</t>
   </si>
   <si>
     <t xml:space="preserve">11.5574617385864</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">11.6289157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.593189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6735734939575</t>
+    <t xml:space="preserve">11.5931882858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6735725402832</t>
   </si>
   <si>
     <t xml:space="preserve">11.5395994186401</t>
@@ -2231,10 +2231,10 @@
     <t xml:space="preserve">11.5485305786133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8164777755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2719879150391</t>
+    <t xml:space="preserve">11.816478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2719888687134</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541265487671</t>
@@ -2243,7 +2243,7 @@
     <t xml:space="preserve">12.3880996704102</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9779186248779</t>
+    <t xml:space="preserve">13.9779205322266</t>
   </si>
   <si>
     <t xml:space="preserve">13.8439474105835</t>
@@ -2261,61 +2261,61 @@
     <t xml:space="preserve">14.2101421356201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1211633682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5316781997681</t>
+    <t xml:space="preserve">15.1211614608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5316791534424</t>
   </si>
   <si>
     <t xml:space="preserve">14.9157371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5584726333618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4512948989868</t>
+    <t xml:space="preserve">14.5584707260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4512939453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.1029624938965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5227460861206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.156888961792</t>
+    <t xml:space="preserve">14.5227470397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1568880081177</t>
   </si>
   <si>
     <t xml:space="preserve">15.3444519042969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6570568084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2644023895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3087253570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2729997634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6749181747437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7017135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7553052902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8892793655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0679092407227</t>
+    <t xml:space="preserve">15.6570587158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.264404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3087244033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6749210357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7017154693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069728851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7553033828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8892803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.067907333374</t>
   </si>
   <si>
     <t xml:space="preserve">16.4073104858398</t>
@@ -2324,46 +2324,46 @@
     <t xml:space="preserve">16.219747543335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1747512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0675735473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0318460464478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926145553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8264188766479</t>
+    <t xml:space="preserve">15.1747522354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0675745010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0318470001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926155090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442850112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8264207839966</t>
   </si>
   <si>
     <t xml:space="preserve">15.2908630371094</t>
   </si>
   <si>
-    <t xml:space="preserve">14.808557510376</t>
+    <t xml:space="preserve">14.8085565567017</t>
   </si>
   <si>
     <t xml:space="preserve">15.2015466690063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0854349136353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2104778289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4962892532349</t>
+    <t xml:space="preserve">15.0854368209839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2104787826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4962882995605</t>
   </si>
   <si>
     <t xml:space="preserve">14.3798418045044</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6120624542236</t>
+    <t xml:space="preserve">14.6120634078979</t>
   </si>
   <si>
     <t xml:space="preserve">14.1654834747314</t>
@@ -2372,25 +2372,25 @@
     <t xml:space="preserve">13.9689893722534</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2280035018921</t>
+    <t xml:space="preserve">14.2280044555664</t>
   </si>
   <si>
     <t xml:space="preserve">14.2012100219727</t>
   </si>
   <si>
-    <t xml:space="preserve">15.112232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9693250656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9961214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2194108963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2283420562744</t>
+    <t xml:space="preserve">15.1122312545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9693260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9961204528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.219409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2283391952515</t>
   </si>
   <si>
     <t xml:space="preserve">14.8710784912109</t>
@@ -2402,25 +2402,25 @@
     <t xml:space="preserve">14.4334316253662</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0761671066284</t>
+    <t xml:space="preserve">14.0761690139771</t>
   </si>
   <si>
     <t xml:space="preserve">13.1740779876709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9418573379517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2187366485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.575662612915</t>
+    <t xml:space="preserve">12.9418563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2187356948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5756635665894</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916046142578</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0040407180786</t>
+    <t xml:space="preserve">12.0040416717529</t>
   </si>
   <si>
     <t xml:space="preserve">10.834005355835</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">10.3070411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88725757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177257537842</t>
+    <t xml:space="preserve">9.88725662231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177248001099</t>
   </si>
   <si>
     <t xml:space="preserve">8.48053359985352</t>
@@ -2444,37 +2444,37 @@
     <t xml:space="preserve">8.67702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72168731689453</t>
+    <t xml:space="preserve">8.72168636322021</t>
   </si>
   <si>
     <t xml:space="preserve">8.35102558135986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03842067718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55678844451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44961071014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87832736968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94084644317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0480251312256</t>
+    <t xml:space="preserve">8.03842163085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55678749084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44960975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87832641601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94084739685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0480260848999</t>
   </si>
   <si>
     <t xml:space="preserve">9.90511989593506</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93191623687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53892612457275</t>
+    <t xml:space="preserve">9.93191528320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53892517089844</t>
   </si>
   <si>
     <t xml:space="preserve">9.61931037902832</t>
@@ -2483,16 +2483,16 @@
     <t xml:space="preserve">10.0033674240112</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94977855682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0926837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839204788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6285772323608</t>
+    <t xml:space="preserve">9.94977951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0926828384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839214324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6285781860352</t>
   </si>
   <si>
     <t xml:space="preserve">10.5392627716064</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">10.4588785171509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5481948852539</t>
+    <t xml:space="preserve">10.5481939315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982788085938</t>
@@ -2516,10 +2516,10 @@
     <t xml:space="preserve">10.8250732421875</t>
   </si>
   <si>
-    <t xml:space="preserve">10.94118309021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.468147277832</t>
+    <t xml:space="preserve">10.9411840438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4681482315063</t>
   </si>
   <si>
     <t xml:space="preserve">11.7450246810913</t>
@@ -2534,16 +2534,16 @@
     <t xml:space="preserve">10.3427677154541</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2623825073242</t>
+    <t xml:space="preserve">10.2623834609985</t>
   </si>
   <si>
     <t xml:space="preserve">9.76221561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9765739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98550510406494</t>
+    <t xml:space="preserve">9.97657203674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98550415039062</t>
   </si>
   <si>
     <t xml:space="preserve">9.68183135986328</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">9.70862579345703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82473754882812</t>
+    <t xml:space="preserve">9.82473659515381</t>
   </si>
   <si>
     <t xml:space="preserve">9.29777336120605</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">11.3609676361084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0572938919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0837526321411</t>
+    <t xml:space="preserve">11.0572948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7357568740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0837516784668</t>
   </si>
   <si>
     <t xml:space="preserve">10.4523181915283</t>
@@ -2603,7 +2603,7 @@
     <t xml:space="preserve">10.6815357208252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6998729705811</t>
+    <t xml:space="preserve">10.6998739242554</t>
   </si>
   <si>
     <t xml:space="preserve">10.6631984710693</t>
@@ -2612,7 +2612,7 @@
     <t xml:space="preserve">10.5531740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.956597328186</t>
+    <t xml:space="preserve">10.9565963745117</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073308944702</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">10.113076210022</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73715877532959</t>
+    <t xml:space="preserve">9.73716068267822</t>
   </si>
   <si>
     <t xml:space="preserve">10.0305576324463</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">9.87469005584717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99388313293457</t>
+    <t xml:space="preserve">9.99388217926025</t>
   </si>
   <si>
     <t xml:space="preserve">9.95720863342285</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">9.86552238464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60879707336426</t>
+    <t xml:space="preserve">9.60879802703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.43459320068359</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">9.34290504455566</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0488958358765</t>
+    <t xml:space="preserve">10.0488948822021</t>
   </si>
   <si>
     <t xml:space="preserve">9.65464115142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81967830657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63630485534668</t>
+    <t xml:space="preserve">9.81967735290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63630390167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.7921724319458</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">9.6729793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91136455535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74632835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45293045043945</t>
+    <t xml:space="preserve">9.91136646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74632930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45292949676514</t>
   </si>
   <si>
     <t xml:space="preserve">10.8557415008545</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">11.5158882141113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6442489624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8734674453735</t>
+    <t xml:space="preserve">11.6442499160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8734664916992</t>
   </si>
   <si>
     <t xml:space="preserve">12.0293350219727</t>
@@ -2714,16 +2714,16 @@
     <t xml:space="preserve">11.3233451843262</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1491384506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0666217803955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.791561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7273797988892</t>
+    <t xml:space="preserve">11.1491394042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0666208267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7915601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7273788452148</t>
   </si>
   <si>
     <t xml:space="preserve">10.6265239715576</t>
@@ -2732,7 +2732,7 @@
     <t xml:space="preserve">10.4706563949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248123168945</t>
+    <t xml:space="preserve">10.4248113632202</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898485183716</t>
@@ -2741,7 +2741,7 @@
     <t xml:space="preserve">10.6081857681274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5164995193481</t>
+    <t xml:space="preserve">10.5165004730225</t>
   </si>
   <si>
     <t xml:space="preserve">10.4431495666504</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">10.2597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2322702407837</t>
+    <t xml:space="preserve">10.2322692871094</t>
   </si>
   <si>
     <t xml:space="preserve">10.1314144134521</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">10.48899269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8282356262207</t>
+    <t xml:space="preserve">10.8282346725464</t>
   </si>
   <si>
     <t xml:space="preserve">11.2591638565063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2775011062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9749336242676</t>
+    <t xml:space="preserve">11.2775020599365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9749345779419</t>
   </si>
   <si>
     <t xml:space="preserve">10.7823915481567</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">10.8924160003662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.874077796936</t>
+    <t xml:space="preserve">10.8740787506104</t>
   </si>
   <si>
     <t xml:space="preserve">11.0116090774536</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">11.2133197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1308031082153</t>
+    <t xml:space="preserve">11.130802154541</t>
   </si>
   <si>
     <t xml:space="preserve">10.9932718276978</t>
@@ -2801,28 +2801,28 @@
     <t xml:space="preserve">11.0849590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0757894515991</t>
+    <t xml:space="preserve">11.0391159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0757904052734</t>
   </si>
   <si>
     <t xml:space="preserve">10.9841022491455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2964506149292</t>
+    <t xml:space="preserve">10.2964496612549</t>
   </si>
   <si>
     <t xml:space="preserve">10.5623435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4798240661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3056182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3514633178711</t>
+    <t xml:space="preserve">10.4798250198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3056192398071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3514623641968</t>
   </si>
   <si>
     <t xml:space="preserve">10.0855703353882</t>
@@ -2834,22 +2834,22 @@
     <t xml:space="preserve">9.26038837432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77903079986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95323657989502</t>
+    <t xml:space="preserve">8.77902984619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9532356262207</t>
   </si>
   <si>
     <t xml:space="preserve">9.06784534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57212162017822</t>
+    <t xml:space="preserve">9.57212352752686</t>
   </si>
   <si>
     <t xml:space="preserve">9.6179666519165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32456874847412</t>
+    <t xml:space="preserve">9.3245677947998</t>
   </si>
   <si>
     <t xml:space="preserve">9.42542362213135</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">10.4339809417725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1680898666382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4425373077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6809234619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1760330200195</t>
+    <t xml:space="preserve">10.1680889129639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4425382614136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6809244155884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1760339736938</t>
   </si>
   <si>
     <t xml:space="preserve">12.9370365142822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.964542388916</t>
+    <t xml:space="preserve">12.9645433425903</t>
   </si>
   <si>
     <t xml:space="preserve">13.175422668457</t>
@@ -2882,19 +2882,19 @@
     <t xml:space="preserve">12.4694328308105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0929040908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7903366088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7078189849854</t>
+    <t xml:space="preserve">13.092903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.790337562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.707818031311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8086748123169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2585525512695</t>
+    <t xml:space="preserve">12.2585515975952</t>
   </si>
   <si>
     <t xml:space="preserve">12.6619758605957</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">12.5611190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5794563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5336141586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528062820435</t>
+    <t xml:space="preserve">12.57945728302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5336132049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528072357178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7261562347412</t>
@@ -2924,22 +2924,22 @@
     <t xml:space="preserve">12.5977945327759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6069641113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2762784957886</t>
+    <t xml:space="preserve">12.6069631576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2762765884399</t>
   </si>
   <si>
     <t xml:space="preserve">13.2946147918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1020727157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287227630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1845903396606</t>
+    <t xml:space="preserve">13.102071762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287237167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.184591293335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1570854187012</t>
@@ -2951,40 +2951,40 @@
     <t xml:space="preserve">12.8361806869507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0562295913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1295785903931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1662540435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8728561401367</t>
+    <t xml:space="preserve">13.0562286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1295795440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1662530899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8728551864624</t>
   </si>
   <si>
     <t xml:space="preserve">13.4413146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4688205718994</t>
+    <t xml:space="preserve">13.4688196182251</t>
   </si>
   <si>
     <t xml:space="preserve">13.5421714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4504833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6246891021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6613636016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9639310836792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8630743026733</t>
+    <t xml:space="preserve">13.4504823684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6246881484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6613626480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9639301300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8630752563477</t>
   </si>
   <si>
     <t xml:space="preserve">13.8997497558594</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">14.0647869110107</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8355693817139</t>
+    <t xml:space="preserve">13.8355684280396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8722438812256</t>
@@ -3026,7 +3026,7 @@
     <t xml:space="preserve">14.7982816696167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.100848197937</t>
+    <t xml:space="preserve">15.1008491516113</t>
   </si>
   <si>
     <t xml:space="preserve">15.2108745574951</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">15.1100177764893</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2750558853149</t>
+    <t xml:space="preserve">15.2750549316406</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083070755005</t>
@@ -3044,28 +3044,28 @@
     <t xml:space="preserve">14.4223642349243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7891130447388</t>
+    <t xml:space="preserve">14.7891120910645</t>
   </si>
   <si>
     <t xml:space="preserve">14.3948593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0916805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3850812911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4309234619141</t>
+    <t xml:space="preserve">15.0916795730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3850803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4309225082397</t>
   </si>
   <si>
     <t xml:space="preserve">15.3392353057861</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7518262863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9260330200195</t>
+    <t xml:space="preserve">15.7518272399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9260320663452</t>
   </si>
   <si>
     <t xml:space="preserve">16.1185760498047</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">15.1650314331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3300666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.485933303833</t>
+    <t xml:space="preserve">15.3300647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4859342575073</t>
   </si>
   <si>
     <t xml:space="preserve">17.1454696655273</t>
@@ -3101,31 +3101,31 @@
     <t xml:space="preserve">16.7053718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7237110137939</t>
+    <t xml:space="preserve">16.7237091064453</t>
   </si>
   <si>
     <t xml:space="preserve">16.9254207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1919269561768</t>
+    <t xml:space="preserve">16.1919250488281</t>
   </si>
   <si>
     <t xml:space="preserve">16.3294563293457</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1094074249268</t>
+    <t xml:space="preserve">16.1094055175781</t>
   </si>
   <si>
     <t xml:space="preserve">16.2010936737061</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0818996429443</t>
+    <t xml:space="preserve">16.081901550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.9902143478394</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9718751907349</t>
+    <t xml:space="preserve">15.9718770980835</t>
   </si>
   <si>
     <t xml:space="preserve">16.0360565185547</t>
@@ -3143,28 +3143,28 @@
     <t xml:space="preserve">15.8801879882812</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1827564239502</t>
+    <t xml:space="preserve">16.1827545166016</t>
   </si>
   <si>
     <t xml:space="preserve">15.7609968185425</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6234664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5501136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825177192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.650972366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7334899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6693086624146</t>
+    <t xml:space="preserve">15.6234655380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5501155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8251762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6509704589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7334890365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6693096160889</t>
   </si>
   <si>
     <t xml:space="preserve">15.8893575668335</t>
@@ -3173,7 +3173,7 @@
     <t xml:space="preserve">15.5776214599609</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8435163497925</t>
+    <t xml:space="preserve">15.8435153961182</t>
   </si>
   <si>
     <t xml:space="preserve">16.0085487365723</t>
@@ -3182,10 +3182,10 @@
     <t xml:space="preserve">16.0543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.568452835083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1283559799194</t>
+    <t xml:space="preserve">15.5684518814087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1283550262451</t>
   </si>
   <si>
     <t xml:space="preserve">15.3117303848267</t>
@@ -3209,34 +3209,34 @@
     <t xml:space="preserve">19.7632808685303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.412015914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6523551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3750419616699</t>
+    <t xml:space="preserve">19.4120178222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6523571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3750400543213</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817687988281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7447929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3179092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8926944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0590858459473</t>
+    <t xml:space="preserve">19.7447948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3179111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8926963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0590839385986</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9111843109131</t>
+    <t xml:space="preserve">19.9111824035645</t>
   </si>
   <si>
     <t xml:space="preserve">19.800256729126</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">19.0977268218994</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6153812408447</t>
+    <t xml:space="preserve">19.6153793334961</t>
   </si>
   <si>
     <t xml:space="preserve">19.4489917755127</t>
@@ -3257,13 +3257,13 @@
     <t xml:space="preserve">19.1347026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6338672637939</t>
+    <t xml:space="preserve">19.6338691711426</t>
   </si>
   <si>
     <t xml:space="preserve">19.19016456604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.153190612793</t>
+    <t xml:space="preserve">19.1531887054443</t>
   </si>
   <si>
     <t xml:space="preserve">19.0422649383545</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">18.9128494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6909980773926</t>
+    <t xml:space="preserve">18.6909999847412</t>
   </si>
   <si>
     <t xml:space="preserve">18.7834377288818</t>
@@ -3293,25 +3293,25 @@
     <t xml:space="preserve">18.5246105194092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3859519958496</t>
+    <t xml:space="preserve">18.3859539031982</t>
   </si>
   <si>
     <t xml:space="preserve">18.2195625305176</t>
   </si>
   <si>
-    <t xml:space="preserve">17.988468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3212451934814</t>
+    <t xml:space="preserve">17.9884662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3212471008301</t>
   </si>
   <si>
     <t xml:space="preserve">18.8573875427246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7094879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3397350311279</t>
+    <t xml:space="preserve">18.7094860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3397331237793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0439319610596</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">17.4523277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2380504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0901489257812</t>
+    <t xml:space="preserve">18.2380523681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0901508331299</t>
   </si>
   <si>
     <t xml:space="preserve">18.2288074493408</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">18.6540241241455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6170463562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3951950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4876365661621</t>
+    <t xml:space="preserve">18.6170482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3951969146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4876346588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.7019100189209</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">17.9237613677979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0161991119385</t>
+    <t xml:space="preserve">18.0162010192871</t>
   </si>
   <si>
     <t xml:space="preserve">18.1918334960938</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">17.5077896118164</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4893016815186</t>
+    <t xml:space="preserve">17.4893035888672</t>
   </si>
   <si>
     <t xml:space="preserve">17.2951812744141</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">18.7464618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5430965423584</t>
+    <t xml:space="preserve">18.543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">18.4414157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4599018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1363716125488</t>
+    <t xml:space="preserve">18.459903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1363697052002</t>
   </si>
   <si>
     <t xml:space="preserve">17.8775424957275</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">17.1195507049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5464344024658</t>
+    <t xml:space="preserve">16.5464324951172</t>
   </si>
   <si>
     <t xml:space="preserve">16.2783622741699</t>
@@ -3458,61 +3458,61 @@
     <t xml:space="preserve">16.1119747161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7699518203735</t>
+    <t xml:space="preserve">15.7699527740479</t>
   </si>
   <si>
     <t xml:space="preserve">16.0657539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7514667510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9640731811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.927098274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7607078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8531465530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8439025878906</t>
+    <t xml:space="preserve">15.7514657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9640741348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9270973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7607069015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8531475067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8439016342163</t>
   </si>
   <si>
     <t xml:space="preserve">16.2506313323975</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8901233673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8254165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7144899368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5481004714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3354940414429</t>
+    <t xml:space="preserve">15.8901224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8254156112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7144889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5481014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3354930877686</t>
   </si>
   <si>
     <t xml:space="preserve">15.1043977737427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6884260177612</t>
+    <t xml:space="preserve">14.6884269714355</t>
   </si>
   <si>
     <t xml:space="preserve">14.762375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5220375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5775003433228</t>
+    <t xml:space="preserve">14.5220365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5775012969971</t>
   </si>
   <si>
     <t xml:space="preserve">14.8917903900146</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">15.0119590759277</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0489349365234</t>
+    <t xml:space="preserve">15.0489358901978</t>
   </si>
   <si>
     <t xml:space="preserve">14.632963180542</t>
@@ -3533,25 +3533,25 @@
     <t xml:space="preserve">16.8976974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2615432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1875925064087</t>
+    <t xml:space="preserve">15.2615423202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1875915527344</t>
   </si>
   <si>
     <t xml:space="preserve">14.8825464248657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8178396224976</t>
+    <t xml:space="preserve">14.8178405761719</t>
   </si>
   <si>
     <t xml:space="preserve">14.7531328201294</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4943056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2724533081055</t>
+    <t xml:space="preserve">14.4943065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2724542617798</t>
   </si>
   <si>
     <t xml:space="preserve">14.4480867385864</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.6716060638428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0598468780518</t>
+    <t xml:space="preserve">14.0598459243774</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732877731323</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">14.327917098999</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1985025405884</t>
+    <t xml:space="preserve">14.1985034942627</t>
   </si>
   <si>
     <t xml:space="preserve">14.2262353897095</t>
@@ -3593,10 +3593,10 @@
     <t xml:space="preserve">13.8749704360962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2909421920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9674072265625</t>
+    <t xml:space="preserve">14.2909412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9674081802368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9119453430176</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">14.2354784011841</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3833799362183</t>
+    <t xml:space="preserve">14.3833808898926</t>
   </si>
   <si>
     <t xml:space="preserve">14.1060657501221</t>
@@ -3635,13 +3635,13 @@
     <t xml:space="preserve">13.4682416915894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6068992614746</t>
+    <t xml:space="preserve">13.6069002151489</t>
   </si>
   <si>
     <t xml:space="preserve">13.4220237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3203411102295</t>
+    <t xml:space="preserve">13.3203401565552</t>
   </si>
   <si>
     <t xml:space="preserve">13.3110971450806</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">13.0152950286865</t>
   </si>
   <si>
-    <t xml:space="preserve">12.220326423645</t>
+    <t xml:space="preserve">12.2203273773193</t>
   </si>
   <si>
     <t xml:space="preserve">12.1556196212769</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">12.4883975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4236907958984</t>
+    <t xml:space="preserve">12.4236898422241</t>
   </si>
   <si>
     <t xml:space="preserve">12.737979888916</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">12.5715923309326</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1001567840576</t>
+    <t xml:space="preserve">12.1001577377319</t>
   </si>
   <si>
     <t xml:space="preserve">12.0262069702148</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">11.3514070510864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3329210281372</t>
+    <t xml:space="preserve">11.3329200744629</t>
   </si>
   <si>
     <t xml:space="preserve">11.7396478652954</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">11.4715766906738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2219953536987</t>
+    <t xml:space="preserve">11.2219944000244</t>
   </si>
   <si>
     <t xml:space="preserve">11.5917472839355</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">10.0110540390015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0387859344482</t>
+    <t xml:space="preserve">10.0387849807739</t>
   </si>
   <si>
     <t xml:space="preserve">10.5379514694214</t>
@@ -3770,16 +3770,16 @@
     <t xml:space="preserve">9.32701206207275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30852317810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7060079574585</t>
+    <t xml:space="preserve">9.3085241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70600891113281</t>
   </si>
   <si>
     <t xml:space="preserve">9.49340057373047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2715482711792</t>
+    <t xml:space="preserve">9.27154922485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.13289165496826</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">9.03583145141602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68456745147705</t>
+    <t xml:space="preserve">8.68456649780273</t>
   </si>
   <si>
     <t xml:space="preserve">8.64759063720703</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">8.85095500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76313877105713</t>
+    <t xml:space="preserve">8.76313781738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.67994499206543</t>
@@ -3824,10 +3824,10 @@
     <t xml:space="preserve">8.77238273620605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72154235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83709049224854</t>
+    <t xml:space="preserve">8.72154140472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83708953857422</t>
   </si>
   <si>
     <t xml:space="preserve">8.53204345703125</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">8.40725231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27321720123291</t>
+    <t xml:space="preserve">8.27321624755859</t>
   </si>
   <si>
     <t xml:space="preserve">8.52279949188232</t>
@@ -3860,16 +3860,16 @@
     <t xml:space="preserve">8.31943607330322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19002151489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94968318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06985187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03749847412109</t>
+    <t xml:space="preserve">8.19002246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94968366622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06985282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03749942779541</t>
   </si>
   <si>
     <t xml:space="preserve">8.16691303253174</t>
@@ -5049,6 +5049,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.94000005722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90000009536743</t>
   </si>
 </sst>
 </file>
@@ -61134,7 +61137,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6494791667</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>77900</v>
@@ -61155,6 +61158,32 @@
         <v>1678</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494560185</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>5.94999980926514</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>5.86999988555908</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>5.90999984741211</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>5.90000009536743</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1679</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3864240646362</t>
+    <t xml:space="preserve">13.3864250183105</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4113349914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4030332565308</t>
+    <t xml:space="preserve">13.4113359451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4030323028564</t>
   </si>
   <si>
     <t xml:space="preserve">13.0874729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5809135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4563512802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.871561050415</t>
+    <t xml:space="preserve">12.5809125900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4563503265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715620040894</t>
   </si>
   <si>
     <t xml:space="preserve">13.1372976303101</t>
@@ -74,37 +74,37 @@
     <t xml:space="preserve">13.0210390090942</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2950773239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6473484039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9795179367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7719106674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9462995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7885179519653</t>
+    <t xml:space="preserve">13.2950792312622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9795160293579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7719125747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9463005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.788519859314</t>
   </si>
   <si>
     <t xml:space="preserve">12.3483953475952</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2072229385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5726108551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840553283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5345792770386</t>
+    <t xml:space="preserve">12.2072219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5726099014282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840562820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345811843872</t>
   </si>
   <si>
     <t xml:space="preserve">12.0245294570923</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">12.0577459335327</t>
   </si>
   <si>
-    <t xml:space="preserve">12.107572555542</t>
+    <t xml:space="preserve">12.1075716018677</t>
   </si>
   <si>
     <t xml:space="preserve">11.916576385498</t>
@@ -125,25 +125,25 @@
     <t xml:space="preserve">12.4397420883179</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0826587677002</t>
+    <t xml:space="preserve">12.0826597213745</t>
   </si>
   <si>
     <t xml:space="preserve">12.290265083313</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4148302078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.248743057251</t>
+    <t xml:space="preserve">12.4148283004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2487440109253</t>
   </si>
   <si>
     <t xml:space="preserve">12.2404403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9580965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7338819503784</t>
+    <t xml:space="preserve">11.9580955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7338829040527</t>
   </si>
   <si>
     <t xml:space="preserve">12.556001663208</t>
@@ -152,58 +152,58 @@
     <t xml:space="preserve">12.9961252212524</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0376472473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8300399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7054777145386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7469987869263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7137813568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4528579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6189432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5857276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7850284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9262008666992</t>
+    <t xml:space="preserve">13.0376462936401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.830039024353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7054767608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7469997406006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7137823104858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4528608322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6189403533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5857248306274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7850275039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9261999130249</t>
   </si>
   <si>
     <t xml:space="preserve">14.0258493423462</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9926347732544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1171979904175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2417573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.266674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0175485610962</t>
+    <t xml:space="preserve">13.9926338195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1171970367432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2417593002319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2666730880737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0175447463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.6770725250244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3781213760376</t>
+    <t xml:space="preserve">13.3781204223633</t>
   </si>
   <si>
     <t xml:space="preserve">13.7601146697998</t>
@@ -215,16 +215,16 @@
     <t xml:space="preserve">13.8431577682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6272478103638</t>
+    <t xml:space="preserve">13.6272459030151</t>
   </si>
   <si>
     <t xml:space="preserve">13.6604652404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.735203742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7185955047607</t>
+    <t xml:space="preserve">13.7352027893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7185926437378</t>
   </si>
   <si>
     <t xml:space="preserve">13.6687669754028</t>
@@ -233,25 +233,25 @@
     <t xml:space="preserve">13.3199911117554</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2203397750854</t>
+    <t xml:space="preserve">13.2203388214111</t>
   </si>
   <si>
     <t xml:space="preserve">13.2701654434204</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943790435791</t>
+    <t xml:space="preserve">13.4943799972534</t>
   </si>
   <si>
     <t xml:space="preserve">13.2037315368652</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0791673660278</t>
+    <t xml:space="preserve">13.0791683197021</t>
   </si>
   <si>
     <t xml:space="preserve">12.971212387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.195426940918</t>
+    <t xml:space="preserve">13.1954259872437</t>
   </si>
   <si>
     <t xml:space="preserve">13.3526620864868</t>
@@ -260,37 +260,37 @@
     <t xml:space="preserve">12.7449560165405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7027540206909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5761470794678</t>
+    <t xml:space="preserve">12.7027549743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5761489868164</t>
   </si>
   <si>
     <t xml:space="preserve">12.5086250305176</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8209190368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8293600082397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8968839645386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8631200790405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8884439468384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.107892036438</t>
+    <t xml:space="preserve">12.8209180831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8293609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8968830108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8631210327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8884429931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1078929901123</t>
   </si>
   <si>
     <t xml:space="preserve">13.3357830047607</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4370670318604</t>
+    <t xml:space="preserve">13.437066078186</t>
   </si>
   <si>
     <t xml:space="preserve">13.5045890808105</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">13.2176170349121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9728441238403</t>
+    <t xml:space="preserve">12.972846031189</t>
   </si>
   <si>
     <t xml:space="preserve">12.9137630462646</t>
@@ -320,37 +320,37 @@
     <t xml:space="preserve">12.3144979476929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9600019454956</t>
+    <t xml:space="preserve">11.9600028991699</t>
   </si>
   <si>
     <t xml:space="preserve">11.8418369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4113779067993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6223878860474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1710109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605539321899</t>
+    <t xml:space="preserve">11.411376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.622386932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1710119247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605520248413</t>
   </si>
   <si>
     <t xml:space="preserve">12.1794519424438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9262399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.052845954895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847728729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5673418045044</t>
+    <t xml:space="preserve">11.9262409210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0528469085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847719192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5673408508301</t>
   </si>
   <si>
     <t xml:space="preserve">10.9724779129028</t>
@@ -359,31 +359,31 @@
     <t xml:space="preserve">11.5633039474487</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2132129669189</t>
+    <t xml:space="preserve">12.2132139205933</t>
   </si>
   <si>
     <t xml:space="preserve">12.2047729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7827548980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5211009979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620199203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658729553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2976169586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3229379653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1372499465942</t>
+    <t xml:space="preserve">11.782753944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5211029052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620189666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658739089966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2976179122925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3229389190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1372489929199</t>
   </si>
   <si>
     <t xml:space="preserve">12.4748649597168</t>
@@ -392,16 +392,16 @@
     <t xml:space="preserve">12.1541299819946</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579830169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3735780715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7871580123901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0403690338135</t>
+    <t xml:space="preserve">12.4579839706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3735799789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7871570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0403680801392</t>
   </si>
   <si>
     <t xml:space="preserve">13.5214710235596</t>
@@ -410,7 +410,7 @@
     <t xml:space="preserve">13.6902770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311950683594</t>
+    <t xml:space="preserve">13.6311931610107</t>
   </si>
   <si>
     <t xml:space="preserve">13.7662401199341</t>
@@ -422,13 +422,13 @@
     <t xml:space="preserve">13.6227540969849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7155981063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.002571105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9478912353516</t>
+    <t xml:space="preserve">13.7155990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0025701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9478921890259</t>
   </si>
   <si>
     <t xml:space="preserve">14.6018371582031</t>
@@ -437,97 +437,97 @@
     <t xml:space="preserve">15.0491762161255</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5343141555786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8550472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4121131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.488076210022</t>
+    <t xml:space="preserve">14.53431224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8550491333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4121122360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4880781173706</t>
   </si>
   <si>
     <t xml:space="preserve">15.3445892333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5471572875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192672729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1082592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0154142379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699111938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4796352386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8594541549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8932113647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8678903579712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8256883621216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7834882736206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0451393127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1801872253418</t>
+    <t xml:space="preserve">15.547158241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192682266235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1082582473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0154161453247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699102401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4796333312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.859450340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.893214225769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8678913116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8256902694702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7834873199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0451412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1801853179932</t>
   </si>
   <si>
     <t xml:space="preserve">16.2139453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1126613616943</t>
+    <t xml:space="preserve">16.112663269043</t>
   </si>
   <si>
     <t xml:space="preserve">16.0366992950439</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5978002548218</t>
+    <t xml:space="preserve">15.5977983474731</t>
   </si>
   <si>
     <t xml:space="preserve">15.4458723068237</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5640382766724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5134000778198</t>
+    <t xml:space="preserve">15.564040184021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133972167969</t>
   </si>
   <si>
     <t xml:space="preserve">15.6231231689453</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2477111816406</t>
+    <t xml:space="preserve">16.247709274292</t>
   </si>
   <si>
     <t xml:space="preserve">16.1970672607422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9607381820679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5302762985229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1464233398438</t>
+    <t xml:space="preserve">15.9607372283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5302753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1464214324951</t>
   </si>
   <si>
     <t xml:space="preserve">16.0029354095459</t>
@@ -536,28 +536,28 @@
     <t xml:space="preserve">15.9100933074951</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2899112701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9691762924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7497262954712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146812438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9438562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0789031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0620231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1211013793945</t>
+    <t xml:space="preserve">16.289909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9691781997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7497291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146821975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9438552856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0788993835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0620212554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1211032867432</t>
   </si>
   <si>
     <t xml:space="preserve">16.053581237793</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">15.9269752502441</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3614711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.69908618927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9944982528687</t>
+    <t xml:space="preserve">15.3614702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6990852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9945011138916</t>
   </si>
   <si>
     <t xml:space="preserve">15.5556001663208</t>
@@ -581,37 +581,37 @@
     <t xml:space="preserve">15.2517461776733</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2686262130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044061660767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1335802078247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9816541671753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.192663192749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9141311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.11669921875</t>
+    <t xml:space="preserve">15.268627166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8044090270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.133581161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.981653213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926622390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9141302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1167001724243</t>
   </si>
   <si>
     <t xml:space="preserve">15.2770671844482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1673421859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959661483765</t>
+    <t xml:space="preserve">15.1673412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0069761276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959671020508</t>
   </si>
   <si>
     <t xml:space="preserve">15.0238552093506</t>
@@ -620,64 +620,64 @@
     <t xml:space="preserve">14.6355991363525</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3486261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.061653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0194530487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8337631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5889940261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9688100814819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557821273804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.449912071228</t>
+    <t xml:space="preserve">14.3486270904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0616521835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0194520950317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.83376121521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5889930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9688081741333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557811737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4499130249023</t>
   </si>
   <si>
     <t xml:space="preserve">14.5933980941772</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8972501754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6862411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.715968132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7750473022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4374351501465</t>
+    <t xml:space="preserve">14.8972492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.686240196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7159652709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.775050163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4374361038208</t>
   </si>
   <si>
     <t xml:space="preserve">15.5724811553955</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6484441757202</t>
+    <t xml:space="preserve">15.6484422683716</t>
   </si>
   <si>
     <t xml:space="preserve">16.0113773345947</t>
   </si>
   <si>
-    <t xml:space="preserve">16.365873336792</t>
+    <t xml:space="preserve">16.3658752441406</t>
   </si>
   <si>
     <t xml:space="preserve">16.3152313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2983493804932</t>
+    <t xml:space="preserve">16.2983512878418</t>
   </si>
   <si>
     <t xml:space="preserve">16.2223873138428</t>
@@ -692,22 +692,22 @@
     <t xml:space="preserve">16.2645893096924</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1633052825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510122299194</t>
+    <t xml:space="preserve">16.1633033752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510093688965</t>
   </si>
   <si>
     <t xml:space="preserve">15.952296257019</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6022052764893</t>
+    <t xml:space="preserve">16.6022033691406</t>
   </si>
   <si>
     <t xml:space="preserve">16.6697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6781673431396</t>
+    <t xml:space="preserve">16.6781692504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.7288093566895</t>
@@ -719,25 +719,25 @@
     <t xml:space="preserve">17.1508293151855</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1001853942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3449573516846</t>
+    <t xml:space="preserve">17.1001873016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3449535369873</t>
   </si>
   <si>
     <t xml:space="preserve">17.3955993652344</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1339473724365</t>
+    <t xml:space="preserve">17.1339492797852</t>
   </si>
   <si>
     <t xml:space="preserve">17.2605533599854</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9651393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9482574462891</t>
+    <t xml:space="preserve">16.9651412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9482593536377</t>
   </si>
   <si>
     <t xml:space="preserve">16.7625732421875</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">16.5431213378906</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8807373046875</t>
+    <t xml:space="preserve">16.8807353973389</t>
   </si>
   <si>
     <t xml:space="preserve">16.7878913879395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8300933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2858753204346</t>
+    <t xml:space="preserve">16.8300952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2858734130859</t>
   </si>
   <si>
     <t xml:space="preserve">17.7247734069824</t>
@@ -764,16 +764,16 @@
     <t xml:space="preserve">17.8091773986816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8767032623291</t>
+    <t xml:space="preserve">17.8766994476318</t>
   </si>
   <si>
     <t xml:space="preserve">18.2311954498291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3746814727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6447715759277</t>
+    <t xml:space="preserve">18.374683380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6447734832764</t>
   </si>
   <si>
     <t xml:space="preserve">19.2862415313721</t>
@@ -782,34 +782,34 @@
     <t xml:space="preserve">19.6660575866699</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6407375335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9530277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2146816253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.341287612915</t>
+    <t xml:space="preserve">19.6407337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9530296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2146835327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3412857055664</t>
   </si>
   <si>
     <t xml:space="preserve">20.3581695556641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.400369644165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7211017608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4594497680664</t>
+    <t xml:space="preserve">20.4003715515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7211036682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.459451675415</t>
   </si>
   <si>
     <t xml:space="preserve">20.5691776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5944995880127</t>
+    <t xml:space="preserve">20.5944957733154</t>
   </si>
   <si>
     <t xml:space="preserve">20.6789035797119</t>
@@ -818,67 +818,67 @@
     <t xml:space="preserve">20.3328495025635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5438556671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2568855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5016536712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4172515869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0036735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0121116638184</t>
+    <t xml:space="preserve">20.5438575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2568836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5016555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4172534942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0036754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.012113571167</t>
   </si>
   <si>
     <t xml:space="preserve">19.7589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9614715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9023895263672</t>
+    <t xml:space="preserve">19.9614696502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9023857116699</t>
   </si>
   <si>
     <t xml:space="preserve">19.4719295501709</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4128475189209</t>
+    <t xml:space="preserve">19.4128456115723</t>
   </si>
   <si>
     <t xml:space="preserve">19.5310134887695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.104959487915</t>
+    <t xml:space="preserve">20.1049575805664</t>
   </si>
   <si>
     <t xml:space="preserve">20.7886276245117</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2528476715088</t>
+    <t xml:space="preserve">21.2528457641602</t>
   </si>
   <si>
     <t xml:space="preserve">21.7761497497559</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5651397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9811038970947</t>
+    <t xml:space="preserve">21.5651416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9811000823975</t>
   </si>
   <si>
     <t xml:space="preserve">22.22021484375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9469451904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1177349090576</t>
+    <t xml:space="preserve">21.9469432830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1177387237549</t>
   </si>
   <si>
     <t xml:space="preserve">21.7846927642822</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">22.6301174163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5455780029297</t>
+    <t xml:space="preserve">21.5455799102783</t>
   </si>
   <si>
     <t xml:space="preserve">21.5626583099365</t>
@@ -908,70 +908,70 @@
     <t xml:space="preserve">21.3491668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.519962310791</t>
+    <t xml:space="preserve">21.5199604034424</t>
   </si>
   <si>
     <t xml:space="preserve">22.0152626037598</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0237998962402</t>
+    <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
     <t xml:space="preserve">21.9640235900879</t>
   </si>
   <si>
-    <t xml:space="preserve">22.160436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0664978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8615493774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8359279632568</t>
+    <t xml:space="preserve">22.1604347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.066499710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8615455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8359298706055</t>
   </si>
   <si>
     <t xml:space="preserve">22.1945953369141</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2893905639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6053562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3150062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8111686706543</t>
+    <t xml:space="preserve">21.2893886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.605354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3150081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8111667633057</t>
   </si>
   <si>
     <t xml:space="preserve">21.0673580169678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1356735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.964879989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.118595123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.366247177124</t>
+    <t xml:space="preserve">21.1356754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9648838043213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1185970306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3662490844727</t>
   </si>
   <si>
     <t xml:space="preserve">21.7419910430908</t>
   </si>
   <si>
-    <t xml:space="preserve">21.306468963623</t>
+    <t xml:space="preserve">21.3064708709717</t>
   </si>
   <si>
     <t xml:space="preserve">20.9563426971436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3073253631592</t>
+    <t xml:space="preserve">20.3073291778564</t>
   </si>
   <si>
     <t xml:space="preserve">20.1279945373535</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">19.624153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0340595245361</t>
+    <t xml:space="preserve">20.0340576171875</t>
   </si>
   <si>
     <t xml:space="preserve">19.5472965240479</t>
@@ -1001,49 +1001,49 @@
     <t xml:space="preserve">20.4866600036621</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1954498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7513885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1698379516602</t>
+    <t xml:space="preserve">21.1954536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7513904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1698360443115</t>
   </si>
   <si>
     <t xml:space="preserve">21.2296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8017692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7932300567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9298648834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6907520294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2031326293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3226871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0921211242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0750408172607</t>
+    <t xml:space="preserve">21.8017711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7932281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9298667907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6907539367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2031307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3226890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0921192169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0750370025635</t>
   </si>
   <si>
     <t xml:space="preserve">21.6992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1348152160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5959587097168</t>
+    <t xml:space="preserve">22.1348171234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5959568023682</t>
   </si>
   <si>
     <t xml:space="preserve">22.4764022827148</t>
@@ -1052,13 +1052,13 @@
     <t xml:space="preserve">22.5874195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3653869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9973239898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8521499633789</t>
+    <t xml:space="preserve">22.3653888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9973201751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8521480560303</t>
   </si>
   <si>
     <t xml:space="preserve">22.553258895874</t>
@@ -1079,13 +1079,13 @@
     <t xml:space="preserve">22.7752914428711</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6207160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1074810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7402744293213</t>
+    <t xml:space="preserve">23.6207180023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.107479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7402725219727</t>
   </si>
   <si>
     <t xml:space="preserve">24.1843357086182</t>
@@ -1097,16 +1097,16 @@
     <t xml:space="preserve">24.3380508422852</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3038883209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6198577880859</t>
+    <t xml:space="preserve">24.3038902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6198596954346</t>
   </si>
   <si>
     <t xml:space="preserve">25.029764175415</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8931274414062</t>
+    <t xml:space="preserve">24.8931293487549</t>
   </si>
   <si>
     <t xml:space="preserve">25.2090950012207</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">25.0724620819092</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1663990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7564926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6796360015869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7735729217529</t>
+    <t xml:space="preserve">25.1663970947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7564945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6796379089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7735748291016</t>
   </si>
   <si>
     <t xml:space="preserve">25.1578578948975</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">25.4225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6864585876465</t>
+    <t xml:space="preserve">26.6864604949951</t>
   </si>
   <si>
     <t xml:space="preserve">26.2167778015137</t>
@@ -1154,31 +1154,31 @@
     <t xml:space="preserve">26.2338562011719</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0972232818604</t>
+    <t xml:space="preserve">26.0972194671631</t>
   </si>
   <si>
     <t xml:space="preserve">26.0459823608398</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8751907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8581142425537</t>
+    <t xml:space="preserve">25.8751888275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8581104278564</t>
   </si>
   <si>
     <t xml:space="preserve">26.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2329978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7291564941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4131908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3457298278809</t>
+    <t xml:space="preserve">27.2329959869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.729154586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4131889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3457317352295</t>
   </si>
   <si>
     <t xml:space="preserve">25.7641735076904</t>
@@ -1187,37 +1187,37 @@
     <t xml:space="preserve">25.9605865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7812557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7035369873047</t>
+    <t xml:space="preserve">25.7812538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7035388946533</t>
   </si>
   <si>
     <t xml:space="preserve">27.5660438537598</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2586154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4370899200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1288013458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7274417877197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2406768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8555335998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3346138000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0015678405762</t>
+    <t xml:space="preserve">27.258617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4370880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1288032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7274398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2406787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8555355072021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3346157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0015697479248</t>
   </si>
   <si>
     <t xml:space="preserve">26.5156650543213</t>
@@ -1232,79 +1232,79 @@
     <t xml:space="preserve">25.8239517211914</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7897930145264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4815044403076</t>
+    <t xml:space="preserve">25.789794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4815063476562</t>
   </si>
   <si>
     <t xml:space="preserve">26.0630626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9520473480225</t>
+    <t xml:space="preserve">25.9520454406738</t>
   </si>
   <si>
     <t xml:space="preserve">26.4302711486816</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8999519348145</t>
+    <t xml:space="preserve">26.8999500274658</t>
   </si>
   <si>
     <t xml:space="preserve">26.8401737213135</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9853496551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9511852264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7974720001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0195045471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7718544006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5583629608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6437606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7633171081543</t>
+    <t xml:space="preserve">26.9853477478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9511871337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7974758148193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0195064544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7718563079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5583648681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.643762588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7633152008057</t>
   </si>
   <si>
     <t xml:space="preserve">27.0280456542969</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3269329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4388065338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.276554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6616973876953</t>
+    <t xml:space="preserve">27.3269348144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4388084411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765560150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6616992950439</t>
   </si>
   <si>
     <t xml:space="preserve">26.6096038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2509326934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6266803741455</t>
+    <t xml:space="preserve">26.2509346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6266822814941</t>
   </si>
   <si>
     <t xml:space="preserve">26.3192520141602</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9264278411865</t>
+    <t xml:space="preserve">25.9264316558838</t>
   </si>
   <si>
     <t xml:space="preserve">26.9426498413086</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">28.0528030395508</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8820133209229</t>
+    <t xml:space="preserve">27.8820114135742</t>
   </si>
   <si>
     <t xml:space="preserve">28.7359809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9674091339111</t>
+    <t xml:space="preserve">27.9674072265625</t>
   </si>
   <si>
     <t xml:space="preserve">27.7966156005859</t>
@@ -1328,10 +1328,10 @@
     <t xml:space="preserve">27.4123287200928</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8572521209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4977283477783</t>
+    <t xml:space="preserve">26.857250213623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.497730255127</t>
   </si>
   <si>
     <t xml:space="preserve">27.5831241607666</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">28.0955047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6505813598633</t>
+    <t xml:space="preserve">28.6505851745605</t>
   </si>
   <si>
     <t xml:space="preserve">29.2483596801758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.565185546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.138204574585</t>
+    <t xml:space="preserve">28.5651836395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1382026672363</t>
   </si>
   <si>
     <t xml:space="preserve">27.924711227417</t>
@@ -1361,31 +1361,31 @@
     <t xml:space="preserve">26.302173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8324928283691</t>
+    <t xml:space="preserve">25.8324909210205</t>
   </si>
   <si>
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1493186950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8145523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6010608673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3448715209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4729671478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5088424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6190032958984</t>
+    <t xml:space="preserve">25.149320602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8145542144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6010589599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3448696136475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4729652404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5088443756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6190013885498</t>
   </si>
   <si>
     <t xml:space="preserve">27.5404262542725</t>
@@ -1394,25 +1394,25 @@
     <t xml:space="preserve">24.8504314422607</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7223377227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.178373336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6480560302734</t>
+    <t xml:space="preserve">24.7223358154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1783752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6480541229248</t>
   </si>
   <si>
     <t xml:space="preserve">21.7334518432617</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6659927368164</t>
+    <t xml:space="preserve">20.665994644165</t>
   </si>
   <si>
     <t xml:space="preserve">21.4772624969482</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2458305358887</t>
+    <t xml:space="preserve">22.2458343505859</t>
   </si>
   <si>
     <t xml:space="preserve">22.7155132293701</t>
@@ -1421,52 +1421,52 @@
     <t xml:space="preserve">22.8009090423584</t>
   </si>
   <si>
-    <t xml:space="preserve">23.526782989502</t>
+    <t xml:space="preserve">23.5267848968506</t>
   </si>
   <si>
     <t xml:space="preserve">22.8863067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9042453765869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5020217895508</t>
+    <t xml:space="preserve">21.9042434692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5020236968994</t>
   </si>
   <si>
     <t xml:space="preserve">22.3739280700684</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7582111358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5694808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2705917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6975765228271</t>
+    <t xml:space="preserve">22.7582130432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5694789886475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2705936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6975746154785</t>
   </si>
   <si>
     <t xml:space="preserve">23.0997982025146</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4413871765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.295352935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8256683349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7650337219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.070743560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9178905487061</t>
+    <t xml:space="preserve">23.441385269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2953510284424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8256702423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7650318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0707454681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9178886413574</t>
   </si>
   <si>
     <t xml:space="preserve">25.576301574707</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">25.4055099487305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.362813949585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4909038543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0032844543457</t>
+    <t xml:space="preserve">25.3628120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4909057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0032863616943</t>
   </si>
   <si>
     <t xml:space="preserve">25.9164619445801</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3087043762207</t>
+    <t xml:space="preserve">25.308708190918</t>
   </si>
   <si>
     <t xml:space="preserve">25.8730506896973</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">27.5660877227783</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4777202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2606639862061</t>
+    <t xml:space="preserve">28.4777221679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2606658935547</t>
   </si>
   <si>
     <t xml:space="preserve">27.4792652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7412757873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7846870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3071632385254</t>
+    <t xml:space="preserve">26.7412738800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7846851348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3071613311768</t>
   </si>
   <si>
     <t xml:space="preserve">26.6110401153564</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">26.9583320617676</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5242195129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9149188995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4358558654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0885639190674</t>
+    <t xml:space="preserve">26.5242176055908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9149208068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4358539581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.088565826416</t>
   </si>
   <si>
     <t xml:space="preserve">27.2187976837158</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3490314483643</t>
+    <t xml:space="preserve">27.3490295410156</t>
   </si>
   <si>
     <t xml:space="preserve">27.175386428833</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">28.3474903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4389400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7877712249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.918004989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2218856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0048274993896</t>
+    <t xml:space="preserve">25.4389381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7877731323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9180068969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2218837738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0048294067383</t>
   </si>
   <si>
     <t xml:space="preserve">24.527307510376</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9614181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0482406616211</t>
+    <t xml:space="preserve">24.9614162445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0482387542725</t>
   </si>
   <si>
     <t xml:space="preserve">25.0916500091553</t>
@@ -1598,31 +1598,31 @@
     <t xml:space="preserve">25.395528793335</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5257625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6978626251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8265533447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1319751739502</t>
+    <t xml:space="preserve">25.525764465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6978645324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8265552520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1319770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.3056201934814</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8699645996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8280982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9133777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3040752410889</t>
+    <t xml:space="preserve">27.8699626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8280963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3040771484375</t>
   </si>
   <si>
     <t xml:space="preserve">27.2622089385986</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">27.7397327423096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9567890167236</t>
+    <t xml:space="preserve">27.9567909240723</t>
   </si>
   <si>
     <t xml:space="preserve">27.6529121398926</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">25.6994075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2234268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7908592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4869804382324</t>
+    <t xml:space="preserve">24.2234287261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7908573150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4869823455811</t>
   </si>
   <si>
     <t xml:space="preserve">22.964506149292</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7924022674561</t>
+    <t xml:space="preserve">21.7924041748047</t>
   </si>
   <si>
     <t xml:space="preserve">22.7040367126465</t>
@@ -1664,7 +1664,7 @@
     <t xml:space="preserve">22.1396923065186</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8358154296875</t>
+    <t xml:space="preserve">21.8358135223389</t>
   </si>
   <si>
     <t xml:space="preserve">20.6637115478516</t>
@@ -1676,10 +1676,10 @@
     <t xml:space="preserve">21.3582916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2280597686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8776817321777</t>
+    <t xml:space="preserve">21.2280559539795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8776836395264</t>
   </si>
   <si>
     <t xml:space="preserve">21.9660453796387</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">23.1381492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0497856140137</t>
+    <t xml:space="preserve">24.049783706665</t>
   </si>
   <si>
     <t xml:space="preserve">23.35520362854</t>
@@ -1700,28 +1700,28 @@
     <t xml:space="preserve">18.8838539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3195114135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4063339233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5365657806396</t>
+    <t xml:space="preserve">18.3195133209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4063320159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.536563873291</t>
   </si>
   <si>
     <t xml:space="preserve">18.7536220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1009101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4047889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6218452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7520771026611</t>
+    <t xml:space="preserve">19.1009120941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4047908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6218433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7520790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.5350227355957</t>
@@ -1745,7 +1745,7 @@
     <t xml:space="preserve">20.0559577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.927267074585</t>
+    <t xml:space="preserve">18.9272651672363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6667995452881</t>
@@ -1754,22 +1754,22 @@
     <t xml:space="preserve">17.668342590332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6233882904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0156326293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2326889038086</t>
+    <t xml:space="preserve">18.6233901977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0156307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.23268699646</t>
   </si>
   <si>
     <t xml:space="preserve">17.7985763549805</t>
   </si>
   <si>
-    <t xml:space="preserve">17.451286315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5815200805664</t>
+    <t xml:space="preserve">17.4512882232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.581521987915</t>
   </si>
   <si>
     <t xml:space="preserve">17.7117538452148</t>
@@ -1778,7 +1778,7 @@
     <t xml:space="preserve">17.3644638061523</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1443214416504</t>
+    <t xml:space="preserve">19.144323348999</t>
   </si>
   <si>
     <t xml:space="preserve">19.3179664611816</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">20.3598346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5334796905518</t>
+    <t xml:space="preserve">20.5334777832031</t>
   </si>
   <si>
     <t xml:space="preserve">20.4032440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">20.880765914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7939453125</t>
+    <t xml:space="preserve">20.8807678222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7939491271973</t>
   </si>
   <si>
     <t xml:space="preserve">21.5319347381592</t>
@@ -1808,13 +1808,13 @@
     <t xml:space="preserve">21.6621704101562</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3148784637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0978221893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7505340576172</t>
+    <t xml:space="preserve">21.3148803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0978240966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7505359649658</t>
   </si>
   <si>
     <t xml:space="preserve">20.2296009063721</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">20.6203022003174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9241809844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1861877441406</t>
+    <t xml:space="preserve">20.9241790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1861915588379</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730121612549</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">19.9691333770752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1458644866943</t>
+    <t xml:space="preserve">18.145866394043</t>
   </si>
   <si>
     <t xml:space="preserve">17.3470993041992</t>
@@ -1850,7 +1850,7 @@
     <t xml:space="preserve">17.2950077056885</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2602767944336</t>
+    <t xml:space="preserve">17.260274887085</t>
   </si>
   <si>
     <t xml:space="preserve">17.9288082122803</t>
@@ -1859,13 +1859,13 @@
     <t xml:space="preserve">18.0590419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1805934906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2153224945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1877326965332</t>
+    <t xml:space="preserve">18.180591583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2153205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1877346038818</t>
   </si>
   <si>
     <t xml:space="preserve">19.5176563262939</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">19.2398281097412</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9446315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5105171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4931526184082</t>
+    <t xml:space="preserve">18.9446296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.51051902771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4931545257568</t>
   </si>
   <si>
     <t xml:space="preserve">18.9619941711426</t>
@@ -1892,28 +1892,28 @@
     <t xml:space="preserve">19.0140895843506</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5278854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.649435043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8578090667725</t>
+    <t xml:space="preserve">18.5278835296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6494331359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8578071594238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1182765960693</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6320705413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3991966247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4339218139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.312370300293</t>
+    <t xml:space="preserve">18.6320686340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3991947174072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4339199066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3123683929443</t>
   </si>
   <si>
     <t xml:space="preserve">16.2705020904541</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">16.0187206268311</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5672416687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3501863479614</t>
+    <t xml:space="preserve">15.5672426223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3501853942871</t>
   </si>
   <si>
     <t xml:space="preserve">15.3935976028442</t>
@@ -1937,49 +1937,49 @@
     <t xml:space="preserve">16.383373260498</t>
   </si>
   <si>
-    <t xml:space="preserve">16.808801651001</t>
+    <t xml:space="preserve">16.8088035583496</t>
   </si>
   <si>
     <t xml:space="preserve">16.7132987976074</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8016633987427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7929830551147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7842979431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3849143981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5498781204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0768413543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0947036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4337682723999</t>
+    <t xml:space="preserve">15.8016624450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7929821014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7842969894409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3849153518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.549877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0768432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.094705581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4337701797485</t>
   </si>
   <si>
     <t xml:space="preserve">15.5677423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3801784515381</t>
+    <t xml:space="preserve">15.3801774978638</t>
   </si>
   <si>
     <t xml:space="preserve">15.3623161315918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5320129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2551364898682</t>
+    <t xml:space="preserve">15.5320138931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2551355361938</t>
   </si>
   <si>
     <t xml:space="preserve">15.6213302612305</t>
@@ -1991,16 +1991,16 @@
     <t xml:space="preserve">16.4341049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6391944885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2372713088989</t>
+    <t xml:space="preserve">15.6391935348511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2372722625732</t>
   </si>
   <si>
     <t xml:space="preserve">15.1836843490601</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8978729248047</t>
+    <t xml:space="preserve">14.8978719711304</t>
   </si>
   <si>
     <t xml:space="preserve">15.094367980957</t>
@@ -2009,31 +2009,31 @@
     <t xml:space="preserve">15.3176574707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1390256881714</t>
+    <t xml:space="preserve">15.1390266418457</t>
   </si>
   <si>
     <t xml:space="preserve">14.9335994720459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7371034622192</t>
+    <t xml:space="preserve">14.7371053695679</t>
   </si>
   <si>
     <t xml:space="preserve">14.8800106048584</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5588111877441</t>
+    <t xml:space="preserve">15.5588092803955</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640676498413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0229148864746</t>
+    <t xml:space="preserve">15.0229139328003</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7374429702759</t>
+    <t xml:space="preserve">15.7374420166016</t>
   </si>
   <si>
     <t xml:space="preserve">15.1300945281982</t>
@@ -2042,22 +2042,22 @@
     <t xml:space="preserve">15.0407781600952</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0586414337158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6299257278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3619775772095</t>
+    <t xml:space="preserve">15.0586423873901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6299247741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3619785308838</t>
   </si>
   <si>
     <t xml:space="preserve">14.4155673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4691572189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2994575500488</t>
+    <t xml:space="preserve">14.4691581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2994585037231</t>
   </si>
   <si>
     <t xml:space="preserve">13.7367677688599</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">15.1032991409302</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7906942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5674047470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4959526062012</t>
+    <t xml:space="preserve">14.7906932830811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.567403793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4959506988525</t>
   </si>
   <si>
     <t xml:space="preserve">13.8707418441772</t>
@@ -2084,10 +2084,10 @@
     <t xml:space="preserve">14.245867729187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2905254364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833477020264</t>
+    <t xml:space="preserve">14.2905263900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833467483521</t>
   </si>
   <si>
     <t xml:space="preserve">13.8260831832886</t>
@@ -2111,43 +2111,43 @@
     <t xml:space="preserve">11.4860095977783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662260055542</t>
+    <t xml:space="preserve">11.0662269592285</t>
   </si>
   <si>
     <t xml:space="preserve">11.2716522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7182302474976</t>
+    <t xml:space="preserve">11.7182312011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805833816528</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5753259658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7093000411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4145574569702</t>
+    <t xml:space="preserve">11.575325012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7092990875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4145565032959</t>
   </si>
   <si>
     <t xml:space="preserve">11.316309928894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2895154953003</t>
+    <t xml:space="preserve">11.2895164489746</t>
   </si>
   <si>
     <t xml:space="preserve">10.7536201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6021203994751</t>
+    <t xml:space="preserve">11.6021194458008</t>
   </si>
   <si>
     <t xml:space="preserve">11.3788299560547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1912679672241</t>
+    <t xml:space="preserve">11.1912670135498</t>
   </si>
   <si>
     <t xml:space="preserve">11.2537889480591</t>
@@ -2162,13 +2162,13 @@
     <t xml:space="preserve">12.2362623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2630577087402</t>
+    <t xml:space="preserve">12.2630567550659</t>
   </si>
   <si>
     <t xml:space="preserve">12.3166465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3255786895752</t>
+    <t xml:space="preserve">12.3255777359009</t>
   </si>
   <si>
     <t xml:space="preserve">12.7810888290405</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">12.3970308303833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3523721694946</t>
+    <t xml:space="preserve">12.3523731231689</t>
   </si>
   <si>
     <t xml:space="preserve">12.63818359375</t>
@@ -2189,16 +2189,16 @@
     <t xml:space="preserve">12.0219049453735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665616989136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6914358139038</t>
+    <t xml:space="preserve">12.0665626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6914367675781</t>
   </si>
   <si>
     <t xml:space="preserve">11.4324207305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8432722091675</t>
+    <t xml:space="preserve">11.8432741165161</t>
   </si>
   <si>
     <t xml:space="preserve">11.7628889083862</t>
@@ -2207,22 +2207,22 @@
     <t xml:space="preserve">11.2359266281128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9858417510986</t>
+    <t xml:space="preserve">10.9858407974243</t>
   </si>
   <si>
     <t xml:space="preserve">11.182336807251</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5574617385864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6289157867432</t>
+    <t xml:space="preserve">11.5574626922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6289148330688</t>
   </si>
   <si>
     <t xml:space="preserve">11.5931882858276</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6735734939575</t>
+    <t xml:space="preserve">11.6735725402832</t>
   </si>
   <si>
     <t xml:space="preserve">11.5395994186401</t>
@@ -2234,10 +2234,10 @@
     <t xml:space="preserve">11.8164777755737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2719879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2541265487671</t>
+    <t xml:space="preserve">12.2719888687134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2541255950928</t>
   </si>
   <si>
     <t xml:space="preserve">12.3880996704102</t>
@@ -2246,7 +2246,7 @@
     <t xml:space="preserve">13.9779195785522</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8439464569092</t>
+    <t xml:space="preserve">13.8439474105835</t>
   </si>
   <si>
     <t xml:space="preserve">13.8886041641235</t>
@@ -2258,34 +2258,34 @@
     <t xml:space="preserve">14.3441143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2101421356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1211624145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5316791534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9157361984253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4512948989868</t>
+    <t xml:space="preserve">14.2101402282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1211633682251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5316781997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9157371520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5584726333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4512939453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.1029624938965</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5227479934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.156888961792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3444499969482</t>
+    <t xml:space="preserve">14.5227470397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1568880081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3444509506226</t>
   </si>
   <si>
     <t xml:space="preserve">15.6570568084717</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">15.2729988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6749200820923</t>
+    <t xml:space="preserve">15.674919128418</t>
   </si>
   <si>
     <t xml:space="preserve">15.7017154693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4069728851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7553033828735</t>
+    <t xml:space="preserve">15.4069719314575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7553052902222</t>
   </si>
   <si>
     <t xml:space="preserve">15.8892793655396</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">16.4073104858398</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2197456359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1747531890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0675745010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0318450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926136016846</t>
+    <t xml:space="preserve">16.219747543335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1747512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.067572593689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0318470001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926155090332</t>
   </si>
   <si>
     <t xml:space="preserve">14.8442850112915</t>
@@ -2345,22 +2345,22 @@
     <t xml:space="preserve">15.2908630371094</t>
   </si>
   <si>
-    <t xml:space="preserve">14.808557510376</t>
+    <t xml:space="preserve">14.8085565567017</t>
   </si>
   <si>
     <t xml:space="preserve">15.2015466690063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0854358673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2104778289795</t>
+    <t xml:space="preserve">15.0854349136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2104787826538</t>
   </si>
   <si>
     <t xml:space="preserve">15.4962902069092</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3798427581787</t>
+    <t xml:space="preserve">14.3798408508301</t>
   </si>
   <si>
     <t xml:space="preserve">14.6120634078979</t>
@@ -2369,40 +2369,40 @@
     <t xml:space="preserve">14.1654834747314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9689893722534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2280035018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2012090682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1122303009033</t>
+    <t xml:space="preserve">13.9689903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2280054092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2012100219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.112232208252</t>
   </si>
   <si>
     <t xml:space="preserve">14.9693260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9961223602295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2194118499756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2283411026001</t>
+    <t xml:space="preserve">14.9961214065552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2194108963013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2283401489258</t>
   </si>
   <si>
     <t xml:space="preserve">14.8710775375366</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8889417648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334316253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0761671066284</t>
+    <t xml:space="preserve">14.8889408111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334297180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0761680603027</t>
   </si>
   <si>
     <t xml:space="preserve">13.1740779876709</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">12.9418573379517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2187366485596</t>
+    <t xml:space="preserve">13.2187356948853</t>
   </si>
   <si>
     <t xml:space="preserve">12.5756635665894</t>
@@ -2420,10 +2420,10 @@
     <t xml:space="preserve">12.1916036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0040407180786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.834005355835</t>
+    <t xml:space="preserve">12.0040416717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8340044021606</t>
   </si>
   <si>
     <t xml:space="preserve">10.3070411682129</t>
@@ -2432,10 +2432,10 @@
     <t xml:space="preserve">9.88725662231445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177248001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48053359985352</t>
+    <t xml:space="preserve">10.2177257537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4805326461792</t>
   </si>
   <si>
     <t xml:space="preserve">9.16379928588867</t>
@@ -2450,25 +2450,25 @@
     <t xml:space="preserve">8.35102558135986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03842067718506</t>
+    <t xml:space="preserve">8.03842163085938</t>
   </si>
   <si>
     <t xml:space="preserve">9.55678844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44960975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87832641601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94084739685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0480251312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90512084960938</t>
+    <t xml:space="preserve">9.44961071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87832546234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94084644317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0480260848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90512180328369</t>
   </si>
   <si>
     <t xml:space="preserve">9.93191528320312</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">10.7982788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8250732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.94118309021</t>
+    <t xml:space="preserve">10.8250722885132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9411840438843</t>
   </si>
   <si>
     <t xml:space="preserve">11.468147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7450256347656</t>
+    <t xml:space="preserve">11.7450246810913</t>
   </si>
   <si>
     <t xml:space="preserve">11.4770784378052</t>
@@ -2531,37 +2531,37 @@
     <t xml:space="preserve">10.4499473571777</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427677154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76221561431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9765739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98550510406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68183040618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71755790710449</t>
+    <t xml:space="preserve">10.3427686691284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623834609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76221466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97657299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98550415039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68183135986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71755695343018</t>
   </si>
   <si>
     <t xml:space="preserve">9.70862579345703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82473754882812</t>
+    <t xml:space="preserve">9.82473659515381</t>
   </si>
   <si>
     <t xml:space="preserve">9.29777336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36922454833984</t>
+    <t xml:space="preserve">9.36922550201416</t>
   </si>
   <si>
     <t xml:space="preserve">9.28884124755859</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">10.1016159057617</t>
   </si>
   <si>
-    <t xml:space="preserve">10.333836555481</t>
+    <t xml:space="preserve">10.3338356018066</t>
   </si>
   <si>
     <t xml:space="preserve">11.7360944747925</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">11.0572938919067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7357568740845</t>
+    <t xml:space="preserve">10.7357578277588</t>
   </si>
   <si>
     <t xml:space="preserve">10.0837526321411</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">10.6998729705811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.663197517395</t>
+    <t xml:space="preserve">10.6631984710693</t>
   </si>
   <si>
     <t xml:space="preserve">10.5531740188599</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">10.3881378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047643661499</t>
+    <t xml:space="preserve">10.2047634124756</t>
   </si>
   <si>
     <t xml:space="preserve">10.113076210022</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73715972900391</t>
+    <t xml:space="preserve">9.73715877532959</t>
   </si>
   <si>
     <t xml:space="preserve">10.0305576324463</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">9.46209812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34290599822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0488967895508</t>
+    <t xml:space="preserve">9.34290504455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0488958358765</t>
   </si>
   <si>
     <t xml:space="preserve">9.65464115142822</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">9.6729793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9113655090332</t>
+    <t xml:space="preserve">9.91136455535889</t>
   </si>
   <si>
     <t xml:space="preserve">9.74632835388184</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">9.45293045043945</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8557405471802</t>
+    <t xml:space="preserve">10.8557415008545</t>
   </si>
   <si>
     <t xml:space="preserve">10.9474277496338</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9382591247559</t>
+    <t xml:space="preserve">10.9382600784302</t>
   </si>
   <si>
     <t xml:space="preserve">11.5158882141113</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">11.6442489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8734664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0293340682983</t>
+    <t xml:space="preserve">11.8734674453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0293350219727</t>
   </si>
   <si>
     <t xml:space="preserve">11.6259126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4242000579834</t>
+    <t xml:space="preserve">11.4242010116577</t>
   </si>
   <si>
     <t xml:space="preserve">11.3233451843262</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">11.1491384506226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0666208267212</t>
+    <t xml:space="preserve">11.0666217803955</t>
   </si>
   <si>
     <t xml:space="preserve">10.791561126709</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">10.7273797988892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6265230178833</t>
+    <t xml:space="preserve">10.6265239715576</t>
   </si>
   <si>
     <t xml:space="preserve">10.4706563949585</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">10.5898485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6081867218018</t>
+    <t xml:space="preserve">10.6081857681274</t>
   </si>
   <si>
     <t xml:space="preserve">10.5164995193481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431505203247</t>
+    <t xml:space="preserve">10.4431495666504</t>
   </si>
   <si>
     <t xml:space="preserve">10.2597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2322692871094</t>
+    <t xml:space="preserve">10.2322702407837</t>
   </si>
   <si>
     <t xml:space="preserve">10.1314144134521</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">11.2775011062622</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9749345779419</t>
+    <t xml:space="preserve">10.9749336242676</t>
   </si>
   <si>
     <t xml:space="preserve">10.7823915481567</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">10.8924160003662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8740787506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0116100311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2133207321167</t>
+    <t xml:space="preserve">10.874077796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0116090774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2133197784424</t>
   </si>
   <si>
     <t xml:space="preserve">11.1308031082153</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">10.9932718276978</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0941286087036</t>
+    <t xml:space="preserve">11.0941276550293</t>
   </si>
   <si>
     <t xml:space="preserve">11.0849590301514</t>
@@ -2810,22 +2810,22 @@
     <t xml:space="preserve">10.9841022491455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2964496612549</t>
+    <t xml:space="preserve">10.2964506149292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5623435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4798250198364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3056192398071</t>
+    <t xml:space="preserve">10.4798240661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3056182861328</t>
   </si>
   <si>
     <t xml:space="preserve">10.3514633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0855712890625</t>
+    <t xml:space="preserve">10.0855703353882</t>
   </si>
   <si>
     <t xml:space="preserve">9.44376182556152</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">9.57212162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61796569824219</t>
+    <t xml:space="preserve">9.6179666519165</t>
   </si>
   <si>
     <t xml:space="preserve">9.32456874847412</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">10.1680898666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4425382614136</t>
+    <t xml:space="preserve">11.4425373077393</t>
   </si>
   <si>
     <t xml:space="preserve">11.6809234619141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1760339736938</t>
+    <t xml:space="preserve">12.1760330200195</t>
   </si>
   <si>
     <t xml:space="preserve">12.9370365142822</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">13.175422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4694318771362</t>
+    <t xml:space="preserve">12.4694328308105</t>
   </si>
   <si>
     <t xml:space="preserve">13.0929040908813</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">12.5611190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.57945728302</t>
+    <t xml:space="preserve">12.5794563293457</t>
   </si>
   <si>
     <t xml:space="preserve">12.5336141586304</t>
@@ -2915,19 +2915,19 @@
     <t xml:space="preserve">12.7261562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6344680786133</t>
+    <t xml:space="preserve">12.6344690322876</t>
   </si>
   <si>
     <t xml:space="preserve">12.4786005020142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5977935791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6069631576538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2762775421143</t>
+    <t xml:space="preserve">12.5977945327759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6069641113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2762784957886</t>
   </si>
   <si>
     <t xml:space="preserve">13.2946147918701</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">13.0287227630615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.184591293335</t>
+    <t xml:space="preserve">13.1845903396606</t>
   </si>
   <si>
     <t xml:space="preserve">13.1570854187012</t>
@@ -2957,10 +2957,10 @@
     <t xml:space="preserve">13.1295785903931</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662530899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8728551864624</t>
+    <t xml:space="preserve">13.1662540435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8728561401367</t>
   </si>
   <si>
     <t xml:space="preserve">13.4413146972656</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">13.6613636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9639301300049</t>
+    <t xml:space="preserve">13.9639310836792</t>
   </si>
   <si>
     <t xml:space="preserve">13.8630743026733</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">13.2487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5880146026611</t>
+    <t xml:space="preserve">13.5880136489868</t>
   </si>
   <si>
     <t xml:space="preserve">13.6155204772949</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">14.4773778915405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7157640457153</t>
+    <t xml:space="preserve">14.715763092041</t>
   </si>
   <si>
     <t xml:space="preserve">14.7982816696167</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">15.100848197937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2108736038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1100168228149</t>
+    <t xml:space="preserve">15.2108745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1100177764893</t>
   </si>
   <si>
     <t xml:space="preserve">15.2750558853149</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">14.9083070755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4223651885986</t>
+    <t xml:space="preserve">14.4223642349243</t>
   </si>
   <si>
     <t xml:space="preserve">14.7891130447388</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">15.0916805267334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3850793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4309215545654</t>
+    <t xml:space="preserve">15.3850812911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4309234619141</t>
   </si>
   <si>
     <t xml:space="preserve">15.3392353057861</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">15.3300666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4859352111816</t>
+    <t xml:space="preserve">15.485933303833</t>
   </si>
   <si>
     <t xml:space="preserve">17.1454696655273</t>
@@ -3101,22 +3101,22 @@
     <t xml:space="preserve">16.7053718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7237091064453</t>
+    <t xml:space="preserve">16.7237110137939</t>
   </si>
   <si>
     <t xml:space="preserve">16.9254207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1919250488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3294544219971</t>
+    <t xml:space="preserve">16.1919269561768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3294563293457</t>
   </si>
   <si>
     <t xml:space="preserve">16.1094074249268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2010955810547</t>
+    <t xml:space="preserve">16.2010936737061</t>
   </si>
   <si>
     <t xml:space="preserve">16.0818996429443</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">15.9902143478394</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9718770980835</t>
+    <t xml:space="preserve">15.9718751907349</t>
   </si>
   <si>
     <t xml:space="preserve">16.0360565185547</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">15.999382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8068408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8801898956299</t>
+    <t xml:space="preserve">15.8068389892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8801879882812</t>
   </si>
   <si>
     <t xml:space="preserve">16.1827564239502</t>
@@ -3170,10 +3170,10 @@
     <t xml:space="preserve">15.8893575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5776233673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8435144424438</t>
+    <t xml:space="preserve">15.5776214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8435163497925</t>
   </si>
   <si>
     <t xml:space="preserve">16.0085487365723</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">15.568452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1283550262451</t>
+    <t xml:space="preserve">15.1283559799194</t>
   </si>
   <si>
     <t xml:space="preserve">15.3117303848267</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">17.6039047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2915592193604</t>
+    <t xml:space="preserve">18.2915573120117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3190631866455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9608745574951</t>
+    <t xml:space="preserve">18.9608726501465</t>
   </si>
   <si>
     <t xml:space="preserve">19.1809215545654</t>
@@ -61666,7 +61666,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6494560185</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>45045</v>
@@ -61687,6 +61687,32 @@
         <v>1659</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6493171296</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>20777</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>5.65999984741211</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>5.57000017166138</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>5.63000011444092</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>5.57999992370605</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -44,25 +44,25 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4113359451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4030323028564</t>
+    <t xml:space="preserve">13.411337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4030332565308</t>
   </si>
   <si>
     <t xml:space="preserve">13.0874729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5809125900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4563503265381</t>
+    <t xml:space="preserve">12.5809135437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4563493728638</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715620040894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1372976303101</t>
+    <t xml:space="preserve">13.1372957229614</t>
   </si>
   <si>
     <t xml:space="preserve">13.6106386184692</t>
@@ -71,40 +71,40 @@
     <t xml:space="preserve">13.1206893920898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0210390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2950792312622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.647346496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9795160293579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7719125747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9463005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.788519859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3483953475952</t>
+    <t xml:space="preserve">13.0210380554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2950773239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6473474502563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9795179367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7719106674194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9462995529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7885189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3483943939209</t>
   </si>
   <si>
     <t xml:space="preserve">12.2072219848633</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5726099014282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840562820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5345811843872</t>
+    <t xml:space="preserve">12.5726089477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840572357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345802307129</t>
   </si>
   <si>
     <t xml:space="preserve">12.0245294570923</t>
@@ -113,88 +113,88 @@
     <t xml:space="preserve">11.650839805603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0577459335327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1075716018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.916576385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4397420883179</t>
+    <t xml:space="preserve">12.0577478408813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.107572555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9165754318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4397411346436</t>
   </si>
   <si>
     <t xml:space="preserve">12.0826597213745</t>
   </si>
   <si>
-    <t xml:space="preserve">12.290265083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4148283004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2487440109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2404403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9580955505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7338829040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.556001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961252212524</t>
+    <t xml:space="preserve">12.2902669906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4148292541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2487449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2404384613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9580965042114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7338809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5560007095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961261749268</t>
   </si>
   <si>
     <t xml:space="preserve">13.0376462936401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.830039024353</t>
+    <t xml:space="preserve">12.8300399780273</t>
   </si>
   <si>
     <t xml:space="preserve">12.7054767608643</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7469997406006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7137823104858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4528608322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6189403533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5857248306274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7850275039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9261999130249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0258493423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9926338195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1171970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2417593002319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2666730880737</t>
+    <t xml:space="preserve">12.7469987869263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7137813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4528589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6189432144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5857257843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7850284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9262008666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0258502960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9926347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1171960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2417602539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2666721343994</t>
   </si>
   <si>
     <t xml:space="preserve">14.0175447463989</t>
@@ -203,76 +203,76 @@
     <t xml:space="preserve">13.6770725250244</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3781204223633</t>
+    <t xml:space="preserve">13.3781213760376</t>
   </si>
   <si>
     <t xml:space="preserve">13.7601146697998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7518110275269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8431577682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6272459030151</t>
+    <t xml:space="preserve">13.7518091201782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8431568145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6272478103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.6604652404785</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7352027893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7185926437378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687669754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3199911117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2203388214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2701654434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4943799972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2037315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0791683197021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.971212387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1954259872437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3526620864868</t>
+    <t xml:space="preserve">13.7352018356323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7185955047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687679290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3199920654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2203397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2701635360718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4943790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2037296295166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0791673660278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9712114334106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1954278945923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3526611328125</t>
   </si>
   <si>
     <t xml:space="preserve">12.7449560165405</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7027549743652</t>
+    <t xml:space="preserve">12.7027540206909</t>
   </si>
   <si>
     <t xml:space="preserve">12.5761489868164</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5086250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8209180831909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8293609619141</t>
+    <t xml:space="preserve">12.5086259841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8209199905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8293590545654</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968830108643</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">12.8631210327148</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8884429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1078929901123</t>
+    <t xml:space="preserve">12.8884439468384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.107892036438</t>
   </si>
   <si>
     <t xml:space="preserve">13.3357830047607</t>
@@ -296,10 +296,10 @@
     <t xml:space="preserve">13.5045890808105</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6649560928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4539470672607</t>
+    <t xml:space="preserve">13.6649570465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4539461135864</t>
   </si>
   <si>
     <t xml:space="preserve">13.4961490631104</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">13.4455070495605</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2176170349121</t>
+    <t xml:space="preserve">13.2176160812378</t>
   </si>
   <si>
     <t xml:space="preserve">12.972846031189</t>
@@ -317,13 +317,13 @@
     <t xml:space="preserve">12.9137630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3144979476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9600028991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8418369293213</t>
+    <t xml:space="preserve">12.3144989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9600019454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8418378829956</t>
   </si>
   <si>
     <t xml:space="preserve">11.411376953125</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">11.622386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1710119247437</t>
+    <t xml:space="preserve">12.1710109710693</t>
   </si>
   <si>
     <t xml:space="preserve">12.6605520248413</t>
@@ -341,13 +341,13 @@
     <t xml:space="preserve">12.1794519424438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9262409210205</t>
+    <t xml:space="preserve">11.9262390136719</t>
   </si>
   <si>
     <t xml:space="preserve">12.0528469085693</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2847719192505</t>
+    <t xml:space="preserve">11.2847709655762</t>
   </si>
   <si>
     <t xml:space="preserve">10.5673408508301</t>
@@ -368,16 +368,16 @@
     <t xml:space="preserve">11.782753944397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5211029052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4620189666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658739089966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2976179122925</t>
+    <t xml:space="preserve">11.5211019515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4620208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658720016479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2976150512695</t>
   </si>
   <si>
     <t xml:space="preserve">12.3229389190674</t>
@@ -389,64 +389,64 @@
     <t xml:space="preserve">12.4748649597168</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1541299819946</t>
+    <t xml:space="preserve">12.1541309356689</t>
   </si>
   <si>
     <t xml:space="preserve">12.4579839706421</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3735799789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7871570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0403680801392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5214710235596</t>
+    <t xml:space="preserve">12.3735790252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7871580123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0403690338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5214719772339</t>
   </si>
   <si>
     <t xml:space="preserve">13.6902770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7662401199341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8000020980835</t>
+    <t xml:space="preserve">13.6311960220337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7662391662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8000030517578</t>
   </si>
   <si>
     <t xml:space="preserve">13.6227540969849</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7155990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0025701522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9478921890259</t>
+    <t xml:space="preserve">13.7155981063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0025720596313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9478912353516</t>
   </si>
   <si>
     <t xml:space="preserve">14.6018371582031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0491762161255</t>
+    <t xml:space="preserve">15.0491771697998</t>
   </si>
   <si>
     <t xml:space="preserve">14.53431224823</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8550491333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4121122360229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4880781173706</t>
+    <t xml:space="preserve">14.8550510406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4121131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4880771636963</t>
   </si>
   <si>
     <t xml:space="preserve">15.3445892333984</t>
@@ -455,34 +455,34 @@
     <t xml:space="preserve">15.547158241272</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3192682266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1082582473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0154161453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699102401733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4796333312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.859450340271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.893214225769</t>
+    <t xml:space="preserve">15.3192701339722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0154151916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699083328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4796352386475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8594532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8932104110718</t>
   </si>
   <si>
     <t xml:space="preserve">15.8678913116455</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8256902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7834873199463</t>
+    <t xml:space="preserve">15.8256921768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7834892272949</t>
   </si>
   <si>
     <t xml:space="preserve">16.0451412200928</t>
@@ -494,304 +494,304 @@
     <t xml:space="preserve">16.2139453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">16.112663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0366992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5977983474731</t>
+    <t xml:space="preserve">16.1126613616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0367012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5978002548218</t>
   </si>
   <si>
     <t xml:space="preserve">15.4458723068237</t>
   </si>
   <si>
-    <t xml:space="preserve">15.564040184021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5133972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6231231689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.247709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1970672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607372283936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5302753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1464214324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0029354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9100933074951</t>
+    <t xml:space="preserve">15.564037322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5133981704712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.623122215271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2477073669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1970691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607353210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5302782058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1464233398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0029373168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9100961685181</t>
   </si>
   <si>
     <t xml:space="preserve">16.289909362793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9691781997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7497291564941</t>
+    <t xml:space="preserve">15.9691743850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7497262954712</t>
   </si>
   <si>
     <t xml:space="preserve">15.6146821975708</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9438552856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0788993835449</t>
+    <t xml:space="preserve">15.9438571929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0789012908936</t>
   </si>
   <si>
     <t xml:space="preserve">16.0620212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1211032867432</t>
+    <t xml:space="preserve">16.1211051940918</t>
   </si>
   <si>
     <t xml:space="preserve">16.053581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9269752502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614702224731</t>
+    <t xml:space="preserve">15.9269771575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614692687988</t>
   </si>
   <si>
     <t xml:space="preserve">15.6990852355957</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9945011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5556001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2517461776733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.268627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044090270996</t>
+    <t xml:space="preserve">15.994499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5555992126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.251745223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2686252593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.804404258728</t>
   </si>
   <si>
     <t xml:space="preserve">15.133581161499</t>
   </si>
   <si>
-    <t xml:space="preserve">14.981653213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926622390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9141302108765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1167001724243</t>
+    <t xml:space="preserve">14.9816551208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.192663192749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9141321182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1167011260986</t>
   </si>
   <si>
     <t xml:space="preserve">15.2770671844482</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1673412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0069761276245</t>
+    <t xml:space="preserve">15.1673431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0069770812988</t>
   </si>
   <si>
     <t xml:space="preserve">14.7959671020508</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0238552093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6355991363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3486270904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0616521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0194520950317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.83376121521</t>
+    <t xml:space="preserve">15.023853302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6356019973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3486261367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0194530487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8337631225586</t>
   </si>
   <si>
     <t xml:space="preserve">13.5889930725098</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9688081741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2557811737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4499130249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5933980941772</t>
+    <t xml:space="preserve">13.9688091278076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2557821273804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.449912071228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5933990478516</t>
   </si>
   <si>
     <t xml:space="preserve">14.8972492218018</t>
   </si>
   <si>
-    <t xml:space="preserve">14.686240196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7159652709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.775050163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4374361038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5724811553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6484422683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0113773345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3658752441406</t>
+    <t xml:space="preserve">14.6862411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7159671783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7750473022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4374332427979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6484451293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0113792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3658714294434</t>
   </si>
   <si>
     <t xml:space="preserve">16.3152313232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2983512878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2223873138428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1379833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3743133544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2645893096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1633033752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8510093688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.952296257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6022033691406</t>
+    <t xml:space="preserve">16.2983493804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2223892211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1379852294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3743114471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.264591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1633052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8510131835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9522953033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6022052764893</t>
   </si>
   <si>
     <t xml:space="preserve">16.6697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6781692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7288093566895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7963333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1508293151855</t>
+    <t xml:space="preserve">16.6781673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7288112640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7963352203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1508274078369</t>
   </si>
   <si>
     <t xml:space="preserve">17.1001873016357</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3449535369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3955993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1339492797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2605533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9482593536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7625732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5431213378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8807353973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7878913879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8300952911377</t>
+    <t xml:space="preserve">17.3449573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.395601272583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1339473724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2605514526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9482612609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7625713348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5431232452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8807373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7878932952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8300933837891</t>
   </si>
   <si>
     <t xml:space="preserve">17.2858734130859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247734069824</t>
+    <t xml:space="preserve">17.7247714996338</t>
   </si>
   <si>
     <t xml:space="preserve">17.8091773986816</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8766994476318</t>
+    <t xml:space="preserve">17.8767013549805</t>
   </si>
   <si>
     <t xml:space="preserve">18.2311954498291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.374683380127</t>
+    <t xml:space="preserve">18.3746814727783</t>
   </si>
   <si>
     <t xml:space="preserve">18.6447734832764</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2862415313721</t>
+    <t xml:space="preserve">19.2862396240234</t>
   </si>
   <si>
     <t xml:space="preserve">19.6660575866699</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6407337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9530296325684</t>
+    <t xml:space="preserve">19.6407375335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9530277252197</t>
   </si>
   <si>
     <t xml:space="preserve">20.2146835327148</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3412857055664</t>
+    <t xml:space="preserve">20.341287612915</t>
   </si>
   <si>
     <t xml:space="preserve">20.3581695556641</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">20.7211036682129</t>
   </si>
   <si>
-    <t xml:space="preserve">20.459451675415</t>
+    <t xml:space="preserve">20.4594535827637</t>
   </si>
   <si>
     <t xml:space="preserve">20.5691776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5944957733154</t>
+    <t xml:space="preserve">20.5944976806641</t>
   </si>
   <si>
     <t xml:space="preserve">20.6789035797119</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3328495025635</t>
+    <t xml:space="preserve">20.3328475952148</t>
   </si>
   <si>
     <t xml:space="preserve">20.5438575744629</t>
@@ -824,10 +824,10 @@
     <t xml:space="preserve">20.2568836212158</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5016555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4172534942627</t>
+    <t xml:space="preserve">20.5016536712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4172515869141</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036754608154</t>
@@ -839,16 +839,16 @@
     <t xml:space="preserve">19.7589015960693</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9614696502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9023857116699</t>
+    <t xml:space="preserve">19.9614715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9023895263672</t>
   </si>
   <si>
     <t xml:space="preserve">19.4719295501709</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4128456115723</t>
+    <t xml:space="preserve">19.4128475189209</t>
   </si>
   <si>
     <t xml:space="preserve">19.5310134887695</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">20.7886276245117</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2528457641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7761497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5651416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9811000823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.22021484375</t>
+    <t xml:space="preserve">21.2528476715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7761478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5651378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9811019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2202129364014</t>
   </si>
   <si>
     <t xml:space="preserve">21.9469432830811</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1177387237549</t>
+    <t xml:space="preserve">22.1177368164062</t>
   </si>
   <si>
     <t xml:space="preserve">21.7846927642822</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">21.5455799102783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5626583099365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4943428039551</t>
+    <t xml:space="preserve">21.5626602172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4943408966064</t>
   </si>
   <si>
     <t xml:space="preserve">21.3918647766113</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">21.3491668701172</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5199604034424</t>
+    <t xml:space="preserve">21.519962310791</t>
   </si>
   <si>
     <t xml:space="preserve">22.0152626037598</t>
@@ -917,43 +917,43 @@
     <t xml:space="preserve">22.0238018035889</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9640235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1604347229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.066499710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8615455627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8359298706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945953369141</t>
+    <t xml:space="preserve">21.9640254974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.160436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0664978027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8615474700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945934295654</t>
   </si>
   <si>
     <t xml:space="preserve">21.2893886566162</t>
   </si>
   <si>
-    <t xml:space="preserve">21.605354309082</t>
+    <t xml:space="preserve">21.6053581237793</t>
   </si>
   <si>
     <t xml:space="preserve">21.3150081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8111667633057</t>
+    <t xml:space="preserve">20.8111686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.0673580169678</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1356754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9648838043213</t>
+    <t xml:space="preserve">21.1356735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9648818969727</t>
   </si>
   <si>
     <t xml:space="preserve">21.1185970306396</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">21.3064708709717</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9563426971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3073291778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1279945373535</t>
+    <t xml:space="preserve">20.9563407897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3073272705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1279926300049</t>
   </si>
   <si>
     <t xml:space="preserve">19.9059638977051</t>
@@ -986,28 +986,28 @@
     <t xml:space="preserve">19.624153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0340576171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5472965240479</t>
+    <t xml:space="preserve">20.0340595245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5472984313965</t>
   </si>
   <si>
     <t xml:space="preserve">20.0682144165039</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4354248046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4866600036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954536437988</t>
+    <t xml:space="preserve">20.4354228973389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4866580963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954517364502</t>
   </si>
   <si>
     <t xml:space="preserve">20.7513904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1698360443115</t>
+    <t xml:space="preserve">21.1698379516602</t>
   </si>
   <si>
     <t xml:space="preserve">21.2296123504639</t>
@@ -1016,22 +1016,22 @@
     <t xml:space="preserve">21.8017711639404</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7932281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9298667907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6907539367676</t>
+    <t xml:space="preserve">21.7932319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9298629760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6907520294189</t>
   </si>
   <si>
     <t xml:space="preserve">22.2031307220459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3226890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0921192169189</t>
+    <t xml:space="preserve">22.3226852416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0921211242676</t>
   </si>
   <si>
     <t xml:space="preserve">22.0750370025635</t>
@@ -1043,28 +1043,28 @@
     <t xml:space="preserve">22.1348171234131</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5959568023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4764022827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5874195098877</t>
+    <t xml:space="preserve">22.5959587097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4764041900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5874214172363</t>
   </si>
   <si>
     <t xml:space="preserve">22.3653888702393</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9973201751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8521480560303</t>
+    <t xml:space="preserve">22.9973220825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8521499633789</t>
   </si>
   <si>
     <t xml:space="preserve">22.553258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4422454833984</t>
+    <t xml:space="preserve">22.4422435760498</t>
   </si>
   <si>
     <t xml:space="preserve">22.8436088562012</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">23.7402725219727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1843357086182</t>
+    <t xml:space="preserve">24.1843338012695</t>
   </si>
   <si>
     <t xml:space="preserve">24.1160182952881</t>
@@ -1100,7 +1100,7 @@
     <t xml:space="preserve">24.3038902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6198596954346</t>
+    <t xml:space="preserve">24.6198577880859</t>
   </si>
   <si>
     <t xml:space="preserve">25.029764175415</t>
@@ -1112,31 +1112,31 @@
     <t xml:space="preserve">25.2090950012207</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1407794952393</t>
+    <t xml:space="preserve">25.1407814025879</t>
   </si>
   <si>
     <t xml:space="preserve">25.2005577087402</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5592231750488</t>
+    <t xml:space="preserve">25.5592250823975</t>
   </si>
   <si>
     <t xml:space="preserve">25.0724620819092</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1663970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7564945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6796379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7735748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1578578948975</t>
+    <t xml:space="preserve">25.1663990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7564926147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6796360015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7735729217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1578559875488</t>
   </si>
   <si>
     <t xml:space="preserve">25.4225883483887</t>
@@ -1154,7 +1154,7 @@
     <t xml:space="preserve">26.2338562011719</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0972194671631</t>
+    <t xml:space="preserve">26.0972213745117</t>
   </si>
   <si>
     <t xml:space="preserve">26.0459823608398</t>
@@ -1163,7 +1163,7 @@
     <t xml:space="preserve">25.8751888275146</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8581104278564</t>
+    <t xml:space="preserve">25.8581123352051</t>
   </si>
   <si>
     <t xml:space="preserve">26.9597282409668</t>
@@ -1172,31 +1172,31 @@
     <t xml:space="preserve">27.2329959869385</t>
   </si>
   <si>
-    <t xml:space="preserve">26.729154586792</t>
+    <t xml:space="preserve">26.7291584014893</t>
   </si>
   <si>
     <t xml:space="preserve">26.4131889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3457317352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7641735076904</t>
+    <t xml:space="preserve">25.3457298278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7641754150391</t>
   </si>
   <si>
     <t xml:space="preserve">25.9605865478516</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7812538146973</t>
+    <t xml:space="preserve">25.7812557220459</t>
   </si>
   <si>
     <t xml:space="preserve">26.7035388946533</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5660438537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.258617401123</t>
+    <t xml:space="preserve">27.5660457611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2586154937744</t>
   </si>
   <si>
     <t xml:space="preserve">28.4370880126953</t>
@@ -1208,46 +1208,46 @@
     <t xml:space="preserve">28.7274398803711</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2406787872314</t>
+    <t xml:space="preserve">28.2406768798828</t>
   </si>
   <si>
     <t xml:space="preserve">28.8555355072021</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3346157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0015697479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5156650543213</t>
+    <t xml:space="preserve">28.3346118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0015659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5156631469727</t>
   </si>
   <si>
     <t xml:space="preserve">26.1313800811768</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7043972015381</t>
+    <t xml:space="preserve">25.7043952941895</t>
   </si>
   <si>
     <t xml:space="preserve">25.8239517211914</t>
   </si>
   <si>
-    <t xml:space="preserve">25.789794921875</t>
+    <t xml:space="preserve">25.7897930145264</t>
   </si>
   <si>
     <t xml:space="preserve">26.4815063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0630626678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9520454406738</t>
+    <t xml:space="preserve">26.0630645751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9520473480225</t>
   </si>
   <si>
     <t xml:space="preserve">26.4302711486816</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8999500274658</t>
+    <t xml:space="preserve">26.8999519348145</t>
   </si>
   <si>
     <t xml:space="preserve">26.8401737213135</t>
@@ -1259,22 +1259,22 @@
     <t xml:space="preserve">26.9511871337891</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7974758148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0195064544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7718563079834</t>
+    <t xml:space="preserve">26.7974739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0195045471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7718544006348</t>
   </si>
   <si>
     <t xml:space="preserve">26.5583648681641</t>
   </si>
   <si>
-    <t xml:space="preserve">26.643762588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7633152008057</t>
+    <t xml:space="preserve">26.6437606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.763313293457</t>
   </si>
   <si>
     <t xml:space="preserve">27.0280456542969</t>
@@ -1283,10 +1283,10 @@
     <t xml:space="preserve">27.3269348144531</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4388084411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2765560150146</t>
+    <t xml:space="preserve">26.4388065338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.276554107666</t>
   </si>
   <si>
     <t xml:space="preserve">25.6616992950439</t>
@@ -1295,67 +1295,67 @@
     <t xml:space="preserve">26.6096038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2509346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6266822814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3192520141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9264316558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9426498413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0528030395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8820114135742</t>
+    <t xml:space="preserve">26.2509365081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6266803741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3192501068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9264278411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.94264793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.052806854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8820133209229</t>
   </si>
   <si>
     <t xml:space="preserve">28.7359809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9674072265625</t>
+    <t xml:space="preserve">27.9674091339111</t>
   </si>
   <si>
     <t xml:space="preserve">27.7966156005859</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4123287200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.857250213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.497730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5831241607666</t>
+    <t xml:space="preserve">27.4123268127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8572540283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.583122253418</t>
   </si>
   <si>
     <t xml:space="preserve">28.0955047607422</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6505851745605</t>
+    <t xml:space="preserve">28.6505813598633</t>
   </si>
   <si>
     <t xml:space="preserve">29.2483596801758</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5651836395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1382026672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.924711227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4550304412842</t>
+    <t xml:space="preserve">28.565185546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.138204574585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9247093200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4550285339355</t>
   </si>
   <si>
     <t xml:space="preserve">26.302173614502</t>
@@ -1364,25 +1364,25 @@
     <t xml:space="preserve">25.8324909210205</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0212230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.149320602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8145542144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6010589599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3448696136475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4729652404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5088443756104</t>
+    <t xml:space="preserve">25.0212249755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1493186950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8145523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6010627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3448715209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4729690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5088424682617</t>
   </si>
   <si>
     <t xml:space="preserve">25.6190013885498</t>
@@ -1397,79 +1397,79 @@
     <t xml:space="preserve">24.7223358154297</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1783752441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6480541229248</t>
+    <t xml:space="preserve">21.178373336792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6480560302734</t>
   </si>
   <si>
     <t xml:space="preserve">21.7334518432617</t>
   </si>
   <si>
-    <t xml:space="preserve">20.665994644165</t>
+    <t xml:space="preserve">20.6659927368164</t>
   </si>
   <si>
     <t xml:space="preserve">21.4772624969482</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2458343505859</t>
+    <t xml:space="preserve">22.2458305358887</t>
   </si>
   <si>
     <t xml:space="preserve">22.7155132293701</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8009090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5267848968506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8863067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9042434692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5020236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3739280700684</t>
+    <t xml:space="preserve">22.800910949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.526782989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8863086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9042453765869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5020217895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3739261627197</t>
   </si>
   <si>
     <t xml:space="preserve">22.7582130432129</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5694789886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2705936431885</t>
+    <t xml:space="preserve">23.5694808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2705917358398</t>
   </si>
   <si>
     <t xml:space="preserve">23.6975746154785</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0997982025146</t>
+    <t xml:space="preserve">23.099796295166</t>
   </si>
   <si>
     <t xml:space="preserve">23.441385269165</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2953510284424</t>
+    <t xml:space="preserve">24.295352935791</t>
   </si>
   <si>
     <t xml:space="preserve">23.8256702423096</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7650318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0707454681396</t>
+    <t xml:space="preserve">24.7650337219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0707416534424</t>
   </si>
   <si>
     <t xml:space="preserve">25.9178886413574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.576301574707</t>
+    <t xml:space="preserve">25.5763034820557</t>
   </si>
   <si>
     <t xml:space="preserve">25.4055099487305</t>
@@ -1484,16 +1484,16 @@
     <t xml:space="preserve">26.0032863616943</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9164619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.308708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8730506896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1335201263428</t>
+    <t xml:space="preserve">25.9164657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3087062835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8730525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1335182189941</t>
   </si>
   <si>
     <t xml:space="preserve">26.4373970031738</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">27.0451526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0017414093018</t>
+    <t xml:space="preserve">27.0017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">26.5676307678223</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5660877227783</t>
+    <t xml:space="preserve">27.5660858154297</t>
   </si>
   <si>
     <t xml:space="preserve">28.4777221679688</t>
@@ -1523,40 +1523,40 @@
     <t xml:space="preserve">27.4792652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7412738800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7846851348877</t>
+    <t xml:space="preserve">26.7412757873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7846870422363</t>
   </si>
   <si>
     <t xml:space="preserve">26.3071613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6110401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9583320617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5242176055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9149208068848</t>
+    <t xml:space="preserve">26.6110420227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9583301544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5242195129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9149188995361</t>
   </si>
   <si>
     <t xml:space="preserve">27.4358539581299</t>
   </si>
   <si>
-    <t xml:space="preserve">27.088565826416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2187976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3490295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.175386428833</t>
+    <t xml:space="preserve">27.0885639190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2187995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3490314483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1753883361816</t>
   </si>
   <si>
     <t xml:space="preserve">27.6094970703125</t>
@@ -1568,13 +1568,13 @@
     <t xml:space="preserve">28.3474903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4389381408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7877731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9180068969727</t>
+    <t xml:space="preserve">25.4389400482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7877712249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.918004989624</t>
   </si>
   <si>
     <t xml:space="preserve">25.2218837738037</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">24.9614162445068</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0482387542725</t>
+    <t xml:space="preserve">25.0482406616211</t>
   </si>
   <si>
     <t xml:space="preserve">25.0916500091553</t>
@@ -1598,19 +1598,19 @@
     <t xml:space="preserve">25.395528793335</t>
   </si>
   <si>
-    <t xml:space="preserve">25.525764465332</t>
+    <t xml:space="preserve">25.5257625579834</t>
   </si>
   <si>
     <t xml:space="preserve">26.6978645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8265552520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1319770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3056201934814</t>
+    <t xml:space="preserve">27.8265533447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1319751739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3056221008301</t>
   </si>
   <si>
     <t xml:space="preserve">27.8699626922607</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">27.7397327423096</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9567909240723</t>
+    <t xml:space="preserve">27.9567890167236</t>
   </si>
   <si>
     <t xml:space="preserve">27.6529121398926</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">24.2234287261963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7908573150635</t>
+    <t xml:space="preserve">22.7908592224121</t>
   </si>
   <si>
     <t xml:space="preserve">22.4869823455811</t>
@@ -1655,16 +1655,16 @@
     <t xml:space="preserve">21.7924041748047</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7040367126465</t>
+    <t xml:space="preserve">22.7040386199951</t>
   </si>
   <si>
     <t xml:space="preserve">22.5303936004639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8358135223389</t>
+    <t xml:space="preserve">22.1396903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8358154296875</t>
   </si>
   <si>
     <t xml:space="preserve">20.6637115478516</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">21.2280559539795</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8776836395264</t>
+    <t xml:space="preserve">22.8776817321777</t>
   </si>
   <si>
     <t xml:space="preserve">21.9660453796387</t>
@@ -1691,7 +1691,7 @@
     <t xml:space="preserve">23.1381492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">24.049783706665</t>
+    <t xml:space="preserve">24.0497856140137</t>
   </si>
   <si>
     <t xml:space="preserve">23.35520362854</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">18.8838539123535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3195133209229</t>
+    <t xml:space="preserve">18.3195114135742</t>
   </si>
   <si>
     <t xml:space="preserve">18.4063320159912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.536563873291</t>
+    <t xml:space="preserve">18.5365657806396</t>
   </si>
   <si>
     <t xml:space="preserve">18.7536220550537</t>
@@ -1721,10 +1721,10 @@
     <t xml:space="preserve">19.6218433380127</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7520790100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5350227355957</t>
+    <t xml:space="preserve">19.7520771026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5350208282471</t>
   </si>
   <si>
     <t xml:space="preserve">19.7954883575439</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">20.3164234161377</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4900684356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4466571807861</t>
+    <t xml:space="preserve">20.4900703430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4466552734375</t>
   </si>
   <si>
     <t xml:space="preserve">20.0125465393066</t>
@@ -1745,19 +1745,19 @@
     <t xml:space="preserve">20.0559577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9272651672363</t>
+    <t xml:space="preserve">18.927267074585</t>
   </si>
   <si>
     <t xml:space="preserve">18.6667995452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.668342590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6233901977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0156307220459</t>
+    <t xml:space="preserve">17.6683444976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6233882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0156326293945</t>
   </si>
   <si>
     <t xml:space="preserve">18.23268699646</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">17.7985763549805</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4512882232666</t>
+    <t xml:space="preserve">17.451286315918</t>
   </si>
   <si>
     <t xml:space="preserve">17.581521987915</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">17.7117538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3644638061523</t>
+    <t xml:space="preserve">17.364465713501</t>
   </si>
   <si>
     <t xml:space="preserve">19.144323348999</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">20.3598346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5334777832031</t>
+    <t xml:space="preserve">20.5334796905518</t>
   </si>
   <si>
     <t xml:space="preserve">20.4032440185547</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8807678222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7939491271973</t>
+    <t xml:space="preserve">20.880765914917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7939472198486</t>
   </si>
   <si>
     <t xml:space="preserve">21.5319347381592</t>
@@ -1808,37 +1808,37 @@
     <t xml:space="preserve">21.6621704101562</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3148803710938</t>
+    <t xml:space="preserve">21.3148784637451</t>
   </si>
   <si>
     <t xml:space="preserve">21.0978240966797</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7505359649658</t>
+    <t xml:space="preserve">20.7505340576172</t>
   </si>
   <si>
     <t xml:space="preserve">20.2296009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0110015869141</t>
+    <t xml:space="preserve">21.0110034942627</t>
   </si>
   <si>
     <t xml:space="preserve">20.6203022003174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9241790771484</t>
+    <t xml:space="preserve">20.9241809844971</t>
   </si>
   <si>
     <t xml:space="preserve">20.1861915588379</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2730121612549</t>
+    <t xml:space="preserve">20.2730140686035</t>
   </si>
   <si>
     <t xml:space="preserve">19.9691333770752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.145866394043</t>
+    <t xml:space="preserve">18.1458644866943</t>
   </si>
   <si>
     <t xml:space="preserve">17.3470993041992</t>
@@ -1847,10 +1847,10 @@
     <t xml:space="preserve">17.4078750610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2950077056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.260274887085</t>
+    <t xml:space="preserve">17.2950057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2602767944336</t>
   </si>
   <si>
     <t xml:space="preserve">17.9288082122803</t>
@@ -1859,43 +1859,43 @@
     <t xml:space="preserve">18.0590419769287</t>
   </si>
   <si>
-    <t xml:space="preserve">18.180591583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2153205871582</t>
+    <t xml:space="preserve">18.1805934906006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2153224945068</t>
   </si>
   <si>
     <t xml:space="preserve">19.1877346038818</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5176563262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2398281097412</t>
+    <t xml:space="preserve">19.5176582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2398262023926</t>
   </si>
   <si>
     <t xml:space="preserve">18.9446296691895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.51051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.093770980835</t>
+    <t xml:space="preserve">18.5105171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0937728881836</t>
   </si>
   <si>
     <t xml:space="preserve">18.4931545257568</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9619941711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0140895843506</t>
+    <t xml:space="preserve">18.9619960784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.014087677002</t>
   </si>
   <si>
     <t xml:space="preserve">18.5278835296631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6494331359863</t>
+    <t xml:space="preserve">18.6494369506836</t>
   </si>
   <si>
     <t xml:space="preserve">18.8578071594238</t>
@@ -1907,82 +1907,82 @@
     <t xml:space="preserve">18.6320686340332</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3991947174072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4339199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3123683929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2705020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1836814880371</t>
+    <t xml:space="preserve">17.3991966247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4339237213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3123722076416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2705039978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">16.0187206268311</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5672426223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3501853942871</t>
+    <t xml:space="preserve">15.5672416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3501863479614</t>
   </si>
   <si>
     <t xml:space="preserve">15.3935976028442</t>
   </si>
   <si>
-    <t xml:space="preserve">16.383373260498</t>
+    <t xml:space="preserve">16.3833751678467</t>
   </si>
   <si>
     <t xml:space="preserve">16.8088035583496</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7132987976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8016624450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7929821014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7842969894409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3849153518677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549877166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0768432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.094705581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4337701797485</t>
+    <t xml:space="preserve">16.7132968902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8016633987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7929830551147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7842979431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3849143981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.549880027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0768413543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0947036743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4337682723999</t>
   </si>
   <si>
     <t xml:space="preserve">15.5677423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3801774978638</t>
+    <t xml:space="preserve">15.3801784515381</t>
   </si>
   <si>
     <t xml:space="preserve">15.3623161315918</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5320138931274</t>
+    <t xml:space="preserve">15.5320167541504</t>
   </si>
   <si>
     <t xml:space="preserve">15.2551355361938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6213302612305</t>
+    <t xml:space="preserve">15.6213321685791</t>
   </si>
   <si>
     <t xml:space="preserve">16.7645721435547</t>
@@ -1991,19 +1991,19 @@
     <t xml:space="preserve">16.4341049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6391935348511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2372722625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1836843490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8978719711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.094367980957</t>
+    <t xml:space="preserve">15.639196395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2372713088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1836833953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.897873878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0943670272827</t>
   </si>
   <si>
     <t xml:space="preserve">15.3176574707031</t>
@@ -2012,13 +2012,13 @@
     <t xml:space="preserve">15.1390266418457</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9335994720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7371053695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8800106048584</t>
+    <t xml:space="preserve">14.9335975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7371044158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8800086975098</t>
   </si>
   <si>
     <t xml:space="preserve">15.5588092803955</t>
@@ -2033,16 +2033,16 @@
     <t xml:space="preserve">15.4516296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7374420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1300945281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0407781600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0586423873901</t>
+    <t xml:space="preserve">15.7374410629272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1300935745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0407772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0586414337158</t>
   </si>
   <si>
     <t xml:space="preserve">14.6299247741699</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">14.4691581726074</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2994585037231</t>
+    <t xml:space="preserve">14.2994575500488</t>
   </si>
   <si>
     <t xml:space="preserve">13.7367677688599</t>
@@ -2075,16 +2075,16 @@
     <t xml:space="preserve">14.567403793335</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4959506988525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8707418441772</t>
+    <t xml:space="preserve">14.4959516525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8707408905029</t>
   </si>
   <si>
     <t xml:space="preserve">14.245867729187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2905263900757</t>
+    <t xml:space="preserve">14.2905254364014</t>
   </si>
   <si>
     <t xml:space="preserve">14.1833467483521</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">12.7632255554199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5038728713989</t>
+    <t xml:space="preserve">11.5038738250732</t>
   </si>
   <si>
     <t xml:space="preserve">11.5128059387207</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">11.4860095977783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662269592285</t>
+    <t xml:space="preserve">11.0662260055542</t>
   </si>
   <si>
     <t xml:space="preserve">11.2716522216797</t>
@@ -2120,16 +2120,16 @@
     <t xml:space="preserve">11.7182312011719</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2805833816528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.575325012207</t>
+    <t xml:space="preserve">11.2805843353271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5753259658813</t>
   </si>
   <si>
     <t xml:space="preserve">11.7092990875244</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4145565032959</t>
+    <t xml:space="preserve">11.4145574569702</t>
   </si>
   <si>
     <t xml:space="preserve">11.316309928894</t>
@@ -2141,13 +2141,13 @@
     <t xml:space="preserve">10.7536201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6021194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3788299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1912670135498</t>
+    <t xml:space="preserve">11.6021203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.378830909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1912679672241</t>
   </si>
   <si>
     <t xml:space="preserve">11.2537889480591</t>
@@ -2162,16 +2162,16 @@
     <t xml:space="preserve">12.2362623214722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2630567550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3166465759277</t>
+    <t xml:space="preserve">12.2630577087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3166475296021</t>
   </si>
   <si>
     <t xml:space="preserve">12.3255777359009</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7810888290405</t>
+    <t xml:space="preserve">12.7810897827148</t>
   </si>
   <si>
     <t xml:space="preserve">12.486346244812</t>
@@ -2183,7 +2183,7 @@
     <t xml:space="preserve">12.3523731231689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.63818359375</t>
+    <t xml:space="preserve">12.6381826400757</t>
   </si>
   <si>
     <t xml:space="preserve">12.0219049453735</t>
@@ -2192,22 +2192,22 @@
     <t xml:space="preserve">12.0665626525879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6914367675781</t>
+    <t xml:space="preserve">11.6914358139038</t>
   </si>
   <si>
     <t xml:space="preserve">11.4324207305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8432741165161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7628889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2359266281128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9858407974243</t>
+    <t xml:space="preserve">11.8432722091675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7628898620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2359256744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9858417510986</t>
   </si>
   <si>
     <t xml:space="preserve">11.182336807251</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">11.5574626922607</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6289148330688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5931882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6735725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5395994186401</t>
+    <t xml:space="preserve">11.6289157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.593189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6735734939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5396003723145</t>
   </si>
   <si>
     <t xml:space="preserve">11.5485315322876</t>
@@ -2237,16 +2237,16 @@
     <t xml:space="preserve">12.2719888687134</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2541255950928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3880996704102</t>
+    <t xml:space="preserve">12.2541265487671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3880987167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.9779195785522</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8439474105835</t>
+    <t xml:space="preserve">13.8439464569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.8886041641235</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">14.3441143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2101402282715</t>
+    <t xml:space="preserve">14.2101421356201</t>
   </si>
   <si>
     <t xml:space="preserve">15.1211633682251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5316781997681</t>
+    <t xml:space="preserve">14.5316791534424</t>
   </si>
   <si>
     <t xml:space="preserve">14.9157371520996</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">14.5584726333618</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4512939453125</t>
+    <t xml:space="preserve">14.4512948989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.1029624938965</t>
@@ -2282,37 +2282,37 @@
     <t xml:space="preserve">14.5227470397949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1568880081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3444509506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6570568084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.264404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.30872631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.674919128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7017154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069719314575</t>
+    <t xml:space="preserve">15.1568899154663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3444519042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.657057762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2644023895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3087253570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2729997634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6749200820923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7017135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069728851318</t>
   </si>
   <si>
     <t xml:space="preserve">15.7553052902222</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8892793655396</t>
+    <t xml:space="preserve">15.8892774581909</t>
   </si>
   <si>
     <t xml:space="preserve">16.0679092407227</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">16.219747543335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1747512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.067572593689</t>
+    <t xml:space="preserve">15.1747522354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0675735473633</t>
   </si>
   <si>
     <t xml:space="preserve">15.0318470001221</t>
@@ -2336,73 +2336,73 @@
     <t xml:space="preserve">15.1926155090332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8442850112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8264198303223</t>
+    <t xml:space="preserve">14.8442831039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8264188766479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2908630371094</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8085565567017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2015466690063</t>
+    <t xml:space="preserve">14.808557510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2015476226807</t>
   </si>
   <si>
     <t xml:space="preserve">15.0854349136353</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2104787826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4962902069092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3798408508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6120634078979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1654834747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9689903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2280054092407</t>
+    <t xml:space="preserve">15.2104797363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4962892532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3798418045044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6120624542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1654844284058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9689893722534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2280044555664</t>
   </si>
   <si>
     <t xml:space="preserve">14.2012100219727</t>
   </si>
   <si>
-    <t xml:space="preserve">15.112232208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9693260192871</t>
+    <t xml:space="preserve">15.1122312545776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9693250656128</t>
   </si>
   <si>
     <t xml:space="preserve">14.9961214065552</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2194108963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2283401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710775375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8889408111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334297180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0761680603027</t>
+    <t xml:space="preserve">15.219409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2283420562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8889417648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334316253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0761671066284</t>
   </si>
   <si>
     <t xml:space="preserve">13.1740779876709</t>
@@ -2411,31 +2411,31 @@
     <t xml:space="preserve">12.9418573379517</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2187356948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5756635665894</t>
+    <t xml:space="preserve">13.2187366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.575662612915</t>
   </si>
   <si>
     <t xml:space="preserve">12.1916036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0040416717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8340044021606</t>
+    <t xml:space="preserve">12.0040407180786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.834005355835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3070411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88725662231445</t>
+    <t xml:space="preserve">9.88725757598877</t>
   </si>
   <si>
     <t xml:space="preserve">10.2177257537842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4805326461792</t>
+    <t xml:space="preserve">8.48053359985352</t>
   </si>
   <si>
     <t xml:space="preserve">9.16379928588867</t>
@@ -2450,7 +2450,7 @@
     <t xml:space="preserve">8.35102558135986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03842163085938</t>
+    <t xml:space="preserve">8.03842067718506</t>
   </si>
   <si>
     <t xml:space="preserve">9.55678844451904</t>
@@ -2459,7 +2459,7 @@
     <t xml:space="preserve">9.44961071014404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87832546234131</t>
+    <t xml:space="preserve">9.87832736968994</t>
   </si>
   <si>
     <t xml:space="preserve">9.94084644317627</t>
@@ -2468,19 +2468,19 @@
     <t xml:space="preserve">10.0480260848999</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90512180328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93191528320312</t>
+    <t xml:space="preserve">9.90512084960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93191623687744</t>
   </si>
   <si>
     <t xml:space="preserve">9.53892612457275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.619309425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0033683776855</t>
+    <t xml:space="preserve">9.61931037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0033674240112</t>
   </si>
   <si>
     <t xml:space="preserve">9.94977855682373</t>
@@ -2492,13 +2492,13 @@
     <t xml:space="preserve">10.5839204788208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6285781860352</t>
+    <t xml:space="preserve">10.6285772323608</t>
   </si>
   <si>
     <t xml:space="preserve">10.5392627716064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2355890274048</t>
+    <t xml:space="preserve">10.2355880737305</t>
   </si>
   <si>
     <t xml:space="preserve">10.3606309890747</t>
@@ -2513,49 +2513,49 @@
     <t xml:space="preserve">10.7982788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8250722885132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9411840438843</t>
+    <t xml:space="preserve">10.8250732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.94118309021</t>
   </si>
   <si>
     <t xml:space="preserve">11.468147277832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7450246810913</t>
+    <t xml:space="preserve">11.7450256347656</t>
   </si>
   <si>
     <t xml:space="preserve">11.4770784378052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4499473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427686691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623834609985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76221466064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97657299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98550415039062</t>
+    <t xml:space="preserve">10.4499464035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623825073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76221561431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9765739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98550510406494</t>
   </si>
   <si>
     <t xml:space="preserve">9.68183135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71755695343018</t>
+    <t xml:space="preserve">9.71755790710449</t>
   </si>
   <si>
     <t xml:space="preserve">9.70862579345703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82473659515381</t>
+    <t xml:space="preserve">9.82473754882812</t>
   </si>
   <si>
     <t xml:space="preserve">9.29777336120605</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">9.73542022705078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.181999206543</t>
+    <t xml:space="preserve">10.1820001602173</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016159057617</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">11.3609685897827</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0572938919067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7357578277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0837526321411</t>
+    <t xml:space="preserve">11.0572948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7357568740845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0837535858154</t>
   </si>
   <si>
     <t xml:space="preserve">10.4523181915283</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">10.6998729705811</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6631984710693</t>
+    <t xml:space="preserve">10.663197517395</t>
   </si>
   <si>
     <t xml:space="preserve">10.5531740188599</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">10.3881378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047634124756</t>
+    <t xml:space="preserve">10.2047643661499</t>
   </si>
   <si>
     <t xml:space="preserve">10.113076210022</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73715877532959</t>
+    <t xml:space="preserve">9.73715972900391</t>
   </si>
   <si>
     <t xml:space="preserve">10.0305576324463</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">9.46209812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34290504455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0488958358765</t>
+    <t xml:space="preserve">9.34290599822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0488967895508</t>
   </si>
   <si>
     <t xml:space="preserve">9.65464115142822</t>
@@ -2675,7 +2675,7 @@
     <t xml:space="preserve">9.6729793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91136455535889</t>
+    <t xml:space="preserve">9.9113655090332</t>
   </si>
   <si>
     <t xml:space="preserve">9.74632835388184</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">9.45293045043945</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8557415008545</t>
+    <t xml:space="preserve">10.8557405471802</t>
   </si>
   <si>
     <t xml:space="preserve">10.9474277496338</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9382600784302</t>
+    <t xml:space="preserve">10.9382591247559</t>
   </si>
   <si>
     <t xml:space="preserve">11.5158882141113</t>
@@ -2699,16 +2699,16 @@
     <t xml:space="preserve">11.6442489624023</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8734674453735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0293350219727</t>
+    <t xml:space="preserve">11.8734664916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0293340682983</t>
   </si>
   <si>
     <t xml:space="preserve">11.6259126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4242010116577</t>
+    <t xml:space="preserve">11.4242000579834</t>
   </si>
   <si>
     <t xml:space="preserve">11.3233451843262</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">11.1491384506226</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0666217803955</t>
+    <t xml:space="preserve">11.0666208267212</t>
   </si>
   <si>
     <t xml:space="preserve">10.791561126709</t>
@@ -2726,7 +2726,7 @@
     <t xml:space="preserve">10.7273797988892</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6265239715576</t>
+    <t xml:space="preserve">10.6265230178833</t>
   </si>
   <si>
     <t xml:space="preserve">10.4706563949585</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">10.5898485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6081857681274</t>
+    <t xml:space="preserve">10.6081867218018</t>
   </si>
   <si>
     <t xml:space="preserve">10.5164995193481</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431495666504</t>
+    <t xml:space="preserve">10.4431505203247</t>
   </si>
   <si>
     <t xml:space="preserve">10.2597751617432</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2322702407837</t>
+    <t xml:space="preserve">10.2322692871094</t>
   </si>
   <si>
     <t xml:space="preserve">10.1314144134521</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">11.2775011062622</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9749336242676</t>
+    <t xml:space="preserve">10.9749345779419</t>
   </si>
   <si>
     <t xml:space="preserve">10.7823915481567</t>
@@ -2780,13 +2780,13 @@
     <t xml:space="preserve">10.8924160003662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.874077796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0116090774536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2133197784424</t>
+    <t xml:space="preserve">10.8740787506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0116100311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2133207321167</t>
   </si>
   <si>
     <t xml:space="preserve">11.1308031082153</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">10.9932718276978</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0941276550293</t>
+    <t xml:space="preserve">11.0941286087036</t>
   </si>
   <si>
     <t xml:space="preserve">11.0849590301514</t>
@@ -2810,22 +2810,22 @@
     <t xml:space="preserve">10.9841022491455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2964506149292</t>
+    <t xml:space="preserve">10.2964496612549</t>
   </si>
   <si>
     <t xml:space="preserve">10.5623435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4798240661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3056182861328</t>
+    <t xml:space="preserve">10.4798250198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3056192398071</t>
   </si>
   <si>
     <t xml:space="preserve">10.3514633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0855703353882</t>
+    <t xml:space="preserve">10.0855712890625</t>
   </si>
   <si>
     <t xml:space="preserve">9.44376182556152</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">9.57212162017822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6179666519165</t>
+    <t xml:space="preserve">9.61796569824219</t>
   </si>
   <si>
     <t xml:space="preserve">9.32456874847412</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">10.1680898666382</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4425373077393</t>
+    <t xml:space="preserve">11.4425382614136</t>
   </si>
   <si>
     <t xml:space="preserve">11.6809234619141</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1760330200195</t>
+    <t xml:space="preserve">12.1760339736938</t>
   </si>
   <si>
     <t xml:space="preserve">12.9370365142822</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">13.175422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4694328308105</t>
+    <t xml:space="preserve">12.4694318771362</t>
   </si>
   <si>
     <t xml:space="preserve">13.0929040908813</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">12.5611190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5794563293457</t>
+    <t xml:space="preserve">12.57945728302</t>
   </si>
   <si>
     <t xml:space="preserve">12.5336141586304</t>
@@ -2915,19 +2915,19 @@
     <t xml:space="preserve">12.7261562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6344690322876</t>
+    <t xml:space="preserve">12.6344680786133</t>
   </si>
   <si>
     <t xml:space="preserve">12.4786005020142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5977945327759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6069641113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2762784957886</t>
+    <t xml:space="preserve">12.5977935791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6069631576538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2762775421143</t>
   </si>
   <si>
     <t xml:space="preserve">13.2946147918701</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">13.0287227630615</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1845903396606</t>
+    <t xml:space="preserve">13.184591293335</t>
   </si>
   <si>
     <t xml:space="preserve">13.1570854187012</t>
@@ -2957,10 +2957,10 @@
     <t xml:space="preserve">13.1295785903931</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1662540435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8728561401367</t>
+    <t xml:space="preserve">13.1662530899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8728551864624</t>
   </si>
   <si>
     <t xml:space="preserve">13.4413146972656</t>
@@ -2981,7 +2981,7 @@
     <t xml:space="preserve">13.6613636016846</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9639310836792</t>
+    <t xml:space="preserve">13.9639301300049</t>
   </si>
   <si>
     <t xml:space="preserve">13.8630743026733</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">13.2487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5880136489868</t>
+    <t xml:space="preserve">13.5880146026611</t>
   </si>
   <si>
     <t xml:space="preserve">13.6155204772949</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">14.4773778915405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.715763092041</t>
+    <t xml:space="preserve">14.7157640457153</t>
   </si>
   <si>
     <t xml:space="preserve">14.7982816696167</t>
@@ -3029,10 +3029,10 @@
     <t xml:space="preserve">15.100848197937</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2108745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1100177764893</t>
+    <t xml:space="preserve">15.2108736038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1100168228149</t>
   </si>
   <si>
     <t xml:space="preserve">15.2750558853149</t>
@@ -3041,7 +3041,7 @@
     <t xml:space="preserve">14.9083070755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4223642349243</t>
+    <t xml:space="preserve">14.4223651885986</t>
   </si>
   <si>
     <t xml:space="preserve">14.7891130447388</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">15.0916805267334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3850812911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4309234619141</t>
+    <t xml:space="preserve">15.3850793838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4309215545654</t>
   </si>
   <si>
     <t xml:space="preserve">15.3392353057861</t>
@@ -3080,7 +3080,7 @@
     <t xml:space="preserve">15.3300666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">15.485933303833</t>
+    <t xml:space="preserve">15.4859352111816</t>
   </si>
   <si>
     <t xml:space="preserve">17.1454696655273</t>
@@ -3101,22 +3101,22 @@
     <t xml:space="preserve">16.7053718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7237110137939</t>
+    <t xml:space="preserve">16.7237091064453</t>
   </si>
   <si>
     <t xml:space="preserve">16.9254207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1919269561768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3294563293457</t>
+    <t xml:space="preserve">16.1919250488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3294544219971</t>
   </si>
   <si>
     <t xml:space="preserve">16.1094074249268</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2010936737061</t>
+    <t xml:space="preserve">16.2010955810547</t>
   </si>
   <si>
     <t xml:space="preserve">16.0818996429443</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">15.9902143478394</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9718751907349</t>
+    <t xml:space="preserve">15.9718770980835</t>
   </si>
   <si>
     <t xml:space="preserve">16.0360565185547</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">15.999382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8068389892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8801879882812</t>
+    <t xml:space="preserve">15.8068408966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8801898956299</t>
   </si>
   <si>
     <t xml:space="preserve">16.1827564239502</t>
@@ -3170,10 +3170,10 @@
     <t xml:space="preserve">15.8893575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5776214599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8435163497925</t>
+    <t xml:space="preserve">15.5776233673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8435144424438</t>
   </si>
   <si>
     <t xml:space="preserve">16.0085487365723</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">15.568452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1283559799194</t>
+    <t xml:space="preserve">15.1283550262451</t>
   </si>
   <si>
     <t xml:space="preserve">15.3117303848267</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">17.6039047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2915573120117</t>
+    <t xml:space="preserve">18.2915592193604</t>
   </si>
   <si>
     <t xml:space="preserve">18.3190631866455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9608726501465</t>
+    <t xml:space="preserve">18.9608745574951</t>
   </si>
   <si>
     <t xml:space="preserve">19.1809215545654</t>
@@ -61692,7 +61692,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6493171296</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>20777</v>
@@ -61713,6 +61713,32 @@
         <v>1670</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6493402778</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>64018</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>5.67000007629395</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>5.55999994277954</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>5.59999990463257</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>5.6100001335144</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3864259719849</t>
+    <t xml:space="preserve">13.3864250183105</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4113359451294</t>
+    <t xml:space="preserve">13.411337852478</t>
   </si>
   <si>
     <t xml:space="preserve">13.4030313491821</t>
@@ -53,28 +53,28 @@
     <t xml:space="preserve">13.0874729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5809135437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4563503265381</t>
+    <t xml:space="preserve">12.5809125900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4563493728638</t>
   </si>
   <si>
     <t xml:space="preserve">12.8715620040894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1372985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6106367111206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1206903457642</t>
+    <t xml:space="preserve">13.1372976303101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6106386184692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1206884384155</t>
   </si>
   <si>
     <t xml:space="preserve">13.0210380554199</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2950782775879</t>
+    <t xml:space="preserve">13.2950773239136</t>
   </si>
   <si>
     <t xml:space="preserve">12.6473474502563</t>
@@ -83,37 +83,37 @@
     <t xml:space="preserve">12.9795188903809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7719106674194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9463005065918</t>
+    <t xml:space="preserve">12.7719125747681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9462995529175</t>
   </si>
   <si>
     <t xml:space="preserve">12.788519859314</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3483943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2072238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5726099014282</t>
+    <t xml:space="preserve">12.3483953475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2072219848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5726108551025</t>
   </si>
   <si>
     <t xml:space="preserve">11.6840562820435</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5345802307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0245294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.650839805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0577478408813</t>
+    <t xml:space="preserve">11.5345792770386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0245304107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6508388519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0577459335327</t>
   </si>
   <si>
     <t xml:space="preserve">12.107572555542</t>
@@ -128,40 +128,40 @@
     <t xml:space="preserve">12.0826606750488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.290265083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4148292541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.248743057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2404403686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9580965042114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7338829040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5559997558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961252212524</t>
+    <t xml:space="preserve">12.2902669906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4148283004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2487449645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.240439414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9580955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7338809967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.556001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961242675781</t>
   </si>
   <si>
     <t xml:space="preserve">13.0376462936401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8300409317017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7054786682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.746997833252</t>
+    <t xml:space="preserve">12.830041885376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7054777145386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7469987869263</t>
   </si>
   <si>
     <t xml:space="preserve">12.7137813568115</t>
@@ -170,52 +170,52 @@
     <t xml:space="preserve">13.4528579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6189422607422</t>
+    <t xml:space="preserve">13.6189432144165</t>
   </si>
   <si>
     <t xml:space="preserve">13.5857267379761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7850294113159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9262008666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0258493423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9926319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1171970367432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2417612075806</t>
+    <t xml:space="preserve">13.7850275039673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9261999130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0258502960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9926338195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1171989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2417573928833</t>
   </si>
   <si>
     <t xml:space="preserve">14.2666730880737</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0175457000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6770715713501</t>
+    <t xml:space="preserve">14.0175466537476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6770725250244</t>
   </si>
   <si>
     <t xml:space="preserve">13.3781204223633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7601146697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7518110275269</t>
+    <t xml:space="preserve">13.7601156234741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7518119812012</t>
   </si>
   <si>
     <t xml:space="preserve">13.8431568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6272468566895</t>
+    <t xml:space="preserve">13.6272478103638</t>
   </si>
   <si>
     <t xml:space="preserve">13.6604642868042</t>
@@ -227,25 +227,25 @@
     <t xml:space="preserve">13.7185935974121</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6687669754028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3199920654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2203397750854</t>
+    <t xml:space="preserve">13.6687679290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3199892044067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2203407287598</t>
   </si>
   <si>
     <t xml:space="preserve">13.2701644897461</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4943799972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2037296295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0791673660278</t>
+    <t xml:space="preserve">13.4943790435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2037315368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0791664123535</t>
   </si>
   <si>
     <t xml:space="preserve">12.971212387085</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">13.1954278945923</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3526630401611</t>
+    <t xml:space="preserve">13.3526620864868</t>
   </si>
   <si>
     <t xml:space="preserve">12.7449560165405</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">12.7027540206909</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5761480331421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5086259841919</t>
+    <t xml:space="preserve">12.5761489868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5086250305176</t>
   </si>
   <si>
     <t xml:space="preserve">12.8209190368652</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8293590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8968820571899</t>
+    <t xml:space="preserve">12.8293600082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8968830108643</t>
   </si>
   <si>
     <t xml:space="preserve">12.8631210327148</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">12.8884429931641</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1078910827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3357830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.437066078186</t>
+    <t xml:space="preserve">13.107892036438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3357839584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4370651245117</t>
   </si>
   <si>
     <t xml:space="preserve">13.5045890808105</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">13.4539461135864</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4961490631104</t>
+    <t xml:space="preserve">13.496148109436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4455070495605</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">13.2176170349121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9728469848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.913763999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3144979476929</t>
+    <t xml:space="preserve">12.9728450775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9137630462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3144960403442</t>
   </si>
   <si>
     <t xml:space="preserve">11.9600019454956</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">11.8418369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4113788604736</t>
+    <t xml:space="preserve">11.4113779067993</t>
   </si>
   <si>
     <t xml:space="preserve">11.622386932373</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">12.1710109710693</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6605520248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1794519424438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9262409210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0528469085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2847728729248</t>
+    <t xml:space="preserve">12.6605529785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1794509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9262399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0528440475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2847719192505</t>
   </si>
   <si>
     <t xml:space="preserve">10.5673418045044</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9724788665771</t>
+    <t xml:space="preserve">10.9724779129028</t>
   </si>
   <si>
     <t xml:space="preserve">11.5633029937744</t>
@@ -365,16 +365,16 @@
     <t xml:space="preserve">12.2047729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7827529907227</t>
+    <t xml:space="preserve">11.782753944397</t>
   </si>
   <si>
     <t xml:space="preserve">11.5211029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620199203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7658739089966</t>
+    <t xml:space="preserve">11.4620208740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7658720016479</t>
   </si>
   <si>
     <t xml:space="preserve">12.2976160049438</t>
@@ -383,25 +383,25 @@
     <t xml:space="preserve">12.3229379653931</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1372480392456</t>
+    <t xml:space="preserve">12.1372499465942</t>
   </si>
   <si>
     <t xml:space="preserve">12.4748640060425</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1541299819946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4579839706421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3735799789429</t>
+    <t xml:space="preserve">12.1541309356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4579830169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3735780715942</t>
   </si>
   <si>
     <t xml:space="preserve">12.7871580123901</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0403690338135</t>
+    <t xml:space="preserve">13.0403680801392</t>
   </si>
   <si>
     <t xml:space="preserve">13.5214700698853</t>
@@ -410,28 +410,28 @@
     <t xml:space="preserve">13.6902770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7662410736084</t>
+    <t xml:space="preserve">13.6311941146851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7662401199341</t>
   </si>
   <si>
     <t xml:space="preserve">13.8000030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6227531433105</t>
+    <t xml:space="preserve">13.6227550506592</t>
   </si>
   <si>
     <t xml:space="preserve">13.7155990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0025720596313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9478921890259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6018371582031</t>
+    <t xml:space="preserve">14.002571105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9478893280029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6018352508545</t>
   </si>
   <si>
     <t xml:space="preserve">15.0491762161255</t>
@@ -440,52 +440,52 @@
     <t xml:space="preserve">14.5343132019043</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8550491333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4121141433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4880743026733</t>
+    <t xml:space="preserve">14.8550481796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4121131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4880781173706</t>
   </si>
   <si>
     <t xml:space="preserve">15.3445892333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.547158241272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3192682266235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1082582473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0154161453247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3699083328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4796352386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8594541549683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.893214225769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8678894042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8256902694702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7834911346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0451412200928</t>
+    <t xml:space="preserve">15.5471601486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3192672729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1082592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0154151916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3699111938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4796361923218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8594532012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8932123184204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8678913116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8256921768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7834882736206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0451393127441</t>
   </si>
   <si>
     <t xml:space="preserve">16.1801853179932</t>
@@ -494,19 +494,19 @@
     <t xml:space="preserve">16.2139472961426</t>
   </si>
   <si>
-    <t xml:space="preserve">16.112663269043</t>
+    <t xml:space="preserve">16.1126613616943</t>
   </si>
   <si>
     <t xml:space="preserve">16.0367012023926</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5978021621704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4458723068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.564040184021</t>
+    <t xml:space="preserve">15.5978002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4458713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5640392303467</t>
   </si>
   <si>
     <t xml:space="preserve">15.5133972167969</t>
@@ -515,52 +515,52 @@
     <t xml:space="preserve">15.6231212615967</t>
   </si>
   <si>
-    <t xml:space="preserve">16.247709274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1970653533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9607372283936</t>
+    <t xml:space="preserve">16.2477111816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1970672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9607362747192</t>
   </si>
   <si>
     <t xml:space="preserve">15.5302772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1464233398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0029354095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9100933074951</t>
+    <t xml:space="preserve">16.1464252471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0029373168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9100961685181</t>
   </si>
   <si>
     <t xml:space="preserve">16.289909362793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9691781997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7497272491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146802902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9438552856445</t>
+    <t xml:space="preserve">15.9691791534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7497253417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146821975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9438562393188</t>
   </si>
   <si>
     <t xml:space="preserve">16.0789012908936</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0620212554932</t>
+    <t xml:space="preserve">16.0620231628418</t>
   </si>
   <si>
     <t xml:space="preserve">16.1211032867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.053581237793</t>
+    <t xml:space="preserve">16.0535793304443</t>
   </si>
   <si>
     <t xml:space="preserve">15.9269752502441</t>
@@ -569,49 +569,49 @@
     <t xml:space="preserve">15.3614702224731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6990871429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9944972991943</t>
+    <t xml:space="preserve">15.6990852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.994499206543</t>
   </si>
   <si>
     <t xml:space="preserve">15.5555982589722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2517442703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2686252593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044052124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.133581161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.981653213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926622390747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9141321182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1167001724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2770690917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1673412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0069742202759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959651947021</t>
+    <t xml:space="preserve">15.251745223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2686243057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.804407119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335821151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9816541671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926641464233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9141302108765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.11669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2770671844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1673431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0069761276245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959661483765</t>
   </si>
   <si>
     <t xml:space="preserve">15.0238552093506</t>
@@ -623,13 +623,13 @@
     <t xml:space="preserve">14.3486261367798</t>
   </si>
   <si>
-    <t xml:space="preserve">14.061653137207</t>
+    <t xml:space="preserve">14.0616550445557</t>
   </si>
   <si>
     <t xml:space="preserve">14.0194530487061</t>
   </si>
   <si>
-    <t xml:space="preserve">13.83376121521</t>
+    <t xml:space="preserve">13.8337631225586</t>
   </si>
   <si>
     <t xml:space="preserve">13.5889930725098</t>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">13.9688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2557811737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4499130249023</t>
+    <t xml:space="preserve">14.2557802200317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.449912071228</t>
   </si>
   <si>
     <t xml:space="preserve">14.5933971405029</t>
@@ -653,25 +653,25 @@
     <t xml:space="preserve">14.686240196228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7159652709961</t>
+    <t xml:space="preserve">15.715968132019</t>
   </si>
   <si>
     <t xml:space="preserve">15.775050163269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4374341964722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5724811553955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6484422683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0113773345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.365873336792</t>
+    <t xml:space="preserve">15.4374351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5724792480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6484451293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0113792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3658714294434</t>
   </si>
   <si>
     <t xml:space="preserve">16.3152313232422</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">16.2223873138428</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1379852294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3743114471436</t>
+    <t xml:space="preserve">16.1379833221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3743133544922</t>
   </si>
   <si>
     <t xml:space="preserve">16.2645893096924</t>
@@ -707,37 +707,37 @@
     <t xml:space="preserve">16.6697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6781692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7288112640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7963333129883</t>
+    <t xml:space="preserve">16.6781673431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7288093566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7963314056396</t>
   </si>
   <si>
     <t xml:space="preserve">17.1508274078369</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1001873016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3449554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.395601272583</t>
+    <t xml:space="preserve">17.1001853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3449573516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3955993652344</t>
   </si>
   <si>
     <t xml:space="preserve">17.1339473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2605533599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9482593536377</t>
+    <t xml:space="preserve">17.260555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9482574462891</t>
   </si>
   <si>
     <t xml:space="preserve">16.7625713348389</t>
@@ -746,25 +746,25 @@
     <t xml:space="preserve">16.5431232452393</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8807353973389</t>
+    <t xml:space="preserve">16.8807373046875</t>
   </si>
   <si>
     <t xml:space="preserve">16.7878932952881</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8300933837891</t>
+    <t xml:space="preserve">16.8300952911377</t>
   </si>
   <si>
     <t xml:space="preserve">17.2858734130859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247753143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8091773986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8766994476318</t>
+    <t xml:space="preserve">17.7247714996338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8091793060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8767013549805</t>
   </si>
   <si>
     <t xml:space="preserve">18.2311973571777</t>
@@ -773,49 +773,49 @@
     <t xml:space="preserve">18.3746814727783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6447715759277</t>
+    <t xml:space="preserve">18.6447734832764</t>
   </si>
   <si>
     <t xml:space="preserve">19.2862415313721</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6660556793213</t>
+    <t xml:space="preserve">19.6660575866699</t>
   </si>
   <si>
     <t xml:space="preserve">19.640739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9530277252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2146816253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.341287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3581676483154</t>
+    <t xml:space="preserve">19.953031539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2146835327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3412857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3581714630127</t>
   </si>
   <si>
     <t xml:space="preserve">20.400369644165</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7211036682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.459451675415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5691795349121</t>
+    <t xml:space="preserve">20.7211017608643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4594497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5691757202148</t>
   </si>
   <si>
     <t xml:space="preserve">20.5944976806641</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6789016723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3328475952148</t>
+    <t xml:space="preserve">20.6789035797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3328456878662</t>
   </si>
   <si>
     <t xml:space="preserve">20.5438575744629</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">20.5016555786133</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4172496795654</t>
+    <t xml:space="preserve">20.4172534942627</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036735534668</t>
@@ -842,16 +842,16 @@
     <t xml:space="preserve">19.9614715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9023876190186</t>
+    <t xml:space="preserve">19.9023895263672</t>
   </si>
   <si>
     <t xml:space="preserve">19.4719276428223</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4128475189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5310115814209</t>
+    <t xml:space="preserve">19.4128456115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5310096740723</t>
   </si>
   <si>
     <t xml:space="preserve">20.1049575805664</t>
@@ -863,25 +863,25 @@
     <t xml:space="preserve">21.2528476715088</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7761497497559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5651378631592</t>
+    <t xml:space="preserve">21.7761478424072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5651397705078</t>
   </si>
   <si>
     <t xml:space="preserve">21.9811000823975</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2202129364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9469451904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1177387237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.784688949585</t>
+    <t xml:space="preserve">22.22021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9469470977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1177368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7846908569336</t>
   </si>
   <si>
     <t xml:space="preserve">22.032341003418</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">22.6301174163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5455780029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5626621246338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4943428039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3918647766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3235473632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3491649627686</t>
+    <t xml:space="preserve">21.5455760955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5626602172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4943408966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3918628692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3235454559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3491687774658</t>
   </si>
   <si>
     <t xml:space="preserve">21.5199604034424</t>
@@ -914,112 +914,112 @@
     <t xml:space="preserve">22.0152626037598</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0238037109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9640235900879</t>
+    <t xml:space="preserve">22.0237998962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9640216827393</t>
   </si>
   <si>
     <t xml:space="preserve">22.1604347229004</t>
   </si>
   <si>
-    <t xml:space="preserve">22.066499710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8615474700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8359279632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1945953369141</t>
+    <t xml:space="preserve">22.0664978027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8615455627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8359260559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1945934295654</t>
   </si>
   <si>
     <t xml:space="preserve">21.2893905639648</t>
   </si>
   <si>
-    <t xml:space="preserve">21.605354309082</t>
+    <t xml:space="preserve">21.6053562164307</t>
   </si>
   <si>
     <t xml:space="preserve">21.3150081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8111686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0673580169678</t>
+    <t xml:space="preserve">20.8111667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0673561096191</t>
   </si>
   <si>
     <t xml:space="preserve">21.1356735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">20.964879989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1185970306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.366247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7419929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.306468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9563426971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3073291778564</t>
+    <t xml:space="preserve">20.9648818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.118595123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3662452697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7419910430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3064708709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9563407897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3073272705078</t>
   </si>
   <si>
     <t xml:space="preserve">20.1279945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9059638977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7266292572021</t>
+    <t xml:space="preserve">19.9059619903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7266311645508</t>
   </si>
   <si>
     <t xml:space="preserve">19.624153137207</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0340595245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0682163238525</t>
+    <t xml:space="preserve">20.0340576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5472984313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0682144165039</t>
   </si>
   <si>
     <t xml:space="preserve">20.4354228973389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4866619110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1954555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7513904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1698341369629</t>
+    <t xml:space="preserve">20.4866600036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1954517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7513885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1698360443115</t>
   </si>
   <si>
     <t xml:space="preserve">21.2296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8017692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7932281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9298667907715</t>
+    <t xml:space="preserve">21.8017711639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7932300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9298629760742</t>
   </si>
   <si>
     <t xml:space="preserve">21.6907539367676</t>
@@ -1034,28 +1034,28 @@
     <t xml:space="preserve">22.0921173095703</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0750370025635</t>
+    <t xml:space="preserve">22.0750408172607</t>
   </si>
   <si>
     <t xml:space="preserve">21.6992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1348171234131</t>
+    <t xml:space="preserve">22.1348152160645</t>
   </si>
   <si>
     <t xml:space="preserve">22.5959587097168</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4764022827148</t>
+    <t xml:space="preserve">22.4764041900635</t>
   </si>
   <si>
     <t xml:space="preserve">22.5874195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3653888702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9973239898682</t>
+    <t xml:space="preserve">22.3653869628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9973201751709</t>
   </si>
   <si>
     <t xml:space="preserve">22.8521480560303</t>
@@ -1064,13 +1064,13 @@
     <t xml:space="preserve">22.553258895874</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4422435760498</t>
+    <t xml:space="preserve">22.4422454833984</t>
   </si>
   <si>
     <t xml:space="preserve">22.8436069488525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6813545227051</t>
+    <t xml:space="preserve">22.6813564300537</t>
   </si>
   <si>
     <t xml:space="preserve">23.1510372161865</t>
@@ -1082,64 +1082,64 @@
     <t xml:space="preserve">23.6207160949707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.107479095459</t>
+    <t xml:space="preserve">24.1074810028076</t>
   </si>
   <si>
     <t xml:space="preserve">23.7402744293213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1843357086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1160202026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3380508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3038921356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6198616027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0297622680664</t>
+    <t xml:space="preserve">24.1843376159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1160182952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3380527496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3038902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6198577880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.029764175415</t>
   </si>
   <si>
     <t xml:space="preserve">24.8931293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2090950012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1407775878906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.200553894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5592250823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0724620819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1663970947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7564926147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6796379089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7735748291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1578578948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4225902557373</t>
+    <t xml:space="preserve">25.209098815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1407794952393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2005577087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5592231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0724639892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1663990020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7564945220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6796340942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7735729217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1578559875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4225883483887</t>
   </si>
   <si>
     <t xml:space="preserve">26.6864604949951</t>
@@ -1148,10 +1148,10 @@
     <t xml:space="preserve">26.2167778015137</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2850933074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2338562011719</t>
+    <t xml:space="preserve">26.2850952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2338542938232</t>
   </si>
   <si>
     <t xml:space="preserve">26.0972213745117</t>
@@ -1160,43 +1160,43 @@
     <t xml:space="preserve">26.0459842681885</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8751907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8581104278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9597301483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2329959869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.729154586792</t>
+    <t xml:space="preserve">25.8751888275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8581123352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9597282409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2329978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7291584014893</t>
   </si>
   <si>
     <t xml:space="preserve">26.4131889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3457336425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7641716003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9605865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7812519073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7035388946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5660419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.258617401123</t>
+    <t xml:space="preserve">25.3457317352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7641754150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9605884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7812538146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.703540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5660438537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2586154937744</t>
   </si>
   <si>
     <t xml:space="preserve">28.4370880126953</t>
@@ -1205,25 +1205,25 @@
     <t xml:space="preserve">29.1288032531738</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7274398803711</t>
+    <t xml:space="preserve">28.7274379730225</t>
   </si>
   <si>
     <t xml:space="preserve">28.2406787872314</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8555335998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3346157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0015678405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5156650543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1313800811768</t>
+    <t xml:space="preserve">28.8555316925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3346138000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0015697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5156631469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1313781738281</t>
   </si>
   <si>
     <t xml:space="preserve">25.7043972015381</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">25.789794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4815063476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0630645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9520454406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4302711486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8999500274658</t>
+    <t xml:space="preserve">26.4815082550049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0630626678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9520435333252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.430269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8999481201172</t>
   </si>
   <si>
     <t xml:space="preserve">26.8401718139648</t>
@@ -1259,13 +1259,13 @@
     <t xml:space="preserve">26.9511871337891</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7974758148193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0195045471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7718544006348</t>
+    <t xml:space="preserve">26.7974739074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0195026397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.771858215332</t>
   </si>
   <si>
     <t xml:space="preserve">26.5583648681641</t>
@@ -1274,25 +1274,25 @@
     <t xml:space="preserve">26.6437606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7633152008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0280437469482</t>
+    <t xml:space="preserve">26.7633171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0280456542969</t>
   </si>
   <si>
     <t xml:space="preserve">27.3269348144531</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4388065338135</t>
+    <t xml:space="preserve">26.4388084411621</t>
   </si>
   <si>
     <t xml:space="preserve">26.276554107666</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6616973876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6096038818359</t>
+    <t xml:space="preserve">25.6616992950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6096019744873</t>
   </si>
   <si>
     <t xml:space="preserve">26.2509365081787</t>
@@ -1304,70 +1304,70 @@
     <t xml:space="preserve">26.3192520141602</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9264316558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9426460266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0528030395508</t>
+    <t xml:space="preserve">25.9264259338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.94264793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0528049468994</t>
   </si>
   <si>
     <t xml:space="preserve">27.8820133209229</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7359828948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9674110412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7966175079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4123287200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.857250213623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.497730255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5831241607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0955047607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6505794525146</t>
+    <t xml:space="preserve">28.7359809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9674072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7966156005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4123306274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8572521209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4977283477783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5831203460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0955066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6505813598633</t>
   </si>
   <si>
     <t xml:space="preserve">29.2483615875244</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5651836395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1382026672363</t>
+    <t xml:space="preserve">28.5651874542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.138204574585</t>
   </si>
   <si>
     <t xml:space="preserve">27.924711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4550323486328</t>
+    <t xml:space="preserve">27.4550304412842</t>
   </si>
   <si>
     <t xml:space="preserve">26.302173614502</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8324928283691</t>
+    <t xml:space="preserve">25.8324909210205</t>
   </si>
   <si>
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1493186950684</t>
+    <t xml:space="preserve">25.149320602417</t>
   </si>
   <si>
     <t xml:space="preserve">26.8145523071289</t>
@@ -1376,10 +1376,10 @@
     <t xml:space="preserve">26.6010608673096</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3448715209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4729652404785</t>
+    <t xml:space="preserve">26.3448734283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4729671478271</t>
   </si>
   <si>
     <t xml:space="preserve">24.5088443756104</t>
@@ -1400,13 +1400,13 @@
     <t xml:space="preserve">21.178373336792</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6480579376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7334518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.665994644165</t>
+    <t xml:space="preserve">21.6480560302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7334537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6659965515137</t>
   </si>
   <si>
     <t xml:space="preserve">21.4772624969482</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">22.7155132293701</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8009090423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5267810821533</t>
+    <t xml:space="preserve">22.8009128570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.526782989502</t>
   </si>
   <si>
     <t xml:space="preserve">22.8863067626953</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">22.3739280700684</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7582111358643</t>
+    <t xml:space="preserve">22.7582130432129</t>
   </si>
   <si>
     <t xml:space="preserve">23.5694808959961</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">23.2705936431885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6975746154785</t>
+    <t xml:space="preserve">23.6975765228271</t>
   </si>
   <si>
     <t xml:space="preserve">23.0998001098633</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">24.2953510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8256702423096</t>
+    <t xml:space="preserve">23.8256721496582</t>
   </si>
   <si>
     <t xml:space="preserve">24.7650318145752</t>
@@ -1469,13 +1469,13 @@
     <t xml:space="preserve">25.9178905487061</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5762996673584</t>
+    <t xml:space="preserve">25.5763034820557</t>
   </si>
   <si>
     <t xml:space="preserve">25.4055080413818</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3628120422363</t>
+    <t xml:space="preserve">25.3628082275391</t>
   </si>
   <si>
     <t xml:space="preserve">25.4909057617188</t>
@@ -1484,37 +1484,37 @@
     <t xml:space="preserve">26.0032863616943</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9164619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3087062835693</t>
+    <t xml:space="preserve">25.9164638519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.308708190918</t>
   </si>
   <si>
     <t xml:space="preserve">25.8730506896973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1335201263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4373989105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6544532775879</t>
+    <t xml:space="preserve">26.1335182189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4373970031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6544551849365</t>
   </si>
   <si>
     <t xml:space="preserve">27.0451526641846</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0017414093018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5676326751709</t>
+    <t xml:space="preserve">27.0017433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5676288604736</t>
   </si>
   <si>
     <t xml:space="preserve">27.5660877227783</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4777202606201</t>
+    <t xml:space="preserve">28.4777221679688</t>
   </si>
   <si>
     <t xml:space="preserve">28.2606658935547</t>
@@ -1532,10 +1532,10 @@
     <t xml:space="preserve">26.3071613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6110401153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9583301544189</t>
+    <t xml:space="preserve">26.6110439300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9583282470703</t>
   </si>
   <si>
     <t xml:space="preserve">26.5242176055908</t>
@@ -1544,31 +1544,31 @@
     <t xml:space="preserve">26.9149188995361</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4358539581299</t>
+    <t xml:space="preserve">27.4358558654785</t>
   </si>
   <si>
     <t xml:space="preserve">27.0885639190674</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2187976837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3490314483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.175386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6094970703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3908977508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3474922180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4389381408691</t>
+    <t xml:space="preserve">27.2187995910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3490295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1753883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6094951629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3908996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3474884033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4389400482178</t>
   </si>
   <si>
     <t xml:space="preserve">24.7877731323242</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">24.9180068969727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2218837738037</t>
+    <t xml:space="preserve">25.2218818664551</t>
   </si>
   <si>
     <t xml:space="preserve">25.0048294067383</t>
   </si>
   <si>
-    <t xml:space="preserve">24.527307510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9614181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0482387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0916481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3955268859863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5257625579834</t>
+    <t xml:space="preserve">24.5273056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9614162445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0482406616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0916500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3955307006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.525764465332</t>
   </si>
   <si>
     <t xml:space="preserve">26.6978645324707</t>
@@ -1607,34 +1607,34 @@
     <t xml:space="preserve">27.8265552520752</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1319751739502</t>
+    <t xml:space="preserve">27.1319770812988</t>
   </si>
   <si>
     <t xml:space="preserve">27.3056201934814</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8699626922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8280982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9133758544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3040733337402</t>
+    <t xml:space="preserve">27.8699645996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8280963897705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9133777618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3040752410889</t>
   </si>
   <si>
     <t xml:space="preserve">27.2622089385986</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7397327423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9567909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6529121398926</t>
+    <t xml:space="preserve">27.7397308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9567890167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6529083251953</t>
   </si>
   <si>
     <t xml:space="preserve">25.6994075775146</t>
@@ -1646,58 +1646,58 @@
     <t xml:space="preserve">22.7908592224121</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4869823455811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.964506149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7924022674561</t>
+    <t xml:space="preserve">22.4869804382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9645042419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7924041748047</t>
   </si>
   <si>
     <t xml:space="preserve">22.7040367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5303955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1396923065186</t>
+    <t xml:space="preserve">22.5303916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1396903991699</t>
   </si>
   <si>
     <t xml:space="preserve">21.8358135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6637115478516</t>
+    <t xml:space="preserve">20.6637096405029</t>
   </si>
   <si>
     <t xml:space="preserve">20.8373584747314</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3582897186279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2280597686768</t>
+    <t xml:space="preserve">21.3582916259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2280578613281</t>
   </si>
   <si>
     <t xml:space="preserve">22.8776836395264</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9660453796387</t>
+    <t xml:space="preserve">21.9660472869873</t>
   </si>
   <si>
     <t xml:space="preserve">23.0079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1381492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.35520362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8838539123535</t>
+    <t xml:space="preserve">23.1381511688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0497817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3552017211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8838558197021</t>
   </si>
   <si>
     <t xml:space="preserve">18.3195114135742</t>
@@ -1706,52 +1706,52 @@
     <t xml:space="preserve">18.4063320159912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5365657806396</t>
+    <t xml:space="preserve">18.536563873291</t>
   </si>
   <si>
     <t xml:space="preserve">18.7536220550537</t>
   </si>
   <si>
-    <t xml:space="preserve">19.1009101867676</t>
+    <t xml:space="preserve">19.1009120941162</t>
   </si>
   <si>
     <t xml:space="preserve">19.4047908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6218452453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7520790100098</t>
+    <t xml:space="preserve">19.6218433380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7520771026611</t>
   </si>
   <si>
     <t xml:space="preserve">19.5350227355957</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7954864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3164234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4900684356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4466571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0125465393066</t>
+    <t xml:space="preserve">19.7954883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3164215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4900703430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4466590881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.012544631958</t>
   </si>
   <si>
     <t xml:space="preserve">20.0559577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.927267074585</t>
+    <t xml:space="preserve">18.9272651672363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6667995452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.668342590332</t>
+    <t xml:space="preserve">17.6683444976807</t>
   </si>
   <si>
     <t xml:space="preserve">18.6233901977539</t>
@@ -1763,10 +1763,10 @@
     <t xml:space="preserve">18.23268699646</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7985744476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4512882232666</t>
+    <t xml:space="preserve">17.7985763549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.451286315918</t>
   </si>
   <si>
     <t xml:space="preserve">17.5815200805664</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">17.7117538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.364465713501</t>
+    <t xml:space="preserve">17.3644638061523</t>
   </si>
   <si>
     <t xml:space="preserve">19.1443214416504</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3179683685303</t>
+    <t xml:space="preserve">19.3179664611816</t>
   </si>
   <si>
     <t xml:space="preserve">20.0993671417236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3598346710205</t>
+    <t xml:space="preserve">20.3598327636719</t>
   </si>
   <si>
     <t xml:space="preserve">20.5334796905518</t>
@@ -1802,16 +1802,16 @@
     <t xml:space="preserve">20.7939472198486</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5319328308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6621704101562</t>
+    <t xml:space="preserve">21.5319347381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6621723175049</t>
   </si>
   <si>
     <t xml:space="preserve">21.3148803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0978240966797</t>
+    <t xml:space="preserve">21.0978221893311</t>
   </si>
   <si>
     <t xml:space="preserve">20.7505340576172</t>
@@ -1820,31 +1820,31 @@
     <t xml:space="preserve">20.2296009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0110015869141</t>
+    <t xml:space="preserve">21.0110034942627</t>
   </si>
   <si>
     <t xml:space="preserve">20.6203022003174</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9241809844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1861896514893</t>
+    <t xml:space="preserve">20.9241790771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1861915588379</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730121612549</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9691314697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.145866394043</t>
+    <t xml:space="preserve">19.9691333770752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1458644866943</t>
   </si>
   <si>
     <t xml:space="preserve">17.3470993041992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4078769683838</t>
+    <t xml:space="preserve">17.4078750610352</t>
   </si>
   <si>
     <t xml:space="preserve">17.2950057983398</t>
@@ -1856,19 +1856,19 @@
     <t xml:space="preserve">17.9288082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0590419769287</t>
+    <t xml:space="preserve">18.0590438842773</t>
   </si>
   <si>
     <t xml:space="preserve">18.1805934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2153205871582</t>
+    <t xml:space="preserve">18.2153224945068</t>
   </si>
   <si>
     <t xml:space="preserve">19.1877326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5176582336426</t>
+    <t xml:space="preserve">19.5176563262939</t>
   </si>
   <si>
     <t xml:space="preserve">19.2398262023926</t>
@@ -1877,25 +1877,25 @@
     <t xml:space="preserve">18.9446315765381</t>
   </si>
   <si>
-    <t xml:space="preserve">18.51051902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0937728881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4931545257568</t>
+    <t xml:space="preserve">18.5105171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.093770980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4931526184082</t>
   </si>
   <si>
     <t xml:space="preserve">18.9619941711426</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0140895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5278835296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6494312286377</t>
+    <t xml:space="preserve">19.014087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5278854370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.649435043335</t>
   </si>
   <si>
     <t xml:space="preserve">18.8578090667725</t>
@@ -1904,37 +1904,37 @@
     <t xml:space="preserve">19.1182746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6320705413818</t>
+    <t xml:space="preserve">18.6320686340332</t>
   </si>
   <si>
     <t xml:space="preserve">17.3991947174072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4339199066162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.312370300293</t>
+    <t xml:space="preserve">17.4339218139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3123722076416</t>
   </si>
   <si>
     <t xml:space="preserve">16.2705020904541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1836814880371</t>
+    <t xml:space="preserve">16.1836795806885</t>
   </si>
   <si>
     <t xml:space="preserve">16.0187187194824</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5672445297241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3501853942871</t>
+    <t xml:space="preserve">15.5672435760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3501863479614</t>
   </si>
   <si>
     <t xml:space="preserve">15.3935976028442</t>
   </si>
   <si>
-    <t xml:space="preserve">16.383373260498</t>
+    <t xml:space="preserve">16.3833713531494</t>
   </si>
   <si>
     <t xml:space="preserve">16.808801651001</t>
@@ -1943,19 +1943,19 @@
     <t xml:space="preserve">16.7132968902588</t>
   </si>
   <si>
-    <t xml:space="preserve">15.801664352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7929821014404</t>
+    <t xml:space="preserve">15.8016633987427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7929801940918</t>
   </si>
   <si>
     <t xml:space="preserve">15.7842988967896</t>
   </si>
   <si>
-    <t xml:space="preserve">15.384913444519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.549877166748</t>
+    <t xml:space="preserve">15.3849153518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5498781204224</t>
   </si>
   <si>
     <t xml:space="preserve">16.0768432617188</t>
@@ -1970,19 +1970,19 @@
     <t xml:space="preserve">15.5677423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3801774978638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3623161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5320138931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2551355361938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6213302612305</t>
+    <t xml:space="preserve">15.3801794052124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3623151779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5320148468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2551364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6213312149048</t>
   </si>
   <si>
     <t xml:space="preserve">16.7645721435547</t>
@@ -1991,43 +1991,43 @@
     <t xml:space="preserve">16.4341049194336</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6391935348511</t>
+    <t xml:space="preserve">15.6391944885254</t>
   </si>
   <si>
     <t xml:space="preserve">15.2372722625732</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1836843490601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8978719711304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.094367980957</t>
+    <t xml:space="preserve">15.1836833953857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.897873878479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0943670272827</t>
   </si>
   <si>
     <t xml:space="preserve">15.3176574707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1390266418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9335994720459</t>
+    <t xml:space="preserve">15.1390256881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9335975646973</t>
   </si>
   <si>
     <t xml:space="preserve">14.7371044158936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8800106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5588111877441</t>
+    <t xml:space="preserve">14.8800096511841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5588083267212</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640676498413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0229158401489</t>
+    <t xml:space="preserve">15.0229148864746</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
@@ -2036,28 +2036,28 @@
     <t xml:space="preserve">15.7374420166016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1300945281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0407781600952</t>
+    <t xml:space="preserve">15.1300954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0407791137695</t>
   </si>
   <si>
     <t xml:space="preserve">15.0586414337158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6299257278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3619775772095</t>
+    <t xml:space="preserve">14.6299247741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3619785308838</t>
   </si>
   <si>
     <t xml:space="preserve">14.4155673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4691572189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2994585037231</t>
+    <t xml:space="preserve">14.4691581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2994575500488</t>
   </si>
   <si>
     <t xml:space="preserve">13.7367677688599</t>
@@ -2066,37 +2066,37 @@
     <t xml:space="preserve">13.9332628250122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1032991409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7906942367554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5674047470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4959526062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8707418441772</t>
+    <t xml:space="preserve">15.1033000946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7906923294067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.567403793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4959516525269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8707408905029</t>
   </si>
   <si>
     <t xml:space="preserve">14.245867729187</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2905263900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1833477020264</t>
+    <t xml:space="preserve">14.2905254364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1833467483521</t>
   </si>
   <si>
     <t xml:space="preserve">13.8260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7992887496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8618097305298</t>
+    <t xml:space="preserve">13.7992877960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8618106842041</t>
   </si>
   <si>
     <t xml:space="preserve">12.7632255554199</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">11.5038728713989</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5128059387207</t>
+    <t xml:space="preserve">11.5128049850464</t>
   </si>
   <si>
     <t xml:space="preserve">11.4860095977783</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662269592285</t>
+    <t xml:space="preserve">11.0662260055542</t>
   </si>
   <si>
     <t xml:space="preserve">11.2716522216797</t>
@@ -2126,13 +2126,13 @@
     <t xml:space="preserve">11.5753259658813</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7093000411987</t>
+    <t xml:space="preserve">11.7092990875244</t>
   </si>
   <si>
     <t xml:space="preserve">11.4145565032959</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3163108825684</t>
+    <t xml:space="preserve">11.316309928894</t>
   </si>
   <si>
     <t xml:space="preserve">11.2895154953003</t>
@@ -2141,22 +2141,22 @@
     <t xml:space="preserve">10.7536201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6021194458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3788299560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1912679672241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2537889480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.923656463623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1022891998291</t>
+    <t xml:space="preserve">11.6021203994751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.378830909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1912670135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2537899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9236583709717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1022901535034</t>
   </si>
   <si>
     <t xml:space="preserve">12.2362623214722</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">12.3166465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3255777359009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7810888290405</t>
+    <t xml:space="preserve">12.3255786895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7810897827148</t>
   </si>
   <si>
     <t xml:space="preserve">12.486346244812</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">12.0219049453735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665626525879</t>
+    <t xml:space="preserve">12.0665616989136</t>
   </si>
   <si>
     <t xml:space="preserve">11.6914367675781</t>
@@ -2207,16 +2207,16 @@
     <t xml:space="preserve">11.2359266281128</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9858407974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.182336807251</t>
+    <t xml:space="preserve">10.9858417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1823358535767</t>
   </si>
   <si>
     <t xml:space="preserve">11.5574617385864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6289148330688</t>
+    <t xml:space="preserve">11.6289157867432</t>
   </si>
   <si>
     <t xml:space="preserve">11.5931882858276</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">11.5395994186401</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5485315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8164777755737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2719879150391</t>
+    <t xml:space="preserve">11.5485305786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.816478729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2719888687134</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541265487671</t>
@@ -2243,37 +2243,37 @@
     <t xml:space="preserve">12.3880996704102</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9779195785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8439464569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8886041641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1744155883789</t>
+    <t xml:space="preserve">13.9779205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8439474105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8886051177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1744146347046</t>
   </si>
   <si>
     <t xml:space="preserve">14.3441143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2101411819458</t>
+    <t xml:space="preserve">14.2101421356201</t>
   </si>
   <si>
     <t xml:space="preserve">15.1211614608765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5316781997681</t>
+    <t xml:space="preserve">14.5316791534424</t>
   </si>
   <si>
     <t xml:space="preserve">14.9157371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5584716796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4512948989868</t>
+    <t xml:space="preserve">14.5584707260132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4512939453125</t>
   </si>
   <si>
     <t xml:space="preserve">14.1029624938965</t>
@@ -2285,37 +2285,37 @@
     <t xml:space="preserve">15.1568880081177</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3444509506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6570568084717</t>
+    <t xml:space="preserve">15.3444519042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6570587158203</t>
   </si>
   <si>
     <t xml:space="preserve">16.264404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.30872631073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2729988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.674919128418</t>
+    <t xml:space="preserve">15.3087244033813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2730007171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6749210357666</t>
   </si>
   <si>
     <t xml:space="preserve">15.7017154693604</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4069738388062</t>
+    <t xml:space="preserve">15.4069728851318</t>
   </si>
   <si>
     <t xml:space="preserve">15.7553033828735</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8892793655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0679092407227</t>
+    <t xml:space="preserve">15.8892803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.067907333374</t>
   </si>
   <si>
     <t xml:space="preserve">16.4073104858398</t>
@@ -2324,22 +2324,22 @@
     <t xml:space="preserve">16.219747543335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1747531890869</t>
+    <t xml:space="preserve">15.1747522354126</t>
   </si>
   <si>
     <t xml:space="preserve">15.0675745010376</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0318450927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926136016846</t>
+    <t xml:space="preserve">15.0318470001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926155090332</t>
   </si>
   <si>
     <t xml:space="preserve">14.8442850112915</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8264198303223</t>
+    <t xml:space="preserve">14.8264207839966</t>
   </si>
   <si>
     <t xml:space="preserve">15.2908630371094</t>
@@ -2357,58 +2357,58 @@
     <t xml:space="preserve">15.2104787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4962902069092</t>
+    <t xml:space="preserve">15.4962882995605</t>
   </si>
   <si>
     <t xml:space="preserve">14.3798418045044</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6120643615723</t>
+    <t xml:space="preserve">14.6120634078979</t>
   </si>
   <si>
     <t xml:space="preserve">14.1654834747314</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9689903259277</t>
+    <t xml:space="preserve">13.9689893722534</t>
   </si>
   <si>
     <t xml:space="preserve">14.2280044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2012090682983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1122303009033</t>
+    <t xml:space="preserve">14.2012100219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1122312545776</t>
   </si>
   <si>
     <t xml:space="preserve">14.9693260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9961214065552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2194108963013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2283401489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710775375366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8889417648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4334306716919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0761680603027</t>
+    <t xml:space="preserve">14.9961204528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.219409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2283391952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8889408111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4334316253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0761690139771</t>
   </si>
   <si>
     <t xml:space="preserve">13.1740779876709</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9418573379517</t>
+    <t xml:space="preserve">12.9418563842773</t>
   </si>
   <si>
     <t xml:space="preserve">13.2187356948853</t>
@@ -2417,13 +2417,13 @@
     <t xml:space="preserve">12.5756635665894</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1916036605835</t>
+    <t xml:space="preserve">12.1916046142578</t>
   </si>
   <si>
     <t xml:space="preserve">12.0040416717529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8340044021606</t>
+    <t xml:space="preserve">10.834005355835</t>
   </si>
   <si>
     <t xml:space="preserve">10.3070411682129</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">9.88725662231445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2177257537842</t>
+    <t xml:space="preserve">10.2177248001099</t>
   </si>
   <si>
     <t xml:space="preserve">8.48053359985352</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">8.67702865600586</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72168731689453</t>
+    <t xml:space="preserve">8.72168636322021</t>
   </si>
   <si>
     <t xml:space="preserve">8.35102558135986</t>
@@ -2453,13 +2453,13 @@
     <t xml:space="preserve">8.03842163085938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55678844451904</t>
+    <t xml:space="preserve">9.55678749084473</t>
   </si>
   <si>
     <t xml:space="preserve">9.44960975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87832546234131</t>
+    <t xml:space="preserve">9.87832641601562</t>
   </si>
   <si>
     <t xml:space="preserve">9.94084739685059</t>
@@ -2468,28 +2468,28 @@
     <t xml:space="preserve">10.0480260848999</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90512180328369</t>
+    <t xml:space="preserve">9.90511989593506</t>
   </si>
   <si>
     <t xml:space="preserve">9.93191528320312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53892612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.619309425354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0033683776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94977855682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0926837921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839204788208</t>
+    <t xml:space="preserve">9.53892517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61931037902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0033674240112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94977951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0926828384399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839214324951</t>
   </si>
   <si>
     <t xml:space="preserve">10.6285781860352</t>
@@ -2504,94 +2504,94 @@
     <t xml:space="preserve">10.3606309890747</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4588775634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5481948852539</t>
+    <t xml:space="preserve">10.4588785171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5481939315796</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982788085938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8250722885132</t>
+    <t xml:space="preserve">10.8250732421875</t>
   </si>
   <si>
     <t xml:space="preserve">10.9411840438843</t>
   </si>
   <si>
-    <t xml:space="preserve">11.468147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7450256347656</t>
+    <t xml:space="preserve">11.4681482315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7450246810913</t>
   </si>
   <si>
     <t xml:space="preserve">11.4770784378052</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4499473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3427686691284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2623825073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76221466064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9765739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98550510406494</t>
+    <t xml:space="preserve">10.4499464035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3427677154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2623834609985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76221561431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97657203674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98550415039062</t>
   </si>
   <si>
     <t xml:space="preserve">9.68183135986328</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71755695343018</t>
+    <t xml:space="preserve">9.71755790710449</t>
   </si>
   <si>
     <t xml:space="preserve">9.70862579345703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82473754882812</t>
+    <t xml:space="preserve">9.82473659515381</t>
   </si>
   <si>
     <t xml:space="preserve">9.29777336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36922454833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28884029388428</t>
+    <t xml:space="preserve">9.36922550201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28884124755859</t>
   </si>
   <si>
     <t xml:space="preserve">9.73542022705078</t>
   </si>
   <si>
-    <t xml:space="preserve">10.181999206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1016159057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.333836555481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7360954284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3609685897827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0572938919067</t>
+    <t xml:space="preserve">10.1820001602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016149520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3338356018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7360944747925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3609676361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0572948455811</t>
   </si>
   <si>
     <t xml:space="preserve">10.7357568740845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0837526321411</t>
+    <t xml:space="preserve">10.0837516784668</t>
   </si>
   <si>
     <t xml:space="preserve">10.4523181915283</t>
@@ -2603,16 +2603,16 @@
     <t xml:space="preserve">10.6815357208252</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6998729705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.663197517395</t>
+    <t xml:space="preserve">10.6998739242554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6631984710693</t>
   </si>
   <si>
     <t xml:space="preserve">10.5531740188599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.956597328186</t>
+    <t xml:space="preserve">10.9565963745117</t>
   </si>
   <si>
     <t xml:space="preserve">10.5073308944702</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">10.3881378173828</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2047643661499</t>
+    <t xml:space="preserve">10.2047634124756</t>
   </si>
   <si>
     <t xml:space="preserve">10.113076210022</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73715972900391</t>
+    <t xml:space="preserve">9.73716068267822</t>
   </si>
   <si>
     <t xml:space="preserve">10.0305576324463</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">9.87469005584717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99388313293457</t>
+    <t xml:space="preserve">9.99388217926025</t>
   </si>
   <si>
     <t xml:space="preserve">9.95720863342285</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">9.86552238464355</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60879707336426</t>
+    <t xml:space="preserve">9.60879802703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.43459320068359</t>
@@ -2654,19 +2654,19 @@
     <t xml:space="preserve">9.46209812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34290599822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0488967895508</t>
+    <t xml:space="preserve">9.34290504455566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0488948822021</t>
   </si>
   <si>
     <t xml:space="preserve">9.65464115142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81967830657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63630485534668</t>
+    <t xml:space="preserve">9.81967735290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63630390167236</t>
   </si>
   <si>
     <t xml:space="preserve">9.7921724319458</t>
@@ -2675,76 +2675,76 @@
     <t xml:space="preserve">9.6729793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9113655090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74632835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45293045043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8557405471802</t>
+    <t xml:space="preserve">9.91136646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74632930755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45292949676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8557415008545</t>
   </si>
   <si>
     <t xml:space="preserve">10.9474277496338</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9382591247559</t>
+    <t xml:space="preserve">10.9382600784302</t>
   </si>
   <si>
     <t xml:space="preserve">11.5158882141113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6442489624023</t>
+    <t xml:space="preserve">11.6442499160767</t>
   </si>
   <si>
     <t xml:space="preserve">11.8734664916992</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0293340682983</t>
+    <t xml:space="preserve">12.0293350219727</t>
   </si>
   <si>
     <t xml:space="preserve">11.6259126663208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4242000579834</t>
+    <t xml:space="preserve">11.4242010116577</t>
   </si>
   <si>
     <t xml:space="preserve">11.3233451843262</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1491384506226</t>
+    <t xml:space="preserve">11.1491394042969</t>
   </si>
   <si>
     <t xml:space="preserve">11.0666208267212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.791561126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7273797988892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6265230178833</t>
+    <t xml:space="preserve">10.7915601730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7273788452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6265239715576</t>
   </si>
   <si>
     <t xml:space="preserve">10.4706563949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248123168945</t>
+    <t xml:space="preserve">10.4248113632202</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898485183716</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6081867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5164995193481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431505203247</t>
+    <t xml:space="preserve">10.6081857681274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5165004730225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431495666504</t>
   </si>
   <si>
     <t xml:space="preserve">10.2597751617432</t>
@@ -2762,13 +2762,13 @@
     <t xml:space="preserve">10.48899269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8282356262207</t>
+    <t xml:space="preserve">10.8282346725464</t>
   </si>
   <si>
     <t xml:space="preserve">11.2591638565063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2775011062622</t>
+    <t xml:space="preserve">11.2775020599365</t>
   </si>
   <si>
     <t xml:space="preserve">10.9749345779419</t>
@@ -2783,28 +2783,28 @@
     <t xml:space="preserve">10.8740787506104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0116100311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2133207321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1308031082153</t>
+    <t xml:space="preserve">11.0116090774536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2133197784424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.130802154541</t>
   </si>
   <si>
     <t xml:space="preserve">10.9932718276978</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0941286087036</t>
+    <t xml:space="preserve">11.0941276550293</t>
   </si>
   <si>
     <t xml:space="preserve">11.0849590301514</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391149520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0757894515991</t>
+    <t xml:space="preserve">11.0391159057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0757904052734</t>
   </si>
   <si>
     <t xml:space="preserve">10.9841022491455</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">10.3056192398071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3514633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0855712890625</t>
+    <t xml:space="preserve">10.3514623641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0855703353882</t>
   </si>
   <si>
     <t xml:space="preserve">9.44376182556152</t>
@@ -2834,22 +2834,22 @@
     <t xml:space="preserve">9.26038837432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77903079986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95323657989502</t>
+    <t xml:space="preserve">8.77902984619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9532356262207</t>
   </si>
   <si>
     <t xml:space="preserve">9.06784534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57212162017822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61796569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32456874847412</t>
+    <t xml:space="preserve">9.57212352752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6179666519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3245677947998</t>
   </si>
   <si>
     <t xml:space="preserve">9.42542362213135</t>
@@ -2858,13 +2858,13 @@
     <t xml:space="preserve">10.4339809417725</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1680898666382</t>
+    <t xml:space="preserve">10.1680889129639</t>
   </si>
   <si>
     <t xml:space="preserve">11.4425382614136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6809234619141</t>
+    <t xml:space="preserve">11.6809244155884</t>
   </si>
   <si>
     <t xml:space="preserve">12.1760339736938</t>
@@ -2873,28 +2873,28 @@
     <t xml:space="preserve">12.9370365142822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.964542388916</t>
+    <t xml:space="preserve">12.9645433425903</t>
   </si>
   <si>
     <t xml:space="preserve">13.175422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4694318771362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0929040908813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7903366088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7078189849854</t>
+    <t xml:space="preserve">12.4694328308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.092903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.790337562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.707818031311</t>
   </si>
   <si>
     <t xml:space="preserve">12.8086748123169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2585525512695</t>
+    <t xml:space="preserve">12.2585515975952</t>
   </si>
   <si>
     <t xml:space="preserve">12.6619758605957</t>
@@ -2906,37 +2906,37 @@
     <t xml:space="preserve">12.57945728302</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5336141586304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6528062820435</t>
+    <t xml:space="preserve">12.5336132049561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528072357178</t>
   </si>
   <si>
     <t xml:space="preserve">12.7261562347412</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6344680786133</t>
+    <t xml:space="preserve">12.6344690322876</t>
   </si>
   <si>
     <t xml:space="preserve">12.4786005020142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5977935791016</t>
+    <t xml:space="preserve">12.5977945327759</t>
   </si>
   <si>
     <t xml:space="preserve">12.6069631576538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2762775421143</t>
+    <t xml:space="preserve">13.2762765884399</t>
   </si>
   <si>
     <t xml:space="preserve">13.2946147918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1020727157593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287227630615</t>
+    <t xml:space="preserve">13.102071762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287237167358</t>
   </si>
   <si>
     <t xml:space="preserve">13.184591293335</t>
@@ -2951,10 +2951,10 @@
     <t xml:space="preserve">12.8361806869507</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0562295913696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1295785903931</t>
+    <t xml:space="preserve">13.0562286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1295795440674</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662530899048</t>
@@ -2966,25 +2966,25 @@
     <t xml:space="preserve">13.4413146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4688205718994</t>
+    <t xml:space="preserve">13.4688196182251</t>
   </si>
   <si>
     <t xml:space="preserve">13.5421714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4504833221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6246891021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6613636016846</t>
+    <t xml:space="preserve">13.4504823684692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6246881484985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6613626480103</t>
   </si>
   <si>
     <t xml:space="preserve">13.9639301300049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8630743026733</t>
+    <t xml:space="preserve">13.8630752563477</t>
   </si>
   <si>
     <t xml:space="preserve">13.8997497558594</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">13.2487716674805</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5880146026611</t>
+    <t xml:space="preserve">13.5880136489868</t>
   </si>
   <si>
     <t xml:space="preserve">13.6155204772949</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">14.0647869110107</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8355693817139</t>
+    <t xml:space="preserve">13.8355684280396</t>
   </si>
   <si>
     <t xml:space="preserve">13.8722438812256</t>
@@ -3020,52 +3020,52 @@
     <t xml:space="preserve">14.4773778915405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7157640457153</t>
+    <t xml:space="preserve">14.715763092041</t>
   </si>
   <si>
     <t xml:space="preserve">14.7982816696167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.100848197937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2108736038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1100168228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2750558853149</t>
+    <t xml:space="preserve">15.1008491516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2108745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1100177764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2750549316406</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083070755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4223651885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7891130447388</t>
+    <t xml:space="preserve">14.4223642349243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7891120910645</t>
   </si>
   <si>
     <t xml:space="preserve">14.3948593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0916805267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3850793838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4309215545654</t>
+    <t xml:space="preserve">15.0916795730591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3850803375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4309225082397</t>
   </si>
   <si>
     <t xml:space="preserve">15.3392353057861</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7518262863159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9260330200195</t>
+    <t xml:space="preserve">15.7518272399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9260320663452</t>
   </si>
   <si>
     <t xml:space="preserve">16.1185760498047</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">15.1650314331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3300666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4859352111816</t>
+    <t xml:space="preserve">15.3300647735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4859342575073</t>
   </si>
   <si>
     <t xml:space="preserve">17.1454696655273</t>
@@ -3110,16 +3110,16 @@
     <t xml:space="preserve">16.1919250488281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3294544219971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1094074249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2010955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0818996429443</t>
+    <t xml:space="preserve">16.3294563293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1094055175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2010936737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.081901550293</t>
   </si>
   <si>
     <t xml:space="preserve">15.9902143478394</t>
@@ -3137,43 +3137,43 @@
     <t xml:space="preserve">15.999382019043</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8068408966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8801898956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1827564239502</t>
+    <t xml:space="preserve">15.8068389892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8801879882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1827545166016</t>
   </si>
   <si>
     <t xml:space="preserve">15.7609968185425</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6234664916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5501136779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.825177192688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.650972366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7334899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6693086624146</t>
+    <t xml:space="preserve">15.6234655380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5501155853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8251762390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6509704589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7334890365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6693096160889</t>
   </si>
   <si>
     <t xml:space="preserve">15.8893575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5776233673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8435144424438</t>
+    <t xml:space="preserve">15.5776214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8435153961182</t>
   </si>
   <si>
     <t xml:space="preserve">16.0085487365723</t>
@@ -3182,7 +3182,7 @@
     <t xml:space="preserve">16.0543937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">15.568452835083</t>
+    <t xml:space="preserve">15.5684518814087</t>
   </si>
   <si>
     <t xml:space="preserve">15.1283550262451</t>
@@ -3194,13 +3194,13 @@
     <t xml:space="preserve">17.6039047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2915592193604</t>
+    <t xml:space="preserve">18.2915573120117</t>
   </si>
   <si>
     <t xml:space="preserve">18.3190631866455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9608745574951</t>
+    <t xml:space="preserve">18.9608726501465</t>
   </si>
   <si>
     <t xml:space="preserve">19.1809215545654</t>
@@ -3209,34 +3209,34 @@
     <t xml:space="preserve">19.7632808685303</t>
   </si>
   <si>
-    <t xml:space="preserve">19.412015914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6523551940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3750419616699</t>
+    <t xml:space="preserve">19.4120178222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6523571014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3750400543213</t>
   </si>
   <si>
     <t xml:space="preserve">19.7817687988281</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7447929382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3179092407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8926944732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0590858459473</t>
+    <t xml:space="preserve">19.7447948455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3179111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8926963806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0590839385986</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036201477051</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9111843109131</t>
+    <t xml:space="preserve">19.9111824035645</t>
   </si>
   <si>
     <t xml:space="preserve">19.800256729126</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">19.0977268218994</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6153812408447</t>
+    <t xml:space="preserve">19.6153793334961</t>
   </si>
   <si>
     <t xml:space="preserve">19.4489917755127</t>
@@ -3257,13 +3257,13 @@
     <t xml:space="preserve">19.1347026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6338672637939</t>
+    <t xml:space="preserve">19.6338691711426</t>
   </si>
   <si>
     <t xml:space="preserve">19.19016456604</t>
   </si>
   <si>
-    <t xml:space="preserve">19.153190612793</t>
+    <t xml:space="preserve">19.1531887054443</t>
   </si>
   <si>
     <t xml:space="preserve">19.0422649383545</t>
@@ -3272,7 +3272,7 @@
     <t xml:space="preserve">18.9128494262695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6909980773926</t>
+    <t xml:space="preserve">18.6909999847412</t>
   </si>
   <si>
     <t xml:space="preserve">18.7834377288818</t>
@@ -3293,25 +3293,25 @@
     <t xml:space="preserve">18.5246105194092</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3859519958496</t>
+    <t xml:space="preserve">18.3859539031982</t>
   </si>
   <si>
     <t xml:space="preserve">18.2195625305176</t>
   </si>
   <si>
-    <t xml:space="preserve">17.988468170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3212451934814</t>
+    <t xml:space="preserve">17.9884662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3212471008301</t>
   </si>
   <si>
     <t xml:space="preserve">18.8573875427246</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7094879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3397350311279</t>
+    <t xml:space="preserve">18.7094860076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3397331237793</t>
   </si>
   <si>
     <t xml:space="preserve">18.0439319610596</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">17.4523277282715</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2380504608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0901489257812</t>
+    <t xml:space="preserve">18.2380523681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0901508331299</t>
   </si>
   <si>
     <t xml:space="preserve">18.2288074493408</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">18.6540241241455</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6170463562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3951950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4876365661621</t>
+    <t xml:space="preserve">18.6170482635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3951969146729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4876346588135</t>
   </si>
   <si>
     <t xml:space="preserve">17.7019100189209</t>
@@ -3359,7 +3359,7 @@
     <t xml:space="preserve">17.9237613677979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0161991119385</t>
+    <t xml:space="preserve">18.0162010192871</t>
   </si>
   <si>
     <t xml:space="preserve">18.1918334960938</t>
@@ -3383,7 +3383,7 @@
     <t xml:space="preserve">17.5077896118164</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4893016815186</t>
+    <t xml:space="preserve">17.4893035888672</t>
   </si>
   <si>
     <t xml:space="preserve">17.2951812744141</t>
@@ -3398,16 +3398,16 @@
     <t xml:space="preserve">18.7464618682861</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5430965423584</t>
+    <t xml:space="preserve">18.543098449707</t>
   </si>
   <si>
     <t xml:space="preserve">18.4414157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4599018096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1363716125488</t>
+    <t xml:space="preserve">18.459903717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1363697052002</t>
   </si>
   <si>
     <t xml:space="preserve">17.8775424957275</t>
@@ -3446,7 +3446,7 @@
     <t xml:space="preserve">17.1195507049561</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5464344024658</t>
+    <t xml:space="preserve">16.5464324951172</t>
   </si>
   <si>
     <t xml:space="preserve">16.2783622741699</t>
@@ -3458,61 +3458,61 @@
     <t xml:space="preserve">16.1119747161865</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7699518203735</t>
+    <t xml:space="preserve">15.7699527740479</t>
   </si>
   <si>
     <t xml:space="preserve">16.0657539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7514667510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9640731811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.927098274231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7607078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8531465530396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8439025878906</t>
+    <t xml:space="preserve">15.7514657974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9640741348267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9270973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7607069015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8531475067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8439016342163</t>
   </si>
   <si>
     <t xml:space="preserve">16.2506313323975</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8901233673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8254165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7144899368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5481004714966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3354940414429</t>
+    <t xml:space="preserve">15.8901224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8254156112671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7144889831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5481014251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3354930877686</t>
   </si>
   <si>
     <t xml:space="preserve">15.1043977737427</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6884260177612</t>
+    <t xml:space="preserve">14.6884269714355</t>
   </si>
   <si>
     <t xml:space="preserve">14.762375831604</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5220375061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5775003433228</t>
+    <t xml:space="preserve">14.5220365524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5775012969971</t>
   </si>
   <si>
     <t xml:space="preserve">14.8917903900146</t>
@@ -3524,7 +3524,7 @@
     <t xml:space="preserve">15.0119590759277</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0489349365234</t>
+    <t xml:space="preserve">15.0489358901978</t>
   </si>
   <si>
     <t xml:space="preserve">14.632963180542</t>
@@ -3533,25 +3533,25 @@
     <t xml:space="preserve">16.8976974487305</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2615432739258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1875925064087</t>
+    <t xml:space="preserve">15.2615423202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1875915527344</t>
   </si>
   <si>
     <t xml:space="preserve">14.8825464248657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8178396224976</t>
+    <t xml:space="preserve">14.8178405761719</t>
   </si>
   <si>
     <t xml:space="preserve">14.7531328201294</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4943056106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2724533081055</t>
+    <t xml:space="preserve">14.4943065643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2724542617798</t>
   </si>
   <si>
     <t xml:space="preserve">14.4480867385864</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">13.6716060638428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0598468780518</t>
+    <t xml:space="preserve">14.0598459243774</t>
   </si>
   <si>
     <t xml:space="preserve">13.7732877731323</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">14.327917098999</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1985025405884</t>
+    <t xml:space="preserve">14.1985034942627</t>
   </si>
   <si>
     <t xml:space="preserve">14.2262353897095</t>
@@ -3593,10 +3593,10 @@
     <t xml:space="preserve">13.8749704360962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2909421920776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9674072265625</t>
+    <t xml:space="preserve">14.2909412384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9674081802368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9119453430176</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">14.2354784011841</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3833799362183</t>
+    <t xml:space="preserve">14.3833808898926</t>
   </si>
   <si>
     <t xml:space="preserve">14.1060657501221</t>
@@ -3635,13 +3635,13 @@
     <t xml:space="preserve">13.4682416915894</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6068992614746</t>
+    <t xml:space="preserve">13.6069002151489</t>
   </si>
   <si>
     <t xml:space="preserve">13.4220237731934</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3203411102295</t>
+    <t xml:space="preserve">13.3203401565552</t>
   </si>
   <si>
     <t xml:space="preserve">13.3110971450806</t>
@@ -3659,7 +3659,7 @@
     <t xml:space="preserve">13.0152950286865</t>
   </si>
   <si>
-    <t xml:space="preserve">12.220326423645</t>
+    <t xml:space="preserve">12.2203273773193</t>
   </si>
   <si>
     <t xml:space="preserve">12.1556196212769</t>
@@ -3671,7 +3671,7 @@
     <t xml:space="preserve">12.4883975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4236907958984</t>
+    <t xml:space="preserve">12.4236898422241</t>
   </si>
   <si>
     <t xml:space="preserve">12.737979888916</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">12.5715923309326</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1001567840576</t>
+    <t xml:space="preserve">12.1001577377319</t>
   </si>
   <si>
     <t xml:space="preserve">12.0262069702148</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">11.3514070510864</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3329210281372</t>
+    <t xml:space="preserve">11.3329200744629</t>
   </si>
   <si>
     <t xml:space="preserve">11.7396478652954</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">11.4715766906738</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2219953536987</t>
+    <t xml:space="preserve">11.2219944000244</t>
   </si>
   <si>
     <t xml:space="preserve">11.5917472839355</t>
@@ -3746,7 +3746,7 @@
     <t xml:space="preserve">10.0110540390015</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0387859344482</t>
+    <t xml:space="preserve">10.0387849807739</t>
   </si>
   <si>
     <t xml:space="preserve">10.5379514694214</t>
@@ -3770,16 +3770,16 @@
     <t xml:space="preserve">9.32701206207275</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30852317810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7060079574585</t>
+    <t xml:space="preserve">9.3085241317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70600891113281</t>
   </si>
   <si>
     <t xml:space="preserve">9.49340057373047</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2715482711792</t>
+    <t xml:space="preserve">9.27154922485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.13289165496826</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">9.03583145141602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68456745147705</t>
+    <t xml:space="preserve">8.68456649780273</t>
   </si>
   <si>
     <t xml:space="preserve">8.64759063720703</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">8.85095500946045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76313877105713</t>
+    <t xml:space="preserve">8.76313781738281</t>
   </si>
   <si>
     <t xml:space="preserve">8.67994499206543</t>
@@ -3824,10 +3824,10 @@
     <t xml:space="preserve">8.77238273620605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72154235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83709049224854</t>
+    <t xml:space="preserve">8.72154140472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83708953857422</t>
   </si>
   <si>
     <t xml:space="preserve">8.53204345703125</t>
@@ -3845,7 +3845,7 @@
     <t xml:space="preserve">8.40725231170654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27321720123291</t>
+    <t xml:space="preserve">8.27321624755859</t>
   </si>
   <si>
     <t xml:space="preserve">8.52279949188232</t>
@@ -3860,16 +3860,16 @@
     <t xml:space="preserve">8.31943607330322</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19002151489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94968318939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06985187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03749847412109</t>
+    <t xml:space="preserve">8.19002246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94968366622925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06985282897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03749942779541</t>
   </si>
   <si>
     <t xml:space="preserve">8.16691303253174</t>
@@ -61773,7 +61773,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6493055556</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>91153</v>
@@ -61794,6 +61794,32 @@
         <v>1683</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6495138889</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>38806</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>5.57000017166138</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>5.48999977111816</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>5.53999996185303</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>5.51999998092651</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.411337852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4030313491821</t>
+    <t xml:space="preserve">13.4113359451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4030332565308</t>
   </si>
   <si>
     <t xml:space="preserve">13.0874729156494</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">12.5809125900269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4563493728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8715620040894</t>
+    <t xml:space="preserve">12.4563512802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.871561050415</t>
   </si>
   <si>
     <t xml:space="preserve">13.1372976303101</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">13.6106386184692</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1206884384155</t>
+    <t xml:space="preserve">13.1206893920898</t>
   </si>
   <si>
     <t xml:space="preserve">13.0210380554199</t>
@@ -77,43 +77,43 @@
     <t xml:space="preserve">13.2950773239136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6473474502563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9795188903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7719125747681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9462995529175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.788519859314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3483953475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2072219848633</t>
+    <t xml:space="preserve">12.6473484039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9795169830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7719116210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9463005065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7885189056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3483934402466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2072229385376</t>
   </si>
   <si>
     <t xml:space="preserve">12.5726108551025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6840562820435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5345792770386</t>
+    <t xml:space="preserve">11.6840553283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345821380615</t>
   </si>
   <si>
     <t xml:space="preserve">12.0245304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6508388519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0577459335327</t>
+    <t xml:space="preserve">11.650839805603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0577478408813</t>
   </si>
   <si>
     <t xml:space="preserve">12.107572555542</t>
@@ -128,34 +128,34 @@
     <t xml:space="preserve">12.0826606750488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2902669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4148283004761</t>
+    <t xml:space="preserve">12.290265083313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4148292541504</t>
   </si>
   <si>
     <t xml:space="preserve">12.2487449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">12.240439414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9580955505371</t>
+    <t xml:space="preserve">12.2404403686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9580965042114</t>
   </si>
   <si>
     <t xml:space="preserve">11.7338809967041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.556001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961242675781</t>
+    <t xml:space="preserve">12.5560007095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961252212524</t>
   </si>
   <si>
     <t xml:space="preserve">13.0376462936401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.830041885376</t>
+    <t xml:space="preserve">12.8300409317017</t>
   </si>
   <si>
     <t xml:space="preserve">12.7054777145386</t>
@@ -164,40 +164,40 @@
     <t xml:space="preserve">12.7469987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7137813568115</t>
+    <t xml:space="preserve">12.7137804031372</t>
   </si>
   <si>
     <t xml:space="preserve">13.4528579711914</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6189432144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5857267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7850275039673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9261999130249</t>
+    <t xml:space="preserve">13.6189422607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5857257843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7850284576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9262008666992</t>
   </si>
   <si>
     <t xml:space="preserve">14.0258502960205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9926338195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1171989440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2417573928833</t>
+    <t xml:space="preserve">13.9926347732544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1171960830688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2417602539062</t>
   </si>
   <si>
     <t xml:space="preserve">14.2666730880737</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0175466537476</t>
+    <t xml:space="preserve">14.0175447463989</t>
   </si>
   <si>
     <t xml:space="preserve">13.6770725250244</t>
@@ -206,10 +206,10 @@
     <t xml:space="preserve">13.3781204223633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7601156234741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7518119812012</t>
+    <t xml:space="preserve">13.7601146697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7518091201782</t>
   </si>
   <si>
     <t xml:space="preserve">13.8431568145752</t>
@@ -218,43 +218,43 @@
     <t xml:space="preserve">13.6272478103638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6604642868042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.735203742981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7185935974121</t>
+    <t xml:space="preserve">13.6604661941528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7352027893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7185955047607</t>
   </si>
   <si>
     <t xml:space="preserve">13.6687679290771</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3199892044067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2203407287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2701644897461</t>
+    <t xml:space="preserve">13.3199911117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2203397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2701635360718</t>
   </si>
   <si>
     <t xml:space="preserve">13.4943790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2037315368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0791664123535</t>
+    <t xml:space="preserve">13.2037305831909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0791673660278</t>
   </si>
   <si>
     <t xml:space="preserve">12.971212387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1954278945923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3526620864868</t>
+    <t xml:space="preserve">13.1954288482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3526630401611</t>
   </si>
   <si>
     <t xml:space="preserve">12.7449560165405</t>
@@ -263,16 +263,16 @@
     <t xml:space="preserve">12.7027540206909</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5761489868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5086250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8209190368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8293600082397</t>
+    <t xml:space="preserve">12.5761480331421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5086259841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8209199905396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8293590545654</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968830108643</t>
@@ -284,13 +284,13 @@
     <t xml:space="preserve">12.8884429931641</t>
   </si>
   <si>
-    <t xml:space="preserve">13.107892036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3357839584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4370651245117</t>
+    <t xml:space="preserve">13.1078929901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3357830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.437066078186</t>
   </si>
   <si>
     <t xml:space="preserve">13.5045890808105</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">13.6649570465088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539461135864</t>
+    <t xml:space="preserve">13.4539470672607</t>
   </si>
   <si>
     <t xml:space="preserve">13.496148109436</t>
@@ -311,13 +311,13 @@
     <t xml:space="preserve">13.2176170349121</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9728450775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9137630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3144960403442</t>
+    <t xml:space="preserve">12.972846031189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.913763999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3144969940186</t>
   </si>
   <si>
     <t xml:space="preserve">11.9600019454956</t>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">11.622386932373</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1710109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6605529785156</t>
+    <t xml:space="preserve">12.171010017395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6605539321899</t>
   </si>
   <si>
     <t xml:space="preserve">12.1794509887695</t>
@@ -347,25 +347,25 @@
     <t xml:space="preserve">12.0528440475464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2847719192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5673418045044</t>
+    <t xml:space="preserve">11.2847728729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5673408508301</t>
   </si>
   <si>
     <t xml:space="preserve">10.9724779129028</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5633029937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2132139205933</t>
+    <t xml:space="preserve">11.5633039474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2132120132446</t>
   </si>
   <si>
     <t xml:space="preserve">12.2047729492188</t>
   </si>
   <si>
-    <t xml:space="preserve">11.782753944397</t>
+    <t xml:space="preserve">11.7827548980713</t>
   </si>
   <si>
     <t xml:space="preserve">11.5211029052734</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">12.2976160049438</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3229379653931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1372499465942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4748640060425</t>
+    <t xml:space="preserve">12.3229398727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1372489929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4748649597168</t>
   </si>
   <si>
     <t xml:space="preserve">12.1541309356689</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">12.3735780715942</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7871580123901</t>
+    <t xml:space="preserve">12.7871570587158</t>
   </si>
   <si>
     <t xml:space="preserve">13.0403680801392</t>
@@ -407,13 +407,13 @@
     <t xml:space="preserve">13.5214700698853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6902770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311941146851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7662401199341</t>
+    <t xml:space="preserve">13.6902761459351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311931610107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7662410736084</t>
   </si>
   <si>
     <t xml:space="preserve">13.8000030517578</t>
@@ -431,16 +431,16 @@
     <t xml:space="preserve">14.9478893280029</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6018352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0491762161255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5343132019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8550481796265</t>
+    <t xml:space="preserve">14.6018362045288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0491771697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.53431224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8550472259521</t>
   </si>
   <si>
     <t xml:space="preserve">15.4121131896973</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">15.3445892333984</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5471601486206</t>
+    <t xml:space="preserve">15.547158241272</t>
   </si>
   <si>
     <t xml:space="preserve">15.3192672729492</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">15.4796361923218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8594532012939</t>
+    <t xml:space="preserve">15.8594512939453</t>
   </si>
   <si>
     <t xml:space="preserve">15.8932123184204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8678913116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8256921768188</t>
+    <t xml:space="preserve">15.8678932189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8256902694702</t>
   </si>
   <si>
     <t xml:space="preserve">15.7834882736206</t>
@@ -488,22 +488,22 @@
     <t xml:space="preserve">16.0451393127441</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1801853179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2139472961426</t>
+    <t xml:space="preserve">16.1801872253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2139453887939</t>
   </si>
   <si>
     <t xml:space="preserve">16.1126613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0367012023926</t>
+    <t xml:space="preserve">16.0366992950439</t>
   </si>
   <si>
     <t xml:space="preserve">15.5978002548218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4458713531494</t>
+    <t xml:space="preserve">15.4458723068237</t>
   </si>
   <si>
     <t xml:space="preserve">15.5640392303467</t>
@@ -521,37 +521,37 @@
     <t xml:space="preserve">16.1970672607422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9607362747192</t>
+    <t xml:space="preserve">15.9607343673706</t>
   </si>
   <si>
     <t xml:space="preserve">15.5302772521973</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1464252471924</t>
+    <t xml:space="preserve">16.1464233398438</t>
   </si>
   <si>
     <t xml:space="preserve">16.0029373168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9100961685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.289909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9691791534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7497253417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6146821975708</t>
+    <t xml:space="preserve">15.9100952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2899112701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9691772460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7497272491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6146802902222</t>
   </si>
   <si>
     <t xml:space="preserve">15.9438562393188</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0789012908936</t>
+    <t xml:space="preserve">16.0788993835449</t>
   </si>
   <si>
     <t xml:space="preserve">16.0620231628418</t>
@@ -560,43 +560,43 @@
     <t xml:space="preserve">16.1211032867432</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0535793304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9269752502441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614702224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6990852355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.994499206543</t>
+    <t xml:space="preserve">16.053581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9269771575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614711761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6990833282471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9945011138916</t>
   </si>
   <si>
     <t xml:space="preserve">15.5555982589722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.251745223999</t>
+    <t xml:space="preserve">15.2517471313477</t>
   </si>
   <si>
     <t xml:space="preserve">15.2686243057251</t>
   </si>
   <si>
-    <t xml:space="preserve">14.804407119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1335821151733</t>
+    <t xml:space="preserve">14.8044080734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.133581161499</t>
   </si>
   <si>
     <t xml:space="preserve">14.9816541671753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1926641464233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9141302108765</t>
+    <t xml:space="preserve">15.1926612854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9141311645508</t>
   </si>
   <si>
     <t xml:space="preserve">15.11669921875</t>
@@ -608,16 +608,16 @@
     <t xml:space="preserve">15.1673431396484</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0069761276245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959661483765</t>
+    <t xml:space="preserve">15.0069742202759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959671020508</t>
   </si>
   <si>
     <t xml:space="preserve">15.0238552093506</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6355991363525</t>
+    <t xml:space="preserve">14.6356000900269</t>
   </si>
   <si>
     <t xml:space="preserve">14.3486261367798</t>
@@ -626,43 +626,43 @@
     <t xml:space="preserve">14.0616550445557</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0194530487061</t>
+    <t xml:space="preserve">14.0194520950317</t>
   </si>
   <si>
     <t xml:space="preserve">13.8337631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5889930725098</t>
+    <t xml:space="preserve">13.5889940261841</t>
   </si>
   <si>
     <t xml:space="preserve">13.9688091278076</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2557802200317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.449912071228</t>
+    <t xml:space="preserve">14.2557811737061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4499111175537</t>
   </si>
   <si>
     <t xml:space="preserve">14.5933971405029</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8972501754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.686240196228</t>
+    <t xml:space="preserve">14.8972492218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6862411499023</t>
   </si>
   <si>
     <t xml:space="preserve">15.715968132019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.775050163269</t>
+    <t xml:space="preserve">15.7750482559204</t>
   </si>
   <si>
     <t xml:space="preserve">15.4374351501465</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5724792480469</t>
+    <t xml:space="preserve">15.5724811553955</t>
   </si>
   <si>
     <t xml:space="preserve">15.6484451293945</t>
@@ -671,22 +671,22 @@
     <t xml:space="preserve">16.0113792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3658714294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3152313232422</t>
+    <t xml:space="preserve">16.3658752441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3152332305908</t>
   </si>
   <si>
     <t xml:space="preserve">16.2983512878418</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2223873138428</t>
+    <t xml:space="preserve">16.2223892211914</t>
   </si>
   <si>
     <t xml:space="preserve">16.1379833221436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3743133544922</t>
+    <t xml:space="preserve">16.3743152618408</t>
   </si>
   <si>
     <t xml:space="preserve">16.2645893096924</t>
@@ -698,7 +698,7 @@
     <t xml:space="preserve">15.8510112762451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9522943496704</t>
+    <t xml:space="preserve">15.952296257019</t>
   </si>
   <si>
     <t xml:space="preserve">16.6022052764893</t>
@@ -707,16 +707,16 @@
     <t xml:space="preserve">16.6697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6781673431396</t>
+    <t xml:space="preserve">16.6781692504883</t>
   </si>
   <si>
     <t xml:space="preserve">16.7288093566895</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7963314056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1508274078369</t>
+    <t xml:space="preserve">16.7963333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1508255004883</t>
   </si>
   <si>
     <t xml:space="preserve">17.1001853942871</t>
@@ -725,19 +725,19 @@
     <t xml:space="preserve">17.3449573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3955993652344</t>
+    <t xml:space="preserve">17.3955974578857</t>
   </si>
   <si>
     <t xml:space="preserve">17.1339473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.260555267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9482574462891</t>
+    <t xml:space="preserve">17.2605514526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9482593536377</t>
   </si>
   <si>
     <t xml:space="preserve">16.7625713348389</t>
@@ -749,19 +749,19 @@
     <t xml:space="preserve">16.8807373046875</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7878932952881</t>
+    <t xml:space="preserve">16.7878913879395</t>
   </si>
   <si>
     <t xml:space="preserve">16.8300952911377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2858734130859</t>
+    <t xml:space="preserve">17.2858753204346</t>
   </si>
   <si>
     <t xml:space="preserve">17.7247714996338</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8091793060303</t>
+    <t xml:space="preserve">17.8091812133789</t>
   </si>
   <si>
     <t xml:space="preserve">17.8767013549805</t>
@@ -776,19 +776,19 @@
     <t xml:space="preserve">18.6447734832764</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2862415313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6660575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.640739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.953031539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2146835327148</t>
+    <t xml:space="preserve">19.2862434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6660594940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6407375335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9530296325684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2146816253662</t>
   </si>
   <si>
     <t xml:space="preserve">20.3412857055664</t>
@@ -803,13 +803,13 @@
     <t xml:space="preserve">20.7211017608643</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4594497680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5691757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5944976806641</t>
+    <t xml:space="preserve">20.459451675415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5691776275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5944957733154</t>
   </si>
   <si>
     <t xml:space="preserve">20.6789035797119</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">20.5016555786133</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4172534942627</t>
+    <t xml:space="preserve">20.4172515869141</t>
   </si>
   <si>
     <t xml:space="preserve">20.0036735534668</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0121116638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7589015960693</t>
+    <t xml:space="preserve">20.012113571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.758903503418</t>
   </si>
   <si>
     <t xml:space="preserve">19.9614715576172</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">19.5310096740723</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1049575805664</t>
+    <t xml:space="preserve">20.1049556732178</t>
   </si>
   <si>
     <t xml:space="preserve">20.7886257171631</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">21.2528476715088</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7761478424072</t>
+    <t xml:space="preserve">21.7761497497559</t>
   </si>
   <si>
     <t xml:space="preserve">21.5651397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9811000823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.22021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9469470977783</t>
+    <t xml:space="preserve">21.9811019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2202129364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9469451904297</t>
   </si>
   <si>
     <t xml:space="preserve">22.1177368164062</t>
@@ -890,19 +890,19 @@
     <t xml:space="preserve">22.6301174163818</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5455760955811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5626602172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4943408966064</t>
+    <t xml:space="preserve">21.5455799102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5626583099365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4943428039551</t>
   </si>
   <si>
     <t xml:space="preserve">21.3918628692627</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3235454559326</t>
+    <t xml:space="preserve">21.3235473632812</t>
   </si>
   <si>
     <t xml:space="preserve">21.3491687774658</t>
@@ -920,13 +920,13 @@
     <t xml:space="preserve">21.9640216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1604347229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0664978027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8615455627441</t>
+    <t xml:space="preserve">22.160436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.066499710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8615474700928</t>
   </si>
   <si>
     <t xml:space="preserve">21.8359260559082</t>
@@ -935,25 +935,25 @@
     <t xml:space="preserve">22.1945934295654</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2893905639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6053562164307</t>
+    <t xml:space="preserve">21.2893886566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.605354309082</t>
   </si>
   <si>
     <t xml:space="preserve">21.3150081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8111667633057</t>
+    <t xml:space="preserve">20.8111686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.0673561096191</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1356735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9648818969727</t>
+    <t xml:space="preserve">21.1356754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.964879989624</t>
   </si>
   <si>
     <t xml:space="preserve">21.118595123291</t>
@@ -962,43 +962,43 @@
     <t xml:space="preserve">21.3662452697754</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7419910430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3064708709717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9563407897949</t>
+    <t xml:space="preserve">21.7419891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.306468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9563426971436</t>
   </si>
   <si>
     <t xml:space="preserve">20.3073272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1279945373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9059619903564</t>
+    <t xml:space="preserve">20.1279926300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9059638977051</t>
   </si>
   <si>
     <t xml:space="preserve">19.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.624153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0340576171875</t>
+    <t xml:space="preserve">19.6241512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0340557098389</t>
   </si>
   <si>
     <t xml:space="preserve">19.5472984313965</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0682144165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4354228973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4866600036621</t>
+    <t xml:space="preserve">20.0682163238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4354248046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4866619110107</t>
   </si>
   <si>
     <t xml:space="preserve">21.1954517364502</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">21.2296123504639</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8017711639404</t>
+    <t xml:space="preserve">21.8017692565918</t>
   </si>
   <si>
     <t xml:space="preserve">21.7932300567627</t>
@@ -1028,19 +1028,19 @@
     <t xml:space="preserve">22.2031345367432</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3226890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0921173095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0750408172607</t>
+    <t xml:space="preserve">22.3226871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0921192169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0750389099121</t>
   </si>
   <si>
     <t xml:space="preserve">21.6992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1348152160645</t>
+    <t xml:space="preserve">22.1348133087158</t>
   </si>
   <si>
     <t xml:space="preserve">22.5959587097168</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">22.5874195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3653869628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9973201751709</t>
+    <t xml:space="preserve">22.3653888702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9973220825195</t>
   </si>
   <si>
     <t xml:space="preserve">22.8521480560303</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">22.8436069488525</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6813564300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1510372161865</t>
+    <t xml:space="preserve">22.6813526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1510391235352</t>
   </si>
   <si>
     <t xml:space="preserve">22.7752914428711</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">23.6207160949707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1074810028076</t>
+    <t xml:space="preserve">24.107479095459</t>
   </si>
   <si>
     <t xml:space="preserve">23.7402744293213</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1843376159668</t>
+    <t xml:space="preserve">24.1843357086182</t>
   </si>
   <si>
     <t xml:space="preserve">24.1160182952881</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3380527496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3038902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6198577880859</t>
+    <t xml:space="preserve">24.3380508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3038921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6198596954346</t>
   </si>
   <si>
     <t xml:space="preserve">25.029764175415</t>
@@ -1109,7 +1109,7 @@
     <t xml:space="preserve">24.8931293487549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.209098815918</t>
+    <t xml:space="preserve">25.2090969085693</t>
   </si>
   <si>
     <t xml:space="preserve">25.1407794952393</t>
@@ -1121,16 +1121,16 @@
     <t xml:space="preserve">25.5592231750488</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0724639892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1663990020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7564945220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6796340942383</t>
+    <t xml:space="preserve">25.0724620819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1663970947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7564964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6796379089355</t>
   </si>
   <si>
     <t xml:space="preserve">24.7735729217529</t>
@@ -1142,34 +1142,34 @@
     <t xml:space="preserve">25.4225883483887</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6864604949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2167778015137</t>
+    <t xml:space="preserve">26.6864585876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.216775894165</t>
   </si>
   <si>
     <t xml:space="preserve">26.2850952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2338542938232</t>
+    <t xml:space="preserve">26.2338562011719</t>
   </si>
   <si>
     <t xml:space="preserve">26.0972213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0459842681885</t>
+    <t xml:space="preserve">26.0459823608398</t>
   </si>
   <si>
     <t xml:space="preserve">25.8751888275146</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8581123352051</t>
+    <t xml:space="preserve">25.8581104278564</t>
   </si>
   <si>
     <t xml:space="preserve">26.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2329978942871</t>
+    <t xml:space="preserve">27.2329959869385</t>
   </si>
   <si>
     <t xml:space="preserve">26.7291584014893</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">25.3457317352295</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7641754150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9605884552002</t>
+    <t xml:space="preserve">25.7641735076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9605903625488</t>
   </si>
   <si>
     <t xml:space="preserve">25.7812538146973</t>
   </si>
   <si>
-    <t xml:space="preserve">26.703540802002</t>
+    <t xml:space="preserve">26.7035388946533</t>
   </si>
   <si>
     <t xml:space="preserve">27.5660438537598</t>
@@ -1199,19 +1199,19 @@
     <t xml:space="preserve">27.2586154937744</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4370880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1288032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7274379730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2406787872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8555316925049</t>
+    <t xml:space="preserve">28.4370899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1288051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7274398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2406768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8555355072021</t>
   </si>
   <si>
     <t xml:space="preserve">28.3346138000488</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">26.5156631469727</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1313781738281</t>
+    <t xml:space="preserve">26.1313800811768</t>
   </si>
   <si>
     <t xml:space="preserve">25.7043972015381</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">25.789794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4815082550049</t>
+    <t xml:space="preserve">26.4815063476562</t>
   </si>
   <si>
     <t xml:space="preserve">26.0630626678467</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">26.430269241333</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8999481201172</t>
+    <t xml:space="preserve">26.8999500274658</t>
   </si>
   <si>
     <t xml:space="preserve">26.8401718139648</t>
@@ -1256,13 +1256,13 @@
     <t xml:space="preserve">26.9853477478027</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9511871337891</t>
+    <t xml:space="preserve">26.9511852264404</t>
   </si>
   <si>
     <t xml:space="preserve">26.7974739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0195026397705</t>
+    <t xml:space="preserve">27.0195045471191</t>
   </si>
   <si>
     <t xml:space="preserve">26.771858215332</t>
@@ -1274,40 +1274,40 @@
     <t xml:space="preserve">26.6437606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7633171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0280456542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3269348144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4388084411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.276554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6616992950439</t>
+    <t xml:space="preserve">26.763313293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0280437469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3269329071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4388065338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2765522003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6616973876953</t>
   </si>
   <si>
     <t xml:space="preserve">26.6096019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2509365081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6266822814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3192520141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9264259338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.94264793396</t>
+    <t xml:space="preserve">26.2509326934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6266803741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3192539215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9264278411865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9426498413086</t>
   </si>
   <si>
     <t xml:space="preserve">28.0528049468994</t>
@@ -1316,10 +1316,10 @@
     <t xml:space="preserve">27.8820133209229</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7359809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9674072265625</t>
+    <t xml:space="preserve">28.7359790802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9674053192139</t>
   </si>
   <si>
     <t xml:space="preserve">27.7966156005859</t>
@@ -1334,19 +1334,19 @@
     <t xml:space="preserve">27.4977283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5831203460693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0955066680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6505813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2483615875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5651874542236</t>
+    <t xml:space="preserve">27.583122253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0955047607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6505832672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2483596801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.565185546875</t>
   </si>
   <si>
     <t xml:space="preserve">28.138204574585</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">27.924711227417</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4550304412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.302173614502</t>
+    <t xml:space="preserve">27.4550285339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3021717071533</t>
   </si>
   <si>
     <t xml:space="preserve">25.8324909210205</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">25.0212230682373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.149320602417</t>
+    <t xml:space="preserve">25.1493186950684</t>
   </si>
   <si>
     <t xml:space="preserve">26.8145523071289</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">26.3448734283447</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4729671478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5088443756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6190013885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5404243469238</t>
+    <t xml:space="preserve">26.4729690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5088424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5404262542725</t>
   </si>
   <si>
     <t xml:space="preserve">24.8504314422607</t>
@@ -1397,31 +1397,31 @@
     <t xml:space="preserve">24.7223358154297</t>
   </si>
   <si>
-    <t xml:space="preserve">21.178373336792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6480560302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7334537506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6659965515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4772624969482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2458324432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7155132293701</t>
+    <t xml:space="preserve">21.1783714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6480541229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.733455657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.665994644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4772605895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2458305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7155151367188</t>
   </si>
   <si>
     <t xml:space="preserve">22.8009128570557</t>
   </si>
   <si>
-    <t xml:space="preserve">23.526782989502</t>
+    <t xml:space="preserve">23.5267810821533</t>
   </si>
   <si>
     <t xml:space="preserve">22.8863067626953</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">21.9042434692383</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5020236968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3739280700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7582130432129</t>
+    <t xml:space="preserve">22.502025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3739261627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7582111358643</t>
   </si>
   <si>
     <t xml:space="preserve">23.5694808959961</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">23.2705936431885</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6975765228271</t>
+    <t xml:space="preserve">23.6975746154785</t>
   </si>
   <si>
     <t xml:space="preserve">23.0998001098633</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">24.2953510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8256721496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7650318145752</t>
+    <t xml:space="preserve">23.8256683349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7650337219238</t>
   </si>
   <si>
     <t xml:space="preserve">27.070743560791</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9178905487061</t>
+    <t xml:space="preserve">25.9178886413574</t>
   </si>
   <si>
     <t xml:space="preserve">25.5763034820557</t>
@@ -1475,22 +1475,22 @@
     <t xml:space="preserve">25.4055080413818</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3628082275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4909057617188</t>
+    <t xml:space="preserve">25.3628120422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4909076690674</t>
   </si>
   <si>
     <t xml:space="preserve">26.0032863616943</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9164638519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.308708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8730506896973</t>
+    <t xml:space="preserve">25.9164657592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3087062835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8730525970459</t>
   </si>
   <si>
     <t xml:space="preserve">26.1335182189941</t>
@@ -1499,19 +1499,19 @@
     <t xml:space="preserve">26.4373970031738</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6544551849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0451526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0017433166504</t>
+    <t xml:space="preserve">26.6544532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0451545715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.001745223999</t>
   </si>
   <si>
     <t xml:space="preserve">26.5676288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5660877227783</t>
+    <t xml:space="preserve">27.5660858154297</t>
   </si>
   <si>
     <t xml:space="preserve">28.4777221679688</t>
@@ -1523,37 +1523,37 @@
     <t xml:space="preserve">27.4792652130127</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7412757873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7846870422363</t>
+    <t xml:space="preserve">26.7412738800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7846851348877</t>
   </si>
   <si>
     <t xml:space="preserve">26.3071613311768</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6110439300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9583282470703</t>
+    <t xml:space="preserve">26.6110420227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9583301544189</t>
   </si>
   <si>
     <t xml:space="preserve">26.5242176055908</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9149188995361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4358558654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0885639190674</t>
+    <t xml:space="preserve">26.9149208068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4358539581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.088565826416</t>
   </si>
   <si>
     <t xml:space="preserve">27.2187995910645</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3490295410156</t>
+    <t xml:space="preserve">27.3490314483643</t>
   </si>
   <si>
     <t xml:space="preserve">27.1753883361816</t>
@@ -1565,28 +1565,28 @@
     <t xml:space="preserve">28.3908996582031</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3474884033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4389400482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7877731323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9180068969727</t>
+    <t xml:space="preserve">28.3474903106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4389419555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7877712249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.918004989624</t>
   </si>
   <si>
     <t xml:space="preserve">25.2218818664551</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0048294067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5273056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9614162445068</t>
+    <t xml:space="preserve">25.0048274993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.527307510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9614143371582</t>
   </si>
   <si>
     <t xml:space="preserve">25.0482406616211</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">25.0916500091553</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3955307006836</t>
+    <t xml:space="preserve">25.395528793335</t>
   </si>
   <si>
     <t xml:space="preserve">25.525764465332</t>
@@ -1604,25 +1604,25 @@
     <t xml:space="preserve">26.6978645324707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8265552520752</t>
+    <t xml:space="preserve">27.8265533447266</t>
   </si>
   <si>
     <t xml:space="preserve">27.1319770812988</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3056201934814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8699645996094</t>
+    <t xml:space="preserve">27.3056221008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8699626922607</t>
   </si>
   <si>
     <t xml:space="preserve">26.8280963897705</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9133777618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3040752410889</t>
+    <t xml:space="preserve">27.9133758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3040771484375</t>
   </si>
   <si>
     <t xml:space="preserve">27.2622089385986</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">27.9567890167236</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6529083251953</t>
+    <t xml:space="preserve">27.6529102325439</t>
   </si>
   <si>
     <t xml:space="preserve">25.6994075775146</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">24.2234287261963</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7908592224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4869804382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9645042419434</t>
+    <t xml:space="preserve">22.7908611297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4869823455811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.964506149292</t>
   </si>
   <si>
     <t xml:space="preserve">21.7924041748047</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">22.7040367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5303916931152</t>
+    <t xml:space="preserve">22.5303936004639</t>
   </si>
   <si>
     <t xml:space="preserve">22.1396903991699</t>
@@ -1667,10 +1667,10 @@
     <t xml:space="preserve">21.8358135223389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6637096405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8373584747314</t>
+    <t xml:space="preserve">20.6637115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8373565673828</t>
   </si>
   <si>
     <t xml:space="preserve">21.3582916259766</t>
@@ -1691,10 +1691,10 @@
     <t xml:space="preserve">23.1381511688232</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0497817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3552017211914</t>
+    <t xml:space="preserve">24.0497856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.35520362854</t>
   </si>
   <si>
     <t xml:space="preserve">18.8838558197021</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">18.4063320159912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.536563873291</t>
+    <t xml:space="preserve">18.5365657806396</t>
   </si>
   <si>
     <t xml:space="preserve">18.7536220550537</t>
@@ -1715,37 +1715,37 @@
     <t xml:space="preserve">19.1009120941162</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4047908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6218433380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7520771026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5350227355957</t>
+    <t xml:space="preserve">19.4047889709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6218452453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7520790100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5350208282471</t>
   </si>
   <si>
     <t xml:space="preserve">19.7954883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3164215087891</t>
+    <t xml:space="preserve">20.3164234161377</t>
   </si>
   <si>
     <t xml:space="preserve">20.4900703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4466590881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.012544631958</t>
+    <t xml:space="preserve">20.4466571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0125465393066</t>
   </si>
   <si>
     <t xml:space="preserve">20.0559577941895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9272651672363</t>
+    <t xml:space="preserve">18.927267074585</t>
   </si>
   <si>
     <t xml:space="preserve">18.6667995452881</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">17.7117538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3644638061523</t>
+    <t xml:space="preserve">17.364465713501</t>
   </si>
   <si>
     <t xml:space="preserve">19.1443214416504</t>
@@ -1787,16 +1787,16 @@
     <t xml:space="preserve">20.0993671417236</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3598327636719</t>
+    <t xml:space="preserve">20.3598346710205</t>
   </si>
   <si>
     <t xml:space="preserve">20.5334796905518</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4032440185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8807678222656</t>
+    <t xml:space="preserve">20.4032459259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.880765914917</t>
   </si>
   <si>
     <t xml:space="preserve">20.7939472198486</t>
@@ -1805,22 +1805,22 @@
     <t xml:space="preserve">21.5319347381592</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6621723175049</t>
+    <t xml:space="preserve">21.6621704101562</t>
   </si>
   <si>
     <t xml:space="preserve">21.3148803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0978221893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7505340576172</t>
+    <t xml:space="preserve">21.0978240966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7505321502686</t>
   </si>
   <si>
     <t xml:space="preserve">20.2296009063721</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0110034942627</t>
+    <t xml:space="preserve">21.0110015869141</t>
   </si>
   <si>
     <t xml:space="preserve">20.6203022003174</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">19.9691333770752</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1458644866943</t>
+    <t xml:space="preserve">18.145866394043</t>
   </si>
   <si>
     <t xml:space="preserve">17.3470993041992</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">17.9288082122803</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0590438842773</t>
+    <t xml:space="preserve">18.0590419769287</t>
   </si>
   <si>
     <t xml:space="preserve">18.1805934906006</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2153224945068</t>
+    <t xml:space="preserve">18.2153244018555</t>
   </si>
   <si>
     <t xml:space="preserve">19.1877326965332</t>
@@ -1874,16 +1874,16 @@
     <t xml:space="preserve">19.2398262023926</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9446315765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5105171203613</t>
+    <t xml:space="preserve">18.9446296691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.51051902771</t>
   </si>
   <si>
     <t xml:space="preserve">18.093770980835</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4931526184082</t>
+    <t xml:space="preserve">18.4931545257568</t>
   </si>
   <si>
     <t xml:space="preserve">18.9619941711426</t>
@@ -1892,13 +1892,13 @@
     <t xml:space="preserve">19.014087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5278854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.649435043335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8578090667725</t>
+    <t xml:space="preserve">18.5278835296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6494369506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8578071594238</t>
   </si>
   <si>
     <t xml:space="preserve">19.1182746887207</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">17.3991947174072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4339218139648</t>
+    <t xml:space="preserve">17.4339237213135</t>
   </si>
   <si>
     <t xml:space="preserve">17.3123722076416</t>
@@ -1928,16 +1928,16 @@
     <t xml:space="preserve">15.5672435760498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3501863479614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3935976028442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3833713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.808801651001</t>
+    <t xml:space="preserve">15.3501853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3935966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.383373260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8088054656982</t>
   </si>
   <si>
     <t xml:space="preserve">16.7132968902588</t>
@@ -1946,7 +1946,7 @@
     <t xml:space="preserve">15.8016633987427</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7929801940918</t>
+    <t xml:space="preserve">15.7929821014404</t>
   </si>
   <si>
     <t xml:space="preserve">15.7842988967896</t>
@@ -1955,31 +1955,31 @@
     <t xml:space="preserve">15.3849153518677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5498781204224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0768432617188</t>
+    <t xml:space="preserve">15.549880027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0768413543701</t>
   </si>
   <si>
     <t xml:space="preserve">16.0947036743164</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4337682723999</t>
+    <t xml:space="preserve">15.4337673187256</t>
   </si>
   <si>
     <t xml:space="preserve">15.5677423477173</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3801794052124</t>
+    <t xml:space="preserve">15.3801774978638</t>
   </si>
   <si>
     <t xml:space="preserve">15.3623151779175</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5320148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2551364898682</t>
+    <t xml:space="preserve">15.5320158004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2551355361938</t>
   </si>
   <si>
     <t xml:space="preserve">15.6213312149048</t>
@@ -1994,22 +1994,22 @@
     <t xml:space="preserve">15.6391944885254</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2372722625732</t>
+    <t xml:space="preserve">15.2372713088989</t>
   </si>
   <si>
     <t xml:space="preserve">15.1836833953857</t>
   </si>
   <si>
-    <t xml:space="preserve">14.897873878479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0943670272827</t>
+    <t xml:space="preserve">14.8978729248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.094367980957</t>
   </si>
   <si>
     <t xml:space="preserve">15.3176574707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1390256881714</t>
+    <t xml:space="preserve">15.13902759552</t>
   </si>
   <si>
     <t xml:space="preserve">14.9335975646973</t>
@@ -2018,16 +2018,16 @@
     <t xml:space="preserve">14.7371044158936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8800096511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5588083267212</t>
+    <t xml:space="preserve">14.8800086975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5588102340698</t>
   </si>
   <si>
     <t xml:space="preserve">15.2640676498413</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0229148864746</t>
+    <t xml:space="preserve">15.022912979126</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
@@ -2036,16 +2036,16 @@
     <t xml:space="preserve">15.7374420166016</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1300954818726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0407791137695</t>
+    <t xml:space="preserve">15.1300935745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0407772064209</t>
   </si>
   <si>
     <t xml:space="preserve">15.0586414337158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6299247741699</t>
+    <t xml:space="preserve">14.6299257278442</t>
   </si>
   <si>
     <t xml:space="preserve">14.3619785308838</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">14.4155673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4691581726074</t>
+    <t xml:space="preserve">14.4691572189331</t>
   </si>
   <si>
     <t xml:space="preserve">14.2994575500488</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">13.7367677688599</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9332628250122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1033000946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7906923294067</t>
+    <t xml:space="preserve">13.9332618713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1032991409302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7906932830811</t>
   </si>
   <si>
     <t xml:space="preserve">14.567403793335</t>
@@ -2078,7 +2078,7 @@
     <t xml:space="preserve">14.4959516525269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8707408905029</t>
+    <t xml:space="preserve">13.8707418441772</t>
   </si>
   <si>
     <t xml:space="preserve">14.245867729187</t>
@@ -2108,25 +2108,25 @@
     <t xml:space="preserve">11.5128049850464</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4860095977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0662260055542</t>
+    <t xml:space="preserve">11.4860105514526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0662250518799</t>
   </si>
   <si>
     <t xml:space="preserve">11.2716522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7182302474976</t>
+    <t xml:space="preserve">11.7182312011719</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805833816528</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5753259658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7092990875244</t>
+    <t xml:space="preserve">11.5753269195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7093000411987</t>
   </si>
   <si>
     <t xml:space="preserve">11.4145565032959</t>
@@ -2144,19 +2144,19 @@
     <t xml:space="preserve">11.6021203994751</t>
   </si>
   <si>
-    <t xml:space="preserve">11.378830909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1912670135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2537899017334</t>
+    <t xml:space="preserve">11.3788318634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1912679672241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2537889480591</t>
   </si>
   <si>
     <t xml:space="preserve">11.9236583709717</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1022901535034</t>
+    <t xml:space="preserve">12.1022891998291</t>
   </si>
   <si>
     <t xml:space="preserve">12.2362623214722</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">12.3166465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3255786895752</t>
+    <t xml:space="preserve">12.3255777359009</t>
   </si>
   <si>
     <t xml:space="preserve">12.7810897827148</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">12.0219049453735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0665616989136</t>
+    <t xml:space="preserve">12.0665626525879</t>
   </si>
   <si>
     <t xml:space="preserve">11.6914367675781</t>
@@ -2198,40 +2198,40 @@
     <t xml:space="preserve">11.4324207305908</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8432731628418</t>
+    <t xml:space="preserve">11.8432722091675</t>
   </si>
   <si>
     <t xml:space="preserve">11.7628889083862</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2359266281128</t>
+    <t xml:space="preserve">11.2359256744385</t>
   </si>
   <si>
     <t xml:space="preserve">10.9858417510986</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1823358535767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5574617385864</t>
+    <t xml:space="preserve">11.182336807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5574626922607</t>
   </si>
   <si>
     <t xml:space="preserve">11.6289157867432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5931882858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6735725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5395994186401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5485305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.816478729248</t>
+    <t xml:space="preserve">11.593189239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6735734939575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5396003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5485315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8164777755737</t>
   </si>
   <si>
     <t xml:space="preserve">12.2719888687134</t>
@@ -2240,13 +2240,13 @@
     <t xml:space="preserve">12.2541265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880996704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9779205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8439474105835</t>
+    <t xml:space="preserve">12.3880987167358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9779195785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8439464569092</t>
   </si>
   <si>
     <t xml:space="preserve">13.8886051177979</t>
@@ -2261,7 +2261,7 @@
     <t xml:space="preserve">14.2101421356201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1211614608765</t>
+    <t xml:space="preserve">15.1211633682251</t>
   </si>
   <si>
     <t xml:space="preserve">14.5316791534424</t>
@@ -2270,10 +2270,10 @@
     <t xml:space="preserve">14.9157371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5584707260132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4512939453125</t>
+    <t xml:space="preserve">14.5584726333618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4512948989868</t>
   </si>
   <si>
     <t xml:space="preserve">14.1029624938965</t>
@@ -2282,37 +2282,37 @@
     <t xml:space="preserve">14.5227470397949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1568880081177</t>
+    <t xml:space="preserve">15.1568899154663</t>
   </si>
   <si>
     <t xml:space="preserve">15.3444519042969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6570587158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.264404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3087244033813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2730007171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6749210357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7017154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4069728851318</t>
+    <t xml:space="preserve">15.6570568084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2644023895264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.30872631073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2729997634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.674919128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7017135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4069738388062</t>
   </si>
   <si>
     <t xml:space="preserve">15.7553033828735</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8892803192139</t>
+    <t xml:space="preserve">15.8892784118652</t>
   </si>
   <si>
     <t xml:space="preserve">16.067907333374</t>
@@ -2327,7 +2327,7 @@
     <t xml:space="preserve">15.1747522354126</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0675745010376</t>
+    <t xml:space="preserve">15.0675735473633</t>
   </si>
   <si>
     <t xml:space="preserve">15.0318470001221</t>
@@ -2336,28 +2336,28 @@
     <t xml:space="preserve">15.1926155090332</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8442850112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8264207839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2908630371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8085565567017</t>
+    <t xml:space="preserve">14.8442831039429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8264188766479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2908639907837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.808557510376</t>
   </si>
   <si>
     <t xml:space="preserve">15.2015466690063</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0854368209839</t>
+    <t xml:space="preserve">15.0854358673096</t>
   </si>
   <si>
     <t xml:space="preserve">15.2104787826538</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4962882995605</t>
+    <t xml:space="preserve">15.4962902069092</t>
   </si>
   <si>
     <t xml:space="preserve">14.3798418045044</t>
@@ -2387,13 +2387,13 @@
     <t xml:space="preserve">14.9961204528809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.219409942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2283391952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8710784912109</t>
+    <t xml:space="preserve">15.2194089889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2283411026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8710794448853</t>
   </si>
   <si>
     <t xml:space="preserve">14.8889408111572</t>
@@ -2402,25 +2402,25 @@
     <t xml:space="preserve">14.4334316253662</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0761690139771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1740779876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9418563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2187356948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5756635665894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1916046142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0040416717529</t>
+    <t xml:space="preserve">14.0761680603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1740789413452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9418573379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2187366485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.575662612915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1916036605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0040407180786</t>
   </si>
   <si>
     <t xml:space="preserve">10.834005355835</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">10.3070411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88725662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177248001099</t>
+    <t xml:space="preserve">9.88725757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177257537842</t>
   </si>
   <si>
     <t xml:space="preserve">8.48053359985352</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">8.35102558135986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03842163085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55678749084473</t>
+    <t xml:space="preserve">8.03842067718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55678844451904</t>
   </si>
   <si>
     <t xml:space="preserve">9.44960975646973</t>
@@ -2468,13 +2468,13 @@
     <t xml:space="preserve">10.0480260848999</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90511989593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93191528320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53892517089844</t>
+    <t xml:space="preserve">9.90512084960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93191623687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53892612457275</t>
   </si>
   <si>
     <t xml:space="preserve">9.61931037902832</t>
@@ -2486,19 +2486,19 @@
     <t xml:space="preserve">9.94977951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0926828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5839214324951</t>
+    <t xml:space="preserve">10.0926837921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5839204788208</t>
   </si>
   <si>
     <t xml:space="preserve">10.6285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5392627716064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355890274048</t>
+    <t xml:space="preserve">10.5392618179321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355880737305</t>
   </si>
   <si>
     <t xml:space="preserve">10.3606309890747</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">10.9411840438843</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4681482315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7450246810913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4770784378052</t>
+    <t xml:space="preserve">11.468147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7450256347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4770793914795</t>
   </si>
   <si>
     <t xml:space="preserve">10.4499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427677154541</t>
+    <t xml:space="preserve">10.3427667617798</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623834609985</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">9.76221561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97657203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98550415039062</t>
+    <t xml:space="preserve">9.97657299041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98550510406494</t>
   </si>
   <si>
     <t xml:space="preserve">9.68183135986328</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">9.28884124755859</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73542022705078</t>
+    <t xml:space="preserve">9.7354211807251</t>
   </si>
   <si>
     <t xml:space="preserve">10.1820001602173</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1016149520874</t>
+    <t xml:space="preserve">10.1016159057617</t>
   </si>
   <si>
     <t xml:space="preserve">10.3338356018066</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7360944747925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3609676361084</t>
+    <t xml:space="preserve">11.7360954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3609685897827</t>
   </si>
   <si>
     <t xml:space="preserve">11.0572948455811</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">10.7357568740845</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0837516784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4523181915283</t>
+    <t xml:space="preserve">10.0837526321411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.452317237854</t>
   </si>
   <si>
     <t xml:space="preserve">10.745717048645</t>
@@ -2636,13 +2636,13 @@
     <t xml:space="preserve">9.87469005584717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99388217926025</t>
+    <t xml:space="preserve">9.99388313293457</t>
   </si>
   <si>
     <t xml:space="preserve">9.95720863342285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86552238464355</t>
+    <t xml:space="preserve">9.86552143096924</t>
   </si>
   <si>
     <t xml:space="preserve">9.60879802703857</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">9.46209812164307</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34290504455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0488948822021</t>
+    <t xml:space="preserve">9.34290599822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0488958358765</t>
   </si>
   <si>
     <t xml:space="preserve">9.65464115142822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81967735290527</t>
+    <t xml:space="preserve">9.81967830657959</t>
   </si>
   <si>
     <t xml:space="preserve">9.63630390167236</t>
@@ -2672,16 +2672,16 @@
     <t xml:space="preserve">9.7921724319458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6729793548584</t>
+    <t xml:space="preserve">9.67297840118408</t>
   </si>
   <si>
     <t xml:space="preserve">9.91136646270752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74632930755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45292949676514</t>
+    <t xml:space="preserve">9.74632835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45293045043945</t>
   </si>
   <si>
     <t xml:space="preserve">10.8557415008545</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">11.5158882141113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6442499160767</t>
+    <t xml:space="preserve">11.6442489624023</t>
   </si>
   <si>
     <t xml:space="preserve">11.8734664916992</t>
@@ -2720,19 +2720,19 @@
     <t xml:space="preserve">11.0666208267212</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7915601730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7273788452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6265239715576</t>
+    <t xml:space="preserve">10.791561126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7273797988892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6265230178833</t>
   </si>
   <si>
     <t xml:space="preserve">10.4706563949585</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4248113632202</t>
+    <t xml:space="preserve">10.4248123168945</t>
   </si>
   <si>
     <t xml:space="preserve">10.5898485183716</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">10.6081857681274</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5165004730225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431495666504</t>
+    <t xml:space="preserve">10.5164995193481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431505203247</t>
   </si>
   <si>
     <t xml:space="preserve">10.2597751617432</t>
@@ -2762,16 +2762,16 @@
     <t xml:space="preserve">10.48899269104</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8282346725464</t>
+    <t xml:space="preserve">10.8282356262207</t>
   </si>
   <si>
     <t xml:space="preserve">11.2591638565063</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2775020599365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9749345779419</t>
+    <t xml:space="preserve">11.2775011062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9749336242676</t>
   </si>
   <si>
     <t xml:space="preserve">10.7823915481567</t>
@@ -2789,13 +2789,13 @@
     <t xml:space="preserve">11.2133197784424</t>
   </si>
   <si>
-    <t xml:space="preserve">11.130802154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9932718276978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0941276550293</t>
+    <t xml:space="preserve">11.1308031082153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9932708740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0941286087036</t>
   </si>
   <si>
     <t xml:space="preserve">11.0849590301514</t>
@@ -2810,43 +2810,43 @@
     <t xml:space="preserve">10.9841022491455</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2964496612549</t>
+    <t xml:space="preserve">10.2964506149292</t>
   </si>
   <si>
     <t xml:space="preserve">10.5623435974121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4798250198364</t>
+    <t xml:space="preserve">10.4798259735107</t>
   </si>
   <si>
     <t xml:space="preserve">10.3056192398071</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3514623641968</t>
+    <t xml:space="preserve">10.3514633178711</t>
   </si>
   <si>
     <t xml:space="preserve">10.0855703353882</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44376182556152</t>
+    <t xml:space="preserve">9.44376087188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.26038837432861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77902984619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9532356262207</t>
+    <t xml:space="preserve">8.77903079986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95323657989502</t>
   </si>
   <si>
     <t xml:space="preserve">9.06784534454346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57212352752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6179666519165</t>
+    <t xml:space="preserve">9.57212257385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61796569824219</t>
   </si>
   <si>
     <t xml:space="preserve">9.3245677947998</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">11.4425382614136</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6809244155884</t>
+    <t xml:space="preserve">11.6809234619141</t>
   </si>
   <si>
     <t xml:space="preserve">12.1760339736938</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">13.092903137207</t>
   </si>
   <si>
-    <t xml:space="preserve">12.790337562561</t>
+    <t xml:space="preserve">12.7903366088867</t>
   </si>
   <si>
     <t xml:space="preserve">12.707818031311</t>
@@ -2894,7 +2894,7 @@
     <t xml:space="preserve">12.8086748123169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2585515975952</t>
+    <t xml:space="preserve">12.2585525512695</t>
   </si>
   <si>
     <t xml:space="preserve">12.6619758605957</t>
@@ -2909,43 +2909,43 @@
     <t xml:space="preserve">12.5336132049561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6528072357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7261562347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6344690322876</t>
+    <t xml:space="preserve">12.6528062820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7261552810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6344680786133</t>
   </si>
   <si>
     <t xml:space="preserve">12.4786005020142</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5977945327759</t>
+    <t xml:space="preserve">12.5977935791016</t>
   </si>
   <si>
     <t xml:space="preserve">12.6069631576538</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2762765884399</t>
+    <t xml:space="preserve">13.2762775421143</t>
   </si>
   <si>
     <t xml:space="preserve">13.2946147918701</t>
   </si>
   <si>
-    <t xml:space="preserve">13.102071762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0287237167358</t>
+    <t xml:space="preserve">13.1020727157593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0287227630615</t>
   </si>
   <si>
     <t xml:space="preserve">13.184591293335</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1570854187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4046392440796</t>
+    <t xml:space="preserve">13.1570863723755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4046401977539</t>
   </si>
   <si>
     <t xml:space="preserve">12.8361806869507</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">13.0562286376953</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1295795440674</t>
+    <t xml:space="preserve">13.1295785903931</t>
   </si>
   <si>
     <t xml:space="preserve">13.1662530899048</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">13.5421714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4504823684692</t>
+    <t xml:space="preserve">13.4504833221436</t>
   </si>
   <si>
     <t xml:space="preserve">13.6246881484985</t>
@@ -2984,16 +2984,16 @@
     <t xml:space="preserve">13.9639301300049</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8630752563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8997497558594</t>
+    <t xml:space="preserve">13.8630743026733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8997507095337</t>
   </si>
   <si>
     <t xml:space="preserve">13.386302947998</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2487716674805</t>
+    <t xml:space="preserve">13.2487707138062</t>
   </si>
   <si>
     <t xml:space="preserve">13.5880136489868</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">13.569676399231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9547624588013</t>
+    <t xml:space="preserve">13.954761505127</t>
   </si>
   <si>
     <t xml:space="preserve">14.0647869110107</t>
@@ -3026,46 +3026,46 @@
     <t xml:space="preserve">14.7982816696167</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1008491516113</t>
+    <t xml:space="preserve">15.100848197937</t>
   </si>
   <si>
     <t xml:space="preserve">15.2108745574951</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1100177764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2750549316406</t>
+    <t xml:space="preserve">15.1100168228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2750558853149</t>
   </si>
   <si>
     <t xml:space="preserve">14.9083070755005</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4223642349243</t>
+    <t xml:space="preserve">14.4223651885986</t>
   </si>
   <si>
     <t xml:space="preserve">14.7891120910645</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3948593139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0916795730591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3850803375244</t>
+    <t xml:space="preserve">14.3948583602905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0916805267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3850793838501</t>
   </si>
   <si>
     <t xml:space="preserve">15.4309225082397</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3392353057861</t>
+    <t xml:space="preserve">15.3392343521118</t>
   </si>
   <si>
     <t xml:space="preserve">15.7518272399902</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9260320663452</t>
+    <t xml:space="preserve">15.9260339736938</t>
   </si>
   <si>
     <t xml:space="preserve">16.1185760498047</t>
@@ -3077,7 +3077,7 @@
     <t xml:space="preserve">15.1650314331055</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3300647735596</t>
+    <t xml:space="preserve">15.3300657272339</t>
   </si>
   <si>
     <t xml:space="preserve">15.4859342575073</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">16.6962032318115</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7053718566895</t>
+    <t xml:space="preserve">16.7053699493408</t>
   </si>
   <si>
     <t xml:space="preserve">16.7237091064453</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">16.1919250488281</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3294563293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1094055175781</t>
+    <t xml:space="preserve">16.3294544219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1094074249268</t>
   </si>
   <si>
     <t xml:space="preserve">16.2010936737061</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">16.081901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9902143478394</t>
+    <t xml:space="preserve">15.9902124404907</t>
   </si>
   <si>
     <t xml:space="preserve">15.9718770980835</t>
@@ -3134,31 +3134,31 @@
     <t xml:space="preserve">16.0268878936768</t>
   </si>
   <si>
-    <t xml:space="preserve">15.999382019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8068389892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8801879882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1827545166016</t>
+    <t xml:space="preserve">15.9993839263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8068408966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8801898956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1827564239502</t>
   </si>
   <si>
     <t xml:space="preserve">15.7609968185425</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6234655380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5501155853271</t>
+    <t xml:space="preserve">15.6234674453735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5501136779785</t>
   </si>
   <si>
     <t xml:space="preserve">15.8251762390137</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6509704589844</t>
+    <t xml:space="preserve">15.650972366333</t>
   </si>
   <si>
     <t xml:space="preserve">15.7334890365601</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">15.8893575668335</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5776214599609</t>
+    <t xml:space="preserve">15.5776233673096</t>
   </si>
   <si>
     <t xml:space="preserve">15.8435153961182</t>
@@ -3188,13 +3188,13 @@
     <t xml:space="preserve">15.1283550262451</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3117303848267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2915573120117</t>
+    <t xml:space="preserve">15.3117294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6039066314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2915592193604</t>
   </si>
   <si>
     <t xml:space="preserve">18.3190631866455</t>
@@ -61799,7 +61799,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6495138889</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>38806</v>
@@ -61820,6 +61820,32 @@
         <v>1660</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6494328704</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>56393</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>5.65000009536743</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>5.51000022888184</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>5.55999994277954</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -44,25 +44,25 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4113359451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4030332565308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0874729156494</t>
+    <t xml:space="preserve">13.411337852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4030323028564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0874719619751</t>
   </si>
   <si>
     <t xml:space="preserve">12.5809125900269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4563512802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.871561050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1372976303101</t>
+    <t xml:space="preserve">12.4563493728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8715629577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1372966766357</t>
   </si>
   <si>
     <t xml:space="preserve">13.6106386184692</t>
@@ -71,67 +71,67 @@
     <t xml:space="preserve">13.1206893920898</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0210380554199</t>
+    <t xml:space="preserve">13.0210390090942</t>
   </si>
   <si>
     <t xml:space="preserve">13.2950773239136</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6473484039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9795169830322</t>
+    <t xml:space="preserve">12.647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9795179367065</t>
   </si>
   <si>
     <t xml:space="preserve">12.7719116210938</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9463005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7885189056396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3483934402466</t>
+    <t xml:space="preserve">12.9462995529175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.788519859314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3483953475952</t>
   </si>
   <si>
     <t xml:space="preserve">12.2072229385376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5726108551025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6840553283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5345821380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0245304107666</t>
+    <t xml:space="preserve">12.5726089477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6840562820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5345811843872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0245294570923</t>
   </si>
   <si>
     <t xml:space="preserve">11.650839805603</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0577478408813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.107572555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9165754318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4397411346436</t>
+    <t xml:space="preserve">12.057746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1075716018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9165744781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4397420883179</t>
   </si>
   <si>
     <t xml:space="preserve">12.0826606750488</t>
   </si>
   <si>
-    <t xml:space="preserve">12.290265083313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4148292541504</t>
+    <t xml:space="preserve">12.2902660369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4148283004761</t>
   </si>
   <si>
     <t xml:space="preserve">12.2487449645996</t>
@@ -140,13 +140,13 @@
     <t xml:space="preserve">12.2404403686523</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9580965042114</t>
+    <t xml:space="preserve">11.9580955505371</t>
   </si>
   <si>
     <t xml:space="preserve">11.7338809967041</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5560007095337</t>
+    <t xml:space="preserve">12.5559997558594</t>
   </si>
   <si>
     <t xml:space="preserve">12.9961252212524</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">13.0376462936401</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8300409317017</t>
+    <t xml:space="preserve">12.8300399780273</t>
   </si>
   <si>
     <t xml:space="preserve">12.7054777145386</t>
@@ -164,52 +164,52 @@
     <t xml:space="preserve">12.7469987869263</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7137804031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4528579711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6189422607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5857257843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7850284576416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9262008666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0258502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9926347732544</t>
+    <t xml:space="preserve">12.7137813568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4528589248657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6189432144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5857276916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7850294113159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9261999130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0258493423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9926338195801</t>
   </si>
   <si>
     <t xml:space="preserve">14.1171960830688</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2417602539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2666730880737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0175447463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6770725250244</t>
+    <t xml:space="preserve">14.2417621612549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.266674041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0175457000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6770715713501</t>
   </si>
   <si>
     <t xml:space="preserve">13.3781204223633</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7601146697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7518091201782</t>
+    <t xml:space="preserve">13.7601137161255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7518081665039</t>
   </si>
   <si>
     <t xml:space="preserve">13.8431568145752</t>
@@ -218,43 +218,43 @@
     <t xml:space="preserve">13.6272478103638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6604661941528</t>
+    <t xml:space="preserve">13.6604642868042</t>
   </si>
   <si>
     <t xml:space="preserve">13.7352027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7185955047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6687679290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3199911117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2203397750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2701635360718</t>
+    <t xml:space="preserve">13.7185945510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6687669754028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3199901580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2203407287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2701654434204</t>
   </si>
   <si>
     <t xml:space="preserve">13.4943790435791</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2037305831909</t>
+    <t xml:space="preserve">13.2037296295166</t>
   </si>
   <si>
     <t xml:space="preserve">13.0791673660278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.971212387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1954288482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3526630401611</t>
+    <t xml:space="preserve">12.9712133407593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.195426940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3526611328125</t>
   </si>
   <si>
     <t xml:space="preserve">12.7449560165405</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">12.8209199905396</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8293590545654</t>
+    <t xml:space="preserve">12.8293600082397</t>
   </si>
   <si>
     <t xml:space="preserve">12.8968830108643</t>
@@ -290,7 +290,7 @@
     <t xml:space="preserve">13.3357830047607</t>
   </si>
   <si>
-    <t xml:space="preserve">13.437066078186</t>
+    <t xml:space="preserve">13.4370670318604</t>
   </si>
   <si>
     <t xml:space="preserve">13.5045890808105</t>
@@ -299,19 +299,19 @@
     <t xml:space="preserve">13.6649570465088</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4539470672607</t>
+    <t xml:space="preserve">13.4539461135864</t>
   </si>
   <si>
     <t xml:space="preserve">13.496148109436</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4455070495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2176170349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.972846031189</t>
+    <t xml:space="preserve">13.4455060958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2176160812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9728450775146</t>
   </si>
   <si>
     <t xml:space="preserve">12.913763999939</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">11.8418369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4113779067993</t>
+    <t xml:space="preserve">11.411376953125</t>
   </si>
   <si>
     <t xml:space="preserve">11.622386932373</t>
@@ -335,28 +335,28 @@
     <t xml:space="preserve">12.171010017395</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6605539321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1794509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9262399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0528440475464</t>
+    <t xml:space="preserve">12.6605520248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1794519424438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9262390136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0528450012207</t>
   </si>
   <si>
     <t xml:space="preserve">11.2847728729248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5673408508301</t>
+    <t xml:space="preserve">10.5673418045044</t>
   </si>
   <si>
     <t xml:space="preserve">10.9724779129028</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5633039474487</t>
+    <t xml:space="preserve">11.5633029937744</t>
   </si>
   <si>
     <t xml:space="preserve">12.2132120132446</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">11.5211029052734</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4620208740234</t>
+    <t xml:space="preserve">11.4620199203491</t>
   </si>
   <si>
     <t xml:space="preserve">11.7658720016479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2976160049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3229398727417</t>
+    <t xml:space="preserve">12.2976169586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3229379653931</t>
   </si>
   <si>
     <t xml:space="preserve">12.1372489929199</t>
@@ -392,10 +392,10 @@
     <t xml:space="preserve">12.1541309356689</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4579830169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3735780715942</t>
+    <t xml:space="preserve">12.4579839706421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3735790252686</t>
   </si>
   <si>
     <t xml:space="preserve">12.7871570587158</t>
@@ -407,19 +407,19 @@
     <t xml:space="preserve">13.5214700698853</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6902761459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6311931610107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7662410736084</t>
+    <t xml:space="preserve">13.6902770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6311950683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7662401199341</t>
   </si>
   <si>
     <t xml:space="preserve">13.8000030517578</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6227550506592</t>
+    <t xml:space="preserve">13.6227540969849</t>
   </si>
   <si>
     <t xml:space="preserve">13.7155990600586</t>
@@ -428,7 +428,7 @@
     <t xml:space="preserve">14.002571105957</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9478893280029</t>
+    <t xml:space="preserve">14.9478902816772</t>
   </si>
   <si>
     <t xml:space="preserve">14.6018362045288</t>
@@ -437,58 +437,58 @@
     <t xml:space="preserve">15.0491771697998</t>
   </si>
   <si>
-    <t xml:space="preserve">14.53431224823</t>
+    <t xml:space="preserve">14.5343141555786</t>
   </si>
   <si>
     <t xml:space="preserve">14.8550472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4121131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4880781173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3445892333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.547158241272</t>
+    <t xml:space="preserve">15.4121122360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.488076210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3445911407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5471601486206</t>
   </si>
   <si>
     <t xml:space="preserve">15.3192672729492</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1082592010498</t>
+    <t xml:space="preserve">15.1082582473755</t>
   </si>
   <si>
     <t xml:space="preserve">15.0154151916504</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3699111938477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4796361923218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8594512939453</t>
+    <t xml:space="preserve">15.3699102401733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4796342849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8594532012939</t>
   </si>
   <si>
     <t xml:space="preserve">15.8932123184204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8678932189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8256902694702</t>
+    <t xml:space="preserve">15.8678913116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8256921768188</t>
   </si>
   <si>
     <t xml:space="preserve">15.7834882736206</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0451393127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1801872253418</t>
+    <t xml:space="preserve">16.0451412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1801853179932</t>
   </si>
   <si>
     <t xml:space="preserve">16.2139453887939</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">16.1126613616943</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0366992950439</t>
+    <t xml:space="preserve">16.0367012023926</t>
   </si>
   <si>
     <t xml:space="preserve">15.5978002548218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4458723068237</t>
+    <t xml:space="preserve">15.445873260498</t>
   </si>
   <si>
     <t xml:space="preserve">15.5640392303467</t>
@@ -512,7 +512,7 @@
     <t xml:space="preserve">15.5133972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6231212615967</t>
+    <t xml:space="preserve">15.6231231689453</t>
   </si>
   <si>
     <t xml:space="preserve">16.2477111816406</t>
@@ -521,19 +521,19 @@
     <t xml:space="preserve">16.1970672607422</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9607343673706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5302772521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1464233398438</t>
+    <t xml:space="preserve">15.9607381820679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5302791595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1464252471924</t>
   </si>
   <si>
     <t xml:space="preserve">16.0029373168945</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9100952148438</t>
+    <t xml:space="preserve">15.9100933074951</t>
   </si>
   <si>
     <t xml:space="preserve">16.2899112701416</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">15.6146802902222</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9438562393188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0788993835449</t>
+    <t xml:space="preserve">15.9438581466675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0789031982422</t>
   </si>
   <si>
     <t xml:space="preserve">16.0620231628418</t>
@@ -563,52 +563,52 @@
     <t xml:space="preserve">16.053581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9269771575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614711761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6990833282471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9945011138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5555982589722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2517471313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2686243057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8044080734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.133581161499</t>
+    <t xml:space="preserve">15.9269752502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614721298218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6990852355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.994499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5556001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.251745223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2686252593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8044061660767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1335792541504</t>
   </si>
   <si>
     <t xml:space="preserve">14.9816541671753</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1926612854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9141311645508</t>
+    <t xml:space="preserve">15.1926622390747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9141302108765</t>
   </si>
   <si>
     <t xml:space="preserve">15.11669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2770671844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1673431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0069742202759</t>
+    <t xml:space="preserve">15.2770652770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1673412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0069751739502</t>
   </si>
   <si>
     <t xml:space="preserve">14.7959671020508</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">14.6356000900269</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3486261367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0616550445557</t>
+    <t xml:space="preserve">14.3486251831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.061653137207</t>
   </si>
   <si>
     <t xml:space="preserve">14.0194520950317</t>
@@ -632,10 +632,10 @@
     <t xml:space="preserve">13.8337631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5889940261841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9688091278076</t>
+    <t xml:space="preserve">13.5889930725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9688081741333</t>
   </si>
   <si>
     <t xml:space="preserve">14.2557811737061</t>
@@ -644,10 +644,10 @@
     <t xml:space="preserve">14.4499111175537</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5933971405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8972492218018</t>
+    <t xml:space="preserve">14.5933980941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8972482681274</t>
   </si>
   <si>
     <t xml:space="preserve">14.6862411499023</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">15.715968132019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7750482559204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4374351501465</t>
+    <t xml:space="preserve">15.775050163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4374341964722</t>
   </si>
   <si>
     <t xml:space="preserve">15.5724811553955</t>
@@ -674,40 +674,40 @@
     <t xml:space="preserve">16.3658752441406</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3152332305908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2983512878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2223892211914</t>
+    <t xml:space="preserve">16.3152313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2983493804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2223873138428</t>
   </si>
   <si>
     <t xml:space="preserve">16.1379833221436</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3743152618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2645893096924</t>
+    <t xml:space="preserve">16.3743133544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.264591217041</t>
   </si>
   <si>
     <t xml:space="preserve">16.1633052825928</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8510112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.952296257019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6022052764893</t>
+    <t xml:space="preserve">15.8510131835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9522943496704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6022033691406</t>
   </si>
   <si>
     <t xml:space="preserve">16.6697273254395</t>
   </si>
   <si>
-    <t xml:space="preserve">16.6781692504883</t>
+    <t xml:space="preserve">16.6781673431396</t>
   </si>
   <si>
     <t xml:space="preserve">16.7288093566895</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">16.7963333129883</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1508255004883</t>
+    <t xml:space="preserve">17.1508274078369</t>
   </si>
   <si>
     <t xml:space="preserve">17.1001853942871</t>
@@ -725,25 +725,25 @@
     <t xml:space="preserve">17.3449573516846</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3955974578857</t>
+    <t xml:space="preserve">17.395601272583</t>
   </si>
   <si>
     <t xml:space="preserve">17.1339473724365</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2605514526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9651393890381</t>
+    <t xml:space="preserve">17.2605533599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9651412963867</t>
   </si>
   <si>
     <t xml:space="preserve">16.9482593536377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7625713348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5431232452393</t>
+    <t xml:space="preserve">16.7625732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5431213378906</t>
   </si>
   <si>
     <t xml:space="preserve">16.8807373046875</t>
@@ -758,34 +758,34 @@
     <t xml:space="preserve">17.2858753204346</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7247714996338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8091812133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8767013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2311973571777</t>
+    <t xml:space="preserve">17.7247734069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8091793060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8766994476318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2311954498291</t>
   </si>
   <si>
     <t xml:space="preserve">18.3746814727783</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6447734832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2862434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6660594940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6407375335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9530296325684</t>
+    <t xml:space="preserve">18.644775390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2862415313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6660575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.640739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.953031539917</t>
   </si>
   <si>
     <t xml:space="preserve">20.2146816253662</t>
@@ -794,37 +794,37 @@
     <t xml:space="preserve">20.3412857055664</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3581714630127</t>
+    <t xml:space="preserve">20.3581676483154</t>
   </si>
   <si>
     <t xml:space="preserve">20.400369644165</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7211017608643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.459451675415</t>
+    <t xml:space="preserve">20.7211036682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4594497680664</t>
   </si>
   <si>
     <t xml:space="preserve">20.5691776275635</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5944957733154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6789035797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3328456878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5438575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2568855285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5016555786133</t>
+    <t xml:space="preserve">20.5944995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6789054870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3328475952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5438556671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2568836212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5016536712646</t>
   </si>
   <si>
     <t xml:space="preserve">20.4172515869141</t>
@@ -839,28 +839,28 @@
     <t xml:space="preserve">19.758903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9614715576172</t>
+    <t xml:space="preserve">19.9614734649658</t>
   </si>
   <si>
     <t xml:space="preserve">19.9023895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4719276428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4128456115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5310096740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1049556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7886257171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2528476715088</t>
+    <t xml:space="preserve">19.4719295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4128475189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5310115814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1049575805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7886276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2528495788574</t>
   </si>
   <si>
     <t xml:space="preserve">21.7761497497559</t>
@@ -878,7 +878,7 @@
     <t xml:space="preserve">21.9469451904297</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1177368164062</t>
+    <t xml:space="preserve">22.1177349090576</t>
   </si>
   <si>
     <t xml:space="preserve">21.7846908569336</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">22.032341003418</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6301174163818</t>
+    <t xml:space="preserve">22.6301193237305</t>
   </si>
   <si>
     <t xml:space="preserve">21.5455799102783</t>
@@ -899,19 +899,19 @@
     <t xml:space="preserve">21.4943428039551</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3918628692627</t>
+    <t xml:space="preserve">21.3918647766113</t>
   </si>
   <si>
     <t xml:space="preserve">21.3235473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3491687774658</t>
+    <t xml:space="preserve">21.3491668701172</t>
   </si>
   <si>
     <t xml:space="preserve">21.5199604034424</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0152626037598</t>
+    <t xml:space="preserve">22.0152606964111</t>
   </si>
   <si>
     <t xml:space="preserve">22.0237998962402</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">21.9640216827393</t>
   </si>
   <si>
-    <t xml:space="preserve">22.160436630249</t>
+    <t xml:space="preserve">22.1604347229004</t>
   </si>
   <si>
     <t xml:space="preserve">22.066499710083</t>
@@ -935,31 +935,31 @@
     <t xml:space="preserve">22.1945934295654</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2893886566162</t>
+    <t xml:space="preserve">21.2893905639648</t>
   </si>
   <si>
     <t xml:space="preserve">21.605354309082</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3150081634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8111686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0673561096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1356754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.964879989624</t>
+    <t xml:space="preserve">21.3150100708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8111667633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0673580169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1356735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9648818969727</t>
   </si>
   <si>
     <t xml:space="preserve">21.118595123291</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3662452697754</t>
+    <t xml:space="preserve">21.366247177124</t>
   </si>
   <si>
     <t xml:space="preserve">21.7419891357422</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">20.9563426971436</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3073272705078</t>
+    <t xml:space="preserve">20.3073253631592</t>
   </si>
   <si>
     <t xml:space="preserve">20.1279926300049</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">19.7266311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6241512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0340557098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5472984313965</t>
+    <t xml:space="preserve">19.624153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0340576171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5472965240479</t>
   </si>
   <si>
     <t xml:space="preserve">20.0682163238525</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4354248046875</t>
+    <t xml:space="preserve">20.4354228973389</t>
   </si>
   <si>
     <t xml:space="preserve">20.4866619110107</t>
@@ -1007,7 +1007,7 @@
     <t xml:space="preserve">20.7513885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1698360443115</t>
+    <t xml:space="preserve">21.1698379516602</t>
   </si>
   <si>
     <t xml:space="preserve">21.2296123504639</t>
@@ -1025,7 +1025,7 @@
     <t xml:space="preserve">21.6907539367676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2031345367432</t>
+    <t xml:space="preserve">22.2031326293945</t>
   </si>
   <si>
     <t xml:space="preserve">22.3226871490479</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">21.6992931365967</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1348133087158</t>
+    <t xml:space="preserve">22.1348152160645</t>
   </si>
   <si>
     <t xml:space="preserve">22.5959587097168</t>
@@ -1052,7 +1052,7 @@
     <t xml:space="preserve">22.5874195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3653888702393</t>
+    <t xml:space="preserve">22.3653869628906</t>
   </si>
   <si>
     <t xml:space="preserve">22.9973220825195</t>
@@ -1061,19 +1061,19 @@
     <t xml:space="preserve">22.8521480560303</t>
   </si>
   <si>
-    <t xml:space="preserve">22.553258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4422454833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8436069488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6813526153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1510391235352</t>
+    <t xml:space="preserve">22.5532569885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4422473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8436088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6813545227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1510372161865</t>
   </si>
   <si>
     <t xml:space="preserve">22.7752914428711</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">23.6207160949707</t>
   </si>
   <si>
-    <t xml:space="preserve">24.107479095459</t>
+    <t xml:space="preserve">24.1074810028076</t>
   </si>
   <si>
     <t xml:space="preserve">23.7402744293213</t>
@@ -1091,22 +1091,22 @@
     <t xml:space="preserve">24.1843357086182</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1160182952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3380508422852</t>
+    <t xml:space="preserve">24.1160202026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3380489349365</t>
   </si>
   <si>
     <t xml:space="preserve">24.3038921356201</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6198596954346</t>
+    <t xml:space="preserve">24.6198577880859</t>
   </si>
   <si>
     <t xml:space="preserve">25.029764175415</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8931293487549</t>
+    <t xml:space="preserve">24.8931274414062</t>
   </si>
   <si>
     <t xml:space="preserve">25.2090969085693</t>
@@ -1115,19 +1115,19 @@
     <t xml:space="preserve">25.1407794952393</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2005577087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5592231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0724620819092</t>
+    <t xml:space="preserve">25.2005596160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5592212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0724639892578</t>
   </si>
   <si>
     <t xml:space="preserve">25.1663970947266</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7564964294434</t>
+    <t xml:space="preserve">24.7564945220947</t>
   </si>
   <si>
     <t xml:space="preserve">24.6796379089355</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">24.7735729217529</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1578559875488</t>
+    <t xml:space="preserve">25.1578578948975</t>
   </si>
   <si>
     <t xml:space="preserve">25.4225883483887</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">26.6864585876465</t>
   </si>
   <si>
-    <t xml:space="preserve">26.216775894165</t>
+    <t xml:space="preserve">26.2167778015137</t>
   </si>
   <si>
     <t xml:space="preserve">26.2850952148438</t>
@@ -1157,7 +1157,7 @@
     <t xml:space="preserve">26.0972213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0459823608398</t>
+    <t xml:space="preserve">26.0459804534912</t>
   </si>
   <si>
     <t xml:space="preserve">25.8751888275146</t>
@@ -1166,16 +1166,16 @@
     <t xml:space="preserve">25.8581104278564</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9597282409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2329959869385</t>
+    <t xml:space="preserve">26.9597263336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2329978942871</t>
   </si>
   <si>
     <t xml:space="preserve">26.7291584014893</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4131889343262</t>
+    <t xml:space="preserve">26.4131908416748</t>
   </si>
   <si>
     <t xml:space="preserve">25.3457317352295</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">25.7641735076904</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9605903625488</t>
+    <t xml:space="preserve">25.9605884552002</t>
   </si>
   <si>
     <t xml:space="preserve">25.7812538146973</t>
@@ -1202,16 +1202,16 @@
     <t xml:space="preserve">28.4370899200439</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1288051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7274398803711</t>
+    <t xml:space="preserve">29.1288013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7274417877197</t>
   </si>
   <si>
     <t xml:space="preserve">28.2406768798828</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8555355072021</t>
+    <t xml:space="preserve">28.8555335998535</t>
   </si>
   <si>
     <t xml:space="preserve">28.3346138000488</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">28.0015697479248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5156631469727</t>
+    <t xml:space="preserve">26.5156650543213</t>
   </si>
   <si>
     <t xml:space="preserve">26.1313800811768</t>
@@ -1235,16 +1235,16 @@
     <t xml:space="preserve">25.789794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4815063476562</t>
+    <t xml:space="preserve">26.4815044403076</t>
   </si>
   <si>
     <t xml:space="preserve">26.0630626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9520435333252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.430269241333</t>
+    <t xml:space="preserve">25.9520454406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4302711486816</t>
   </si>
   <si>
     <t xml:space="preserve">26.8999500274658</t>
@@ -1262,22 +1262,22 @@
     <t xml:space="preserve">26.7974739074707</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0195045471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.771858215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5583648681641</t>
+    <t xml:space="preserve">27.0195026397705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7718544006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5583629608154</t>
   </si>
   <si>
     <t xml:space="preserve">26.6437606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">26.763313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0280437469482</t>
+    <t xml:space="preserve">26.7633171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0280456542969</t>
   </si>
   <si>
     <t xml:space="preserve">27.3269329071045</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">26.4388065338135</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2765522003174</t>
+    <t xml:space="preserve">26.276554107666</t>
   </si>
   <si>
     <t xml:space="preserve">25.6616973876953</t>
@@ -1316,16 +1316,16 @@
     <t xml:space="preserve">27.8820133209229</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7359790802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9674053192139</t>
+    <t xml:space="preserve">28.7359809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9674072265625</t>
   </si>
   <si>
     <t xml:space="preserve">27.7966156005859</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4123306274414</t>
+    <t xml:space="preserve">27.4123287200928</t>
   </si>
   <si>
     <t xml:space="preserve">26.8572521209717</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">27.4977283477783</t>
   </si>
   <si>
-    <t xml:space="preserve">27.583122253418</t>
+    <t xml:space="preserve">27.5831241607666</t>
   </si>
   <si>
     <t xml:space="preserve">28.0955047607422</t>
@@ -1349,7 +1349,7 @@
     <t xml:space="preserve">28.565185546875</t>
   </si>
   <si>
-    <t xml:space="preserve">28.138204574585</t>
+    <t xml:space="preserve">28.1382026672363</t>
   </si>
   <si>
     <t xml:space="preserve">27.924711227417</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">27.4550285339355</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3021717071533</t>
+    <t xml:space="preserve">26.302173614502</t>
   </si>
   <si>
     <t xml:space="preserve">25.8324909210205</t>
@@ -1391,31 +1391,31 @@
     <t xml:space="preserve">27.5404262542725</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8504314422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7223358154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1783714294434</t>
+    <t xml:space="preserve">24.8504333496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7223377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.178373336792</t>
   </si>
   <si>
     <t xml:space="preserve">21.6480541229248</t>
   </si>
   <si>
-    <t xml:space="preserve">21.733455657959</t>
+    <t xml:space="preserve">21.7334537506104</t>
   </si>
   <si>
     <t xml:space="preserve">20.665994644165</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4772605895996</t>
+    <t xml:space="preserve">21.4772624969482</t>
   </si>
   <si>
     <t xml:space="preserve">22.2458305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7155151367188</t>
+    <t xml:space="preserve">22.7155132293701</t>
   </si>
   <si>
     <t xml:space="preserve">22.8009128570557</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">23.5267810821533</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8863067626953</t>
+    <t xml:space="preserve">22.8863048553467</t>
   </si>
   <si>
     <t xml:space="preserve">21.9042434692383</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">22.502025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3739261627197</t>
+    <t xml:space="preserve">22.3739280700684</t>
   </si>
   <si>
     <t xml:space="preserve">22.7582111358643</t>
@@ -1457,40 +1457,40 @@
     <t xml:space="preserve">24.2953510284424</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8256683349609</t>
+    <t xml:space="preserve">23.8256702423096</t>
   </si>
   <si>
     <t xml:space="preserve">24.7650337219238</t>
   </si>
   <si>
-    <t xml:space="preserve">27.070743560791</t>
+    <t xml:space="preserve">27.0707454681396</t>
   </si>
   <si>
     <t xml:space="preserve">25.9178886413574</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5763034820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4055080413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3628120422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4909076690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0032863616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9164657592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3087062835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8730525970459</t>
+    <t xml:space="preserve">25.576301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4055118560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.362813949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4909057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0032844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9164638519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3087043762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8730506896973</t>
   </si>
   <si>
     <t xml:space="preserve">26.1335182189941</t>
@@ -1502,16 +1502,16 @@
     <t xml:space="preserve">26.6544532775879</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0451545715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.001745223999</t>
+    <t xml:space="preserve">27.0451526641846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0017433166504</t>
   </si>
   <si>
     <t xml:space="preserve">26.5676288604736</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5660858154297</t>
+    <t xml:space="preserve">27.5660877227783</t>
   </si>
   <si>
     <t xml:space="preserve">28.4777221679688</t>
@@ -1529,34 +1529,34 @@
     <t xml:space="preserve">26.7846851348877</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3071613311768</t>
+    <t xml:space="preserve">26.3071632385254</t>
   </si>
   <si>
     <t xml:space="preserve">26.6110420227051</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9583301544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5242176055908</t>
+    <t xml:space="preserve">26.9583320617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5242156982422</t>
   </si>
   <si>
     <t xml:space="preserve">26.9149208068848</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4358539581299</t>
+    <t xml:space="preserve">27.4358558654785</t>
   </si>
   <si>
     <t xml:space="preserve">27.088565826416</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2187995910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3490314483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1753883361816</t>
+    <t xml:space="preserve">27.2187976837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3490295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.175386428833</t>
   </si>
   <si>
     <t xml:space="preserve">27.6094951629639</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">28.3474903106689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4389419555664</t>
+    <t xml:space="preserve">25.4389400482178</t>
   </si>
   <si>
     <t xml:space="preserve">24.7877712249756</t>
@@ -1577,22 +1577,22 @@
     <t xml:space="preserve">24.918004989624</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2218818664551</t>
+    <t xml:space="preserve">25.2218837738037</t>
   </si>
   <si>
     <t xml:space="preserve">25.0048274993896</t>
   </si>
   <si>
-    <t xml:space="preserve">24.527307510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9614143371582</t>
+    <t xml:space="preserve">24.5273056030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9614162445068</t>
   </si>
   <si>
     <t xml:space="preserve">25.0482406616211</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0916500091553</t>
+    <t xml:space="preserve">25.0916519165039</t>
   </si>
   <si>
     <t xml:space="preserve">25.395528793335</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">27.1319770812988</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3056221008301</t>
+    <t xml:space="preserve">27.3056201934814</t>
   </si>
   <si>
     <t xml:space="preserve">27.8699626922607</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">26.8280963897705</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9133758544922</t>
+    <t xml:space="preserve">27.9133777618408</t>
   </si>
   <si>
     <t xml:space="preserve">28.3040771484375</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">25.6994075775146</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2234287261963</t>
+    <t xml:space="preserve">24.2234268188477</t>
   </si>
   <si>
     <t xml:space="preserve">22.7908611297607</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4869823455811</t>
+    <t xml:space="preserve">22.4869804382324</t>
   </si>
   <si>
     <t xml:space="preserve">22.964506149292</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">22.5303936004639</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1396903991699</t>
+    <t xml:space="preserve">22.1396923065186</t>
   </si>
   <si>
     <t xml:space="preserve">21.8358135223389</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">21.3582916259766</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2280578613281</t>
+    <t xml:space="preserve">21.2280597686768</t>
   </si>
   <si>
     <t xml:space="preserve">22.8776836395264</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9660472869873</t>
+    <t xml:space="preserve">21.9660453796387</t>
   </si>
   <si>
     <t xml:space="preserve">23.0079154968262</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1381511688232</t>
+    <t xml:space="preserve">23.1381492614746</t>
   </si>
   <si>
     <t xml:space="preserve">24.0497856140137</t>
@@ -1703,16 +1703,16 @@
     <t xml:space="preserve">18.3195114135742</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4063320159912</t>
+    <t xml:space="preserve">18.4063339233398</t>
   </si>
   <si>
     <t xml:space="preserve">18.5365657806396</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7536220550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1009120941162</t>
+    <t xml:space="preserve">18.7536201477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1009101867676</t>
   </si>
   <si>
     <t xml:space="preserve">19.4047889709473</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">19.7954883575439</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3164234161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4900703430176</t>
+    <t xml:space="preserve">20.3164215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4900684356689</t>
   </si>
   <si>
     <t xml:space="preserve">20.4466571807861</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">18.6667995452881</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6683444976807</t>
+    <t xml:space="preserve">17.668342590332</t>
   </si>
   <si>
     <t xml:space="preserve">18.6233901977539</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.23268699646</t>
+    <t xml:space="preserve">18.0156288146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2326889038086</t>
   </si>
   <si>
     <t xml:space="preserve">17.7985763549805</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">17.7117538452148</t>
   </si>
   <si>
-    <t xml:space="preserve">17.364465713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1443214416504</t>
+    <t xml:space="preserve">17.3644638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1443195343018</t>
   </si>
   <si>
     <t xml:space="preserve">19.3179664611816</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0993671417236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3598346710205</t>
+    <t xml:space="preserve">20.0993690490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3598327636719</t>
   </si>
   <si>
     <t xml:space="preserve">20.5334796905518</t>
@@ -1817,25 +1817,25 @@
     <t xml:space="preserve">20.7505321502686</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2296009063721</t>
+    <t xml:space="preserve">20.2295989990234</t>
   </si>
   <si>
     <t xml:space="preserve">21.0110015869141</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6203022003174</t>
+    <t xml:space="preserve">20.6203002929688</t>
   </si>
   <si>
     <t xml:space="preserve">20.9241790771484</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1861915588379</t>
+    <t xml:space="preserve">20.1861896514893</t>
   </si>
   <si>
     <t xml:space="preserve">20.2730121612549</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9691333770752</t>
+    <t xml:space="preserve">19.9691352844238</t>
   </si>
   <si>
     <t xml:space="preserve">18.145866394043</t>
@@ -1847,13 +1847,13 @@
     <t xml:space="preserve">17.4078750610352</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2950057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2602767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9288082122803</t>
+    <t xml:space="preserve">17.2950077056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.260274887085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9288063049316</t>
   </si>
   <si>
     <t xml:space="preserve">18.0590419769287</t>
@@ -1892,25 +1892,25 @@
     <t xml:space="preserve">19.014087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5278835296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6494369506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8578071594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1182746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6320686340332</t>
+    <t xml:space="preserve">18.5278854370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.649435043335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8578090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1182765960693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6320705413818</t>
   </si>
   <si>
     <t xml:space="preserve">17.3991947174072</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4339237213135</t>
+    <t xml:space="preserve">17.4339218139648</t>
   </si>
   <si>
     <t xml:space="preserve">17.3123722076416</t>
@@ -1925,19 +1925,19 @@
     <t xml:space="preserve">16.0187187194824</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5672435760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3501853942871</t>
+    <t xml:space="preserve">15.5672416687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3501873016357</t>
   </si>
   <si>
     <t xml:space="preserve">15.3935966491699</t>
   </si>
   <si>
-    <t xml:space="preserve">16.383373260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8088054656982</t>
+    <t xml:space="preserve">16.3833713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8088035583496</t>
   </si>
   <si>
     <t xml:space="preserve">16.7132968902588</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">15.3849153518677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.549880027771</t>
+    <t xml:space="preserve">15.5498781204224</t>
   </si>
   <si>
     <t xml:space="preserve">16.0768413543701</t>
@@ -1976,7 +1976,7 @@
     <t xml:space="preserve">15.3623151779175</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5320158004761</t>
+    <t xml:space="preserve">15.5320148468018</t>
   </si>
   <si>
     <t xml:space="preserve">15.2551355361938</t>
@@ -1988,10 +1988,10 @@
     <t xml:space="preserve">16.7645721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4341049194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6391944885254</t>
+    <t xml:space="preserve">16.434103012085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6391935348511</t>
   </si>
   <si>
     <t xml:space="preserve">15.2372713088989</t>
@@ -2009,52 +2009,52 @@
     <t xml:space="preserve">15.3176574707031</t>
   </si>
   <si>
-    <t xml:space="preserve">15.13902759552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9335975646973</t>
+    <t xml:space="preserve">15.1390256881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9335994720459</t>
   </si>
   <si>
     <t xml:space="preserve">14.7371044158936</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8800086975098</t>
+    <t xml:space="preserve">14.8800106048584</t>
   </si>
   <si>
     <t xml:space="preserve">15.5588102340698</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2640676498413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.022912979126</t>
+    <t xml:space="preserve">15.2640695571899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0229148864746</t>
   </si>
   <si>
     <t xml:space="preserve">15.4516296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7374420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1300935745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0407772064209</t>
+    <t xml:space="preserve">15.7374439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1300954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0407791137695</t>
   </si>
   <si>
     <t xml:space="preserve">15.0586414337158</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6299257278442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3619785308838</t>
+    <t xml:space="preserve">14.6299266815186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3619775772095</t>
   </si>
   <si>
     <t xml:space="preserve">14.4155673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4691572189331</t>
+    <t xml:space="preserve">14.4691562652588</t>
   </si>
   <si>
     <t xml:space="preserve">14.2994575500488</t>
@@ -2066,13 +2066,13 @@
     <t xml:space="preserve">13.9332618713379</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1032991409302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7906932830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.567403793335</t>
+    <t xml:space="preserve">15.1032972335815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7906951904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5674047470093</t>
   </si>
   <si>
     <t xml:space="preserve">14.4959516525269</t>
@@ -2087,13 +2087,13 @@
     <t xml:space="preserve">14.2905254364014</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1833467483521</t>
+    <t xml:space="preserve">14.1833477020264</t>
   </si>
   <si>
     <t xml:space="preserve">13.8260831832886</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7992877960205</t>
+    <t xml:space="preserve">13.7992887496948</t>
   </si>
   <si>
     <t xml:space="preserve">13.8618106842041</t>
@@ -2111,13 +2111,13 @@
     <t xml:space="preserve">11.4860105514526</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0662250518799</t>
+    <t xml:space="preserve">11.0662260055542</t>
   </si>
   <si>
     <t xml:space="preserve">11.2716522216797</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7182312011719</t>
+    <t xml:space="preserve">11.7182302474976</t>
   </si>
   <si>
     <t xml:space="preserve">11.2805833816528</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">11.316309928894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2895154953003</t>
+    <t xml:space="preserve">11.289514541626</t>
   </si>
   <si>
     <t xml:space="preserve">10.7536201477051</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">11.6021203994751</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3788318634033</t>
+    <t xml:space="preserve">11.378830909729</t>
   </si>
   <si>
     <t xml:space="preserve">11.1912679672241</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">12.3166465759277</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3255777359009</t>
+    <t xml:space="preserve">12.3255786895752</t>
   </si>
   <si>
     <t xml:space="preserve">12.7810897827148</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">11.5574626922607</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6289157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.593189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6735734939575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5396003723145</t>
+    <t xml:space="preserve">11.6289148330688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5931882858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6735725402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5395994186401</t>
   </si>
   <si>
     <t xml:space="preserve">11.5485315322876</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">11.8164777755737</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2719888687134</t>
+    <t xml:space="preserve">12.2719879150391</t>
   </si>
   <si>
     <t xml:space="preserve">12.2541265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3880987167358</t>
+    <t xml:space="preserve">12.3880996704102</t>
   </si>
   <si>
     <t xml:space="preserve">13.9779195785522</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">13.8886051177979</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1744146347046</t>
+    <t xml:space="preserve">14.1744155883789</t>
   </si>
   <si>
     <t xml:space="preserve">14.3441143035889</t>
@@ -2261,16 +2261,16 @@
     <t xml:space="preserve">14.2101421356201</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1211633682251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5316791534424</t>
+    <t xml:space="preserve">15.1211614608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5316781997681</t>
   </si>
   <si>
     <t xml:space="preserve">14.9157371520996</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5584726333618</t>
+    <t xml:space="preserve">14.5584716796875</t>
   </si>
   <si>
     <t xml:space="preserve">14.4512948989868</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">14.5227470397949</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1568899154663</t>
+    <t xml:space="preserve">15.1568880081177</t>
   </si>
   <si>
     <t xml:space="preserve">15.3444519042969</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">15.6570568084717</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2644023895264</t>
+    <t xml:space="preserve">16.264404296875</t>
   </si>
   <si>
     <t xml:space="preserve">15.30872631073</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">15.674919128418</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7017135620117</t>
+    <t xml:space="preserve">15.7017154693604</t>
   </si>
   <si>
     <t xml:space="preserve">15.4069738388062</t>
@@ -2330,16 +2330,16 @@
     <t xml:space="preserve">15.0675735473633</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0318470001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1926155090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8442831039429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8264188766479</t>
+    <t xml:space="preserve">15.0318450927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1926136016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8442850112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8264207839966</t>
   </si>
   <si>
     <t xml:space="preserve">15.2908639907837</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">15.0854358673096</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2104787826538</t>
+    <t xml:space="preserve">15.2104768753052</t>
   </si>
   <si>
     <t xml:space="preserve">15.4962902069092</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">14.3798418045044</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6120634078979</t>
+    <t xml:space="preserve">14.6120643615723</t>
   </si>
   <si>
     <t xml:space="preserve">14.1654834747314</t>
@@ -2381,19 +2381,19 @@
     <t xml:space="preserve">15.1122312545776</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9693260192871</t>
+    <t xml:space="preserve">14.9693279266357</t>
   </si>
   <si>
     <t xml:space="preserve">14.9961204528809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2194089889526</t>
+    <t xml:space="preserve">15.2194108963013</t>
   </si>
   <si>
     <t xml:space="preserve">15.2283411026001</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8710794448853</t>
+    <t xml:space="preserve">14.8710775375366</t>
   </si>
   <si>
     <t xml:space="preserve">14.8889408111572</t>
@@ -2405,7 +2405,7 @@
     <t xml:space="preserve">14.0761680603027</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1740789413452</t>
+    <t xml:space="preserve">13.1740779876709</t>
   </si>
   <si>
     <t xml:space="preserve">12.9418573379517</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">12.1916036605835</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0040407180786</t>
+    <t xml:space="preserve">12.0040416717529</t>
   </si>
   <si>
     <t xml:space="preserve">10.834005355835</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">10.3070411682129</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88725757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177257537842</t>
+    <t xml:space="preserve">9.88725662231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177248001099</t>
   </si>
   <si>
     <t xml:space="preserve">8.48053359985352</t>
@@ -2456,28 +2456,28 @@
     <t xml:space="preserve">9.55678844451904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44960975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87832641601562</t>
+    <t xml:space="preserve">9.44960880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87832546234131</t>
   </si>
   <si>
     <t xml:space="preserve">9.94084739685059</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0480260848999</t>
+    <t xml:space="preserve">10.0480251312256</t>
   </si>
   <si>
     <t xml:space="preserve">9.90512084960938</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93191623687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53892612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61931037902832</t>
+    <t xml:space="preserve">9.93191528320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53892517089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.619309425354</t>
   </si>
   <si>
     <t xml:space="preserve">10.0033674240112</t>
@@ -2489,16 +2489,16 @@
     <t xml:space="preserve">10.0926837921143</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5839204788208</t>
+    <t xml:space="preserve">10.5839214324951</t>
   </si>
   <si>
     <t xml:space="preserve">10.6285781860352</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5392618179321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2355880737305</t>
+    <t xml:space="preserve">10.5392627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2355890274048</t>
   </si>
   <si>
     <t xml:space="preserve">10.3606309890747</t>
@@ -2507,7 +2507,7 @@
     <t xml:space="preserve">10.4588785171509</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5481939315796</t>
+    <t xml:space="preserve">10.5481948852539</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982788085938</t>
@@ -2531,7 +2531,7 @@
     <t xml:space="preserve">10.4499464035034</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3427667617798</t>
+    <t xml:space="preserve">10.3427677154541</t>
   </si>
   <si>
     <t xml:space="preserve">10.2623834609985</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">9.76221561431885</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97657299041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98550510406494</t>
+    <t xml:space="preserve">9.97657203674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98550415039062</t>
   </si>
   <si>
     <t xml:space="preserve">9.68183135986328</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">9.7354211807251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1820001602173</t>
+    <t xml:space="preserve">10.181999206543</t>
   </si>
   <si>
     <t xml:space="preserve">10.1016159057617</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">10.3338356018066</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7360954284668</t>
+    <t xml:space="preserve">11.7360944747925</t>
   </si>
   <si>
     <t xml:space="preserve">11.3609685897827</t>
@@ -61825,7 +61825,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6494328704</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>56393</v>
@@ -61846,6 +61846,32 @@
         <v>1682</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6496412037</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>35504</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>5.67999982833862</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>5.55999994277954</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>5.6100001335144</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>5.57999992370605</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1688">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,88 +38,88 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0985450744629</t>
+    <t xml:space="preserve">13.0985441207886</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229200363159</t>
+    <t xml:space="preserve">13.1229209899902</t>
   </si>
   <si>
     <t xml:space="preserve">13.1147956848145</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8060207366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3103551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1884698867798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947542190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.854775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3179359436035</t>
+    <t xml:space="preserve">12.8060216903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3103561401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1884727478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947551727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8547744750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3179368972778</t>
   </si>
   <si>
     <t xml:space="preserve">12.8385238647461</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7410173416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.009162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3753614425659</t>
+    <t xml:space="preserve">12.7410163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0091638565063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3753623962402</t>
   </si>
   <si>
     <t xml:space="preserve">12.7003879547119</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972457885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6678857803345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5134983062744</t>
+    <t xml:space="preserve">12.4972467422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6678848266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5134963989258</t>
   </si>
   <si>
     <t xml:space="preserve">12.082839012146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9447011947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3022317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.432785987854</t>
+    <t xml:space="preserve">11.9447031021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3022298812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4327869415283</t>
   </si>
   <si>
     <t xml:space="preserve">11.2865257263184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7659378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4002847671509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7984409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471946716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603050231934</t>
+    <t xml:space="preserve">11.7659397125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4002838134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7984418869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471956253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.660304069519</t>
   </si>
   <si>
     <t xml:space="preserve">12.1722211837769</t>
@@ -131,43 +131,43 @@
     <t xml:space="preserve">12.0259590148926</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1478433609009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853315353394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9772052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009325027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4815406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2859802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166376113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7572679519653</t>
+    <t xml:space="preserve">12.1478424072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.985330581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9772062301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009344100952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4815397262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7166395187378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.757266998291</t>
   </si>
   <si>
     <t xml:space="preserve">12.5541257858276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4322423934937</t>
+    <t xml:space="preserve">12.4322414398193</t>
   </si>
   <si>
     <t xml:space="preserve">12.4728698730469</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4403667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635503768921</t>
+    <t xml:space="preserve">12.4403686523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635494232178</t>
   </si>
   <si>
     <t xml:space="preserve">13.3260631561279</t>
@@ -176,16 +176,16 @@
     <t xml:space="preserve">13.2935600280762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4885749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6267108917236</t>
+    <t xml:space="preserve">13.4885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6267137527466</t>
   </si>
   <si>
     <t xml:space="preserve">13.7242183685303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6917181015015</t>
+    <t xml:space="preserve">13.6917171478271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8136014938354</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">13.9354858398438</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9598627090454</t>
+    <t xml:space="preserve">13.9598636627197</t>
   </si>
   <si>
     <t xml:space="preserve">13.7160921096802</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">13.3829412460327</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0904188156128</t>
+    <t xml:space="preserve">13.0904207229614</t>
   </si>
   <si>
     <t xml:space="preserve">13.4641981124878</t>
@@ -218,16 +218,16 @@
     <t xml:space="preserve">13.3341884613037</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3666906356812</t>
+    <t xml:space="preserve">13.3666925430298</t>
   </si>
   <si>
     <t xml:space="preserve">13.4398221969604</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235725402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3748159408569</t>
+    <t xml:space="preserve">13.4235706329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3748149871826</t>
   </si>
   <si>
     <t xml:space="preserve">13.0335397720337</t>
@@ -239,37 +239,37 @@
     <t xml:space="preserve">12.9847850799561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2041778564453</t>
+    <t xml:space="preserve">13.2041797637939</t>
   </si>
   <si>
     <t xml:space="preserve">12.9197797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7978963851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922626495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9116554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0655078887939</t>
+    <t xml:space="preserve">12.7978944778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9116563796997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0655088424683</t>
   </si>
   <si>
     <t xml:space="preserve">12.470871925354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.429575920105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3056936264038</t>
+    <t xml:space="preserve">12.4295768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3056945800781</t>
   </si>
   <si>
     <t xml:space="preserve">12.2396221160889</t>
   </si>
   <si>
-    <t xml:space="preserve">12.545202255249</t>
+    <t xml:space="preserve">12.5452013015747</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534610748291</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">12.6195297241211</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864953994751</t>
+    <t xml:space="preserve">12.5864944458008</t>
   </si>
   <si>
     <t xml:space="preserve">12.6112728118896</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8260021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0489921569824</t>
+    <t xml:space="preserve">12.8260011672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0489902496338</t>
   </si>
   <si>
     <t xml:space="preserve">13.1480979919434</t>
   </si>
   <si>
-    <t xml:space="preserve">13.214168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1646146774292</t>
+    <t xml:space="preserve">13.2141695022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3710880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1646137237549</t>
   </si>
   <si>
     <t xml:space="preserve">13.2059087753296</t>
@@ -308,55 +308,55 @@
     <t xml:space="preserve">13.1563568115234</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9333667755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6938591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6360492706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0496692657471</t>
+    <t xml:space="preserve">12.9333686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6938600540161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6360483169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0496702194214</t>
   </si>
   <si>
     <t xml:space="preserve">11.7027988433838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5871744155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1659717559814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3724431991577</t>
+    <t xml:space="preserve">11.5871725082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1659708023071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.372444152832</t>
   </si>
   <si>
     <t xml:space="preserve">11.9092702865601</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882818222046</t>
+    <t xml:space="preserve">12.3882837295532</t>
   </si>
   <si>
     <t xml:space="preserve">11.9175281524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6697616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7936449050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.042088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.340087890625</t>
+    <t xml:space="preserve">11.6697626113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.793643951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0420894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3400869369507</t>
   </si>
   <si>
     <t xml:space="preserve">10.7365112304688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3146305084229</t>
+    <t xml:space="preserve">11.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505634307861</t>
@@ -371,10 +371,10 @@
     <t xml:space="preserve">11.2733373641968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2155246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.512843132019</t>
+    <t xml:space="preserve">11.2155256271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5128450393677</t>
   </si>
   <si>
     <t xml:space="preserve">12.0331516265869</t>
@@ -383,19 +383,19 @@
     <t xml:space="preserve">12.0579280853271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8762331008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2065868377686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8927507400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.190071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1074819564819</t>
+    <t xml:space="preserve">11.8762321472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2065877914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8927516937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1900701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1074800491333</t>
   </si>
   <si>
     <t xml:space="preserve">12.5121650695801</t>
@@ -404,16 +404,16 @@
     <t xml:space="preserve">12.7599306106567</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306880950928</t>
+    <t xml:space="preserve">13.2306871414185</t>
   </si>
   <si>
     <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701919555664</t>
+    <t xml:space="preserve">13.3380498886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701900482178</t>
   </si>
   <si>
     <t xml:space="preserve">13.503228187561</t>
@@ -422,214 +422,214 @@
     <t xml:space="preserve">13.3297920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4206409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7014408111572</t>
+    <t xml:space="preserve">13.4206399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7014417648315</t>
   </si>
   <si>
     <t xml:space="preserve">14.6264324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2878198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7255382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2217473983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5355844497681</t>
+    <t xml:space="preserve">14.2878170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7255392074585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2217483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5355863571167</t>
   </si>
   <si>
     <t xml:space="preserve">15.0806684494019</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1549997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2128124237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9898233413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7833518981934</t>
+    <t xml:space="preserve">15.1550006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0146007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2128105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.989821434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7833499908447</t>
   </si>
   <si>
     <t xml:space="preserve">14.6925039291382</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0393753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467390060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5183906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5514259338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266494750977</t>
+    <t xml:space="preserve">15.0393762588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5183887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5514249801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266466140747</t>
   </si>
   <si>
     <t xml:space="preserve">15.4853534698486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440584182739</t>
+    <t xml:space="preserve">15.4440612792969</t>
   </si>
   <si>
     <t xml:space="preserve">15.7000827789307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8322248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8652601242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661561965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.691822052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2623624801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1137065887451</t>
+    <t xml:space="preserve">15.8322267532349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8652629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661542892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918258666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2623634338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1137046813965</t>
   </si>
   <si>
     <t xml:space="preserve">15.2293300628662</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1797752380371</t>
+    <t xml:space="preserve">15.1797761917114</t>
   </si>
   <si>
     <t xml:space="preserve">15.2871408462524</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8983001708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6174945831299</t>
+    <t xml:space="preserve">15.8982944488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8487405776978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6174955368042</t>
   </si>
   <si>
     <t xml:space="preserve">15.1962938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7991886138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6587905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5679407119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9395914077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6257514953613</t>
+    <t xml:space="preserve">15.7991895675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.658787727356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5679416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9395904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6257543563843</t>
   </si>
   <si>
     <t xml:space="preserve">15.4110240936279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.278881072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6009750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7331190109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7166032791138</t>
+    <t xml:space="preserve">15.2788820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.600977897644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.733118057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7166042327881</t>
   </si>
   <si>
     <t xml:space="preserve">15.7744150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7083435058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5844602584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.03111743927</t>
+    <t xml:space="preserve">15.7083415985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5844593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311145782471</t>
   </si>
   <si>
     <t xml:space="preserve">15.3614702224731</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6505308151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2210693359375</t>
+    <t xml:space="preserve">15.6505327224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2210712432861</t>
   </si>
   <si>
     <t xml:space="preserve">14.9237508773804</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9402685165405</t>
+    <t xml:space="preserve">14.9402694702148</t>
   </si>
   <si>
     <t xml:space="preserve">14.4860324859619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8081293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6594667434692</t>
+    <t xml:space="preserve">14.8081254959106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6594686508179</t>
   </si>
   <si>
     <t xml:space="preserve">14.8659391403198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5933952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7916088104248</t>
+    <t xml:space="preserve">14.5933971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7916078567505</t>
   </si>
   <si>
     <t xml:space="preserve">14.9485282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">14.841160774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6842460632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4777736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7007598876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.320855140686</t>
+    <t xml:space="preserve">14.8411636352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6842451095581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4777727127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7007617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3208541870117</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400533676147</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7592535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7179584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.536262512207</t>
+    <t xml:space="preserve">13.7592525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.717960357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5362634658813</t>
   </si>
   <si>
     <t xml:space="preserve">13.2967576980591</t>
@@ -638,22 +638,22 @@
     <t xml:space="preserve">13.6684045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9492053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1391611099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.27956199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5768785476685</t>
+    <t xml:space="preserve">13.9492034912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2795629501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5768795013428</t>
   </si>
   <si>
     <t xml:space="preserve">14.3704071044922</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3779907226562</t>
+    <t xml:space="preserve">15.3779897689819</t>
   </si>
   <si>
     <t xml:space="preserve">15.4358015060425</t>
@@ -662,31 +662,31 @@
     <t xml:space="preserve">15.105447769165</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2375898361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3119201660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.667046546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0139198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9643669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9478492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8735189437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909297943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0221824645996</t>
+    <t xml:space="preserve">15.2375888824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.311918258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6670503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0139179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9643678665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9478483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735179901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909307479858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.022180557251</t>
   </si>
   <si>
     <t xml:space="preserve">15.9148139953613</t>
@@ -695,31 +695,31 @@
     <t xml:space="preserve">15.8157072067261</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5101308822632</t>
+    <t xml:space="preserve">15.5101318359375</t>
   </si>
   <si>
     <t xml:space="preserve">15.6092348098755</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2451667785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3112392425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3194980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3690490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4351215362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7819919586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324371337891</t>
+    <t xml:space="preserve">16.2451686859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3112411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3194961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3690509796143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4351234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7819957733154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324409484863</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719467163086</t>
@@ -728,10 +728,10 @@
     <t xml:space="preserve">17.0215015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7654762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8893585205078</t>
+    <t xml:space="preserve">16.765474319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8893566131592</t>
   </si>
   <si>
     <t xml:space="preserve">16.6002979278564</t>
@@ -740,115 +740,115 @@
     <t xml:space="preserve">16.5837802886963</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4020881652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1873531341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5177116394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4268608093262</t>
+    <t xml:space="preserve">16.4020862579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1873569488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5177097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4268627166748</t>
   </si>
   <si>
     <t xml:space="preserve">16.4681568145752</t>
   </si>
   <si>
-    <t xml:space="preserve">16.914134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3435974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4261837005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4922542572021</t>
+    <t xml:space="preserve">16.9141330718994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3435935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4261856079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4922561645508</t>
   </si>
   <si>
     <t xml:space="preserve">17.8391265869141</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9795246124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2438106536865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.871488571167</t>
+    <t xml:space="preserve">17.9795265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2438087463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8714866638184</t>
   </si>
   <si>
     <t xml:space="preserve">19.2431316375732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2183589935303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5239353179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7799587249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.903844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9203605651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9616546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2754898071289</t>
+    <t xml:space="preserve">19.2183570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5239334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.779956817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9038410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9203586578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9616527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2754878997803</t>
   </si>
   <si>
     <t xml:space="preserve">20.0194644927979</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1268310546875</t>
+    <t xml:space="preserve">20.1268291473389</t>
   </si>
   <si>
     <t xml:space="preserve">20.1516056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2341938018799</t>
+    <t xml:space="preserve">20.2341957092285</t>
   </si>
   <si>
     <t xml:space="preserve">19.8955821990967</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1020526885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8212547302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0607604980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9781703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.573486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5817451477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3339767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5321922302246</t>
+    <t xml:space="preserve">20.1020545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.821252822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0607566833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9781723022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5734882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5817432403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3339824676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.532190322876</t>
   </si>
   <si>
     <t xml:space="preserve">19.4743804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0531806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9953689575195</t>
+    <t xml:space="preserve">19.0531787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9953670501709</t>
   </si>
   <si>
     <t xml:space="preserve">19.110990524292</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">19.6725940704346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3415603637695</t>
+    <t xml:space="preserve">20.3415584564209</t>
   </si>
   <si>
     <t xml:space="preserve">20.7957973480225</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">21.1013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5083904266357</t>
+    <t xml:space="preserve">21.5083923339844</t>
   </si>
   <si>
     <t xml:space="preserve">21.742359161377</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">21.474967956543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6420879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3162059783936</t>
+    <t xml:space="preserve">21.6420860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3162021636963</t>
   </si>
   <si>
     <t xml:space="preserve">21.5585269927979</t>
@@ -890,16 +890,16 @@
     <t xml:space="preserve">22.1434478759766</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0822334289551</t>
+    <t xml:space="preserve">21.0822353363037</t>
   </si>
   <si>
     <t xml:space="preserve">21.0989456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">21.032096862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.931827545166</t>
+    <t xml:space="preserve">21.0320987701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9318237304688</t>
   </si>
   <si>
     <t xml:space="preserve">20.8649768829346</t>
@@ -908,52 +908,52 @@
     <t xml:space="preserve">20.8900451660156</t>
   </si>
   <si>
-    <t xml:space="preserve">21.057165145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5418167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5501747131348</t>
+    <t xml:space="preserve">21.0571670532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5418148040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5501708984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.491678237915</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6838703155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5919513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3914051055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3663387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7172908782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8315525054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1407260894775</t>
+    <t xml:space="preserve">21.6838665008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5919494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3914070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3663368225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7172927856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8315544128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1407279968262</t>
   </si>
   <si>
     <t xml:space="preserve">20.8566207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3636169433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6142978668213</t>
+    <t xml:space="preserve">20.3636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6142959594727</t>
   </si>
   <si>
     <t xml:space="preserve">20.6811447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5140247344971</t>
+    <t xml:space="preserve">20.5140228271484</t>
   </si>
   <si>
     <t xml:space="preserve">20.6644325256348</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">20.906759262085</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2744216918945</t>
+    <t xml:space="preserve">21.2744197845459</t>
   </si>
   <si>
     <t xml:space="preserve">20.8482666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5056705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8706130981445</t>
+    <t xml:space="preserve">20.5056686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8706111907959</t>
   </si>
   <si>
     <t xml:space="preserve">19.6951351165771</t>
@@ -983,34 +983,34 @@
     <t xml:space="preserve">19.3024024963379</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2021312713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6032161712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1269226074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6366443634033</t>
+    <t xml:space="preserve">19.202127456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6032180786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1269245147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6366424560547</t>
   </si>
   <si>
     <t xml:space="preserve">19.9959545135498</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0460872650146</t>
+    <t xml:space="preserve">20.0460891723633</t>
   </si>
   <si>
     <t xml:space="preserve">20.7396373748779</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3051223754883</t>
+    <t xml:space="preserve">20.3051242828369</t>
   </si>
   <si>
     <t xml:space="preserve">20.7145690917969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7730617523193</t>
+    <t xml:space="preserve">20.7730598449707</t>
   </si>
   <si>
     <t xml:space="preserve">21.332914352417</t>
@@ -1019,7 +1019,7 @@
     <t xml:space="preserve">21.3245582580566</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4582538604736</t>
+    <t xml:space="preserve">21.4582557678223</t>
   </si>
   <si>
     <t xml:space="preserve">21.2242870330811</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">21.7256469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8426322937012</t>
+    <t xml:space="preserve">21.8426303863525</t>
   </si>
   <si>
     <t xml:space="preserve">21.6170196533203</t>
@@ -1037,85 +1037,85 @@
     <t xml:space="preserve">21.6003074645996</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2326412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6588020324707</t>
+    <t xml:space="preserve">21.2326393127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6587982177734</t>
   </si>
   <si>
     <t xml:space="preserve">22.1100234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9930381774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8844108581543</t>
+    <t xml:space="preserve">21.9930400848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1016693115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8844146728516</t>
   </si>
   <si>
     <t xml:space="preserve">22.5027561187744</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3607025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.068244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9596176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3523483276367</t>
+    <t xml:space="preserve">22.3607082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0682430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9596157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3523464202881</t>
   </si>
   <si>
     <t xml:space="preserve">22.1935844421387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6531658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2855014801025</t>
+    <t xml:space="preserve">22.653169631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2854995727539</t>
   </si>
   <si>
     <t xml:space="preserve">23.1127433776855</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5890369415283</t>
+    <t xml:space="preserve">23.589038848877</t>
   </si>
   <si>
     <t xml:space="preserve">23.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6642417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5973968505859</t>
+    <t xml:space="preserve">23.6642436981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5973930358887</t>
   </si>
   <si>
     <t xml:space="preserve">23.8146514892578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.781229019165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0904006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4914894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3577938079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6669673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6001205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6586093902588</t>
+    <t xml:space="preserve">23.7812271118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0904026031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.491491317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3577919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6669635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.600118637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6586132049561</t>
   </si>
   <si>
     <t xml:space="preserve">25.0095634460449</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">24.5332698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.625186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.224100112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1488914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2408103942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6168308258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8758659362793</t>
+    <t xml:space="preserve">24.6251831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2240982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1488933563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2408084869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6168270111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8758678436279</t>
   </si>
   <si>
     <t xml:space="preserve">26.1125564575195</t>
@@ -1148,7 +1148,7 @@
     <t xml:space="preserve">25.6529769897461</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7198257446289</t>
+    <t xml:space="preserve">25.7198238372803</t>
   </si>
   <si>
     <t xml:space="preserve">25.6696872711182</t>
@@ -1157,22 +1157,22 @@
     <t xml:space="preserve">25.5359897613525</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4858570098877</t>
+    <t xml:space="preserve">25.4858551025391</t>
   </si>
   <si>
     <t xml:space="preserve">25.318733215332</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3020248413086</t>
+    <t xml:space="preserve">25.30202293396</t>
   </si>
   <si>
     <t xml:space="preserve">26.3799495697021</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6473426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1543369293213</t>
+    <t xml:space="preserve">26.6473407745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1543350219727</t>
   </si>
   <si>
     <t xml:space="preserve">25.8451614379883</t>
@@ -1190,40 +1190,40 @@
     <t xml:space="preserve">25.2268199920654</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1292705535889</t>
+    <t xml:space="preserve">26.1292686462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6724109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8255405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5023803710938</t>
+    <t xml:space="preserve">26.6724071502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8255424499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5023784637451</t>
   </si>
   <si>
     <t xml:space="preserve">28.1096439361572</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6333522796631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7252674102783</t>
+    <t xml:space="preserve">27.6333503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2349872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.725269317627</t>
   </si>
   <si>
     <t xml:space="preserve">27.3993835449219</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9454345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5694179534912</t>
+    <t xml:space="preserve">25.9454364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5694160461426</t>
   </si>
   <si>
     <t xml:space="preserve">25.1516132354736</t>
@@ -1232,43 +1232,43 @@
     <t xml:space="preserve">25.2685985565186</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2351760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9120121002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5025672912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939399719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8618755340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3214588165283</t>
+    <t xml:space="preserve">25.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9120101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5025691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939380645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8618774414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3214550018311</t>
   </si>
   <si>
     <t xml:space="preserve">26.2629661560059</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4050197601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3715934753418</t>
+    <t xml:space="preserve">26.4050159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3715915679932</t>
   </si>
   <si>
     <t xml:space="preserve">26.2211837768555</t>
   </si>
   <si>
-    <t xml:space="preserve">26.438440322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1961154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9872150421143</t>
+    <t xml:space="preserve">26.4384422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1961193084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9872188568115</t>
   </si>
   <si>
     <t xml:space="preserve">26.0707778930664</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">26.1877613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.446798324585</t>
+    <t xml:space="preserve">26.4467964172363</t>
   </si>
   <si>
     <t xml:space="preserve">26.7392597198486</t>
@@ -1289,7 +1289,7 @@
     <t xml:space="preserve">25.7114696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098308563232</t>
+    <t xml:space="preserve">25.1098327636719</t>
   </si>
   <si>
     <t xml:space="preserve">26.037353515625</t>
@@ -1301,19 +1301,19 @@
     <t xml:space="preserve">26.0540637969971</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7532501220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3688735961914</t>
+    <t xml:space="preserve">25.753246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3688697814941</t>
   </si>
   <si>
     <t xml:space="preserve">26.3632392883301</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4495162963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2824020385742</t>
+    <t xml:space="preserve">27.449520111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2824001312256</t>
   </si>
   <si>
     <t xml:space="preserve">28.1180038452148</t>
@@ -1322,55 +1322,55 @@
     <t xml:space="preserve">27.3659591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1988372802734</t>
+    <t xml:space="preserve">27.1988391876221</t>
   </si>
   <si>
     <t xml:space="preserve">26.8228168487549</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2796783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.906379699707</t>
+    <t xml:space="preserve">26.2796764373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9063816070557</t>
   </si>
   <si>
     <t xml:space="preserve">26.9899368286133</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4912986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0344429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.61936378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508838653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3241806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8646011352539</t>
+    <t xml:space="preserve">27.4913024902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.03444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6193618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3241786956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8645992279053</t>
   </si>
   <si>
     <t xml:space="preserve">25.736536026001</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2769565582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.48313331604</t>
+    <t xml:space="preserve">25.2769546508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4831314086914</t>
   </si>
   <si>
     <t xml:space="preserve">24.6084747314453</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2378978729248</t>
+    <t xml:space="preserve">26.2378959655762</t>
   </si>
   <si>
     <t xml:space="preserve">26.028995513916</t>
@@ -1379,52 +1379,52 @@
     <t xml:space="preserve">25.7783164978027</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9036560058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9817733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0680522918701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.316011428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.190673828125</t>
+    <t xml:space="preserve">25.9036598205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9817714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.068058013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9481601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3160133361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1906719207764</t>
   </si>
   <si>
     <t xml:space="preserve">20.7229232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1825084686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2660675048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2215633392334</t>
+    <t xml:space="preserve">21.1825046539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2660694122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.221565246582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0153846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.767427444458</t>
+    <t xml:space="preserve">21.7674255371094</t>
   </si>
   <si>
     <t xml:space="preserve">22.2270088195801</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3105716705322</t>
+    <t xml:space="preserve">22.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">23.0208301544189</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3941307067871</t>
+    <t xml:space="preserve">22.3941268920898</t>
   </si>
   <si>
     <t xml:space="preserve">21.4331874847412</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">22.0181083679199</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8927688598633</t>
+    <t xml:space="preserve">21.8927669525146</t>
   </si>
   <si>
     <t xml:space="preserve">22.2687892913818</t>
@@ -1448,61 +1448,61 @@
     <t xml:space="preserve">23.187952041626</t>
   </si>
   <si>
-    <t xml:space="preserve">22.60302734375</t>
+    <t xml:space="preserve">22.6030311584473</t>
   </si>
   <si>
     <t xml:space="preserve">22.9372692108154</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7728710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3132934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2324542999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4885807037354</t>
+    <t xml:space="preserve">23.7728729248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.313289642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2324504852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">25.3605175018311</t>
   </si>
   <si>
-    <t xml:space="preserve">25.026273727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8591556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8173732757568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9427146911621</t>
+    <t xml:space="preserve">25.0262756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8591537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8173751831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9427127838135</t>
   </si>
   <si>
     <t xml:space="preserve">25.4440765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3591213226318</t>
+    <t xml:space="preserve">25.3591194152832</t>
   </si>
   <si>
     <t xml:space="preserve">24.7644348144531</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3166408538818</t>
+    <t xml:space="preserve">25.3166427612305</t>
   </si>
   <si>
     <t xml:space="preserve">25.5715103149414</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8688507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0812397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4635353088379</t>
+    <t xml:space="preserve">25.8688526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4635372161865</t>
   </si>
   <si>
     <t xml:space="preserve">26.4210605621338</t>
@@ -1511,28 +1511,28 @@
     <t xml:space="preserve">25.9962844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9732666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8653011322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6529083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.888313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1661930084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2086734771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.741418838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0387630462646</t>
+    <t xml:space="preserve">26.9732704162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8652973175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6529121398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8883113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1661949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2086696624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7414169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0387592315674</t>
   </si>
   <si>
     <t xml:space="preserve">26.3785820007324</t>
@@ -1544,37 +1544,37 @@
     <t xml:space="preserve">26.3361034393311</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8458366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5060138702393</t>
+    <t xml:space="preserve">26.8458385467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5060157775879</t>
   </si>
   <si>
     <t xml:space="preserve">26.6334476470947</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7608833312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5909690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157470703125</t>
+    <t xml:space="preserve">26.7608795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.590970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157432556152</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7378673553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8918685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2547016143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3821353912354</t>
+    <t xml:space="preserve">27.737865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.89186668396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2547035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.382137298584</t>
   </si>
   <si>
     <t xml:space="preserve">24.6794776916504</t>
@@ -1586,16 +1586,16 @@
     <t xml:space="preserve">23.9998378753662</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4246120452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5095691680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5520439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8493900299072</t>
+    <t xml:space="preserve">24.4246139526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5095672607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5520458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8493881225586</t>
   </si>
   <si>
     <t xml:space="preserve">24.9768218994141</t>
@@ -1604,55 +1604,55 @@
     <t xml:space="preserve">26.1237182617188</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2281341552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5484924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7184047698975</t>
+    <t xml:space="preserve">27.2281322479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5484943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7184028625488</t>
   </si>
   <si>
     <t xml:space="preserve">27.2706108093262</t>
   </si>
   <si>
-    <t xml:space="preserve">26.251148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3130912780762</t>
+    <t xml:space="preserve">26.2511501312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3130893707275</t>
   </si>
   <si>
     <t xml:space="preserve">27.6953868865967</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6759281158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.143180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3555660247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0582218170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1467304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7024936676025</t>
+    <t xml:space="preserve">26.6759262084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1431827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3555698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0582237243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1467323303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7024955749512</t>
   </si>
   <si>
     <t xml:space="preserve">22.3007335662842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0033893585205</t>
+    <t xml:space="preserve">22.0033912658691</t>
   </si>
   <si>
     <t xml:space="preserve">22.4706439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3237476348877</t>
+    <t xml:space="preserve">21.323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">22.2157802581787</t>
@@ -1661,40 +1661,40 @@
     <t xml:space="preserve">22.0458698272705</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6635723114014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3662261962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2193336486816</t>
+    <t xml:space="preserve">21.6635684967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3662281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.219331741333</t>
   </si>
   <si>
     <t xml:space="preserve">20.3892421722412</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8989734649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.771541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3856887817383</t>
+    <t xml:space="preserve">20.8989753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7715396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3856906890869</t>
   </si>
   <si>
     <t xml:space="preserve">21.4936599731445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5131225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.640552520752</t>
+    <t xml:space="preserve">22.5131206512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6405544281006</t>
   </si>
   <si>
     <t xml:space="preserve">23.5325832366943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8529434204102</t>
+    <t xml:space="preserve">22.8529415130615</t>
   </si>
   <si>
     <t xml:space="preserve">18.4777507781982</t>
@@ -1703,109 +1703,109 @@
     <t xml:space="preserve">17.9255447387695</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104999542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1379299163818</t>
+    <t xml:space="preserve">18.010498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1379280090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503189086914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6901378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9874820709229</t>
+    <t xml:space="preserve">18.6901397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9874801635742</t>
   </si>
   <si>
     <t xml:space="preserve">19.1998710632324</t>
   </si>
   <si>
-    <t xml:space="preserve">19.327299118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1149158477783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3697814941406</t>
+    <t xml:space="preserve">19.3273029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1149139404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.369779586792</t>
   </si>
   <si>
     <t xml:space="preserve">19.8795108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0494213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0069427490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5821704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6246452331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.520227432251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2653617858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2883796691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2228851318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6282005310059</t>
+    <t xml:space="preserve">20.0494232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0069446563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5821685791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6246471405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5202293395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2653636932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2883758544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2228889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6281986236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.8405876159668</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4158096313477</t>
+    <t xml:space="preserve">17.4158134460449</t>
   </si>
   <si>
     <t xml:space="preserve">17.0759906768799</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2034225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308544158936</t>
+    <t xml:space="preserve">17.2034244537354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308563232422</t>
   </si>
   <si>
     <t xml:space="preserve">16.9910354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7326164245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9025268554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6671237945557</t>
+    <t xml:space="preserve">18.7326183319092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9025287628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.667121887207</t>
   </si>
   <si>
     <t xml:space="preserve">19.9219913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0918979644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9644660949707</t>
+    <t xml:space="preserve">20.0918998718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9644641876221</t>
   </si>
   <si>
     <t xml:space="preserve">20.4317188262939</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3467636108398</t>
+    <t xml:space="preserve">20.3467655181885</t>
   </si>
   <si>
     <t xml:space="preserve">21.068883895874</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1963157653809</t>
+    <t xml:space="preserve">21.1963195800781</t>
   </si>
   <si>
     <t xml:space="preserve">20.8564949035645</t>
@@ -1817,37 +1817,37 @@
     <t xml:space="preserve">20.3042888641357</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7945537567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.559154510498</t>
+    <t xml:space="preserve">19.7945556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5591526031494</t>
   </si>
   <si>
     <t xml:space="preserve">20.1768531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4741992950439</t>
+    <t xml:space="preserve">20.4741973876953</t>
   </si>
   <si>
     <t xml:space="preserve">19.7520809173584</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8370361328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396919250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7556304931641</t>
+    <t xml:space="preserve">19.8370323181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7556324005127</t>
   </si>
   <si>
     <t xml:space="preserve">16.9740428924561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0335102081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9230709075928</t>
+    <t xml:space="preserve">17.0335140228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9230728149414</t>
   </si>
   <si>
     <t xml:space="preserve">16.889087677002</t>
@@ -1859,28 +1859,28 @@
     <t xml:space="preserve">17.6706771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7896175384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7750968933105</t>
+    <t xml:space="preserve">17.7896118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235931396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7750949859619</t>
   </si>
   <si>
     <t xml:space="preserve">19.09792137146</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8260669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5372200012207</t>
+    <t xml:space="preserve">18.8260688781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5372180938721</t>
   </si>
   <si>
     <t xml:space="preserve">18.1124439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7046585083008</t>
+    <t xml:space="preserve">17.7046604156494</t>
   </si>
   <si>
     <t xml:space="preserve">18.0954513549805</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">18.5542106628418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6051826477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1294364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2483730316162</t>
+    <t xml:space="preserve">18.6051845550537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1294345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2483711242676</t>
   </si>
   <si>
     <t xml:space="preserve">18.452262878418</t>
@@ -1904,19 +1904,19 @@
     <t xml:space="preserve">18.7071304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2313804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0250186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0590019226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9400634765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9206008911133</t>
+    <t xml:space="preserve">18.2313766479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250205993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0590000152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9400596618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.920599937439</t>
   </si>
   <si>
     <t xml:space="preserve">15.8356456756592</t>
@@ -1925,73 +1925,73 @@
     <t xml:space="preserve">15.6742324829102</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0200748443604</t>
+    <t xml:space="preserve">15.2324647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.020073890686</t>
   </si>
   <si>
     <t xml:space="preserve">15.0625524520874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.031042098999</t>
+    <t xml:space="preserve">16.0310440063477</t>
   </si>
   <si>
     <t xml:space="preserve">16.447322845459</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3538722991943</t>
+    <t xml:space="preserve">16.353874206543</t>
   </si>
   <si>
     <t xml:space="preserve">15.4618425369263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4533462524414</t>
+    <t xml:space="preserve">15.4533491134644</t>
   </si>
   <si>
     <t xml:space="preserve">15.4448518753052</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0540571212769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7311029434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7485809326172</t>
+    <t xml:space="preserve">15.0540561676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7311038970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7485828399658</t>
   </si>
   <si>
     <t xml:space="preserve">15.1018600463867</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2329502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0494213104248</t>
+    <t xml:space="preserve">15.2329521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0494203567505</t>
   </si>
   <si>
     <t xml:space="preserve">15.031943321228</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1979932785034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9270696640015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2853889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4040451049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0806827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3028688430786</t>
+    <t xml:space="preserve">15.1979923248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9270687103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2853879928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4040431976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0806846618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3028678894043</t>
   </si>
   <si>
     <t xml:space="preserve">14.9095897674561</t>
@@ -2000,13 +2000,13 @@
     <t xml:space="preserve">14.8571529388428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5774898529053</t>
+    <t xml:space="preserve">14.577488899231</t>
   </si>
   <si>
     <t xml:space="preserve">14.7697582244873</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9882459640503</t>
+    <t xml:space="preserve">14.988245010376</t>
   </si>
   <si>
     <t xml:space="preserve">14.8134565353394</t>
@@ -2015,28 +2015,25 @@
     <t xml:space="preserve">14.6124458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4201774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5600099563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2242126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9358072280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6998405456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1193380355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3990039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154731750488</t>
+    <t xml:space="preserve">14.4201784133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5600109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.935809135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6998414993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1193361282349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3990020751953</t>
   </si>
   <si>
     <t xml:space="preserve">14.8047151565552</t>
@@ -2048,19 +2045,19 @@
     <t xml:space="preserve">14.7348003387451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3153028488159</t>
+    <t xml:space="preserve">14.3153038024902</t>
   </si>
   <si>
     <t xml:space="preserve">14.0531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1055555343628</t>
+    <t xml:space="preserve">14.1055564880371</t>
   </si>
   <si>
     <t xml:space="preserve">14.1579933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9919424057007</t>
+    <t xml:space="preserve">13.991943359375</t>
   </si>
   <si>
     <t xml:space="preserve">13.4413537979126</t>
@@ -2081,61 +2078,61 @@
     <t xml:space="preserve">14.1842107772827</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5724458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9395055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9832038879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8783292770386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5287485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5025300979614</t>
+    <t xml:space="preserve">13.5724468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9395046234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9832029342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8783283233643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5287466049194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5025310516357</t>
   </si>
   <si>
     <t xml:space="preserve">13.5637073516846</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4887466430664</t>
+    <t xml:space="preserve">12.488748550415</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564783096313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2652168273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389993667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282432556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4662265777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0379905700684</t>
+    <t xml:space="preserve">11.2652177810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389984130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282442092896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292520523071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4662256240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0379915237427</t>
   </si>
   <si>
     <t xml:space="preserve">11.3263940811157</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4574851989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690826416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0729475021362</t>
+    <t xml:space="preserve">11.4574871063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690816879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0729494094849</t>
   </si>
   <si>
     <t xml:space="preserve">11.0467309951782</t>
@@ -2144,7 +2141,7 @@
     <t xml:space="preserve">10.5223598480225</t>
   </si>
   <si>
-    <t xml:space="preserve">11.352611541748</t>
+    <t xml:space="preserve">11.3526124954224</t>
   </si>
   <si>
     <t xml:space="preserve">11.1341247558594</t>
@@ -2156,13 +2153,13 @@
     <t xml:space="preserve">11.0117721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6672353744507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8420238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731168746948</t>
+    <t xml:space="preserve">11.667236328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8420257568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731159210205</t>
   </si>
   <si>
     <t xml:space="preserve">11.9993352890015</t>
@@ -2174,7 +2171,7 @@
     <t xml:space="preserve">12.0605125427246</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5062274932861</t>
+    <t xml:space="preserve">12.5062265396118</t>
   </si>
   <si>
     <t xml:space="preserve">12.2178230285645</t>
@@ -2183,16 +2180,16 @@
     <t xml:space="preserve">12.130428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0867309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663949966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7633695602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8070669174194</t>
+    <t xml:space="preserve">12.0867300033569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7633686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8070678710938</t>
   </si>
   <si>
     <t xml:space="preserve">11.4400072097778</t>
@@ -2213,16 +2210,16 @@
     <t xml:space="preserve">10.749587059021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9418563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3788328170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3438739776611</t>
+    <t xml:space="preserve">10.9418573379517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089151382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.378830909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3438720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.4225292205811</t>
@@ -2231,10 +2228,10 @@
     <t xml:space="preserve">11.2914361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3001756668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5623598098755</t>
+    <t xml:space="preserve">11.3001766204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5623607635498</t>
   </si>
   <si>
     <t xml:space="preserve">12.008074760437</t>
@@ -2246,16 +2243,16 @@
     <t xml:space="preserve">12.1216888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">13.677318572998</t>
+    <t xml:space="preserve">13.6773204803467</t>
   </si>
   <si>
     <t xml:space="preserve">13.5462274551392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5899257659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8695888519287</t>
+    <t xml:space="preserve">13.5899248123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.869589805603</t>
   </si>
   <si>
     <t xml:space="preserve">14.0356388092041</t>
@@ -2267,10 +2264,10 @@
     <t xml:space="preserve">14.7959766387939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2191696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949697494507</t>
+    <t xml:space="preserve">14.2191705703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949687957764</t>
   </si>
   <si>
     <t xml:space="preserve">14.2453870773315</t>
@@ -2279,7 +2276,7 @@
     <t xml:space="preserve">14.1405143737793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7996730804443</t>
+    <t xml:space="preserve">13.79967212677</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104301452637</t>
@@ -2288,13 +2285,13 @@
     <t xml:space="preserve">14.8309345245361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0144653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203458786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9146308898926</t>
+    <t xml:space="preserve">15.0144624710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203468322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9146318435669</t>
   </si>
   <si>
     <t xml:space="preserve">14.9795055389404</t>
@@ -2306,10 +2303,10 @@
     <t xml:space="preserve">15.3378248214722</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3640422821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0756406784058</t>
+    <t xml:space="preserve">15.3640441894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756397247314</t>
   </si>
   <si>
     <t xml:space="preserve">15.4164810180664</t>
@@ -2318,52 +2315,52 @@
     <t xml:space="preserve">15.5475730895996</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7223634719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.05446434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709363937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8484125137329</t>
+    <t xml:space="preserve">15.7223644256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0544624328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8484134674072</t>
   </si>
   <si>
     <t xml:space="preserve">14.7435388565063</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7085809707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8658933639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5250520706177</t>
+    <t xml:space="preserve">14.7085828781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.865891456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.525053024292</t>
   </si>
   <si>
     <t xml:space="preserve">14.5075721740723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9620275497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900941848755</t>
+    <t xml:space="preserve">14.962028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900932312012</t>
   </si>
   <si>
     <t xml:space="preserve">14.8746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7610177993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8833713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1630353927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0705976486206</t>
+    <t xml:space="preserve">14.7610168457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8833723068237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1630373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0705986022949</t>
   </si>
   <si>
     <t xml:space="preserve">14.2978248596191</t>
@@ -2384,55 +2381,55 @@
     <t xml:space="preserve">14.7872381210327</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6474046707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.673623085022</t>
+    <t xml:space="preserve">14.6474056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6736249923706</t>
   </si>
   <si>
     <t xml:space="preserve">14.8921117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9008502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5512704849243</t>
+    <t xml:space="preserve">14.9008493423462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55126953125</t>
   </si>
   <si>
     <t xml:space="preserve">14.5687494277954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1230344772339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7734537124634</t>
+    <t xml:space="preserve">14.1230335235596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7734546661377</t>
   </si>
   <si>
     <t xml:space="preserve">12.8907651901245</t>
   </si>
   <si>
-    <t xml:space="preserve">12.663537979126</t>
+    <t xml:space="preserve">12.6635389328003</t>
   </si>
   <si>
     <t xml:space="preserve">12.9344625473022</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3052186965942</t>
+    <t xml:space="preserve">12.3052177429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9294195175171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7458896636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6010160446167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0853843688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67462825775146</t>
+    <t xml:space="preserve">11.7458906173706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6010150909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0853853225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67462730407715</t>
   </si>
   <si>
     <t xml:space="preserve">9.99798965454102</t>
@@ -2444,31 +2441,31 @@
     <t xml:space="preserve">8.96672821044922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4904260635376</t>
+    <t xml:space="preserve">8.49042701721191</t>
   </si>
   <si>
     <t xml:space="preserve">8.53412342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1714334487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86555147171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3512659072876</t>
+    <t xml:space="preserve">8.17143535614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86555194854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35126686096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.24639320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72706508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83193874359131</t>
+    <t xml:space="preserve">9.66588878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72706604003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83193969726562</t>
   </si>
   <si>
     <t xml:space="preserve">9.69210815429688</t>
@@ -2477,19 +2474,19 @@
     <t xml:space="preserve">9.7183256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33378791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41244411468506</t>
+    <t xml:space="preserve">9.3337869644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.78824138641357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73580455780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87563610076904</t>
+    <t xml:space="preserve">9.73580551147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87563800811768</t>
   </si>
   <si>
     <t xml:space="preserve">10.3563098907471</t>
@@ -2498,16 +2495,16 @@
     <t xml:space="preserve">10.4000072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3126125335693</t>
+    <t xml:space="preserve">10.312611579895</t>
   </si>
   <si>
     <t xml:space="preserve">10.0154685974121</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1378221511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2339553833008</t>
+    <t xml:space="preserve">10.1378211975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339572906494</t>
   </si>
   <si>
     <t xml:space="preserve">10.3213520050049</t>
@@ -2522,37 +2519,37 @@
     <t xml:space="preserve">10.7058897018433</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2215194702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4924440383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.230260848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2252168655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.120343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416860580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55227470397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76202392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7707633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47362041473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50857830047607</t>
+    <t xml:space="preserve">11.2215204238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4924449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2302589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2252178192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1203441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416870117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55227565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76202297210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77076244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47361946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50857734680176</t>
   </si>
   <si>
     <t xml:space="preserve">9.49983787536621</t>
@@ -2561,7 +2558,7 @@
     <t xml:space="preserve">9.61345195770264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09782123565674</t>
+    <t xml:space="preserve">9.09782218933105</t>
   </si>
   <si>
     <t xml:space="preserve">9.16773700714111</t>
@@ -2573,16 +2570,16 @@
     <t xml:space="preserve">9.52605628967285</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96303272247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88437747955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1116037368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4837055206299</t>
+    <t xml:space="preserve">9.96303176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88437557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1116046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4837045669556</t>
   </si>
   <si>
     <t xml:space="preserve">11.1166458129883</t>
@@ -2594,7 +2591,7 @@
     <t xml:space="preserve">10.5048818588257</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86689758300781</t>
+    <t xml:space="preserve">9.86689853668213</t>
   </si>
   <si>
     <t xml:space="preserve">10.2275371551514</t>
@@ -2618,7 +2615,7 @@
     <t xml:space="preserve">10.7209720611572</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2813673019409</t>
+    <t xml:space="preserve">10.2813663482666</t>
   </si>
   <si>
     <t xml:space="preserve">10.1647367477417</t>
@@ -2630,13 +2627,13 @@
     <t xml:space="preserve">9.89559078216553</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52775859832764</t>
+    <t xml:space="preserve">9.52775764465332</t>
   </si>
   <si>
     <t xml:space="preserve">9.81484699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66233253479004</t>
+    <t xml:space="preserve">9.66233158111572</t>
   </si>
   <si>
     <t xml:space="preserve">9.77896118164062</t>
@@ -2648,19 +2645,19 @@
     <t xml:space="preserve">9.65335941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4021577835083</t>
+    <t xml:space="preserve">9.40215682983398</t>
   </si>
   <si>
     <t xml:space="preserve">9.23169898986816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25861263275146</t>
+    <t xml:space="preserve">9.25861358642578</t>
   </si>
   <si>
     <t xml:space="preserve">9.14198207855225</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83278942108154</t>
+    <t xml:space="preserve">9.83279037475586</t>
   </si>
   <si>
     <t xml:space="preserve">9.44701480865479</t>
@@ -2672,7 +2669,7 @@
     <t xml:space="preserve">9.4290714263916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58158779144287</t>
+    <t xml:space="preserve">9.58158683776855</t>
   </si>
   <si>
     <t xml:space="preserve">9.46495819091797</t>
@@ -2684,7 +2681,7 @@
     <t xml:space="preserve">9.53672981262207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24964046478271</t>
+    <t xml:space="preserve">9.24964141845703</t>
   </si>
   <si>
     <t xml:space="preserve">10.6222848892212</t>
@@ -2696,13 +2693,13 @@
     <t xml:space="preserve">10.7030277252197</t>
   </si>
   <si>
-    <t xml:space="preserve">11.268235206604</t>
+    <t xml:space="preserve">11.2682342529297</t>
   </si>
   <si>
     <t xml:space="preserve">11.393835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6181240081787</t>
+    <t xml:space="preserve">11.618124961853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7706394195557</t>
@@ -2717,13 +2714,13 @@
     <t xml:space="preserve">11.0798330307007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9093732833862</t>
+    <t xml:space="preserve">10.9093723297119</t>
   </si>
   <si>
     <t xml:space="preserve">10.8286294937134</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5594835281372</t>
+    <t xml:space="preserve">10.5594844818115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4966840744019</t>
@@ -2735,28 +2732,31 @@
     <t xml:space="preserve">10.2454805374146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2006225585938</t>
+    <t xml:space="preserve">10.2006235122681</t>
   </si>
   <si>
     <t xml:space="preserve">10.3621101379395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800535202026</t>
+    <t xml:space="preserve">10.380054473877</t>
   </si>
   <si>
     <t xml:space="preserve">10.2903385162354</t>
   </si>
   <si>
+    <t xml:space="preserve">10.1378231048584</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.2185668945312</t>
   </si>
   <si>
     <t xml:space="preserve">10.039134979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91353511810303</t>
+    <t xml:space="preserve">10.0122213363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91353416442871</t>
   </si>
   <si>
     <t xml:space="preserve">10.003249168396</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">10.2634229660034</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5953693389893</t>
+    <t xml:space="preserve">10.5953702926636</t>
   </si>
   <si>
     <t xml:space="preserve">11.0170307159424</t>
@@ -2774,7 +2774,7 @@
     <t xml:space="preserve">11.0349750518799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7389135360718</t>
+    <t xml:space="preserve">10.7389144897461</t>
   </si>
   <si>
     <t xml:space="preserve">10.5505123138428</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">10.6581707000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402282714844</t>
+    <t xml:space="preserve">10.6402273178101</t>
   </si>
   <si>
     <t xml:space="preserve">10.7748003005981</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">10.7568578720093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.855544090271</t>
+    <t xml:space="preserve">10.8555450439453</t>
   </si>
   <si>
     <t xml:space="preserve">10.8465728759766</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">10.8376016616821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7478847503662</t>
+    <t xml:space="preserve">10.7478857040405</t>
   </si>
   <si>
     <t xml:space="preserve">10.0750217437744</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">10.3351964950562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.254451751709</t>
+    <t xml:space="preserve">10.2544527053833</t>
   </si>
   <si>
     <t xml:space="preserve">10.0839920043945</t>
@@ -2828,7 +2828,7 @@
     <t xml:space="preserve">10.128851890564</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86867523193359</t>
+    <t xml:space="preserve">9.86867618560791</t>
   </si>
   <si>
     <t xml:space="preserve">9.2406702041626</t>
@@ -2837,13 +2837,13 @@
     <t xml:space="preserve">9.06123924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59023475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76069450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87283706665039</t>
+    <t xml:space="preserve">8.59023380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76069355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87283802032471</t>
   </si>
   <si>
     <t xml:space="preserve">9.36627101898193</t>
@@ -2855,13 +2855,13 @@
     <t xml:space="preserve">9.1240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22272777557373</t>
+    <t xml:space="preserve">9.22272682189941</t>
   </si>
   <si>
     <t xml:space="preserve">10.2095947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94942188262939</t>
+    <t xml:space="preserve">9.94942092895508</t>
   </si>
   <si>
     <t xml:space="preserve">11.1964616775513</t>
@@ -2876,13 +2876,13 @@
     <t xml:space="preserve">12.6588201522827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6857357025146</t>
+    <t xml:space="preserve">12.6857347488403</t>
   </si>
   <si>
     <t xml:space="preserve">12.8920793533325</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2012729644775</t>
+    <t xml:space="preserve">12.2012739181519</t>
   </si>
   <si>
     <t xml:space="preserve">12.811336517334</t>
@@ -2903,13 +2903,13 @@
     <t xml:space="preserve">12.3896751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2909879684448</t>
+    <t xml:space="preserve">12.2909870147705</t>
   </si>
   <si>
     <t xml:space="preserve">12.308931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2640733718872</t>
+    <t xml:space="preserve">12.2640724182129</t>
   </si>
   <si>
     <t xml:space="preserve">12.3807039260864</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">12.4524755477905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3627595901489</t>
+    <t xml:space="preserve">12.3627605438232</t>
   </si>
   <si>
     <t xml:space="preserve">12.210244178772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3268747329712</t>
+    <t xml:space="preserve">12.3268737792969</t>
   </si>
   <si>
     <t xml:space="preserve">12.3358459472656</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">13.0087089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8203077316284</t>
+    <t xml:space="preserve">12.8203086853027</t>
   </si>
   <si>
     <t xml:space="preserve">12.7485361099243</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">12.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1163673400879</t>
+    <t xml:space="preserve">13.1163682937622</t>
   </si>
   <si>
     <t xml:space="preserve">12.560133934021</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">13.3675708770752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6636304855347</t>
+    <t xml:space="preserve">13.663631439209</t>
   </si>
   <si>
     <t xml:space="preserve">13.5649442672729</t>
@@ -2996,13 +2996,13 @@
     <t xml:space="preserve">13.0984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9638519287109</t>
+    <t xml:space="preserve">12.9638528823853</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957983016968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3227138519287</t>
+    <t xml:space="preserve">13.322714805603</t>
   </si>
   <si>
     <t xml:space="preserve">13.2778558731079</t>
@@ -3020,10 +3020,10 @@
     <t xml:space="preserve">13.5739164352417</t>
   </si>
   <si>
-    <t xml:space="preserve">14.166036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3992958068848</t>
+    <t xml:space="preserve">14.1660356521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3992948532104</t>
   </si>
   <si>
     <t xml:space="preserve">14.4800405502319</t>
@@ -3050,10 +3050,10 @@
     <t xml:space="preserve">14.4710674285889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0852928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.767128944397</t>
+    <t xml:space="preserve">14.0852937698364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7671279907227</t>
   </si>
   <si>
     <t xml:space="preserve">15.0542182922363</t>
@@ -3068,10 +3068,10 @@
     <t xml:space="preserve">15.4130773544312</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5835371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7719402313232</t>
+    <t xml:space="preserve">15.5835380554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7719392776489</t>
   </si>
   <si>
     <t xml:space="preserve">15.5207347869873</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">16.3640594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5614337921143</t>
+    <t xml:space="preserve">16.5614318847656</t>
   </si>
   <si>
     <t xml:space="preserve">15.843713760376</t>
@@ -3119,28 +3119,28 @@
     <t xml:space="preserve">15.7629690170288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8526830673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7360525131226</t>
+    <t xml:space="preserve">15.8526840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360534667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.6463384628296</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6283950805664</t>
+    <t xml:space="preserve">15.6283941268921</t>
   </si>
   <si>
     <t xml:space="preserve">15.6911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6822242736816</t>
+    <t xml:space="preserve">15.6822233200073</t>
   </si>
   <si>
     <t xml:space="preserve">15.6553106307983</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4669075012207</t>
+    <t xml:space="preserve">15.466908454895</t>
   </si>
   <si>
     <t xml:space="preserve">15.5386781692505</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">15.4220514297485</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2874794006348</t>
+    <t xml:space="preserve">15.2874784469604</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4848508834839</t>
+    <t xml:space="preserve">15.4848518371582</t>
   </si>
   <si>
     <t xml:space="preserve">15.3143920898438</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3951368331909</t>
+    <t xml:space="preserve">15.3951358795166</t>
   </si>
   <si>
     <t xml:space="preserve">15.3323354721069</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5476531982422</t>
+    <t xml:space="preserve">15.5476522445679</t>
   </si>
   <si>
     <t xml:space="preserve">15.2426195144653</t>
@@ -3179,19 +3179,19 @@
     <t xml:space="preserve">15.5027952194214</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6642789840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7091379165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2336463928223</t>
+    <t xml:space="preserve">15.6642799377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7091388702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2336473464966</t>
   </si>
   <si>
     <t xml:space="preserve">14.8030157089233</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9824457168579</t>
+    <t xml:space="preserve">14.9824466705322</t>
   </si>
   <si>
     <t xml:space="preserve">17.2253284454346</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">17.8981914520264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.925106048584</t>
+    <t xml:space="preserve">17.9251041412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.5531120300293</t>
@@ -5073,6 +5073,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.34000015258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.36999988555908</t>
   </si>
 </sst>
 </file>
@@ -28650,7 +28653,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G894" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28676,7 +28679,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G895" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28702,7 +28705,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G896" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28728,7 +28731,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G897" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28754,7 +28757,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G898" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28780,7 +28783,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G899" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28806,7 +28809,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G900" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28832,7 +28835,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28858,7 +28861,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G902" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28884,7 +28887,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G903" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28910,7 +28913,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G904" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -28962,7 +28965,7 @@
         <v>16.9099998474121</v>
       </c>
       <c r="G906" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -28988,7 +28991,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G907" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29014,7 +29017,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G908" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29040,7 +29043,7 @@
         <v>16.2299995422363</v>
       </c>
       <c r="G909" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29066,7 +29069,7 @@
         <v>15.5299997329712</v>
       </c>
       <c r="G910" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -29092,7 +29095,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G911" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29118,7 +29121,7 @@
         <v>16</v>
       </c>
       <c r="G912" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29144,7 +29147,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G913" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29170,7 +29173,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G914" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29196,7 +29199,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G915" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29222,7 +29225,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G916" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29248,7 +29251,7 @@
         <v>14.289999961853</v>
       </c>
       <c r="G917" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29274,7 +29277,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G918" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29300,7 +29303,7 @@
         <v>12.8900003433228</v>
       </c>
       <c r="G919" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29326,7 +29329,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G920" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29352,7 +29355,7 @@
         <v>12.3900003433228</v>
       </c>
       <c r="G921" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29378,7 +29381,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G922" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29404,7 +29407,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G923" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -29430,7 +29433,7 @@
         <v>12.6300001144409</v>
       </c>
       <c r="G924" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29456,7 +29459,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G925" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29482,7 +29485,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G926" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29508,7 +29511,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G927" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29534,7 +29537,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G928" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29560,7 +29563,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G929" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29586,7 +29589,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G930" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29612,7 +29615,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G931" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29638,7 +29641,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G932" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29664,7 +29667,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G933" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29690,7 +29693,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G934" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29716,7 +29719,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29742,7 +29745,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G936" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29768,7 +29771,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G937" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29794,7 +29797,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G938" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29820,7 +29823,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G939" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29846,7 +29849,7 @@
         <v>13.789999961853</v>
       </c>
       <c r="G940" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29872,7 +29875,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G941" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29898,7 +29901,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="G942" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29924,7 +29927,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G943" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -29950,7 +29953,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G944" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -29976,7 +29979,7 @@
         <v>13.8299999237061</v>
       </c>
       <c r="G945" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30002,7 +30005,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30028,7 +30031,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G947" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30054,7 +30057,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G948" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30080,7 +30083,7 @@
         <v>13.5100002288818</v>
       </c>
       <c r="G949" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30106,7 +30109,7 @@
         <v>13.0900001525879</v>
       </c>
       <c r="G950" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30132,7 +30135,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G951" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30158,7 +30161,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G952" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30184,7 +30187,7 @@
         <v>13.1700000762939</v>
       </c>
       <c r="G953" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30210,7 +30213,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G954" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30236,7 +30239,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G955" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30262,7 +30265,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G956" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30288,7 +30291,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G957" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30314,7 +30317,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G958" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30340,7 +30343,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G959" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30366,7 +30369,7 @@
         <v>12.8900003433228</v>
       </c>
       <c r="G960" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30392,7 +30395,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G961" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30418,7 +30421,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G962" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30444,7 +30447,7 @@
         <v>13.0699996948242</v>
       </c>
       <c r="G963" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30470,7 +30473,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G964" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30496,7 +30499,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G965" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30522,7 +30525,7 @@
         <v>13.0900001525879</v>
       </c>
       <c r="G966" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30548,7 +30551,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G967" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30574,7 +30577,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G968" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30600,7 +30603,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G969" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30626,7 +30629,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G970" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30652,7 +30655,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G971" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30678,7 +30681,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30704,7 +30707,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30730,7 +30733,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G974" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30756,7 +30759,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G975" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30782,7 +30785,7 @@
         <v>13.8699998855591</v>
       </c>
       <c r="G976" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30808,7 +30811,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30834,7 +30837,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30860,7 +30863,7 @@
         <v>15.5</v>
       </c>
       <c r="G979" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30886,7 +30889,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G980" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30912,7 +30915,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G981" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -30938,7 +30941,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G982" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -30964,7 +30967,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G983" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -30990,7 +30993,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G984" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31042,7 +31045,7 @@
         <v>16.2700004577637</v>
       </c>
       <c r="G986" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31094,7 +31097,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G988" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31120,7 +31123,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G989" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31146,7 +31149,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G990" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31172,7 +31175,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G991" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31198,7 +31201,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G992" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31224,7 +31227,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31250,7 +31253,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G994" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31276,7 +31279,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G995" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31302,7 +31305,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G996" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31328,7 +31331,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G997" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31354,7 +31357,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G998" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31380,7 +31383,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31406,7 +31409,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1000" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31458,7 +31461,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1002" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31484,7 +31487,7 @@
         <v>17.25</v>
       </c>
       <c r="G1003" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31536,7 +31539,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1005" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31562,7 +31565,7 @@
         <v>17.7900009155273</v>
       </c>
       <c r="G1006" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31588,7 +31591,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1007" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31614,7 +31617,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="G1008" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31640,7 +31643,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31666,7 +31669,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31692,7 +31695,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1011" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31718,7 +31721,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G1012" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31744,7 +31747,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1013" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31770,7 +31773,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1014" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31796,7 +31799,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G1015" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31822,7 +31825,7 @@
         <v>17.0100002288818</v>
       </c>
       <c r="G1016" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31874,7 +31877,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1018" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31900,7 +31903,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31926,7 +31929,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1020" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -31952,7 +31955,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -31978,7 +31981,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1022" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32004,7 +32007,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1023" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32056,7 +32059,7 @@
         <v>17.0100002288818</v>
       </c>
       <c r="G1025" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32134,7 +32137,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1028" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32160,7 +32163,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1029" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32186,7 +32189,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1030" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32212,7 +32215,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1031" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32238,7 +32241,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1032" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32264,7 +32267,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1033" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32290,7 +32293,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G1034" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32316,7 +32319,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32342,7 +32345,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1036" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32368,7 +32371,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1037" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -32394,7 +32397,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G1038" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -32420,7 +32423,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1039" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -32446,7 +32449,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1040" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32472,7 +32475,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32498,7 +32501,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1042" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32524,7 +32527,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1043" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32550,7 +32553,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1044" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32576,7 +32579,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1045" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32602,7 +32605,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1046" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32628,7 +32631,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1047" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32654,7 +32657,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32680,7 +32683,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32706,7 +32709,7 @@
         <v>16.6700000762939</v>
       </c>
       <c r="G1050" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32732,7 +32735,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1051" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32758,7 +32761,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1052" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32784,7 +32787,7 @@
         <v>14.75</v>
       </c>
       <c r="G1053" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32810,7 +32813,7 @@
         <v>14.4899997711182</v>
       </c>
       <c r="G1054" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32836,7 +32839,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1055" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32862,7 +32865,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1056" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32888,7 +32891,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1057" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32914,7 +32917,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1058" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -32940,7 +32943,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1059" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -32966,7 +32969,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1060" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -32992,7 +32995,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1061" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -33018,7 +33021,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G1062" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -33044,7 +33047,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1063" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -33070,7 +33073,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G1064" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -33096,7 +33099,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1065" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -33122,7 +33125,7 @@
         <v>9.49499988555908</v>
       </c>
       <c r="G1066" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -33148,7 +33151,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1067" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -33174,7 +33177,7 @@
         <v>9.71500015258789</v>
       </c>
       <c r="G1068" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -33200,7 +33203,7 @@
         <v>9.76500034332275</v>
       </c>
       <c r="G1069" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -33226,7 +33229,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1070" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -33252,7 +33255,7 @@
         <v>9</v>
       </c>
       <c r="G1071" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -33278,7 +33281,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -33304,7 +33307,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G1073" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -33330,7 +33333,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1074" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -33356,7 +33359,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1075" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -33382,7 +33385,7 @@
         <v>11.25</v>
       </c>
       <c r="G1076" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -33408,7 +33411,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G1077" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -33434,7 +33437,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1078" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -33460,7 +33463,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1079" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -33486,7 +33489,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G1080" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -33512,7 +33515,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1081" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33538,7 +33541,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1082" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33564,7 +33567,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1083" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33590,7 +33593,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33616,7 +33619,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1085" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33642,7 +33645,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1086" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33668,7 +33671,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1087" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33694,7 +33697,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1088" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33720,7 +33723,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1089" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33746,7 +33749,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1090" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33772,7 +33775,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1091" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33798,7 +33801,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1092" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33824,7 +33827,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1093" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33850,7 +33853,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1094" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33876,7 +33879,7 @@
         <v>12.25</v>
       </c>
       <c r="G1095" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33902,7 +33905,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1096" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -33928,7 +33931,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1097" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -33954,7 +33957,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1098" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -33980,7 +33983,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1099" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -34006,7 +34009,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1100" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -34032,7 +34035,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1101" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -34058,7 +34061,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1102" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -34084,7 +34087,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -34110,7 +34113,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1104" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -34136,7 +34139,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G1105" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -34162,7 +34165,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1106" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -34188,7 +34191,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G1107" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -34214,7 +34217,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1108" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -34240,7 +34243,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1109" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -34266,7 +34269,7 @@
         <v>11</v>
       </c>
       <c r="G1110" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -34292,7 +34295,7 @@
         <v>11</v>
       </c>
       <c r="G1111" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -34318,7 +34321,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1112" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -34344,7 +34347,7 @@
         <v>10.4899997711182</v>
       </c>
       <c r="G1113" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -34370,7 +34373,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -34396,7 +34399,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G1115" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -34422,7 +34425,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -34448,7 +34451,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G1117" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -34474,7 +34477,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -34500,7 +34503,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1119" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34526,7 +34529,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1120" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34552,7 +34555,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34578,7 +34581,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1122" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34604,7 +34607,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1123" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34630,7 +34633,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1124" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34656,7 +34659,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1125" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34682,7 +34685,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1126" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34708,7 +34711,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1127" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34734,7 +34737,7 @@
         <v>11.289999961853</v>
       </c>
       <c r="G1128" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34760,7 +34763,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34786,7 +34789,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34812,7 +34815,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1131" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34838,7 +34841,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1132" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34864,7 +34867,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G1133" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34890,7 +34893,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1134" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34916,7 +34919,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G1135" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -34942,7 +34945,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -34968,7 +34971,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1137" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -34994,7 +34997,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1138" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -35020,7 +35023,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G1139" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -35046,7 +35049,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1140" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -35072,7 +35075,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G1141" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -35098,7 +35101,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G1142" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -35124,7 +35127,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1143" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -35150,7 +35153,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G1144" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -35176,7 +35179,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -35202,7 +35205,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1146" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -35228,7 +35231,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1147" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -35254,7 +35257,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G1148" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -35280,7 +35283,7 @@
         <v>10.289999961853</v>
       </c>
       <c r="G1149" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -35306,7 +35309,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1150" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -35332,7 +35335,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1151" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -35358,7 +35361,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1152" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -35384,7 +35387,7 @@
         <v>10.5299997329712</v>
       </c>
       <c r="G1153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -35410,7 +35413,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G1154" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -35436,7 +35439,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -35462,7 +35465,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1156" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -35488,7 +35491,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -35514,7 +35517,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1158" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35540,7 +35543,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G1159" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35566,7 +35569,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G1160" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35592,7 +35595,7 @@
         <v>10.3100004196167</v>
       </c>
       <c r="G1161" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35618,7 +35621,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1162" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35644,7 +35647,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1163" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35670,7 +35673,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1164" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35696,7 +35699,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1165" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35722,7 +35725,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1166" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35748,7 +35751,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1167" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35774,7 +35777,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1168" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35800,7 +35803,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1169" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35826,7 +35829,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1170" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35852,7 +35855,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1171" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35878,7 +35881,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1172" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35904,7 +35907,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1173" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -35930,7 +35933,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G1174" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -35956,7 +35959,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1175" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -35982,7 +35985,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1176" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -36008,7 +36011,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1177" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -36034,7 +36037,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1178" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -36060,7 +36063,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1179" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -36086,7 +36089,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1180" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -36112,7 +36115,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1181" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -36138,7 +36141,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1182" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -36164,7 +36167,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1183" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -36190,7 +36193,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G1184" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -36216,7 +36219,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -36372,7 +36375,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1191" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -36450,7 +36453,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1194" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -36476,7 +36479,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1195" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -36632,7 +36635,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1201" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -36788,7 +36791,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1207" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -37022,7 +37025,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -37048,7 +37051,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1217" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -37230,7 +37233,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1224" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -37568,7 +37571,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1237" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -61912,7 +61915,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6494212963</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>92638</v>
@@ -61933,6 +61936,32 @@
         <v>1686</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6494791667</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>42909</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>5.30999994277954</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>5.30999994277954</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>5.36999988555908</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="1697">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0985460281372</t>
+    <t xml:space="preserve">13.0985431671143</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147966384888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.806022644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3103551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1884708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947532653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8547744750977</t>
+    <t xml:space="preserve">13.1229219436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8060216903687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.310357093811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1884717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947542190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.854775428772</t>
   </si>
   <si>
     <t xml:space="preserve">13.3179359436035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8385248184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7410163879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.009162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3753623962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7003870010376</t>
+    <t xml:space="preserve">12.8385238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7410154342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0091619491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3753614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7003889083862</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972467422485</t>
@@ -89,31 +89,31 @@
     <t xml:space="preserve">12.6678848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5134963989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.082839012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9447021484375</t>
+    <t xml:space="preserve">12.5134983062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0828380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9447011947632</t>
   </si>
   <si>
     <t xml:space="preserve">12.3022317886353</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4327850341797</t>
+    <t xml:space="preserve">11.432785987854</t>
   </si>
   <si>
     <t xml:space="preserve">11.286524772644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7659397125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4002838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7984409332275</t>
+    <t xml:space="preserve">11.7659378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4002828598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7984399795532</t>
   </si>
   <si>
     <t xml:space="preserve">11.8471946716309</t>
@@ -122,109 +122,109 @@
     <t xml:space="preserve">11.6603050231934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1722211837769</t>
+    <t xml:space="preserve">12.1722202301025</t>
   </si>
   <si>
     <t xml:space="preserve">11.8228168487549</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0259580612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1478424072266</t>
+    <t xml:space="preserve">12.0259590148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1478433609009</t>
   </si>
   <si>
     <t xml:space="preserve">11.985330581665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9772062301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009325027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.481541633606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2859783172607</t>
+    <t xml:space="preserve">11.9772043228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4815406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859802246094</t>
   </si>
   <si>
     <t xml:space="preserve">12.7166385650635</t>
   </si>
   <si>
-    <t xml:space="preserve">12.757266998291</t>
+    <t xml:space="preserve">12.7572679519653</t>
   </si>
   <si>
     <t xml:space="preserve">12.5541257858276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4322414398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4728689193726</t>
+    <t xml:space="preserve">12.4322423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4728698730469</t>
   </si>
   <si>
     <t xml:space="preserve">12.4403667449951</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1635522842407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3260612487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2935590744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4885768890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6267137527466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7242183685303</t>
+    <t xml:space="preserve">13.1635513305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3260631561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2935609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4885759353638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6267127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7242193222046</t>
   </si>
   <si>
     <t xml:space="preserve">13.6917171478271</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8136024475098</t>
+    <t xml:space="preserve">13.8136034011841</t>
   </si>
   <si>
     <t xml:space="preserve">13.9354848861694</t>
   </si>
   <si>
-    <t xml:space="preserve">13.959864616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7160930633545</t>
+    <t xml:space="preserve">13.9598636627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7160940170288</t>
   </si>
   <si>
     <t xml:space="preserve">13.382942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0904197692871</t>
+    <t xml:space="preserve">13.0904188156128</t>
   </si>
   <si>
     <t xml:space="preserve">13.4641981124878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.456072807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5454549789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3341875076294</t>
+    <t xml:space="preserve">13.4560737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5454559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3341884613037</t>
   </si>
   <si>
     <t xml:space="preserve">13.3666915893555</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4398231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235715866089</t>
+    <t xml:space="preserve">13.4398241043091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235706329346</t>
   </si>
   <si>
     <t xml:space="preserve">13.3748159408569</t>
@@ -233,7 +233,7 @@
     <t xml:space="preserve">13.0335397720337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9360303878784</t>
+    <t xml:space="preserve">12.9360322952271</t>
   </si>
   <si>
     <t xml:space="preserve">12.9847850799561</t>
@@ -245,46 +245,46 @@
     <t xml:space="preserve">12.9197797775269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7978944778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922616958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9116563796997</t>
+    <t xml:space="preserve">12.7978963851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922626495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9116554260254</t>
   </si>
   <si>
     <t xml:space="preserve">13.0655088424683</t>
   </si>
   <si>
-    <t xml:space="preserve">12.470871925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4295768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3056945800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2396221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5452003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534601211548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6195306777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5864934921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6112718582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.826003074646</t>
+    <t xml:space="preserve">12.4708709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4295778274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3056936264038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2396230697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5452013015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6195316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5864944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6112728118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8260021209717</t>
   </si>
   <si>
     <t xml:space="preserve">13.0489921569824</t>
@@ -302,13 +302,13 @@
     <t xml:space="preserve">13.1646137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2059097290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1563568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.933367729187</t>
+    <t xml:space="preserve">13.2059087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1563558578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9333667755127</t>
   </si>
   <si>
     <t xml:space="preserve">12.6938591003418</t>
@@ -317,7 +317,7 @@
     <t xml:space="preserve">12.6360483169556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496692657471</t>
+    <t xml:space="preserve">12.0496702194214</t>
   </si>
   <si>
     <t xml:space="preserve">11.7027988433838</t>
@@ -326,55 +326,55 @@
     <t xml:space="preserve">11.5871734619141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1659727096558</t>
+    <t xml:space="preserve">11.1659717559814</t>
   </si>
   <si>
     <t xml:space="preserve">11.372444152832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9092693328857</t>
+    <t xml:space="preserve">11.9092702865601</t>
   </si>
   <si>
     <t xml:space="preserve">12.3882827758789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9175281524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6697626113892</t>
+    <t xml:space="preserve">11.9175271987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6697607040405</t>
   </si>
   <si>
     <t xml:space="preserve">11.7936458587646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0420904159546</t>
+    <t xml:space="preserve">11.0420894622803</t>
   </si>
   <si>
     <t xml:space="preserve">10.3400859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7365121841431</t>
+    <t xml:space="preserve">10.7365112304688</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146314620972</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505634307861</t>
+    <t xml:space="preserve">11.9505624771118</t>
   </si>
   <si>
     <t xml:space="preserve">11.9423046112061</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5293617248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2733364105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2155246734619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5128450393677</t>
+    <t xml:space="preserve">11.5293607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2733373641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2155256271362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.512843132019</t>
   </si>
   <si>
     <t xml:space="preserve">12.0331516265869</t>
@@ -389,25 +389,25 @@
     <t xml:space="preserve">12.2065877914429</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8927507400513</t>
+    <t xml:space="preserve">11.8927526473999</t>
   </si>
   <si>
     <t xml:space="preserve">12.190071105957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1074819564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5121641159058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7599306106567</t>
+    <t xml:space="preserve">12.1074800491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5121650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7599296569824</t>
   </si>
   <si>
     <t xml:space="preserve">13.2306871414185</t>
   </si>
   <si>
-    <t xml:space="preserve">13.39586353302</t>
+    <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
     <t xml:space="preserve">13.3380498886108</t>
@@ -416,34 +416,34 @@
     <t xml:space="preserve">13.4701919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5032291412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297929763794</t>
+    <t xml:space="preserve">13.503228187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297920227051</t>
   </si>
   <si>
     <t xml:space="preserve">13.4206399917603</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7014417648315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6264305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878217697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7255401611328</t>
+    <t xml:space="preserve">13.7014389038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6264314651489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878179550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7255382537842</t>
   </si>
   <si>
     <t xml:space="preserve">14.2217473983765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5355863571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0806694030762</t>
+    <t xml:space="preserve">14.5355844497681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0806703567505</t>
   </si>
   <si>
     <t xml:space="preserve">15.1550016403198</t>
@@ -452,325 +452,325 @@
     <t xml:space="preserve">15.0145988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2128105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9898223876953</t>
+    <t xml:space="preserve">15.2128114700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9898233413696</t>
   </si>
   <si>
     <t xml:space="preserve">14.783350944519</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6925039291382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0393753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467390060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5183897018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5514230728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266466140747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4853544235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000865936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8322248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8652610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661561965942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918239593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2623634338379</t>
+    <t xml:space="preserve">14.6925029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0393743515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467418670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5183877944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5514240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.526647567749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4853525161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440584182739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000818252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8322277069092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8652620315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918258666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2623643875122</t>
   </si>
   <si>
     <t xml:space="preserve">15.1137037277222</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293300628662</t>
+    <t xml:space="preserve">15.2293281555176</t>
   </si>
   <si>
     <t xml:space="preserve">15.1797761917114</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2871408462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8982982635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.848744392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6174955368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1962947845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7991895675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.658787727356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5679407119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9395885467529</t>
+    <t xml:space="preserve">15.2871398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8982973098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6174926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1962928771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7991905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.567943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9395904541016</t>
   </si>
   <si>
     <t xml:space="preserve">15.6257543563843</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4110240936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.278881072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6009759902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7331199645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7166004180908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744150161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.708345413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5844612121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614721298218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6505308151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2210693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9237518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9402694702148</t>
+    <t xml:space="preserve">15.411021232605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2788801193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6009769439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7331171035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7166032791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744131088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7083435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5844593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614711761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6505336761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2210683822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9237499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9402675628662</t>
   </si>
   <si>
     <t xml:space="preserve">14.4860343933105</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8081274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6594696044922</t>
+    <t xml:space="preserve">14.8081283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6594686508179</t>
   </si>
   <si>
     <t xml:space="preserve">14.8659381866455</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5933961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7916097640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9485301971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8411617279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6842432022095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4777736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7007608413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.320855140686</t>
+    <t xml:space="preserve">14.5933971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7916069030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9485263824463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8411636352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6842470169067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4777746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7007637023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3208541870117</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400543212891</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7592515945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7179594039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.536262512207</t>
+    <t xml:space="preserve">13.7592525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7179584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5362634658813</t>
   </si>
   <si>
     <t xml:space="preserve">13.2967576980591</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6684036254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9492044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1391592025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.27956199646</t>
+    <t xml:space="preserve">13.6684045791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9492063522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1391611099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2795610427856</t>
   </si>
   <si>
     <t xml:space="preserve">14.5768785476685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3704090118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3779878616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4357986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054487228394</t>
+    <t xml:space="preserve">14.3704071044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3779916763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4358005523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054468154907</t>
   </si>
   <si>
     <t xml:space="preserve">15.2375888824463</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3119173049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6670484542847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0139217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9643659591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9478492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8735198974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909307479858</t>
+    <t xml:space="preserve">15.3119201660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.667046546936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0139179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9643697738647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9478464126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735218048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909288406372</t>
   </si>
   <si>
     <t xml:space="preserve">16.022180557251</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9148139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157052993774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5101308822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6092367172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2451686859131</t>
+    <t xml:space="preserve">15.914813041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157081604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5101299285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6092348098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2451667785645</t>
   </si>
   <si>
     <t xml:space="preserve">16.3112392425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3194980621338</t>
+    <t xml:space="preserve">16.3194999694824</t>
   </si>
   <si>
     <t xml:space="preserve">16.3690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4351215362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7819938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7324390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9719467163086</t>
+    <t xml:space="preserve">16.4351234436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7819919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7324409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9719486236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.0215015411377</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7654762268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8893604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6002979278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5837821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4020862579346</t>
+    <t xml:space="preserve">16.765474319458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8893566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6002998352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5837802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4020843505859</t>
   </si>
   <si>
     <t xml:space="preserve">16.1873550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5177097320557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4268627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4681549072266</t>
+    <t xml:space="preserve">16.517707824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4268608093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4681606292725</t>
   </si>
   <si>
     <t xml:space="preserve">16.914134979248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3435974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4261856079102</t>
+    <t xml:space="preserve">17.3435955047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4261837005615</t>
   </si>
   <si>
     <t xml:space="preserve">17.4922561645508</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8391265869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.979528427124</t>
+    <t xml:space="preserve">17.8391246795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9795303344727</t>
   </si>
   <si>
     <t xml:space="preserve">18.2438106536865</t>
@@ -788,22 +788,22 @@
     <t xml:space="preserve">19.5239334106445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7799587249756</t>
+    <t xml:space="preserve">19.779956817627</t>
   </si>
   <si>
     <t xml:space="preserve">19.9038410186768</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9203586578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9616527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2754878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0194644927979</t>
+    <t xml:space="preserve">19.9203605651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9616546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2754898071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0194625854492</t>
   </si>
   <si>
     <t xml:space="preserve">20.1268310546875</t>
@@ -812,31 +812,31 @@
     <t xml:space="preserve">20.1516056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2341938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8955821990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1020526885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8212547302246</t>
+    <t xml:space="preserve">20.2341957092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.895580291748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1020565032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.821252822876</t>
   </si>
   <si>
     <t xml:space="preserve">20.0607604980469</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9781723022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.573486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5817432403564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3339805603027</t>
+    <t xml:space="preserve">19.9781703948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5734882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5817451477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3339786529541</t>
   </si>
   <si>
     <t xml:space="preserve">19.5321922302246</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">19.4743804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0531806945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9953651428223</t>
+    <t xml:space="preserve">19.0531787872314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9953670501709</t>
   </si>
   <si>
     <t xml:space="preserve">19.110990524292</t>
@@ -857,64 +857,64 @@
     <t xml:space="preserve">19.6725921630859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3415603637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7957954406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3078479766846</t>
+    <t xml:space="preserve">20.3415565490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7957992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3078460693359</t>
   </si>
   <si>
     <t xml:space="preserve">21.101375579834</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5083923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.742359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4749660491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6420879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3162002563477</t>
+    <t xml:space="preserve">21.5083904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7423572540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4749698638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6420841217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3162059783936</t>
   </si>
   <si>
     <t xml:space="preserve">21.5585269927979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1434497833252</t>
+    <t xml:space="preserve">22.1434478759766</t>
   </si>
   <si>
     <t xml:space="preserve">21.0822334289551</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0989475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0320987701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9318237304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8649787902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8900470733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0571670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5418167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5501728057861</t>
+    <t xml:space="preserve">21.0989456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.032096862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9318256378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8649749755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8900451660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0571689605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5418186187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5501708984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.491678237915</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">21.6838684082031</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5919513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3914051055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3663349151611</t>
+    <t xml:space="preserve">21.591947555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3914070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.366340637207</t>
   </si>
   <si>
     <t xml:space="preserve">21.7172927856445</t>
@@ -938,13 +938,13 @@
     <t xml:space="preserve">20.8315525054932</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1407241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8566207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3636150360107</t>
+    <t xml:space="preserve">21.1407260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8566188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.363618850708</t>
   </si>
   <si>
     <t xml:space="preserve">20.614294052124</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">20.6811447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5140228271484</t>
+    <t xml:space="preserve">20.5140247344971</t>
   </si>
   <si>
     <t xml:space="preserve">20.6644325256348</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9067554473877</t>
+    <t xml:space="preserve">20.906759262085</t>
   </si>
   <si>
     <t xml:space="preserve">21.2744216918945</t>
@@ -968,43 +968,43 @@
     <t xml:space="preserve">20.8482666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5056705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8706111907959</t>
+    <t xml:space="preserve">20.5056686401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8706130981445</t>
   </si>
   <si>
     <t xml:space="preserve">19.6951351165771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.477876663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3024024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2021255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6032180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1269245147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6366405487061</t>
+    <t xml:space="preserve">19.4778785705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3024044036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.202127456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6032199859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1269264221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6366443634033</t>
   </si>
   <si>
     <t xml:space="preserve">19.9959526062012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.046085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7396392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3051242828369</t>
+    <t xml:space="preserve">20.0460872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7396373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3051223754883</t>
   </si>
   <si>
     <t xml:space="preserve">20.7145690917969</t>
@@ -1019,40 +1019,40 @@
     <t xml:space="preserve">21.3245601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4582557678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2242889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7256450653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8426303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6170215606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.600305557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2326412200928</t>
+    <t xml:space="preserve">21.4582538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2242832183838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7256488800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8426322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6170196533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2326431274414</t>
   </si>
   <si>
     <t xml:space="preserve">21.6587982177734</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1100254058838</t>
+    <t xml:space="preserve">22.1100234985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.9930400848389</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1016674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8844127655029</t>
+    <t xml:space="preserve">22.1016712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8844146728516</t>
   </si>
   <si>
     <t xml:space="preserve">22.5027561187744</t>
@@ -1061,25 +1061,25 @@
     <t xml:space="preserve">22.3607082366943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0682411193848</t>
+    <t xml:space="preserve">22.0682430267334</t>
   </si>
   <si>
     <t xml:space="preserve">21.9596157073975</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3523464202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.19358253479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6531658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2854995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1127452850342</t>
+    <t xml:space="preserve">22.3523502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1935844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6531677246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2855014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1127433776855</t>
   </si>
   <si>
     <t xml:space="preserve">23.589038848877</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">23.6642417907715</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5973968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8146514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7812271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0904006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4914894104004</t>
+    <t xml:space="preserve">23.5973949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8146495819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.781229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0903987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4914875030518</t>
   </si>
   <si>
     <t xml:space="preserve">24.3577938079834</t>
@@ -1112,7 +1112,7 @@
     <t xml:space="preserve">24.6669654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6001205444336</t>
+    <t xml:space="preserve">24.6001167297363</t>
   </si>
   <si>
     <t xml:space="preserve">24.6586112976074</t>
@@ -1121,43 +1121,43 @@
     <t xml:space="preserve">25.0095634460449</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5332698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6251850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.224100112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1488952636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2408084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6168270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8758678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1125564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529769897461</t>
+    <t xml:space="preserve">24.5332717895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.625186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2240982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1488914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2408065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8758659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1125583648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529788970947</t>
   </si>
   <si>
     <t xml:space="preserve">25.7198257446289</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6696853637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5359916687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4858570098877</t>
+    <t xml:space="preserve">25.6696891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5359897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4858551025391</t>
   </si>
   <si>
     <t xml:space="preserve">25.318733215332</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">26.1543369293213</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8451633453369</t>
+    <t xml:space="preserve">25.8451614379883</t>
   </si>
   <si>
     <t xml:space="preserve">24.8006610870361</t>
@@ -1190,34 +1190,34 @@
     <t xml:space="preserve">25.2268199920654</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1292686462402</t>
+    <t xml:space="preserve">26.1292705535889</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6724090576172</t>
+    <t xml:space="preserve">26.6724109649658</t>
   </si>
   <si>
     <t xml:space="preserve">27.8255405426025</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5023803710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1096439361572</t>
+    <t xml:space="preserve">28.5023784637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1096458435059</t>
   </si>
   <si>
     <t xml:space="preserve">27.6333522796631</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2349891662598</t>
+    <t xml:space="preserve">28.2349853515625</t>
   </si>
   <si>
     <t xml:space="preserve">27.7252674102783</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3993854522705</t>
+    <t xml:space="preserve">27.3993835449219</t>
   </si>
   <si>
     <t xml:space="preserve">25.9454345703125</t>
@@ -1226,16 +1226,16 @@
     <t xml:space="preserve">25.5694160461426</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1516132354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2686004638672</t>
+    <t xml:space="preserve">25.1516151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2685985565186</t>
   </si>
   <si>
     <t xml:space="preserve">25.2351741790771</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9120101928711</t>
+    <t xml:space="preserve">25.9120121002197</t>
   </si>
   <si>
     <t xml:space="preserve">25.5025691986084</t>
@@ -1244,46 +1244,46 @@
     <t xml:space="preserve">25.3939380645752</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8618774414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3214550018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2629642486572</t>
+    <t xml:space="preserve">25.8618793487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3214569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2629623413086</t>
   </si>
   <si>
     <t xml:space="preserve">26.4050178527832</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3715915679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2211837768555</t>
+    <t xml:space="preserve">26.3715934753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2211856842041</t>
   </si>
   <si>
     <t xml:space="preserve">26.4384422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">26.196117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9872169494629</t>
+    <t xml:space="preserve">26.1961212158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9872188568115</t>
   </si>
   <si>
     <t xml:space="preserve">26.0707778930664</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1877613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.446798324585</t>
+    <t xml:space="preserve">26.1877593994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4467964172363</t>
   </si>
   <si>
     <t xml:space="preserve">26.7392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.870231628418</t>
+    <t xml:space="preserve">25.8702297210693</t>
   </si>
   <si>
     <t xml:space="preserve">25.7114677429199</t>
@@ -1292,28 +1292,28 @@
     <t xml:space="preserve">25.1098346710205</t>
   </si>
   <si>
-    <t xml:space="preserve">26.037353515625</t>
+    <t xml:space="preserve">26.0373554229736</t>
   </si>
   <si>
     <t xml:space="preserve">25.6863994598389</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0540657043457</t>
+    <t xml:space="preserve">26.0540637969971</t>
   </si>
   <si>
     <t xml:space="preserve">25.753246307373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3688716888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3632373809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.449520111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.282398223877</t>
+    <t xml:space="preserve">25.3688697814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3632354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4495182037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2824020385742</t>
   </si>
   <si>
     <t xml:space="preserve">28.1180038452148</t>
@@ -1325,31 +1325,31 @@
     <t xml:space="preserve">27.1988391876221</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8228168487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2796802520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9063816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9899387359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4913005828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0344409942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.61936378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508800506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330810546875</t>
+    <t xml:space="preserve">26.8228149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2796783447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.906379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9899368286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.491304397583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0344429016113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6193618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330829620361</t>
   </si>
   <si>
     <t xml:space="preserve">27.3241806030273</t>
@@ -1361,73 +1361,73 @@
     <t xml:space="preserve">25.7365341186523</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2769546508789</t>
+    <t xml:space="preserve">25.2769527435303</t>
   </si>
   <si>
     <t xml:space="preserve">24.48313331604</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6084766387939</t>
+    <t xml:space="preserve">24.6084747314453</t>
   </si>
   <si>
     <t xml:space="preserve">26.2378959655762</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0289974212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7783145904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9036598205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9817733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0680561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9481582641602</t>
+    <t xml:space="preserve">26.028995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7783164978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.903657913208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9817714691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0680541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9481601715088</t>
   </si>
   <si>
     <t xml:space="preserve">24.3160133361816</t>
   </si>
   <si>
-    <t xml:space="preserve">24.190673828125</t>
+    <t xml:space="preserve">24.1906719207764</t>
   </si>
   <si>
     <t xml:space="preserve">20.7229251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.182502746582</t>
+    <t xml:space="preserve">21.1825065612793</t>
   </si>
   <si>
     <t xml:space="preserve">21.2660675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.221565246582</t>
+    <t xml:space="preserve">20.2215633392334</t>
   </si>
   <si>
     <t xml:space="preserve">21.0153846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.767427444458</t>
+    <t xml:space="preserve">21.7674255371094</t>
   </si>
   <si>
     <t xml:space="preserve">22.2270088195801</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3105697631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0208282470703</t>
+    <t xml:space="preserve">22.310567855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0208301544189</t>
   </si>
   <si>
     <t xml:space="preserve">22.3941287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4331855773926</t>
+    <t xml:space="preserve">21.4331817626953</t>
   </si>
   <si>
     <t xml:space="preserve">22.0181102752686</t>
@@ -1439,25 +1439,25 @@
     <t xml:space="preserve">22.2687892913818</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0626125335693</t>
+    <t xml:space="preserve">23.0626087188721</t>
   </si>
   <si>
     <t xml:space="preserve">22.7701511383057</t>
   </si>
   <si>
-    <t xml:space="preserve">23.187952041626</t>
+    <t xml:space="preserve">23.1879501342773</t>
   </si>
   <si>
     <t xml:space="preserve">22.6030292510986</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9372692108154</t>
+    <t xml:space="preserve">22.9372711181641</t>
   </si>
   <si>
     <t xml:space="preserve">23.7728710174561</t>
   </si>
   <si>
-    <t xml:space="preserve">23.313289642334</t>
+    <t xml:space="preserve">23.3132915496826</t>
   </si>
   <si>
     <t xml:space="preserve">24.2324504852295</t>
@@ -1466,13 +1466,13 @@
     <t xml:space="preserve">26.4885768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3605175018311</t>
+    <t xml:space="preserve">25.3605155944824</t>
   </si>
   <si>
     <t xml:space="preserve">25.0262756347656</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8591537475586</t>
+    <t xml:space="preserve">24.8591556549072</t>
   </si>
   <si>
     <t xml:space="preserve">24.8173751831055</t>
@@ -1481,22 +1481,22 @@
     <t xml:space="preserve">24.9427165985107</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4440746307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3591194152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7644329071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3166389465332</t>
+    <t xml:space="preserve">25.4440765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3591213226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7644348144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3166427612305</t>
   </si>
   <si>
     <t xml:space="preserve">25.5715084075928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8688526153564</t>
+    <t xml:space="preserve">25.8688507080078</t>
   </si>
   <si>
     <t xml:space="preserve">26.0812397003174</t>
@@ -1505,13 +1505,13 @@
     <t xml:space="preserve">26.4635372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4210605621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9962825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9732704162598</t>
+    <t xml:space="preserve">26.4210624694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9732666015625</t>
   </si>
   <si>
     <t xml:space="preserve">27.8652973175049</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">27.6529102325439</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8883152008057</t>
+    <t xml:space="preserve">26.888313293457</t>
   </si>
   <si>
     <t xml:space="preserve">26.1661949157715</t>
@@ -1529,25 +1529,25 @@
     <t xml:space="preserve">26.2086715698242</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7414169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.038761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3785839080811</t>
+    <t xml:space="preserve">25.741418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0387630462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3785820007324</t>
   </si>
   <si>
     <t xml:space="preserve">25.9538059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3361034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8458366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5060138702393</t>
+    <t xml:space="preserve">26.3361053466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5060176849365</t>
   </si>
   <si>
     <t xml:space="preserve">26.6334495544434</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">26.7608814239502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5909690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157432556152</t>
+    <t xml:space="preserve">26.5909729003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157451629639</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803440093994</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7378673553467</t>
+    <t xml:space="preserve">27.737865447998</t>
   </si>
   <si>
     <t xml:space="preserve">24.89186668396</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">24.3821353912354</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6794776916504</t>
+    <t xml:space="preserve">24.6794757843018</t>
   </si>
   <si>
     <t xml:space="preserve">24.4670906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9998378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4246139526367</t>
+    <t xml:space="preserve">23.9998397827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4246120452881</t>
   </si>
   <si>
     <t xml:space="preserve">24.5095691680908</t>
@@ -1595,10 +1595,10 @@
     <t xml:space="preserve">24.5520458221436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8493881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9768218994141</t>
+    <t xml:space="preserve">24.8493900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9768238067627</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237182617188</t>
@@ -1607,28 +1607,28 @@
     <t xml:space="preserve">27.2281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5484943389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7184028625488</t>
+    <t xml:space="preserve">26.5484924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7184066772461</t>
   </si>
   <si>
     <t xml:space="preserve">27.2706108093262</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2511501312256</t>
+    <t xml:space="preserve">26.251148223877</t>
   </si>
   <si>
     <t xml:space="preserve">27.3130893707275</t>
   </si>
   <si>
-    <t xml:space="preserve">27.695384979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6759243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.143180847168</t>
+    <t xml:space="preserve">27.6953887939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6759262084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1431789398193</t>
   </si>
   <si>
     <t xml:space="preserve">27.3555679321289</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">25.1467323303223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7024936676025</t>
+    <t xml:space="preserve">23.7024955749512</t>
   </si>
   <si>
     <t xml:space="preserve">22.3007335662842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0033893585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4706439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3237495422363</t>
+    <t xml:space="preserve">22.0033912658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.470645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">22.2157783508301</t>
@@ -1676,25 +1676,25 @@
     <t xml:space="preserve">20.8989734649658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.771541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3856906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4936580657959</t>
+    <t xml:space="preserve">20.7715396881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3856887817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4936599731445</t>
   </si>
   <si>
     <t xml:space="preserve">22.5131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6405544281006</t>
+    <t xml:space="preserve">22.6405563354492</t>
   </si>
   <si>
     <t xml:space="preserve">23.5325870513916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8529415130615</t>
+    <t xml:space="preserve">22.8529434204102</t>
   </si>
   <si>
     <t xml:space="preserve">18.4777507781982</t>
@@ -1703,28 +1703,28 @@
     <t xml:space="preserve">17.9255428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0104999542236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1379299163818</t>
+    <t xml:space="preserve">18.010498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1379280090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503189086914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6901378631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9874820709229</t>
+    <t xml:space="preserve">18.6901416778564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9874839782715</t>
   </si>
   <si>
     <t xml:space="preserve">19.1998691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3273010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1149158477783</t>
+    <t xml:space="preserve">19.3273029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1149139404297</t>
   </si>
   <si>
     <t xml:space="preserve">19.369779586792</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">19.8795127868652</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0494232177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0069446563721</t>
+    <t xml:space="preserve">20.0494251251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0069427490234</t>
   </si>
   <si>
     <t xml:space="preserve">19.5821685791016</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">18.5202293395996</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2653617858887</t>
+    <t xml:space="preserve">18.2653636932373</t>
   </si>
   <si>
     <t xml:space="preserve">17.2883796691895</t>
@@ -1760,58 +1760,58 @@
     <t xml:space="preserve">17.6281986236572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8405876159668</t>
+    <t xml:space="preserve">17.8405857086182</t>
   </si>
   <si>
     <t xml:space="preserve">17.4158115386963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0759887695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2034225463867</t>
+    <t xml:space="preserve">17.0759906768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2034244537354</t>
   </si>
   <si>
     <t xml:space="preserve">17.3308563232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9910335540771</t>
+    <t xml:space="preserve">16.9910373687744</t>
   </si>
   <si>
     <t xml:space="preserve">18.7326164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9025287628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6671237945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9219913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0918998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9644641876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4317188262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3467636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.068883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1963176727295</t>
+    <t xml:space="preserve">18.9025249481201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.667121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.921989440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0918979644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9644680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4317169189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3467655181885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0688858032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1963157653809</t>
   </si>
   <si>
     <t xml:space="preserve">20.8564949035645</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6441059112549</t>
+    <t xml:space="preserve">20.6441078186035</t>
   </si>
   <si>
     <t xml:space="preserve">20.3042869567871</t>
@@ -1820,40 +1820,40 @@
     <t xml:space="preserve">19.7945556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5591526031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1768550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4741973876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7520790100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8370323181152</t>
+    <t xml:space="preserve">20.559154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1768569946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4741992950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7520809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8370342254639</t>
   </si>
   <si>
     <t xml:space="preserve">19.5396919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7556304931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9740409851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0335140228271</t>
+    <t xml:space="preserve">17.7556324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9740428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0335121154785</t>
   </si>
   <si>
     <t xml:space="preserve">16.9230709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">16.889087677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432453155518</t>
+    <t xml:space="preserve">16.8890895843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5432434082031</t>
   </si>
   <si>
     <t xml:space="preserve">17.6706771850586</t>
@@ -1862,70 +1862,70 @@
     <t xml:space="preserve">17.7896118164062</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7750930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0979232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8260688781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5372180938721</t>
+    <t xml:space="preserve">17.8235950469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7750968933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.09792137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8260669708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5372200012207</t>
   </si>
   <si>
     <t xml:space="preserve">18.1124439239502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7046604156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0954494476318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5542087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6051845550537</t>
+    <t xml:space="preserve">17.7046585083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0954532623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5542106628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6051826477051</t>
   </si>
   <si>
     <t xml:space="preserve">18.1294345855713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2483711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4522647857666</t>
+    <t xml:space="preserve">18.2483730316162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.452262878418</t>
   </si>
   <si>
     <t xml:space="preserve">18.7071304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2313804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0250205993652</t>
+    <t xml:space="preserve">18.2313766479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250186920166</t>
   </si>
   <si>
     <t xml:space="preserve">17.0590000152588</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9400615692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9205980300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8356456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6742324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2324647903442</t>
+    <t xml:space="preserve">16.9400634765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.920599937439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8356437683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6742305755615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2324638366699</t>
   </si>
   <si>
     <t xml:space="preserve">15.0200748443604</t>
@@ -1934,61 +1934,61 @@
     <t xml:space="preserve">15.0625524520874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.031042098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.447322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.353874206543</t>
+    <t xml:space="preserve">16.0310440063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4473247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3538703918457</t>
   </si>
   <si>
     <t xml:space="preserve">15.4618434906006</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4533491134644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4448509216309</t>
+    <t xml:space="preserve">15.45334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4448528289795</t>
   </si>
   <si>
     <t xml:space="preserve">15.0540571212769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2154731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7311038970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7485828399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1018581390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2329530715942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0494213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.031943321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979923248291</t>
+    <t xml:space="preserve">15.2154750823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7311029434204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7485818862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1018590927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2329521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0494222640991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0319442749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979942321777</t>
   </si>
   <si>
     <t xml:space="preserve">14.9270687103271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2853879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4040431976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.080680847168</t>
+    <t xml:space="preserve">15.2853889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4040451049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0806827545166</t>
   </si>
   <si>
     <t xml:space="preserve">15.3028688430786</t>
@@ -1997,46 +1997,46 @@
     <t xml:space="preserve">14.9095888137817</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8571548461914</t>
+    <t xml:space="preserve">14.8571519851685</t>
   </si>
   <si>
     <t xml:space="preserve">14.577488899231</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7697582244873</t>
+    <t xml:space="preserve">14.769757270813</t>
   </si>
   <si>
     <t xml:space="preserve">14.988245010376</t>
   </si>
   <si>
-    <t xml:space="preserve">14.813455581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6124477386475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4201765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5600109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2242136001587</t>
+    <t xml:space="preserve">14.8134574890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6124458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5600099563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242126464844</t>
   </si>
   <si>
     <t xml:space="preserve">14.9358081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6998424530029</t>
+    <t xml:space="preserve">14.6998414993286</t>
   </si>
   <si>
     <t xml:space="preserve">15.1193370819092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3990020751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047161102295</t>
+    <t xml:space="preserve">15.3990030288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047151565552</t>
   </si>
   <si>
     <t xml:space="preserve">14.7173204421997</t>
@@ -2048,40 +2048,40 @@
     <t xml:space="preserve">14.3153038024902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0531187057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1055564880371</t>
+    <t xml:space="preserve">14.0531196594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1055555343628</t>
   </si>
   <si>
     <t xml:space="preserve">14.1579923629761</t>
   </si>
   <si>
-    <t xml:space="preserve">13.991943359375</t>
+    <t xml:space="preserve">13.9919424057007</t>
   </si>
   <si>
     <t xml:space="preserve">13.4413537979126</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6336231231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784967422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4726152420044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2541275024414</t>
+    <t xml:space="preserve">13.6336221694946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4726142883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2541265487671</t>
   </si>
   <si>
     <t xml:space="preserve">14.184211730957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5724468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9395046234131</t>
+    <t xml:space="preserve">13.5724458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9395055770874</t>
   </si>
   <si>
     <t xml:space="preserve">13.9832029342651</t>
@@ -2099,79 +2099,79 @@
     <t xml:space="preserve">13.5637073516846</t>
   </si>
   <si>
-    <t xml:space="preserve">12.488748550415</t>
+    <t xml:space="preserve">12.4887475967407</t>
   </si>
   <si>
     <t xml:space="preserve">11.2564783096313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2652187347412</t>
+    <t xml:space="preserve">11.2652177810669</t>
   </si>
   <si>
     <t xml:space="preserve">11.2389993667603</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8282432556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0292520523071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4662256240845</t>
+    <t xml:space="preserve">10.8282423019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0292510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4662265777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.0379915237427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3263940811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4574880599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690816879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0729494094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0467300415039</t>
+    <t xml:space="preserve">11.32639503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4574871063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690826416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0729484558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0467309951782</t>
   </si>
   <si>
     <t xml:space="preserve">10.5223608016968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.352611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1341247558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9505958557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.011773109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6672344207764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8420248031616</t>
+    <t xml:space="preserve">11.3526124954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1341257095337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9505968093872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117712020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6672353744507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8420238494873</t>
   </si>
   <si>
     <t xml:space="preserve">11.9731168746948</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9993352890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0517730712891</t>
+    <t xml:space="preserve">11.9993362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0517721176147</t>
   </si>
   <si>
     <t xml:space="preserve">12.0605125427246</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5062265396118</t>
+    <t xml:space="preserve">12.5062274932861</t>
   </si>
   <si>
     <t xml:space="preserve">12.2178230285645</t>
@@ -2183,10 +2183,10 @@
     <t xml:space="preserve">12.0867309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7633695602417</t>
+    <t xml:space="preserve">12.3663949966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7633686065674</t>
   </si>
   <si>
     <t xml:space="preserve">11.8070669174194</t>
@@ -2204,7 +2204,7 @@
     <t xml:space="preserve">11.5099239349365</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9942941665649</t>
+    <t xml:space="preserve">10.9942932128906</t>
   </si>
   <si>
     <t xml:space="preserve">10.749587059021</t>
@@ -2216,28 +2216,28 @@
     <t xml:space="preserve">11.3089151382446</t>
   </si>
   <si>
-    <t xml:space="preserve">11.378830909729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3438730239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4225282669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2914361953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3001766204834</t>
+    <t xml:space="preserve">11.3788328170776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3438739776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4225292205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2914371490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3001756668091</t>
   </si>
   <si>
     <t xml:space="preserve">11.5623607635498</t>
   </si>
   <si>
-    <t xml:space="preserve">12.008074760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9905977249146</t>
+    <t xml:space="preserve">12.0080757141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9905967712402</t>
   </si>
   <si>
     <t xml:space="preserve">12.1216878890991</t>
@@ -2249,19 +2249,19 @@
     <t xml:space="preserve">13.5462274551392</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5899248123169</t>
+    <t xml:space="preserve">13.5899257659912</t>
   </si>
   <si>
     <t xml:space="preserve">13.869589805603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0356388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9045476913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959756851196</t>
+    <t xml:space="preserve">14.0356397628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9045467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959775924683</t>
   </si>
   <si>
     <t xml:space="preserve">14.2191696166992</t>
@@ -2270,13 +2270,13 @@
     <t xml:space="preserve">14.5949687957764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2453861236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1405153274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7996730804443</t>
+    <t xml:space="preserve">14.2453880310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1405143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7996740341187</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104301452637</t>
@@ -2288,13 +2288,13 @@
     <t xml:space="preserve">15.0144624710083</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9146318435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9795064926147</t>
+    <t xml:space="preserve">15.320348739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9146327972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9795055389404</t>
   </si>
   <si>
     <t xml:space="preserve">14.9445476531982</t>
@@ -2303,67 +2303,67 @@
     <t xml:space="preserve">15.3378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3640451431274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0756406784058</t>
+    <t xml:space="preserve">15.3640432357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756416320801</t>
   </si>
   <si>
     <t xml:space="preserve">15.4164800643921</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5475740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7223644256592</t>
+    <t xml:space="preserve">15.5475730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7223625183105</t>
   </si>
   <si>
     <t xml:space="preserve">16.05446434021</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8709354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8484153747559</t>
+    <t xml:space="preserve">15.8709335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8484125137329</t>
   </si>
   <si>
     <t xml:space="preserve">14.7435398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7085800170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.865891456604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.525053024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5075721740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9620275497437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8746328353882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7610187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8833723068237</t>
+    <t xml:space="preserve">14.7085828781128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8658924102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5250520706177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5075712203979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.962028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900941848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8746337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.883373260498</t>
   </si>
   <si>
     <t xml:space="preserve">15.1630353927612</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0705986022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2978258132935</t>
+    <t xml:space="preserve">14.0705976486206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2978248596191</t>
   </si>
   <si>
     <t xml:space="preserve">13.8608503341675</t>
@@ -2378,22 +2378,22 @@
     <t xml:space="preserve">13.8958072662354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7872362136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6474056243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6736249923706</t>
+    <t xml:space="preserve">14.7872381210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6474046707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6736240386963</t>
   </si>
   <si>
     <t xml:space="preserve">14.8921117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9008493423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55126953125</t>
+    <t xml:space="preserve">14.9008512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5512714385986</t>
   </si>
   <si>
     <t xml:space="preserve">14.5687494277954</t>
@@ -2411,16 +2411,16 @@
     <t xml:space="preserve">12.663537979126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9344625473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3052186965942</t>
+    <t xml:space="preserve">12.9344635009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3052177429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9294195175171</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7458906173706</t>
+    <t xml:space="preserve">11.7458896636963</t>
   </si>
   <si>
     <t xml:space="preserve">10.6010150909424</t>
@@ -2429,10 +2429,10 @@
     <t xml:space="preserve">10.0853843688965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67462730407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99799060821533</t>
+    <t xml:space="preserve">9.67462921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99798965454102</t>
   </si>
   <si>
     <t xml:space="preserve">8.29815673828125</t>
@@ -2450,37 +2450,37 @@
     <t xml:space="preserve">8.17143440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86555194854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3512659072876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24639225006104</t>
+    <t xml:space="preserve">7.86555147171021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35126686096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24639415740967</t>
   </si>
   <si>
     <t xml:space="preserve">9.66588878631592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83193874359131</t>
+    <t xml:space="preserve">9.72706508636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83193969726562</t>
   </si>
   <si>
     <t xml:space="preserve">9.69210815429688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7183256149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33378791809082</t>
+    <t xml:space="preserve">9.71832656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33378887176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78824329376221</t>
+    <t xml:space="preserve">9.78824234008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.73580455780029</t>
@@ -2498,7 +2498,7 @@
     <t xml:space="preserve">10.312611579895</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0154695510864</t>
+    <t xml:space="preserve">10.0154685974121</t>
   </si>
   <si>
     <t xml:space="preserve">10.1378221511841</t>
@@ -2507,10 +2507,10 @@
     <t xml:space="preserve">10.2339563369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3213520050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5660581588745</t>
+    <t xml:space="preserve">10.3213510513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5660572052002</t>
   </si>
   <si>
     <t xml:space="preserve">10.5922756195068</t>
@@ -2519,19 +2519,19 @@
     <t xml:space="preserve">10.7058897018433</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2215213775635</t>
+    <t xml:space="preserve">11.2215204238892</t>
   </si>
   <si>
     <t xml:space="preserve">11.4924449920654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2302598953247</t>
+    <t xml:space="preserve">11.230260848999</t>
   </si>
   <si>
     <t xml:space="preserve">10.2252168655396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.120343208313</t>
+    <t xml:space="preserve">10.1203422546387</t>
   </si>
   <si>
     <t xml:space="preserve">10.0416870117188</t>
@@ -2546,28 +2546,28 @@
     <t xml:space="preserve">9.77076435089111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47361946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50857734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49983787536621</t>
+    <t xml:space="preserve">9.47362041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50857830047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49983882904053</t>
   </si>
   <si>
     <t xml:space="preserve">9.61345291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09782123565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16773700714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08908081054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52605724334717</t>
+    <t xml:space="preserve">9.09782218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16773796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08908176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52605628967285</t>
   </si>
   <si>
     <t xml:space="preserve">9.96303176879883</t>
@@ -2576,40 +2576,40 @@
     <t xml:space="preserve">9.88437652587891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1116037368774</t>
+    <t xml:space="preserve">10.1116027832031</t>
   </si>
   <si>
     <t xml:space="preserve">11.4837064743042</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1166458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8195028305054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5048818588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86689758300781</t>
+    <t xml:space="preserve">11.1166467666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8195037841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5048809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86689853668213</t>
   </si>
   <si>
     <t xml:space="preserve">10.2275371551514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5146265029907</t>
+    <t xml:space="preserve">10.514627456665</t>
   </si>
   <si>
     <t xml:space="preserve">10.4518251419067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4697685241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4338817596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3262243270874</t>
+    <t xml:space="preserve">10.4697694778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4338827133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3262252807617</t>
   </si>
   <si>
     <t xml:space="preserve">10.7209711074829</t>
@@ -2624,19 +2624,19 @@
     <t xml:space="preserve">9.98530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89559078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52775955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81484699249268</t>
+    <t xml:space="preserve">9.89559173583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52775859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81484794616699</t>
   </si>
   <si>
     <t xml:space="preserve">9.66233158111572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77896213531494</t>
+    <t xml:space="preserve">9.77896118164062</t>
   </si>
   <si>
     <t xml:space="preserve">9.74307537078857</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">9.40215682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23169898986816</t>
+    <t xml:space="preserve">9.23169803619385</t>
   </si>
   <si>
     <t xml:space="preserve">9.25861263275146</t>
@@ -2675,22 +2675,22 @@
     <t xml:space="preserve">9.46495819091797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69821834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53673076629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24964141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6222839355469</t>
+    <t xml:space="preserve">9.69821739196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53672981262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24964237213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6222848892212</t>
   </si>
   <si>
     <t xml:space="preserve">10.7119989395142</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7030277252197</t>
+    <t xml:space="preserve">10.703028678894</t>
   </si>
   <si>
     <t xml:space="preserve">11.268235206604</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">11.7706394195557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3758926391602</t>
+    <t xml:space="preserve">11.3758935928345</t>
   </si>
   <si>
     <t xml:space="preserve">11.1785182952881</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">10.8286294937134</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5594854354858</t>
+    <t xml:space="preserve">10.5594844818115</t>
   </si>
   <si>
     <t xml:space="preserve">10.4966831207275</t>
@@ -2735,19 +2735,19 @@
     <t xml:space="preserve">10.2006225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3621101379395</t>
+    <t xml:space="preserve">10.3621110916138</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2903394699097</t>
+    <t xml:space="preserve">10.2903385162354</t>
   </si>
   <si>
     <t xml:space="preserve">10.2185668945312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0391359329224</t>
+    <t xml:space="preserve">10.039134979248</t>
   </si>
   <si>
     <t xml:space="preserve">10.0122203826904</t>
@@ -2756,25 +2756,25 @@
     <t xml:space="preserve">9.91353416442871</t>
   </si>
   <si>
-    <t xml:space="preserve">10.003249168396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2634239196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5953702926636</t>
+    <t xml:space="preserve">10.0032501220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2634229660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5953712463379</t>
   </si>
   <si>
     <t xml:space="preserve">11.0170316696167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0349750518799</t>
+    <t xml:space="preserve">11.0349740982056</t>
   </si>
   <si>
     <t xml:space="preserve">10.7389144897461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5505132675171</t>
+    <t xml:space="preserve">10.5505123138428</t>
   </si>
   <si>
     <t xml:space="preserve">10.6581707000732</t>
@@ -2783,16 +2783,16 @@
     <t xml:space="preserve">10.6402273178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7748022079468</t>
+    <t xml:space="preserve">10.7748012542725</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721736907959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8914308547974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.756856918335</t>
+    <t xml:space="preserve">10.8914318084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7568578720093</t>
   </si>
   <si>
     <t xml:space="preserve">10.8555450439453</t>
@@ -2801,13 +2801,13 @@
     <t xml:space="preserve">10.8465728759766</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8017158508301</t>
+    <t xml:space="preserve">10.8017148971558</t>
   </si>
   <si>
     <t xml:space="preserve">10.8376016616821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7478847503662</t>
+    <t xml:space="preserve">10.7478857040405</t>
   </si>
   <si>
     <t xml:space="preserve">10.0750207901001</t>
@@ -2834,28 +2834,28 @@
     <t xml:space="preserve">9.06124019622803</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59023475646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76069355010986</t>
+    <t xml:space="preserve">8.59023380279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76069450378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283802032471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36627006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41112804412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1240406036377</t>
+    <t xml:space="preserve">9.36627101898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41112899780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12403964996338</t>
   </si>
   <si>
     <t xml:space="preserve">9.22272682189941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2095947265625</t>
+    <t xml:space="preserve">10.2095937728882</t>
   </si>
   <si>
     <t xml:space="preserve">9.94942092895508</t>
@@ -2864,13 +2864,13 @@
     <t xml:space="preserve">11.1964616775513</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4297208786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9141836166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.658821105957</t>
+    <t xml:space="preserve">11.4297218322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9141845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6588201522827</t>
   </si>
   <si>
     <t xml:space="preserve">12.6857347488403</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">12.8920803070068</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2012720108032</t>
+    <t xml:space="preserve">12.2012729644775</t>
   </si>
   <si>
     <t xml:space="preserve">12.811336517334</t>
@@ -2888,16 +2888,16 @@
     <t xml:space="preserve">12.5152759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4345321655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5332202911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.994927406311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3896760940552</t>
+    <t xml:space="preserve">12.4345331192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5332193374634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9949283599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3896751403809</t>
   </si>
   <si>
     <t xml:space="preserve">12.2909879684448</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">12.3089323043823</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2640743255615</t>
+    <t xml:space="preserve">12.2640733718872</t>
   </si>
   <si>
     <t xml:space="preserve">12.3807039260864</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">12.8203086853027</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7485361099243</t>
+    <t xml:space="preserve">12.74853515625</t>
   </si>
   <si>
     <t xml:space="preserve">12.9010524749756</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">13.1163682937622</t>
   </si>
   <si>
-    <t xml:space="preserve">12.560133934021</t>
+    <t xml:space="preserve">12.5601329803467</t>
   </si>
   <si>
     <t xml:space="preserve">12.7754507064819</t>
@@ -2963,10 +2963,10 @@
     <t xml:space="preserve">12.596019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1522541046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1791687011719</t>
+    <t xml:space="preserve">13.1522531509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1791677474976</t>
   </si>
   <si>
     <t xml:space="preserve">13.2509422302246</t>
@@ -2990,10 +2990,10 @@
     <t xml:space="preserve">13.6008310317993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0984258651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9638509750366</t>
+    <t xml:space="preserve">13.098424911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9638519287109</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957992553711</t>
@@ -3005,7 +3005,7 @@
     <t xml:space="preserve">13.2778558731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6546602249146</t>
+    <t xml:space="preserve">13.6546592712402</t>
   </si>
   <si>
     <t xml:space="preserve">13.762318611145</t>
@@ -3014,25 +3014,25 @@
     <t xml:space="preserve">13.5380306243896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5739164352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.166036605835</t>
+    <t xml:space="preserve">13.5739154815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1660356521606</t>
   </si>
   <si>
     <t xml:space="preserve">14.3992958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4800405502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7760992050171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8837585449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7850704193115</t>
+    <t xml:space="preserve">14.4800395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7761001586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8837594985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7850713729858</t>
   </si>
   <si>
     <t xml:space="preserve">14.9465599060059</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">14.1122074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4710683822632</t>
+    <t xml:space="preserve">14.4710674285889</t>
   </si>
   <si>
     <t xml:space="preserve">14.0852928161621</t>
@@ -3056,28 +3056,28 @@
     <t xml:space="preserve">15.054217338562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0990734100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0093603134155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4130773544312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5835371017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7719402313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5207357406616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8389015197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0003890991211</t>
+    <t xml:space="preserve">15.0990743637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0093584060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4130792617798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5835399627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7719392776489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5207376480103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8389024734497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0003881454468</t>
   </si>
   <si>
     <t xml:space="preserve">15.152904510498</t>
@@ -3086,43 +3086,43 @@
     <t xml:space="preserve">16.7767505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.198413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4178886413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2564029693604</t>
+    <t xml:space="preserve">17.1984119415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4178867340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2564010620117</t>
   </si>
   <si>
     <t xml:space="preserve">16.3371448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3461170196533</t>
+    <t xml:space="preserve">16.3461151123047</t>
   </si>
   <si>
     <t xml:space="preserve">16.3640594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5614318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.843710899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782829284668</t>
+    <t xml:space="preserve">16.5614337921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8437128067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782838821411</t>
   </si>
   <si>
     <t xml:space="preserve">15.7629690170288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8526840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7360534667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6463394165039</t>
+    <t xml:space="preserve">15.8526849746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360544204712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6463384628296</t>
   </si>
   <si>
     <t xml:space="preserve">15.628396987915</t>
@@ -3131,22 +3131,22 @@
     <t xml:space="preserve">15.6911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6822242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6553106307983</t>
+    <t xml:space="preserve">15.682225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6553115844727</t>
   </si>
   <si>
     <t xml:space="preserve">15.466908454895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5386800765991</t>
+    <t xml:space="preserve">15.5386810302734</t>
   </si>
   <si>
     <t xml:space="preserve">15.8347396850586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4220504760742</t>
+    <t xml:space="preserve">15.4220523834229</t>
   </si>
   <si>
     <t xml:space="preserve">15.2874784469604</t>
@@ -3155,34 +3155,34 @@
     <t xml:space="preserve">15.2157039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4848508834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3143920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3951349258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3323345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5476512908936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.242621421814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5027933120728</t>
+    <t xml:space="preserve">15.4848518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3143930435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.395133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3323354721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5476522445679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2426195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5027942657471</t>
   </si>
   <si>
     <t xml:space="preserve">15.6642799377441</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091398239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2336483001709</t>
+    <t xml:space="preserve">15.7091388702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2336473464966</t>
   </si>
   <si>
     <t xml:space="preserve">14.8030138015747</t>
@@ -3194,22 +3194,22 @@
     <t xml:space="preserve">17.2253265380859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8981914520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.925106048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5531120300293</t>
+    <t xml:space="preserve">17.898193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9251041412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5531139373779</t>
   </si>
   <si>
     <t xml:space="preserve">18.7684288024902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3382625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9945526123047</t>
+    <t xml:space="preserve">19.338264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9945545196533</t>
   </si>
   <si>
     <t xml:space="preserve">19.2297248840332</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">19.3201751708984</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8809642791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4648952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6277084350586</t>
+    <t xml:space="preserve">19.8809661865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4648971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.62770652771</t>
   </si>
   <si>
     <t xml:space="preserve">19.5734348297119</t>
@@ -3245,10 +3245,10 @@
     <t xml:space="preserve">19.0669136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6870231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1935443878174</t>
+    <t xml:space="preserve">18.6870250701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.193546295166</t>
   </si>
   <si>
     <t xml:space="preserve">19.0307350158691</t>
@@ -3263,16 +3263,16 @@
     <t xml:space="preserve">18.777473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7412948608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.632755279541</t>
+    <t xml:space="preserve">18.7412929534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6327533721924</t>
   </si>
   <si>
     <t xml:space="preserve">18.5061225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.289041519165</t>
+    <t xml:space="preserve">18.2890434265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.3794918060303</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">17.9905548095703</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8277435302734</t>
+    <t xml:space="preserve">17.8277454376221</t>
   </si>
   <si>
     <t xml:space="preserve">17.601619720459</t>
@@ -3305,7 +3305,7 @@
     <t xml:space="preserve">17.9272422790527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4518508911133</t>
+    <t xml:space="preserve">18.4518527984619</t>
   </si>
   <si>
     <t xml:space="preserve">18.3071327209473</t>
@@ -3314,16 +3314,16 @@
     <t xml:space="preserve">17.9453315734863</t>
   </si>
   <si>
-    <t xml:space="preserve">17.655891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8056583404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5523948669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9594230651855</t>
+    <t xml:space="preserve">17.6558895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8056602478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.552396774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9594249725342</t>
   </si>
   <si>
     <t xml:space="preserve">17.0770092010498</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">17.8458347320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.701114654541</t>
+    <t xml:space="preserve">17.7011165618896</t>
   </si>
   <si>
     <t xml:space="preserve">17.8367900848389</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">17.8729705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528610229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2166805267334</t>
+    <t xml:space="preserve">18.2528629302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.216682434082</t>
   </si>
   <si>
     <t xml:space="preserve">17.9996013641357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0900535583496</t>
+    <t xml:space="preserve">18.090051651001</t>
   </si>
   <si>
     <t xml:space="preserve">17.3212242126465</t>
@@ -3365,28 +3365,28 @@
     <t xml:space="preserve">17.8006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6197109222412</t>
+    <t xml:space="preserve">17.6197090148926</t>
   </si>
   <si>
     <t xml:space="preserve">17.4026298522949</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8187026977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4207210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1674575805664</t>
+    <t xml:space="preserve">17.8187007904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4207191467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.167459487915</t>
   </si>
   <si>
     <t xml:space="preserve">17.1312789916992</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1131896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9232425689697</t>
+    <t xml:space="preserve">17.113187789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9232444763184</t>
   </si>
   <si>
     <t xml:space="preserve">17.2488651275635</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">18.3433132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1443214416504</t>
+    <t xml:space="preserve">18.144323348999</t>
   </si>
   <si>
     <t xml:space="preserve">18.0448265075684</t>
@@ -3410,16 +3410,16 @@
     <t xml:space="preserve">17.7463417053223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4930801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1855506896973</t>
+    <t xml:space="preserve">17.4930782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1855487823486</t>
   </si>
   <si>
     <t xml:space="preserve">17.0317840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9322891235352</t>
+    <t xml:space="preserve">16.9322872161865</t>
   </si>
   <si>
     <t xml:space="preserve">16.8327922821045</t>
@@ -3428,10 +3428,10 @@
     <t xml:space="preserve">16.8237476348877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7332992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4167213439941</t>
+    <t xml:space="preserve">16.7332973480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4167232513428</t>
   </si>
   <si>
     <t xml:space="preserve">16.2810459136963</t>
@@ -3458,28 +3458,28 @@
     <t xml:space="preserve">15.7654809951782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4308137893677</t>
+    <t xml:space="preserve">15.430814743042</t>
   </si>
   <si>
     <t xml:space="preserve">15.7202548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4127254486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6207590103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5845804214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217691421509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5122184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5031747817993</t>
+    <t xml:space="preserve">15.4127244949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6207599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5845785140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5122203826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.503173828125</t>
   </si>
   <si>
     <t xml:space="preserve">15.9011554718018</t>
@@ -3488,19 +3488,19 @@
     <t xml:space="preserve">15.5483999252319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4850845336914</t>
+    <t xml:space="preserve">15.4850854873657</t>
   </si>
   <si>
     <t xml:space="preserve">15.3765439987183</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2137327194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0056991577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7795715332031</t>
+    <t xml:space="preserve">15.21373462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0056982040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7795724868774</t>
   </si>
   <si>
     <t xml:space="preserve">14.3725461959839</t>
@@ -3512,16 +3512,16 @@
     <t xml:space="preserve">14.2097358703613</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2640066146851</t>
+    <t xml:space="preserve">14.2640056610107</t>
   </si>
   <si>
     <t xml:space="preserve">14.5715370178223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6619863510132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6891212463379</t>
+    <t xml:space="preserve">14.6619873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6891222000122</t>
   </si>
   <si>
     <t xml:space="preserve">14.725302696228</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">14.3182764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343074798584</t>
+    <t xml:space="preserve">16.534309387207</t>
   </si>
   <si>
     <t xml:space="preserve">14.9333381652832</t>
@@ -3542,7 +3542,7 @@
     <t xml:space="preserve">14.5624923706055</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4991769790649</t>
+    <t xml:space="preserve">14.4991760253906</t>
   </si>
   <si>
     <t xml:space="preserve">14.4358615875244</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">14.1826009750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.965518951416</t>
+    <t xml:space="preserve">13.9655199050903</t>
   </si>
   <si>
     <t xml:space="preserve">14.1373748779297</t>
@@ -3566,16 +3566,16 @@
     <t xml:space="preserve">13.3775939941406</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7574844360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4770889282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2871417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7393932342529</t>
+    <t xml:space="preserve">13.7574834823608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4770879745483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2871427536011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7393941879272</t>
   </si>
   <si>
     <t xml:space="preserve">14.0197906494141</t>
@@ -3584,10 +3584,10 @@
     <t xml:space="preserve">13.8931589126587</t>
   </si>
   <si>
-    <t xml:space="preserve">13.920295715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5404043197632</t>
+    <t xml:space="preserve">13.9202947616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5404033660889</t>
   </si>
   <si>
     <t xml:space="preserve">13.5765838623047</t>
@@ -3596,13 +3596,13 @@
     <t xml:space="preserve">13.9836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6670331954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6127643585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8117551803589</t>
+    <t xml:space="preserve">13.6670341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6127634048462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8117542266846</t>
   </si>
   <si>
     <t xml:space="preserve">13.7936639785767</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">13.8569793701172</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8388891220093</t>
+    <t xml:space="preserve">13.8388900756836</t>
   </si>
   <si>
     <t xml:space="preserve">13.9474296569824</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">13.9293394088745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0740604400635</t>
+    <t xml:space="preserve">14.0740613937378</t>
   </si>
   <si>
     <t xml:space="preserve">13.8027095794678</t>
@@ -3632,7 +3632,7 @@
     <t xml:space="preserve">13.5132684707642</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1786022186279</t>
+    <t xml:space="preserve">13.1786031723022</t>
   </si>
   <si>
     <t xml:space="preserve">13.3142786026001</t>
@@ -3647,13 +3647,13 @@
     <t xml:space="preserve">13.0248365402222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8439359664917</t>
+    <t xml:space="preserve">12.843936920166</t>
   </si>
   <si>
     <t xml:space="preserve">12.8891611099243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.961522102356</t>
+    <t xml:space="preserve">12.9615230560303</t>
   </si>
   <si>
     <t xml:space="preserve">12.7353963851929</t>
@@ -3662,13 +3662,13 @@
     <t xml:space="preserve">11.9575242996216</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8942079544067</t>
+    <t xml:space="preserve">11.8942089080811</t>
   </si>
   <si>
     <t xml:space="preserve">12.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2198305130005</t>
+    <t xml:space="preserve">12.2198295593262</t>
   </si>
   <si>
     <t xml:space="preserve">12.15651512146</t>
@@ -3689,16 +3689,16 @@
     <t xml:space="preserve">11.4057779312134</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1977415084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5233631134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4238681793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3334159851074</t>
+    <t xml:space="preserve">11.1977424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.523362159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.423867225647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3334169387817</t>
   </si>
   <si>
     <t xml:space="preserve">11.1072912216187</t>
@@ -3710,22 +3710,22 @@
     <t xml:space="preserve">11.4871826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.695219039917</t>
+    <t xml:space="preserve">11.6952180862427</t>
   </si>
   <si>
     <t xml:space="preserve">11.4781379699707</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0258855819702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2520122528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2248764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9806623458862</t>
+    <t xml:space="preserve">11.0258865356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2520112991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2248773574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9806613922119</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424625396729</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">10.5103197097778</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99475383758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79576301574707</t>
+    <t xml:space="preserve">9.99475288391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79576396942139</t>
   </si>
   <si>
     <t xml:space="preserve">9.82289791107178</t>
@@ -3752,34 +3752,34 @@
     <t xml:space="preserve">10.3113288879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1123380661011</t>
+    <t xml:space="preserve">10.1123390197754</t>
   </si>
   <si>
     <t xml:space="preserve">9.67817783355713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86812305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87769222259521</t>
+    <t xml:space="preserve">9.86812400817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87769317626953</t>
   </si>
   <si>
     <t xml:space="preserve">9.25306129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12643051147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1083402633667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49727630615234</t>
+    <t xml:space="preserve">9.12643146514893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10834121704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49727725982666</t>
   </si>
   <si>
     <t xml:space="preserve">9.28924179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0721607208252</t>
+    <t xml:space="preserve">9.07216167449951</t>
   </si>
   <si>
     <t xml:space="preserve">8.93648529052734</t>
@@ -3794,16 +3794,16 @@
     <t xml:space="preserve">8.91839504241943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85507965087891</t>
+    <t xml:space="preserve">8.85508060455322</t>
   </si>
   <si>
     <t xml:space="preserve">8.84151268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.497802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46162128448486</t>
+    <t xml:space="preserve">8.49780178070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46162223815918</t>
   </si>
   <si>
     <t xml:space="preserve">8.66061210632324</t>
@@ -3812,7 +3812,7 @@
     <t xml:space="preserve">8.57468414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49327945709229</t>
+    <t xml:space="preserve">8.49327850341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.48423480987549</t>
@@ -3821,7 +3821,7 @@
     <t xml:space="preserve">8.47518920898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5837287902832</t>
+    <t xml:space="preserve">8.58372974395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.5339822769165</t>
@@ -3830,7 +3830,7 @@
     <t xml:space="preserve">8.64704513549805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34855842590332</t>
+    <t xml:space="preserve">8.34855937957764</t>
   </si>
   <si>
     <t xml:space="preserve">8.2988109588623</t>
@@ -3851,7 +3851,7 @@
     <t xml:space="preserve">8.33951377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24001789093018</t>
+    <t xml:space="preserve">8.24001884460449</t>
   </si>
   <si>
     <t xml:space="preserve">8.10434246063232</t>
@@ -3866,21 +3866,24 @@
     <t xml:space="preserve">7.77872276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89630699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86464929580688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9912805557251</t>
+    <t xml:space="preserve">7.89630794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86464977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99128103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8782172203064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16861534118652</t>
   </si>
   <si>
     <t xml:space="preserve">7.87821769714355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16861534118652</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.82201099395752</t>
   </si>
   <si>
@@ -5097,6 +5100,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.51999998092651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42000007629395</t>
   </si>
 </sst>
 </file>
@@ -47706,7 +47712,7 @@
         <v>8.40999984741211</v>
       </c>
       <c r="G1626" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -47732,7 +47738,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G1627" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -47758,7 +47764,7 @@
         <v>8.80500030517578</v>
       </c>
       <c r="G1628" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -47784,7 +47790,7 @@
         <v>8.83500003814697</v>
       </c>
       <c r="G1629" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -47810,7 +47816,7 @@
         <v>9.14000034332275</v>
       </c>
       <c r="G1630" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -47836,7 +47842,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1631" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -47862,7 +47868,7 @@
         <v>8.6850004196167</v>
       </c>
       <c r="G1632" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -47888,7 +47894,7 @@
         <v>8.65499973297119</v>
       </c>
       <c r="G1633" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -47914,7 +47920,7 @@
         <v>8.38000011444092</v>
       </c>
       <c r="G1634" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -47940,7 +47946,7 @@
         <v>8.57499980926514</v>
       </c>
       <c r="G1635" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -47966,7 +47972,7 @@
         <v>8.41499996185303</v>
       </c>
       <c r="G1636" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -47992,7 +47998,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1637" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -48018,7 +48024,7 @@
         <v>8.27000045776367</v>
       </c>
       <c r="G1638" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -48044,7 +48050,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1639" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -48070,7 +48076,7 @@
         <v>7.63500022888184</v>
       </c>
       <c r="G1640" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -48096,7 +48102,7 @@
         <v>7.54500007629395</v>
       </c>
       <c r="G1641" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -48122,7 +48128,7 @@
         <v>7.71500015258789</v>
       </c>
       <c r="G1642" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -48148,7 +48154,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G1643" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -48174,7 +48180,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1644" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -48200,7 +48206,7 @@
         <v>7.71500015258789</v>
       </c>
       <c r="G1645" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -48226,7 +48232,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1646" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -48252,7 +48258,7 @@
         <v>7.65000009536743</v>
       </c>
       <c r="G1647" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -48278,7 +48284,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1648" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -48304,7 +48310,7 @@
         <v>7.56500005722046</v>
       </c>
       <c r="G1649" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -48330,7 +48336,7 @@
         <v>7.44500017166138</v>
       </c>
       <c r="G1650" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -48356,7 +48362,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G1651" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -48382,7 +48388,7 @@
         <v>7.33500003814697</v>
       </c>
       <c r="G1652" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -48408,7 +48414,7 @@
         <v>7.08500003814697</v>
       </c>
       <c r="G1653" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -48434,7 +48440,7 @@
         <v>7.1100001335144</v>
       </c>
       <c r="G1654" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -48460,7 +48466,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="G1655" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -48486,7 +48492,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G1656" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -48512,7 +48518,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1657" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -48538,7 +48544,7 @@
         <v>7.13000011444092</v>
       </c>
       <c r="G1658" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -48564,7 +48570,7 @@
         <v>7.16499996185303</v>
       </c>
       <c r="G1659" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -48590,7 +48596,7 @@
         <v>7.17999982833862</v>
       </c>
       <c r="G1660" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -48616,7 +48622,7 @@
         <v>7.04500007629395</v>
       </c>
       <c r="G1661" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -48642,7 +48648,7 @@
         <v>6.8600001335144</v>
       </c>
       <c r="G1662" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -48668,7 +48674,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1663" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -48694,7 +48700,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1664" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -48720,7 +48726,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G1665" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -48746,7 +48752,7 @@
         <v>7.13500022888184</v>
       </c>
       <c r="G1666" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -48772,7 +48778,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1667" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -48798,7 +48804,7 @@
         <v>7.26999998092651</v>
       </c>
       <c r="G1668" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -48824,7 +48830,7 @@
         <v>7.21500015258789</v>
       </c>
       <c r="G1669" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -48850,7 +48856,7 @@
         <v>7.19000005722046</v>
       </c>
       <c r="G1670" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -48876,7 +48882,7 @@
         <v>7.11499977111816</v>
       </c>
       <c r="G1671" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -48902,7 +48908,7 @@
         <v>7.28499984741211</v>
       </c>
       <c r="G1672" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -48928,7 +48934,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1673" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -48954,7 +48960,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1674" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -48980,7 +48986,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1675" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -49006,7 +49012,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1676" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -49032,7 +49038,7 @@
         <v>8.11499977111816</v>
       </c>
       <c r="G1677" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -49058,7 +49064,7 @@
         <v>8.0649995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -49084,7 +49090,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G1679" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -49110,7 +49116,7 @@
         <v>7.88000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -49136,7 +49142,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G1681" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -49162,7 +49168,7 @@
         <v>7.69500017166138</v>
       </c>
       <c r="G1682" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -49188,7 +49194,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G1683" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -49214,7 +49220,7 @@
         <v>7.67000007629395</v>
       </c>
       <c r="G1684" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -49240,7 +49246,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1685" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49266,7 +49272,7 @@
         <v>7.47499990463257</v>
       </c>
       <c r="G1686" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -49292,7 +49298,7 @@
         <v>7.86999988555908</v>
       </c>
       <c r="G1687" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -49318,7 +49324,7 @@
         <v>8.125</v>
       </c>
       <c r="G1688" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -49344,7 +49350,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1689" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -49370,7 +49376,7 @@
         <v>7.875</v>
       </c>
       <c r="G1690" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -49396,7 +49402,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1691" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -49422,7 +49428,7 @@
         <v>8.90499973297119</v>
       </c>
       <c r="G1692" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -49448,7 +49454,7 @@
         <v>9.14999961853027</v>
       </c>
       <c r="G1693" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -49474,7 +49480,7 @@
         <v>9</v>
       </c>
       <c r="G1694" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -49500,7 +49506,7 @@
         <v>8.66499996185303</v>
       </c>
       <c r="G1695" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -49526,7 +49532,7 @@
         <v>8.5649995803833</v>
       </c>
       <c r="G1696" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -49552,7 +49558,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1697" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -49578,7 +49584,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1698" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -49604,7 +49610,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G1699" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -49630,7 +49636,7 @@
         <v>8.21000003814697</v>
       </c>
       <c r="G1700" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -49656,7 +49662,7 @@
         <v>8.07999992370605</v>
       </c>
       <c r="G1701" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -49682,7 +49688,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G1702" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -49708,7 +49714,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G1703" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -49734,7 +49740,7 @@
         <v>8.25</v>
       </c>
       <c r="G1704" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -49760,7 +49766,7 @@
         <v>8.43000030517578</v>
       </c>
       <c r="G1705" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -49786,7 +49792,7 @@
         <v>8.31999969482422</v>
       </c>
       <c r="G1706" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -49812,7 +49818,7 @@
         <v>7.92999982833862</v>
       </c>
       <c r="G1707" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -49838,7 +49844,7 @@
         <v>7.8899998664856</v>
       </c>
       <c r="G1708" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -49864,7 +49870,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="G1709" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -49890,7 +49896,7 @@
         <v>7.10500001907349</v>
       </c>
       <c r="G1710" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -49916,7 +49922,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1711" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -49942,7 +49948,7 @@
         <v>7.04500007629395</v>
       </c>
       <c r="G1712" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -49968,7 +49974,7 @@
         <v>6.80499982833862</v>
       </c>
       <c r="G1713" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -49994,7 +50000,7 @@
         <v>6.875</v>
       </c>
       <c r="G1714" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -50020,7 +50026,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G1715" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -50046,7 +50052,7 @@
         <v>6.625</v>
       </c>
       <c r="G1716" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -50072,7 +50078,7 @@
         <v>6.28499984741211</v>
       </c>
       <c r="G1717" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -50098,7 +50104,7 @@
         <v>6.53000020980835</v>
       </c>
       <c r="G1718" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -50124,7 +50130,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1719" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -50150,7 +50156,7 @@
         <v>6.98000001907349</v>
       </c>
       <c r="G1720" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -50176,7 +50182,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1721" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -50202,7 +50208,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G1722" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -50228,7 +50234,7 @@
         <v>6.8899998664856</v>
       </c>
       <c r="G1723" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -50254,7 +50260,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1724" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -50280,7 +50286,7 @@
         <v>7.05000019073486</v>
       </c>
       <c r="G1725" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -50306,7 +50312,7 @@
         <v>6.88000011444092</v>
       </c>
       <c r="G1726" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -50332,7 +50338,7 @@
         <v>6.92999982833862</v>
       </c>
       <c r="G1727" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -50358,7 +50364,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1728" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -50384,7 +50390,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1729" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -50410,7 +50416,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="G1730" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -50436,7 +50442,7 @@
         <v>7.17000007629395</v>
       </c>
       <c r="G1731" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -50462,7 +50468,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1732" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -50488,7 +50494,7 @@
         <v>7.09999990463257</v>
       </c>
       <c r="G1733" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -50514,7 +50520,7 @@
         <v>7.1399998664856</v>
       </c>
       <c r="G1734" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -50540,7 +50546,7 @@
         <v>7.29500007629395</v>
       </c>
       <c r="G1735" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -50566,7 +50572,7 @@
         <v>7.44999980926514</v>
       </c>
       <c r="G1736" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -50592,7 +50598,7 @@
         <v>7.82000017166138</v>
       </c>
       <c r="G1737" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -50618,7 +50624,7 @@
         <v>7.76999998092651</v>
       </c>
       <c r="G1738" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -50644,7 +50650,7 @@
         <v>7.69999980926514</v>
       </c>
       <c r="G1739" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -50670,7 +50676,7 @@
         <v>7.49499988555908</v>
       </c>
       <c r="G1740" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -50696,7 +50702,7 @@
         <v>7.20499992370605</v>
       </c>
       <c r="G1741" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -50722,7 +50728,7 @@
         <v>7.32999992370605</v>
       </c>
       <c r="G1742" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -50748,7 +50754,7 @@
         <v>7.4850001335144</v>
       </c>
       <c r="G1743" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -50774,7 +50780,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G1744" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -50800,7 +50806,7 @@
         <v>7.75</v>
       </c>
       <c r="G1745" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -50826,7 +50832,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G1746" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -50852,7 +50858,7 @@
         <v>7.9850001335144</v>
       </c>
       <c r="G1747" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -50878,7 +50884,7 @@
         <v>8.69999980926514</v>
       </c>
       <c r="G1748" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -50904,7 +50910,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1749" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -50930,7 +50936,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1750" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -50956,7 +50962,7 @@
         <v>8.53499984741211</v>
       </c>
       <c r="G1751" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -50982,7 +50988,7 @@
         <v>8.4350004196167</v>
       </c>
       <c r="G1752" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -51008,7 +51014,7 @@
         <v>8.51000022888184</v>
       </c>
       <c r="G1753" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -51034,7 +51040,7 @@
         <v>8.47000026702881</v>
       </c>
       <c r="G1754" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -51060,7 +51066,7 @@
         <v>8.39999961853027</v>
       </c>
       <c r="G1755" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -51086,7 +51092,7 @@
         <v>8.65499973297119</v>
       </c>
       <c r="G1756" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -51112,7 +51118,7 @@
         <v>8.85499954223633</v>
       </c>
       <c r="G1757" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -51138,7 +51144,7 @@
         <v>8.90499973297119</v>
       </c>
       <c r="G1758" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -51164,7 +51170,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1759" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -51190,7 +51196,7 @@
         <v>8.51500034332275</v>
       </c>
       <c r="G1760" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -51216,7 +51222,7 @@
         <v>8.44999980926514</v>
       </c>
       <c r="G1761" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -51242,7 +51248,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1762" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -51268,7 +51274,7 @@
         <v>8.67500019073486</v>
       </c>
       <c r="G1763" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -51294,7 +51300,7 @@
         <v>8.61999988555908</v>
       </c>
       <c r="G1764" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -51320,7 +51326,7 @@
         <v>8.46000003814697</v>
       </c>
       <c r="G1765" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -51346,7 +51352,7 @@
         <v>8.29500007629395</v>
       </c>
       <c r="G1766" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -51372,7 +51378,7 @@
         <v>8.35999965667725</v>
       </c>
       <c r="G1767" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -51398,7 +51404,7 @@
         <v>8.36499977111816</v>
       </c>
       <c r="G1768" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -51424,7 +51430,7 @@
         <v>8.27499961853027</v>
       </c>
       <c r="G1769" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -51450,7 +51456,7 @@
         <v>8.4350004196167</v>
       </c>
       <c r="G1770" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -51476,7 +51482,7 @@
         <v>8.29500007629395</v>
       </c>
       <c r="G1771" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -51502,7 +51508,7 @@
         <v>8.01500034332275</v>
       </c>
       <c r="G1772" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -51528,7 +51534,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1773" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -51554,7 +51560,7 @@
         <v>7.86499977111816</v>
       </c>
       <c r="G1774" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -51580,7 +51586,7 @@
         <v>7.72499990463257</v>
       </c>
       <c r="G1775" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -51606,7 +51612,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G1776" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -51632,7 +51638,7 @@
         <v>7.97499990463257</v>
       </c>
       <c r="G1777" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -51658,7 +51664,7 @@
         <v>8.23999977111816</v>
       </c>
       <c r="G1778" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -51684,7 +51690,7 @@
         <v>8.17000007629395</v>
       </c>
       <c r="G1779" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -51710,7 +51716,7 @@
         <v>8.1850004196167</v>
       </c>
       <c r="G1780" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -51736,7 +51742,7 @@
         <v>8.36499977111816</v>
       </c>
       <c r="G1781" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -51762,7 +51768,7 @@
         <v>8.32499980926514</v>
       </c>
       <c r="G1782" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -51788,7 +51794,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G1783" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -51814,7 +51820,7 @@
         <v>8.64500045776367</v>
       </c>
       <c r="G1784" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -51840,7 +51846,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G1785" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -51866,7 +51872,7 @@
         <v>9.14500045776367</v>
       </c>
       <c r="G1786" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -51892,7 +51898,7 @@
         <v>9.17000007629395</v>
       </c>
       <c r="G1787" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -51918,7 +51924,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1788" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -51944,7 +51950,7 @@
         <v>9.65999984741211</v>
       </c>
       <c r="G1789" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -51970,7 +51976,7 @@
         <v>9.80000019073486</v>
       </c>
       <c r="G1790" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -51996,7 +52002,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G1791" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -52022,7 +52028,7 @@
         <v>9.49499988555908</v>
       </c>
       <c r="G1792" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -52048,7 +52054,7 @@
         <v>9.67500019073486</v>
       </c>
       <c r="G1793" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -52074,7 +52080,7 @@
         <v>9.64999961853027</v>
       </c>
       <c r="G1794" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -52100,7 +52106,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1795" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -52126,7 +52132,7 @@
         <v>9.44999980926514</v>
       </c>
       <c r="G1796" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -52152,7 +52158,7 @@
         <v>9.6899995803833</v>
       </c>
       <c r="G1797" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -52178,7 +52184,7 @@
         <v>9.74499988555908</v>
       </c>
       <c r="G1798" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -52204,7 +52210,7 @@
         <v>9.61999988555908</v>
       </c>
       <c r="G1799" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -52230,7 +52236,7 @@
         <v>9.5649995803833</v>
       </c>
       <c r="G1800" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -52256,7 +52262,7 @@
         <v>9.54500007629395</v>
       </c>
       <c r="G1801" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -52282,7 +52288,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1802" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -52308,7 +52314,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1803" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -52334,7 +52340,7 @@
         <v>9.22500038146973</v>
       </c>
       <c r="G1804" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -52360,7 +52366,7 @@
         <v>9.21500015258789</v>
       </c>
       <c r="G1805" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -52386,7 +52392,7 @@
         <v>9.32999992370605</v>
       </c>
       <c r="G1806" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -52412,7 +52418,7 @@
         <v>9.25</v>
       </c>
       <c r="G1807" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -52438,7 +52444,7 @@
         <v>9.01500034332275</v>
       </c>
       <c r="G1808" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -52464,7 +52470,7 @@
         <v>9.00500011444092</v>
       </c>
       <c r="G1809" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -52490,7 +52496,7 @@
         <v>9.03999996185303</v>
       </c>
       <c r="G1810" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -52516,7 +52522,7 @@
         <v>9.03499984741211</v>
       </c>
       <c r="G1811" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -52542,7 +52548,7 @@
         <v>8.875</v>
       </c>
       <c r="G1812" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -52568,7 +52574,7 @@
         <v>8.80500030517578</v>
       </c>
       <c r="G1813" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -52594,7 +52600,7 @@
         <v>8.80500030517578</v>
       </c>
       <c r="G1814" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -52620,7 +52626,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1815" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -52646,7 +52652,7 @@
         <v>8.76500034332275</v>
       </c>
       <c r="G1816" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -52672,7 +52678,7 @@
         <v>8.67500019073486</v>
       </c>
       <c r="G1817" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -52698,7 +52704,7 @@
         <v>8.58500003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -52724,7 +52730,7 @@
         <v>8.42500019073486</v>
       </c>
       <c r="G1819" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -52750,7 +52756,7 @@
         <v>8.22999954223633</v>
       </c>
       <c r="G1820" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -52776,7 +52782,7 @@
         <v>8.51500034332275</v>
       </c>
       <c r="G1821" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -52802,7 +52808,7 @@
         <v>8.66499996185303</v>
       </c>
       <c r="G1822" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -52828,7 +52834,7 @@
         <v>8.77499961853027</v>
       </c>
       <c r="G1823" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -52854,7 +52860,7 @@
         <v>8.82499980926514</v>
       </c>
       <c r="G1824" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -52880,7 +52886,7 @@
         <v>8.73499965667725</v>
       </c>
       <c r="G1825" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -52906,7 +52912,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1826" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -52932,7 +52938,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G1827" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -52958,7 +52964,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G1828" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -52984,7 +52990,7 @@
         <v>8.86999988555908</v>
       </c>
       <c r="G1829" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -53010,7 +53016,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1830" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -53036,7 +53042,7 @@
         <v>8.9350004196167</v>
       </c>
       <c r="G1831" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -53062,7 +53068,7 @@
         <v>8.72999954223633</v>
       </c>
       <c r="G1832" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -53088,7 +53094,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G1833" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -53114,7 +53120,7 @@
         <v>7.63000011444092</v>
       </c>
       <c r="G1834" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -53140,7 +53146,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G1835" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -53166,7 +53172,7 @@
         <v>8.02999973297119</v>
       </c>
       <c r="G1836" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -53192,7 +53198,7 @@
         <v>7.90500020980835</v>
       </c>
       <c r="G1837" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -53218,7 +53224,7 @@
         <v>8.05500030517578</v>
       </c>
       <c r="G1838" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -53244,7 +53250,7 @@
         <v>7.93499994277954</v>
       </c>
       <c r="G1839" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -53270,7 +53276,7 @@
         <v>7.80000019073486</v>
       </c>
       <c r="G1840" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -53296,7 +53302,7 @@
         <v>7.69000005722046</v>
       </c>
       <c r="G1841" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -53322,7 +53328,7 @@
         <v>7.67500019073486</v>
       </c>
       <c r="G1842" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -53348,7 +53354,7 @@
         <v>7.45499992370605</v>
       </c>
       <c r="G1843" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -53374,7 +53380,7 @@
         <v>7.38500022888184</v>
       </c>
       <c r="G1844" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -53400,7 +53406,7 @@
         <v>7.56500005722046</v>
       </c>
       <c r="G1845" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -53426,7 +53432,7 @@
         <v>7.52500009536743</v>
       </c>
       <c r="G1846" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -53452,7 +53458,7 @@
         <v>7.72499990463257</v>
       </c>
       <c r="G1847" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -53478,7 +53484,7 @@
         <v>7.81500005722046</v>
       </c>
       <c r="G1848" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -53504,7 +53510,7 @@
         <v>7.71000003814697</v>
       </c>
       <c r="G1849" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -53530,7 +53536,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1850" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -53556,7 +53562,7 @@
         <v>7.60500001907349</v>
       </c>
       <c r="G1851" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -53582,7 +53588,7 @@
         <v>7.56500005722046</v>
       </c>
       <c r="G1852" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -53608,7 +53614,7 @@
         <v>7.53999996185303</v>
       </c>
       <c r="G1853" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -53634,7 +53640,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1854" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -53660,7 +53666,7 @@
         <v>7.59999990463257</v>
       </c>
       <c r="G1855" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -53686,7 +53692,7 @@
         <v>7.55499982833862</v>
       </c>
       <c r="G1856" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -53712,7 +53718,7 @@
         <v>7.59000015258789</v>
       </c>
       <c r="G1857" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -53738,7 +53744,7 @@
         <v>7.42999982833862</v>
       </c>
       <c r="G1858" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -53764,7 +53770,7 @@
         <v>7.61999988555908</v>
       </c>
       <c r="G1859" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -53790,7 +53796,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G1860" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -53816,7 +53822,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1861" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -53842,7 +53848,7 @@
         <v>7.40999984741211</v>
       </c>
       <c r="G1862" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -53868,7 +53874,7 @@
         <v>7.34999990463257</v>
       </c>
       <c r="G1863" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -53894,7 +53900,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G1864" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -53920,7 +53926,7 @@
         <v>7.5149998664856</v>
       </c>
       <c r="G1865" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -53946,7 +53952,7 @@
         <v>7.46000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -53972,7 +53978,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G1867" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -53998,7 +54004,7 @@
         <v>7.38000011444092</v>
       </c>
       <c r="G1868" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -54024,7 +54030,7 @@
         <v>7.61499977111816</v>
       </c>
       <c r="G1869" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -54050,7 +54056,7 @@
         <v>7.68499994277954</v>
       </c>
       <c r="G1870" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -54076,7 +54082,7 @@
         <v>7.57000017166138</v>
       </c>
       <c r="G1871" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -54102,7 +54108,7 @@
         <v>7.39499998092651</v>
       </c>
       <c r="G1872" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -54128,7 +54134,7 @@
         <v>7.41499996185303</v>
       </c>
       <c r="G1873" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -54154,7 +54160,7 @@
         <v>7.26000022888184</v>
       </c>
       <c r="G1874" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -54180,7 +54186,7 @@
         <v>7.25500011444092</v>
       </c>
       <c r="G1875" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -54206,7 +54212,7 @@
         <v>7.05499982833862</v>
       </c>
       <c r="G1876" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -54232,7 +54238,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G1877" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -54258,7 +54264,7 @@
         <v>6.90999984741211</v>
       </c>
       <c r="G1878" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -54284,7 +54290,7 @@
         <v>7.03499984741211</v>
       </c>
       <c r="G1879" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -54310,7 +54316,7 @@
         <v>7.04500007629395</v>
       </c>
       <c r="G1880" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -54336,7 +54342,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1881" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -54362,7 +54368,7 @@
         <v>6.7350001335144</v>
       </c>
       <c r="G1882" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54388,7 +54394,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1883" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54414,7 +54420,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1884" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54440,7 +54446,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G1885" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54466,7 +54472,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1886" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54492,7 +54498,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1887" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54518,7 +54524,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1888" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54544,7 +54550,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1889" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54570,7 +54576,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1890" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54596,7 +54602,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G1891" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54622,7 +54628,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G1892" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54648,7 +54654,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G1893" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54674,7 +54680,7 @@
         <v>6.99499988555908</v>
       </c>
       <c r="G1894" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54700,7 +54706,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54726,7 +54732,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G1896" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54752,7 +54758,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1897" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54778,7 +54784,7 @@
         <v>7.18499994277954</v>
       </c>
       <c r="G1898" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54804,7 +54810,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54830,7 +54836,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1900" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54856,7 +54862,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1901" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54882,7 +54888,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G1902" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54908,7 +54914,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1903" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54934,7 +54940,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G1904" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54960,7 +54966,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G1905" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -54986,7 +54992,7 @@
         <v>6.75</v>
       </c>
       <c r="G1906" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55012,7 +55018,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1907" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55038,7 +55044,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1908" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55064,7 +55070,7 @@
         <v>6.94999980926514</v>
       </c>
       <c r="G1909" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55090,7 +55096,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55116,7 +55122,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1911" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55142,7 +55148,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G1912" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55168,7 +55174,7 @@
         <v>6.625</v>
       </c>
       <c r="G1913" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55194,7 +55200,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1914" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55220,7 +55226,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55246,7 +55252,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55272,7 +55278,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G1917" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55298,7 +55304,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1918" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55324,7 +55330,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1919" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55350,7 +55356,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1920" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55376,7 +55382,7 @@
         <v>6.70499992370605</v>
       </c>
       <c r="G1921" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55402,7 +55408,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55428,7 +55434,7 @@
         <v>6.70499992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55454,7 +55460,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1924" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55480,7 +55486,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1925" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55506,7 +55512,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1926" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55532,7 +55538,7 @@
         <v>6.54500007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55558,7 +55564,7 @@
         <v>6.64499998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55584,7 +55590,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1929" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55610,7 +55616,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1930" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55636,7 +55642,7 @@
         <v>6.625</v>
       </c>
       <c r="G1931" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55662,7 +55668,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1932" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55688,7 +55694,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1933" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55714,7 +55720,7 @@
         <v>5.60500001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55740,7 +55746,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G1935" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55766,7 +55772,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55792,7 +55798,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1937" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55818,7 +55824,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1938" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55844,7 +55850,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1939" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55870,7 +55876,7 @@
         <v>6.2350001335144</v>
       </c>
       <c r="G1940" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55896,7 +55902,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G1941" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55922,7 +55928,7 @@
         <v>6.24499988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55948,7 +55954,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55974,7 +55980,7 @@
         <v>6.125</v>
       </c>
       <c r="G1944" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56000,7 +56006,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1945" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56026,7 +56032,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56052,7 +56058,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G1947" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56078,7 +56084,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1948" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56104,7 +56110,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G1949" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56130,7 +56136,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1950" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56156,7 +56162,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1951" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56182,7 +56188,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G1952" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56208,7 +56214,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1953" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56234,7 +56240,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G1954" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56260,7 +56266,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1955" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56286,7 +56292,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G1956" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56312,7 +56318,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1957" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56338,7 +56344,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1958" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56364,7 +56370,7 @@
         <v>6.36499977111816</v>
       </c>
       <c r="G1959" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56390,7 +56396,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56416,7 +56422,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1961" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56442,7 +56448,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1962" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56468,7 +56474,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1963" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56494,7 +56500,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G1964" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56520,7 +56526,7 @@
         <v>5.9850001335144</v>
       </c>
       <c r="G1965" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56546,7 +56552,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G1966" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56572,7 +56578,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1967" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56598,7 +56604,7 @@
         <v>5.9850001335144</v>
       </c>
       <c r="G1968" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56624,7 +56630,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1969" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56650,7 +56656,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56676,7 +56682,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1971" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56702,7 +56708,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G1972" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56728,7 +56734,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1973" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56754,7 +56760,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G1974" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56780,7 +56786,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1975" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56806,7 +56812,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G1976" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56832,7 +56838,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1977" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56858,7 +56864,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56884,7 +56890,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1979" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56910,7 +56916,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G1980" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56936,7 +56942,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G1981" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56962,7 +56968,7 @@
         <v>5.79500007629395</v>
       </c>
       <c r="G1982" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -56988,7 +56994,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G1983" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57014,7 +57020,7 @@
         <v>5.63500022888184</v>
       </c>
       <c r="G1984" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57040,7 +57046,7 @@
         <v>5.69500017166138</v>
       </c>
       <c r="G1985" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57066,7 +57072,7 @@
         <v>5.55499982833862</v>
       </c>
       <c r="G1986" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57092,7 +57098,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G1987" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57118,7 +57124,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1988" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57144,7 +57150,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G1989" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57170,7 +57176,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G1990" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57196,7 +57202,7 @@
         <v>5.25500011444092</v>
       </c>
       <c r="G1991" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57222,7 +57228,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57248,7 +57254,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57274,7 +57280,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57300,7 +57306,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57326,7 +57332,7 @@
         <v>5.61499977111816</v>
       </c>
       <c r="G1996" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57352,7 +57358,7 @@
         <v>5.74499988555908</v>
       </c>
       <c r="G1997" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57378,7 +57384,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57404,7 +57410,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57430,7 +57436,7 @@
         <v>5.79500007629395</v>
       </c>
       <c r="G2000" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57456,7 +57462,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G2001" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57482,7 +57488,7 @@
         <v>6</v>
       </c>
       <c r="G2002" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57508,7 +57514,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57534,7 +57540,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57560,7 +57566,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G2005" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57586,7 +57592,7 @@
         <v>5.66499996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57612,7 +57618,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2007" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57638,7 +57644,7 @@
         <v>5.52500009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57664,7 +57670,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2009" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57690,7 +57696,7 @@
         <v>5.50500011444092</v>
       </c>
       <c r="G2010" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57716,7 +57722,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2011" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57742,7 +57748,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2012" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57768,7 +57774,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2013" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57794,7 +57800,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2014" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57820,7 +57826,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57846,7 +57852,7 @@
         <v>6.02500009536743</v>
       </c>
       <c r="G2016" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57872,7 +57878,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57898,7 +57904,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G2018" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57924,7 +57930,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G2019" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57950,7 +57956,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57976,7 +57982,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G2021" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58002,7 +58008,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G2022" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58028,7 +58034,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G2023" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58054,7 +58060,7 @@
         <v>6.44500017166138</v>
       </c>
       <c r="G2024" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58080,7 +58086,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G2025" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58106,7 +58112,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2026" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58132,7 +58138,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58158,7 +58164,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2028" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58184,7 +58190,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G2029" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58210,7 +58216,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58236,7 +58242,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58262,7 +58268,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G2032" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58288,7 +58294,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G2033" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58314,7 +58320,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2034" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58340,7 +58346,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G2035" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58366,7 +58372,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G2036" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58392,7 +58398,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G2037" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58418,7 +58424,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2038" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58444,7 +58450,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2039" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58470,7 +58476,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58496,7 +58502,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G2041" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58522,7 +58528,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G2042" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58548,7 +58554,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G2043" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58574,7 +58580,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58600,7 +58606,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2045" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58626,7 +58632,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G2046" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58652,7 +58658,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2047" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58678,7 +58684,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G2048" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58704,7 +58710,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58730,7 +58736,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G2050" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58756,7 +58762,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G2051" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58782,7 +58788,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G2052" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58808,7 +58814,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58834,7 +58840,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G2054" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58860,7 +58866,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58886,7 +58892,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G2056" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58912,7 +58918,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G2057" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58938,7 +58944,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G2058" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58964,7 +58970,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -58990,7 +58996,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G2060" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59016,7 +59022,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59042,7 +59048,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59068,7 +59074,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2063" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59094,7 +59100,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2064" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59120,7 +59126,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2065" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59146,7 +59152,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2066" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59172,7 +59178,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2067" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59198,7 +59204,7 @@
         <v>5.97499990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59224,7 +59230,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59250,7 +59256,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G2070" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59276,7 +59282,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G2071" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59302,7 +59308,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2072" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59328,7 +59334,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59354,7 +59360,7 @@
         <v>6.125</v>
       </c>
       <c r="G2074" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59380,7 +59386,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G2075" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59406,7 +59412,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2076" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59432,7 +59438,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59458,7 +59464,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2078" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59484,7 +59490,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59510,7 +59516,7 @@
         <v>5.74499988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59536,7 +59542,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59562,7 +59568,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G2082" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59588,7 +59594,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2083" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59614,7 +59620,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2084" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59640,7 +59646,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G2085" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59666,7 +59672,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G2086" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59692,7 +59698,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2087" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59718,7 +59724,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2088" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59744,7 +59750,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2089" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59770,7 +59776,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G2090" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59796,7 +59802,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G2091" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59822,7 +59828,7 @@
         <v>5.21000003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59848,7 +59854,7 @@
         <v>5.15500020980835</v>
       </c>
       <c r="G2093" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59874,7 +59880,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59900,7 +59906,7 @@
         <v>5.34499979019165</v>
       </c>
       <c r="G2095" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59926,7 +59932,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59952,7 +59958,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G2097" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59978,7 +59984,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G2098" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60004,7 +60010,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2099" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60030,7 +60036,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60056,7 +60062,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G2101" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60082,7 +60088,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60108,7 +60114,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G2103" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60134,7 +60140,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G2104" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60160,7 +60166,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2105" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60186,7 +60192,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2106" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60212,7 +60218,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2107" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60238,7 +60244,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2108" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60264,7 +60270,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G2109" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60290,7 +60296,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60316,7 +60322,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60342,7 +60348,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G2112" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60368,7 +60374,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2113" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60394,7 +60400,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G2114" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60420,7 +60426,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60446,7 +60452,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G2116" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60472,7 +60478,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G2117" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60498,7 +60504,7 @@
         <v>5.5</v>
       </c>
       <c r="G2118" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60524,7 +60530,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2119" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60550,7 +60556,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2120" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60576,7 +60582,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2121" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60602,7 +60608,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60628,7 +60634,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2123" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60654,7 +60660,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60680,7 +60686,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2125" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60706,7 +60712,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60732,7 +60738,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2127" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60758,7 +60764,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G2128" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60784,7 +60790,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G2129" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60810,7 +60816,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2130" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60836,7 +60842,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G2131" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60862,7 +60868,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60888,7 +60894,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60914,7 +60920,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G2134" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60940,7 +60946,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G2135" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60966,7 +60972,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G2136" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60992,7 +60998,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G2137" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61018,7 +61024,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2138" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61044,7 +61050,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G2139" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61070,7 +61076,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61096,7 +61102,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2141" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61122,7 +61128,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61148,7 +61154,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2143" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61174,7 +61180,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G2144" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61200,7 +61206,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G2145" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61226,7 +61232,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61252,7 +61258,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2147" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61278,7 +61284,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2148" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61304,7 +61310,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2149" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61330,7 +61336,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61356,7 +61362,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61382,7 +61388,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61408,7 +61414,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2153" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61434,7 +61440,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2154" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61460,7 +61466,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2155" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61486,7 +61492,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2156" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61512,7 +61518,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2157" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61538,7 +61544,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G2158" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61564,7 +61570,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61590,7 +61596,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2160" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61616,7 +61622,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61642,7 +61648,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G2162" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61668,7 +61674,7 @@
         <v>5.5</v>
       </c>
       <c r="G2163" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61694,7 +61700,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2164" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61720,7 +61726,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G2165" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61746,7 +61752,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2166" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61772,7 +61778,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2167" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61798,7 +61804,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2168" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61824,7 +61830,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G2169" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61850,7 +61856,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2170" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61876,7 +61882,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G2171" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61902,7 +61908,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61928,7 +61934,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G2173" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61954,7 +61960,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2174" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61980,7 +61986,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G2175" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62006,7 +62012,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G2176" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62032,7 +62038,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2177" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62058,7 +62064,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2178" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62084,7 +62090,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2179" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62110,7 +62116,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G2180" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62136,7 +62142,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2181" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62162,7 +62168,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2182" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62188,7 +62194,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G2183" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62214,7 +62220,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G2184" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -62222,7 +62228,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.649537037</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>28016</v>
@@ -62240,9 +62246,35 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2185" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.6493171296</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>39413</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>5.51000022888184</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>5.34999990463257</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>5.42000007629395</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1700">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,55 +38,55 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0985450744629</t>
+    <t xml:space="preserve">13.0985441207886</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147937774658</t>
+    <t xml:space="preserve">13.1229219436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147956848145</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060207366943</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3103561401367</t>
+    <t xml:space="preserve">12.310357093811</t>
   </si>
   <si>
     <t xml:space="preserve">12.1884717941284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5947551727295</t>
+    <t xml:space="preserve">12.5947542190552</t>
   </si>
   <si>
     <t xml:space="preserve">12.8547744750977</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3179349899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8385248184204</t>
+    <t xml:space="preserve">13.3179368972778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8385229110718</t>
   </si>
   <si>
     <t xml:space="preserve">12.7410173416138</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0091619491577</t>
+    <t xml:space="preserve">13.009162902832</t>
   </si>
   <si>
     <t xml:space="preserve">12.3753614425659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7003879547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4972467422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6678857803345</t>
+    <t xml:space="preserve">12.7003870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4972457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6678848266602</t>
   </si>
   <si>
     <t xml:space="preserve">12.5134963989258</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">11.9447031021118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3022317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4327869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2865257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7659378051758</t>
+    <t xml:space="preserve">12.3022308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.432785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2865266799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7659387588501</t>
   </si>
   <si>
     <t xml:space="preserve">11.4002828598022</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7984409332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471956253052</t>
+    <t xml:space="preserve">11.7984418869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471946716309</t>
   </si>
   <si>
     <t xml:space="preserve">11.660304069519</t>
@@ -125,112 +125,112 @@
     <t xml:space="preserve">12.1722202301025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8228187561035</t>
+    <t xml:space="preserve">11.8228178024292</t>
   </si>
   <si>
     <t xml:space="preserve">12.0259590148926</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1478443145752</t>
+    <t xml:space="preserve">12.1478424072266</t>
   </si>
   <si>
     <t xml:space="preserve">11.9853315353394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9772052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009325027466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4815397262573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2859802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166385650635</t>
+    <t xml:space="preserve">11.9772043228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4815406799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7166376113892</t>
   </si>
   <si>
     <t xml:space="preserve">12.757266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5541257858276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.432240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4728698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4403676986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635484695435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.326060295105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2935590744019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4885778427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6267108917236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.724217414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6917161941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8136005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9354867935181</t>
+    <t xml:space="preserve">12.5541248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4322423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4728689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4403667449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635513305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3260612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2935609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4885749816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6267118453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7242183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6917181015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8136014938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9354858398438</t>
   </si>
   <si>
     <t xml:space="preserve">13.9598617553711</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7160921096802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3829402923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0904188156128</t>
+    <t xml:space="preserve">13.7160930633545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3829412460327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0904207229614</t>
   </si>
   <si>
     <t xml:space="preserve">13.4641981124878</t>
   </si>
   <si>
-    <t xml:space="preserve">13.456072807312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5454549789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3341884613037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3666906356812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4398231506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235706329346</t>
+    <t xml:space="preserve">13.4560737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3341875076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3666915893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4398212432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235696792603</t>
   </si>
   <si>
     <t xml:space="preserve">13.3748168945312</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0335388183594</t>
+    <t xml:space="preserve">13.0335397720337</t>
   </si>
   <si>
     <t xml:space="preserve">12.9360313415527</t>
@@ -242,79 +242,79 @@
     <t xml:space="preserve">13.2041778564453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9197807312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7978954315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922616958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9116554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0655078887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.470871925354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4295768737793</t>
+    <t xml:space="preserve">12.9197797775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7978963851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9116544723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0655088424683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4708709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4295778274536</t>
   </si>
   <si>
     <t xml:space="preserve">12.3056945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2396230697632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5452013015747</t>
+    <t xml:space="preserve">12.2396240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5452003479004</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6195297241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5864963531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6112728118896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8260021209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0489912033081</t>
+    <t xml:space="preserve">12.6195316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5864944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6112718582153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8260011672974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0489921569824</t>
   </si>
   <si>
     <t xml:space="preserve">13.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.214168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3710870742798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1646156311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2059078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1563558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9333658218384</t>
+    <t xml:space="preserve">13.2141675949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3710861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1646146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2059087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1563568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.933367729187</t>
   </si>
   <si>
     <t xml:space="preserve">12.6938600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6360483169556</t>
+    <t xml:space="preserve">12.6360492706299</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496702194214</t>
@@ -326,64 +326,64 @@
     <t xml:space="preserve">11.5871734619141</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1659736633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3724431991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092693328857</t>
+    <t xml:space="preserve">11.1659727096558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.372444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092702865601</t>
   </si>
   <si>
     <t xml:space="preserve">12.3882827758789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9175281524658</t>
+    <t xml:space="preserve">11.9175291061401</t>
   </si>
   <si>
     <t xml:space="preserve">11.6697616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.793643951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0420894622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.340087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7365121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3146314620972</t>
+    <t xml:space="preserve">11.793646812439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042088508606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3400869369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7365112304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3146324157715</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505643844604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9423036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5293626785278</t>
+    <t xml:space="preserve">11.9423046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5293617248535</t>
   </si>
   <si>
     <t xml:space="preserve">11.2733373641968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2155256271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5128440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0331535339355</t>
+    <t xml:space="preserve">11.2155246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.512843132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0331525802612</t>
   </si>
   <si>
     <t xml:space="preserve">12.0579290390015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8762331008911</t>
+    <t xml:space="preserve">11.8762340545654</t>
   </si>
   <si>
     <t xml:space="preserve">12.2065887451172</t>
@@ -392,199 +392,199 @@
     <t xml:space="preserve">11.8927507400513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1900701522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1074819564819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5121650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7599315643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2306861877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3958625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3380498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701919555664</t>
+    <t xml:space="preserve">12.190071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1074829101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5121660232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7599296569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2306880950928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3958616256714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3380508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701910018921</t>
   </si>
   <si>
     <t xml:space="preserve">13.503228187561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4206390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7014398574829</t>
+    <t xml:space="preserve">13.3297920227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4206399917603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7014408111572</t>
   </si>
   <si>
     <t xml:space="preserve">14.6264324188232</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2878179550171</t>
+    <t xml:space="preserve">14.2878189086914</t>
   </si>
   <si>
     <t xml:space="preserve">14.7255392074585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2217473983765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5355863571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0806713104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1549997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0146007537842</t>
+    <t xml:space="preserve">14.2217493057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5355854034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0806694030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1550006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145998001099</t>
   </si>
   <si>
     <t xml:space="preserve">15.2128114700317</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9898242950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.783350944519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6925048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0393733978271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467409133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5183887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5514268875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.526647567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4853534698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000818252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8322248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8652601242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661552429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918239593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2623653411865</t>
+    <t xml:space="preserve">14.9898223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7833528518677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6925029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0393743515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5183897018433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5514249801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266456604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4853544235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440574645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000856399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8322238922119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8652620315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661571502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.691822052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2623643875122</t>
   </si>
   <si>
     <t xml:space="preserve">15.1137037277222</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2293291091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1797761917114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2871408462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8982982635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.848744392395</t>
+    <t xml:space="preserve">15.2293310165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1797742843628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2871389389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8982954025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8487415313721</t>
   </si>
   <si>
     <t xml:space="preserve">15.6174964904785</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1962938308716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7991895675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6587896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5679416656494</t>
+    <t xml:space="preserve">15.1962928771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7991905212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6587905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.567943572998</t>
   </si>
   <si>
     <t xml:space="preserve">15.9395885467529</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6257562637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4110240936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2788858413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6009769439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7331209182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7166042327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744131088257</t>
+    <t xml:space="preserve">15.6257524490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110260009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2788829803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6009750366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7331171035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7166032791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744150161743</t>
   </si>
   <si>
     <t xml:space="preserve">15.7083435058594</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5844602584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614740371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6505308151245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2210712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9237518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9402704238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4860324859619</t>
+    <t xml:space="preserve">15.5844593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.03111743927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614702224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6505289077759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2210693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9237499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9402694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4860315322876</t>
   </si>
   <si>
     <t xml:space="preserve">14.8081293106079</t>
@@ -593,64 +593,64 @@
     <t xml:space="preserve">14.6594686508179</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8659410476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5933980941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7916116714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8411645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6842451095581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4777736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7007627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3208541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0400524139404</t>
+    <t xml:space="preserve">14.8659391403198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5933971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7916078567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9485273361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.841160774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6842441558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4777717590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7007598876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.320855140686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0400533676147</t>
   </si>
   <si>
     <t xml:space="preserve">13.7592525482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7179622650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5362615585327</t>
+    <t xml:space="preserve">13.7179584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5362634658813</t>
   </si>
   <si>
     <t xml:space="preserve">13.2967567443848</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6684055328369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9492044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.13916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2795600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5768785476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704080581665</t>
+    <t xml:space="preserve">13.6684045791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9492053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2795629501343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5768795013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704090118408</t>
   </si>
   <si>
     <t xml:space="preserve">15.3779888153076</t>
@@ -659,46 +659,46 @@
     <t xml:space="preserve">15.4357995986938</t>
   </si>
   <si>
-    <t xml:space="preserve">15.105447769165</t>
+    <t xml:space="preserve">15.1054468154907</t>
   </si>
   <si>
     <t xml:space="preserve">15.237587928772</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3119173049927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6670455932617</t>
+    <t xml:space="preserve">15.3119192123413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.667046546936</t>
   </si>
   <si>
     <t xml:space="preserve">16.0139217376709</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9643650054932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.947847366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.873517036438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909317016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0221767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.91481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157081604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5101308822632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6092329025269</t>
+    <t xml:space="preserve">15.9643669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9478483200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909326553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.022180557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.914813041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157062530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5101299285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6092367172241</t>
   </si>
   <si>
     <t xml:space="preserve">16.2451686859131</t>
@@ -707,46 +707,46 @@
     <t xml:space="preserve">16.3112392425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3194980621338</t>
+    <t xml:space="preserve">16.3194961547852</t>
   </si>
   <si>
     <t xml:space="preserve">16.3690509796143</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4351234436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7819919586182</t>
+    <t xml:space="preserve">16.4351215362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7819938659668</t>
   </si>
   <si>
     <t xml:space="preserve">16.7324409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">16.97194480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0215034484863</t>
+    <t xml:space="preserve">16.9719505310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0214996337891</t>
   </si>
   <si>
     <t xml:space="preserve">16.765474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8893604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6002998352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5837802886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4020843505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1873588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5177116394043</t>
+    <t xml:space="preserve">16.8893585205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6002979278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5837783813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4020881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1873569488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.517707824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.4268627166748</t>
@@ -755,10 +755,10 @@
     <t xml:space="preserve">16.4681587219238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9141330718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3435955047607</t>
+    <t xml:space="preserve">16.914134979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3435935974121</t>
   </si>
   <si>
     <t xml:space="preserve">17.4261837005615</t>
@@ -767,31 +767,31 @@
     <t xml:space="preserve">17.4922542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8391284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9795322418213</t>
+    <t xml:space="preserve">17.8391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.979528427124</t>
   </si>
   <si>
     <t xml:space="preserve">18.2438125610352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8714866638184</t>
+    <t xml:space="preserve">18.8714847564697</t>
   </si>
   <si>
     <t xml:space="preserve">19.2431316375732</t>
   </si>
   <si>
-    <t xml:space="preserve">19.218355178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5239315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.779956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9038410186768</t>
+    <t xml:space="preserve">19.2183570861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5239334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7799587249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9038429260254</t>
   </si>
   <si>
     <t xml:space="preserve">19.9203586578369</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">20.0194625854492</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1268310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1516056060791</t>
+    <t xml:space="preserve">20.1268291473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1516075134277</t>
   </si>
   <si>
     <t xml:space="preserve">20.2341957092285</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">19.8955821990967</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1020545959473</t>
+    <t xml:space="preserve">20.1020526885986</t>
   </si>
   <si>
     <t xml:space="preserve">19.821252822876</t>
@@ -827,76 +827,76 @@
     <t xml:space="preserve">20.0607604980469</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9781723022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5734882354736</t>
+    <t xml:space="preserve">19.9781684875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.573486328125</t>
   </si>
   <si>
     <t xml:space="preserve">19.5817451477051</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3339786529541</t>
+    <t xml:space="preserve">19.3339805603027</t>
   </si>
   <si>
     <t xml:space="preserve">19.5321922302246</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4743804931641</t>
+    <t xml:space="preserve">19.4743785858154</t>
   </si>
   <si>
     <t xml:space="preserve">19.0531787872314</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9953670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1109924316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6725940704346</t>
+    <t xml:space="preserve">18.9953689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.110990524292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6725921630859</t>
   </si>
   <si>
     <t xml:space="preserve">20.3415584564209</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7957973480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3078479766846</t>
+    <t xml:space="preserve">20.7957992553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3078441619873</t>
   </si>
   <si>
     <t xml:space="preserve">21.1013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5083885192871</t>
+    <t xml:space="preserve">21.5083923339844</t>
   </si>
   <si>
     <t xml:space="preserve">21.7423610687256</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4749698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6420879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3162002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5585289001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1434478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0822334289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0989475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0320987701416</t>
+    <t xml:space="preserve">21.474967956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6420860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3162021636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5585269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1434516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0822353363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0989456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0321006774902</t>
   </si>
   <si>
     <t xml:space="preserve">20.931827545166</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">20.8649749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.890043258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0571670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5418167114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5501728057861</t>
+    <t xml:space="preserve">20.8900470733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.057165145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5418148040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5501708984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.491678237915</t>
@@ -923,40 +923,40 @@
     <t xml:space="preserve">21.6838665008545</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5919494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3914108276367</t>
+    <t xml:space="preserve">21.5919532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3914070129395</t>
   </si>
   <si>
     <t xml:space="preserve">21.366340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7172927856445</t>
+    <t xml:space="preserve">21.7172908782959</t>
   </si>
   <si>
     <t xml:space="preserve">21.3078460693359</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8315544128418</t>
+    <t xml:space="preserve">20.8315525054932</t>
   </si>
   <si>
     <t xml:space="preserve">21.1407260894775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8566188812256</t>
+    <t xml:space="preserve">20.8566207885742</t>
   </si>
   <si>
     <t xml:space="preserve">20.3636169433594</t>
   </si>
   <si>
-    <t xml:space="preserve">20.614294052124</t>
+    <t xml:space="preserve">20.6142959594727</t>
   </si>
   <si>
     <t xml:space="preserve">20.6811447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5140228271484</t>
+    <t xml:space="preserve">20.5140247344971</t>
   </si>
   <si>
     <t xml:space="preserve">20.6644325256348</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">20.9067573547363</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2744255065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8482666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5056686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8706111907959</t>
+    <t xml:space="preserve">21.2744235992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8482646942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5056705474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8706130981445</t>
   </si>
   <si>
     <t xml:space="preserve">19.6951351165771</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">19.4778785705566</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3024024963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2021293640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6032180786133</t>
+    <t xml:space="preserve">19.3024005889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.202127456665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6032161712646</t>
   </si>
   <si>
     <t xml:space="preserve">19.1269264221191</t>
@@ -998,52 +998,52 @@
     <t xml:space="preserve">19.6366424560547</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9959545135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0460872650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7396392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3051223754883</t>
+    <t xml:space="preserve">19.9959526062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.046085357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7396373748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3051242828369</t>
   </si>
   <si>
     <t xml:space="preserve">20.7145671844482</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7730598449707</t>
+    <t xml:space="preserve">20.773063659668</t>
   </si>
   <si>
     <t xml:space="preserve">21.3329162597656</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3245582580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4582557678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2242851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7256488800049</t>
+    <t xml:space="preserve">21.3245601654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4582538604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2242889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7256469726562</t>
   </si>
   <si>
     <t xml:space="preserve">21.8426322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6170177459717</t>
+    <t xml:space="preserve">21.6170196533203</t>
   </si>
   <si>
     <t xml:space="preserve">21.6003074645996</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2326431274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6588020324707</t>
+    <t xml:space="preserve">21.2326412200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6588001251221</t>
   </si>
   <si>
     <t xml:space="preserve">22.1100234985352</t>
@@ -1052,31 +1052,31 @@
     <t xml:space="preserve">21.9930400848389</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1016693115234</t>
+    <t xml:space="preserve">22.1016674041748</t>
   </si>
   <si>
     <t xml:space="preserve">21.8844127655029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3607063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0682430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9596157073975</t>
+    <t xml:space="preserve">22.5027561187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3607044219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9596176147461</t>
   </si>
   <si>
     <t xml:space="preserve">22.3523483276367</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1935844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6531677246094</t>
+    <t xml:space="preserve">22.1935863494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6531639099121</t>
   </si>
   <si>
     <t xml:space="preserve">22.2855014801025</t>
@@ -1091,16 +1091,16 @@
     <t xml:space="preserve">23.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6642436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5973949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.8146495819092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7812271118164</t>
+    <t xml:space="preserve">23.6642417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5973987579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.8146514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.781229019165</t>
   </si>
   <si>
     <t xml:space="preserve">24.0904006958008</t>
@@ -1112,61 +1112,61 @@
     <t xml:space="preserve">24.3577919006348</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6669654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6001167297363</t>
+    <t xml:space="preserve">24.6669673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.600118637085</t>
   </si>
   <si>
     <t xml:space="preserve">24.6586112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0095634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5332717895508</t>
+    <t xml:space="preserve">25.0095653533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5332698822021</t>
   </si>
   <si>
     <t xml:space="preserve">24.6251850128174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2240943908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.148889541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2408084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6168308258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8758659362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1125583648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7198219299316</t>
+    <t xml:space="preserve">24.2240962982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1488914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2408065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8758640289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1125564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529750823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7198238372803</t>
   </si>
   <si>
     <t xml:space="preserve">25.6696891784668</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5359897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4858551025391</t>
+    <t xml:space="preserve">25.5359916687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4858570098877</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187351226807</t>
   </si>
   <si>
-    <t xml:space="preserve">25.30202293396</t>
+    <t xml:space="preserve">25.3020210266113</t>
   </si>
   <si>
     <t xml:space="preserve">26.3799495697021</t>
@@ -1175,10 +1175,10 @@
     <t xml:space="preserve">26.6473445892334</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1543369293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8451671600342</t>
+    <t xml:space="preserve">26.1543350219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8451614379883</t>
   </si>
   <si>
     <t xml:space="preserve">24.8006629943848</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">25.4022941589355</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2268180847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1292705535889</t>
+    <t xml:space="preserve">25.2268199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1292686462402</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732246398926</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">26.6724109649658</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8255405426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5023803710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1096458435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6333503723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2349834442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7252674102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3993816375732</t>
+    <t xml:space="preserve">27.8255424499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5023765563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1096420288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6333522796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2349872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.725269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3993835449219</t>
   </si>
   <si>
     <t xml:space="preserve">25.9454364776611</t>
@@ -1238,22 +1238,22 @@
     <t xml:space="preserve">25.2351760864258</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9120121002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5025691986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939361572266</t>
+    <t xml:space="preserve">25.9120140075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5025672912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939380645752</t>
   </si>
   <si>
     <t xml:space="preserve">25.8618774414062</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3214550018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2629642486572</t>
+    <t xml:space="preserve">26.3214569091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2629661560059</t>
   </si>
   <si>
     <t xml:space="preserve">26.4050178527832</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">26.196117401123</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9872169494629</t>
+    <t xml:space="preserve">25.9872150421143</t>
   </si>
   <si>
     <t xml:space="preserve">26.0707778930664</t>
@@ -1280,55 +1280,55 @@
     <t xml:space="preserve">26.1877613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4467945098877</t>
+    <t xml:space="preserve">26.4467964172363</t>
   </si>
   <si>
     <t xml:space="preserve">26.7392597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8702297210693</t>
+    <t xml:space="preserve">25.8702335357666</t>
   </si>
   <si>
     <t xml:space="preserve">25.7114696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098365783691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0373554229736</t>
+    <t xml:space="preserve">25.1098346710205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0373516082764</t>
   </si>
   <si>
     <t xml:space="preserve">25.6863994598389</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0540637969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7532482147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3688735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3632354736328</t>
+    <t xml:space="preserve">26.0540657043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.753246307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3688716888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3632392883301</t>
   </si>
   <si>
     <t xml:space="preserve">27.4495162963867</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2824020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1180057525635</t>
+    <t xml:space="preserve">27.2824039459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1180019378662</t>
   </si>
   <si>
     <t xml:space="preserve">27.3659591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1988391876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8228187561035</t>
+    <t xml:space="preserve">27.1988372802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8228168487549</t>
   </si>
   <si>
     <t xml:space="preserve">26.2796783447266</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">26.9899368286133</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4913024902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0344390869141</t>
+    <t xml:space="preserve">27.4913005828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0344429016113</t>
   </si>
   <si>
     <t xml:space="preserve">28.6193618774414</t>
@@ -1352,10 +1352,10 @@
     <t xml:space="preserve">27.9508819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5330772399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3241786956787</t>
+    <t xml:space="preserve">27.5330791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3241806030273</t>
   </si>
   <si>
     <t xml:space="preserve">26.8645992279053</t>
@@ -1367,19 +1367,19 @@
     <t xml:space="preserve">25.2769565582275</t>
   </si>
   <si>
-    <t xml:space="preserve">24.48313331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6084728240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2378959655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0289974212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7783145904541</t>
+    <t xml:space="preserve">24.4831314086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6084747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2378978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0289936065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7783164978027</t>
   </si>
   <si>
     <t xml:space="preserve">25.9036560058594</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">25.0680541992188</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9481601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3160152435303</t>
+    <t xml:space="preserve">26.9481582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3160133361816</t>
   </si>
   <si>
     <t xml:space="preserve">24.1906719207764</t>
@@ -1403,19 +1403,19 @@
     <t xml:space="preserve">20.7229251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1825084686279</t>
+    <t xml:space="preserve">21.1825103759766</t>
   </si>
   <si>
     <t xml:space="preserve">21.2660675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2215633392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0153846740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.767427444458</t>
+    <t xml:space="preserve">20.221565246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0153827667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7674255371094</t>
   </si>
   <si>
     <t xml:space="preserve">22.2270088195801</t>
@@ -1424,46 +1424,46 @@
     <t xml:space="preserve">22.310567855835</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0208282470703</t>
+    <t xml:space="preserve">23.0208301544189</t>
   </si>
   <si>
     <t xml:space="preserve">22.3941287994385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4331836700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0181102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8927669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2687911987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0626106262207</t>
+    <t xml:space="preserve">21.4331855773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0181064605713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8927688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2687892913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0626087188721</t>
   </si>
   <si>
     <t xml:space="preserve">22.770149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1879501342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6030292510986</t>
+    <t xml:space="preserve">23.187952041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6030311584473</t>
   </si>
   <si>
     <t xml:space="preserve">22.9372711181641</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7728729248047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.313289642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2324523925781</t>
+    <t xml:space="preserve">23.7728710174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2324562072754</t>
   </si>
   <si>
     <t xml:space="preserve">26.4885787963867</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">25.3605155944824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0262756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8591537475586</t>
+    <t xml:space="preserve">25.0262718200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8591556549072</t>
   </si>
   <si>
     <t xml:space="preserve">24.8173732757568</t>
@@ -1487,7 +1487,7 @@
     <t xml:space="preserve">25.4440765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3591194152832</t>
+    <t xml:space="preserve">25.3591175079346</t>
   </si>
   <si>
     <t xml:space="preserve">24.7644329071045</t>
@@ -1502,22 +1502,22 @@
     <t xml:space="preserve">25.8688507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0812397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4635372161865</t>
+    <t xml:space="preserve">26.0812377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4635353088379</t>
   </si>
   <si>
     <t xml:space="preserve">26.4210605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9962863922119</t>
+    <t xml:space="preserve">25.9962844848633</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732685089111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8652935028076</t>
+    <t xml:space="preserve">27.8652973175049</t>
   </si>
   <si>
     <t xml:space="preserve">27.6529083251953</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">26.888313293457</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1661949157715</t>
+    <t xml:space="preserve">26.1661930084229</t>
   </si>
   <si>
     <t xml:space="preserve">26.2086734771729</t>
@@ -1538,34 +1538,34 @@
     <t xml:space="preserve">26.0387630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3785820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9538078308105</t>
+    <t xml:space="preserve">26.3785800933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9538059234619</t>
   </si>
   <si>
     <t xml:space="preserve">26.3361053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8458347320557</t>
+    <t xml:space="preserve">26.8458366394043</t>
   </si>
   <si>
     <t xml:space="preserve">26.5060157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6334476470947</t>
+    <t xml:space="preserve">26.6334495544434</t>
   </si>
   <si>
     <t xml:space="preserve">26.7608814239502</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5909690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7803421020508</t>
+    <t xml:space="preserve">26.5909671783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157489776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7803440093994</t>
   </si>
   <si>
     <t xml:space="preserve">27.7378673553467</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">24.6794776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4670906066895</t>
+    <t xml:space="preserve">24.4670886993408</t>
   </si>
   <si>
     <t xml:space="preserve">23.9998378753662</t>
@@ -1592,16 +1592,16 @@
     <t xml:space="preserve">24.4246139526367</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5095672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5520439147949</t>
+    <t xml:space="preserve">24.5095691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5520458221436</t>
   </si>
   <si>
     <t xml:space="preserve">24.8493900299072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9768218994141</t>
+    <t xml:space="preserve">24.9768199920654</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237182617188</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">26.548490524292</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7184028625488</t>
+    <t xml:space="preserve">26.7184066772461</t>
   </si>
   <si>
     <t xml:space="preserve">27.2706108093262</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2511501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3130912780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.695384979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6759243011475</t>
+    <t xml:space="preserve">26.251148223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3130931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6953868865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6759262084961</t>
   </si>
   <si>
     <t xml:space="preserve">27.1431789398193</t>
@@ -1637,13 +1637,13 @@
     <t xml:space="preserve">27.3555660247803</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0582218170166</t>
+    <t xml:space="preserve">27.0582256317139</t>
   </si>
   <si>
     <t xml:space="preserve">25.1467323303223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7024936676025</t>
+    <t xml:space="preserve">23.7024955749512</t>
   </si>
   <si>
     <t xml:space="preserve">22.3007335662842</t>
@@ -1652,7 +1652,7 @@
     <t xml:space="preserve">22.0033912658691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.470645904541</t>
+    <t xml:space="preserve">22.4706439971924</t>
   </si>
   <si>
     <t xml:space="preserve">21.3237495422363</t>
@@ -1664,31 +1664,31 @@
     <t xml:space="preserve">22.0458698272705</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6635723114014</t>
+    <t xml:space="preserve">21.6635704040527</t>
   </si>
   <si>
     <t xml:space="preserve">21.3662261962891</t>
   </si>
   <si>
-    <t xml:space="preserve">20.219331741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3892421722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8989715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.771541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3856906890869</t>
+    <t xml:space="preserve">20.2193298339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3892402648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8989734649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7715435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3856887817383</t>
   </si>
   <si>
     <t xml:space="preserve">21.4936599731445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5131206512451</t>
+    <t xml:space="preserve">22.5131225585938</t>
   </si>
   <si>
     <t xml:space="preserve">22.6405544281006</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">18.4777526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9255428314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104961395264</t>
+    <t xml:space="preserve">17.9255409240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.010498046875</t>
   </si>
   <si>
     <t xml:space="preserve">18.1379299163818</t>
@@ -1715,34 +1715,34 @@
     <t xml:space="preserve">18.3503189086914</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6901416778564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9874839782715</t>
+    <t xml:space="preserve">18.6901397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9874820709229</t>
   </si>
   <si>
     <t xml:space="preserve">19.1998691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3273010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1149139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.369779586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8795127868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0494213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0069408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5821666717529</t>
+    <t xml:space="preserve">19.3273029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1149120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3697814941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8795108795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0494232177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0069427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5821704864502</t>
   </si>
   <si>
     <t xml:space="preserve">19.6246452331543</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">18.2653636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2883777618408</t>
+    <t xml:space="preserve">17.2883796691895</t>
   </si>
   <si>
     <t xml:space="preserve">18.2228870391846</t>
@@ -1763,7 +1763,7 @@
     <t xml:space="preserve">17.6281986236572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8405876159668</t>
+    <t xml:space="preserve">17.8405857086182</t>
   </si>
   <si>
     <t xml:space="preserve">17.4158115386963</t>
@@ -1772,10 +1772,10 @@
     <t xml:space="preserve">17.0759906768799</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2034244537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308544158936</t>
+    <t xml:space="preserve">17.2034225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308582305908</t>
   </si>
   <si>
     <t xml:space="preserve">16.9910354614258</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">18.7326164245605</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9025268554688</t>
+    <t xml:space="preserve">18.9025249481201</t>
   </si>
   <si>
     <t xml:space="preserve">19.6671237945557</t>
   </si>
   <si>
-    <t xml:space="preserve">19.921989440918</t>
+    <t xml:space="preserve">19.9219875335693</t>
   </si>
   <si>
     <t xml:space="preserve">20.0918979644775</t>
@@ -1799,46 +1799,46 @@
     <t xml:space="preserve">19.9644680023193</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4317188262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3467655181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.068883895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1963176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8564929962158</t>
+    <t xml:space="preserve">20.4317207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3467636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0688858032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1963157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8564968109131</t>
   </si>
   <si>
     <t xml:space="preserve">20.6441078186035</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3042869567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7945537567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5591526031494</t>
+    <t xml:space="preserve">20.3042850494385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7945556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5591564178467</t>
   </si>
   <si>
     <t xml:space="preserve">20.1768550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4741992950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7520771026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8370342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396900177002</t>
+    <t xml:space="preserve">20.4742012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7520809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8370323181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396938323975</t>
   </si>
   <si>
     <t xml:space="preserve">17.7556324005127</t>
@@ -1856,70 +1856,70 @@
     <t xml:space="preserve">16.889087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5432434082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6706771850586</t>
+    <t xml:space="preserve">17.5432453155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.67067527771</t>
   </si>
   <si>
     <t xml:space="preserve">17.7896137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235969543457</t>
+    <t xml:space="preserve">17.8235950469971</t>
   </si>
   <si>
     <t xml:space="preserve">18.7750949859619</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0979251861572</t>
+    <t xml:space="preserve">19.09792137146</t>
   </si>
   <si>
     <t xml:space="preserve">18.8260650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5372219085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1124458312988</t>
+    <t xml:space="preserve">18.5372200012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1124439239502</t>
   </si>
   <si>
     <t xml:space="preserve">17.7046585083008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0954532623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5542106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6051845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1294364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2483730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.452262878418</t>
+    <t xml:space="preserve">18.0954513549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5542087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6051807403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1294326782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2483711242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4522609710693</t>
   </si>
   <si>
     <t xml:space="preserve">18.7071304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2313785552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.025016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0590019226074</t>
+    <t xml:space="preserve">18.2313804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0250186920166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0590000152588</t>
   </si>
   <si>
     <t xml:space="preserve">16.9400615692139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9206018447876</t>
+    <t xml:space="preserve">15.920599937439</t>
   </si>
   <si>
     <t xml:space="preserve">15.8356437683105</t>
@@ -1928,10 +1928,10 @@
     <t xml:space="preserve">15.6742305755615</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2324628829956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0200757980347</t>
+    <t xml:space="preserve">15.2324647903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0200748443604</t>
   </si>
   <si>
     <t xml:space="preserve">15.0625534057617</t>
@@ -1940,19 +1940,19 @@
     <t xml:space="preserve">16.031042098999</t>
   </si>
   <si>
-    <t xml:space="preserve">16.447322845459</t>
+    <t xml:space="preserve">16.4473190307617</t>
   </si>
   <si>
     <t xml:space="preserve">16.3538703918457</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4618434906006</t>
+    <t xml:space="preserve">15.461841583252</t>
   </si>
   <si>
     <t xml:space="preserve">15.4533462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4448518753052</t>
+    <t xml:space="preserve">15.4448509216309</t>
   </si>
   <si>
     <t xml:space="preserve">15.0540561676025</t>
@@ -1961,97 +1961,97 @@
     <t xml:space="preserve">15.2154722213745</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7311029434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7485837936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1018590927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2329521179199</t>
+    <t xml:space="preserve">15.731104850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7485818862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1018600463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2329502105713</t>
   </si>
   <si>
     <t xml:space="preserve">15.0494222640991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0319442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979913711548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9270687103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2853889465332</t>
+    <t xml:space="preserve">15.0319423675537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979932785034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9270677566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2853879928589</t>
   </si>
   <si>
     <t xml:space="preserve">16.4040451049805</t>
   </si>
   <si>
-    <t xml:space="preserve">16.080680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.30286693573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9095888137817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8571538925171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5774879455566</t>
+    <t xml:space="preserve">16.0806827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3028688430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9095878601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8571529388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5774898529053</t>
   </si>
   <si>
     <t xml:space="preserve">14.769757270813</t>
   </si>
   <si>
-    <t xml:space="preserve">14.988245010376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8134574890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6124467849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4201765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5600109100342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.224214553833</t>
+    <t xml:space="preserve">14.9882459640503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6124458312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5600099563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242116928101</t>
   </si>
   <si>
     <t xml:space="preserve">14.9358081817627</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6998424530029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1193380355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3990049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7173223495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7347984313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3153047561646</t>
+    <t xml:space="preserve">14.6998414993286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1193370819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3990030288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154741287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7173194885254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7348012924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3153038024902</t>
   </si>
   <si>
     <t xml:space="preserve">14.0531196594238</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">14.1055555343628</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1579923629761</t>
+    <t xml:space="preserve">14.1579933166504</t>
   </si>
   <si>
     <t xml:space="preserve">13.9919424057007</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">13.6336231231689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7784967422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4726142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2541265487671</t>
+    <t xml:space="preserve">14.7784976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4726152420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2541255950928</t>
   </si>
   <si>
     <t xml:space="preserve">14.184211730957</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">13.5724449157715</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9395046234131</t>
+    <t xml:space="preserve">13.9395055770874</t>
   </si>
   <si>
     <t xml:space="preserve">13.9832029342651</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">13.5637073516846</t>
   </si>
   <si>
-    <t xml:space="preserve">12.488748550415</t>
+    <t xml:space="preserve">12.4887475967407</t>
   </si>
   <si>
     <t xml:space="preserve">11.256477355957</t>
@@ -2114,34 +2114,34 @@
     <t xml:space="preserve">11.2652177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2390003204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282432556152</t>
+    <t xml:space="preserve">11.2389993667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282423019409</t>
   </si>
   <si>
     <t xml:space="preserve">11.0292510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4662256240845</t>
+    <t xml:space="preserve">11.4662265777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.0379915237427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.32639503479</t>
+    <t xml:space="preserve">11.3263940811157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4574871063232</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1690826416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0729484558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0467300415039</t>
+    <t xml:space="preserve">11.1690816879272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0729494094849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0467309951782</t>
   </si>
   <si>
     <t xml:space="preserve">10.5223608016968</t>
@@ -2153,25 +2153,25 @@
     <t xml:space="preserve">11.1341257095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9505968093872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117721557617</t>
+    <t xml:space="preserve">10.9505958557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117712020874</t>
   </si>
   <si>
     <t xml:space="preserve">11.6672353744507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8420238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731168746948</t>
+    <t xml:space="preserve">11.8420248031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731178283691</t>
   </si>
   <si>
     <t xml:space="preserve">11.9993362426758</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0517721176147</t>
+    <t xml:space="preserve">12.0517730712891</t>
   </si>
   <si>
     <t xml:space="preserve">12.0605125427246</t>
@@ -2183,16 +2183,16 @@
     <t xml:space="preserve">12.2178230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1304273605347</t>
+    <t xml:space="preserve">12.130428314209</t>
   </si>
   <si>
     <t xml:space="preserve">12.0867309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663940429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7633686065674</t>
+    <t xml:space="preserve">12.3663949966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7633695602417</t>
   </si>
   <si>
     <t xml:space="preserve">11.8070669174194</t>
@@ -2207,19 +2207,19 @@
     <t xml:space="preserve">11.5885791778564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5099229812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9942932128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7495861053467</t>
+    <t xml:space="preserve">11.5099239349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9942941665649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.749587059021</t>
   </si>
   <si>
     <t xml:space="preserve">10.9418563842773</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3089151382446</t>
+    <t xml:space="preserve">11.3089141845703</t>
   </si>
   <si>
     <t xml:space="preserve">11.3788318634033</t>
@@ -2228,25 +2228,25 @@
     <t xml:space="preserve">11.3438730239868</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4225282669067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2914361953735</t>
+    <t xml:space="preserve">11.4225292205811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2914371490479</t>
   </si>
   <si>
     <t xml:space="preserve">11.3001756668091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5623607635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.008074760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9905977249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1216888427734</t>
+    <t xml:space="preserve">11.5623598098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0080757141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9905967712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1216878890991</t>
   </si>
   <si>
     <t xml:space="preserve">13.6773195266724</t>
@@ -2264,10 +2264,10 @@
     <t xml:space="preserve">14.0356397628784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9045467376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959756851196</t>
+    <t xml:space="preserve">13.9045476913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959766387939</t>
   </si>
   <si>
     <t xml:space="preserve">14.2191696166992</t>
@@ -2276,28 +2276,28 @@
     <t xml:space="preserve">14.5949687957764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2453861236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1405153274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7996730804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.210431098938</t>
+    <t xml:space="preserve">14.2453870773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1405143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7996740341187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2104301452637</t>
   </si>
   <si>
     <t xml:space="preserve">14.8309345245361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0144643783569</t>
+    <t xml:space="preserve">15.0144634246826</t>
   </si>
   <si>
     <t xml:space="preserve">15.3203468322754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9146327972412</t>
+    <t xml:space="preserve">15.9146308898926</t>
   </si>
   <si>
     <t xml:space="preserve">14.9795055389404</t>
@@ -2306,16 +2306,16 @@
     <t xml:space="preserve">14.9445476531982</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378257751465</t>
+    <t xml:space="preserve">15.3378229141235</t>
   </si>
   <si>
     <t xml:space="preserve">15.3640432357788</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0756416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4164800643921</t>
+    <t xml:space="preserve">15.0756397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4164810180664</t>
   </si>
   <si>
     <t xml:space="preserve">15.5475740432739</t>
@@ -2324,10 +2324,10 @@
     <t xml:space="preserve">15.7223644256592</t>
   </si>
   <si>
-    <t xml:space="preserve">16.05446434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709335327148</t>
+    <t xml:space="preserve">16.0544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709354400635</t>
   </si>
   <si>
     <t xml:space="preserve">14.8484125137329</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">14.5075721740723</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9620304107666</t>
+    <t xml:space="preserve">14.962028503418</t>
   </si>
   <si>
     <t xml:space="preserve">14.4900941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8746337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7610187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8833723068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1630353927612</t>
+    <t xml:space="preserve">14.8746318817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7610158920288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.883373260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1630363464355</t>
   </si>
   <si>
     <t xml:space="preserve">14.0705976486206</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2978258132935</t>
+    <t xml:space="preserve">14.2978248596191</t>
   </si>
   <si>
     <t xml:space="preserve">13.8608493804932</t>
@@ -2384,37 +2384,37 @@
     <t xml:space="preserve">13.8958072662354</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7872371673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.647406578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6736249923706</t>
+    <t xml:space="preserve">14.7872381210327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6474046707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6736240386963</t>
   </si>
   <si>
     <t xml:space="preserve">14.8921117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9008493423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5687494277954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.773455619812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8907642364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6635389328003</t>
+    <t xml:space="preserve">14.9008502960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5512714385986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5687484741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1230344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7734546661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8907651901245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.663537979126</t>
   </si>
   <si>
     <t xml:space="preserve">12.9344635009766</t>
@@ -2429,55 +2429,55 @@
     <t xml:space="preserve">11.7458906173706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6010150909424</t>
+    <t xml:space="preserve">10.6010160446167</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853843688965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67462921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9979887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29815769195557</t>
+    <t xml:space="preserve">9.67462825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99798965454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29815673828125</t>
   </si>
   <si>
     <t xml:space="preserve">8.96672821044922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4904260635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53412437438965</t>
+    <t xml:space="preserve">8.49042510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53412342071533</t>
   </si>
   <si>
     <t xml:space="preserve">8.17143440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86555147171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35126781463623</t>
+    <t xml:space="preserve">7.86555242538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35126686096191</t>
   </si>
   <si>
     <t xml:space="preserve">9.24639320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66588878631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72706508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83193874359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69210815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71832656860352</t>
+    <t xml:space="preserve">9.66588973999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72706413269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83193778991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69210720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7183256149292</t>
   </si>
   <si>
     <t xml:space="preserve">9.33378791809082</t>
@@ -2486,10 +2486,10 @@
     <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78824234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73580455780029</t>
+    <t xml:space="preserve">9.78824138641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73580551147461</t>
   </si>
   <si>
     <t xml:space="preserve">9.87563705444336</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">10.3563098907471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4000072479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.312611579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0154695510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1378221511841</t>
+    <t xml:space="preserve">10.4000062942505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3126125335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0154685974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1378231048584</t>
   </si>
   <si>
     <t xml:space="preserve">10.2339563369751</t>
@@ -2519,37 +2519,37 @@
     <t xml:space="preserve">10.5660581588745</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5922756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7058897018433</t>
+    <t xml:space="preserve">10.5922746658325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7058906555176</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215204238892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4924449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.230260848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2252168655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1203441619873</t>
+    <t xml:space="preserve">11.4924430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2302598953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2252159118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1203422546387</t>
   </si>
   <si>
     <t xml:space="preserve">10.0416870117188</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55227470397949</t>
+    <t xml:space="preserve">9.55227565765381</t>
   </si>
   <si>
     <t xml:space="preserve">9.76202392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7707633972168</t>
+    <t xml:space="preserve">9.77076435089111</t>
   </si>
   <si>
     <t xml:space="preserve">9.47361946105957</t>
@@ -2558,22 +2558,22 @@
     <t xml:space="preserve">9.50857830047607</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49983787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61345291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09782123565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16773796081543</t>
+    <t xml:space="preserve">9.49983882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61345195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09782218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16773700714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.08908176422119</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52605628967285</t>
+    <t xml:space="preserve">9.52605724334717</t>
   </si>
   <si>
     <t xml:space="preserve">9.96303176879883</t>
@@ -2582,10 +2582,10 @@
     <t xml:space="preserve">9.88437652587891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1116046905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4837064743042</t>
+    <t xml:space="preserve">10.1116027832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4837055206299</t>
   </si>
   <si>
     <t xml:space="preserve">11.1166467666626</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">10.2275371551514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.514627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4518251419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4697694778442</t>
+    <t xml:space="preserve">10.5146265029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4518260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4697685241699</t>
   </si>
   <si>
     <t xml:space="preserve">10.4338827133179</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3262252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7209711074829</t>
+    <t xml:space="preserve">10.3262243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7209720611572</t>
   </si>
   <si>
     <t xml:space="preserve">10.2813673019409</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">9.52775859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81484794616699</t>
+    <t xml:space="preserve">9.81484699249268</t>
   </si>
   <si>
     <t xml:space="preserve">9.66233158111572</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">9.77896118164062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74307537078857</t>
+    <t xml:space="preserve">9.74307441711426</t>
   </si>
   <si>
     <t xml:space="preserve">9.65336036682129</t>
@@ -2654,10 +2654,10 @@
     <t xml:space="preserve">9.40215682983398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23169803619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25861263275146</t>
+    <t xml:space="preserve">9.23169898986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25861167907715</t>
   </si>
   <si>
     <t xml:space="preserve">9.14198303222656</t>
@@ -2669,25 +2669,25 @@
     <t xml:space="preserve">9.44701480865479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60850238800049</t>
+    <t xml:space="preserve">9.60850143432617</t>
   </si>
   <si>
     <t xml:space="preserve">9.42907238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58158779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46495819091797</t>
+    <t xml:space="preserve">9.58158874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46495723724365</t>
   </si>
   <si>
     <t xml:space="preserve">9.69821739196777</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53672981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24964237213135</t>
+    <t xml:space="preserve">9.53673076629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24964141845703</t>
   </si>
   <si>
     <t xml:space="preserve">10.6222848892212</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">10.703028678894</t>
   </si>
   <si>
-    <t xml:space="preserve">11.268235206604</t>
+    <t xml:space="preserve">11.2682342529297</t>
   </si>
   <si>
     <t xml:space="preserve">11.393835067749</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">11.7706394195557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3758935928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1785182952881</t>
+    <t xml:space="preserve">11.3758926391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1785192489624</t>
   </si>
   <si>
     <t xml:space="preserve">11.0798330307007</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">10.9093723297119</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8286294937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5594844818115</t>
+    <t xml:space="preserve">10.8286304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5594835281372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4966831207275</t>
@@ -2738,19 +2738,19 @@
     <t xml:space="preserve">10.2454805374146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2006225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3621110916138</t>
+    <t xml:space="preserve">10.2006235122681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3621101379395</t>
   </si>
   <si>
     <t xml:space="preserve">10.3800535202026</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2903385162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2185668945312</t>
+    <t xml:space="preserve">10.290337562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2185659408569</t>
   </si>
   <si>
     <t xml:space="preserve">10.039134979248</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">10.0122203826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91353416442871</t>
+    <t xml:space="preserve">9.91353321075439</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032501220703</t>
@@ -2768,13 +2768,13 @@
     <t xml:space="preserve">10.2634229660034</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5953712463379</t>
+    <t xml:space="preserve">10.5953702926636</t>
   </si>
   <si>
     <t xml:space="preserve">11.0170316696167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0349740982056</t>
+    <t xml:space="preserve">11.0349750518799</t>
   </si>
   <si>
     <t xml:space="preserve">10.7389144897461</t>
@@ -2789,16 +2789,16 @@
     <t xml:space="preserve">10.6402273178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7748012542725</t>
+    <t xml:space="preserve">10.7748003005981</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721736907959</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8914318084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7568578720093</t>
+    <t xml:space="preserve">10.8914308547974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.756856918335</t>
   </si>
   <si>
     <t xml:space="preserve">10.8555450439453</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">10.7478857040405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0750207901001</t>
+    <t xml:space="preserve">10.0750217437744</t>
   </si>
   <si>
     <t xml:space="preserve">10.3351964950562</t>
@@ -2828,25 +2828,25 @@
     <t xml:space="preserve">10.0839929580688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1288509368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86867713928223</t>
+    <t xml:space="preserve">10.128851890564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86867618560791</t>
   </si>
   <si>
     <t xml:space="preserve">9.2406702041626</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06124019622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59023380279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76069450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87283802032471</t>
+    <t xml:space="preserve">9.06123924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59023475646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76069355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87283706665039</t>
   </si>
   <si>
     <t xml:space="preserve">9.36627101898193</t>
@@ -2864,7 +2864,7 @@
     <t xml:space="preserve">10.2095937728882</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94942092895508</t>
+    <t xml:space="preserve">9.94941997528076</t>
   </si>
   <si>
     <t xml:space="preserve">11.1964616775513</t>
@@ -2873,22 +2873,22 @@
     <t xml:space="preserve">11.4297218322754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9141845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6588201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6857347488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8920803070068</t>
+    <t xml:space="preserve">11.9141836166382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.658821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6857357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8920812606812</t>
   </si>
   <si>
     <t xml:space="preserve">12.2012729644775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.811336517334</t>
+    <t xml:space="preserve">12.8113355636597</t>
   </si>
   <si>
     <t xml:space="preserve">12.5152759552002</t>
@@ -2906,37 +2906,37 @@
     <t xml:space="preserve">12.3896751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2909879684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3089323043823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2640733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3807039260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4524745941162</t>
+    <t xml:space="preserve">12.2909889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.308931350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2640724182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3807029724121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4524755477905</t>
   </si>
   <si>
     <t xml:space="preserve">12.3627595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2102432250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3268737792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3358459472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087099075317</t>
+    <t xml:space="preserve">12.210244178772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3268728256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3358469009399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9907674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087108612061</t>
   </si>
   <si>
     <t xml:space="preserve">12.8203086853027</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">12.9010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.874137878418</t>
+    <t xml:space="preserve">12.8741369247437</t>
   </si>
   <si>
     <t xml:space="preserve">13.1163682937622</t>
@@ -2969,25 +2969,25 @@
     <t xml:space="preserve">12.596019744873</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1522531509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1791677474976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2509422302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.161226272583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3316850662231</t>
+    <t xml:space="preserve">13.1522541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1791687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2509412765503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1612253189087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3316841125488</t>
   </si>
   <si>
     <t xml:space="preserve">13.3675708770752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6636304855347</t>
+    <t xml:space="preserve">13.663631439209</t>
   </si>
   <si>
     <t xml:space="preserve">13.5649442672729</t>
@@ -2996,25 +2996,25 @@
     <t xml:space="preserve">13.6008310317993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.098424911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9638519287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2957992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3227138519287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2778558731079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6546592712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.762318611145</t>
+    <t xml:space="preserve">13.0984258651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9638528823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2957983016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3227128982544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2778549194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6546602249146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7623176574707</t>
   </si>
   <si>
     <t xml:space="preserve">13.5380306243896</t>
@@ -3023,19 +3023,19 @@
     <t xml:space="preserve">13.5739154815674</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1660356521606</t>
+    <t xml:space="preserve">14.166036605835</t>
   </si>
   <si>
     <t xml:space="preserve">14.3992958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4800395965576</t>
+    <t xml:space="preserve">14.4800386428833</t>
   </si>
   <si>
     <t xml:space="preserve">14.7761001586914</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8837594985962</t>
+    <t xml:space="preserve">14.8837585449219</t>
   </si>
   <si>
     <t xml:space="preserve">14.7850713729858</t>
@@ -3044,13 +3044,13 @@
     <t xml:space="preserve">14.9465599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5876989364624</t>
+    <t xml:space="preserve">14.5876979827881</t>
   </si>
   <si>
     <t xml:space="preserve">14.1122074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4710674285889</t>
+    <t xml:space="preserve">14.4710683822632</t>
   </si>
   <si>
     <t xml:space="preserve">14.0852928161621</t>
@@ -3062,52 +3062,52 @@
     <t xml:space="preserve">15.054217338562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0990743637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0093584060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4130792617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5835399627686</t>
+    <t xml:space="preserve">15.0990753173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0093593597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4130773544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5835380554199</t>
   </si>
   <si>
     <t xml:space="preserve">15.7719392776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5207376480103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8389024734497</t>
+    <t xml:space="preserve">15.5207357406616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8389005661011</t>
   </si>
   <si>
     <t xml:space="preserve">15.0003881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">15.152904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7767505645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1984119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4178867340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2564010620117</t>
+    <t xml:space="preserve">15.1529035568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7767486572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1984100341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4178886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2564029693604</t>
   </si>
   <si>
     <t xml:space="preserve">16.3371448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3461151123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3640594482422</t>
+    <t xml:space="preserve">16.3461170196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3640613555908</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614337921143</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">15.9782838821411</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7629690170288</t>
+    <t xml:space="preserve">15.7629671096802</t>
   </si>
   <si>
     <t xml:space="preserve">15.8526849746704</t>
@@ -3131,46 +3131,46 @@
     <t xml:space="preserve">15.6463384628296</t>
   </si>
   <si>
-    <t xml:space="preserve">15.628396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6911954879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.682225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6553115844727</t>
+    <t xml:space="preserve">15.6283950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6911935806274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6822233200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.655309677124</t>
   </si>
   <si>
     <t xml:space="preserve">15.466908454895</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5386810302734</t>
+    <t xml:space="preserve">15.5386791229248</t>
   </si>
   <si>
     <t xml:space="preserve">15.8347396850586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4220523834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2874784469604</t>
+    <t xml:space="preserve">15.4220504760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2874774932861</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4848518371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3143930435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.395133972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3323354721069</t>
+    <t xml:space="preserve">15.4848499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3143920898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3951349258423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3323335647583</t>
   </si>
   <si>
     <t xml:space="preserve">15.5476522445679</t>
@@ -3182,31 +3182,31 @@
     <t xml:space="preserve">15.5027942657471</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6642799377441</t>
+    <t xml:space="preserve">15.6642818450928</t>
   </si>
   <si>
     <t xml:space="preserve">15.7091388702393</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2336473464966</t>
+    <t xml:space="preserve">15.2336483001709</t>
   </si>
   <si>
     <t xml:space="preserve">14.8030138015747</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9824466705322</t>
+    <t xml:space="preserve">14.9824447631836</t>
   </si>
   <si>
     <t xml:space="preserve">17.2253265380859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.898193359375</t>
+    <t xml:space="preserve">17.8981914520264</t>
   </si>
   <si>
     <t xml:space="preserve">17.9251041412354</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5531139373779</t>
+    <t xml:space="preserve">18.5531120300293</t>
   </si>
   <si>
     <t xml:space="preserve">18.7684288024902</t>
@@ -5109,6 +5109,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.42000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.05000019073486</t>
   </si>
 </sst>
 </file>
@@ -62286,7 +62289,7 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n">
-        <v>45506.6496180556</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B2187" t="n">
         <v>269715</v>
@@ -62307,6 +62310,32 @@
         <v>1696</v>
       </c>
       <c r="H2187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" s="1" t="n">
+        <v>45509.5999189815</v>
+      </c>
+      <c r="B2188" t="n">
+        <v>270581</v>
+      </c>
+      <c r="C2188" t="n">
+        <v>6.07999992370605</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>5.36999988555908</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>5.40000009536743</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>6.05000019073486</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H2188" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1702">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,43 +44,43 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229219436646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147956848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8060216903687</t>
+    <t xml:space="preserve">13.1229209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8060207366943</t>
   </si>
   <si>
     <t xml:space="preserve">12.3103561401367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1884708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947542190552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.854775428772</t>
+    <t xml:space="preserve">12.1884737014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947532653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8547763824463</t>
   </si>
   <si>
     <t xml:space="preserve">13.3179359436035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8385229110718</t>
+    <t xml:space="preserve">12.8385248184204</t>
   </si>
   <si>
     <t xml:space="preserve">12.7410163879395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0091619491577</t>
+    <t xml:space="preserve">13.009162902832</t>
   </si>
   <si>
     <t xml:space="preserve">12.3753614425659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7003870010376</t>
+    <t xml:space="preserve">12.7003860473633</t>
   </si>
   <si>
     <t xml:space="preserve">12.4972467422485</t>
@@ -89,52 +89,52 @@
     <t xml:space="preserve">12.6678857803345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5134983062744</t>
+    <t xml:space="preserve">12.5134973526001</t>
   </si>
   <si>
     <t xml:space="preserve">12.0828380584717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9447011947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3022317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4327869415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2865257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7659387588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4002838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7984418869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471946716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6603031158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1722202301025</t>
+    <t xml:space="preserve">11.9447031021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3022327423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.432785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.286524772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7659378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4002847671509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7984409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471956253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603050231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1722221374512</t>
   </si>
   <si>
     <t xml:space="preserve">11.8228178024292</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0259599685669</t>
+    <t xml:space="preserve">12.0259590148926</t>
   </si>
   <si>
     <t xml:space="preserve">12.1478424072266</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9853315353394</t>
+    <t xml:space="preserve">11.985330581665</t>
   </si>
   <si>
     <t xml:space="preserve">11.9772052764893</t>
@@ -143,10 +143,10 @@
     <t xml:space="preserve">11.7009325027466</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4815406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2859783172607</t>
+    <t xml:space="preserve">11.4815397262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859802246094</t>
   </si>
   <si>
     <t xml:space="preserve">12.7166376113892</t>
@@ -155,19 +155,19 @@
     <t xml:space="preserve">12.757266998291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5541257858276</t>
+    <t xml:space="preserve">12.554126739502</t>
   </si>
   <si>
     <t xml:space="preserve">12.4322423934937</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4728689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4403667449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1635503768921</t>
+    <t xml:space="preserve">12.4728679656982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4403676986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1635522842407</t>
   </si>
   <si>
     <t xml:space="preserve">13.3260622024536</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">13.2935600280762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4885749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6267118453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.724217414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6917161941528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8136005401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9354867935181</t>
+    <t xml:space="preserve">13.4885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6267127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7242193222046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6917181015015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8136034011841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9354848861694</t>
   </si>
   <si>
     <t xml:space="preserve">13.9598627090454</t>
@@ -203,28 +203,28 @@
     <t xml:space="preserve">13.382942199707</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0904197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4641990661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4560737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5454559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3341856002808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3666915893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4398241043091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235715866089</t>
+    <t xml:space="preserve">13.0904207229614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4641981124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456072807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3341884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3666925430298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4398221969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235696792603</t>
   </si>
   <si>
     <t xml:space="preserve">13.3748168945312</t>
@@ -233,49 +233,49 @@
     <t xml:space="preserve">13.0335397720337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9360322952271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9847860336304</t>
+    <t xml:space="preserve">12.9360313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9847850799561</t>
   </si>
   <si>
     <t xml:space="preserve">13.2041778564453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9197797775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7978963851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9116554260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0655088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4708700180054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4295778274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3056945800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2396240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5452003479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534601211548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6195306777954</t>
+    <t xml:space="preserve">12.9197807312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7978944778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9116544723511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0655097961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4708709716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4295768737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3056926727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2396230697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5451993942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534582138062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6195297241211</t>
   </si>
   <si>
     <t xml:space="preserve">12.5864944458008</t>
@@ -287,37 +287,37 @@
     <t xml:space="preserve">12.826003074646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0489912033081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1480979919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.214168548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3710880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1646137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2059087753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1563558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.933367729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6938591003418</t>
+    <t xml:space="preserve">13.0489921569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.148097038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2141675949097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3710870742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1646146774292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2059097290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1563549041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9333686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6938610076904</t>
   </si>
   <si>
     <t xml:space="preserve">12.6360492706299</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496711730957</t>
+    <t xml:space="preserve">12.0496683120728</t>
   </si>
   <si>
     <t xml:space="preserve">11.7027988433838</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">11.5871744155884</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1659727096558</t>
+    <t xml:space="preserve">11.1659736633301</t>
   </si>
   <si>
     <t xml:space="preserve">11.372444152832</t>
@@ -335,34 +335,34 @@
     <t xml:space="preserve">11.9092693328857</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882818222046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9175281524658</t>
+    <t xml:space="preserve">12.3882846832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9175271987915</t>
   </si>
   <si>
     <t xml:space="preserve">11.6697616577148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.793646812439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.042088508606</t>
+    <t xml:space="preserve">11.7936449050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0420894622803</t>
   </si>
   <si>
     <t xml:space="preserve">10.3400859832764</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7365102767944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3146314620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505634307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9423055648804</t>
+    <t xml:space="preserve">10.7365131378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3146305084229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505643844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9423046112061</t>
   </si>
   <si>
     <t xml:space="preserve">11.5293617248535</t>
@@ -374,16 +374,16 @@
     <t xml:space="preserve">11.2155246734619</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5128450393677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0331525802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0579280853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8762331008911</t>
+    <t xml:space="preserve">11.5128440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0331506729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0579290390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8762340545654</t>
   </si>
   <si>
     <t xml:space="preserve">12.2065877914429</t>
@@ -392,34 +392,34 @@
     <t xml:space="preserve">11.8927507400513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.190071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1074810028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5121660232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7599306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2306871414185</t>
+    <t xml:space="preserve">12.1900701522827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1074800491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5121650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7599315643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2306861877441</t>
   </si>
   <si>
     <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380517959595</t>
+    <t xml:space="preserve">13.3380508422852</t>
   </si>
   <si>
     <t xml:space="preserve">13.4701919555664</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5032272338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297920227051</t>
+    <t xml:space="preserve">13.5032291412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297910690308</t>
   </si>
   <si>
     <t xml:space="preserve">13.4206399917603</t>
@@ -428,88 +428,88 @@
     <t xml:space="preserve">13.7014398574829</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264324188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7255382537842</t>
+    <t xml:space="preserve">14.6264295578003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878198623657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7255401611328</t>
   </si>
   <si>
     <t xml:space="preserve">14.2217473983765</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5355863571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0806674957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1550006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145978927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2128114700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9898223876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7833518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6925048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0393743515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467409133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5183877944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5514240264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266437530518</t>
+    <t xml:space="preserve">14.535587310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0806684494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1549997329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0146007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2128124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.989821434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.783350944519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6925020217896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0393733978271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5183887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5514221191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.526647567749</t>
   </si>
   <si>
     <t xml:space="preserve">15.4853525161743</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440631866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000875473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8322238922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8652620315552</t>
+    <t xml:space="preserve">15.4440612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8322257995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8652591705322</t>
   </si>
   <si>
     <t xml:space="preserve">15.7661552429199</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6918239593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2623624801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1137018203735</t>
+    <t xml:space="preserve">15.6918249130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2623643875122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1137027740479</t>
   </si>
   <si>
     <t xml:space="preserve">15.2293291091919</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1797771453857</t>
+    <t xml:space="preserve">15.1797752380371</t>
   </si>
   <si>
     <t xml:space="preserve">15.2871417999268</t>
@@ -518,67 +518,67 @@
     <t xml:space="preserve">15.8982954025269</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8487434387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6174945831299</t>
+    <t xml:space="preserve">15.8487424850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6174955368042</t>
   </si>
   <si>
     <t xml:space="preserve">15.1962938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7991886138916</t>
+    <t xml:space="preserve">15.7991905212402</t>
   </si>
   <si>
     <t xml:space="preserve">15.6587886810303</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5679397583008</t>
+    <t xml:space="preserve">15.5679407119751</t>
   </si>
   <si>
     <t xml:space="preserve">15.9395885467529</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6257543563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4110240936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2788829803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6009769439697</t>
+    <t xml:space="preserve">15.6257553100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110250473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2788820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6009750366211</t>
   </si>
   <si>
     <t xml:space="preserve">15.7331190109253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7166013717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744131088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7083415985107</t>
+    <t xml:space="preserve">15.7166032791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744121551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7083425521851</t>
   </si>
   <si>
     <t xml:space="preserve">15.5844593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0311164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614702224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6505317687988</t>
+    <t xml:space="preserve">15.0311193466187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6505336761475</t>
   </si>
   <si>
     <t xml:space="preserve">15.2210712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9237489700317</t>
+    <t xml:space="preserve">14.9237518310547</t>
   </si>
   <si>
     <t xml:space="preserve">14.9402694702148</t>
@@ -587,46 +587,46 @@
     <t xml:space="preserve">14.4860324859619</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8081283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6594676971436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8659391403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5933980941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7916097640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8411617279053</t>
+    <t xml:space="preserve">14.8081274032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6594667434692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8659381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5933971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7916107177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9485301971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8411636352539</t>
   </si>
   <si>
     <t xml:space="preserve">14.6842441558838</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4777736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7007608413696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3208560943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0400533676147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7592525482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7179584503174</t>
+    <t xml:space="preserve">14.4777746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7007627487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3208541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0400552749634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7592515945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7179594039917</t>
   </si>
   <si>
     <t xml:space="preserve">13.536262512207</t>
@@ -638,7 +638,7 @@
     <t xml:space="preserve">13.6684045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9492044448853</t>
+    <t xml:space="preserve">13.9492063522339</t>
   </si>
   <si>
     <t xml:space="preserve">14.1391611099243</t>
@@ -650,67 +650,67 @@
     <t xml:space="preserve">14.5768795013428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3704090118408</t>
+    <t xml:space="preserve">14.3704061508179</t>
   </si>
   <si>
     <t xml:space="preserve">15.3779888153076</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4358034133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054458618164</t>
+    <t xml:space="preserve">15.4357995986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054449081421</t>
   </si>
   <si>
     <t xml:space="preserve">15.2375869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">15.311918258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6670503616333</t>
+    <t xml:space="preserve">15.3119163513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6670475006104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0139198303223</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9643678665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9478483200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8735198974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909326553345</t>
+    <t xml:space="preserve">15.9643659591675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9478492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735227584839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909307479858</t>
   </si>
   <si>
     <t xml:space="preserve">16.0221786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9148149490356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157081604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6092367172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2451667785645</t>
+    <t xml:space="preserve">15.91481590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157052993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5101308822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6092376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2451705932617</t>
   </si>
   <si>
     <t xml:space="preserve">16.3112373352051</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3194980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3690509796143</t>
+    <t xml:space="preserve">16.3194999694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3690528869629</t>
   </si>
   <si>
     <t xml:space="preserve">16.4351215362549</t>
@@ -719,61 +719,61 @@
     <t xml:space="preserve">16.7819938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7324390411377</t>
+    <t xml:space="preserve">16.7324409484863</t>
   </si>
   <si>
     <t xml:space="preserve">16.9719467163086</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0215015411377</t>
+    <t xml:space="preserve">17.0215034484863</t>
   </si>
   <si>
     <t xml:space="preserve">16.7654762268066</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8893604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6002979278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5837783813477</t>
+    <t xml:space="preserve">16.8893585205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6002998352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5837821960449</t>
   </si>
   <si>
     <t xml:space="preserve">16.4020881652832</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1873569488525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5177116394043</t>
+    <t xml:space="preserve">16.1873550415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5177097320557</t>
   </si>
   <si>
     <t xml:space="preserve">16.4268627166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4681587219238</t>
+    <t xml:space="preserve">16.4681568145752</t>
   </si>
   <si>
     <t xml:space="preserve">16.914134979248</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3435935974121</t>
+    <t xml:space="preserve">17.3435955047607</t>
   </si>
   <si>
     <t xml:space="preserve">17.4261837005615</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4922580718994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8391265869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.979528427124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2438125610352</t>
+    <t xml:space="preserve">17.4922542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8391284942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9795265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2438106536865</t>
   </si>
   <si>
     <t xml:space="preserve">18.8714847564697</t>
@@ -791,28 +791,28 @@
     <t xml:space="preserve">19.7799587249756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9038410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9203605651855</t>
+    <t xml:space="preserve">19.9038391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9203586578369</t>
   </si>
   <si>
     <t xml:space="preserve">19.9616527557373</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2754898071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0194625854492</t>
+    <t xml:space="preserve">20.2754859924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">20.1268291473389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1516075134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2341938018799</t>
+    <t xml:space="preserve">20.1516036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2341957092285</t>
   </si>
   <si>
     <t xml:space="preserve">19.895580291748</t>
@@ -827,79 +827,79 @@
     <t xml:space="preserve">20.0607604980469</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9781703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5734882354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5817451477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3339786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5321922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4743785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0531787872314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9953651428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.110990524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6725921630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3415584564209</t>
+    <t xml:space="preserve">19.9781723022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.573486328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5817432403564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3339805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.532190322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4743804931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0531768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9953689575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1109924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6725902557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3415603637695</t>
   </si>
   <si>
     <t xml:space="preserve">20.7957973480225</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3078441619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1013736724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5083923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7423610687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4749698638916</t>
+    <t xml:space="preserve">21.3078460693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.101375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5083904266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.742359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.474967956543</t>
   </si>
   <si>
     <t xml:space="preserve">21.6420879364014</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3162021636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5585269927979</t>
+    <t xml:space="preserve">21.3162002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5585250854492</t>
   </si>
   <si>
     <t xml:space="preserve">22.1434497833252</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0822353363037</t>
+    <t xml:space="preserve">21.0822334289551</t>
   </si>
   <si>
     <t xml:space="preserve">21.0989456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0321006774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9318237304688</t>
+    <t xml:space="preserve">21.0320987701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9318256378174</t>
   </si>
   <si>
     <t xml:space="preserve">20.8649768829346</t>
@@ -911,46 +911,46 @@
     <t xml:space="preserve">21.057165145874</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5418148040771</t>
+    <t xml:space="preserve">21.5418167114258</t>
   </si>
   <si>
     <t xml:space="preserve">21.5501708984375</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4916763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6838703155518</t>
+    <t xml:space="preserve">21.491678237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6838684082031</t>
   </si>
   <si>
     <t xml:space="preserve">21.5919513702393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3914089202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.366340637207</t>
+    <t xml:space="preserve">21.3914070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3663349151611</t>
   </si>
   <si>
     <t xml:space="preserve">21.7172927856445</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8315544128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1407241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8566188812256</t>
+    <t xml:space="preserve">20.8315525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1407260894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8566207885742</t>
   </si>
   <si>
     <t xml:space="preserve">20.3636169433594</t>
   </si>
   <si>
-    <t xml:space="preserve">20.614294052124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6811428070068</t>
+    <t xml:space="preserve">20.6142959594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6811447143555</t>
   </si>
   <si>
     <t xml:space="preserve">20.5140247344971</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">20.9067573547363</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2744235992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8482646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5056705474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8706130981445</t>
+    <t xml:space="preserve">21.2744216918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8482666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.505672454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8706092834473</t>
   </si>
   <si>
     <t xml:space="preserve">19.6951351165771</t>
@@ -986,19 +986,19 @@
     <t xml:space="preserve">19.2021293640137</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6032180786133</t>
+    <t xml:space="preserve">19.6032161712646</t>
   </si>
   <si>
     <t xml:space="preserve">19.1269245147705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6366405487061</t>
+    <t xml:space="preserve">19.6366424560547</t>
   </si>
   <si>
     <t xml:space="preserve">19.9959526062012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0460891723633</t>
+    <t xml:space="preserve">20.0460872650146</t>
   </si>
   <si>
     <t xml:space="preserve">20.7396373748779</t>
@@ -1019,10 +1019,10 @@
     <t xml:space="preserve">21.3245620727539</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4582538604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2242851257324</t>
+    <t xml:space="preserve">21.4582557678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2242870330811</t>
   </si>
   <si>
     <t xml:space="preserve">21.7256469726562</t>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">21.8426322937012</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6170215606689</t>
+    <t xml:space="preserve">21.6170177459717</t>
   </si>
   <si>
     <t xml:space="preserve">21.6003074645996</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">21.2326431274414</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6588001251221</t>
+    <t xml:space="preserve">21.6587982177734</t>
   </si>
   <si>
     <t xml:space="preserve">22.1100234985352</t>
@@ -1049,25 +1049,25 @@
     <t xml:space="preserve">21.9930400848389</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1016674041748</t>
+    <t xml:space="preserve">22.1016693115234</t>
   </si>
   <si>
     <t xml:space="preserve">21.8844127655029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027561187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3607025146484</t>
+    <t xml:space="preserve">22.5027599334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3607063293457</t>
   </si>
   <si>
     <t xml:space="preserve">22.0682430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9596176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3523502349854</t>
+    <t xml:space="preserve">21.9596195220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3523464202881</t>
   </si>
   <si>
     <t xml:space="preserve">22.1935844421387</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">23.1127471923828</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5890407562256</t>
+    <t xml:space="preserve">23.589038848877</t>
   </si>
   <si>
     <t xml:space="preserve">23.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6642398834229</t>
+    <t xml:space="preserve">23.6642417907715</t>
   </si>
   <si>
     <t xml:space="preserve">23.5973968505859</t>
@@ -1100,10 +1100,10 @@
     <t xml:space="preserve">23.7812271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0904006958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4914875030518</t>
+    <t xml:space="preserve">24.0903987884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4914894104004</t>
   </si>
   <si>
     <t xml:space="preserve">24.3577919006348</t>
@@ -1118,82 +1118,82 @@
     <t xml:space="preserve">24.6586112976074</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0095634460449</t>
+    <t xml:space="preserve">25.0095615386963</t>
   </si>
   <si>
     <t xml:space="preserve">24.5332698822021</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6251831054688</t>
+    <t xml:space="preserve">24.6251850128174</t>
   </si>
   <si>
     <t xml:space="preserve">24.2240962982178</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1488914489746</t>
+    <t xml:space="preserve">24.1488933563232</t>
   </si>
   <si>
     <t xml:space="preserve">24.2408084869385</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6168308258057</t>
+    <t xml:space="preserve">24.616828918457</t>
   </si>
   <si>
     <t xml:space="preserve">24.8758659362793</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1125564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529750823975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7198238372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6696891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5359897613525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4858570098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3187351226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.30202293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3799476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6473445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1543369293213</t>
+    <t xml:space="preserve">26.1125583648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7198257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6696853637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5359916687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4858531951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.318733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3020210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3799495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6473426818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1543388366699</t>
   </si>
   <si>
     <t xml:space="preserve">25.8451633453369</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8006629943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2101039886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4022960662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2268199920654</t>
+    <t xml:space="preserve">24.8006610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2101058959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4022979736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">26.1292686462402</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9732265472412</t>
+    <t xml:space="preserve">26.9732284545898</t>
   </si>
   <si>
     <t xml:space="preserve">26.6724109649658</t>
@@ -1202,46 +1202,46 @@
     <t xml:space="preserve">27.8255405426025</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5023765563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1096458435059</t>
+    <t xml:space="preserve">28.5023803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1096439361572</t>
   </si>
   <si>
     <t xml:space="preserve">27.6333522796631</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2349872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7252674102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3993835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9454326629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5694160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1516151428223</t>
+    <t xml:space="preserve">28.2349853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.725269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3993873596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9454345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5694141387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1516170501709</t>
   </si>
   <si>
     <t xml:space="preserve">25.2685985565186</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2351741790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9120140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5025691986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939380645752</t>
+    <t xml:space="preserve">25.2351760864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9120121002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5025672912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939418792725</t>
   </si>
   <si>
     <t xml:space="preserve">25.8618774414062</t>
@@ -1253,16 +1253,16 @@
     <t xml:space="preserve">26.2629642486572</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4050197601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3715915679932</t>
+    <t xml:space="preserve">26.4050178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3715934753418</t>
   </si>
   <si>
     <t xml:space="preserve">26.2211856842041</t>
   </si>
   <si>
-    <t xml:space="preserve">26.438440322876</t>
+    <t xml:space="preserve">26.4384422302246</t>
   </si>
   <si>
     <t xml:space="preserve">26.196117401123</t>
@@ -1271,16 +1271,16 @@
     <t xml:space="preserve">25.9872169494629</t>
   </si>
   <si>
-    <t xml:space="preserve">26.070779800415</t>
+    <t xml:space="preserve">26.0707759857178</t>
   </si>
   <si>
     <t xml:space="preserve">26.1877613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.446798324585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7392597198486</t>
+    <t xml:space="preserve">26.4467964172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7392578125</t>
   </si>
   <si>
     <t xml:space="preserve">25.8702335357666</t>
@@ -1289,16 +1289,16 @@
     <t xml:space="preserve">25.7114696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098346710205</t>
+    <t xml:space="preserve">25.1098327636719</t>
   </si>
   <si>
     <t xml:space="preserve">26.037353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6864013671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0540657043457</t>
+    <t xml:space="preserve">25.6863994598389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0540637969971</t>
   </si>
   <si>
     <t xml:space="preserve">25.7532482147217</t>
@@ -1310,85 +1310,85 @@
     <t xml:space="preserve">26.3632392883301</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4495143890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2824039459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1180019378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3659591674805</t>
+    <t xml:space="preserve">27.4495182037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2824001312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1180038452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3659610748291</t>
   </si>
   <si>
     <t xml:space="preserve">27.1988353729248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8228168487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2796783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9063777923584</t>
+    <t xml:space="preserve">26.8228149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2796764373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9063816070557</t>
   </si>
   <si>
     <t xml:space="preserve">26.9899387359619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4912986755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0344429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6193618774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508838653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330772399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.324182510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8645973205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.736536026001</t>
+    <t xml:space="preserve">27.4913005828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0344390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6193656921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508800506592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330829620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3241786956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8646011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7365341186523</t>
   </si>
   <si>
     <t xml:space="preserve">25.2769546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">24.48313331604</t>
+    <t xml:space="preserve">24.4831314086914</t>
   </si>
   <si>
     <t xml:space="preserve">24.6084747314453</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2378978729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.028995513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7783164978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9036540985107</t>
+    <t xml:space="preserve">26.2378959655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0289936065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7783184051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.903657913208</t>
   </si>
   <si>
     <t xml:space="preserve">23.9817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0680541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9481601715088</t>
+    <t xml:space="preserve">25.0680522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9481563568115</t>
   </si>
   <si>
     <t xml:space="preserve">24.3160133361816</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">20.7229251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1825084686279</t>
+    <t xml:space="preserve">21.1825046539307</t>
   </si>
   <si>
     <t xml:space="preserve">21.2660675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">20.221565246582</t>
+    <t xml:space="preserve">20.2215633392334</t>
   </si>
   <si>
     <t xml:space="preserve">21.0153846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7674255371094</t>
+    <t xml:space="preserve">21.767427444458</t>
   </si>
   <si>
     <t xml:space="preserve">22.2270088195801</t>
@@ -1421,10 +1421,10 @@
     <t xml:space="preserve">22.3105697631836</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0208320617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3941287994385</t>
+    <t xml:space="preserve">23.0208301544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3941268920898</t>
   </si>
   <si>
     <t xml:space="preserve">21.4331855773926</t>
@@ -1433,82 +1433,82 @@
     <t xml:space="preserve">22.0181083679199</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8927669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2687892913818</t>
+    <t xml:space="preserve">21.8927688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2687873840332</t>
   </si>
   <si>
     <t xml:space="preserve">23.0626106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7701473236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.187952041626</t>
+    <t xml:space="preserve">22.770149230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1879501342773</t>
   </si>
   <si>
     <t xml:space="preserve">22.6030292510986</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9372711181641</t>
+    <t xml:space="preserve">22.9372692108154</t>
   </si>
   <si>
     <t xml:space="preserve">23.7728729248047</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3132934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2324542999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4885787963867</t>
+    <t xml:space="preserve">23.3132877349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2324523925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4885768890381</t>
   </si>
   <si>
     <t xml:space="preserve">25.3605155944824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.026273727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8591556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8173751831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9427146911621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4440765380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3591175079346</t>
+    <t xml:space="preserve">25.0262756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8591537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8173732757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9427127838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4440746307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3591194152832</t>
   </si>
   <si>
     <t xml:space="preserve">24.7644329071045</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3166408538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5715084075928</t>
+    <t xml:space="preserve">25.3166446685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5715103149414</t>
   </si>
   <si>
     <t xml:space="preserve">25.8688507080078</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0812397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4635372161865</t>
+    <t xml:space="preserve">26.081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4635353088379</t>
   </si>
   <si>
     <t xml:space="preserve">26.4210605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9962844848633</t>
+    <t xml:space="preserve">25.9962825775146</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732704162598</t>
@@ -1517,22 +1517,22 @@
     <t xml:space="preserve">27.8652973175049</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6529083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8883152008057</t>
+    <t xml:space="preserve">27.6529064178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8883113861084</t>
   </si>
   <si>
     <t xml:space="preserve">26.1661930084229</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2086715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.741418838501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.038761138916</t>
+    <t xml:space="preserve">26.2086734771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7414169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0387630462646</t>
   </si>
   <si>
     <t xml:space="preserve">26.3785800933838</t>
@@ -1541,34 +1541,34 @@
     <t xml:space="preserve">25.9538059234619</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3361034393311</t>
+    <t xml:space="preserve">26.3361072540283</t>
   </si>
   <si>
     <t xml:space="preserve">26.8458366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5060157775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6334495544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7608833312988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5909690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7803440093994</t>
+    <t xml:space="preserve">26.5060138702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6334476470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7608795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5909729003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7803421020508</t>
   </si>
   <si>
     <t xml:space="preserve">27.737865447998</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8918685913086</t>
+    <t xml:space="preserve">24.8918647766113</t>
   </si>
   <si>
     <t xml:space="preserve">24.2547035217285</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">24.6794776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4670886993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9998359680176</t>
+    <t xml:space="preserve">24.4670906066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9998378753662</t>
   </si>
   <si>
     <t xml:space="preserve">24.4246139526367</t>
@@ -1592,13 +1592,13 @@
     <t xml:space="preserve">24.5095672607422</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5520458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8493881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9768218994141</t>
+    <t xml:space="preserve">24.5520477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8493900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9768199920654</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237163543701</t>
@@ -1607,52 +1607,52 @@
     <t xml:space="preserve">27.2281341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">26.548490524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7184066772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2706108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.251148223877</t>
+    <t xml:space="preserve">26.5484943389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7184028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2706089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2511501312256</t>
   </si>
   <si>
     <t xml:space="preserve">27.3130912780762</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6953868865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6759281158447</t>
+    <t xml:space="preserve">27.695384979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6759243011475</t>
   </si>
   <si>
     <t xml:space="preserve">27.1431789398193</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3555660247803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0582237243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1467323303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7024955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3007316589355</t>
+    <t xml:space="preserve">27.3555698394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0582256317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1467304229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7024917602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3007335662842</t>
   </si>
   <si>
     <t xml:space="preserve">22.0033912658691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4706439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3237476348877</t>
+    <t xml:space="preserve">22.470645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">22.2157783508301</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">21.3662261962891</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2193298339844</t>
+    <t xml:space="preserve">20.219331741333</t>
   </si>
   <si>
     <t xml:space="preserve">20.3892421722412</t>
@@ -1676,13 +1676,13 @@
     <t xml:space="preserve">20.8989734649658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7715435028076</t>
+    <t xml:space="preserve">20.7715396881104</t>
   </si>
   <si>
     <t xml:space="preserve">22.3856887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4936580657959</t>
+    <t xml:space="preserve">21.4936599731445</t>
   </si>
   <si>
     <t xml:space="preserve">22.5131225585938</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">23.532585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8529434204102</t>
+    <t xml:space="preserve">22.8529415130615</t>
   </si>
   <si>
     <t xml:space="preserve">18.4777507781982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9255409240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0104961395264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1379299163818</t>
+    <t xml:space="preserve">17.9255447387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.010498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1379318237305</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503189086914</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">19.1998691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3273029327393</t>
+    <t xml:space="preserve">19.3273048400879</t>
   </si>
   <si>
     <t xml:space="preserve">19.1149139404297</t>
@@ -1736,22 +1736,22 @@
     <t xml:space="preserve">20.0494194030762</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0069408416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5821704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6246471405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.520227432251</t>
+    <t xml:space="preserve">20.0069427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5821666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6246452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5202293395996</t>
   </si>
   <si>
     <t xml:space="preserve">18.2653617858887</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2883796691895</t>
+    <t xml:space="preserve">17.2883777618408</t>
   </si>
   <si>
     <t xml:space="preserve">18.2228851318359</t>
@@ -1766,28 +1766,28 @@
     <t xml:space="preserve">17.4158115386963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0759925842285</t>
+    <t xml:space="preserve">17.0759906768799</t>
   </si>
   <si>
     <t xml:space="preserve">17.2034244537354</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3308563232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9910354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7326164245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9025268554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6671237945557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.921989440918</t>
+    <t xml:space="preserve">17.3308544158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9910373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7326145172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9025287628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.667121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9219913482666</t>
   </si>
   <si>
     <t xml:space="preserve">20.0918998718262</t>
@@ -1796,58 +1796,58 @@
     <t xml:space="preserve">19.9644660949707</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4317207336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3467655181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0688819885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1963157653809</t>
+    <t xml:space="preserve">20.4317188262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3467674255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.068883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1963176727295</t>
   </si>
   <si>
     <t xml:space="preserve">20.8564968109131</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6441097259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7945537567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.559154510498</t>
+    <t xml:space="preserve">20.6441078186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3042869567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7945556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5591526031494</t>
   </si>
   <si>
     <t xml:space="preserve">20.1768550872803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4742012023926</t>
+    <t xml:space="preserve">20.4741992950439</t>
   </si>
   <si>
     <t xml:space="preserve">19.7520790100098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8370342254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5396900177002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7556304931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9740428924561</t>
+    <t xml:space="preserve">19.8370361328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5396919250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7556324005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9740447998047</t>
   </si>
   <si>
     <t xml:space="preserve">17.0335121154785</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9230728149414</t>
+    <t xml:space="preserve">16.9230709075928</t>
   </si>
   <si>
     <t xml:space="preserve">16.8890857696533</t>
@@ -1856,13 +1856,13 @@
     <t xml:space="preserve">17.5432434082031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.67067527771</t>
+    <t xml:space="preserve">17.6706771850586</t>
   </si>
   <si>
     <t xml:space="preserve">17.7896137237549</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8235969543457</t>
+    <t xml:space="preserve">17.8235988616943</t>
   </si>
   <si>
     <t xml:space="preserve">18.7750949859619</t>
@@ -1871,7 +1871,7 @@
     <t xml:space="preserve">19.0979232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8260650634766</t>
+    <t xml:space="preserve">18.8260688781738</t>
   </si>
   <si>
     <t xml:space="preserve">18.5372200012207</t>
@@ -1883,94 +1883,94 @@
     <t xml:space="preserve">17.7046604156494</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0954532623291</t>
+    <t xml:space="preserve">18.0954513549805</t>
   </si>
   <si>
     <t xml:space="preserve">18.5542106628418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6051845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1294326782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2483711242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.452262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071323394775</t>
+    <t xml:space="preserve">18.6051826477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1294345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2483692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4522647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071304321289</t>
   </si>
   <si>
     <t xml:space="preserve">18.2313804626465</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0250186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0590000152588</t>
+    <t xml:space="preserve">17.025016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0589981079102</t>
   </si>
   <si>
     <t xml:space="preserve">16.9400615692139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9206018447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8356456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6742324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2324647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0200748443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.062554359436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0310401916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4473209381104</t>
+    <t xml:space="preserve">15.9206008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8356447219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6742315292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0200757980347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0625524520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.031042098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4473247528076</t>
   </si>
   <si>
     <t xml:space="preserve">16.3538722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">15.461841583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4533462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4448509216309</t>
+    <t xml:space="preserve">15.4618425369263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.45334815979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4448518753052</t>
   </si>
   <si>
     <t xml:space="preserve">15.0540571212769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2154731750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.731104850769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7485818862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1018600463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2329511642456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0494222640991</t>
+    <t xml:space="preserve">15.2154712677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7311019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7485828399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.101861000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2329530715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0494213104248</t>
   </si>
   <si>
     <t xml:space="preserve">15.031943321228</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">14.9270687103271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2853879928589</t>
+    <t xml:space="preserve">15.2853870391846</t>
   </si>
   <si>
     <t xml:space="preserve">16.4040451049805</t>
@@ -2000,7 +2000,7 @@
     <t xml:space="preserve">14.8571529388428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5774898529053</t>
+    <t xml:space="preserve">14.5774869918823</t>
   </si>
   <si>
     <t xml:space="preserve">14.7697582244873</t>
@@ -2015,43 +2015,43 @@
     <t xml:space="preserve">14.6124458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4201765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5600099563599</t>
+    <t xml:space="preserve">14.4201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5600109100342</t>
   </si>
   <si>
     <t xml:space="preserve">15.2242126464844</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9358072280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6998414993286</t>
+    <t xml:space="preserve">14.935809135437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6998405456543</t>
   </si>
   <si>
     <t xml:space="preserve">15.1193370819092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3990030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7173204421997</t>
+    <t xml:space="preserve">15.3990020751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047151565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.717321395874</t>
   </si>
   <si>
     <t xml:space="preserve">14.7348003387451</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3153038024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531196594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1055555343628</t>
+    <t xml:space="preserve">14.3153028488159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531177520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1055564880371</t>
   </si>
   <si>
     <t xml:space="preserve">14.1579933166504</t>
@@ -2060,10 +2060,10 @@
     <t xml:space="preserve">13.9919424057007</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4413537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6336231231689</t>
+    <t xml:space="preserve">13.4413547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6336221694946</t>
   </si>
   <si>
     <t xml:space="preserve">14.7784976959229</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">14.2541265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1842107772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5724458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9395065307617</t>
+    <t xml:space="preserve">14.1842098236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5724468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9395055770874</t>
   </si>
   <si>
     <t xml:space="preserve">13.9832029342651</t>
@@ -2090,13 +2090,13 @@
     <t xml:space="preserve">13.8783292770386</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5287494659424</t>
+    <t xml:space="preserve">13.5287485122681</t>
   </si>
   <si>
     <t xml:space="preserve">13.5025300979614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5637063980103</t>
+    <t xml:space="preserve">13.5637073516846</t>
   </si>
   <si>
     <t xml:space="preserve">12.4887475967407</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">11.2564783096313</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2652177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389984130859</t>
+    <t xml:space="preserve">11.2652187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389993667603</t>
   </si>
   <si>
     <t xml:space="preserve">10.8282432556152</t>
@@ -2117,10 +2117,10 @@
     <t xml:space="preserve">11.0292510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4662275314331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0379915237427</t>
+    <t xml:space="preserve">11.4662265777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0379905700684</t>
   </si>
   <si>
     <t xml:space="preserve">11.3263940811157</t>
@@ -2135,28 +2135,28 @@
     <t xml:space="preserve">11.0729484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0467309951782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5223608016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3526124954224</t>
+    <t xml:space="preserve">11.0467300415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5223588943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3526134490967</t>
   </si>
   <si>
     <t xml:space="preserve">11.1341257095337</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9505949020386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0117712020874</t>
+    <t xml:space="preserve">10.9505939483643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0117721557617</t>
   </si>
   <si>
     <t xml:space="preserve">11.6672353744507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8420248031616</t>
+    <t xml:space="preserve">11.8420257568359</t>
   </si>
   <si>
     <t xml:space="preserve">11.9731178283691</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">12.0605125427246</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5062284469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2178230285645</t>
+    <t xml:space="preserve">12.5062265396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2178239822388</t>
   </si>
   <si>
     <t xml:space="preserve">12.130428314209</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">11.7633695602417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8070678710938</t>
+    <t xml:space="preserve">11.8070669174194</t>
   </si>
   <si>
     <t xml:space="preserve">11.4400072097778</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">11.186562538147</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5885782241821</t>
+    <t xml:space="preserve">11.5885791778564</t>
   </si>
   <si>
     <t xml:space="preserve">11.5099239349365</t>
@@ -2216,22 +2216,22 @@
     <t xml:space="preserve">11.3089141845703</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3788328170776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3438730239868</t>
+    <t xml:space="preserve">11.378830909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3438720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.4225292205811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2914371490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3001756668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5623598098755</t>
+    <t xml:space="preserve">11.2914361953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3001766204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5623607635498</t>
   </si>
   <si>
     <t xml:space="preserve">12.0080757141113</t>
@@ -2240,58 +2240,58 @@
     <t xml:space="preserve">11.9905967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1216878890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6773204803467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5462274551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5899257659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.869589805603</t>
+    <t xml:space="preserve">12.1216897964478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.677321434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5462284088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5899248123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8695888519287</t>
   </si>
   <si>
     <t xml:space="preserve">14.0356388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9045476913452</t>
+    <t xml:space="preserve">13.9045467376709</t>
   </si>
   <si>
     <t xml:space="preserve">14.7959766387939</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2191696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949697494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2453870773315</t>
+    <t xml:space="preserve">14.2191705703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949678421021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2453861236572</t>
   </si>
   <si>
     <t xml:space="preserve">14.1405143737793</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7996730804443</t>
+    <t xml:space="preserve">13.79967212677</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104301452637</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8309345245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0144643783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203468322754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9146308898926</t>
+    <t xml:space="preserve">14.8309335708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0144634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203477859497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9146318435669</t>
   </si>
   <si>
     <t xml:space="preserve">14.9795064926147</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">14.9445476531982</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378229141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3640432357788</t>
+    <t xml:space="preserve">15.3378248214722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3640441894531</t>
   </si>
   <si>
     <t xml:space="preserve">15.0756397247314</t>
@@ -2312,16 +2312,16 @@
     <t xml:space="preserve">15.4164810180664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5475740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7223644256592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709354400635</t>
+    <t xml:space="preserve">15.5475730895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7223634719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709344863892</t>
   </si>
   <si>
     <t xml:space="preserve">14.8484125137329</t>
@@ -2330,37 +2330,37 @@
     <t xml:space="preserve">14.7435398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7085819244385</t>
+    <t xml:space="preserve">14.7085809707642</t>
   </si>
   <si>
     <t xml:space="preserve">14.8658924102783</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5250520706177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5075721740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.962028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900951385498</t>
+    <t xml:space="preserve">14.525053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5075731277466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9620275497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900932312012</t>
   </si>
   <si>
     <t xml:space="preserve">14.8746328353882</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7610168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8833723068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1630353927612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0705976486206</t>
+    <t xml:space="preserve">14.7610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8833713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1630373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0705986022949</t>
   </si>
   <si>
     <t xml:space="preserve">14.2978248596191</t>
@@ -2375,67 +2375,67 @@
     <t xml:space="preserve">13.922025680542</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8958072662354</t>
+    <t xml:space="preserve">13.8958082199097</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872381210327</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6474046707153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.673623085022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8921117782593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9008502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5512714385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5687484741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7734546661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8907651901245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.663537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9344635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3052177429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9294195175171</t>
+    <t xml:space="preserve">14.6474056243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6736240386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8921127319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9008512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5687503814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1230344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.773455619812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8907661437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6635389328003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9344615936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3052186965942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9294185638428</t>
   </si>
   <si>
     <t xml:space="preserve">11.7458906173706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6010150909424</t>
+    <t xml:space="preserve">10.6010160446167</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853843688965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67462921142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99798965454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29815769195557</t>
+    <t xml:space="preserve">9.67462825775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9979887008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29815673828125</t>
   </si>
   <si>
     <t xml:space="preserve">8.96672821044922</t>
@@ -2444,43 +2444,43 @@
     <t xml:space="preserve">8.4904260635376</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53412342071533</t>
+    <t xml:space="preserve">8.53412437438965</t>
   </si>
   <si>
     <t xml:space="preserve">8.17143440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86555242538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3512659072876</t>
+    <t xml:space="preserve">7.86555099487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35126781463623</t>
   </si>
   <si>
     <t xml:space="preserve">9.24639320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72706413269043</t>
+    <t xml:space="preserve">9.66588878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72706508636475</t>
   </si>
   <si>
     <t xml:space="preserve">9.83193874359131</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69210720062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71832656860352</t>
+    <t xml:space="preserve">9.69210815429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7183256149292</t>
   </si>
   <si>
     <t xml:space="preserve">9.33378791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41244316101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78824138641357</t>
+    <t xml:space="preserve">9.41244411468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78824234008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.73580455780029</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">9.87563705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3563108444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4000062942505</t>
+    <t xml:space="preserve">10.3563098907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4000072479248</t>
   </si>
   <si>
     <t xml:space="preserve">10.312611579895</t>
@@ -2501,55 +2501,55 @@
     <t xml:space="preserve">10.0154695510864</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1378221511841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2339563369751</t>
+    <t xml:space="preserve">10.1378231048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339582443237</t>
   </si>
   <si>
     <t xml:space="preserve">10.3213520050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5660581588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5922756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7058906555176</t>
+    <t xml:space="preserve">10.5660591125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5922765731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7058887481689</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215204238892</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4924440383911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.230260848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2252159118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1203422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416879653931</t>
+    <t xml:space="preserve">11.4924430847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2302598953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2252168655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.120343208313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416870117188</t>
   </si>
   <si>
     <t xml:space="preserve">9.55227565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76202392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77076435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47361946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50857830047607</t>
+    <t xml:space="preserve">9.76202297210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77076244354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47362041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50857734680176</t>
   </si>
   <si>
     <t xml:space="preserve">9.49983787536621</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">9.88437652587891</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1116027832031</t>
+    <t xml:space="preserve">10.1116037368774</t>
   </si>
   <si>
     <t xml:space="preserve">11.4837055206299</t>
@@ -2585,13 +2585,13 @@
     <t xml:space="preserve">11.1166467666626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8195037841797</t>
+    <t xml:space="preserve">10.8195018768311</t>
   </si>
   <si>
     <t xml:space="preserve">10.5048818588257</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86689853668213</t>
+    <t xml:space="preserve">9.86689758300781</t>
   </si>
   <si>
     <t xml:space="preserve">10.2275371551514</t>
@@ -2600,34 +2600,34 @@
     <t xml:space="preserve">10.5146265029907</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4518251419067</t>
+    <t xml:space="preserve">10.4518260955811</t>
   </si>
   <si>
     <t xml:space="preserve">10.4697694778442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4338827133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3262252807617</t>
+    <t xml:space="preserve">10.4338817596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3262243270874</t>
   </si>
   <si>
     <t xml:space="preserve">10.7209711074829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2813673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1647367477417</t>
+    <t xml:space="preserve">10.2813663482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1647357940674</t>
   </si>
   <si>
     <t xml:space="preserve">9.98530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89559078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52775859832764</t>
+    <t xml:space="preserve">9.89558982849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52775764465332</t>
   </si>
   <si>
     <t xml:space="preserve">9.81484699249268</t>
@@ -2639,10 +2639,10 @@
     <t xml:space="preserve">9.77896118164062</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74307441711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65336036682129</t>
+    <t xml:space="preserve">9.74307537078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65335941314697</t>
   </si>
   <si>
     <t xml:space="preserve">9.40215682983398</t>
@@ -2651,70 +2651,70 @@
     <t xml:space="preserve">9.23169898986816</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25861167907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14198207855225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83279037475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44701385498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60850143432617</t>
+    <t xml:space="preserve">9.25861263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14198303222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83279132843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44701480865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60850238800049</t>
   </si>
   <si>
     <t xml:space="preserve">9.42907238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58158874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46495819091797</t>
+    <t xml:space="preserve">9.58158779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46495914459229</t>
   </si>
   <si>
     <t xml:space="preserve">9.69821834564209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5367317199707</t>
+    <t xml:space="preserve">9.53672981262207</t>
   </si>
   <si>
     <t xml:space="preserve">9.24964141845703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6222848892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7119989395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7030296325684</t>
+    <t xml:space="preserve">10.6222858428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7119998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7030277252197</t>
   </si>
   <si>
     <t xml:space="preserve">11.2682342529297</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3938360214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6181230545044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7706384658813</t>
+    <t xml:space="preserve">11.393835067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.618124961853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7706394195557</t>
   </si>
   <si>
     <t xml:space="preserve">11.3758926391602</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1785192489624</t>
+    <t xml:space="preserve">11.1785202026367</t>
   </si>
   <si>
     <t xml:space="preserve">11.0798330307007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9093723297119</t>
+    <t xml:space="preserve">10.9093732833862</t>
   </si>
   <si>
     <t xml:space="preserve">10.8286294937134</t>
@@ -2726,34 +2726,34 @@
     <t xml:space="preserve">10.4966831207275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3979969024658</t>
+    <t xml:space="preserve">10.3979959487915</t>
   </si>
   <si>
     <t xml:space="preserve">10.2454805374146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2006225585938</t>
+    <t xml:space="preserve">10.2006235122681</t>
   </si>
   <si>
     <t xml:space="preserve">10.3621101379395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800525665283</t>
+    <t xml:space="preserve">10.3800535202026</t>
   </si>
   <si>
     <t xml:space="preserve">10.2903385162354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185659408569</t>
+    <t xml:space="preserve">10.2185668945312</t>
   </si>
   <si>
     <t xml:space="preserve">10.039134979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91353321075439</t>
+    <t xml:space="preserve">10.0122213363647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91353416442871</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032501220703</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">10.5953702926636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0170316696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0349750518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7389144897461</t>
+    <t xml:space="preserve">11.0170307159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0349740982056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7389154434204</t>
   </si>
   <si>
     <t xml:space="preserve">10.5505123138428</t>
@@ -2780,10 +2780,10 @@
     <t xml:space="preserve">10.6581707000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7748003005981</t>
+    <t xml:space="preserve">10.6402273178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7748012542725</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721727371216</t>
@@ -2792,16 +2792,16 @@
     <t xml:space="preserve">10.8914308547974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.756856918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8555450439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8465728759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8017148971558</t>
+    <t xml:space="preserve">10.7568578720093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.855544090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8465738296509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8017139434814</t>
   </si>
   <si>
     <t xml:space="preserve">10.8376007080078</t>
@@ -2825,19 +2825,19 @@
     <t xml:space="preserve">10.1288509368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86867618560791</t>
+    <t xml:space="preserve">9.86867713928223</t>
   </si>
   <si>
     <t xml:space="preserve">9.24067115783691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06123924255371</t>
+    <t xml:space="preserve">9.06124019622803</t>
   </si>
   <si>
     <t xml:space="preserve">8.59023380279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76069259643555</t>
+    <t xml:space="preserve">8.76069450378418</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283802032471</t>
@@ -2855,10 +2855,10 @@
     <t xml:space="preserve">9.22272682189941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2095937728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94941997528076</t>
+    <t xml:space="preserve">10.2095947265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94942092895508</t>
   </si>
   <si>
     <t xml:space="preserve">11.1964616775513</t>
@@ -2867,34 +2867,34 @@
     <t xml:space="preserve">11.4297218322754</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9141836166382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6588201522827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6857357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8920803070068</t>
+    <t xml:space="preserve">11.9141826629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.658821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6857347488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8920793533325</t>
   </si>
   <si>
     <t xml:space="preserve">12.2012729644775</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8113355636597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5152759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4345331192017</t>
+    <t xml:space="preserve">12.811336517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5152750015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4345321655273</t>
   </si>
   <si>
     <t xml:space="preserve">12.5332193374634</t>
   </si>
   <si>
-    <t xml:space="preserve">11.994927406311</t>
+    <t xml:space="preserve">11.9949283599854</t>
   </si>
   <si>
     <t xml:space="preserve">12.3896751403809</t>
@@ -2909,28 +2909,28 @@
     <t xml:space="preserve">12.2640733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3807029724121</t>
+    <t xml:space="preserve">12.3807039260864</t>
   </si>
   <si>
     <t xml:space="preserve">12.4524755477905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3627595901489</t>
+    <t xml:space="preserve">12.3627605438232</t>
   </si>
   <si>
     <t xml:space="preserve">12.210244178772</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3268737792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3358469009399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9907665252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0087099075317</t>
+    <t xml:space="preserve">12.3268747329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3358459472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9907674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0087089538574</t>
   </si>
   <si>
     <t xml:space="preserve">12.8203077316284</t>
@@ -2939,10 +2939,10 @@
     <t xml:space="preserve">12.7485361099243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9010524749756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8741369247437</t>
+    <t xml:space="preserve">12.9010515213013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.874137878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.1163682937622</t>
@@ -2960,31 +2960,31 @@
     <t xml:space="preserve">12.8831081390381</t>
   </si>
   <si>
-    <t xml:space="preserve">12.596019744873</t>
+    <t xml:space="preserve">12.5960206985474</t>
   </si>
   <si>
     <t xml:space="preserve">13.1522541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791687011719</t>
+    <t xml:space="preserve">13.1791677474976</t>
   </si>
   <si>
     <t xml:space="preserve">13.2509422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1612253189087</t>
+    <t xml:space="preserve">13.161226272583</t>
   </si>
   <si>
     <t xml:space="preserve">13.3316850662231</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3675708770752</t>
+    <t xml:space="preserve">13.3675718307495</t>
   </si>
   <si>
     <t xml:space="preserve">13.663631439209</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5649452209473</t>
+    <t xml:space="preserve">13.5649442672729</t>
   </si>
   <si>
     <t xml:space="preserve">13.6008310317993</t>
@@ -3014,37 +3014,37 @@
     <t xml:space="preserve">13.5380306243896</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5739154815674</t>
+    <t xml:space="preserve">13.5739164352417</t>
   </si>
   <si>
     <t xml:space="preserve">14.1660356521606</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3992958068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4800395965576</t>
+    <t xml:space="preserve">14.3992948532104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4800405502319</t>
   </si>
   <si>
     <t xml:space="preserve">14.7760992050171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8837585449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7850723266602</t>
+    <t xml:space="preserve">14.8837594985962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7850713729858</t>
   </si>
   <si>
     <t xml:space="preserve">14.9465599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5876979827881</t>
+    <t xml:space="preserve">14.5876989364624</t>
   </si>
   <si>
     <t xml:space="preserve">14.1122074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4710674285889</t>
+    <t xml:space="preserve">14.4710683822632</t>
   </si>
   <si>
     <t xml:space="preserve">14.0852928161621</t>
@@ -3053,16 +3053,16 @@
     <t xml:space="preserve">14.7671279907227</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0542182922363</t>
+    <t xml:space="preserve">15.0542192459106</t>
   </si>
   <si>
     <t xml:space="preserve">15.0990753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0093593597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4130792617798</t>
+    <t xml:space="preserve">15.0093603134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4130773544312</t>
   </si>
   <si>
     <t xml:space="preserve">15.5835380554199</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">15.7719392776489</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5207357406616</t>
+    <t xml:space="preserve">15.5207347869873</t>
   </si>
   <si>
     <t xml:space="preserve">14.8389015197754</t>
@@ -3080,46 +3080,46 @@
     <t xml:space="preserve">15.0003871917725</t>
   </si>
   <si>
-    <t xml:space="preserve">15.152904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7767505645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1984100341797</t>
+    <t xml:space="preserve">15.1529035568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7767524719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1984119415283</t>
   </si>
   <si>
     <t xml:space="preserve">16.4178867340088</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2564029693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3371467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3461170196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3640613555908</t>
+    <t xml:space="preserve">16.256404876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3371448516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3461151123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3640594482422</t>
   </si>
   <si>
     <t xml:space="preserve">16.5614318847656</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8437128067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782838821411</t>
+    <t xml:space="preserve">15.843713760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782857894897</t>
   </si>
   <si>
     <t xml:space="preserve">15.7629671096802</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8526849746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7360544204712</t>
+    <t xml:space="preserve">15.8526840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360534667969</t>
   </si>
   <si>
     <t xml:space="preserve">15.6463384628296</t>
@@ -3128,61 +3128,61 @@
     <t xml:space="preserve">15.6283950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6911954879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.682225227356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.655309677124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4669065475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5386810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8347415924072</t>
+    <t xml:space="preserve">15.6911945343018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6822233200073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6553106307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4669075012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5386791229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8347406387329</t>
   </si>
   <si>
     <t xml:space="preserve">15.4220504760742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2874774932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157049179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3143911361694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3951349258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3323335647583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5476522445679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.242618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5027933120728</t>
+    <t xml:space="preserve">15.2874784469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157030105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4848508834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3143920898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3951358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3323354721069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5476512908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2426195144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5027952194214</t>
   </si>
   <si>
     <t xml:space="preserve">15.6642799377441</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7091388702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2336463928223</t>
+    <t xml:space="preserve">15.7091398239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2336483001709</t>
   </si>
   <si>
     <t xml:space="preserve">14.803014755249</t>
@@ -3197,7 +3197,7 @@
     <t xml:space="preserve">17.8981914520264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9251041412354</t>
+    <t xml:space="preserve">17.925106048584</t>
   </si>
   <si>
     <t xml:space="preserve">18.5531120300293</t>
@@ -3206,34 +3206,34 @@
     <t xml:space="preserve">18.7684288024902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.338264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9945545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2297267913818</t>
+    <t xml:space="preserve">19.3382625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9945526123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2297248840332</t>
   </si>
   <si>
     <t xml:space="preserve">18.9583740234375</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3563537597656</t>
+    <t xml:space="preserve">19.3563556671143</t>
   </si>
   <si>
     <t xml:space="preserve">19.3201751708984</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8809661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4648971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.62770652771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5734367370605</t>
+    <t xml:space="preserve">19.8809642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4648952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6277084350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5734348297119</t>
   </si>
   <si>
     <t xml:space="preserve">19.4829864501953</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">18.777473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7412929534912</t>
+    <t xml:space="preserve">18.7412948608398</t>
   </si>
   <si>
     <t xml:space="preserve">18.632755279541</t>
@@ -3287,34 +3287,34 @@
     <t xml:space="preserve">18.1081409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0357837677002</t>
+    <t xml:space="preserve">18.0357818603516</t>
   </si>
   <si>
     <t xml:space="preserve">18.1262321472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9905567169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8277454376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6016178131104</t>
+    <t xml:space="preserve">17.9905548095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8277435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.601619720459</t>
   </si>
   <si>
     <t xml:space="preserve">17.9272422790527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4518527984619</t>
+    <t xml:space="preserve">18.4518508911133</t>
   </si>
   <si>
     <t xml:space="preserve">18.3071327209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9453296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6558895111084</t>
+    <t xml:space="preserve">17.9453315734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.655891418457</t>
   </si>
   <si>
     <t xml:space="preserve">16.8056583404541</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">17.0770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8458366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7011165618896</t>
+    <t xml:space="preserve">17.8458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.701114654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.8367900848389</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">17.8729705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528629302979</t>
+    <t xml:space="preserve">18.2528610229492</t>
   </si>
   <si>
     <t xml:space="preserve">18.2166805267334</t>
@@ -3350,10 +3350,10 @@
     <t xml:space="preserve">17.9996013641357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.090051651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3212223052979</t>
+    <t xml:space="preserve">18.0900535583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3212242126465</t>
   </si>
   <si>
     <t xml:space="preserve">17.5383052825928</t>
@@ -3365,13 +3365,13 @@
     <t xml:space="preserve">17.8006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6197090148926</t>
+    <t xml:space="preserve">17.6197109222412</t>
   </si>
   <si>
     <t xml:space="preserve">17.4026298522949</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8187007904053</t>
+    <t xml:space="preserve">17.8187026977539</t>
   </si>
   <si>
     <t xml:space="preserve">17.4207210540771</t>
@@ -3386,19 +3386,19 @@
     <t xml:space="preserve">17.1131896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9232444763184</t>
+    <t xml:space="preserve">16.9232425689697</t>
   </si>
   <si>
     <t xml:space="preserve">17.2488651275635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6739826202393</t>
+    <t xml:space="preserve">17.6739807128906</t>
   </si>
   <si>
     <t xml:space="preserve">18.3433132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.144323348999</t>
+    <t xml:space="preserve">18.1443214416504</t>
   </si>
   <si>
     <t xml:space="preserve">18.0448265075684</t>
@@ -3410,16 +3410,16 @@
     <t xml:space="preserve">17.7463417053223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4930782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1855487823486</t>
+    <t xml:space="preserve">17.4930801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1855506896973</t>
   </si>
   <si>
     <t xml:space="preserve">17.0317840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9322872161865</t>
+    <t xml:space="preserve">16.9322891235352</t>
   </si>
   <si>
     <t xml:space="preserve">16.8327922821045</t>
@@ -3428,13 +3428,13 @@
     <t xml:space="preserve">16.8237476348877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7332973480225</t>
+    <t xml:space="preserve">16.7332992553711</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167213439941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2810478210449</t>
+    <t xml:space="preserve">16.2810459136963</t>
   </si>
   <si>
     <t xml:space="preserve">16.6699829101562</t>
@@ -3443,16 +3443,16 @@
     <t xml:space="preserve">16.9503784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7513904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1905956268311</t>
+    <t xml:space="preserve">16.7513885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1905975341797</t>
   </si>
   <si>
     <t xml:space="preserve">15.9282903671265</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8197507858276</t>
+    <t xml:space="preserve">15.819748878479</t>
   </si>
   <si>
     <t xml:space="preserve">15.7654809951782</t>
@@ -3461,25 +3461,25 @@
     <t xml:space="preserve">15.4308137893677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.720253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4127244949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6207599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5845785140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217672348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5122203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.503173828125</t>
+    <t xml:space="preserve">15.7202548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4127254486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6207590103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5845804214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217691421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5122184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5031747817993</t>
   </si>
   <si>
     <t xml:space="preserve">15.9011554718018</t>
@@ -3488,22 +3488,22 @@
     <t xml:space="preserve">15.5483999252319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4850835800171</t>
+    <t xml:space="preserve">15.4850845336914</t>
   </si>
   <si>
     <t xml:space="preserve">15.3765439987183</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2137336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0056982040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7795724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3725471496582</t>
+    <t xml:space="preserve">15.2137327194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0056991577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7795715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3725461959839</t>
   </si>
   <si>
     <t xml:space="preserve">14.4449062347412</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">14.6619863510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6891222000122</t>
+    <t xml:space="preserve">14.6891212463379</t>
   </si>
   <si>
     <t xml:space="preserve">14.725302696228</t>
@@ -3536,10 +3536,10 @@
     <t xml:space="preserve">14.9333381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8609771728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5624914169312</t>
+    <t xml:space="preserve">14.8609781265259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5624923706055</t>
   </si>
   <si>
     <t xml:space="preserve">14.4991769790649</t>
@@ -3551,13 +3551,13 @@
     <t xml:space="preserve">14.1826009750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9655199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.137375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4318647384644</t>
+    <t xml:space="preserve">13.965518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1373748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.43186378479</t>
   </si>
   <si>
     <t xml:space="preserve">13.4861335754395</t>
@@ -3569,13 +3569,13 @@
     <t xml:space="preserve">13.7574844360352</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4770879745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2871427536011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7393941879272</t>
+    <t xml:space="preserve">13.4770889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2871417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7393932342529</t>
   </si>
   <si>
     <t xml:space="preserve">14.0197906494141</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">13.8931589126587</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9202947616577</t>
+    <t xml:space="preserve">13.920295715332</t>
   </si>
   <si>
     <t xml:space="preserve">13.5404043197632</t>
@@ -3596,16 +3596,16 @@
     <t xml:space="preserve">13.9836101531982</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6670341491699</t>
+    <t xml:space="preserve">13.6670331954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.6127643585205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8117542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.793664932251</t>
+    <t xml:space="preserve">13.8117551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7936639785767</t>
   </si>
   <si>
     <t xml:space="preserve">13.8207998275757</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">13.8569793701172</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8388900756836</t>
+    <t xml:space="preserve">13.8388891220093</t>
   </si>
   <si>
     <t xml:space="preserve">13.9474296569824</t>
@@ -3623,10 +3623,10 @@
     <t xml:space="preserve">13.9293394088745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0740613937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8027086257935</t>
+    <t xml:space="preserve">14.0740604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8027095794678</t>
   </si>
   <si>
     <t xml:space="preserve">13.5132684707642</t>
@@ -3641,37 +3641,37 @@
     <t xml:space="preserve">13.1333780288696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.033881187439</t>
+    <t xml:space="preserve">13.0338821411133</t>
   </si>
   <si>
     <t xml:space="preserve">13.0248365402222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.843936920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8891620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9615230560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7353973388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9575252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8942089080811</t>
+    <t xml:space="preserve">12.8439359664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8891611099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.961522102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7353963851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9575242996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8942079544067</t>
   </si>
   <si>
     <t xml:space="preserve">12.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2198295593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1565141677856</t>
+    <t xml:space="preserve">12.2198305130005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.15651512146</t>
   </si>
   <si>
     <t xml:space="preserve">12.4640455245972</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">12.3012351989746</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8399391174316</t>
+    <t xml:space="preserve">11.8399381637573</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675790786743</t>
@@ -3689,34 +3689,34 @@
     <t xml:space="preserve">11.4057779312134</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1977424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.523362159729</t>
+    <t xml:space="preserve">11.1977415084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5233631134033</t>
   </si>
   <si>
     <t xml:space="preserve">11.4238681793213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3334169387817</t>
+    <t xml:space="preserve">11.3334159851074</t>
   </si>
   <si>
     <t xml:space="preserve">11.1072912216187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0892009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4871835708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6952180862427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4781370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258865356445</t>
+    <t xml:space="preserve">11.0892019271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4871826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.695219039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4781379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258855819702</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520122528076</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">11.2248764038086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9806613922119</t>
+    <t xml:space="preserve">10.9806623458862</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424625396729</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">10.5103197097778</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99475288391113</t>
+    <t xml:space="preserve">9.99475383758545</t>
   </si>
   <si>
     <t xml:space="preserve">9.79576301574707</t>
@@ -3752,34 +3752,34 @@
     <t xml:space="preserve">10.3113288879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1123390197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67817687988281</t>
+    <t xml:space="preserve">10.1123380661011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67817783355713</t>
   </si>
   <si>
     <t xml:space="preserve">9.86812305450439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87769317626953</t>
+    <t xml:space="preserve">8.87769222259521</t>
   </si>
   <si>
     <t xml:space="preserve">9.25306129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12643146514893</t>
+    <t xml:space="preserve">9.12643051147461</t>
   </si>
   <si>
     <t xml:space="preserve">9.1083402633667</t>
   </si>
   <si>
-    <t xml:space="preserve">9.49727725982666</t>
+    <t xml:space="preserve">9.49727630615234</t>
   </si>
   <si>
     <t xml:space="preserve">9.28924179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07216167449951</t>
+    <t xml:space="preserve">9.0721607208252</t>
   </si>
   <si>
     <t xml:space="preserve">8.93648529052734</t>
@@ -3800,13 +3800,13 @@
     <t xml:space="preserve">8.84151268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49780178070068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46162223815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66061115264893</t>
+    <t xml:space="preserve">8.497802734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46162128448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66061210632324</t>
   </si>
   <si>
     <t xml:space="preserve">8.57468414306641</t>
@@ -3839,25 +3839,25 @@
     <t xml:space="preserve">8.2309741973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42544078826904</t>
+    <t xml:space="preserve">8.42544174194336</t>
   </si>
   <si>
     <t xml:space="preserve">8.2264518737793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09529781341553</t>
+    <t xml:space="preserve">8.09529876708984</t>
   </si>
   <si>
     <t xml:space="preserve">8.33951377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24001884460449</t>
+    <t xml:space="preserve">8.24001789093018</t>
   </si>
   <si>
     <t xml:space="preserve">8.10434246063232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14052391052246</t>
+    <t xml:space="preserve">8.14052295684814</t>
   </si>
   <si>
     <t xml:space="preserve">8.01389312744141</t>
@@ -3869,19 +3869,19 @@
     <t xml:space="preserve">7.89630699157715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86464977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99128103256226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8782172203064</t>
+    <t xml:space="preserve">7.86464929580688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9912805557251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87821769714355</t>
   </si>
   <si>
     <t xml:space="preserve">8.16861534118652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82201147079468</t>
+    <t xml:space="preserve">7.82201099395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.24824047088623</t>
@@ -3890,10 +3890,10 @@
     <t xml:space="preserve">8.27634429931641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56205749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29507827758789</t>
+    <t xml:space="preserve">8.5620584487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29507923126221</t>
   </si>
   <si>
     <t xml:space="preserve">8.13582897186279</t>
@@ -3914,10 +3914,10 @@
     <t xml:space="preserve">7.89695262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39109754562378</t>
+    <t xml:space="preserve">7.74706983566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39109802246094</t>
   </si>
   <si>
     <t xml:space="preserve">7.15222215652466</t>
@@ -3956,22 +3956,22 @@
     <t xml:space="preserve">6.87119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66041898727417</t>
+    <t xml:space="preserve">6.63699960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66041946411133</t>
   </si>
   <si>
     <t xml:space="preserve">6.58547782897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35596942901611</t>
+    <t xml:space="preserve">6.35596990585327</t>
   </si>
   <si>
     <t xml:space="preserve">6.52927160263062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67915487289429</t>
+    <t xml:space="preserve">6.67915439605713</t>
   </si>
   <si>
     <t xml:space="preserve">6.71194171905518</t>
@@ -3986,16 +3986,16 @@
     <t xml:space="preserve">6.42622709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26697635650635</t>
+    <t xml:space="preserve">6.26697683334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.3700213432312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45901393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68383884429932</t>
+    <t xml:space="preserve">6.45901441574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68383836746216</t>
   </si>
   <si>
     <t xml:space="preserve">6.63231611251831</t>
@@ -4004,16 +4004,16 @@
     <t xml:space="preserve">6.81030178070068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75878000259399</t>
+    <t xml:space="preserve">6.75877952575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.73536062240601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66510248184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82435321807861</t>
+    <t xml:space="preserve">6.6651029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82435369491577</t>
   </si>
   <si>
     <t xml:space="preserve">6.98828792572021</t>
@@ -4028,10 +4028,10 @@
     <t xml:space="preserve">6.99765539169312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6018705368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55503177642822</t>
+    <t xml:space="preserve">7.60187101364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55503225326538</t>
   </si>
   <si>
     <t xml:space="preserve">7.36299514770508</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">7.38173055648804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1241192817688</t>
+    <t xml:space="preserve">7.12411880493164</t>
   </si>
   <si>
     <t xml:space="preserve">7.20842838287354</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">7.61123847961426</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32552480697632</t>
+    <t xml:space="preserve">7.32552433013916</t>
   </si>
   <si>
     <t xml:space="preserve">7.37704658508301</t>
@@ -4073,16 +4073,16 @@
     <t xml:space="preserve">8.34191703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57142448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43091106414795</t>
+    <t xml:space="preserve">8.57142543792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43091011047363</t>
   </si>
   <si>
     <t xml:space="preserve">8.11709308624268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02341651916504</t>
+    <t xml:space="preserve">8.02341556549072</t>
   </si>
   <si>
     <t xml:space="preserve">8.24355697631836</t>
@@ -4091,28 +4091,28 @@
     <t xml:space="preserve">8.10304164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69086408615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56908416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44730424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54098081588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72833442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7939076423645</t>
+    <t xml:space="preserve">7.69086313247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56908369064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44730377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54098129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72833395004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79390811920166</t>
   </si>
   <si>
     <t xml:space="preserve">7.4285683631897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6557354927063</t>
+    <t xml:space="preserve">6.65573501586914</t>
   </si>
   <si>
     <t xml:space="preserve">6.88524341583252</t>
@@ -4136,16 +4136,16 @@
     <t xml:space="preserve">6.11709403991699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41685914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53863906860352</t>
+    <t xml:space="preserve">6.41685962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53863954544067</t>
   </si>
   <si>
     <t xml:space="preserve">6.51053619384766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56205892562866</t>
+    <t xml:space="preserve">6.5620584487915</t>
   </si>
   <si>
     <t xml:space="preserve">6.45432996749878</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">6.76346349716187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71662569046021</t>
+    <t xml:space="preserve">6.71662521362305</t>
   </si>
   <si>
     <t xml:space="preserve">6.74472808837891</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">6.68852186203003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83372163772583</t>
+    <t xml:space="preserve">6.83372116088867</t>
   </si>
   <si>
     <t xml:space="preserve">6.97891998291016</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">7.0210747718811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74941158294678</t>
+    <t xml:space="preserve">6.74941205978394</t>
   </si>
   <si>
     <t xml:space="preserve">6.86650800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0117073059082</t>
+    <t xml:space="preserve">7.01170682907104</t>
   </si>
   <si>
     <t xml:space="preserve">7.1334867477417</t>
@@ -4220,19 +4220,19 @@
     <t xml:space="preserve">8.39343929290771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33723258972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99531269073486</t>
+    <t xml:space="preserve">8.337233543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99531316757202</t>
   </si>
   <si>
     <t xml:space="preserve">7.90163707733154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97189426422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93442392349243</t>
+    <t xml:space="preserve">7.97189378738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93442296981812</t>
   </si>
   <si>
     <t xml:space="preserve">7.86884927749634</t>
@@ -4241,22 +4241,22 @@
     <t xml:space="preserve">7.97657871246338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91568756103516</t>
+    <t xml:space="preserve">7.91568851470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.12646102905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07493782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92505598068237</t>
+    <t xml:space="preserve">8.07493877410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92505550384521</t>
   </si>
   <si>
     <t xml:space="preserve">7.77048921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83137798309326</t>
+    <t xml:space="preserve">7.83137845993042</t>
   </si>
   <si>
     <t xml:space="preserve">7.83606243133545</t>
@@ -4265,7 +4265,7 @@
     <t xml:space="preserve">7.75175333023071</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50819444656372</t>
+    <t xml:space="preserve">7.50819396972656</t>
   </si>
   <si>
     <t xml:space="preserve">7.47540712356567</t>
@@ -4280,10 +4280,10 @@
     <t xml:space="preserve">7.55034875869751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47072315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71896696090698</t>
+    <t xml:space="preserve">7.4707236289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71896648406982</t>
   </si>
   <si>
     <t xml:space="preserve">7.65339326858521</t>
@@ -4307,16 +4307,16 @@
     <t xml:space="preserve">8.56674194335938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59016132354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04917621612549</t>
+    <t xml:space="preserve">8.59016036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0491771697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.18032455444336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91803073883057</t>
+    <t xml:space="preserve">8.91802978515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.89461040496826</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">8.96018314361572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94144916534424</t>
+    <t xml:space="preserve">8.94144821166992</t>
   </si>
   <si>
     <t xml:space="preserve">8.95550060272217</t>
@@ -4367,7 +4367,7 @@
     <t xml:space="preserve">8.44496250152588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43559455871582</t>
+    <t xml:space="preserve">8.4355936050415</t>
   </si>
   <si>
     <t xml:space="preserve">8.46838092803955</t>
@@ -4382,31 +4382,31 @@
     <t xml:space="preserve">8.2154541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21077060699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04215240478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89226913452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70959854125977</t>
+    <t xml:space="preserve">8.21076965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04215145111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89226865768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70959901809692</t>
   </si>
   <si>
     <t xml:space="preserve">8.22013759613037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26697635650635</t>
+    <t xml:space="preserve">8.26697540283203</t>
   </si>
   <si>
     <t xml:space="preserve">8.18266677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13114547729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25292491912842</t>
+    <t xml:space="preserve">8.13114452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.30913066864014</t>
@@ -4418,43 +4418,43 @@
     <t xml:space="preserve">8.37002086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17798233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14753818511963</t>
+    <t xml:space="preserve">8.17798328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3161563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14753866195679</t>
   </si>
   <si>
     <t xml:space="preserve">7.52224540710449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40514993667603</t>
+    <t xml:space="preserve">7.40514945983887</t>
   </si>
   <si>
     <t xml:space="preserve">7.54566478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43325233459473</t>
+    <t xml:space="preserve">7.43325281143188</t>
   </si>
   <si>
     <t xml:space="preserve">7.3067889213562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20374488830566</t>
+    <t xml:space="preserve">7.20374441146851</t>
   </si>
   <si>
     <t xml:space="preserve">7.18969297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91803073883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32084083557129</t>
+    <t xml:space="preserve">6.91803026199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32084035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.06322908401489</t>
@@ -4463,7 +4463,7 @@
     <t xml:space="preserve">7.07728099822998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96018505096436</t>
+    <t xml:space="preserve">6.9601845741272</t>
   </si>
   <si>
     <t xml:space="preserve">7.13817071914673</t>
@@ -4478,33 +4478,36 @@
     <t xml:space="preserve">7.09133243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94613313674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80093479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625082015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60889673233032</t>
+    <t xml:space="preserve">6.94613361358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80093431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625034332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60889720916748</t>
   </si>
   <si>
     <t xml:space="preserve">6.44964647293091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4730658531189</t>
+    <t xml:space="preserve">6.47306537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59016180038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89349460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80053758621216</t>
   </si>
   <si>
     <t xml:space="preserve">6.59016132354736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89349460601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80053758621216</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.56569910049438</t>
   </si>
   <si>
@@ -5112,6 +5115,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.19000005722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34000015258789</t>
   </si>
 </sst>
 </file>
@@ -54377,7 +54383,7 @@
         <v>6.7350001335144</v>
       </c>
       <c r="G1882" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54403,7 +54409,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1883" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54429,7 +54435,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1884" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54455,7 +54461,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G1885" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54481,7 +54487,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1886" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54507,7 +54513,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1887" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54533,7 +54539,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1888" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54559,7 +54565,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1889" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54585,7 +54591,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1890" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54611,7 +54617,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G1891" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54637,7 +54643,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G1892" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54663,7 +54669,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G1893" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54689,7 +54695,7 @@
         <v>6.99499988555908</v>
       </c>
       <c r="G1894" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54715,7 +54721,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54741,7 +54747,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G1896" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54767,7 +54773,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1897" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54793,7 +54799,7 @@
         <v>7.18499994277954</v>
       </c>
       <c r="G1898" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54819,7 +54825,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54845,7 +54851,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1900" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54871,7 +54877,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1901" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54897,7 +54903,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G1902" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54923,7 +54929,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1903" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54949,7 +54955,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G1904" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -54975,7 +54981,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G1905" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55001,7 +55007,7 @@
         <v>6.75</v>
       </c>
       <c r="G1906" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55053,7 +55059,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1908" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55105,7 +55111,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55131,7 +55137,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1911" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55157,7 +55163,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G1912" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55183,7 +55189,7 @@
         <v>6.625</v>
       </c>
       <c r="G1913" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55209,7 +55215,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1914" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55235,7 +55241,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55261,7 +55267,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55287,7 +55293,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G1917" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55313,7 +55319,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1918" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55339,7 +55345,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1919" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55365,7 +55371,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1920" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55391,7 +55397,7 @@
         <v>6.70499992370605</v>
       </c>
       <c r="G1921" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55417,7 +55423,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55443,7 +55449,7 @@
         <v>6.70499992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55469,7 +55475,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1924" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55495,7 +55501,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1925" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55521,7 +55527,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1926" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55547,7 +55553,7 @@
         <v>6.54500007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55573,7 +55579,7 @@
         <v>6.64499998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55599,7 +55605,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1929" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55625,7 +55631,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1930" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55651,7 +55657,7 @@
         <v>6.625</v>
       </c>
       <c r="G1931" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55677,7 +55683,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1932" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55703,7 +55709,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1933" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55729,7 +55735,7 @@
         <v>5.60500001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55755,7 +55761,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G1935" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55781,7 +55787,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55807,7 +55813,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1937" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55833,7 +55839,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1938" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55859,7 +55865,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1939" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55885,7 +55891,7 @@
         <v>6.2350001335144</v>
       </c>
       <c r="G1940" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55911,7 +55917,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G1941" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55937,7 +55943,7 @@
         <v>6.24499988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55963,7 +55969,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -55989,7 +55995,7 @@
         <v>6.125</v>
       </c>
       <c r="G1944" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56015,7 +56021,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1945" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56041,7 +56047,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56067,7 +56073,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G1947" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56093,7 +56099,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1948" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56119,7 +56125,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G1949" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56145,7 +56151,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1950" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56171,7 +56177,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1951" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56197,7 +56203,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G1952" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56223,7 +56229,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1953" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56249,7 +56255,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G1954" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56275,7 +56281,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1955" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56301,7 +56307,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G1956" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56327,7 +56333,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1957" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56353,7 +56359,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1958" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56379,7 +56385,7 @@
         <v>6.36499977111816</v>
       </c>
       <c r="G1959" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56405,7 +56411,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56431,7 +56437,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1961" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56457,7 +56463,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1962" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56483,7 +56489,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1963" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56509,7 +56515,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G1964" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56535,7 +56541,7 @@
         <v>5.9850001335144</v>
       </c>
       <c r="G1965" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56561,7 +56567,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G1966" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56587,7 +56593,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1967" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56613,7 +56619,7 @@
         <v>5.9850001335144</v>
       </c>
       <c r="G1968" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56639,7 +56645,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1969" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56665,7 +56671,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56691,7 +56697,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1971" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56717,7 +56723,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G1972" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56743,7 +56749,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1973" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56769,7 +56775,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G1974" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56795,7 +56801,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1975" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56821,7 +56827,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G1976" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56847,7 +56853,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1977" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56873,7 +56879,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56899,7 +56905,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1979" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56925,7 +56931,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G1980" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56951,7 +56957,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G1981" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -56977,7 +56983,7 @@
         <v>5.79500007629395</v>
       </c>
       <c r="G1982" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57003,7 +57009,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G1983" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57029,7 +57035,7 @@
         <v>5.63500022888184</v>
       </c>
       <c r="G1984" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57055,7 +57061,7 @@
         <v>5.69500017166138</v>
       </c>
       <c r="G1985" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57081,7 +57087,7 @@
         <v>5.55499982833862</v>
       </c>
       <c r="G1986" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57107,7 +57113,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G1987" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57133,7 +57139,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1988" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57159,7 +57165,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G1989" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57185,7 +57191,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G1990" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57211,7 +57217,7 @@
         <v>5.25500011444092</v>
       </c>
       <c r="G1991" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57237,7 +57243,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57263,7 +57269,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57289,7 +57295,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57315,7 +57321,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57341,7 +57347,7 @@
         <v>5.61499977111816</v>
       </c>
       <c r="G1996" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57367,7 +57373,7 @@
         <v>5.74499988555908</v>
       </c>
       <c r="G1997" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57393,7 +57399,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57419,7 +57425,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57445,7 +57451,7 @@
         <v>5.79500007629395</v>
       </c>
       <c r="G2000" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57471,7 +57477,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G2001" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57497,7 +57503,7 @@
         <v>6</v>
       </c>
       <c r="G2002" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57523,7 +57529,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57549,7 +57555,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57575,7 +57581,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G2005" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57601,7 +57607,7 @@
         <v>5.66499996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57627,7 +57633,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2007" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57653,7 +57659,7 @@
         <v>5.52500009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57679,7 +57685,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2009" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57705,7 +57711,7 @@
         <v>5.50500011444092</v>
       </c>
       <c r="G2010" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57731,7 +57737,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2011" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57757,7 +57763,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2012" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57783,7 +57789,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2013" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57809,7 +57815,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2014" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57835,7 +57841,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57861,7 +57867,7 @@
         <v>6.02500009536743</v>
       </c>
       <c r="G2016" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57887,7 +57893,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57913,7 +57919,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G2018" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57939,7 +57945,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G2019" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -57965,7 +57971,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -57991,7 +57997,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G2021" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58017,7 +58023,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G2022" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58043,7 +58049,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G2023" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58069,7 +58075,7 @@
         <v>6.44500017166138</v>
       </c>
       <c r="G2024" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58095,7 +58101,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G2025" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58121,7 +58127,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2026" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58147,7 +58153,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58173,7 +58179,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2028" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58199,7 +58205,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G2029" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58225,7 +58231,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58251,7 +58257,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58277,7 +58283,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G2032" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58303,7 +58309,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G2033" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58329,7 +58335,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2034" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58355,7 +58361,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G2035" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58381,7 +58387,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G2036" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58407,7 +58413,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G2037" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58433,7 +58439,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2038" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58459,7 +58465,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2039" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58485,7 +58491,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58511,7 +58517,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G2041" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58537,7 +58543,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G2042" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58563,7 +58569,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G2043" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58589,7 +58595,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58615,7 +58621,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2045" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58641,7 +58647,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G2046" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58667,7 +58673,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2047" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58693,7 +58699,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G2048" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58719,7 +58725,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58745,7 +58751,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G2050" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58771,7 +58777,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G2051" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58797,7 +58803,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G2052" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58823,7 +58829,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58849,7 +58855,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G2054" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58875,7 +58881,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58901,7 +58907,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G2056" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58927,7 +58933,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G2057" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58953,7 +58959,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G2058" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58979,7 +58985,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59005,7 +59011,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G2060" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59031,7 +59037,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59057,7 +59063,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59083,7 +59089,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2063" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59109,7 +59115,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2064" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59135,7 +59141,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2065" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59161,7 +59167,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2066" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59187,7 +59193,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2067" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59213,7 +59219,7 @@
         <v>5.97499990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59239,7 +59245,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59265,7 +59271,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G2070" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59291,7 +59297,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G2071" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59317,7 +59323,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2072" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59343,7 +59349,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59369,7 +59375,7 @@
         <v>6.125</v>
       </c>
       <c r="G2074" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59395,7 +59401,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G2075" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59421,7 +59427,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2076" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59447,7 +59453,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59473,7 +59479,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2078" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59499,7 +59505,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59525,7 +59531,7 @@
         <v>5.74499988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59551,7 +59557,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59577,7 +59583,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G2082" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59603,7 +59609,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2083" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59629,7 +59635,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2084" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59655,7 +59661,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G2085" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59681,7 +59687,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G2086" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59707,7 +59713,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2087" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59733,7 +59739,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2088" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59759,7 +59765,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2089" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59785,7 +59791,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G2090" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59811,7 +59817,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G2091" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59837,7 +59843,7 @@
         <v>5.21000003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59863,7 +59869,7 @@
         <v>5.15500020980835</v>
       </c>
       <c r="G2093" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59889,7 +59895,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59915,7 +59921,7 @@
         <v>5.34499979019165</v>
       </c>
       <c r="G2095" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59941,7 +59947,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59967,7 +59973,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G2097" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59993,7 +59999,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G2098" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60019,7 +60025,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2099" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60045,7 +60051,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60071,7 +60077,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G2101" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60097,7 +60103,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60123,7 +60129,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G2103" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60149,7 +60155,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G2104" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60175,7 +60181,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2105" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60201,7 +60207,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2106" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60227,7 +60233,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2107" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60253,7 +60259,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2108" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60279,7 +60285,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G2109" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60305,7 +60311,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60331,7 +60337,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60357,7 +60363,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G2112" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60383,7 +60389,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2113" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60409,7 +60415,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G2114" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60435,7 +60441,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60461,7 +60467,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G2116" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60487,7 +60493,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G2117" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60513,7 +60519,7 @@
         <v>5.5</v>
       </c>
       <c r="G2118" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60539,7 +60545,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2119" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60565,7 +60571,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2120" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60591,7 +60597,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2121" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60617,7 +60623,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60643,7 +60649,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2123" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60669,7 +60675,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60695,7 +60701,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2125" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60721,7 +60727,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60747,7 +60753,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2127" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60773,7 +60779,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G2128" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60799,7 +60805,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G2129" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60825,7 +60831,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2130" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60851,7 +60857,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G2131" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60877,7 +60883,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60903,7 +60909,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60929,7 +60935,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G2134" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60955,7 +60961,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G2135" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60981,7 +60987,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G2136" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61007,7 +61013,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G2137" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61033,7 +61039,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2138" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61059,7 +61065,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G2139" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61085,7 +61091,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61111,7 +61117,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2141" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61137,7 +61143,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61163,7 +61169,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2143" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61189,7 +61195,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G2144" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61215,7 +61221,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G2145" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61241,7 +61247,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61267,7 +61273,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2147" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61293,7 +61299,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2148" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61319,7 +61325,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2149" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61345,7 +61351,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61371,7 +61377,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61397,7 +61403,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61423,7 +61429,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2153" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61449,7 +61455,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2154" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61475,7 +61481,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2155" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61501,7 +61507,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2156" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61527,7 +61533,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2157" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61553,7 +61559,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G2158" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61579,7 +61585,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61605,7 +61611,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2160" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61631,7 +61637,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61657,7 +61663,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G2162" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61683,7 +61689,7 @@
         <v>5.5</v>
       </c>
       <c r="G2163" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61709,7 +61715,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2164" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61735,7 +61741,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G2165" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61761,7 +61767,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2166" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61787,7 +61793,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2167" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61813,7 +61819,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2168" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61839,7 +61845,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G2169" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61865,7 +61871,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2170" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61891,7 +61897,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G2171" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61917,7 +61923,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61943,7 +61949,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G2173" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61969,7 +61975,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2174" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61995,7 +62001,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G2175" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62021,7 +62027,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G2176" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62047,7 +62053,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2177" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62073,7 +62079,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2178" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62099,7 +62105,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2179" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62125,7 +62131,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G2180" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62151,7 +62157,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2181" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62177,7 +62183,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2182" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62203,7 +62209,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G2183" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62229,7 +62235,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G2184" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -62255,7 +62261,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2185" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -62281,7 +62287,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2186" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -62307,7 +62313,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G2187" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -62333,7 +62339,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G2188" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -62359,7 +62365,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G2189" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -62385,7 +62391,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G2190" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -62411,7 +62417,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G2191" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -62437,7 +62443,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G2192" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -62445,7 +62451,7 @@
     </row>
     <row r="2193">
       <c r="A2193" s="1" t="n">
-        <v>45516.6496527778</v>
+        <v>45516.2916666667</v>
       </c>
       <c r="B2193" t="n">
         <v>73039</v>
@@ -62463,9 +62469,35 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2193" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H2193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" s="1" t="n">
+        <v>45517.6495486111</v>
+      </c>
+      <c r="B2194" t="n">
+        <v>98561</v>
+      </c>
+      <c r="C2194" t="n">
+        <v>6.44000005722046</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>6.19000005722046</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>6.21999979019165</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>6.34000015258789</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H2194" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1704">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0985450744629</t>
+    <t xml:space="preserve">13.0985441207886</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229190826416</t>
+    <t xml:space="preserve">13.1229219436646</t>
   </si>
   <si>
     <t xml:space="preserve">13.1147956848145</t>
@@ -53,43 +53,43 @@
     <t xml:space="preserve">12.8060216903687</t>
   </si>
   <si>
-    <t xml:space="preserve">12.310357093811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1884727478027</t>
+    <t xml:space="preserve">12.3103580474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1884708404541</t>
   </si>
   <si>
     <t xml:space="preserve">12.5947542190552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8547744750977</t>
+    <t xml:space="preserve">12.8547735214233</t>
   </si>
   <si>
     <t xml:space="preserve">13.3179368972778</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8385248184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7410173416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.009162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3753623962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7003879547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4972467422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6678867340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5134973526001</t>
+    <t xml:space="preserve">12.8385238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7410163879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0091619491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3753614425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7003870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4972457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6678857803345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5134983062744</t>
   </si>
   <si>
     <t xml:space="preserve">12.0828371047974</t>
@@ -101,13 +101,13 @@
     <t xml:space="preserve">12.3022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4327850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.286524772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7659378051758</t>
+    <t xml:space="preserve">11.4327869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2865238189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7659387588501</t>
   </si>
   <si>
     <t xml:space="preserve">11.4002838134766</t>
@@ -116,28 +116,28 @@
     <t xml:space="preserve">11.7984418869019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8471956253052</t>
+    <t xml:space="preserve">11.8471937179565</t>
   </si>
   <si>
     <t xml:space="preserve">11.6603050231934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1722202301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8228187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0259580612183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1478443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.985330581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9772062301636</t>
+    <t xml:space="preserve">12.1722221374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8228168487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0259590148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1478433609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853296279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9772052764893</t>
   </si>
   <si>
     <t xml:space="preserve">11.7009334564209</t>
@@ -146,31 +146,31 @@
     <t xml:space="preserve">11.4815406799316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2859783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166404724121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.757266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5541248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.432240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4728689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4403686523438</t>
+    <t xml:space="preserve">12.2859802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7166385650635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7572660446167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541257858276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4322414398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4728698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4403676986694</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635494232178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3260622024536</t>
+    <t xml:space="preserve">13.3260631561279</t>
   </si>
   <si>
     <t xml:space="preserve">13.2935609817505</t>
@@ -179,28 +179,28 @@
     <t xml:space="preserve">13.4885759353638</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6267127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.724217414856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6917181015015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8136024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9354858398438</t>
+    <t xml:space="preserve">13.6267137527466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7242183685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6917152404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8136014938354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9354867935181</t>
   </si>
   <si>
     <t xml:space="preserve">13.9598627090454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7160930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.382942199707</t>
+    <t xml:space="preserve">13.7160921096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3829412460327</t>
   </si>
   <si>
     <t xml:space="preserve">13.0904178619385</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">13.4641971588135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4560708999634</t>
+    <t xml:space="preserve">13.4560718536377</t>
   </si>
   <si>
     <t xml:space="preserve">13.5454559326172</t>
@@ -218,34 +218,34 @@
     <t xml:space="preserve">13.3341884613037</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3666925430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4398221969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3748159408569</t>
+    <t xml:space="preserve">13.3666915893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4398231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235715866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3748168945312</t>
   </si>
   <si>
     <t xml:space="preserve">13.0335397720337</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9360313415527</t>
+    <t xml:space="preserve">12.9360303878784</t>
   </si>
   <si>
     <t xml:space="preserve">12.9847850799561</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2041797637939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9197797775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7978944778442</t>
+    <t xml:space="preserve">13.2041759490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9197807312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7978954315186</t>
   </si>
   <si>
     <t xml:space="preserve">12.6922616958618</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">12.9116554260254</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0655088424683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4708709716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4295778274536</t>
+    <t xml:space="preserve">13.0655078887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.470871925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4295768737793</t>
   </si>
   <si>
     <t xml:space="preserve">12.3056936264038</t>
@@ -269,124 +269,124 @@
     <t xml:space="preserve">12.2396230697632</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5452013015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5534601211548</t>
+    <t xml:space="preserve">12.5452003479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5534591674805</t>
   </si>
   <si>
     <t xml:space="preserve">12.6195306777954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864944458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6112718582153</t>
+    <t xml:space="preserve">12.5864963531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.611270904541</t>
   </si>
   <si>
     <t xml:space="preserve">12.8260021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0489931106567</t>
+    <t xml:space="preserve">13.0489912033081</t>
   </si>
   <si>
     <t xml:space="preserve">13.148097038269</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2141675949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3710880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1646146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2059097290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1563558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.933367729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6938591003418</t>
+    <t xml:space="preserve">13.2141666412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3710870742798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1646165847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2059087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1563568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9333667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6938600540161</t>
   </si>
   <si>
     <t xml:space="preserve">12.6360473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496692657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7027988433838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5871734619141</t>
+    <t xml:space="preserve">12.0496702194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7027978897095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5871725082397</t>
   </si>
   <si>
     <t xml:space="preserve">11.1659727096558</t>
   </si>
   <si>
-    <t xml:space="preserve">11.372444152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092693328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3882846832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9175262451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6697626113892</t>
+    <t xml:space="preserve">11.3724422454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092683792114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3882827758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9175291061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6697635650635</t>
   </si>
   <si>
     <t xml:space="preserve">11.793643951416</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0420894622803</t>
+    <t xml:space="preserve">11.042088508606</t>
   </si>
   <si>
     <t xml:space="preserve">10.3400869369507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7365121841431</t>
+    <t xml:space="preserve">10.7365131378174</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146305084229</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9505634307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9423046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5293617248535</t>
+    <t xml:space="preserve">11.9505653381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9423036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5293607711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.2733373641968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2155256271362</t>
+    <t xml:space="preserve">11.2155246734619</t>
   </si>
   <si>
     <t xml:space="preserve">11.5128440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0331506729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0579290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8762340545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2065868377686</t>
+    <t xml:space="preserve">12.0331516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0579299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8762331008911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2065877914429</t>
   </si>
   <si>
     <t xml:space="preserve">11.8927516937256</t>
@@ -395,7 +395,7 @@
     <t xml:space="preserve">12.1900701522827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1074800491333</t>
+    <t xml:space="preserve">12.1074810028076</t>
   </si>
   <si>
     <t xml:space="preserve">12.5121660232544</t>
@@ -410,184 +410,184 @@
     <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380489349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701910018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5032291412354</t>
+    <t xml:space="preserve">13.3380517959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701929092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5032300949097</t>
   </si>
   <si>
     <t xml:space="preserve">13.3297920227051</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4206409454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7014398574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6264305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878179550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7255382537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2217483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5355854034424</t>
+    <t xml:space="preserve">13.4206390380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7014408111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6264324188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7255373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2217473983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5355863571167</t>
   </si>
   <si>
     <t xml:space="preserve">15.0806703567505</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1550016403198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2128143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.989821434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.783350944519</t>
+    <t xml:space="preserve">15.1549987792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145988464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2128105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9898223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7833490371704</t>
   </si>
   <si>
     <t xml:space="preserve">14.6925029754639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0393753051758</t>
+    <t xml:space="preserve">15.0393743515015</t>
   </si>
   <si>
     <t xml:space="preserve">15.1467409133911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5183906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5514230728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.526647567749</t>
+    <t xml:space="preserve">15.5183868408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5514240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266456604004</t>
   </si>
   <si>
     <t xml:space="preserve">15.4853534698486</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4440593719482</t>
+    <t xml:space="preserve">15.4440603256226</t>
   </si>
   <si>
     <t xml:space="preserve">15.7000827789307</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8322257995605</t>
+    <t xml:space="preserve">15.8322277069092</t>
   </si>
   <si>
     <t xml:space="preserve">15.8652610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7661514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918268203735</t>
+    <t xml:space="preserve">15.7661552429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918239593506</t>
   </si>
   <si>
     <t xml:space="preserve">15.2623643875122</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1137027740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293291091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1797752380371</t>
+    <t xml:space="preserve">15.1137046813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293300628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1797771453857</t>
   </si>
   <si>
     <t xml:space="preserve">15.2871398925781</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8982973098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.848744392395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6174936294556</t>
+    <t xml:space="preserve">15.8982954025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8487424850464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6174955368042</t>
   </si>
   <si>
     <t xml:space="preserve">15.1962928771973</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7991905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6587886810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5679445266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9395866394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6257553100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.411021232605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2788820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6009759902954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7331171035767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7166032791138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744159698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7083406448364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5844602584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.03111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614702224731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6505317687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2210712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9237508773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9402666091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4860343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081283569336</t>
+    <t xml:space="preserve">15.7991886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6587867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5679426193237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9395904541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6257562637329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.278881072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6009788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7331190109253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7166023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7083435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5844573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6505298614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2210693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.923752784729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9402694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4860315322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8081274032593</t>
   </si>
   <si>
     <t xml:space="preserve">14.6594676971436</t>
@@ -596,31 +596,31 @@
     <t xml:space="preserve">14.8659400939941</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5933961868286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7916097640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8411645889282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6842460632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4777736663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7007627487183</t>
+    <t xml:space="preserve">14.5933971405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7916107177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9485273361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8411617279053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6842441558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4777746200562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7007617950439</t>
   </si>
   <si>
     <t xml:space="preserve">14.320855140686</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0400543212891</t>
+    <t xml:space="preserve">14.0400533676147</t>
   </si>
   <si>
     <t xml:space="preserve">13.7592535018921</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">13.7179594039917</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5362634658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2967567443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6684036254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9492044448853</t>
+    <t xml:space="preserve">13.53626537323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2967576980591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6684045791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9492063522339</t>
   </si>
   <si>
     <t xml:space="preserve">14.1391611099243</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2795610427856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5768785476685</t>
+    <t xml:space="preserve">14.27956199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5768795013428</t>
   </si>
   <si>
     <t xml:space="preserve">14.3704080581665</t>
@@ -659,58 +659,58 @@
     <t xml:space="preserve">15.4358005523682</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1054468154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.237587928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3119192123413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6670455932617</t>
+    <t xml:space="preserve">15.1054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2375869750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3119163513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6670475006104</t>
   </si>
   <si>
     <t xml:space="preserve">16.0139179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9643659591675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.947847366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8735208511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909307479858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0221767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9148139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157072067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5101299285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6092338562012</t>
+    <t xml:space="preserve">15.9643678665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9478492736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735189437866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909326553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0221786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9148120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157091140747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5101308822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6092357635498</t>
   </si>
   <si>
     <t xml:space="preserve">16.2451686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3112373352051</t>
+    <t xml:space="preserve">16.3112392425537</t>
   </si>
   <si>
     <t xml:space="preserve">16.3194961547852</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3690490722656</t>
+    <t xml:space="preserve">16.3690509796143</t>
   </si>
   <si>
     <t xml:space="preserve">16.4351215362549</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">16.7324409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9719467163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0215034484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7654762268066</t>
+    <t xml:space="preserve">16.97194480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0215015411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.765474319458</t>
   </si>
   <si>
     <t xml:space="preserve">16.8893604278564</t>
@@ -737,28 +737,28 @@
     <t xml:space="preserve">16.6002979278564</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5837783813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4020862579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1873588562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5177116394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4268627166748</t>
+    <t xml:space="preserve">16.5837841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4020843505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1873569488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5177097320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4268646240234</t>
   </si>
   <si>
     <t xml:space="preserve">16.4681587219238</t>
   </si>
   <si>
-    <t xml:space="preserve">16.914134979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3435935974121</t>
+    <t xml:space="preserve">16.9141368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3435974121094</t>
   </si>
   <si>
     <t xml:space="preserve">17.4261856079102</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">17.4922542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8391284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.979528427124</t>
+    <t xml:space="preserve">17.8391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9795265197754</t>
   </si>
   <si>
     <t xml:space="preserve">18.2438125610352</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">18.8714847564697</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2431316375732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2183570861816</t>
+    <t xml:space="preserve">19.2431297302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.218355178833</t>
   </si>
   <si>
     <t xml:space="preserve">19.5239315032959</t>
@@ -791,19 +791,19 @@
     <t xml:space="preserve">19.7799587249756</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9038391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9203624725342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9616527557373</t>
+    <t xml:space="preserve">19.9038429260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9203586578369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9616546630859</t>
   </si>
   <si>
     <t xml:space="preserve">20.2754878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0194606781006</t>
+    <t xml:space="preserve">20.0194664001465</t>
   </si>
   <si>
     <t xml:space="preserve">20.1268291473389</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">19.895580291748</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1020545959473</t>
+    <t xml:space="preserve">20.1020526885986</t>
   </si>
   <si>
     <t xml:space="preserve">19.8212547302246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0607585906982</t>
+    <t xml:space="preserve">20.0607604980469</t>
   </si>
   <si>
     <t xml:space="preserve">19.9781742095947</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">19.5817432403564</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3339805603027</t>
+    <t xml:space="preserve">19.3339786529541</t>
   </si>
   <si>
     <t xml:space="preserve">19.5321922302246</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">19.0531787872314</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9953670501709</t>
+    <t xml:space="preserve">18.9953689575195</t>
   </si>
   <si>
     <t xml:space="preserve">19.110990524292</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6725940704346</t>
+    <t xml:space="preserve">19.6725959777832</t>
   </si>
   <si>
     <t xml:space="preserve">20.3415584564209</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">21.1013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5083904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.742359161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4749698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6420879364014</t>
+    <t xml:space="preserve">21.5083885192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7423610687256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.474967956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6420860290527</t>
   </si>
   <si>
     <t xml:space="preserve">21.3162021636963</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">21.5585269927979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1434497833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0822315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0989475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0320949554443</t>
+    <t xml:space="preserve">22.1434516906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0822353363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0989456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0321006774902</t>
   </si>
   <si>
     <t xml:space="preserve">20.9318256378174</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">20.8649768829346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8900451660156</t>
+    <t xml:space="preserve">20.8900470733643</t>
   </si>
   <si>
     <t xml:space="preserve">21.0571670532227</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5418148040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5501728057861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.491678237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6838684082031</t>
+    <t xml:space="preserve">21.5418167114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5501689910889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4916763305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6838665008545</t>
   </si>
   <si>
     <t xml:space="preserve">21.5919513702393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3914051055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3663368225098</t>
+    <t xml:space="preserve">21.3914089202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3663387298584</t>
   </si>
   <si>
     <t xml:space="preserve">21.7172927856445</t>
@@ -941,22 +941,22 @@
     <t xml:space="preserve">21.1407260894775</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8566188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3636150360107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6142978668213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6811428070068</t>
+    <t xml:space="preserve">20.8566207885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3636169433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6142997741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6811466217041</t>
   </si>
   <si>
     <t xml:space="preserve">20.5140247344971</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6644344329834</t>
+    <t xml:space="preserve">20.6644306182861</t>
   </si>
   <si>
     <t xml:space="preserve">20.9067573547363</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">21.2744216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8482685089111</t>
+    <t xml:space="preserve">20.8482666015625</t>
   </si>
   <si>
     <t xml:space="preserve">20.5056686401367</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">19.477876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3024024963379</t>
+    <t xml:space="preserve">19.3024005889893</t>
   </si>
   <si>
     <t xml:space="preserve">19.202127456665</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">19.1269245147705</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6366405487061</t>
+    <t xml:space="preserve">19.6366443634033</t>
   </si>
   <si>
     <t xml:space="preserve">19.9959526062012</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">20.0460872650146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7396373748779</t>
+    <t xml:space="preserve">20.7396354675293</t>
   </si>
   <si>
     <t xml:space="preserve">20.3051242828369</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">20.7145709991455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7730598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3329162597656</t>
+    <t xml:space="preserve">20.773063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.332914352417</t>
   </si>
   <si>
     <t xml:space="preserve">21.3245601654053</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4582538604736</t>
+    <t xml:space="preserve">21.4582576751709</t>
   </si>
   <si>
     <t xml:space="preserve">21.2242870330811</t>
@@ -1028,28 +1028,28 @@
     <t xml:space="preserve">21.7256469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8426303863525</t>
+    <t xml:space="preserve">21.8426322937012</t>
   </si>
   <si>
     <t xml:space="preserve">21.6170177459717</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6003093719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2326412200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6587982177734</t>
+    <t xml:space="preserve">21.6003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.23264503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6588020324707</t>
   </si>
   <si>
     <t xml:space="preserve">22.1100234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9930419921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1016674041748</t>
+    <t xml:space="preserve">21.9930381774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1016693115234</t>
   </si>
   <si>
     <t xml:space="preserve">21.8844127655029</t>
@@ -1064,25 +1064,25 @@
     <t xml:space="preserve">22.0682430267334</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9596195220947</t>
+    <t xml:space="preserve">21.9596176147461</t>
   </si>
   <si>
     <t xml:space="preserve">22.3523464202881</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1935863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6531658172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2854995727539</t>
+    <t xml:space="preserve">22.1935844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6531677246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2855014801025</t>
   </si>
   <si>
     <t xml:space="preserve">23.1127471923828</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5890426635742</t>
+    <t xml:space="preserve">23.589038848877</t>
   </si>
   <si>
     <t xml:space="preserve">23.2297306060791</t>
@@ -1094,49 +1094,49 @@
     <t xml:space="preserve">23.5973949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">23.8146533966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7812271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0903987884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.491491317749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3577938079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6669673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6001167297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6586112976074</t>
+    <t xml:space="preserve">23.8146495819092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.781229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0904006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4914894104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3577919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6669654846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.600118637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6586093902588</t>
   </si>
   <si>
     <t xml:space="preserve">25.0095615386963</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5332698822021</t>
+    <t xml:space="preserve">24.5332717895508</t>
   </si>
   <si>
     <t xml:space="preserve">24.625186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2240943908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1488914489746</t>
+    <t xml:space="preserve">24.2240982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.148889541626</t>
   </si>
   <si>
     <t xml:space="preserve">24.2408084869385</t>
   </si>
   <si>
-    <t xml:space="preserve">24.616828918457</t>
+    <t xml:space="preserve">24.6168308258057</t>
   </si>
   <si>
     <t xml:space="preserve">24.8758659362793</t>
@@ -1145,34 +1145,34 @@
     <t xml:space="preserve">26.1125564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7198238372803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6696834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5359916687012</t>
+    <t xml:space="preserve">25.6529769897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7198257446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6696872711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5359935760498</t>
   </si>
   <si>
     <t xml:space="preserve">25.4858551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3187313079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3020248413086</t>
+    <t xml:space="preserve">25.3187351226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.30202293396</t>
   </si>
   <si>
     <t xml:space="preserve">26.3799514770508</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6473426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1543388366699</t>
+    <t xml:space="preserve">26.6473407745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1543350219727</t>
   </si>
   <si>
     <t xml:space="preserve">25.8451633453369</t>
@@ -1184,16 +1184,16 @@
     <t xml:space="preserve">25.2101078033447</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4022941589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2268199920654</t>
+    <t xml:space="preserve">25.4022960662842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2268218994141</t>
   </si>
   <si>
     <t xml:space="preserve">26.1292686462402</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9732265472412</t>
+    <t xml:space="preserve">26.9732284545898</t>
   </si>
   <si>
     <t xml:space="preserve">26.6724090576172</t>
@@ -1202,7 +1202,7 @@
     <t xml:space="preserve">27.8255405426025</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5023784637451</t>
+    <t xml:space="preserve">28.5023803710938</t>
   </si>
   <si>
     <t xml:space="preserve">28.1096458435059</t>
@@ -1211,25 +1211,25 @@
     <t xml:space="preserve">27.6333522796631</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2349834442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7252655029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3993873596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9454345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5694160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1516170501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2685985565186</t>
+    <t xml:space="preserve">28.2349872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7252674102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3993835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9454364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5694141387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1516151428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2686004638672</t>
   </si>
   <si>
     <t xml:space="preserve">25.2351760864258</t>
@@ -1238,43 +1238,43 @@
     <t xml:space="preserve">25.9120121002197</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5025672912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939380645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8618774414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3214569091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2629642486572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4050178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3715934753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2211837768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4384384155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1961193084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9872169494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0707759857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1877632141113</t>
+    <t xml:space="preserve">25.5025691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8618793487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3214588165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2629661560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4050159454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3715915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2211856842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4384422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1961154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9872150421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0707778930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1877613067627</t>
   </si>
   <si>
     <t xml:space="preserve">26.446798324585</t>
@@ -1286,37 +1286,37 @@
     <t xml:space="preserve">25.870231628418</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7114696502686</t>
+    <t xml:space="preserve">25.7114715576172</t>
   </si>
   <si>
     <t xml:space="preserve">25.1098365783691</t>
   </si>
   <si>
-    <t xml:space="preserve">26.037353515625</t>
+    <t xml:space="preserve">26.0373516082764</t>
   </si>
   <si>
     <t xml:space="preserve">25.6863994598389</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0540657043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.753246307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3688697814941</t>
+    <t xml:space="preserve">26.0540637969971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7532482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3688716888428</t>
   </si>
   <si>
     <t xml:space="preserve">26.3632373809814</t>
   </si>
   <si>
-    <t xml:space="preserve">27.449520111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2824001312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1180038452148</t>
+    <t xml:space="preserve">27.4495182037354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2824020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1180019378662</t>
   </si>
   <si>
     <t xml:space="preserve">27.3659591674805</t>
@@ -1325,58 +1325,58 @@
     <t xml:space="preserve">27.1988372802734</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8228187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2796783447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9063816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9899387359619</t>
+    <t xml:space="preserve">26.8228168487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2796764373779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.906379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9899406433105</t>
   </si>
   <si>
     <t xml:space="preserve">27.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0344390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.61936378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330829620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3241806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8645992279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7365341186523</t>
+    <t xml:space="preserve">28.0344409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6193618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330810546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.324182510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8646011352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.736536026001</t>
   </si>
   <si>
     <t xml:space="preserve">25.2769527435303</t>
   </si>
   <si>
-    <t xml:space="preserve">24.48313331604</t>
+    <t xml:space="preserve">24.4831352233887</t>
   </si>
   <si>
     <t xml:space="preserve">24.6084747314453</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2378997802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0289936065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7783164978027</t>
+    <t xml:space="preserve">26.2378978729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.028995513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7783145904541</t>
   </si>
   <si>
     <t xml:space="preserve">25.9036560058594</t>
@@ -1385,40 +1385,40 @@
     <t xml:space="preserve">23.9817733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0680561065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3160152435303</t>
+    <t xml:space="preserve">25.0680522918701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9481601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3160133361816</t>
   </si>
   <si>
     <t xml:space="preserve">24.190673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7229232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1825046539307</t>
+    <t xml:space="preserve">20.7229251861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1825065612793</t>
   </si>
   <si>
     <t xml:space="preserve">21.2660655975342</t>
   </si>
   <si>
-    <t xml:space="preserve">20.221565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0153865814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7674293518066</t>
+    <t xml:space="preserve">20.2215633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0153846740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.767427444458</t>
   </si>
   <si>
     <t xml:space="preserve">22.2270088195801</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3105716705322</t>
+    <t xml:space="preserve">22.3105697631836</t>
   </si>
   <si>
     <t xml:space="preserve">23.0208301544189</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">22.3941268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4331855773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0181102752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8927669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2687892913818</t>
+    <t xml:space="preserve">21.4331874847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0181083679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8927707672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2687873840332</t>
   </si>
   <si>
     <t xml:space="preserve">23.0626106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7701511383057</t>
+    <t xml:space="preserve">22.7701473236084</t>
   </si>
   <si>
     <t xml:space="preserve">23.1879501342773</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">23.7728729248047</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3132915496826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2324523925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4885768890381</t>
+    <t xml:space="preserve">23.313289642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2324504852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4885787963867</t>
   </si>
   <si>
     <t xml:space="preserve">25.3605155944824</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">25.0262756347656</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8591556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8173732757568</t>
+    <t xml:space="preserve">24.8591537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8173751831055</t>
   </si>
   <si>
     <t xml:space="preserve">24.9427146911621</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">25.3591213226318</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7644348144531</t>
+    <t xml:space="preserve">24.7644329071045</t>
   </si>
   <si>
     <t xml:space="preserve">25.3166427612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5715103149414</t>
+    <t xml:space="preserve">25.5715084075928</t>
   </si>
   <si>
     <t xml:space="preserve">25.8688526153564</t>
   </si>
   <si>
-    <t xml:space="preserve">26.081241607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4635353088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4210605621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9962844848633</t>
+    <t xml:space="preserve">26.0812397003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4635372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4210586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9962825775146</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732685089111</t>
   </si>
   <si>
-    <t xml:space="preserve">27.8652992248535</t>
+    <t xml:space="preserve">27.8652973175049</t>
   </si>
   <si>
     <t xml:space="preserve">27.6529083251953</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">26.888313293457</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1661930084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2086715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7414150238037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0387649536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3785800933838</t>
+    <t xml:space="preserve">26.1661949157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2086696624756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.741418838501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.038761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3785820007324</t>
   </si>
   <si>
     <t xml:space="preserve">25.9538078308105</t>
@@ -1544,127 +1544,127 @@
     <t xml:space="preserve">26.3361053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8458366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5060138702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6334495544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7608795166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5909729003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157432556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7803440093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.737865447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.89186668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2547035217285</t>
+    <t xml:space="preserve">26.8458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5060157775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6334457397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7608814239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5909690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.780345916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7378673553467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8918685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2547016143799</t>
   </si>
   <si>
     <t xml:space="preserve">24.382137298584</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6794757843018</t>
+    <t xml:space="preserve">24.6794776916504</t>
   </si>
   <si>
     <t xml:space="preserve">24.4670906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9998378753662</t>
+    <t xml:space="preserve">23.9998359680176</t>
   </si>
   <si>
     <t xml:space="preserve">24.4246120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5095672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5520458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8493919372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9768238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237182617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2281360626221</t>
+    <t xml:space="preserve">24.5095710754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5520439147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8493900299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9768199920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237144470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2281341552734</t>
   </si>
   <si>
     <t xml:space="preserve">26.5484924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7184047698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2706127166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.251148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3130893707275</t>
+    <t xml:space="preserve">26.7184028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2706108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2511501312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3130912780762</t>
   </si>
   <si>
     <t xml:space="preserve">27.695384979248</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6759281158447</t>
+    <t xml:space="preserve">26.6759262084961</t>
   </si>
   <si>
     <t xml:space="preserve">27.1431789398193</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3555698394775</t>
+    <t xml:space="preserve">27.3555679321289</t>
   </si>
   <si>
     <t xml:space="preserve">27.0582237243652</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1467304229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7024955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3007316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0033912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4706439971924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3237533569336</t>
+    <t xml:space="preserve">25.1467323303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7024936676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3007354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0033893585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.470645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3237495422363</t>
   </si>
   <si>
     <t xml:space="preserve">22.2157764434814</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0458698272705</t>
+    <t xml:space="preserve">22.0458679199219</t>
   </si>
   <si>
     <t xml:space="preserve">21.6635684967041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3662281036377</t>
+    <t xml:space="preserve">21.3662261962891</t>
   </si>
   <si>
     <t xml:space="preserve">20.2193298339844</t>
@@ -1676,55 +1676,55 @@
     <t xml:space="preserve">20.8989734649658</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7715396881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3856906890869</t>
+    <t xml:space="preserve">20.7715435028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3856887817383</t>
   </si>
   <si>
     <t xml:space="preserve">21.4936599731445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5131225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6405563354492</t>
+    <t xml:space="preserve">22.5131244659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6405544281006</t>
   </si>
   <si>
     <t xml:space="preserve">23.5325832366943</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8529396057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4777507781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9255447387695</t>
+    <t xml:space="preserve">22.8529434204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4777526855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9255428314209</t>
   </si>
   <si>
     <t xml:space="preserve">18.010498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1379280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3503189086914</t>
+    <t xml:space="preserve">18.1379299163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3503170013428</t>
   </si>
   <si>
     <t xml:space="preserve">18.6901397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9874839782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1998691558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3273010253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1149139404297</t>
+    <t xml:space="preserve">18.9874820709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1998710632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1149158477783</t>
   </si>
   <si>
     <t xml:space="preserve">19.369779586792</t>
@@ -1736,49 +1736,49 @@
     <t xml:space="preserve">20.0494232177734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0069465637207</t>
+    <t xml:space="preserve">20.0069408416748</t>
   </si>
   <si>
     <t xml:space="preserve">19.5821666717529</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6246471405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5202293395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2653617858887</t>
+    <t xml:space="preserve">19.6246452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5202255249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2653636932373</t>
   </si>
   <si>
     <t xml:space="preserve">17.2883796691895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2228870391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6281967163086</t>
+    <t xml:space="preserve">18.2228851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6281986236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.8405876159668</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4158134460449</t>
+    <t xml:space="preserve">17.4158115386963</t>
   </si>
   <si>
     <t xml:space="preserve">17.0759887695312</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2034244537354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3308544158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9910335540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7326145172119</t>
+    <t xml:space="preserve">17.2034225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3308563232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9910354614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7326164245605</t>
   </si>
   <si>
     <t xml:space="preserve">18.9025268554688</t>
@@ -1790,22 +1790,22 @@
     <t xml:space="preserve">19.921989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0918998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9644641876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4317169189453</t>
+    <t xml:space="preserve">20.0918979644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9644680023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4317188262939</t>
   </si>
   <si>
     <t xml:space="preserve">20.3467655181885</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0688819885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1963195800781</t>
+    <t xml:space="preserve">21.068883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1963176727295</t>
   </si>
   <si>
     <t xml:space="preserve">20.8564968109131</t>
@@ -1817,46 +1817,46 @@
     <t xml:space="preserve">20.3042869567871</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7945556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.559154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1768550872803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4741973876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7520790100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8370361328125</t>
+    <t xml:space="preserve">19.7945537567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5591526031494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1768531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4741992950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7520809173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8370342254639</t>
   </si>
   <si>
     <t xml:space="preserve">19.5396919250488</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7556304931641</t>
+    <t xml:space="preserve">17.7556343078613</t>
   </si>
   <si>
     <t xml:space="preserve">16.9740447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0335121154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9230709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8890895843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5432434082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6706771850586</t>
+    <t xml:space="preserve">17.0335140228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9230728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.889087677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5432453155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.67067527771</t>
   </si>
   <si>
     <t xml:space="preserve">17.7896137237549</t>
@@ -1865,22 +1865,22 @@
     <t xml:space="preserve">17.8235950469971</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7750930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.09792137146</t>
+    <t xml:space="preserve">18.7750949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0979232788086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8260669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5372200012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1124420166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7046585083008</t>
+    <t xml:space="preserve">18.5372180938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1124439239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7046604156494</t>
   </si>
   <si>
     <t xml:space="preserve">18.0954513549805</t>
@@ -1892,49 +1892,49 @@
     <t xml:space="preserve">18.6051845550537</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1294364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2483730316162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4522666931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071304321289</t>
+    <t xml:space="preserve">18.1294345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2483711242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.452262878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071323394775</t>
   </si>
   <si>
     <t xml:space="preserve">18.2313785552979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0250186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0590000152588</t>
+    <t xml:space="preserve">17.025016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0590019226074</t>
   </si>
   <si>
     <t xml:space="preserve">16.9400634765625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9206008911133</t>
+    <t xml:space="preserve">15.9205989837646</t>
   </si>
   <si>
     <t xml:space="preserve">15.8356456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6742324829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2324638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0200748443604</t>
+    <t xml:space="preserve">15.6742296218872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0200757980347</t>
   </si>
   <si>
     <t xml:space="preserve">15.0625524520874</t>
   </si>
   <si>
-    <t xml:space="preserve">16.031042098999</t>
+    <t xml:space="preserve">16.0310401916504</t>
   </si>
   <si>
     <t xml:space="preserve">16.447322845459</t>
@@ -1946,13 +1946,13 @@
     <t xml:space="preserve">15.4618425369263</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4533462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4448528289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0540571212769</t>
+    <t xml:space="preserve">15.4533472061157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4448509216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0540580749512</t>
   </si>
   <si>
     <t xml:space="preserve">15.2154731750488</t>
@@ -1961,19 +1961,19 @@
     <t xml:space="preserve">15.7311038970947</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485818862915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1018600463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2329540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0494222640991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.031943321228</t>
+    <t xml:space="preserve">15.7485809326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1018590927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2329521179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0494213104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0319442749023</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979932785034</t>
@@ -1988,19 +1988,19 @@
     <t xml:space="preserve">16.4040431976318</t>
   </si>
   <si>
-    <t xml:space="preserve">16.080680847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3028678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9095888137817</t>
+    <t xml:space="preserve">16.0806827545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.30286693573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9095897674561</t>
   </si>
   <si>
     <t xml:space="preserve">14.8571529388428</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5774898529053</t>
+    <t xml:space="preserve">14.577488899231</t>
   </si>
   <si>
     <t xml:space="preserve">14.769757270813</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">14.9882459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8134546279907</t>
+    <t xml:space="preserve">14.8134565353394</t>
   </si>
   <si>
     <t xml:space="preserve">14.6124448776245</t>
@@ -2018,28 +2018,28 @@
     <t xml:space="preserve">14.4201774597168</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5600099563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2242107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9358072280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6998414993286</t>
+    <t xml:space="preserve">14.5600109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242116928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9358081817627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6998424530029</t>
   </si>
   <si>
     <t xml:space="preserve">15.1193370819092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3990030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7173223495483</t>
+    <t xml:space="preserve">15.3990020751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.717321395874</t>
   </si>
   <si>
     <t xml:space="preserve">14.7348003387451</t>
@@ -2051,28 +2051,28 @@
     <t xml:space="preserve">14.0531187057495</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1055555343628</t>
+    <t xml:space="preserve">14.1055564880371</t>
   </si>
   <si>
     <t xml:space="preserve">14.1579933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9919424057007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4413547515869</t>
+    <t xml:space="preserve">13.991943359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4413537979126</t>
   </si>
   <si>
     <t xml:space="preserve">13.6336231231689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7784996032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4726133346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2541265487671</t>
+    <t xml:space="preserve">14.7784986495972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4726152420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2541275024414</t>
   </si>
   <si>
     <t xml:space="preserve">14.1842107772827</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">13.5724458694458</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9395055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9832029342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8783292770386</t>
+    <t xml:space="preserve">13.9395046234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9832019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8783283233643</t>
   </si>
   <si>
     <t xml:space="preserve">13.5287485122681</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">13.5025300979614</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5637073516846</t>
+    <t xml:space="preserve">13.5637063980103</t>
   </si>
   <si>
     <t xml:space="preserve">12.4887466430664</t>
@@ -2114,16 +2114,16 @@
     <t xml:space="preserve">10.8282432556152</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0292510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4662265777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0379905700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3263940811157</t>
+    <t xml:space="preserve">11.0292501449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4662256240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0379915237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.32639503479</t>
   </si>
   <si>
     <t xml:space="preserve">11.4574861526489</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">11.0729484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0467300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5223598480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3526124954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1341257095337</t>
+    <t xml:space="preserve">11.0467309951782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5223608016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.352611541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1341247558594</t>
   </si>
   <si>
     <t xml:space="preserve">10.9505949020386</t>
@@ -2153,19 +2153,19 @@
     <t xml:space="preserve">11.011773109436</t>
   </si>
   <si>
-    <t xml:space="preserve">11.667236328125</t>
+    <t xml:space="preserve">11.6672353744507</t>
   </si>
   <si>
     <t xml:space="preserve">11.8420257568359</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9731159210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9993362426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0517721176147</t>
+    <t xml:space="preserve">11.9731168746948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9993352890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0517730712891</t>
   </si>
   <si>
     <t xml:space="preserve">12.0605125427246</t>
@@ -2180,43 +2180,43 @@
     <t xml:space="preserve">12.1304292678833</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0867300033569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663949966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7633686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8070659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4400091171265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1865615844727</t>
+    <t xml:space="preserve">12.0867309570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7633695602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8070669174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4400081634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1865634918213</t>
   </si>
   <si>
     <t xml:space="preserve">11.5885791778564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5099239349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9942941665649</t>
+    <t xml:space="preserve">11.5099248886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9942922592163</t>
   </si>
   <si>
     <t xml:space="preserve">10.749587059021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.941855430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3788328170776</t>
+    <t xml:space="preserve">10.9418563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089151382446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3788318634033</t>
   </si>
   <si>
     <t xml:space="preserve">11.3438730239868</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">11.2914361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3001756668091</t>
+    <t xml:space="preserve">11.3001766204834</t>
   </si>
   <si>
     <t xml:space="preserve">11.5623607635498</t>
@@ -2240,43 +2240,43 @@
     <t xml:space="preserve">11.9905967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1216897964478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6773204803467</t>
+    <t xml:space="preserve">12.1216888427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6773195266724</t>
   </si>
   <si>
     <t xml:space="preserve">13.5462284088135</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5899257659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.869589805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0356388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9045476913452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7959766387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2191696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949687957764</t>
+    <t xml:space="preserve">13.5899248123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8695888519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0356397628784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9045467376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7959756851196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2191705703735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949678421021</t>
   </si>
   <si>
     <t xml:space="preserve">14.2453861236572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1405143737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.79967212677</t>
+    <t xml:space="preserve">14.1405153274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7996730804443</t>
   </si>
   <si>
     <t xml:space="preserve">14.2104301452637</t>
@@ -2285,10 +2285,10 @@
     <t xml:space="preserve">14.8309335708618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0144653320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.320348739624</t>
+    <t xml:space="preserve">15.0144634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203477859497</t>
   </si>
   <si>
     <t xml:space="preserve">15.9146318435669</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">14.9795045852661</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9445495605469</t>
+    <t xml:space="preserve">14.9445486068726</t>
   </si>
   <si>
     <t xml:space="preserve">15.3378257751465</t>
@@ -2306,37 +2306,37 @@
     <t xml:space="preserve">15.3640451431274</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0756397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4164810180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5475769042969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7223634719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709344863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8484134674072</t>
+    <t xml:space="preserve">15.0756406784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4164800643921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5475740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7223644256592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0544624328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709335327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8484144210815</t>
   </si>
   <si>
     <t xml:space="preserve">14.743540763855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7085809707642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8658933639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5250520706177</t>
+    <t xml:space="preserve">14.7085819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8658924102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.525053024292</t>
   </si>
   <si>
     <t xml:space="preserve">14.5075731277466</t>
@@ -2351,16 +2351,16 @@
     <t xml:space="preserve">14.8746318817139</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7610187530518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.883373260498</t>
+    <t xml:space="preserve">14.7610177993774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8833742141724</t>
   </si>
   <si>
     <t xml:space="preserve">15.1630344390869</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0705976486206</t>
+    <t xml:space="preserve">14.0705986022949</t>
   </si>
   <si>
     <t xml:space="preserve">14.2978248596191</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">13.8608493804932</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6685819625854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.922025680542</t>
+    <t xml:space="preserve">13.6685810089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9220275878906</t>
   </si>
   <si>
     <t xml:space="preserve">13.8958082199097</t>
@@ -2390,19 +2390,19 @@
     <t xml:space="preserve">14.8921117782593</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9008502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5512714385986</t>
+    <t xml:space="preserve">14.9008483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5512704849243</t>
   </si>
   <si>
     <t xml:space="preserve">14.5687494277954</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1230354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.773455619812</t>
+    <t xml:space="preserve">14.1230344772339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7734546661377</t>
   </si>
   <si>
     <t xml:space="preserve">12.8907651901245</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">12.6635370254517</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9344615936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3052196502686</t>
+    <t xml:space="preserve">12.9344625473022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3052177429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9294195175171</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">10.6010150909424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853853225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67462825775146</t>
+    <t xml:space="preserve">10.0853862762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67462730407715</t>
   </si>
   <si>
     <t xml:space="preserve">9.99798965454102</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">9.66588973999023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72706508636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83193874359131</t>
+    <t xml:space="preserve">9.72706604003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83193969726562</t>
   </si>
   <si>
     <t xml:space="preserve">9.69210815429688</t>
@@ -2474,13 +2474,13 @@
     <t xml:space="preserve">9.7183256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33378791809082</t>
+    <t xml:space="preserve">9.33378887176514</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78824138641357</t>
+    <t xml:space="preserve">9.78824234008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.73580551147461</t>
@@ -2489,7 +2489,7 @@
     <t xml:space="preserve">9.87563705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3563108444214</t>
+    <t xml:space="preserve">10.3563098907471</t>
   </si>
   <si>
     <t xml:space="preserve">10.4000062942505</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">10.5660581588745</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5922756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7058897018433</t>
+    <t xml:space="preserve">10.5922775268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7058906555176</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215213775635</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4924440383911</t>
+    <t xml:space="preserve">11.4924449920654</t>
   </si>
   <si>
     <t xml:space="preserve">11.2302598953247</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">10.2252168655396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.120343208313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55227565765381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76202297210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77076244354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47362041473389</t>
+    <t xml:space="preserve">10.1203441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416860580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55227661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76202392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7707633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47361946105957</t>
   </si>
   <si>
     <t xml:space="preserve">9.50857830047607</t>
@@ -2558,7 +2558,7 @@
     <t xml:space="preserve">9.61345195770264</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09782123565674</t>
+    <t xml:space="preserve">9.09782218933105</t>
   </si>
   <si>
     <t xml:space="preserve">9.16773700714111</t>
@@ -2567,7 +2567,7 @@
     <t xml:space="preserve">9.08908081054688</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52605628967285</t>
+    <t xml:space="preserve">9.52605533599854</t>
   </si>
   <si>
     <t xml:space="preserve">9.96303176879883</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">11.1166467666626</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8195028305054</t>
+    <t xml:space="preserve">10.8195037841797</t>
   </si>
   <si>
     <t xml:space="preserve">10.5048809051514</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">10.7209711074829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2813663482666</t>
+    <t xml:space="preserve">10.2813673019409</t>
   </si>
   <si>
     <t xml:space="preserve">10.1647367477417</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">9.98530673980713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89558982849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52775764465332</t>
+    <t xml:space="preserve">9.89559078216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52775955200195</t>
   </si>
   <si>
     <t xml:space="preserve">9.81484699249268</t>
@@ -2639,7 +2639,7 @@
     <t xml:space="preserve">9.77896022796631</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74307537078857</t>
+    <t xml:space="preserve">9.74307441711426</t>
   </si>
   <si>
     <t xml:space="preserve">9.65336036682129</t>
@@ -2660,7 +2660,7 @@
     <t xml:space="preserve">9.83278942108154</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44701385498047</t>
+    <t xml:space="preserve">9.44701480865479</t>
   </si>
   <si>
     <t xml:space="preserve">9.60850238800049</t>
@@ -2669,10 +2669,10 @@
     <t xml:space="preserve">9.4290714263916</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58158779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46495914459229</t>
+    <t xml:space="preserve">9.58158874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46495819091797</t>
   </si>
   <si>
     <t xml:space="preserve">9.69821834564209</t>
@@ -2681,31 +2681,31 @@
     <t xml:space="preserve">9.53673076629639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24964237213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6222858428955</t>
+    <t xml:space="preserve">9.24964046478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6222848892212</t>
   </si>
   <si>
     <t xml:space="preserve">10.7119989395142</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7030296325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2682342529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3938360214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6181240081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7706384658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3758926391602</t>
+    <t xml:space="preserve">10.703028678894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.268235206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.393835067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6181230545044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7706394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3758935928345</t>
   </si>
   <si>
     <t xml:space="preserve">11.1785192489624</t>
@@ -2714,13 +2714,13 @@
     <t xml:space="preserve">11.0798330307007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9093723297119</t>
+    <t xml:space="preserve">10.9093732833862</t>
   </si>
   <si>
     <t xml:space="preserve">10.8286285400391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5594844818115</t>
+    <t xml:space="preserve">10.5594835281372</t>
   </si>
   <si>
     <t xml:space="preserve">10.4966831207275</t>
@@ -2738,31 +2738,31 @@
     <t xml:space="preserve">10.3621101379395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800535202026</t>
+    <t xml:space="preserve">10.3800525665283</t>
   </si>
   <si>
     <t xml:space="preserve">10.2903385162354</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185659408569</t>
+    <t xml:space="preserve">10.2185668945312</t>
   </si>
   <si>
     <t xml:space="preserve">10.039134979248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0122213363647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91353321075439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0032501220703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2634239196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5953702926636</t>
+    <t xml:space="preserve">10.0122203826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91353511810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.003249168396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2634229660034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5953693389893</t>
   </si>
   <si>
     <t xml:space="preserve">11.0170307159424</t>
@@ -2777,10 +2777,10 @@
     <t xml:space="preserve">10.5505123138428</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6581697463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6402273178101</t>
+    <t xml:space="preserve">10.6581707000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6402282714844</t>
   </si>
   <si>
     <t xml:space="preserve">10.7748003005981</t>
@@ -2795,28 +2795,28 @@
     <t xml:space="preserve">10.7568578720093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8555450439453</t>
+    <t xml:space="preserve">10.855544090271</t>
   </si>
   <si>
     <t xml:space="preserve">10.8465728759766</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8017148971558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8376007080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7478857040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0750217437744</t>
+    <t xml:space="preserve">10.8017158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8376016616821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7478847503662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0750207901001</t>
   </si>
   <si>
     <t xml:space="preserve">10.3351964950562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2544527053833</t>
+    <t xml:space="preserve">10.254451751709</t>
   </si>
   <si>
     <t xml:space="preserve">10.0839929580688</t>
@@ -2825,22 +2825,22 @@
     <t xml:space="preserve">10.1288509368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86867713928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24067115783691</t>
+    <t xml:space="preserve">9.86867618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2406702041626</t>
   </si>
   <si>
     <t xml:space="preserve">9.06123924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59023284912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76069259643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87283802032471</t>
+    <t xml:space="preserve">8.59023475646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76069355010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87283706665039</t>
   </si>
   <si>
     <t xml:space="preserve">9.36627101898193</t>
@@ -2852,13 +2852,13 @@
     <t xml:space="preserve">9.1240406036377</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22272682189941</t>
+    <t xml:space="preserve">9.22272777557373</t>
   </si>
   <si>
     <t xml:space="preserve">10.2095947265625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94941997528076</t>
+    <t xml:space="preserve">9.94942092895508</t>
   </si>
   <si>
     <t xml:space="preserve">11.1964616775513</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">12.6588201522827</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6857357025146</t>
+    <t xml:space="preserve">12.685736656189</t>
   </si>
   <si>
     <t xml:space="preserve">12.8920793533325</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">12.4345321655273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5332183837891</t>
+    <t xml:space="preserve">12.5332193374634</t>
   </si>
   <si>
     <t xml:space="preserve">11.994927406311</t>
@@ -2900,22 +2900,22 @@
     <t xml:space="preserve">12.3896751403809</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2909870147705</t>
+    <t xml:space="preserve">12.2909879684448</t>
   </si>
   <si>
     <t xml:space="preserve">12.308931350708</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2640733718872</t>
+    <t xml:space="preserve">12.2640743255615</t>
   </si>
   <si>
     <t xml:space="preserve">12.3807039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4524755477905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3627605438232</t>
+    <t xml:space="preserve">12.4524765014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3627595901489</t>
   </si>
   <si>
     <t xml:space="preserve">12.210244178772</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">12.3268747329712</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3358469009399</t>
+    <t xml:space="preserve">12.3358459472656</t>
   </si>
   <si>
     <t xml:space="preserve">12.9907665252686</t>
@@ -2933,10 +2933,10 @@
     <t xml:space="preserve">13.0087089538574</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8203077316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7485370635986</t>
+    <t xml:space="preserve">12.8203067779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7485361099243</t>
   </si>
   <si>
     <t xml:space="preserve">12.9010515213013</t>
@@ -2945,7 +2945,7 @@
     <t xml:space="preserve">12.874137878418</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1163682937622</t>
+    <t xml:space="preserve">13.1163673400879</t>
   </si>
   <si>
     <t xml:space="preserve">12.560133934021</t>
@@ -2993,16 +2993,16 @@
     <t xml:space="preserve">13.0984268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9638528823853</t>
+    <t xml:space="preserve">12.9638519287109</t>
   </si>
   <si>
     <t xml:space="preserve">13.2957983016968</t>
   </si>
   <si>
-    <t xml:space="preserve">13.322714805603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2778549194336</t>
+    <t xml:space="preserve">13.3227138519287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2778558731079</t>
   </si>
   <si>
     <t xml:space="preserve">13.6546602249146</t>
@@ -3014,10 +3014,10 @@
     <t xml:space="preserve">13.5380296707153</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5739164352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1660356521606</t>
+    <t xml:space="preserve">13.5739154815674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.166036605835</t>
   </si>
   <si>
     <t xml:space="preserve">14.3992958068848</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">14.0852928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7671270370483</t>
+    <t xml:space="preserve">14.7671279907227</t>
   </si>
   <si>
     <t xml:space="preserve">15.0542182922363</t>
@@ -3062,16 +3062,16 @@
     <t xml:space="preserve">15.0093593597412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4130792617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5835390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7719392776489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5207366943359</t>
+    <t xml:space="preserve">15.4130783081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5835371017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7719402313232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5207357406616</t>
   </si>
   <si>
     <t xml:space="preserve">14.8389024734497</t>
@@ -3083,19 +3083,19 @@
     <t xml:space="preserve">15.1529035568237</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7767524719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1984100341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4178867340088</t>
+    <t xml:space="preserve">16.7767505645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1984119415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4178886413574</t>
   </si>
   <si>
     <t xml:space="preserve">16.2564029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3371467590332</t>
+    <t xml:space="preserve">16.3371448516846</t>
   </si>
   <si>
     <t xml:space="preserve">16.3461170196533</t>
@@ -3104,34 +3104,34 @@
     <t xml:space="preserve">16.3640594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5614318847656</t>
+    <t xml:space="preserve">16.5614337921143</t>
   </si>
   <si>
     <t xml:space="preserve">15.8437118530273</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782838821411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7629661560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8526849746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7360544204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6463375091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6283941268921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6911964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.682225227356</t>
+    <t xml:space="preserve">15.9782857894897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7629671096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8526830673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360525131226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6463384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6283950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6911954879761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6822261810303</t>
   </si>
   <si>
     <t xml:space="preserve">15.6553087234497</t>
@@ -3143,13 +3143,13 @@
     <t xml:space="preserve">15.5386800765991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8347415924072</t>
+    <t xml:space="preserve">15.8347406387329</t>
   </si>
   <si>
     <t xml:space="preserve">15.4220504760742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2874774932861</t>
+    <t xml:space="preserve">15.2874784469604</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157049179077</t>
@@ -3170,40 +3170,40 @@
     <t xml:space="preserve">15.5476512908936</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2426195144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5027933120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6642799377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7091398239136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2336473464966</t>
+    <t xml:space="preserve">15.2426204681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5027942657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6642808914185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7091379165649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2336463928223</t>
   </si>
   <si>
     <t xml:space="preserve">14.803014755249</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9824466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2253284454346</t>
+    <t xml:space="preserve">14.9824457168579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2253265380859</t>
   </si>
   <si>
     <t xml:space="preserve">17.8981914520264</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9251041412354</t>
+    <t xml:space="preserve">17.925106048584</t>
   </si>
   <si>
     <t xml:space="preserve">18.5531120300293</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7684307098389</t>
+    <t xml:space="preserve">18.7684288024902</t>
   </si>
   <si>
     <t xml:space="preserve">19.338264465332</t>
@@ -3215,16 +3215,16 @@
     <t xml:space="preserve">19.2297267913818</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9583740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3563537597656</t>
+    <t xml:space="preserve">18.9583721160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3563556671143</t>
   </si>
   <si>
     <t xml:space="preserve">19.3201751708984</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8809661865234</t>
+    <t xml:space="preserve">19.8809680938721</t>
   </si>
   <si>
     <t xml:space="preserve">19.4648971557617</t>
@@ -3233,16 +3233,16 @@
     <t xml:space="preserve">19.62770652771</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5734367370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4829864501953</t>
+    <t xml:space="preserve">19.5734348297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4829845428467</t>
   </si>
   <si>
     <t xml:space="preserve">19.3744449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0669136047363</t>
+    <t xml:space="preserve">19.066915512085</t>
   </si>
   <si>
     <t xml:space="preserve">18.6870231628418</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">18.7232036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">19.211633682251</t>
+    <t xml:space="preserve">19.2116355895996</t>
   </si>
   <si>
     <t xml:space="preserve">18.777473449707</t>
@@ -3266,19 +3266,19 @@
     <t xml:space="preserve">18.7412929534912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.632755279541</t>
+    <t xml:space="preserve">18.6327533721924</t>
   </si>
   <si>
     <t xml:space="preserve">18.5061225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.289041519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3794918060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3614025115967</t>
+    <t xml:space="preserve">18.2890434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3794937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.361400604248</t>
   </si>
   <si>
     <t xml:space="preserve">18.2347717285156</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">18.1081409454346</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0357837677002</t>
+    <t xml:space="preserve">18.0357818603516</t>
   </si>
   <si>
     <t xml:space="preserve">18.1262321472168</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">17.9905567169189</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8277454376221</t>
+    <t xml:space="preserve">17.8277435302734</t>
   </si>
   <si>
     <t xml:space="preserve">17.6016178131104</t>
@@ -3311,16 +3311,16 @@
     <t xml:space="preserve">18.3071327209473</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9453296661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6558895111084</t>
+    <t xml:space="preserve">17.9453315734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.655891418457</t>
   </si>
   <si>
     <t xml:space="preserve">16.8056583404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5523948669434</t>
+    <t xml:space="preserve">16.552396774292</t>
   </si>
   <si>
     <t xml:space="preserve">16.9594230651855</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">18.2528629302979</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2166805267334</t>
+    <t xml:space="preserve">18.216682434082</t>
   </si>
   <si>
     <t xml:space="preserve">17.9996013641357</t>
@@ -3353,7 +3353,7 @@
     <t xml:space="preserve">18.090051651001</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3212223052979</t>
+    <t xml:space="preserve">17.3212242126465</t>
   </si>
   <si>
     <t xml:space="preserve">17.5383052825928</t>
@@ -3365,19 +3365,19 @@
     <t xml:space="preserve">17.8006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6197090148926</t>
+    <t xml:space="preserve">17.6197109222412</t>
   </si>
   <si>
     <t xml:space="preserve">17.4026298522949</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8187007904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4207210540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1674575805664</t>
+    <t xml:space="preserve">17.8187026977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4207191467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.167459487915</t>
   </si>
   <si>
     <t xml:space="preserve">17.1312789916992</t>
@@ -3386,13 +3386,13 @@
     <t xml:space="preserve">17.1131896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9232444763184</t>
+    <t xml:space="preserve">16.9232425689697</t>
   </si>
   <si>
     <t xml:space="preserve">17.2488651275635</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6739826202393</t>
+    <t xml:space="preserve">17.6739807128906</t>
   </si>
   <si>
     <t xml:space="preserve">18.3433132171631</t>
@@ -3404,13 +3404,13 @@
     <t xml:space="preserve">18.0448265075684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.062915802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463417053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4930782318115</t>
+    <t xml:space="preserve">18.0629177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463397979736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4930801391602</t>
   </si>
   <si>
     <t xml:space="preserve">17.1855487823486</t>
@@ -3419,7 +3419,7 @@
     <t xml:space="preserve">17.0317840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9322872161865</t>
+    <t xml:space="preserve">16.9322891235352</t>
   </si>
   <si>
     <t xml:space="preserve">16.8327922821045</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">16.8237476348877</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7332973480225</t>
+    <t xml:space="preserve">16.7332992553711</t>
   </si>
   <si>
     <t xml:space="preserve">16.4167213439941</t>
@@ -3443,7 +3443,7 @@
     <t xml:space="preserve">16.9503784179688</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7513904571533</t>
+    <t xml:space="preserve">16.7513885498047</t>
   </si>
   <si>
     <t xml:space="preserve">16.1905956268311</t>
@@ -3452,13 +3452,13 @@
     <t xml:space="preserve">15.9282903671265</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8197507858276</t>
+    <t xml:space="preserve">15.8197498321533</t>
   </si>
   <si>
     <t xml:space="preserve">15.7654809951782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4308137893677</t>
+    <t xml:space="preserve">15.430814743042</t>
   </si>
   <si>
     <t xml:space="preserve">15.720253944397</t>
@@ -3467,10 +3467,10 @@
     <t xml:space="preserve">15.4127244949341</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6207599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5845785140991</t>
+    <t xml:space="preserve">15.6207609176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5845794677734</t>
   </si>
   <si>
     <t xml:space="preserve">15.4217672348022</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">15.5122203826904</t>
   </si>
   <si>
-    <t xml:space="preserve">15.503173828125</t>
+    <t xml:space="preserve">15.5031728744507</t>
   </si>
   <si>
     <t xml:space="preserve">15.9011554718018</t>
@@ -3488,10 +3488,10 @@
     <t xml:space="preserve">15.5483999252319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4850835800171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3765439987183</t>
+    <t xml:space="preserve">15.4850845336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3765430450439</t>
   </si>
   <si>
     <t xml:space="preserve">15.2137336730957</t>
@@ -3506,10 +3506,10 @@
     <t xml:space="preserve">14.3725471496582</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4449062347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2097358703613</t>
+    <t xml:space="preserve">14.4449052810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.209734916687</t>
   </si>
   <si>
     <t xml:space="preserve">14.2640066146851</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">14.6619863510132</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6891222000122</t>
+    <t xml:space="preserve">14.6891212463379</t>
   </si>
   <si>
     <t xml:space="preserve">14.725302696228</t>
@@ -3530,19 +3530,19 @@
     <t xml:space="preserve">14.3182764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343074798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9333381652832</t>
+    <t xml:space="preserve">16.5343055725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9333372116089</t>
   </si>
   <si>
     <t xml:space="preserve">14.8609771728516</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5624914169312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4991769790649</t>
+    <t xml:space="preserve">14.5624923706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4991779327393</t>
   </si>
   <si>
     <t xml:space="preserve">14.4358615875244</t>
@@ -3563,10 +3563,10 @@
     <t xml:space="preserve">13.4861335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3775939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7574844360352</t>
+    <t xml:space="preserve">13.3775930404663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7574834823608</t>
   </si>
   <si>
     <t xml:space="preserve">13.4770879745483</t>
@@ -3575,13 +3575,13 @@
     <t xml:space="preserve">13.2871427536011</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7393941879272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0197906494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8931589126587</t>
+    <t xml:space="preserve">13.7393932342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0197896957397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.893159866333</t>
   </si>
   <si>
     <t xml:space="preserve">13.9202947616577</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">13.5765838623047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9836101531982</t>
+    <t xml:space="preserve">13.9836091995239</t>
   </si>
   <si>
     <t xml:space="preserve">13.6670341491699</t>
@@ -3602,19 +3602,19 @@
     <t xml:space="preserve">13.6127643585205</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8117542266846</t>
+    <t xml:space="preserve">13.8117551803589</t>
   </si>
   <si>
     <t xml:space="preserve">13.793664932251</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8207998275757</t>
+    <t xml:space="preserve">13.8207988739014</t>
   </si>
   <si>
     <t xml:space="preserve">13.8569793701172</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8388900756836</t>
+    <t xml:space="preserve">13.8388891220093</t>
   </si>
   <si>
     <t xml:space="preserve">13.9474296569824</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">14.0740613937378</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8027086257935</t>
+    <t xml:space="preserve">13.8027095794678</t>
   </si>
   <si>
     <t xml:space="preserve">13.5132684707642</t>
@@ -3644,19 +3644,19 @@
     <t xml:space="preserve">13.033881187439</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0248365402222</t>
+    <t xml:space="preserve">13.0248374938965</t>
   </si>
   <si>
     <t xml:space="preserve">12.843936920166</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8891620635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9615230560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7353973388672</t>
+    <t xml:space="preserve">12.8891611099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.961522102356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7353963851929</t>
   </si>
   <si>
     <t xml:space="preserve">11.9575252532959</t>
@@ -3668,7 +3668,7 @@
     <t xml:space="preserve">12.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2198295593262</t>
+    <t xml:space="preserve">12.2198305130005</t>
   </si>
   <si>
     <t xml:space="preserve">12.1565141677856</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">12.4640455245972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012351989746</t>
+    <t xml:space="preserve">12.3012361526489</t>
   </si>
   <si>
     <t xml:space="preserve">11.8399391174316</t>
@@ -3686,7 +3686,7 @@
     <t xml:space="preserve">11.7675790786743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4057779312134</t>
+    <t xml:space="preserve">11.4057769775391</t>
   </si>
   <si>
     <t xml:space="preserve">11.1977424621582</t>
@@ -3704,13 +3704,13 @@
     <t xml:space="preserve">11.1072912216187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0892009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4871835708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6952180862427</t>
+    <t xml:space="preserve">11.0892019271851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4871826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.695219039917</t>
   </si>
   <si>
     <t xml:space="preserve">11.4781370162964</t>
@@ -3740,13 +3740,13 @@
     <t xml:space="preserve">10.5103197097778</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99475288391113</t>
+    <t xml:space="preserve">9.99475383758545</t>
   </si>
   <si>
     <t xml:space="preserve">9.79576301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82289791107178</t>
+    <t xml:space="preserve">9.82289695739746</t>
   </si>
   <si>
     <t xml:space="preserve">10.3113288879395</t>
@@ -3755,13 +3755,13 @@
     <t xml:space="preserve">10.1123390197754</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67817687988281</t>
+    <t xml:space="preserve">9.67817783355713</t>
   </si>
   <si>
     <t xml:space="preserve">9.86812305450439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87769317626953</t>
+    <t xml:space="preserve">8.87769222259521</t>
   </si>
   <si>
     <t xml:space="preserve">9.25306129455566</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">9.12643146514893</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1083402633667</t>
+    <t xml:space="preserve">9.10834121704102</t>
   </si>
   <si>
     <t xml:space="preserve">9.49727725982666</t>
@@ -3803,13 +3803,13 @@
     <t xml:space="preserve">8.49780178070068</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46162223815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66061115264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57468414306641</t>
+    <t xml:space="preserve">8.46162128448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66061210632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57468318939209</t>
   </si>
   <si>
     <t xml:space="preserve">8.49327945709229</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">8.47518920898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5837287902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5339822769165</t>
+    <t xml:space="preserve">8.58372974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53398132324219</t>
   </si>
   <si>
     <t xml:space="preserve">8.64704513549805</t>
@@ -3836,13 +3836,13 @@
     <t xml:space="preserve">8.2988109588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2309741973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42544078826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2264518737793</t>
+    <t xml:space="preserve">8.23097324371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42544174194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22645092010498</t>
   </si>
   <si>
     <t xml:space="preserve">8.09529781341553</t>
@@ -3854,7 +3854,7 @@
     <t xml:space="preserve">8.24001884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10434246063232</t>
+    <t xml:space="preserve">8.10434341430664</t>
   </si>
   <si>
     <t xml:space="preserve">8.14052391052246</t>
@@ -3866,13 +3866,13 @@
     <t xml:space="preserve">7.77872276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89630699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86464977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99128103256226</t>
+    <t xml:space="preserve">7.89630794525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8646502494812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9912805557251</t>
   </si>
   <si>
     <t xml:space="preserve">7.8782172203064</t>
@@ -5121,6 +5121,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.46999979019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5</t>
   </si>
 </sst>
 </file>
@@ -62532,7 +62535,7 @@
     </row>
     <row r="2196">
       <c r="A2196" s="1" t="n">
-        <v>45520.6494791667</v>
+        <v>45520.2916666667</v>
       </c>
       <c r="B2196" t="n">
         <v>94179</v>
@@ -62553,6 +62556,32 @@
         <v>1702</v>
       </c>
       <c r="H2196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" s="1" t="n">
+        <v>45523.649525463</v>
+      </c>
+      <c r="B2197" t="n">
+        <v>61562</v>
+      </c>
+      <c r="C2197" t="n">
+        <v>6.53999996185303</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>6.44000005722046</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H2197" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0985441207886</t>
+    <t xml:space="preserve">13.0985460281372</t>
   </si>
   <si>
     <t xml:space="preserve">DAL.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">13.1229219436646</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1147947311401</t>
+    <t xml:space="preserve">13.1147956848145</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060216903687</t>
@@ -56,55 +56,55 @@
     <t xml:space="preserve">12.3103561401367</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1884708404541</t>
+    <t xml:space="preserve">12.1884727478027</t>
   </si>
   <si>
     <t xml:space="preserve">12.5947542190552</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8547735214233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3179349899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8385248184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7410154342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.009162902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3753614425659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7003860473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4972476959229</t>
+    <t xml:space="preserve">12.854775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3179359436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8385238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7410182952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0091619491577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3753604888916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7003870010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4972467422485</t>
   </si>
   <si>
     <t xml:space="preserve">12.6678848266602</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5134963989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.082839012146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9447021484375</t>
+    <t xml:space="preserve">12.5134973526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0828380584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9447031021118</t>
   </si>
   <si>
     <t xml:space="preserve">12.3022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4327850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2865266799927</t>
+    <t xml:space="preserve">11.4327869415283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.286524772644</t>
   </si>
   <si>
     <t xml:space="preserve">11.7659387588501</t>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">11.7984418869019</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8471937179565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.660304069519</t>
+    <t xml:space="preserve">11.8471956253052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603031158447</t>
   </si>
   <si>
     <t xml:space="preserve">12.1722202301025</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8228178024292</t>
+    <t xml:space="preserve">11.8228168487549</t>
   </si>
   <si>
     <t xml:space="preserve">12.0259599685669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1478424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853296279907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9772052764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009315490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4815406799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2859802246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166385650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.757266998291</t>
+    <t xml:space="preserve">12.1478443145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853315353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9772062301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009334564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4815397262573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2859792709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7166395187378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7572679519653</t>
   </si>
   <si>
     <t xml:space="preserve">12.554126739502</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4322423934937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4728698730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4403676986694</t>
+    <t xml:space="preserve">12.4322414398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4728689193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4403667449951</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635503768921</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">13.2935600280762</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4885768890381</t>
+    <t xml:space="preserve">13.4885759353638</t>
   </si>
   <si>
     <t xml:space="preserve">13.6267118453979</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">13.7242183685303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6917181015015</t>
+    <t xml:space="preserve">13.6917171478271</t>
   </si>
   <si>
     <t xml:space="preserve">13.8136014938354</t>
@@ -197,25 +197,25 @@
     <t xml:space="preserve">13.9598627090454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7160930633545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3829431533813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0904197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4641990661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4560718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5454540252686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3341875076294</t>
+    <t xml:space="preserve">13.7160921096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.382942199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0904188156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4641971588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456072807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5454559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3341865539551</t>
   </si>
   <si>
     <t xml:space="preserve">13.3666915893555</t>
@@ -224,52 +224,52 @@
     <t xml:space="preserve">13.4398212432861</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235696792603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3748149871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0335397720337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9360313415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9847860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2041778564453</t>
+    <t xml:space="preserve">13.4235715866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3748178482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.033540725708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9360322952271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9847850799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2041759490967</t>
   </si>
   <si>
     <t xml:space="preserve">12.9197807312012</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7978963851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6922626495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9116544723511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0655088424683</t>
+    <t xml:space="preserve">12.7978954315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6922616958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9116535186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0655078887939</t>
   </si>
   <si>
     <t xml:space="preserve">12.4708709716797</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4295778274536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3056926727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2396221160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5451993942261</t>
+    <t xml:space="preserve">12.429575920105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3056945800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2396230697632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5452003479004</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534591674805</t>
@@ -281,40 +281,40 @@
     <t xml:space="preserve">12.5864944458008</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6112718582153</t>
+    <t xml:space="preserve">12.6112728118896</t>
   </si>
   <si>
     <t xml:space="preserve">12.8260021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0489921569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.148097038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2141675949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3710880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1646146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2059106826782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1563558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.933367729187</t>
+    <t xml:space="preserve">13.0489902496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1480979919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.214168548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3710861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1646137237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2059087753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1563568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9333667755127</t>
   </si>
   <si>
     <t xml:space="preserve">12.6938600540161</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6360492706299</t>
+    <t xml:space="preserve">12.6360483169556</t>
   </si>
   <si>
     <t xml:space="preserve">12.0496692657471</t>
@@ -323,25 +323,25 @@
     <t xml:space="preserve">11.7027969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5871734619141</t>
+    <t xml:space="preserve">11.5871753692627</t>
   </si>
   <si>
     <t xml:space="preserve">11.1659717559814</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3724451065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092702865601</t>
+    <t xml:space="preserve">11.372444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092683792114</t>
   </si>
   <si>
     <t xml:space="preserve">12.3882827758789</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9175291061401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6697635650635</t>
+    <t xml:space="preserve">11.9175281524658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6697616577148</t>
   </si>
   <si>
     <t xml:space="preserve">11.7936458587646</t>
@@ -350,37 +350,37 @@
     <t xml:space="preserve">11.042088508606</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3400869369507</t>
+    <t xml:space="preserve">10.3400859832764</t>
   </si>
   <si>
     <t xml:space="preserve">10.7365112304688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3146314620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9505643844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9423046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5293607711792</t>
+    <t xml:space="preserve">11.3146324157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9505634307861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9423055648804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5293617248535</t>
   </si>
   <si>
     <t xml:space="preserve">11.2733373641968</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2155246734619</t>
+    <t xml:space="preserve">11.2155256271362</t>
   </si>
   <si>
     <t xml:space="preserve">11.5128440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0331535339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0579290390015</t>
+    <t xml:space="preserve">12.0331516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0579280853271</t>
   </si>
   <si>
     <t xml:space="preserve">11.8762340545654</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">12.2065868377686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.892749786377</t>
+    <t xml:space="preserve">11.8927516937256</t>
   </si>
   <si>
     <t xml:space="preserve">12.1900701522827</t>
@@ -398,28 +398,28 @@
     <t xml:space="preserve">12.1074829101562</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5121650695801</t>
+    <t xml:space="preserve">12.5121660232544</t>
   </si>
   <si>
     <t xml:space="preserve">12.7599315643311</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2306852340698</t>
+    <t xml:space="preserve">13.2306861877441</t>
   </si>
   <si>
     <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380517959595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701919555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.503228187561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297910690308</t>
+    <t xml:space="preserve">13.3380508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.470193862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5032272338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297929763794</t>
   </si>
   <si>
     <t xml:space="preserve">13.4206399917603</t>
@@ -428,67 +428,67 @@
     <t xml:space="preserve">13.7014408111572</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6264314651489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2878189086914</t>
+    <t xml:space="preserve">14.6264333724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2878198623657</t>
   </si>
   <si>
     <t xml:space="preserve">14.7255392074585</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2217483520508</t>
+    <t xml:space="preserve">14.2217473983765</t>
   </si>
   <si>
     <t xml:space="preserve">14.5355854034424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0806694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1549997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2128133773804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9898242950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7833490371704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6925029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0393743515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467390060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5183887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5514211654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5266466140747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4853525161743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440612792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8322257995605</t>
+    <t xml:space="preserve">15.0806713104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1550006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2128114700317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9898223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.783353805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6925058364868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0393753051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467399597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5183916091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5514240264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5266494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4853544235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440593719482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.700083732605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8322238922119</t>
   </si>
   <si>
     <t xml:space="preserve">15.8652601242065</t>
@@ -497,115 +497,115 @@
     <t xml:space="preserve">15.7661533355713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6918258666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2623634338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1137037277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293281555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1797742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2871408462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8982982635498</t>
+    <t xml:space="preserve">15.6918239593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2623624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1137056350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293319702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1797761917114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2871417999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8982954025269</t>
   </si>
   <si>
     <t xml:space="preserve">15.8487415313721</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6174955368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1962919235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7991895675659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6587896347046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.567943572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9395914077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6257553100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4110231399536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.278883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.600977897644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7331190109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7166023254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744121551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7083435058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5844612121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311183929443</t>
+    <t xml:space="preserve">15.6174945831299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1962957382202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7991886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6587886810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5679416656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6257524490356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110240936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2788782119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6009769439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7331171035767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7166032791138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744131088257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7083415985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5844593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311155319214</t>
   </si>
   <si>
     <t xml:space="preserve">15.3614721298218</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6505336761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2210702896118</t>
+    <t xml:space="preserve">15.6505317687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2210712432861</t>
   </si>
   <si>
     <t xml:space="preserve">14.9237518310547</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9402675628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4860343933105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6594667434692</t>
+    <t xml:space="preserve">14.9402685165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4860324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.808126449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6594686508179</t>
   </si>
   <si>
     <t xml:space="preserve">14.8659391403198</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5933980941772</t>
+    <t xml:space="preserve">14.5933990478516</t>
   </si>
   <si>
     <t xml:space="preserve">14.7916078567505</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9485282897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8411636352539</t>
+    <t xml:space="preserve">14.948525428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8411626815796</t>
   </si>
   <si>
     <t xml:space="preserve">14.6842441558838</t>
@@ -614,16 +614,16 @@
     <t xml:space="preserve">14.4777746200562</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7007598876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.320855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0400543212891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7592515945435</t>
+    <t xml:space="preserve">14.7007617950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3208532333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0400533676147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7592544555664</t>
   </si>
   <si>
     <t xml:space="preserve">13.7179584503174</t>
@@ -632,85 +632,85 @@
     <t xml:space="preserve">13.5362634658813</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2967576980591</t>
+    <t xml:space="preserve">13.2967567443848</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9492044448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1391592025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2795629501343</t>
+    <t xml:space="preserve">13.9492063522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1391620635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2795610427856</t>
   </si>
   <si>
     <t xml:space="preserve">14.5768785476685</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3704061508179</t>
+    <t xml:space="preserve">14.3704080581665</t>
   </si>
   <si>
     <t xml:space="preserve">15.3779888153076</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4358005523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054468154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2375898361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3119163513184</t>
+    <t xml:space="preserve">15.4357976913452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054439544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2375860214233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3119144439697</t>
   </si>
   <si>
     <t xml:space="preserve">15.6670484542847</t>
   </si>
   <si>
-    <t xml:space="preserve">16.0139179229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9643688201904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9478483200073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8735189437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909288406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0221767425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9148139953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157072067261</t>
+    <t xml:space="preserve">16.0139198303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9643678665161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.947850227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909345626831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0221786499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.914813041687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157081604004</t>
   </si>
   <si>
     <t xml:space="preserve">15.5101299285889</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6092367172241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2451667785645</t>
+    <t xml:space="preserve">15.6092348098755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2451686859131</t>
   </si>
   <si>
     <t xml:space="preserve">16.3112392425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3194980621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3690490722656</t>
+    <t xml:space="preserve">16.3194961547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3690509796143</t>
   </si>
   <si>
     <t xml:space="preserve">16.4351215362549</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">16.7819919586182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.732442855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.97194480896</t>
+    <t xml:space="preserve">16.7324390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9719486236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.0215015411377</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">16.765474319458</t>
   </si>
   <si>
-    <t xml:space="preserve">16.8893604278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6002998352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5837821960449</t>
+    <t xml:space="preserve">16.8893566131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6002979278564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5837802886963</t>
   </si>
   <si>
     <t xml:space="preserve">16.4020862579346</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">16.1873550415039</t>
   </si>
   <si>
-    <t xml:space="preserve">16.517707824707</t>
+    <t xml:space="preserve">16.5177116394043</t>
   </si>
   <si>
     <t xml:space="preserve">16.4268627166748</t>
@@ -761,85 +761,85 @@
     <t xml:space="preserve">17.3435935974121</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4261817932129</t>
+    <t xml:space="preserve">17.4261837005615</t>
   </si>
   <si>
     <t xml:space="preserve">17.4922542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8391265869141</t>
+    <t xml:space="preserve">17.8391284942627</t>
   </si>
   <si>
     <t xml:space="preserve">17.979528427124</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2438125610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8714828491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2431297302246</t>
+    <t xml:space="preserve">18.2438106536865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8714847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2431335449219</t>
   </si>
   <si>
     <t xml:space="preserve">19.2183570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239315032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.779956817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9038410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9203586578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9616546630859</t>
+    <t xml:space="preserve">19.5239334106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7799606323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9038391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9203605651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9616527557373</t>
   </si>
   <si>
     <t xml:space="preserve">20.2754878997803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0194644927979</t>
+    <t xml:space="preserve">20.0194625854492</t>
   </si>
   <si>
     <t xml:space="preserve">20.1268291473389</t>
   </si>
   <si>
-    <t xml:space="preserve">20.1516036987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2341957092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.895580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.10205078125</t>
+    <t xml:space="preserve">20.1516094207764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2341918945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8955821990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1020526885986</t>
   </si>
   <si>
     <t xml:space="preserve">19.821252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0607604980469</t>
+    <t xml:space="preserve">20.0607585906982</t>
   </si>
   <si>
     <t xml:space="preserve">19.9781703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.573486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5817470550537</t>
+    <t xml:space="preserve">19.5734882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5817451477051</t>
   </si>
   <si>
     <t xml:space="preserve">19.3339786529541</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5321922302246</t>
+    <t xml:space="preserve">19.532190322876</t>
   </si>
   <si>
     <t xml:space="preserve">19.4743804931641</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">19.0531787872314</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9953689575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.110990524292</t>
+    <t xml:space="preserve">18.9953670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1109924316406</t>
   </si>
   <si>
     <t xml:space="preserve">19.6725921630859</t>
@@ -860,7 +860,7 @@
     <t xml:space="preserve">20.3415603637695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7957973480225</t>
+    <t xml:space="preserve">20.7957954406738</t>
   </si>
   <si>
     <t xml:space="preserve">21.3078460693359</t>
@@ -869,34 +869,34 @@
     <t xml:space="preserve">21.1013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5083904266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7423610687256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4749698638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6420879364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3162002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5585269927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1434478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0822334289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0989456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.032096862793</t>
+    <t xml:space="preserve">21.5083923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.742359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.474967956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6420860290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3162021636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5585250854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1434497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0822315216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0989437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0321006774902</t>
   </si>
   <si>
     <t xml:space="preserve">20.9318237304688</t>
@@ -905,13 +905,13 @@
     <t xml:space="preserve">20.8649749755859</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8900451660156</t>
+    <t xml:space="preserve">20.890043258667</t>
   </si>
   <si>
     <t xml:space="preserve">21.0571670532227</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5418186187744</t>
+    <t xml:space="preserve">21.5418148040771</t>
   </si>
   <si>
     <t xml:space="preserve">21.5501708984375</t>
@@ -920,37 +920,37 @@
     <t xml:space="preserve">21.491678237915</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6838665008545</t>
+    <t xml:space="preserve">21.6838684082031</t>
   </si>
   <si>
     <t xml:space="preserve">21.5919513702393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3914089202881</t>
+    <t xml:space="preserve">21.3914070129395</t>
   </si>
   <si>
     <t xml:space="preserve">21.366340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7172927856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8315544128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1407260894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8566207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3636169433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6142959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6811447143555</t>
+    <t xml:space="preserve">21.7172908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8315525054932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1407279968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8566188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3636150360107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6142978668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6811466217041</t>
   </si>
   <si>
     <t xml:space="preserve">20.5140228271484</t>
@@ -965,31 +965,31 @@
     <t xml:space="preserve">21.2744216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8482646942139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5056686401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8706111907959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6951351165771</t>
+    <t xml:space="preserve">20.8482666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.505672454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8706092834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6951332092285</t>
   </si>
   <si>
     <t xml:space="preserve">19.4778785705566</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3024024963379</t>
+    <t xml:space="preserve">19.3024005889893</t>
   </si>
   <si>
     <t xml:space="preserve">19.2021293640137</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6032180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1269264221191</t>
+    <t xml:space="preserve">19.6032161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1269245147705</t>
   </si>
   <si>
     <t xml:space="preserve">19.6366424560547</t>
@@ -998,22 +998,22 @@
     <t xml:space="preserve">19.9959526062012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.046085357666</t>
+    <t xml:space="preserve">20.0460872650146</t>
   </si>
   <si>
     <t xml:space="preserve">20.7396354675293</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3051223754883</t>
+    <t xml:space="preserve">20.3051261901855</t>
   </si>
   <si>
     <t xml:space="preserve">20.7145690917969</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7730598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.332914352417</t>
+    <t xml:space="preserve">20.7730617523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3329162597656</t>
   </si>
   <si>
     <t xml:space="preserve">21.3245601654053</t>
@@ -1031,16 +1031,16 @@
     <t xml:space="preserve">21.8426303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6170215606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6003112792969</t>
+    <t xml:space="preserve">21.6170196533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6003093719482</t>
   </si>
   <si>
     <t xml:space="preserve">21.2326412200928</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6588020324707</t>
+    <t xml:space="preserve">21.6588001251221</t>
   </si>
   <si>
     <t xml:space="preserve">22.1100234985352</t>
@@ -1052,55 +1052,55 @@
     <t xml:space="preserve">22.1016674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8844127655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.502758026123</t>
+    <t xml:space="preserve">21.8844108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027561187744</t>
   </si>
   <si>
     <t xml:space="preserve">22.3607044219971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.068244934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9596176147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3523483276367</t>
+    <t xml:space="preserve">22.0682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9596157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3523502349854</t>
   </si>
   <si>
     <t xml:space="preserve">22.1935844421387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.653169631958</t>
+    <t xml:space="preserve">22.6531677246094</t>
   </si>
   <si>
     <t xml:space="preserve">22.2855014801025</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127452850342</t>
+    <t xml:space="preserve">23.1127471923828</t>
   </si>
   <si>
     <t xml:space="preserve">23.589038848877</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2297286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6642436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5973930358887</t>
+    <t xml:space="preserve">23.2297306060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6642417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5973949432373</t>
   </si>
   <si>
     <t xml:space="preserve">23.8146514892578</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7812271118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0903987884521</t>
+    <t xml:space="preserve">23.781229019165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0904006958008</t>
   </si>
   <si>
     <t xml:space="preserve">24.4914894104004</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">24.6669654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">24.600118637085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6586112976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0095615386963</t>
+    <t xml:space="preserve">24.6001167297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6586093902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0095634460449</t>
   </si>
   <si>
     <t xml:space="preserve">24.5332717895508</t>
@@ -1127,49 +1127,49 @@
     <t xml:space="preserve">24.6251850128174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2240943908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.148889541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2408065795898</t>
+    <t xml:space="preserve">24.2240982055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1488933563232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2408084869385</t>
   </si>
   <si>
     <t xml:space="preserve">24.616828918457</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8758678436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1125564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6529769897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7198238372803</t>
+    <t xml:space="preserve">24.8758659362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1125583648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6529750823975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7198219299316</t>
   </si>
   <si>
     <t xml:space="preserve">25.6696872711182</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5359916687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4858551025391</t>
+    <t xml:space="preserve">25.5359897613525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4858570098877</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187351226807</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3020248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3799476623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6473426818848</t>
+    <t xml:space="preserve">25.3020210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3799495697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6473407745361</t>
   </si>
   <si>
     <t xml:space="preserve">26.1543369293213</t>
@@ -1178,37 +1178,37 @@
     <t xml:space="preserve">25.8451633453369</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8006610870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2101078033447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4022960662842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2268199920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1292686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9732265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6724109649658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8255386352539</t>
+    <t xml:space="preserve">24.8006629943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2101058959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4022941589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2268180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1292724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9732246398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6724090576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8255405426025</t>
   </si>
   <si>
     <t xml:space="preserve">28.5023803710938</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1096420288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6333503723145</t>
+    <t xml:space="preserve">28.1096458435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6333522796631</t>
   </si>
   <si>
     <t xml:space="preserve">28.2349853515625</t>
@@ -1220,13 +1220,13 @@
     <t xml:space="preserve">27.3993835449219</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9454326629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5694160461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1516151428223</t>
+    <t xml:space="preserve">25.9454345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5694141387939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1516132354736</t>
   </si>
   <si>
     <t xml:space="preserve">25.2685985565186</t>
@@ -1238,10 +1238,10 @@
     <t xml:space="preserve">25.9120121002197</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5025672912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939380645752</t>
+    <t xml:space="preserve">25.5025691986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939399719238</t>
   </si>
   <si>
     <t xml:space="preserve">25.8618793487549</t>
@@ -1253,25 +1253,25 @@
     <t xml:space="preserve">26.2629642486572</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4050140380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3715934753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2211837768555</t>
+    <t xml:space="preserve">26.4050178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3715915679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2211856842041</t>
   </si>
   <si>
     <t xml:space="preserve">26.4384422302246</t>
   </si>
   <si>
-    <t xml:space="preserve">26.196117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9872169494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0707759857178</t>
+    <t xml:space="preserve">26.1961193084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9872150421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0707778930664</t>
   </si>
   <si>
     <t xml:space="preserve">26.1877593994141</t>
@@ -1283,13 +1283,13 @@
     <t xml:space="preserve">26.7392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">25.870231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7114677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1098365783691</t>
+    <t xml:space="preserve">25.8702297210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7114696502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1098346710205</t>
   </si>
   <si>
     <t xml:space="preserve">26.037353515625</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">26.0540657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7532501220703</t>
+    <t xml:space="preserve">25.7532482147217</t>
   </si>
   <si>
     <t xml:space="preserve">25.3688716888428</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">28.1180057525635</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3659591674805</t>
+    <t xml:space="preserve">27.3659610748291</t>
   </si>
   <si>
     <t xml:space="preserve">27.1988372802734</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8228168487549</t>
+    <t xml:space="preserve">26.8228187561035</t>
   </si>
   <si>
     <t xml:space="preserve">26.2796783447266</t>
@@ -1340,67 +1340,67 @@
     <t xml:space="preserve">27.4913005828857</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0344429016113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6193599700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508857727051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330772399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3241786956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8645992279053</t>
+    <t xml:space="preserve">28.0344409942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.61936378479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3241767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8645973205566</t>
   </si>
   <si>
     <t xml:space="preserve">25.736536026001</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2769546508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4831314086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6084728240967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2378959655762</t>
+    <t xml:space="preserve">25.2769527435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.48313331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6084747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2378978729248</t>
   </si>
   <si>
     <t xml:space="preserve">26.028995513916</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783184051514</t>
+    <t xml:space="preserve">25.7783164978027</t>
   </si>
   <si>
     <t xml:space="preserve">25.9036560058594</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9817714691162</t>
+    <t xml:space="preserve">23.9817695617676</t>
   </si>
   <si>
     <t xml:space="preserve">25.0680561065674</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3160152435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1906719207764</t>
+    <t xml:space="preserve">26.9481601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3160133361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.190673828125</t>
   </si>
   <si>
     <t xml:space="preserve">20.7229251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1825065612793</t>
+    <t xml:space="preserve">21.1825103759766</t>
   </si>
   <si>
     <t xml:space="preserve">21.2660675048828</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">21.0153865814209</t>
   </si>
   <si>
-    <t xml:space="preserve">21.767427444458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2270088195801</t>
+    <t xml:space="preserve">21.7674255371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2270069122314</t>
   </si>
   <si>
     <t xml:space="preserve">22.310567855835</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0208263397217</t>
+    <t xml:space="preserve">23.0208301544189</t>
   </si>
   <si>
     <t xml:space="preserve">22.3941287994385</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">21.4331855773926</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0181083679199</t>
+    <t xml:space="preserve">22.0181102752686</t>
   </si>
   <si>
     <t xml:space="preserve">21.8927688598633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2687911987305</t>
+    <t xml:space="preserve">22.2687892913818</t>
   </si>
   <si>
     <t xml:space="preserve">23.0626106262207</t>
@@ -1445,85 +1445,85 @@
     <t xml:space="preserve">22.770149230957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.187952041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.60302734375</t>
+    <t xml:space="preserve">23.1879501342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6030292510986</t>
   </si>
   <si>
     <t xml:space="preserve">22.9372711181641</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7728710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.313289642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2324523925781</t>
+    <t xml:space="preserve">23.7728729248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2324542999268</t>
   </si>
   <si>
     <t xml:space="preserve">26.4885768890381</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3605155944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0262756347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8591556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8173732757568</t>
+    <t xml:space="preserve">25.3605175018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0262775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8591537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8173713684082</t>
   </si>
   <si>
     <t xml:space="preserve">24.9427146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4440784454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3591213226318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7644329071045</t>
+    <t xml:space="preserve">25.4440765380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3591194152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7644348144531</t>
   </si>
   <si>
     <t xml:space="preserve">25.3166427612305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5715084075928</t>
+    <t xml:space="preserve">25.5715065002441</t>
   </si>
   <si>
     <t xml:space="preserve">25.8688526153564</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0812397003174</t>
+    <t xml:space="preserve">26.0812377929688</t>
   </si>
   <si>
     <t xml:space="preserve">26.4635372161865</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4210605621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9962863922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9732704162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6529102325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.888313293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1661949157715</t>
+    <t xml:space="preserve">26.4210586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9732685089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8652973175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6529083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8883113861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1661930084229</t>
   </si>
   <si>
     <t xml:space="preserve">26.2086734771729</t>
@@ -1532,55 +1532,55 @@
     <t xml:space="preserve">25.741418838501</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0387630462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3785820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9538078308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3361034393311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8458366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5060176849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6334476470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7608814239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5909690856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7803421020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7378673553467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.89186668396</t>
+    <t xml:space="preserve">26.038761138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3785800933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9538040161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3361053466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5060157775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6334495544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7608795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.590970993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157451629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7803401947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.737865447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8918685913086</t>
   </si>
   <si>
     <t xml:space="preserve">24.2547035217285</t>
   </si>
   <si>
-    <t xml:space="preserve">24.382137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6794776916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4670906066895</t>
+    <t xml:space="preserve">24.3821353912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6794757843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4670886993408</t>
   </si>
   <si>
     <t xml:space="preserve">23.9998378753662</t>
@@ -1589,46 +1589,46 @@
     <t xml:space="preserve">24.4246139526367</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5095672607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5520420074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8493900299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9768238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1237163543701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2281341552734</t>
+    <t xml:space="preserve">24.5095691680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5520458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8493881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9768218994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1237182617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2281360626221</t>
   </si>
   <si>
     <t xml:space="preserve">26.5484924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7184028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2706108093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2511520385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3130893707275</t>
+    <t xml:space="preserve">26.7184047698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2706089019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2511501312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3130912780762</t>
   </si>
   <si>
     <t xml:space="preserve">27.6953868865967</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6759243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.143180847168</t>
+    <t xml:space="preserve">26.6759262084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1431789398193</t>
   </si>
   <si>
     <t xml:space="preserve">27.3555679321289</t>
@@ -1643,70 +1643,70 @@
     <t xml:space="preserve">23.7024936676025</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3007354736328</t>
+    <t xml:space="preserve">22.3007335662842</t>
   </si>
   <si>
     <t xml:space="preserve">22.0033912658691</t>
   </si>
   <si>
-    <t xml:space="preserve">22.470645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3237495422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2157802581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0458698272705</t>
+    <t xml:space="preserve">22.4706439971924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3237476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2157783508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0458717346191</t>
   </si>
   <si>
     <t xml:space="preserve">21.6635704040527</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3662261962891</t>
+    <t xml:space="preserve">21.3662281036377</t>
   </si>
   <si>
     <t xml:space="preserve">20.2193298339844</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3892421722412</t>
+    <t xml:space="preserve">20.3892402648926</t>
   </si>
   <si>
     <t xml:space="preserve">20.8989715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7715396881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3856887817383</t>
+    <t xml:space="preserve">20.771541595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3856906890869</t>
   </si>
   <si>
     <t xml:space="preserve">21.4936599731445</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5131206512451</t>
+    <t xml:space="preserve">22.5131225585938</t>
   </si>
   <si>
     <t xml:space="preserve">22.6405544281006</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5325832366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8529415130615</t>
+    <t xml:space="preserve">23.532585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8529453277588</t>
   </si>
   <si>
     <t xml:space="preserve">18.4777526855469</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9255428314209</t>
+    <t xml:space="preserve">17.9255409240723</t>
   </si>
   <si>
     <t xml:space="preserve">18.010498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1379299163818</t>
+    <t xml:space="preserve">18.1379318237305</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503189086914</t>
@@ -1715,55 +1715,55 @@
     <t xml:space="preserve">18.6901397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9874839782715</t>
+    <t xml:space="preserve">18.9874820709229</t>
   </si>
   <si>
     <t xml:space="preserve">19.1998691558838</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3273010253906</t>
+    <t xml:space="preserve">19.3273029327393</t>
   </si>
   <si>
     <t xml:space="preserve">19.1149120330811</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3697776794434</t>
+    <t xml:space="preserve">19.369779586792</t>
   </si>
   <si>
     <t xml:space="preserve">19.8795108795166</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0494213104248</t>
+    <t xml:space="preserve">20.0494232177734</t>
   </si>
   <si>
     <t xml:space="preserve">20.0069427490234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5821666717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6246452331543</t>
+    <t xml:space="preserve">19.5821685791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6246433258057</t>
   </si>
   <si>
     <t xml:space="preserve">18.520227432251</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2653617858887</t>
+    <t xml:space="preserve">18.2653636932373</t>
   </si>
   <si>
     <t xml:space="preserve">17.2883796691895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2228870391846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6282005310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8405876159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4158134460449</t>
+    <t xml:space="preserve">18.2228851318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6281986236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8405857086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4158096313477</t>
   </si>
   <si>
     <t xml:space="preserve">17.0759906768799</t>
@@ -1775,19 +1775,19 @@
     <t xml:space="preserve">17.3308563232422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9910335540771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7326164245605</t>
+    <t xml:space="preserve">16.9910373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7326126098633</t>
   </si>
   <si>
     <t xml:space="preserve">18.9025268554688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.667121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.921989440918</t>
+    <t xml:space="preserve">19.6671237945557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9219913482666</t>
   </si>
   <si>
     <t xml:space="preserve">20.0918979644775</t>
@@ -1799,55 +1799,55 @@
     <t xml:space="preserve">20.4317188262939</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3467636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0688819885254</t>
+    <t xml:space="preserve">20.3467674255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0688858032227</t>
   </si>
   <si>
     <t xml:space="preserve">21.1963176727295</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8564929962158</t>
+    <t xml:space="preserve">20.8564949035645</t>
   </si>
   <si>
     <t xml:space="preserve">20.6441078186035</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7945537567139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5591526031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1768531799316</t>
+    <t xml:space="preserve">20.3042888641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7945575714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.559154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1768569946289</t>
   </si>
   <si>
     <t xml:space="preserve">20.4741973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7520751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8370323181152</t>
+    <t xml:space="preserve">19.7520771026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8370342254639</t>
   </si>
   <si>
     <t xml:space="preserve">19.5396900177002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7556324005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9740447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0335121154785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9230690002441</t>
+    <t xml:space="preserve">17.7556343078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9740428924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0335102081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9230709075928</t>
   </si>
   <si>
     <t xml:space="preserve">16.889087677002</t>
@@ -1859,22 +1859,22 @@
     <t xml:space="preserve">17.6706771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7896156311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235950469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7750930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0979251861572</t>
+    <t xml:space="preserve">17.7896118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7750949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0979232788086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8260650634766</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5372219085693</t>
+    <t xml:space="preserve">18.5372200012207</t>
   </si>
   <si>
     <t xml:space="preserve">18.1124439239502</t>
@@ -1883,19 +1883,19 @@
     <t xml:space="preserve">17.7046585083008</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0954513549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5542087554932</t>
+    <t xml:space="preserve">18.0954551696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5542106628418</t>
   </si>
   <si>
     <t xml:space="preserve">18.6051826477051</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1294364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2483711242676</t>
+    <t xml:space="preserve">18.1294345855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2483730316162</t>
   </si>
   <si>
     <t xml:space="preserve">18.4522647857666</t>
@@ -1904,55 +1904,55 @@
     <t xml:space="preserve">18.7071304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2313804626465</t>
+    <t xml:space="preserve">18.2313785552979</t>
   </si>
   <si>
     <t xml:space="preserve">17.0250186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0590000152588</t>
+    <t xml:space="preserve">17.0590019226074</t>
   </si>
   <si>
     <t xml:space="preserve">16.9400615692139</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9206008911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8356456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6742296218872</t>
+    <t xml:space="preserve">15.9206018447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8356437683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6742286682129</t>
   </si>
   <si>
     <t xml:space="preserve">15.2324628829956</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0200757980347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0625524520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0310440063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.447322845459</t>
+    <t xml:space="preserve">15.020073890686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0625514984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.031042098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4473209381104</t>
   </si>
   <si>
     <t xml:space="preserve">16.3538722991943</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4618425369263</t>
+    <t xml:space="preserve">15.4618434906006</t>
   </si>
   <si>
     <t xml:space="preserve">15.4533462524414</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4448499679565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0540580749512</t>
+    <t xml:space="preserve">15.4448490142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0540542602539</t>
   </si>
   <si>
     <t xml:space="preserve">15.2154722213745</t>
@@ -1961,28 +1961,28 @@
     <t xml:space="preserve">15.7311029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485837936401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1018590927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2329521179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0494213104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0319442749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979913711548</t>
+    <t xml:space="preserve">15.7485799789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1018600463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2329530715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0494203567505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.031943321228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979942321777</t>
   </si>
   <si>
     <t xml:space="preserve">14.9270687103271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2853889465332</t>
+    <t xml:space="preserve">15.2853879928589</t>
   </si>
   <si>
     <t xml:space="preserve">16.4040451049805</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">16.0806827545166</t>
   </si>
   <si>
-    <t xml:space="preserve">15.30286693573</t>
+    <t xml:space="preserve">15.3028697967529</t>
   </si>
   <si>
     <t xml:space="preserve">14.9095897674561</t>
@@ -2000,31 +2000,31 @@
     <t xml:space="preserve">14.8571538925171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5774879455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7697582244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9882459640503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8134574890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6124458312988</t>
+    <t xml:space="preserve">14.5774898529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7697591781616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.988245010376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6124467849731</t>
   </si>
   <si>
     <t xml:space="preserve">14.4201765060425</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5600099563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2242136001587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9358081817627</t>
+    <t xml:space="preserve">14.5600109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9358072280884</t>
   </si>
   <si>
     <t xml:space="preserve">14.6998424530029</t>
@@ -2033,25 +2033,22 @@
     <t xml:space="preserve">15.1193389892578</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3990039825439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2154712677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7173223495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7347993850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3153047561646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0531196594238</t>
+    <t xml:space="preserve">15.3990030288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047161102295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.717321395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7347984313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3153038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0531187057495</t>
   </si>
   <si>
     <t xml:space="preserve">14.1055555343628</t>
@@ -2069,34 +2066,34 @@
     <t xml:space="preserve">13.6336231231689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7784967422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4726142883301</t>
+    <t xml:space="preserve">14.7784976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4726152420044</t>
   </si>
   <si>
     <t xml:space="preserve">14.2541265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1842126846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5724458694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9395046234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9832019805908</t>
+    <t xml:space="preserve">14.184211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5724468231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9395065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9832029342651</t>
   </si>
   <si>
     <t xml:space="preserve">13.8783292770386</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5287485122681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5025310516357</t>
+    <t xml:space="preserve">13.5287494659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5025300979614</t>
   </si>
   <si>
     <t xml:space="preserve">13.5637073516846</t>
@@ -2105,28 +2102,28 @@
     <t xml:space="preserve">12.488748550415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.256477355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2652187347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389993667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282442092896</t>
+    <t xml:space="preserve">11.2564783096313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2652168273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389984130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282423019409</t>
   </si>
   <si>
     <t xml:space="preserve">11.0292510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4662246704102</t>
+    <t xml:space="preserve">11.4662265777588</t>
   </si>
   <si>
     <t xml:space="preserve">11.0379915237427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.32639503479</t>
+    <t xml:space="preserve">11.3263940811157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4574871063232</t>
@@ -2138,7 +2135,7 @@
     <t xml:space="preserve">11.0729484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0467300415039</t>
+    <t xml:space="preserve">11.0467319488525</t>
   </si>
   <si>
     <t xml:space="preserve">10.5223608016968</t>
@@ -2159,67 +2156,67 @@
     <t xml:space="preserve">11.6672353744507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8420248031616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731168746948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9993352890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0517721176147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0605125427246</t>
+    <t xml:space="preserve">11.8420238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731187820435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9993362426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0517730712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0605134963989</t>
   </si>
   <si>
     <t xml:space="preserve">12.5062274932861</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2178230285645</t>
+    <t xml:space="preserve">12.2178220748901</t>
   </si>
   <si>
     <t xml:space="preserve">12.130428314209</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0867309570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3663940429688</t>
+    <t xml:space="preserve">12.0867319107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3663949966431</t>
   </si>
   <si>
     <t xml:space="preserve">11.7633695602417</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8070678710938</t>
+    <t xml:space="preserve">11.8070669174194</t>
   </si>
   <si>
     <t xml:space="preserve">11.4400081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1865634918213</t>
+    <t xml:space="preserve">11.186562538147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5885791778564</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5099229812622</t>
+    <t xml:space="preserve">11.5099239349365</t>
   </si>
   <si>
     <t xml:space="preserve">10.9942932128906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7495861053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9418563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3089151382446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.378830909729</t>
+    <t xml:space="preserve">10.749587059021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.941855430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3089141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3788318634033</t>
   </si>
   <si>
     <t xml:space="preserve">11.3438730239868</t>
@@ -2234,25 +2231,25 @@
     <t xml:space="preserve">11.3001756668091</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5623598098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.008074760437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9905967712402</t>
+    <t xml:space="preserve">11.5623607635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0080757141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9905977249146</t>
   </si>
   <si>
     <t xml:space="preserve">12.1216888427734</t>
   </si>
   <si>
-    <t xml:space="preserve">13.677318572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5462265014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5899248123169</t>
+    <t xml:space="preserve">13.6773204803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5462284088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5899257659912</t>
   </si>
   <si>
     <t xml:space="preserve">13.869589805603</t>
@@ -2261,7 +2258,7 @@
     <t xml:space="preserve">14.0356397628784</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9045467376709</t>
+    <t xml:space="preserve">13.9045476913452</t>
   </si>
   <si>
     <t xml:space="preserve">14.7959756851196</t>
@@ -2270,13 +2267,13 @@
     <t xml:space="preserve">14.2191696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5949687957764</t>
+    <t xml:space="preserve">14.5949668884277</t>
   </si>
   <si>
     <t xml:space="preserve">14.2453870773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1405153274536</t>
+    <t xml:space="preserve">14.1405143737793</t>
   </si>
   <si>
     <t xml:space="preserve">13.7996730804443</t>
@@ -2288,55 +2285,55 @@
     <t xml:space="preserve">14.8309345245361</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0144643783569</t>
+    <t xml:space="preserve">15.0144624710083</t>
   </si>
   <si>
     <t xml:space="preserve">15.3203468322754</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9146318435669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9795055389404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9445486068726</t>
+    <t xml:space="preserve">15.9146308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9795064926147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9445476531982</t>
   </si>
   <si>
     <t xml:space="preserve">15.3378257751465</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3640432357788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0756416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4164810180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5475759506226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7223634719849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.05446434021</t>
+    <t xml:space="preserve">15.3640451431274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756406784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4164819717407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5475740432739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7223625183105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0544662475586</t>
   </si>
   <si>
     <t xml:space="preserve">15.8709354400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8484125137329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7435388565063</t>
+    <t xml:space="preserve">14.8484134674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.743540763855</t>
   </si>
   <si>
     <t xml:space="preserve">14.7085809707642</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8658924102783</t>
+    <t xml:space="preserve">14.8658933639526</t>
   </si>
   <si>
     <t xml:space="preserve">14.5250520706177</t>
@@ -2345,52 +2342,52 @@
     <t xml:space="preserve">14.5075731277466</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9620294570923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4900941848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8746337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7610197067261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8833713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1630353927612</t>
+    <t xml:space="preserve">14.9620275497437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4900960922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8746318817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7610168457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8833742141724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1630382537842</t>
   </si>
   <si>
     <t xml:space="preserve">14.0705976486206</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2978258132935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8608493804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6685819625854</t>
+    <t xml:space="preserve">14.2978248596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8608503341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6685800552368</t>
   </si>
   <si>
     <t xml:space="preserve">13.9220266342163</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8958072662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7872362136841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6474056243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6736249923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8921117782593</t>
+    <t xml:space="preserve">13.8958082199097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7872371673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6474046707153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6736240386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8921127319336</t>
   </si>
   <si>
     <t xml:space="preserve">14.9008493423462</t>
@@ -2414,40 +2411,40 @@
     <t xml:space="preserve">12.6635389328003</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9344625473022</t>
+    <t xml:space="preserve">12.9344635009766</t>
   </si>
   <si>
     <t xml:space="preserve">12.3052177429199</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9294195175171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7458906173706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6010160446167</t>
+    <t xml:space="preserve">11.9294204711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7458896636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6010150909424</t>
   </si>
   <si>
     <t xml:space="preserve">10.0853843688965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67462825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99798774719238</t>
+    <t xml:space="preserve">9.67462921142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99798965454102</t>
   </si>
   <si>
     <t xml:space="preserve">8.29815769195557</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96672916412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4904260635376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53412437438965</t>
+    <t xml:space="preserve">8.96672821044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49042510986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53412342071533</t>
   </si>
   <si>
     <t xml:space="preserve">8.17143440246582</t>
@@ -2459,13 +2456,13 @@
     <t xml:space="preserve">9.35126686096191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24639225006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72706508636475</t>
+    <t xml:space="preserve">9.24639320373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66588878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72706413269043</t>
   </si>
   <si>
     <t xml:space="preserve">9.83193874359131</t>
@@ -2474,16 +2471,16 @@
     <t xml:space="preserve">9.69210720062256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71832656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3337869644165</t>
+    <t xml:space="preserve">9.7183256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33378791809082</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78824138641357</t>
+    <t xml:space="preserve">9.78824234008789</t>
   </si>
   <si>
     <t xml:space="preserve">9.73580455780029</t>
@@ -2492,7 +2489,7 @@
     <t xml:space="preserve">9.87563705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3563098907471</t>
+    <t xml:space="preserve">10.3563089370728</t>
   </si>
   <si>
     <t xml:space="preserve">10.4000062942505</t>
@@ -2504,253 +2501,256 @@
     <t xml:space="preserve">10.0154695510864</t>
   </si>
   <si>
+    <t xml:space="preserve">10.1378231048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2339563369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3213510513306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5660572052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7058887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215204238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4924449920654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2302598953247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2252168655396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1203441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416879653931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55227565765381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76202297210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7707633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47361946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50857925415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49983882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61345195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09782218933105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16773796081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08908176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52605724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96303176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88437652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1116046905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4837064743042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1166467666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8195028305054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5048818588257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86689758300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2275371551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5146265029907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4518260955811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4697685241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4338827133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3262243270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7209720611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2813673019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1647367477417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98530578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89559173583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52775859832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81484794616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66233158111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77896118164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74307537078857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65335941314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40215682983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23169803619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25861263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14198303222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83279132843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44701480865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60850143432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42907238006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58158779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46495723724365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69821739196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53672981262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24964141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6222848892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7119989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7030277252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.268235206604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.393835067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6181240081787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7706394195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3758926391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1785182952881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0798330307007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9093732833862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8286304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5594835281372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4966831207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3979959487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2454805374146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2006225585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3621110916138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3800535202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2903385162354</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1378221511841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2339563369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3213520050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5660591125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5922756195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7058887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215204238892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4924449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.230260848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2252168655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1203441619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416860580444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55227470397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76202392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7707633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47361946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50857734680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49983787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61345291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09782123565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16773700714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08908176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52605628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96303081512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88437652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1116037368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4837055206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1166467666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8195037841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5048818588257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8668966293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2275371551514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.514627456665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4518251419067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4697694778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4338827133179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3262243270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7209711074829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2813673019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.164737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98530673980713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89559078216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52775955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81484699249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66233158111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77896118164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74307537078857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65336036682129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40215682983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23169898986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25861263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14198303222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83279037475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44701480865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60850238800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4290714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58158779144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46495819091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69821834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53672981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24964237213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6222848892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7119998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.703028678894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.268235206604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.393835067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.618124961853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7706394195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3758935928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1785182952881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0798330307007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9093723297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8286294937134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5594844818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4966831207275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3979959487915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2454814910889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2006225585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3621101379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3800535202026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2903385162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2185668945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0391359329224</t>
+    <t xml:space="preserve">10.2185659408569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.039134979248</t>
   </si>
   <si>
     <t xml:space="preserve">10.0122203826904</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">10.0032501220703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2634229660034</t>
+    <t xml:space="preserve">10.2634239196777</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953702926636</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">11.0170316696167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0349750518799</t>
+    <t xml:space="preserve">11.0349740982056</t>
   </si>
   <si>
     <t xml:space="preserve">10.7389144897461</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5505132675171</t>
+    <t xml:space="preserve">10.5505123138428</t>
   </si>
   <si>
     <t xml:space="preserve">10.6581707000732</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">10.6402273178101</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7748012542725</t>
+    <t xml:space="preserve">10.7748003005981</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721736907959</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">10.7568578720093</t>
   </si>
   <si>
-    <t xml:space="preserve">10.855544090271</t>
+    <t xml:space="preserve">10.8555450439453</t>
   </si>
   <si>
     <t xml:space="preserve">10.8465728759766</t>
@@ -2813,7 +2813,7 @@
     <t xml:space="preserve">10.7478857040405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0750207901001</t>
+    <t xml:space="preserve">10.0750217437744</t>
   </si>
   <si>
     <t xml:space="preserve">10.3351964950562</t>
@@ -2822,46 +2822,46 @@
     <t xml:space="preserve">10.2544527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0839929580688</t>
+    <t xml:space="preserve">10.0839920043945</t>
   </si>
   <si>
     <t xml:space="preserve">10.1288509368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86867713928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24066925048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06124019622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59023380279541</t>
+    <t xml:space="preserve">9.86867618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2406702041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06123924255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59023475646973</t>
   </si>
   <si>
     <t xml:space="preserve">8.76069355010986</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87283802032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36627006530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41112899780273</t>
+    <t xml:space="preserve">8.87283706665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36627197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41112995147705</t>
   </si>
   <si>
     <t xml:space="preserve">9.12403964996338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22272777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2095947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94942092895508</t>
+    <t xml:space="preserve">9.22272682189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2095937728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94941997528076</t>
   </si>
   <si>
     <t xml:space="preserve">11.1964616775513</t>
@@ -2873,7 +2873,7 @@
     <t xml:space="preserve">11.9141836166382</t>
   </si>
   <si>
-    <t xml:space="preserve">12.658821105957</t>
+    <t xml:space="preserve">12.6588201522827</t>
   </si>
   <si>
     <t xml:space="preserve">12.6857347488403</t>
@@ -2891,22 +2891,22 @@
     <t xml:space="preserve">12.5152759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4345321655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5332193374634</t>
+    <t xml:space="preserve">12.4345331192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5332183837891</t>
   </si>
   <si>
     <t xml:space="preserve">11.9949283599854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3896760940552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2909870147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.308931350708</t>
+    <t xml:space="preserve">12.3896741867065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2909889221191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3089323043823</t>
   </si>
   <si>
     <t xml:space="preserve">12.2640733718872</t>
@@ -2915,28 +2915,28 @@
     <t xml:space="preserve">12.3807039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4524745941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3627595901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2102432250977</t>
+    <t xml:space="preserve">12.4524755477905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3627605438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.210244178772</t>
   </si>
   <si>
     <t xml:space="preserve">12.3268737792969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3358459472656</t>
+    <t xml:space="preserve">12.3358469009399</t>
   </si>
   <si>
     <t xml:space="preserve">12.9907665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087089538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8203077316284</t>
+    <t xml:space="preserve">13.0087099075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8203086853027</t>
   </si>
   <si>
     <t xml:space="preserve">12.74853515625</t>
@@ -2945,28 +2945,28 @@
     <t xml:space="preserve">12.9010524749756</t>
   </si>
   <si>
-    <t xml:space="preserve">12.874137878418</t>
+    <t xml:space="preserve">12.8741369247437</t>
   </si>
   <si>
     <t xml:space="preserve">13.1163682937622</t>
   </si>
   <si>
-    <t xml:space="preserve">12.560133934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7754497528076</t>
+    <t xml:space="preserve">12.5601329803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7754507064819</t>
   </si>
   <si>
     <t xml:space="preserve">12.847222328186</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8831081390381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5960206985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1522541046143</t>
+    <t xml:space="preserve">12.8831090927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.596019744873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1522531509399</t>
   </si>
   <si>
     <t xml:space="preserve">13.1791687011719</t>
@@ -2975,7 +2975,7 @@
     <t xml:space="preserve">13.2509412765503</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1612272262573</t>
+    <t xml:space="preserve">13.1612253189087</t>
   </si>
   <si>
     <t xml:space="preserve">13.3316850662231</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">13.3675708770752</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6636304855347</t>
+    <t xml:space="preserve">13.663631439209</t>
   </si>
   <si>
     <t xml:space="preserve">13.5649442672729</t>
@@ -2993,28 +2993,28 @@
     <t xml:space="preserve">13.6008310317993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.098424911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9638509750366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2957992553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3227138519287</t>
+    <t xml:space="preserve">13.0984258651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9638528823853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2957983016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3227128982544</t>
   </si>
   <si>
     <t xml:space="preserve">13.2778558731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6546602249146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7623176574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5380306243896</t>
+    <t xml:space="preserve">13.6546592712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.762318611145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5380296707153</t>
   </si>
   <si>
     <t xml:space="preserve">13.5739154815674</t>
@@ -3026,34 +3026,34 @@
     <t xml:space="preserve">14.3992958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4800405502319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7760992050171</t>
+    <t xml:space="preserve">14.4800395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7761001586914</t>
   </si>
   <si>
     <t xml:space="preserve">14.8837594985962</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7850704193115</t>
+    <t xml:space="preserve">14.7850723266602</t>
   </si>
   <si>
     <t xml:space="preserve">14.9465599060059</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5876989364624</t>
+    <t xml:space="preserve">14.5876979827881</t>
   </si>
   <si>
     <t xml:space="preserve">14.1122074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4710674285889</t>
+    <t xml:space="preserve">14.4710683822632</t>
   </si>
   <si>
     <t xml:space="preserve">14.0852928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">14.767128944397</t>
+    <t xml:space="preserve">14.7671298980713</t>
   </si>
   <si>
     <t xml:space="preserve">15.054217338562</t>
@@ -3062,43 +3062,43 @@
     <t xml:space="preserve">15.0990743637085</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0093593597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4130792617798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5835390090942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7719402313232</t>
+    <t xml:space="preserve">15.0093584060669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4130773544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5835380554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7719411849976</t>
   </si>
   <si>
     <t xml:space="preserve">15.5207376480103</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8389024734497</t>
+    <t xml:space="preserve">14.8389005661011</t>
   </si>
   <si>
     <t xml:space="preserve">15.0003881454468</t>
   </si>
   <si>
-    <t xml:space="preserve">15.152904510498</t>
+    <t xml:space="preserve">15.1529026031494</t>
   </si>
   <si>
     <t xml:space="preserve">16.7767505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.198413848877</t>
+    <t xml:space="preserve">17.1984100341797</t>
   </si>
   <si>
     <t xml:space="preserve">16.4178886413574</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2564010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3371448516846</t>
+    <t xml:space="preserve">16.2564029693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3371429443359</t>
   </si>
   <si>
     <t xml:space="preserve">16.3461170196533</t>
@@ -3110,40 +3110,40 @@
     <t xml:space="preserve">16.5614337921143</t>
   </si>
   <si>
-    <t xml:space="preserve">15.843710899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782848358154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7629690170288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8526840209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7360553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6463375091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.628396987915</t>
+    <t xml:space="preserve">15.8437128067017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782838821411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7629671096802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8526830673218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360534667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6463384628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6283950805664</t>
   </si>
   <si>
     <t xml:space="preserve">15.6911954879761</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6822242736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6553106307983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.466908454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5386800765991</t>
+    <t xml:space="preserve">15.682225227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6553115844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4669065475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5386810302734</t>
   </si>
   <si>
     <t xml:space="preserve">15.8347396850586</t>
@@ -3152,55 +3152,55 @@
     <t xml:space="preserve">15.4220523834229</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2874774932861</t>
+    <t xml:space="preserve">15.2874784469604</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4848508834839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3143920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3951349258423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3323345184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5476512908936</t>
+    <t xml:space="preserve">15.4848518371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3143930435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3951358795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3323335647583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5476522445679</t>
   </si>
   <si>
     <t xml:space="preserve">15.2426195144653</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5027933120728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6642799377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7091379165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2336473464966</t>
+    <t xml:space="preserve">15.5027942657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6642818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7091407775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2336483001709</t>
   </si>
   <si>
     <t xml:space="preserve">14.8030138015747</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9824466705322</t>
+    <t xml:space="preserve">14.9824447631836</t>
   </si>
   <si>
     <t xml:space="preserve">17.2253265380859</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8981914520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.925106048584</t>
+    <t xml:space="preserve">17.898193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9251041412354</t>
   </si>
   <si>
     <t xml:space="preserve">18.5531120300293</t>
@@ -3218,19 +3218,19 @@
     <t xml:space="preserve">19.2297248840332</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9583721160889</t>
+    <t xml:space="preserve">18.9583740234375</t>
   </si>
   <si>
     <t xml:space="preserve">19.3563556671143</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3201770782471</t>
+    <t xml:space="preserve">19.3201751708984</t>
   </si>
   <si>
     <t xml:space="preserve">19.8809661865234</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4648952484131</t>
+    <t xml:space="preserve">19.4648971557617</t>
   </si>
   <si>
     <t xml:space="preserve">19.62770652771</t>
@@ -3242,16 +3242,16 @@
     <t xml:space="preserve">19.4829864501953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3744430541992</t>
+    <t xml:space="preserve">19.3744449615479</t>
   </si>
   <si>
     <t xml:space="preserve">19.0669136047363</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6870231628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1935443878174</t>
+    <t xml:space="preserve">18.6870250701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.193546295166</t>
   </si>
   <si>
     <t xml:space="preserve">19.0307350158691</t>
@@ -3260,7 +3260,7 @@
     <t xml:space="preserve">18.7232036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2116355895996</t>
+    <t xml:space="preserve">19.211633682251</t>
   </si>
   <si>
     <t xml:space="preserve">18.777473449707</t>
@@ -3269,13 +3269,13 @@
     <t xml:space="preserve">18.7412929534912</t>
   </si>
   <si>
-    <t xml:space="preserve">18.632755279541</t>
+    <t xml:space="preserve">18.6327533721924</t>
   </si>
   <si>
     <t xml:space="preserve">18.5061225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.289041519165</t>
+    <t xml:space="preserve">18.2890434265137</t>
   </si>
   <si>
     <t xml:space="preserve">18.3794918060303</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">18.0357818603516</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1262340545654</t>
+    <t xml:space="preserve">18.1262321472168</t>
   </si>
   <si>
     <t xml:space="preserve">17.9905548095703</t>
@@ -3317,10 +3317,10 @@
     <t xml:space="preserve">17.9453315734863</t>
   </si>
   <si>
-    <t xml:space="preserve">17.655891418457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8056583404541</t>
+    <t xml:space="preserve">17.6558895111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8056602478027</t>
   </si>
   <si>
     <t xml:space="preserve">16.552396774292</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">17.8458347320557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.701114654541</t>
+    <t xml:space="preserve">17.7011165618896</t>
   </si>
   <si>
     <t xml:space="preserve">17.8367900848389</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">17.8729705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528610229492</t>
+    <t xml:space="preserve">18.2528629302979</t>
   </si>
   <si>
     <t xml:space="preserve">18.216682434082</t>
@@ -3368,10 +3368,10 @@
     <t xml:space="preserve">17.8006114959717</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6197109222412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4026279449463</t>
+    <t xml:space="preserve">17.6197090148926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4026298522949</t>
   </si>
   <si>
     <t xml:space="preserve">17.8187007904053</t>
@@ -3383,16 +3383,16 @@
     <t xml:space="preserve">17.167459487915</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1312770843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1131896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9232425689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2488632202148</t>
+    <t xml:space="preserve">17.1312789916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.113187789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9232444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2488651275635</t>
   </si>
   <si>
     <t xml:space="preserve">17.6739807128906</t>
@@ -3401,16 +3401,16 @@
     <t xml:space="preserve">18.3433132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1443214416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.044828414917</t>
+    <t xml:space="preserve">18.144323348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0448265075684</t>
   </si>
   <si>
     <t xml:space="preserve">18.062915802002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7463397979736</t>
+    <t xml:space="preserve">17.7463417053223</t>
   </si>
   <si>
     <t xml:space="preserve">17.4930782318115</t>
@@ -3422,7 +3422,7 @@
     <t xml:space="preserve">17.0317840576172</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9322891235352</t>
+    <t xml:space="preserve">16.9322872161865</t>
   </si>
   <si>
     <t xml:space="preserve">16.8327922821045</t>
@@ -3455,34 +3455,34 @@
     <t xml:space="preserve">15.9282903671265</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8197507858276</t>
+    <t xml:space="preserve">15.819748878479</t>
   </si>
   <si>
     <t xml:space="preserve">15.7654809951782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4308156967163</t>
+    <t xml:space="preserve">15.430814743042</t>
   </si>
   <si>
     <t xml:space="preserve">15.7202548980713</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4127254486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6207609176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5845804214478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217672348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5122184753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5031747817993</t>
+    <t xml:space="preserve">15.4127244949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6207599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5845785140991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217681884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5122203826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.503173828125</t>
   </si>
   <si>
     <t xml:space="preserve">15.9011554718018</t>
@@ -3491,7 +3491,7 @@
     <t xml:space="preserve">15.5483999252319</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4850845336914</t>
+    <t xml:space="preserve">15.4850854873657</t>
   </si>
   <si>
     <t xml:space="preserve">15.3765439987183</t>
@@ -3500,13 +3500,13 @@
     <t xml:space="preserve">15.21373462677</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0056991577148</t>
+    <t xml:space="preserve">15.0056982040405</t>
   </si>
   <si>
     <t xml:space="preserve">14.7795724868774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.3725452423096</t>
+    <t xml:space="preserve">14.3725461959839</t>
   </si>
   <si>
     <t xml:space="preserve">14.4449062347412</t>
@@ -3521,7 +3521,7 @@
     <t xml:space="preserve">14.5715370178223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6619863510132</t>
+    <t xml:space="preserve">14.6619873046875</t>
   </si>
   <si>
     <t xml:space="preserve">14.6891222000122</t>
@@ -3533,7 +3533,7 @@
     <t xml:space="preserve">14.3182764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343074798584</t>
+    <t xml:space="preserve">16.534309387207</t>
   </si>
   <si>
     <t xml:space="preserve">14.9333381652832</t>
@@ -3545,7 +3545,7 @@
     <t xml:space="preserve">14.5624923706055</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4991769790649</t>
+    <t xml:space="preserve">14.4991760253906</t>
   </si>
   <si>
     <t xml:space="preserve">14.4358615875244</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">14.1826009750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.965518951416</t>
+    <t xml:space="preserve">13.9655199050903</t>
   </si>
   <si>
     <t xml:space="preserve">14.1373748779297</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">13.7574834823608</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4770889282227</t>
+    <t xml:space="preserve">13.4770879745483</t>
   </si>
   <si>
     <t xml:space="preserve">13.2871427536011</t>
@@ -3593,16 +3593,16 @@
     <t xml:space="preserve">13.5404033660889</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5765829086304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9836091995239</t>
+    <t xml:space="preserve">13.5765838623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9836101531982</t>
   </si>
   <si>
     <t xml:space="preserve">13.6670341491699</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6127643585205</t>
+    <t xml:space="preserve">13.6127634048462</t>
   </si>
   <si>
     <t xml:space="preserve">13.8117542266846</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">13.9293394088745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0740604400635</t>
+    <t xml:space="preserve">14.0740613937378</t>
   </si>
   <si>
     <t xml:space="preserve">13.8027095794678</t>
@@ -3650,13 +3650,13 @@
     <t xml:space="preserve">13.0248365402222</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8439359664917</t>
+    <t xml:space="preserve">12.843936920166</t>
   </si>
   <si>
     <t xml:space="preserve">12.8891611099243</t>
   </si>
   <si>
-    <t xml:space="preserve">12.961522102356</t>
+    <t xml:space="preserve">12.9615230560303</t>
   </si>
   <si>
     <t xml:space="preserve">12.7353963851929</t>
@@ -3671,10 +3671,10 @@
     <t xml:space="preserve">12.1203346252441</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2198305130005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1565141677856</t>
+    <t xml:space="preserve">12.2198295593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.15651512146</t>
   </si>
   <si>
     <t xml:space="preserve">12.4640455245972</t>
@@ -3686,16 +3686,16 @@
     <t xml:space="preserve">11.8399381637573</t>
   </si>
   <si>
-    <t xml:space="preserve">11.767578125</t>
+    <t xml:space="preserve">11.7675790786743</t>
   </si>
   <si>
     <t xml:space="preserve">11.4057779312134</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1977415084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5233631134033</t>
+    <t xml:space="preserve">11.1977424621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.523362159729</t>
   </si>
   <si>
     <t xml:space="preserve">11.423867225647</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">11.4871826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">11.695219039917</t>
+    <t xml:space="preserve">11.6952180862427</t>
   </si>
   <si>
     <t xml:space="preserve">11.4781379699707</t>
@@ -3722,13 +3722,13 @@
     <t xml:space="preserve">11.0258865356445</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2520122528076</t>
+    <t xml:space="preserve">11.2520112991333</t>
   </si>
   <si>
     <t xml:space="preserve">11.2248773574829</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9806623458862</t>
+    <t xml:space="preserve">10.9806613922119</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424625396729</t>
@@ -3737,19 +3737,19 @@
     <t xml:space="preserve">10.7545356750488</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0439758300781</t>
+    <t xml:space="preserve">11.0439767837524</t>
   </si>
   <si>
     <t xml:space="preserve">10.5103197097778</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99475383758545</t>
+    <t xml:space="preserve">9.99475288391113</t>
   </si>
   <si>
     <t xml:space="preserve">9.79576396942139</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82289695739746</t>
+    <t xml:space="preserve">9.82289791107178</t>
   </si>
   <si>
     <t xml:space="preserve">10.3113288879395</t>
@@ -3761,16 +3761,16 @@
     <t xml:space="preserve">9.67817783355713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86812305450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87769222259521</t>
+    <t xml:space="preserve">9.86812400817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87769317626953</t>
   </si>
   <si>
     <t xml:space="preserve">9.25306129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12643051147461</t>
+    <t xml:space="preserve">9.12643146514893</t>
   </si>
   <si>
     <t xml:space="preserve">9.10834121704102</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">9.28924179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0721607208252</t>
+    <t xml:space="preserve">9.07216167449951</t>
   </si>
   <si>
     <t xml:space="preserve">8.93648529052734</t>
@@ -3803,10 +3803,10 @@
     <t xml:space="preserve">8.84151268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.497802734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46162128448486</t>
+    <t xml:space="preserve">8.49780178070068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46162223815918</t>
   </si>
   <si>
     <t xml:space="preserve">8.66061210632324</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">8.57468414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49327945709229</t>
+    <t xml:space="preserve">8.49327850341797</t>
   </si>
   <si>
     <t xml:space="preserve">8.48423480987549</t>
@@ -3836,7 +3836,7 @@
     <t xml:space="preserve">8.34855937957764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29881191253662</t>
+    <t xml:space="preserve">8.2988109588623</t>
   </si>
   <si>
     <t xml:space="preserve">8.2309741973877</t>
@@ -3857,7 +3857,7 @@
     <t xml:space="preserve">8.24001884460449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10434341430664</t>
+    <t xml:space="preserve">8.10434246063232</t>
   </si>
   <si>
     <t xml:space="preserve">8.14052295684814</t>
@@ -3872,13 +3872,13 @@
     <t xml:space="preserve">7.89630794525146</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8646502494812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9912805557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87821674346924</t>
+    <t xml:space="preserve">7.86464977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99128103256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8782172203064</t>
   </si>
   <si>
     <t xml:space="preserve">8.16861534118652</t>
@@ -5145,6 +5145,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.63000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55999994277954</t>
   </si>
 </sst>
 </file>
@@ -28722,7 +28725,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G894" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="H894" t="s">
         <v>9</v>
@@ -28748,7 +28751,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G895" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H895" t="s">
         <v>9</v>
@@ -28774,7 +28777,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G896" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H896" t="s">
         <v>9</v>
@@ -28800,7 +28803,7 @@
         <v>16.8600006103516</v>
       </c>
       <c r="G897" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H897" t="s">
         <v>9</v>
@@ -28826,7 +28829,7 @@
         <v>16.3799991607666</v>
       </c>
       <c r="G898" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H898" t="s">
         <v>9</v>
@@ -28852,7 +28855,7 @@
         <v>16.0799999237061</v>
       </c>
       <c r="G899" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28878,7 +28881,7 @@
         <v>16.1399993896484</v>
       </c>
       <c r="G900" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28904,7 +28907,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G901" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H901" t="s">
         <v>9</v>
@@ -28930,7 +28933,7 @@
         <v>16.0100002288818</v>
       </c>
       <c r="G902" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H902" t="s">
         <v>9</v>
@@ -28956,7 +28959,7 @@
         <v>15.3800001144409</v>
       </c>
       <c r="G903" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H903" t="s">
         <v>9</v>
@@ -28982,7 +28985,7 @@
         <v>15.6000003814697</v>
       </c>
       <c r="G904" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H904" t="s">
         <v>9</v>
@@ -29034,7 +29037,7 @@
         <v>16.9099998474121</v>
       </c>
       <c r="G906" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H906" t="s">
         <v>9</v>
@@ -29060,7 +29063,7 @@
         <v>16.5599994659424</v>
       </c>
       <c r="G907" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H907" t="s">
         <v>9</v>
@@ -29086,7 +29089,7 @@
         <v>16.3099994659424</v>
       </c>
       <c r="G908" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H908" t="s">
         <v>9</v>
@@ -29112,7 +29115,7 @@
         <v>16.2299995422363</v>
       </c>
       <c r="G909" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29138,7 +29141,7 @@
         <v>15.5299997329712</v>
       </c>
       <c r="G910" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H910" t="s">
         <v>9</v>
@@ -29164,7 +29167,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G911" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H911" t="s">
         <v>9</v>
@@ -29190,7 +29193,7 @@
         <v>16</v>
       </c>
       <c r="G912" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H912" t="s">
         <v>9</v>
@@ -29216,7 +29219,7 @@
         <v>15.8800001144409</v>
       </c>
       <c r="G913" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H913" t="s">
         <v>9</v>
@@ -29242,7 +29245,7 @@
         <v>15.4799995422363</v>
       </c>
       <c r="G914" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H914" t="s">
         <v>9</v>
@@ -29268,7 +29271,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G915" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H915" t="s">
         <v>9</v>
@@ -29294,7 +29297,7 @@
         <v>15.5200004577637</v>
       </c>
       <c r="G916" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H916" t="s">
         <v>9</v>
@@ -29320,7 +29323,7 @@
         <v>14.289999961853</v>
       </c>
       <c r="G917" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H917" t="s">
         <v>9</v>
@@ -29346,7 +29349,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G918" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H918" t="s">
         <v>9</v>
@@ -29372,7 +29375,7 @@
         <v>12.8900003433228</v>
       </c>
       <c r="G919" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H919" t="s">
         <v>9</v>
@@ -29398,7 +29401,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G920" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H920" t="s">
         <v>9</v>
@@ -29424,7 +29427,7 @@
         <v>12.3900003433228</v>
       </c>
       <c r="G921" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H921" t="s">
         <v>9</v>
@@ -29450,7 +29453,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G922" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H922" t="s">
         <v>9</v>
@@ -29476,7 +29479,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G923" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H923" t="s">
         <v>9</v>
@@ -29502,7 +29505,7 @@
         <v>12.6300001144409</v>
       </c>
       <c r="G924" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H924" t="s">
         <v>9</v>
@@ -29528,7 +29531,7 @@
         <v>12.960000038147</v>
       </c>
       <c r="G925" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H925" t="s">
         <v>9</v>
@@ -29554,7 +29557,7 @@
         <v>13.1099996566772</v>
       </c>
       <c r="G926" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H926" t="s">
         <v>9</v>
@@ -29580,7 +29583,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G927" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H927" t="s">
         <v>9</v>
@@ -29606,7 +29609,7 @@
         <v>12.6700000762939</v>
       </c>
       <c r="G928" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H928" t="s">
         <v>9</v>
@@ -29632,7 +29635,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G929" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H929" t="s">
         <v>9</v>
@@ -29658,7 +29661,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G930" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H930" t="s">
         <v>9</v>
@@ -29684,7 +29687,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G931" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H931" t="s">
         <v>9</v>
@@ -29710,7 +29713,7 @@
         <v>12.9899997711182</v>
       </c>
       <c r="G932" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H932" t="s">
         <v>9</v>
@@ -29736,7 +29739,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G933" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H933" t="s">
         <v>9</v>
@@ -29762,7 +29765,7 @@
         <v>12.5299997329712</v>
       </c>
       <c r="G934" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H934" t="s">
         <v>9</v>
@@ -29788,7 +29791,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G935" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H935" t="s">
         <v>9</v>
@@ -29814,7 +29817,7 @@
         <v>13.3500003814697</v>
       </c>
       <c r="G936" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H936" t="s">
         <v>9</v>
@@ -29840,7 +29843,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G937" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H937" t="s">
         <v>9</v>
@@ -29866,7 +29869,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G938" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H938" t="s">
         <v>9</v>
@@ -29892,7 +29895,7 @@
         <v>13.7299995422363</v>
       </c>
       <c r="G939" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H939" t="s">
         <v>9</v>
@@ -29918,7 +29921,7 @@
         <v>13.789999961853</v>
       </c>
       <c r="G940" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H940" t="s">
         <v>9</v>
@@ -29944,7 +29947,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G941" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H941" t="s">
         <v>9</v>
@@ -29970,7 +29973,7 @@
         <v>14.3100004196167</v>
       </c>
       <c r="G942" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -29996,7 +29999,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G943" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H943" t="s">
         <v>9</v>
@@ -30022,7 +30025,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G944" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H944" t="s">
         <v>9</v>
@@ -30048,7 +30051,7 @@
         <v>13.8299999237061</v>
       </c>
       <c r="G945" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H945" t="s">
         <v>9</v>
@@ -30074,7 +30077,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G946" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H946" t="s">
         <v>9</v>
@@ -30100,7 +30103,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G947" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H947" t="s">
         <v>9</v>
@@ -30126,7 +30129,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G948" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H948" t="s">
         <v>9</v>
@@ -30152,7 +30155,7 @@
         <v>13.5100002288818</v>
       </c>
       <c r="G949" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H949" t="s">
         <v>9</v>
@@ -30178,7 +30181,7 @@
         <v>13.0900001525879</v>
       </c>
       <c r="G950" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H950" t="s">
         <v>9</v>
@@ -30204,7 +30207,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G951" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H951" t="s">
         <v>9</v>
@@ -30230,7 +30233,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G952" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H952" t="s">
         <v>9</v>
@@ -30256,7 +30259,7 @@
         <v>13.1700000762939</v>
       </c>
       <c r="G953" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H953" t="s">
         <v>9</v>
@@ -30282,7 +30285,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G954" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H954" t="s">
         <v>9</v>
@@ -30308,7 +30311,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G955" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H955" t="s">
         <v>9</v>
@@ -30334,7 +30337,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G956" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H956" t="s">
         <v>9</v>
@@ -30360,7 +30363,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G957" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H957" t="s">
         <v>9</v>
@@ -30386,7 +30389,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G958" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H958" t="s">
         <v>9</v>
@@ -30412,7 +30415,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G959" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H959" t="s">
         <v>9</v>
@@ -30438,7 +30441,7 @@
         <v>12.8900003433228</v>
       </c>
       <c r="G960" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H960" t="s">
         <v>9</v>
@@ -30464,7 +30467,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G961" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H961" t="s">
         <v>9</v>
@@ -30490,7 +30493,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G962" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H962" t="s">
         <v>9</v>
@@ -30516,7 +30519,7 @@
         <v>13.0699996948242</v>
       </c>
       <c r="G963" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H963" t="s">
         <v>9</v>
@@ -30542,7 +30545,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G964" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H964" t="s">
         <v>9</v>
@@ -30568,7 +30571,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G965" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H965" t="s">
         <v>9</v>
@@ -30594,7 +30597,7 @@
         <v>13.0900001525879</v>
       </c>
       <c r="G966" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H966" t="s">
         <v>9</v>
@@ -30620,7 +30623,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G967" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H967" t="s">
         <v>9</v>
@@ -30646,7 +30649,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G968" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H968" t="s">
         <v>9</v>
@@ -30672,7 +30675,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G969" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H969" t="s">
         <v>9</v>
@@ -30698,7 +30701,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G970" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H970" t="s">
         <v>9</v>
@@ -30724,7 +30727,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G971" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H971" t="s">
         <v>9</v>
@@ -30750,7 +30753,7 @@
         <v>13.2299995422363</v>
       </c>
       <c r="G972" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H972" t="s">
         <v>9</v>
@@ -30776,7 +30779,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G973" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H973" t="s">
         <v>9</v>
@@ -30802,7 +30805,7 @@
         <v>13.7399997711182</v>
       </c>
       <c r="G974" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H974" t="s">
         <v>9</v>
@@ -30828,7 +30831,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G975" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H975" t="s">
         <v>9</v>
@@ -30854,7 +30857,7 @@
         <v>13.8699998855591</v>
       </c>
       <c r="G976" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H976" t="s">
         <v>9</v>
@@ -30880,7 +30883,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G977" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H977" t="s">
         <v>9</v>
@@ -30906,7 +30909,7 @@
         <v>15.6499996185303</v>
       </c>
       <c r="G978" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H978" t="s">
         <v>9</v>
@@ -30932,7 +30935,7 @@
         <v>15.5</v>
       </c>
       <c r="G979" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H979" t="s">
         <v>9</v>
@@ -30958,7 +30961,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G980" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H980" t="s">
         <v>9</v>
@@ -30984,7 +30987,7 @@
         <v>15.8699998855591</v>
       </c>
       <c r="G981" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H981" t="s">
         <v>9</v>
@@ -31010,7 +31013,7 @@
         <v>16.0599994659424</v>
       </c>
       <c r="G982" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H982" t="s">
         <v>9</v>
@@ -31036,7 +31039,7 @@
         <v>15.9099998474121</v>
       </c>
       <c r="G983" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H983" t="s">
         <v>9</v>
@@ -31062,7 +31065,7 @@
         <v>16.9300003051758</v>
       </c>
       <c r="G984" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H984" t="s">
         <v>9</v>
@@ -31114,7 +31117,7 @@
         <v>16.2700004577637</v>
       </c>
       <c r="G986" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H986" t="s">
         <v>9</v>
@@ -31166,7 +31169,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G988" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H988" t="s">
         <v>9</v>
@@ -31192,7 +31195,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G989" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H989" t="s">
         <v>9</v>
@@ -31218,7 +31221,7 @@
         <v>16.1800003051758</v>
       </c>
       <c r="G990" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H990" t="s">
         <v>9</v>
@@ -31244,7 +31247,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G991" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H991" t="s">
         <v>9</v>
@@ -31270,7 +31273,7 @@
         <v>16.2600002288818</v>
       </c>
       <c r="G992" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31296,7 +31299,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G993" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31322,7 +31325,7 @@
         <v>16.9699993133545</v>
       </c>
       <c r="G994" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -31348,7 +31351,7 @@
         <v>17.1800003051758</v>
       </c>
       <c r="G995" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -31374,7 +31377,7 @@
         <v>17.5300006866455</v>
       </c>
       <c r="G996" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -31400,7 +31403,7 @@
         <v>18.2099990844727</v>
       </c>
       <c r="G997" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -31426,7 +31429,7 @@
         <v>17.1399993896484</v>
       </c>
       <c r="G998" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -31452,7 +31455,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G999" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -31478,7 +31481,7 @@
         <v>17.5499992370605</v>
       </c>
       <c r="G1000" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -31530,7 +31533,7 @@
         <v>17.5799999237061</v>
       </c>
       <c r="G1002" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -31556,7 +31559,7 @@
         <v>17.25</v>
       </c>
       <c r="G1003" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -31608,7 +31611,7 @@
         <v>17.6399993896484</v>
       </c>
       <c r="G1005" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -31634,7 +31637,7 @@
         <v>17.7900009155273</v>
       </c>
       <c r="G1006" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -31660,7 +31663,7 @@
         <v>17.9899997711182</v>
       </c>
       <c r="G1007" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -31686,7 +31689,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="G1008" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -31712,7 +31715,7 @@
         <v>18.1599998474121</v>
       </c>
       <c r="G1009" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -31738,7 +31741,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1010" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -31764,7 +31767,7 @@
         <v>16.9899997711182</v>
       </c>
       <c r="G1011" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -31790,7 +31793,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G1012" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -31816,7 +31819,7 @@
         <v>16.8299999237061</v>
       </c>
       <c r="G1013" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -31842,7 +31845,7 @@
         <v>16.9400005340576</v>
       </c>
       <c r="G1014" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -31868,7 +31871,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="G1015" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -31894,7 +31897,7 @@
         <v>17.0100002288818</v>
       </c>
       <c r="G1016" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -31946,7 +31949,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="G1018" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -31972,7 +31975,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1019" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -31998,7 +32001,7 @@
         <v>16.6000003814697</v>
       </c>
       <c r="G1020" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32024,7 +32027,7 @@
         <v>17.1200008392334</v>
       </c>
       <c r="G1021" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -32050,7 +32053,7 @@
         <v>16.5799999237061</v>
       </c>
       <c r="G1022" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32076,7 +32079,7 @@
         <v>17.0200004577637</v>
       </c>
       <c r="G1023" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32128,7 +32131,7 @@
         <v>17.0100002288818</v>
       </c>
       <c r="G1025" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32206,7 +32209,7 @@
         <v>17.4099998474121</v>
       </c>
       <c r="G1028" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32232,7 +32235,7 @@
         <v>17.1000003814697</v>
       </c>
       <c r="G1029" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32258,7 +32261,7 @@
         <v>16.8899993896484</v>
       </c>
       <c r="G1030" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32284,7 +32287,7 @@
         <v>17.0300006866455</v>
       </c>
       <c r="G1031" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32310,7 +32313,7 @@
         <v>17.3500003814697</v>
       </c>
       <c r="G1032" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32336,7 +32339,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1033" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -32362,7 +32365,7 @@
         <v>16.3600006103516</v>
       </c>
       <c r="G1034" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -32388,7 +32391,7 @@
         <v>16.2000007629395</v>
       </c>
       <c r="G1035" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -32414,7 +32417,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1036" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -32440,7 +32443,7 @@
         <v>15.6400003433228</v>
       </c>
       <c r="G1037" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -32466,7 +32469,7 @@
         <v>15.789999961853</v>
       </c>
       <c r="G1038" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -32492,7 +32495,7 @@
         <v>15.8599996566772</v>
       </c>
       <c r="G1039" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -32518,7 +32521,7 @@
         <v>15.9300003051758</v>
       </c>
       <c r="G1040" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -32544,7 +32547,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1041" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -32570,7 +32573,7 @@
         <v>16.9200000762939</v>
       </c>
       <c r="G1042" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -32596,7 +32599,7 @@
         <v>16.7600002288818</v>
       </c>
       <c r="G1043" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -32622,7 +32625,7 @@
         <v>16.7900009155273</v>
       </c>
       <c r="G1044" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -32648,7 +32651,7 @@
         <v>16.7000007629395</v>
       </c>
       <c r="G1045" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -32674,7 +32677,7 @@
         <v>17.0400009155273</v>
       </c>
       <c r="G1046" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -32700,7 +32703,7 @@
         <v>16.8400001525879</v>
       </c>
       <c r="G1047" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -32726,7 +32729,7 @@
         <v>17.0499992370605</v>
       </c>
       <c r="G1048" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -32752,7 +32755,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1049" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -32778,7 +32781,7 @@
         <v>16.6700000762939</v>
       </c>
       <c r="G1050" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -32804,7 +32807,7 @@
         <v>16.1599998474121</v>
       </c>
       <c r="G1051" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -32830,7 +32833,7 @@
         <v>15.7600002288818</v>
       </c>
       <c r="G1052" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -32856,7 +32859,7 @@
         <v>14.75</v>
       </c>
       <c r="G1053" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -32882,7 +32885,7 @@
         <v>14.4899997711182</v>
       </c>
       <c r="G1054" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -32908,7 +32911,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1055" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -32934,7 +32937,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1056" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -32960,7 +32963,7 @@
         <v>13.6499996185303</v>
       </c>
       <c r="G1057" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -32986,7 +32989,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1058" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -33012,7 +33015,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1059" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -33038,7 +33041,7 @@
         <v>12.9300003051758</v>
       </c>
       <c r="G1060" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -33064,7 +33067,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1061" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -33090,7 +33093,7 @@
         <v>12.1300001144409</v>
       </c>
       <c r="G1062" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -33116,7 +33119,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1063" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -33142,7 +33145,7 @@
         <v>11.0699996948242</v>
       </c>
       <c r="G1064" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -33168,7 +33171,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1065" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -33194,7 +33197,7 @@
         <v>9.49499988555908</v>
       </c>
       <c r="G1066" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -33220,7 +33223,7 @@
         <v>10.2600002288818</v>
       </c>
       <c r="G1067" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -33246,7 +33249,7 @@
         <v>9.71500015258789</v>
       </c>
       <c r="G1068" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -33272,7 +33275,7 @@
         <v>9.76500034332275</v>
       </c>
       <c r="G1069" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -33298,7 +33301,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G1070" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -33324,7 +33327,7 @@
         <v>9</v>
       </c>
       <c r="G1071" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -33350,7 +33353,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G1072" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -33376,7 +33379,7 @@
         <v>10.5799999237061</v>
       </c>
       <c r="G1073" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -33402,7 +33405,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1074" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -33428,7 +33431,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1075" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -33454,7 +33457,7 @@
         <v>11.25</v>
       </c>
       <c r="G1076" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -33480,7 +33483,7 @@
         <v>11.0900001525879</v>
       </c>
       <c r="G1077" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -33506,7 +33509,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1078" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -33532,7 +33535,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1079" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -33558,7 +33561,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G1080" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -33584,7 +33587,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1081" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -33610,7 +33613,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1082" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -33636,7 +33639,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1083" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -33662,7 +33665,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1084" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -33688,7 +33691,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1085" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -33714,7 +33717,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1086" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -33740,7 +33743,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G1087" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -33766,7 +33769,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1088" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -33792,7 +33795,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1089" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -33818,7 +33821,7 @@
         <v>11.710000038147</v>
       </c>
       <c r="G1090" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -33844,7 +33847,7 @@
         <v>11.8100004196167</v>
       </c>
       <c r="G1091" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -33870,7 +33873,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G1092" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -33896,7 +33899,7 @@
         <v>12.0900001525879</v>
       </c>
       <c r="G1093" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -33922,7 +33925,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1094" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -33948,7 +33951,7 @@
         <v>12.25</v>
       </c>
       <c r="G1095" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -33974,7 +33977,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1096" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -34000,7 +34003,7 @@
         <v>13.1499996185303</v>
       </c>
       <c r="G1097" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -34026,7 +34029,7 @@
         <v>12.8500003814697</v>
       </c>
       <c r="G1098" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -34052,7 +34055,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G1099" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -34078,7 +34081,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1100" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -34104,7 +34107,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1101" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -34130,7 +34133,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1102" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -34156,7 +34159,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G1103" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -34182,7 +34185,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1104" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -34208,7 +34211,7 @@
         <v>11.1700000762939</v>
       </c>
       <c r="G1105" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -34234,7 +34237,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G1106" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -34260,7 +34263,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G1107" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -34286,7 +34289,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1108" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -34312,7 +34315,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G1109" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -34338,7 +34341,7 @@
         <v>11</v>
       </c>
       <c r="G1110" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -34364,7 +34367,7 @@
         <v>11</v>
       </c>
       <c r="G1111" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -34390,7 +34393,7 @@
         <v>10.4099998474121</v>
       </c>
       <c r="G1112" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -34416,7 +34419,7 @@
         <v>10.4899997711182</v>
       </c>
       <c r="G1113" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -34442,7 +34445,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1114" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -34468,7 +34471,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G1115" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -34494,7 +34497,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1116" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -34520,7 +34523,7 @@
         <v>10.8400001525879</v>
       </c>
       <c r="G1117" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -34546,7 +34549,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1118" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -34572,7 +34575,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G1119" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -34598,7 +34601,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1120" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -34624,7 +34627,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1121" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -34650,7 +34653,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1122" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -34676,7 +34679,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G1123" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -34702,7 +34705,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1124" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -34728,7 +34731,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1125" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -34754,7 +34757,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="G1126" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -34780,7 +34783,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1127" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -34806,7 +34809,7 @@
         <v>11.289999961853</v>
       </c>
       <c r="G1128" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -34832,7 +34835,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G1129" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -34858,7 +34861,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1130" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -34884,7 +34887,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G1131" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -34910,7 +34913,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1132" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -34936,7 +34939,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G1133" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -34962,7 +34965,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1134" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -34988,7 +34991,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G1135" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -35014,7 +35017,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1136" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -35040,7 +35043,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1137" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -35066,7 +35069,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1138" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -35092,7 +35095,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G1139" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -35118,7 +35121,7 @@
         <v>11.1300001144409</v>
       </c>
       <c r="G1140" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -35144,7 +35147,7 @@
         <v>11.0299997329712</v>
       </c>
       <c r="G1141" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -35170,7 +35173,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G1142" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -35196,7 +35199,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1143" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -35222,7 +35225,7 @@
         <v>10.7700004577637</v>
       </c>
       <c r="G1144" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -35248,7 +35251,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1145" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -35274,7 +35277,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1146" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -35300,7 +35303,7 @@
         <v>10.7600002288818</v>
       </c>
       <c r="G1147" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -35326,7 +35329,7 @@
         <v>10.4799995422363</v>
       </c>
       <c r="G1148" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -35352,7 +35355,7 @@
         <v>10.289999961853</v>
       </c>
       <c r="G1149" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -35378,7 +35381,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1150" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -35404,7 +35407,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G1151" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -35430,7 +35433,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1152" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -35456,7 +35459,7 @@
         <v>10.5299997329712</v>
       </c>
       <c r="G1153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -35482,7 +35485,7 @@
         <v>10.710000038147</v>
       </c>
       <c r="G1154" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -35508,7 +35511,7 @@
         <v>10.5100002288818</v>
       </c>
       <c r="G1155" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -35534,7 +35537,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G1156" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -35560,7 +35563,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G1157" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -35586,7 +35589,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1158" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -35612,7 +35615,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G1159" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -35638,7 +35641,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G1160" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -35664,7 +35667,7 @@
         <v>10.3100004196167</v>
       </c>
       <c r="G1161" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -35690,7 +35693,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G1162" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -35716,7 +35719,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1163" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -35742,7 +35745,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1164" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -35768,7 +35771,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1165" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -35794,7 +35797,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1166" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -35820,7 +35823,7 @@
         <v>12.9499998092651</v>
       </c>
       <c r="G1167" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -35846,7 +35849,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1168" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -35872,7 +35875,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1169" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -35898,7 +35901,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G1170" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -35924,7 +35927,7 @@
         <v>12.3500003814697</v>
       </c>
       <c r="G1171" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -35950,7 +35953,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1172" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -35976,7 +35979,7 @@
         <v>12.0699996948242</v>
       </c>
       <c r="G1173" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -36002,7 +36005,7 @@
         <v>11.6700000762939</v>
       </c>
       <c r="G1174" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -36028,7 +36031,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1175" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -36054,7 +36057,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1176" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -36080,7 +36083,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G1177" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -36106,7 +36109,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1178" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -36132,7 +36135,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1179" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -36158,7 +36161,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G1180" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -36184,7 +36187,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1181" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -36210,7 +36213,7 @@
         <v>11.5699996948242</v>
       </c>
       <c r="G1182" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -36236,7 +36239,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1183" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -36262,7 +36265,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G1184" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -36288,7 +36291,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1185" t="s">
-        <v>830</v>
+        <v>910</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -36444,7 +36447,7 @@
         <v>10.960000038147</v>
       </c>
       <c r="G1191" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -36522,7 +36525,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G1194" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -36548,7 +36551,7 @@
         <v>11.9300003051758</v>
       </c>
       <c r="G1195" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -36704,7 +36707,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1201" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -36860,7 +36863,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G1207" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -37094,7 +37097,7 @@
         <v>11.9499998092651</v>
       </c>
       <c r="G1216" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -37120,7 +37123,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G1217" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -37302,7 +37305,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1224" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -37640,7 +37643,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G1237" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -62712,7 +62715,7 @@
     </row>
     <row r="2202">
       <c r="A2202" s="1" t="n">
-        <v>45530.6496064815</v>
+        <v>45530.2916666667</v>
       </c>
       <c r="B2202" t="n">
         <v>85662</v>
@@ -62733,6 +62736,32 @@
         <v>1710</v>
       </c>
       <c r="H2202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" s="1" t="n">
+        <v>45531.6493865741</v>
+      </c>
+      <c r="B2203" t="n">
+        <v>89288</v>
+      </c>
+      <c r="C2203" t="n">
+        <v>6.71999979019165</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>6.57000017166138</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>6.63000011444092</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>6.55999994277954</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H2203" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1714">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,37 +44,37 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229200363159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147956848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8060216903687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3103551864624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1884708404541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5947551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.854775428772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3179368972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8385229110718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7410173416138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.009162902832</t>
+    <t xml:space="preserve">13.1229209899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147947311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8060207366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3103561401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1884717941284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5947532653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8547744750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3179359436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8385238647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7410154342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0091619491577</t>
   </si>
   <si>
     <t xml:space="preserve">12.3753604888916</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">12.7003879547119</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4972457885742</t>
+    <t xml:space="preserve">12.4972467422485</t>
   </si>
   <si>
     <t xml:space="preserve">12.6678857803345</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5134973526001</t>
+    <t xml:space="preserve">12.5134963989258</t>
   </si>
   <si>
     <t xml:space="preserve">12.0828380584717</t>
@@ -98,58 +98,58 @@
     <t xml:space="preserve">11.9447031021118</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3022317886353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4327878952026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2865257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7659378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4002847671509</t>
+    <t xml:space="preserve">12.3022308349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.432785987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2865266799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7659387588501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4002838134766</t>
   </si>
   <si>
     <t xml:space="preserve">11.7984409332275</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8471937179565</t>
+    <t xml:space="preserve">11.8471946716309</t>
   </si>
   <si>
     <t xml:space="preserve">11.6603050231934</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1722221374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8228168487549</t>
+    <t xml:space="preserve">12.1722202301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8228178024292</t>
   </si>
   <si>
     <t xml:space="preserve">12.0259599685669</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1478443145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9853324890137</t>
+    <t xml:space="preserve">12.1478433609009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9853315353394</t>
   </si>
   <si>
     <t xml:space="preserve">11.9772043228149</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7009315490723</t>
+    <t xml:space="preserve">11.7009334564209</t>
   </si>
   <si>
     <t xml:space="preserve">11.4815406799316</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2859783172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7166395187378</t>
+    <t xml:space="preserve">12.2859802246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7166385650635</t>
   </si>
   <si>
     <t xml:space="preserve">12.757266998291</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">12.5541257858276</t>
   </si>
   <si>
-    <t xml:space="preserve">12.432240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4728689193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4403667449951</t>
+    <t xml:space="preserve">12.4322423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4728698730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4403676986694</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635494232178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3260631561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2935619354248</t>
+    <t xml:space="preserve">13.3260612487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2935600280762</t>
   </si>
   <si>
     <t xml:space="preserve">13.4885759353638</t>
@@ -182,7 +182,7 @@
     <t xml:space="preserve">13.6267118453979</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7242183685303</t>
+    <t xml:space="preserve">13.7242193222046</t>
   </si>
   <si>
     <t xml:space="preserve">13.6917171478271</t>
@@ -191,103 +191,103 @@
     <t xml:space="preserve">13.8136005401611</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9354867935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.959864616394</t>
+    <t xml:space="preserve">13.9354858398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9598636627197</t>
   </si>
   <si>
     <t xml:space="preserve">13.7160930633545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3829412460327</t>
+    <t xml:space="preserve">13.382942199707</t>
   </si>
   <si>
     <t xml:space="preserve">13.0904188156128</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4641971588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4560718536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5454549789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.334189414978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3666925430298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4398221969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4235715866089</t>
+    <t xml:space="preserve">13.4642000198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.456072807312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5454530715942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3341875076294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3666915893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4398231506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4235706329346</t>
   </si>
   <si>
     <t xml:space="preserve">13.3748149871826</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0335388183594</t>
+    <t xml:space="preserve">13.0335397720337</t>
   </si>
   <si>
     <t xml:space="preserve">12.9360313415527</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9847841262817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.204176902771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9197788238525</t>
+    <t xml:space="preserve">12.9847860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2041778564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9197797775269</t>
   </si>
   <si>
     <t xml:space="preserve">12.7978954315186</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6922616958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9116554260254</t>
+    <t xml:space="preserve">12.6922626495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9116544723511</t>
   </si>
   <si>
     <t xml:space="preserve">13.0655078887939</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4708709716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4295768737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3056936264038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2396240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5452003479004</t>
+    <t xml:space="preserve">12.470871925354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4295778274536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3056926727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2396221160889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5451993942261</t>
   </si>
   <si>
     <t xml:space="preserve">12.5534601211548</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6195297241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5864953994751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6112728118896</t>
+    <t xml:space="preserve">12.6195316314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5864944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.611270904541</t>
   </si>
   <si>
     <t xml:space="preserve">12.8260021209717</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0489912033081</t>
+    <t xml:space="preserve">13.0489931106567</t>
   </si>
   <si>
     <t xml:space="preserve">13.148097038269</t>
@@ -299,76 +299,76 @@
     <t xml:space="preserve">13.3710870742798</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646146774292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2059097290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1563558578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.933367729187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6938600540161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6360483169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0496702194214</t>
+    <t xml:space="preserve">13.1646165847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2059106826782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1563568115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9333667755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6938610076904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6360492706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0496692657471</t>
   </si>
   <si>
     <t xml:space="preserve">11.7027978897095</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5871744155884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1659708023071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3724431991577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9092683792114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3882827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9175271987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6697616577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.793643951416</t>
+    <t xml:space="preserve">11.5871734619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1659717559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.372444152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9092702865601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3882837295532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9175291061401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6697626113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7936458587646</t>
   </si>
   <si>
     <t xml:space="preserve">11.042088508606</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3400859832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7365121841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3146305084229</t>
+    <t xml:space="preserve">10.3400869369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7365102767944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3146314620972</t>
   </si>
   <si>
     <t xml:space="preserve">11.9505634307861</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9423055648804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5293626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2733364105225</t>
+    <t xml:space="preserve">11.9423046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5293607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2733373641968</t>
   </si>
   <si>
     <t xml:space="preserve">11.2155246734619</t>
@@ -377,22 +377,22 @@
     <t xml:space="preserve">11.512843132019</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0331525802612</t>
+    <t xml:space="preserve">12.0331516265869</t>
   </si>
   <si>
     <t xml:space="preserve">12.0579290390015</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8762321472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2065887451172</t>
+    <t xml:space="preserve">11.8762350082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2065868377686</t>
   </si>
   <si>
     <t xml:space="preserve">11.8927507400513</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1900701522827</t>
+    <t xml:space="preserve">12.190071105957</t>
   </si>
   <si>
     <t xml:space="preserve">12.1074810028076</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">12.5121650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7599306106567</t>
+    <t xml:space="preserve">12.7599315643311</t>
   </si>
   <si>
     <t xml:space="preserve">13.2306861877441</t>
@@ -410,55 +410,55 @@
     <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380498886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4701919555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5032291412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297920227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4206390380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7014408111572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6264305114746</t>
+    <t xml:space="preserve">13.3380517959595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4701929092407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.503228187561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297901153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4206409454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7014417648315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6264295578003</t>
   </si>
   <si>
     <t xml:space="preserve">14.2878198623657</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7255392074585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2217464447021</t>
+    <t xml:space="preserve">14.7255373001099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2217493057251</t>
   </si>
   <si>
     <t xml:space="preserve">14.5355854034424</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0806694030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1549997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0145998001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2128114700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.989821434021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7833499908447</t>
+    <t xml:space="preserve">15.0806684494019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1550006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0145969390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2128124237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9898252487183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7833490371704</t>
   </si>
   <si>
     <t xml:space="preserve">14.6925029754639</t>
@@ -470,7 +470,7 @@
     <t xml:space="preserve">15.1467409133911</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5183897018433</t>
+    <t xml:space="preserve">15.5183906555176</t>
   </si>
   <si>
     <t xml:space="preserve">15.5514230728149</t>
@@ -479,73 +479,73 @@
     <t xml:space="preserve">15.5266466140747</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4853553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440584182739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000827789307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8322248458862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8652591705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7661514282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6918258666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2623643875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1137046813965</t>
+    <t xml:space="preserve">15.4853544235229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440612792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7000846862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8322257995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8652620315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7661533355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6918239593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2623624801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1137037277222</t>
   </si>
   <si>
     <t xml:space="preserve">15.2293291091919</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1797742843628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2871427536011</t>
+    <t xml:space="preserve">15.1797733306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2871408462524</t>
   </si>
   <si>
     <t xml:space="preserve">15.8982982635498</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8487415313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6174945831299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1962947845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7991905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6587867736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5679407119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9395914077759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6257543563843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4110240936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2788791656494</t>
+    <t xml:space="preserve">15.8487434387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6174936294556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1962938308716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7991895675659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6587896347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.567943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9395895004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.62575340271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2788848876953</t>
   </si>
   <si>
     <t xml:space="preserve">15.600977897644</t>
@@ -554,103 +554,103 @@
     <t xml:space="preserve">15.7331190109253</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7166013717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744131088257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7083415985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5844602584839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0311183929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614692687988</t>
+    <t xml:space="preserve">15.7166023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7083435058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5844593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0311164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614702224731</t>
   </si>
   <si>
     <t xml:space="preserve">15.6505317687988</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2210712432861</t>
+    <t xml:space="preserve">15.2210702896118</t>
   </si>
   <si>
     <t xml:space="preserve">14.9237518310547</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9402685165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4860305786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6594686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8659372329712</t>
+    <t xml:space="preserve">14.9402704238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4860324859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8081283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6594648361206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8659391403198</t>
   </si>
   <si>
     <t xml:space="preserve">14.5933971405029</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7916107177734</t>
+    <t xml:space="preserve">14.7916088104248</t>
   </si>
   <si>
     <t xml:space="preserve">14.9485282897949</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8411626815796</t>
+    <t xml:space="preserve">14.8411645889282</t>
   </si>
   <si>
     <t xml:space="preserve">14.6842451095581</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4777746200562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7007617950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3208560943604</t>
+    <t xml:space="preserve">14.4777736663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7007608413696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.320855140686</t>
   </si>
   <si>
     <t xml:space="preserve">14.0400533676147</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7592535018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.717960357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5362634658813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2967576980591</t>
+    <t xml:space="preserve">13.7592525482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7179574966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.536262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2967567443848</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9492053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1391611099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2795639038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5768804550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704080581665</t>
+    <t xml:space="preserve">13.9492063522339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1391592025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2795610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5768785476685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704061508179</t>
   </si>
   <si>
     <t xml:space="preserve">15.3779888153076</t>
@@ -659,58 +659,58 @@
     <t xml:space="preserve">15.4358024597168</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1054468154907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2375898361206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3119201660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.667046546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0139217376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9643678665161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9478492736816</t>
+    <t xml:space="preserve">15.1054458618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.237587928772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3119173049927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6670484542847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0139179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9643688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9478483200073</t>
   </si>
   <si>
     <t xml:space="preserve">15.8735189437866</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7909317016602</t>
+    <t xml:space="preserve">15.7909307479858</t>
   </si>
   <si>
     <t xml:space="preserve">16.0221786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9148149490356</t>
+    <t xml:space="preserve">15.9148120880127</t>
   </si>
   <si>
     <t xml:space="preserve">15.8157072067261</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6092348098755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.2451686859131</t>
+    <t xml:space="preserve">15.5101299285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6092367172241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2451667785645</t>
   </si>
   <si>
     <t xml:space="preserve">16.3112392425537</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3194999694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3690528869629</t>
+    <t xml:space="preserve">16.3194980621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3690490722656</t>
   </si>
   <si>
     <t xml:space="preserve">16.4351215362549</t>
@@ -719,109 +719,109 @@
     <t xml:space="preserve">16.7819919586182</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7324390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.9719486236572</t>
+    <t xml:space="preserve">16.732442855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.97194480896</t>
   </si>
   <si>
     <t xml:space="preserve">17.0215034484863</t>
   </si>
   <si>
-    <t xml:space="preserve">16.765474319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.8893566131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.6002998352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5837802886963</t>
+    <t xml:space="preserve">16.7654762268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8893623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6003017425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5837821960449</t>
   </si>
   <si>
     <t xml:space="preserve">16.4020862579346</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1873550415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5177135467529</t>
+    <t xml:space="preserve">16.1873569488525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.517707824707</t>
   </si>
   <si>
     <t xml:space="preserve">16.4268627166748</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4681587219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.914134979248</t>
+    <t xml:space="preserve">16.4681549072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9141330718994</t>
   </si>
   <si>
     <t xml:space="preserve">17.3435955047607</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4261875152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4922561645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8391284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9795265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2438106536865</t>
+    <t xml:space="preserve">17.4261798858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4922542572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.979528427124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2438125610352</t>
   </si>
   <si>
     <t xml:space="preserve">18.8714847564697</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2431335449219</t>
+    <t xml:space="preserve">19.2431316375732</t>
   </si>
   <si>
     <t xml:space="preserve">19.2183570861816</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5239334106445</t>
+    <t xml:space="preserve">19.5239315032959</t>
   </si>
   <si>
     <t xml:space="preserve">19.779956817627</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9038391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9203605651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9616527557373</t>
+    <t xml:space="preserve">19.9038410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9203567504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9616546630859</t>
   </si>
   <si>
     <t xml:space="preserve">20.2754898071289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0194644927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1268329620361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1516075134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2341957092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.895580291748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1020545959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.821252822876</t>
+    <t xml:space="preserve">20.0194625854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1268310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1516056060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2341938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8955821990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.10205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.8212547302246</t>
   </si>
   <si>
     <t xml:space="preserve">20.0607604980469</t>
@@ -830,22 +830,22 @@
     <t xml:space="preserve">19.9781703948975</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5734882354736</t>
+    <t xml:space="preserve">19.573486328125</t>
   </si>
   <si>
     <t xml:space="preserve">19.5817451477051</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3339786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5321922302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4743785858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.0531768798828</t>
+    <t xml:space="preserve">19.3339767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5321941375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4743804931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0531806945801</t>
   </si>
   <si>
     <t xml:space="preserve">18.9953651428223</t>
@@ -854,58 +854,58 @@
     <t xml:space="preserve">19.110990524292</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6725921630859</t>
+    <t xml:space="preserve">19.6725940704346</t>
   </si>
   <si>
     <t xml:space="preserve">20.3415603637695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7957954406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3078441619873</t>
+    <t xml:space="preserve">20.7957973480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3078460693359</t>
   </si>
   <si>
     <t xml:space="preserve">21.1013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5083885192871</t>
+    <t xml:space="preserve">21.5083904266357</t>
   </si>
   <si>
     <t xml:space="preserve">21.742359161377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4749660491943</t>
+    <t xml:space="preserve">21.4749698638916</t>
   </si>
   <si>
     <t xml:space="preserve">21.6420879364014</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3162040710449</t>
+    <t xml:space="preserve">21.3162021636963</t>
   </si>
   <si>
     <t xml:space="preserve">21.5585250854492</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1434478759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0822334289551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0989475250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0320987701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9318256378174</t>
+    <t xml:space="preserve">22.1434497833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0822315216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0989456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0320949554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9318218231201</t>
   </si>
   <si>
     <t xml:space="preserve">20.8649768829346</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8900470733643</t>
+    <t xml:space="preserve">20.8900451660156</t>
   </si>
   <si>
     <t xml:space="preserve">21.0571670532227</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">21.5418167114258</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5501708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.491678237915</t>
+    <t xml:space="preserve">21.5501728057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4916801452637</t>
   </si>
   <si>
     <t xml:space="preserve">21.6838684082031</t>
@@ -926,22 +926,22 @@
     <t xml:space="preserve">21.5919494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3914051055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3663368225098</t>
+    <t xml:space="preserve">21.3914089202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3663387298584</t>
   </si>
   <si>
     <t xml:space="preserve">21.7172908782959</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8315544128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1407260894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8566226959229</t>
+    <t xml:space="preserve">20.8315563201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1407241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8566207885742</t>
   </si>
   <si>
     <t xml:space="preserve">20.3636169433594</t>
@@ -959,13 +959,13 @@
     <t xml:space="preserve">20.6644344329834</t>
   </si>
   <si>
-    <t xml:space="preserve">20.906759262085</t>
+    <t xml:space="preserve">20.9067573547363</t>
   </si>
   <si>
     <t xml:space="preserve">21.2744216918945</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8482666015625</t>
+    <t xml:space="preserve">20.8482646942139</t>
   </si>
   <si>
     <t xml:space="preserve">20.5056686401367</t>
@@ -974,22 +974,22 @@
     <t xml:space="preserve">19.8706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6951351165771</t>
+    <t xml:space="preserve">19.6951332092285</t>
   </si>
   <si>
     <t xml:space="preserve">19.477876663208</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3024024963379</t>
+    <t xml:space="preserve">19.3024005889893</t>
   </si>
   <si>
     <t xml:space="preserve">19.2021293640137</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6032180786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1269264221191</t>
+    <t xml:space="preserve">19.6032161712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1269245147705</t>
   </si>
   <si>
     <t xml:space="preserve">19.6366424560547</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">19.9959526062012</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0460872650146</t>
+    <t xml:space="preserve">20.046085357666</t>
   </si>
   <si>
     <t xml:space="preserve">20.7396354675293</t>
@@ -1007,16 +1007,16 @@
     <t xml:space="preserve">20.3051242828369</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7145729064941</t>
+    <t xml:space="preserve">20.7145709991455</t>
   </si>
   <si>
     <t xml:space="preserve">20.7730617523193</t>
   </si>
   <si>
-    <t xml:space="preserve">21.332914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3245582580566</t>
+    <t xml:space="preserve">21.3329162597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3245601654053</t>
   </si>
   <si>
     <t xml:space="preserve">21.4582538604736</t>
@@ -1028,70 +1028,70 @@
     <t xml:space="preserve">21.7256488800049</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8426322937012</t>
+    <t xml:space="preserve">21.8426303863525</t>
   </si>
   <si>
     <t xml:space="preserve">21.6170196533203</t>
   </si>
   <si>
-    <t xml:space="preserve">21.600305557251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2326412200928</t>
+    <t xml:space="preserve">21.6003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2326431274414</t>
   </si>
   <si>
     <t xml:space="preserve">21.6588001251221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1100254058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9930419921875</t>
+    <t xml:space="preserve">22.1100234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9930400848389</t>
   </si>
   <si>
     <t xml:space="preserve">22.1016693115234</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8844146728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5027542114258</t>
+    <t xml:space="preserve">21.8844127655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5027561187744</t>
   </si>
   <si>
     <t xml:space="preserve">22.3607044219971</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0682430267334</t>
+    <t xml:space="preserve">22.068244934082</t>
   </si>
   <si>
     <t xml:space="preserve">21.9596176147461</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3523483276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1935863494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6531677246094</t>
+    <t xml:space="preserve">22.3523502349854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1935844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6531658172607</t>
   </si>
   <si>
     <t xml:space="preserve">22.2855014801025</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127433776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.589038848877</t>
+    <t xml:space="preserve">23.1127452850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5890407562256</t>
   </si>
   <si>
     <t xml:space="preserve">23.2297306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6642436981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5973949432373</t>
+    <t xml:space="preserve">23.6642417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5973930358887</t>
   </si>
   <si>
     <t xml:space="preserve">23.8146514892578</t>
@@ -1103,7 +1103,7 @@
     <t xml:space="preserve">24.0903987884521</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4914875030518</t>
+    <t xml:space="preserve">24.4914894104004</t>
   </si>
   <si>
     <t xml:space="preserve">24.3577919006348</t>
@@ -1112,34 +1112,34 @@
     <t xml:space="preserve">24.6669654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6001205444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6586112976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0095634460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5332698822021</t>
+    <t xml:space="preserve">24.600118637085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6586093902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0095615386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5332717895508</t>
   </si>
   <si>
     <t xml:space="preserve">24.625186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2240982055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.148889541626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2408084869385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6168270111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8758659362793</t>
+    <t xml:space="preserve">24.2240943908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1488914489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2408065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.616828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8758697509766</t>
   </si>
   <si>
     <t xml:space="preserve">26.1125583648682</t>
@@ -1148,34 +1148,34 @@
     <t xml:space="preserve">25.6529750823975</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7198257446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6696853637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5359897613525</t>
+    <t xml:space="preserve">25.7198219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6696872711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5359916687012</t>
   </si>
   <si>
     <t xml:space="preserve">25.4858551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">25.318733215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3020248413086</t>
+    <t xml:space="preserve">25.3187351226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.30202293396</t>
   </si>
   <si>
     <t xml:space="preserve">26.3799476623535</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6473407745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1543388366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8451633453369</t>
+    <t xml:space="preserve">26.6473426818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1543350219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8451652526855</t>
   </si>
   <si>
     <t xml:space="preserve">24.8006610870361</t>
@@ -1190,25 +1190,25 @@
     <t xml:space="preserve">25.2268180847168</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1292724609375</t>
+    <t xml:space="preserve">26.1292667388916</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732265472412</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6724090576172</t>
+    <t xml:space="preserve">26.6724109649658</t>
   </si>
   <si>
     <t xml:space="preserve">27.8255386352539</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5023784637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1096439361572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6333522796631</t>
+    <t xml:space="preserve">28.5023803710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1096420288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6333503723145</t>
   </si>
   <si>
     <t xml:space="preserve">28.2349853515625</t>
@@ -1220,28 +1220,28 @@
     <t xml:space="preserve">27.3993835449219</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9454364776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5694141387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1516151428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2685985565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2351760864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9120140075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5025691986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939380645752</t>
+    <t xml:space="preserve">25.9454345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5694160461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1516132354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2685966491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2351741790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9120121002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5025653839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939399719238</t>
   </si>
   <si>
     <t xml:space="preserve">25.8618774414062</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">26.3214569091797</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2629642486572</t>
+    <t xml:space="preserve">26.2629661560059</t>
   </si>
   <si>
     <t xml:space="preserve">26.4050159454346</t>
@@ -1262,58 +1262,58 @@
     <t xml:space="preserve">26.2211837768555</t>
   </si>
   <si>
-    <t xml:space="preserve">26.438440322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1961193084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9872188568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.070779800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1877613067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.446798324585</t>
+    <t xml:space="preserve">26.4384422302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.196117401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9872169494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0707759857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1877593994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4468002319336</t>
   </si>
   <si>
     <t xml:space="preserve">26.7392597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.870231628418</t>
+    <t xml:space="preserve">25.8702335357666</t>
   </si>
   <si>
     <t xml:space="preserve">25.7114658355713</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098327636719</t>
+    <t xml:space="preserve">25.1098365783691</t>
   </si>
   <si>
     <t xml:space="preserve">26.037353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6863994598389</t>
+    <t xml:space="preserve">25.6864013671875</t>
   </si>
   <si>
     <t xml:space="preserve">26.0540657043457</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7532444000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3688697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3632373809814</t>
+    <t xml:space="preserve">25.7532482147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3688735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3632354736328</t>
   </si>
   <si>
     <t xml:space="preserve">27.449520111084</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2824001312256</t>
+    <t xml:space="preserve">27.282398223877</t>
   </si>
   <si>
     <t xml:space="preserve">28.1180038452148</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">27.3659591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1988391876221</t>
+    <t xml:space="preserve">27.1988372802734</t>
   </si>
   <si>
     <t xml:space="preserve">26.8228168487549</t>
@@ -1334,37 +1334,37 @@
     <t xml:space="preserve">26.906379699707</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9899349212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.491304397583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0344409942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.61936378479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330848693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3241806030273</t>
+    <t xml:space="preserve">26.9899368286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4913005828857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.03444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6193618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508838653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3241786956787</t>
   </si>
   <si>
     <t xml:space="preserve">26.8645992279053</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7365341186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2769546508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4831352233887</t>
+    <t xml:space="preserve">25.736536026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2769565582275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4831314086914</t>
   </si>
   <si>
     <t xml:space="preserve">24.6084747314453</t>
@@ -1376,13 +1376,13 @@
     <t xml:space="preserve">26.0289974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7783164978027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.903657913208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9817714691162</t>
+    <t xml:space="preserve">25.7783184051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9036560058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9817733764648</t>
   </si>
   <si>
     <t xml:space="preserve">25.0680541992188</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">24.316011428833</t>
   </si>
   <si>
-    <t xml:space="preserve">24.190673828125</t>
+    <t xml:space="preserve">24.1906719207764</t>
   </si>
   <si>
     <t xml:space="preserve">20.7229251861572</t>
@@ -1403,13 +1403,13 @@
     <t xml:space="preserve">21.1825065612793</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2660655975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.221565246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0153865814209</t>
+    <t xml:space="preserve">21.2660636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2215633392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0153846740723</t>
   </si>
   <si>
     <t xml:space="preserve">21.767427444458</t>
@@ -1418,49 +1418,49 @@
     <t xml:space="preserve">22.2270088195801</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3105716705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0208301544189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3941307067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4331836700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0181102752686</t>
+    <t xml:space="preserve">22.310567855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0208282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3941287994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4331874847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0181083679199</t>
   </si>
   <si>
     <t xml:space="preserve">21.8927688598633</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2687892913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0626106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.770149230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.187952041626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6030292510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9372673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7728710174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3132934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2324504852295</t>
+    <t xml:space="preserve">22.2687873840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0626125335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7701511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1879482269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.60302734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9372692108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7728729248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3132915496826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2324523925781</t>
   </si>
   <si>
     <t xml:space="preserve">26.4885768890381</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">24.8591556549072</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8173751831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9427165985107</t>
+    <t xml:space="preserve">24.8173732757568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9427146911621</t>
   </si>
   <si>
     <t xml:space="preserve">25.4440765380859</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3591232299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7644329071045</t>
+    <t xml:space="preserve">25.3591213226318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7644348144531</t>
   </si>
   <si>
     <t xml:space="preserve">25.3166427612305</t>
@@ -1496,70 +1496,70 @@
     <t xml:space="preserve">25.5715084075928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8688507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0812397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4635391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4210624694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9962825775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9732666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8652992248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6529102325439</t>
+    <t xml:space="preserve">25.8688526153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.081241607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4635372161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4210586547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9732685089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8652973175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6529121398926</t>
   </si>
   <si>
     <t xml:space="preserve">26.888313293457</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1661930084229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2086715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7414169311523</t>
+    <t xml:space="preserve">26.1661968231201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2086753845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.741418838501</t>
   </si>
   <si>
     <t xml:space="preserve">26.0387630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3785820007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9538040161133</t>
+    <t xml:space="preserve">26.3785800933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9538059234619</t>
   </si>
   <si>
     <t xml:space="preserve">26.3361053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8458366394043</t>
+    <t xml:space="preserve">26.8458385467529</t>
   </si>
   <si>
     <t xml:space="preserve">26.5060157775879</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6334495544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7608814239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.590970993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0157432556152</t>
+    <t xml:space="preserve">26.6334476470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7608795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5909690856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0157470703125</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803440093994</t>
@@ -1568,28 +1568,28 @@
     <t xml:space="preserve">27.7378673553467</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8918685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2547016143799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3821334838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6794757843018</t>
+    <t xml:space="preserve">24.8918647766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2547035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3821392059326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6794776916504</t>
   </si>
   <si>
     <t xml:space="preserve">24.4670906066895</t>
   </si>
   <si>
-    <t xml:space="preserve">23.9998397827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4246101379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5095691680908</t>
+    <t xml:space="preserve">23.9998378753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4246139526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5095672607422</t>
   </si>
   <si>
     <t xml:space="preserve">24.5520458221436</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">24.8493881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9768238067627</t>
+    <t xml:space="preserve">24.9768199920654</t>
   </si>
   <si>
     <t xml:space="preserve">26.1237182617188</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2281341552734</t>
+    <t xml:space="preserve">27.2281322479248</t>
   </si>
   <si>
     <t xml:space="preserve">26.5484943389893</t>
@@ -1613,22 +1613,22 @@
     <t xml:space="preserve">26.7184047698975</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2706089019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.251148223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3130893707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6953887939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6759262084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1431789398193</t>
+    <t xml:space="preserve">27.2706108093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2511501312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3130912780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.695384979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6759243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.143180847168</t>
   </si>
   <si>
     <t xml:space="preserve">27.3555679321289</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">25.1467323303223</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7024955749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3007354736328</t>
+    <t xml:space="preserve">23.7024936676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3007335662842</t>
   </si>
   <si>
     <t xml:space="preserve">22.0033912658691</t>
@@ -1652,25 +1652,25 @@
     <t xml:space="preserve">22.470645904541</t>
   </si>
   <si>
-    <t xml:space="preserve">21.323751449585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2157783508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0458698272705</t>
+    <t xml:space="preserve">21.3237495422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2157802581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0458679199219</t>
   </si>
   <si>
     <t xml:space="preserve">21.6635684967041</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3662261962891</t>
+    <t xml:space="preserve">21.3662281036377</t>
   </si>
   <si>
     <t xml:space="preserve">20.219331741333</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3892421722412</t>
+    <t xml:space="preserve">20.3892440795898</t>
   </si>
   <si>
     <t xml:space="preserve">20.8989734649658</t>
@@ -1679,97 +1679,97 @@
     <t xml:space="preserve">20.771541595459</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3856906890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4936599731445</t>
+    <t xml:space="preserve">22.3856887817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4936580657959</t>
   </si>
   <si>
     <t xml:space="preserve">22.5131225585938</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6405563354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5325870513916</t>
+    <t xml:space="preserve">22.6405544281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.532585144043</t>
   </si>
   <si>
     <t xml:space="preserve">22.8529415130615</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4777526855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9255447387695</t>
+    <t xml:space="preserve">18.4777507781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9255428314209</t>
   </si>
   <si>
     <t xml:space="preserve">18.010498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1379299163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3503189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6901397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9874820709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1998710632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3273029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1149139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.369779586792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8795108795166</t>
+    <t xml:space="preserve">18.1379318237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3503170013428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6901378631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9874839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1998691558838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3273010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1149120330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3697776794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.879508972168</t>
   </si>
   <si>
     <t xml:space="preserve">20.0494232177734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0069446563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.5821704864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6246471405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5202293395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2653636932373</t>
+    <t xml:space="preserve">20.0069427490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5821666717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6246452331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.520227432251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2653617858887</t>
   </si>
   <si>
     <t xml:space="preserve">17.2883796691895</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2228870391846</t>
+    <t xml:space="preserve">18.2228851318359</t>
   </si>
   <si>
     <t xml:space="preserve">17.6281986236572</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8405857086182</t>
+    <t xml:space="preserve">17.8405876159668</t>
   </si>
   <si>
     <t xml:space="preserve">17.4158115386963</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0759906768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2034225463867</t>
+    <t xml:space="preserve">17.0759925842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2034244537354</t>
   </si>
   <si>
     <t xml:space="preserve">17.3308563232422</t>
@@ -1778,10 +1778,10 @@
     <t xml:space="preserve">16.9910373687744</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7326164245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9025268554688</t>
+    <t xml:space="preserve">18.7326145172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9025287628174</t>
   </si>
   <si>
     <t xml:space="preserve">19.6671237945557</t>
@@ -1790,46 +1790,46 @@
     <t xml:space="preserve">19.921989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0918998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9644660949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4317169189453</t>
+    <t xml:space="preserve">20.0918979644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9644641876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4317188262939</t>
   </si>
   <si>
     <t xml:space="preserve">20.3467655181885</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0688819885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1963176727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8564968109131</t>
+    <t xml:space="preserve">21.068883895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1963157653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8564929962158</t>
   </si>
   <si>
     <t xml:space="preserve">20.6441078186035</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3042850494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7945556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5591526031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1768550872803</t>
+    <t xml:space="preserve">20.3042869567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7945537567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.559154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1768531799316</t>
   </si>
   <si>
     <t xml:space="preserve">20.4741973876953</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7520809173584</t>
+    <t xml:space="preserve">19.7520790100098</t>
   </si>
   <si>
     <t xml:space="preserve">19.8370342254639</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">16.9740428924561</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0335121154785</t>
+    <t xml:space="preserve">17.0335140228271</t>
   </si>
   <si>
     <t xml:space="preserve">16.9230709075928</t>
@@ -1856,52 +1856,52 @@
     <t xml:space="preserve">17.5432434082031</t>
   </si>
   <si>
-    <t xml:space="preserve">17.67067527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7896137237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8235969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7750930786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.09792137146</t>
+    <t xml:space="preserve">17.6706771850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7896156311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8235950469971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7750949859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.0979232788086</t>
   </si>
   <si>
     <t xml:space="preserve">18.8260669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5372180938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1124439239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7046585083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0954532623291</t>
+    <t xml:space="preserve">18.5372219085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1124420166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7046604156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0954513549805</t>
   </si>
   <si>
     <t xml:space="preserve">18.5542106628418</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6051826477051</t>
+    <t xml:space="preserve">18.6051845550537</t>
   </si>
   <si>
     <t xml:space="preserve">18.1294345855713</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2483749389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.452262878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7071285247803</t>
+    <t xml:space="preserve">18.2483692169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4522647857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7071323394775</t>
   </si>
   <si>
     <t xml:space="preserve">18.2313785552979</t>
@@ -1910,40 +1910,40 @@
     <t xml:space="preserve">17.0250186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0590019226074</t>
+    <t xml:space="preserve">17.0590000152588</t>
   </si>
   <si>
     <t xml:space="preserve">16.9400634765625</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9205989837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8356437683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6742305755615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2324647903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.020073890686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0625514984131</t>
+    <t xml:space="preserve">15.9206008911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8356456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6742315292358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2324628829956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.020076751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0625524520874</t>
   </si>
   <si>
     <t xml:space="preserve">16.031042098999</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4473266601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3538722991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4618425369263</t>
+    <t xml:space="preserve">16.4473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.353874206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4618406295776</t>
   </si>
   <si>
     <t xml:space="preserve">15.45334815979</t>
@@ -1955,13 +1955,13 @@
     <t xml:space="preserve">15.0540571212769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2154741287231</t>
+    <t xml:space="preserve">15.2154731750488</t>
   </si>
   <si>
     <t xml:space="preserve">15.7311029434204</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7485809326172</t>
+    <t xml:space="preserve">15.7485818862915</t>
   </si>
   <si>
     <t xml:space="preserve">15.1018590927124</t>
@@ -1973,19 +1973,19 @@
     <t xml:space="preserve">15.0494213104248</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031943321228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1979942321777</t>
+    <t xml:space="preserve">15.0319442749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1979932785034</t>
   </si>
   <si>
     <t xml:space="preserve">14.9270687103271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2853889465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4040431976318</t>
+    <t xml:space="preserve">15.2853879928589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4040451049805</t>
   </si>
   <si>
     <t xml:space="preserve">16.0806827545166</t>
@@ -1997,58 +1997,58 @@
     <t xml:space="preserve">14.9095888137817</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8571529388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.577488899231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7697582244873</t>
+    <t xml:space="preserve">14.8571538925171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5774898529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.769757270813</t>
   </si>
   <si>
     <t xml:space="preserve">14.9882459640503</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8134574890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6124448776245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4201774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5600090026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2242126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9358081817627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.69983959198</t>
+    <t xml:space="preserve">14.8134565353394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6124467849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4201784133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5600099563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242116928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9358100891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6998414993286</t>
   </si>
   <si>
     <t xml:space="preserve">15.1193370819092</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3990030288696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047151565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7173194885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7348003387451</t>
+    <t xml:space="preserve">15.3990039825439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047170639038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7173223495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7347993850708</t>
   </si>
   <si>
     <t xml:space="preserve">14.3153038024902</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0531187057495</t>
+    <t xml:space="preserve">14.0531177520752</t>
   </si>
   <si>
     <t xml:space="preserve">14.1055555343628</t>
@@ -2060,40 +2060,40 @@
     <t xml:space="preserve">13.9919424057007</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4413537979126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6336221694946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7784976959229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4726142883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2541265487671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1842107772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5724468231201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9395055770874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9832029342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8783292770386</t>
+    <t xml:space="preserve">13.4413547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6336231231689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7784957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4726152420044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2541275024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.184211730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5724458694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9395046234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9832019805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8783302307129</t>
   </si>
   <si>
     <t xml:space="preserve">13.5287485122681</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5025291442871</t>
+    <t xml:space="preserve">13.5025300979614</t>
   </si>
   <si>
     <t xml:space="preserve">13.5637073516846</t>
@@ -2102,31 +2102,31 @@
     <t xml:space="preserve">12.4887475967407</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2564783096313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2652177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2389993667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282423019409</t>
+    <t xml:space="preserve">11.2564792633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2652187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2389984130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282442092896</t>
   </si>
   <si>
     <t xml:space="preserve">11.0292510986328</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4662265777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0379905700684</t>
+    <t xml:space="preserve">11.4662246704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0379915237427</t>
   </si>
   <si>
     <t xml:space="preserve">11.32639503479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4574871063232</t>
+    <t xml:space="preserve">11.4574861526489</t>
   </si>
   <si>
     <t xml:space="preserve">11.1690826416016</t>
@@ -2135,7 +2135,7 @@
     <t xml:space="preserve">11.0729484558105</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0467300415039</t>
+    <t xml:space="preserve">11.0467309951782</t>
   </si>
   <si>
     <t xml:space="preserve">10.5223598480225</t>
@@ -2144,7 +2144,7 @@
     <t xml:space="preserve">11.3526124954224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1341257095337</t>
+    <t xml:space="preserve">11.1341247558594</t>
   </si>
   <si>
     <t xml:space="preserve">10.9505958557129</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">11.0117721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">11.667236328125</t>
+    <t xml:space="preserve">11.6672353744507</t>
   </si>
   <si>
     <t xml:space="preserve">11.8420248031616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9731168746948</t>
+    <t xml:space="preserve">11.9731178283691</t>
   </si>
   <si>
     <t xml:space="preserve">11.9993352890015</t>
@@ -2168,7 +2168,7 @@
     <t xml:space="preserve">12.0517730712891</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0605115890503</t>
+    <t xml:space="preserve">12.0605134963989</t>
   </si>
   <si>
     <t xml:space="preserve">12.5062274932861</t>
@@ -2183,22 +2183,22 @@
     <t xml:space="preserve">12.0867309570312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3663949966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7633695602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8070669174194</t>
+    <t xml:space="preserve">12.3663940429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.763370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8070678710938</t>
   </si>
   <si>
     <t xml:space="preserve">11.4400081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.186562538147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5885782241821</t>
+    <t xml:space="preserve">11.1865634918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5885791778564</t>
   </si>
   <si>
     <t xml:space="preserve">11.5099239349365</t>
@@ -2216,16 +2216,16 @@
     <t xml:space="preserve">11.3089151382446</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3788318634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3438739776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4225292205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2914371490479</t>
+    <t xml:space="preserve">11.378830909729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3438730239868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4225273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2914361953735</t>
   </si>
   <si>
     <t xml:space="preserve">11.3001766204834</t>
@@ -2234,25 +2234,25 @@
     <t xml:space="preserve">11.5623598098755</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0080757141113</t>
+    <t xml:space="preserve">12.008074760437</t>
   </si>
   <si>
     <t xml:space="preserve">11.9905967712402</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1216878890991</t>
+    <t xml:space="preserve">12.1216888427734</t>
   </si>
   <si>
     <t xml:space="preserve">13.6773195266724</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5462274551392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5899257659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8695888519287</t>
+    <t xml:space="preserve">13.5462265014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5899248123169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.869589805603</t>
   </si>
   <si>
     <t xml:space="preserve">14.0356388092041</t>
@@ -2261,19 +2261,19 @@
     <t xml:space="preserve">13.9045476913452</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7959775924683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2191705703735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5949687957764</t>
+    <t xml:space="preserve">14.7959747314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2191686630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5949697494507</t>
   </si>
   <si>
     <t xml:space="preserve">14.2453870773315</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1405143737793</t>
+    <t xml:space="preserve">14.1405153274536</t>
   </si>
   <si>
     <t xml:space="preserve">13.7996730804443</t>
@@ -2282,46 +2282,46 @@
     <t xml:space="preserve">14.2104301452637</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8309354782104</t>
+    <t xml:space="preserve">14.8309335708618</t>
   </si>
   <si>
     <t xml:space="preserve">15.0144643783569</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3203458786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9146308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9795064926147</t>
+    <t xml:space="preserve">15.3203468322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9146318435669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9795055389404</t>
   </si>
   <si>
     <t xml:space="preserve">14.9445486068726</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3378248214722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3640422821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0756416320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4164800643921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5475740432739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7223615646362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8709363937378</t>
+    <t xml:space="preserve">15.3378257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3640432357788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0756406784058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4164810180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5475721359253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7223634719849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05446434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8709354400635</t>
   </si>
   <si>
     <t xml:space="preserve">14.8484134674072</t>
@@ -2330,97 +2330,97 @@
     <t xml:space="preserve">14.7435398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7085819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8658933639526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5250511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5075712203979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.962028503418</t>
+    <t xml:space="preserve">14.7085800170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.865891456604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.525053024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5075740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9620275497437</t>
   </si>
   <si>
     <t xml:space="preserve">14.4900941848755</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8746318817139</t>
+    <t xml:space="preserve">14.8746328353882</t>
   </si>
   <si>
     <t xml:space="preserve">14.7610177993774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8833723068237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1630373001099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0705986022949</t>
+    <t xml:space="preserve">14.8833713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1630353927612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0705976486206</t>
   </si>
   <si>
     <t xml:space="preserve">14.2978258132935</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8608493804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6685810089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.922025680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8958082199097</t>
+    <t xml:space="preserve">13.8608503341675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6685819625854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9220266342163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8958072662354</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872371673584</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6474056243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.673623085022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8921098709106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9008502960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5512714385986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5687484741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1230354309082</t>
+    <t xml:space="preserve">14.647406578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6736249923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8921127319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9008512496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5687494277954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1230344772339</t>
   </si>
   <si>
     <t xml:space="preserve">13.7734546661377</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8907661437988</t>
+    <t xml:space="preserve">12.8907642364502</t>
   </si>
   <si>
     <t xml:space="preserve">12.663537979126</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9344625473022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3052186965942</t>
+    <t xml:space="preserve">12.9344635009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3052177429199</t>
   </si>
   <si>
     <t xml:space="preserve">11.9294185638428</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7458896636963</t>
+    <t xml:space="preserve">11.7458906173706</t>
   </si>
   <si>
     <t xml:space="preserve">10.6010160446167</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">9.67462825775146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99798965454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29815673828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96672821044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4904260635376</t>
+    <t xml:space="preserve">9.9979887008667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29815769195557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96672916412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49042510986328</t>
   </si>
   <si>
     <t xml:space="preserve">8.53412342071533</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1714334487915</t>
+    <t xml:space="preserve">8.17143440246582</t>
   </si>
   <si>
     <t xml:space="preserve">7.86555147171021</t>
@@ -2459,46 +2459,46 @@
     <t xml:space="preserve">9.24639225006104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83193969726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69210815429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71832656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33378791809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41244411468506</t>
+    <t xml:space="preserve">9.66588878631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72706508636475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83193874359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69210720062256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7183256149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3337869644165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.78824138641357</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73580551147461</t>
+    <t xml:space="preserve">9.73580455780029</t>
   </si>
   <si>
     <t xml:space="preserve">9.87563705444336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3563098907471</t>
+    <t xml:space="preserve">10.3563108444214</t>
   </si>
   <si>
     <t xml:space="preserve">10.4000072479248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.312611579895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0154676437378</t>
+    <t xml:space="preserve">10.3126125335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0154685974121</t>
   </si>
   <si>
     <t xml:space="preserve">10.1378221511841</t>
@@ -2507,16 +2507,16 @@
     <t xml:space="preserve">10.2339563369751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3213510513306</t>
+    <t xml:space="preserve">10.3213529586792</t>
   </si>
   <si>
     <t xml:space="preserve">10.5660581588745</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5922765731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7058897018433</t>
+    <t xml:space="preserve">10.5922756195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7058887481689</t>
   </si>
   <si>
     <t xml:space="preserve">11.2215204238892</t>
@@ -2528,16 +2528,16 @@
     <t xml:space="preserve">11.230260848999</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2252168655396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1203422546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0416870117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55227565765381</t>
+    <t xml:space="preserve">10.2252159118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1203441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0416860580444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55227470397949</t>
   </si>
   <si>
     <t xml:space="preserve">9.76202297210693</t>
@@ -2549,13 +2549,13 @@
     <t xml:space="preserve">9.47362041473389</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50857830047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49983787536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61345195770264</t>
+    <t xml:space="preserve">9.50857734680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49983882904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61345291137695</t>
   </si>
   <si>
     <t xml:space="preserve">9.09782123565674</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">9.16773700714111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08908176422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52605724334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96303272247314</t>
+    <t xml:space="preserve">9.08908081054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52605628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96303176879883</t>
   </si>
   <si>
     <t xml:space="preserve">9.88437747955322</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1116027832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4837064743042</t>
+    <t xml:space="preserve">10.1116037368774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4837055206299</t>
   </si>
   <si>
     <t xml:space="preserve">11.1166467666626</t>
@@ -2591,10 +2591,10 @@
     <t xml:space="preserve">10.5048809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86689758300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2275362014771</t>
+    <t xml:space="preserve">9.86689853668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2275371551514</t>
   </si>
   <si>
     <t xml:space="preserve">10.5146265029907</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">10.4518251419067</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4697694778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4338827133179</t>
+    <t xml:space="preserve">10.4697685241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4338817596436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3262243270874</t>
@@ -2636,16 +2636,16 @@
     <t xml:space="preserve">9.66233158111572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77896118164062</t>
+    <t xml:space="preserve">9.77896213531494</t>
   </si>
   <si>
     <t xml:space="preserve">9.74307537078857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65335941314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4021577835083</t>
+    <t xml:space="preserve">9.65336036682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40215682983398</t>
   </si>
   <si>
     <t xml:space="preserve">9.23169898986816</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">9.14198303222656</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83279037475586</t>
+    <t xml:space="preserve">9.83279132843018</t>
   </si>
   <si>
     <t xml:space="preserve">9.44701480865479</t>
@@ -2666,31 +2666,31 @@
     <t xml:space="preserve">9.60850238800049</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4290714263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58158874511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46495723724365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69821929931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53672981262207</t>
+    <t xml:space="preserve">9.42907238006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58158779144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46495819091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69821834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53673076629639</t>
   </si>
   <si>
     <t xml:space="preserve">9.24964141845703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6222848892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7119998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.703028678894</t>
+    <t xml:space="preserve">10.6222839355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7119989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7030277252197</t>
   </si>
   <si>
     <t xml:space="preserve">11.268235206604</t>
@@ -2699,37 +2699,37 @@
     <t xml:space="preserve">11.393835067749</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6181230545044</t>
+    <t xml:space="preserve">11.6181240081787</t>
   </si>
   <si>
     <t xml:space="preserve">11.7706394195557</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3758935928345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1785192489624</t>
+    <t xml:space="preserve">11.3758926391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1785182952881</t>
   </si>
   <si>
     <t xml:space="preserve">11.0798330307007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9093732833862</t>
+    <t xml:space="preserve">10.9093723297119</t>
   </si>
   <si>
     <t xml:space="preserve">10.8286294937134</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5594844818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4966840744019</t>
+    <t xml:space="preserve">10.5594854354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4966831207275</t>
   </si>
   <si>
     <t xml:space="preserve">10.3979959487915</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2454814910889</t>
+    <t xml:space="preserve">10.2454805374146</t>
   </si>
   <si>
     <t xml:space="preserve">10.2006225585938</t>
@@ -2738,28 +2738,28 @@
     <t xml:space="preserve">10.3621101379395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3800525665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2903385162354</t>
+    <t xml:space="preserve">10.3800535202026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2903394699097</t>
   </si>
   <si>
     <t xml:space="preserve">10.2185668945312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.039134979248</t>
+    <t xml:space="preserve">10.0391359329224</t>
   </si>
   <si>
     <t xml:space="preserve">10.0122203826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91353511810303</t>
+    <t xml:space="preserve">9.91353416442871</t>
   </si>
   <si>
     <t xml:space="preserve">10.003249168396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2634229660034</t>
+    <t xml:space="preserve">10.2634239196777</t>
   </si>
   <si>
     <t xml:space="preserve">10.5953702926636</t>
@@ -2768,22 +2768,22 @@
     <t xml:space="preserve">11.0170316696167</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0349740982056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7389135360718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5505123138428</t>
+    <t xml:space="preserve">11.0349750518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7389144897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5505132675171</t>
   </si>
   <si>
     <t xml:space="preserve">10.6581707000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402282714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7748003005981</t>
+    <t xml:space="preserve">10.6402273178101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7748022079468</t>
   </si>
   <si>
     <t xml:space="preserve">10.9721736907959</t>
@@ -2810,25 +2810,25 @@
     <t xml:space="preserve">10.7478847503662</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0750217437744</t>
+    <t xml:space="preserve">10.0750207901001</t>
   </si>
   <si>
     <t xml:space="preserve">10.3351964950562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2544536590576</t>
+    <t xml:space="preserve">10.2544527053833</t>
   </si>
   <si>
     <t xml:space="preserve">10.0839929580688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.128851890564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86867618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24066925048828</t>
+    <t xml:space="preserve">10.1288509368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86867713928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2406702041626</t>
   </si>
   <si>
     <t xml:space="preserve">9.06124019622803</t>
@@ -2837,19 +2837,19 @@
     <t xml:space="preserve">8.59023475646973</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76069450378418</t>
+    <t xml:space="preserve">8.76069355010986</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283802032471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36627101898193</t>
+    <t xml:space="preserve">9.36627006530762</t>
   </si>
   <si>
     <t xml:space="preserve">9.41112804412842</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12403964996338</t>
+    <t xml:space="preserve">9.1240406036377</t>
   </si>
   <si>
     <t xml:space="preserve">9.22272682189941</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">9.94942092895508</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1964626312256</t>
+    <t xml:space="preserve">11.1964616775513</t>
   </si>
   <si>
     <t xml:space="preserve">11.4297208786011</t>
@@ -2873,16 +2873,16 @@
     <t xml:space="preserve">12.658821105957</t>
   </si>
   <si>
-    <t xml:space="preserve">12.685736656189</t>
+    <t xml:space="preserve">12.6857347488403</t>
   </si>
   <si>
     <t xml:space="preserve">12.8920803070068</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2012729644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8113355636597</t>
+    <t xml:space="preserve">12.2012720108032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.811336517334</t>
   </si>
   <si>
     <t xml:space="preserve">12.5152759552002</t>
@@ -2891,25 +2891,25 @@
     <t xml:space="preserve">12.4345321655273</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5332193374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9949283599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3896751403809</t>
+    <t xml:space="preserve">12.5332202911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.994927406311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3896760940552</t>
   </si>
   <si>
     <t xml:space="preserve">12.2909879684448</t>
   </si>
   <si>
-    <t xml:space="preserve">12.308931350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2640733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3807029724121</t>
+    <t xml:space="preserve">12.3089323043823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2640743255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3807039260864</t>
   </si>
   <si>
     <t xml:space="preserve">12.4524745941162</t>
@@ -2918,7 +2918,7 @@
     <t xml:space="preserve">12.3627595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">12.210244178772</t>
+    <t xml:space="preserve">12.2102432250977</t>
   </si>
   <si>
     <t xml:space="preserve">12.3268737792969</t>
@@ -2930,19 +2930,19 @@
     <t xml:space="preserve">12.9907665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0087089538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8203077316284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.74853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9010515213013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8741388320923</t>
+    <t xml:space="preserve">13.0087099075317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8203086853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7485361099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9010524749756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.874137878418</t>
   </si>
   <si>
     <t xml:space="preserve">13.1163682937622</t>
@@ -2951,7 +2951,7 @@
     <t xml:space="preserve">12.560133934021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7754497528076</t>
+    <t xml:space="preserve">12.7754507064819</t>
   </si>
   <si>
     <t xml:space="preserve">12.847222328186</t>
@@ -2966,7 +2966,7 @@
     <t xml:space="preserve">13.1522541046143</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1791677474976</t>
+    <t xml:space="preserve">13.1791687011719</t>
   </si>
   <si>
     <t xml:space="preserve">13.2509422302246</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">13.161226272583</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3316841125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3675699234009</t>
+    <t xml:space="preserve">13.3316850662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3675708770752</t>
   </si>
   <si>
     <t xml:space="preserve">13.6636304855347</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">13.5649442672729</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6008319854736</t>
+    <t xml:space="preserve">13.6008310317993</t>
   </si>
   <si>
     <t xml:space="preserve">13.0984258651733</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">12.9638509750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2957983016968</t>
+    <t xml:space="preserve">13.2957992553711</t>
   </si>
   <si>
     <t xml:space="preserve">13.3227138519287</t>
@@ -3005,13 +3005,13 @@
     <t xml:space="preserve">13.2778558731079</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6546592712402</t>
+    <t xml:space="preserve">13.6546602249146</t>
   </si>
   <si>
     <t xml:space="preserve">13.762318611145</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5380296707153</t>
+    <t xml:space="preserve">13.5380306243896</t>
   </si>
   <si>
     <t xml:space="preserve">13.5739164352417</t>
@@ -3023,13 +3023,13 @@
     <t xml:space="preserve">14.3992958068848</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4800395965576</t>
+    <t xml:space="preserve">14.4800405502319</t>
   </si>
   <si>
     <t xml:space="preserve">14.7760992050171</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8837594985962</t>
+    <t xml:space="preserve">14.8837585449219</t>
   </si>
   <si>
     <t xml:space="preserve">14.7850704193115</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">14.1122074127197</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4710674285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0852918624878</t>
+    <t xml:space="preserve">14.4710683822632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0852928161621</t>
   </si>
   <si>
     <t xml:space="preserve">14.767128944397</t>
@@ -3056,16 +3056,16 @@
     <t xml:space="preserve">15.054217338562</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0990753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0093584060669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4130783081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5835390090942</t>
+    <t xml:space="preserve">15.0990734100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0093603134155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4130773544312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5835371017456</t>
   </si>
   <si>
     <t xml:space="preserve">15.7719402313232</t>
@@ -3074,19 +3074,19 @@
     <t xml:space="preserve">15.5207357406616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8389024734497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0003871917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1529035568237</t>
+    <t xml:space="preserve">14.8389015197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0003890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.152904510498</t>
   </si>
   <si>
     <t xml:space="preserve">16.7767505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1984119415283</t>
+    <t xml:space="preserve">17.198413848877</t>
   </si>
   <si>
     <t xml:space="preserve">16.4178886413574</t>
@@ -3098,34 +3098,34 @@
     <t xml:space="preserve">16.3371448516846</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3461151123047</t>
+    <t xml:space="preserve">16.3461170196533</t>
   </si>
   <si>
     <t xml:space="preserve">16.3640594482422</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5614337921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8437118530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9782838821411</t>
+    <t xml:space="preserve">16.5614318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.843710899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9782829284668</t>
   </si>
   <si>
     <t xml:space="preserve">15.7629690170288</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8526830673218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7360544204712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6463375091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6283960342407</t>
+    <t xml:space="preserve">15.8526840209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7360534667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6463394165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.628396987915</t>
   </si>
   <si>
     <t xml:space="preserve">15.6911954879761</t>
@@ -3134,37 +3134,37 @@
     <t xml:space="preserve">15.6822242736816</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6553115844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4669094085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5386810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8347406387329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4220514297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2874794006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2157030105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4848499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3143930435181</t>
+    <t xml:space="preserve">15.6553106307983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.466908454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5386800765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8347396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4220504760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2874784469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2157039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4848508834839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">15.3951349258423</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3323354721069</t>
+    <t xml:space="preserve">15.3323345184326</t>
   </si>
   <si>
     <t xml:space="preserve">15.5476512908936</t>
@@ -3173,28 +3173,28 @@
     <t xml:space="preserve">15.242621421814</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5027952194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6642789840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7091379165649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2336463928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.803014755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9824457168579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2253284454346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.898193359375</t>
+    <t xml:space="preserve">15.5027933120728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6642799377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7091398239136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2336483001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8030138015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9824466705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2253265380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8981914520264</t>
   </si>
   <si>
     <t xml:space="preserve">17.925106048584</t>
@@ -3206,16 +3206,16 @@
     <t xml:space="preserve">18.7684288024902</t>
   </si>
   <si>
-    <t xml:space="preserve">19.338264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9945545196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2297267913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9583721160889</t>
+    <t xml:space="preserve">19.3382625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9945526123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2297248840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9583740234375</t>
   </si>
   <si>
     <t xml:space="preserve">19.3563556671143</t>
@@ -3224,25 +3224,25 @@
     <t xml:space="preserve">19.3201751708984</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8809680938721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4648971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.62770652771</t>
+    <t xml:space="preserve">19.8809642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4648952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6277084350586</t>
   </si>
   <si>
     <t xml:space="preserve">19.5734348297119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4829845428467</t>
+    <t xml:space="preserve">19.4829864501953</t>
   </si>
   <si>
     <t xml:space="preserve">19.3744449615479</t>
   </si>
   <si>
-    <t xml:space="preserve">19.066915512085</t>
+    <t xml:space="preserve">19.0669136047363</t>
   </si>
   <si>
     <t xml:space="preserve">18.6870231628418</t>
@@ -3257,28 +3257,28 @@
     <t xml:space="preserve">18.7232036590576</t>
   </si>
   <si>
-    <t xml:space="preserve">19.2116355895996</t>
+    <t xml:space="preserve">19.211633682251</t>
   </si>
   <si>
     <t xml:space="preserve">18.777473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7412929534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6327533721924</t>
+    <t xml:space="preserve">18.7412948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.632755279541</t>
   </si>
   <si>
     <t xml:space="preserve">18.5061225891113</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2890434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3794937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.361400604248</t>
+    <t xml:space="preserve">18.289041519165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3794918060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3614025115967</t>
   </si>
   <si>
     <t xml:space="preserve">18.2347717285156</t>
@@ -3293,19 +3293,19 @@
     <t xml:space="preserve">18.1262321472168</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9905567169189</t>
+    <t xml:space="preserve">17.9905548095703</t>
   </si>
   <si>
     <t xml:space="preserve">17.8277435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6016178131104</t>
+    <t xml:space="preserve">17.601619720459</t>
   </si>
   <si>
     <t xml:space="preserve">17.9272422790527</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4518527984619</t>
+    <t xml:space="preserve">18.4518508911133</t>
   </si>
   <si>
     <t xml:space="preserve">18.3071327209473</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">16.8056583404541</t>
   </si>
   <si>
-    <t xml:space="preserve">16.552396774292</t>
+    <t xml:space="preserve">16.5523948669434</t>
   </si>
   <si>
     <t xml:space="preserve">16.9594230651855</t>
@@ -3329,10 +3329,10 @@
     <t xml:space="preserve">17.0770092010498</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8458366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7011165618896</t>
+    <t xml:space="preserve">17.8458347320557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.701114654541</t>
   </si>
   <si>
     <t xml:space="preserve">17.8367900848389</t>
@@ -3341,16 +3341,16 @@
     <t xml:space="preserve">17.8729705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2528629302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.216682434082</t>
+    <t xml:space="preserve">18.2528610229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2166805267334</t>
   </si>
   <si>
     <t xml:space="preserve">17.9996013641357</t>
   </si>
   <si>
-    <t xml:space="preserve">18.090051651001</t>
+    <t xml:space="preserve">18.0900535583496</t>
   </si>
   <si>
     <t xml:space="preserve">17.3212242126465</t>
@@ -3374,10 +3374,10 @@
     <t xml:space="preserve">17.8187026977539</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4207191467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.167459487915</t>
+    <t xml:space="preserve">17.4207210540771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1674575805664</t>
   </si>
   <si>
     <t xml:space="preserve">17.1312789916992</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">18.3433132171631</t>
   </si>
   <si>
-    <t xml:space="preserve">18.144323348999</t>
+    <t xml:space="preserve">18.1443214416504</t>
   </si>
   <si>
     <t xml:space="preserve">18.0448265075684</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0629177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7463397979736</t>
+    <t xml:space="preserve">18.062915802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7463417053223</t>
   </si>
   <si>
     <t xml:space="preserve">17.4930801391602</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1855487823486</t>
+    <t xml:space="preserve">17.1855506896973</t>
   </si>
   <si>
     <t xml:space="preserve">17.0317840576172</t>
@@ -3434,7 +3434,7 @@
     <t xml:space="preserve">16.4167213439941</t>
   </si>
   <si>
-    <t xml:space="preserve">16.2810478210449</t>
+    <t xml:space="preserve">16.2810459136963</t>
   </si>
   <si>
     <t xml:space="preserve">16.6699829101562</t>
@@ -3446,40 +3446,40 @@
     <t xml:space="preserve">16.7513885498047</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1905956268311</t>
+    <t xml:space="preserve">16.1905975341797</t>
   </si>
   <si>
     <t xml:space="preserve">15.9282903671265</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8197498321533</t>
+    <t xml:space="preserve">15.819748878479</t>
   </si>
   <si>
     <t xml:space="preserve">15.7654809951782</t>
   </si>
   <si>
-    <t xml:space="preserve">15.430814743042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.720253944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4127244949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6207609176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5845794677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4217672348022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5122203826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5031728744507</t>
+    <t xml:space="preserve">15.4308137893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7202548980713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4127254486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6207590103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5845804214478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4217691421509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5122184753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5031747817993</t>
   </si>
   <si>
     <t xml:space="preserve">15.9011554718018</t>
@@ -3491,25 +3491,25 @@
     <t xml:space="preserve">15.4850845336914</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3765430450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2137336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.0056982040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7795724868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3725471496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4449052810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.209734916687</t>
+    <t xml:space="preserve">15.3765439987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2137327194214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0056991577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7795715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3725461959839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4449062347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2097358703613</t>
   </si>
   <si>
     <t xml:space="preserve">14.2640066146851</t>
@@ -3530,19 +3530,19 @@
     <t xml:space="preserve">14.3182764053345</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5343055725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9333372116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8609771728516</t>
+    <t xml:space="preserve">16.5343074798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9333381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8609781265259</t>
   </si>
   <si>
     <t xml:space="preserve">14.5624923706055</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4991779327393</t>
+    <t xml:space="preserve">14.4991769790649</t>
   </si>
   <si>
     <t xml:space="preserve">14.4358615875244</t>
@@ -3551,40 +3551,40 @@
     <t xml:space="preserve">14.1826009750366</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9655199050903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.137375831604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4318647384644</t>
+    <t xml:space="preserve">13.965518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1373748779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.43186378479</t>
   </si>
   <si>
     <t xml:space="preserve">13.4861335754395</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3775930404663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7574834823608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4770879745483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2871427536011</t>
+    <t xml:space="preserve">13.3775939941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7574844360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4770889282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2871417999268</t>
   </si>
   <si>
     <t xml:space="preserve">13.7393932342529</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0197896957397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.893159866333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9202947616577</t>
+    <t xml:space="preserve">14.0197906494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8931589126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.920295715332</t>
   </si>
   <si>
     <t xml:space="preserve">13.5404043197632</t>
@@ -3593,10 +3593,10 @@
     <t xml:space="preserve">13.5765838623047</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9836091995239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6670341491699</t>
+    <t xml:space="preserve">13.9836101531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6670331954956</t>
   </si>
   <si>
     <t xml:space="preserve">13.6127643585205</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">13.8117551803589</t>
   </si>
   <si>
-    <t xml:space="preserve">13.793664932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8207988739014</t>
+    <t xml:space="preserve">13.7936639785767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8207998275757</t>
   </si>
   <si>
     <t xml:space="preserve">13.8569793701172</t>
@@ -3623,7 +3623,7 @@
     <t xml:space="preserve">13.9293394088745</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0740613937378</t>
+    <t xml:space="preserve">14.0740604400635</t>
   </si>
   <si>
     <t xml:space="preserve">13.8027095794678</t>
@@ -3641,13 +3641,13 @@
     <t xml:space="preserve">13.1333780288696</t>
   </si>
   <si>
-    <t xml:space="preserve">13.033881187439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0248374938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.843936920166</t>
+    <t xml:space="preserve">13.0338821411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0248365402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8439359664917</t>
   </si>
   <si>
     <t xml:space="preserve">12.8891611099243</t>
@@ -3659,10 +3659,10 @@
     <t xml:space="preserve">12.7353963851929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9575252532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8942089080811</t>
+    <t xml:space="preserve">11.9575242996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8942079544067</t>
   </si>
   <si>
     <t xml:space="preserve">12.1203346252441</t>
@@ -3671,34 +3671,34 @@
     <t xml:space="preserve">12.2198305130005</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1565141677856</t>
+    <t xml:space="preserve">12.15651512146</t>
   </si>
   <si>
     <t xml:space="preserve">12.4640455245972</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3012361526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8399391174316</t>
+    <t xml:space="preserve">12.3012351989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8399381637573</t>
   </si>
   <si>
     <t xml:space="preserve">11.7675790786743</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4057769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1977424621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.523362159729</t>
+    <t xml:space="preserve">11.4057779312134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1977415084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5233631134033</t>
   </si>
   <si>
     <t xml:space="preserve">11.4238681793213</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3334169387817</t>
+    <t xml:space="preserve">11.3334159851074</t>
   </si>
   <si>
     <t xml:space="preserve">11.1072912216187</t>
@@ -3713,10 +3713,10 @@
     <t xml:space="preserve">11.695219039917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4781370162964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0258865356445</t>
+    <t xml:space="preserve">11.4781379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0258855819702</t>
   </si>
   <si>
     <t xml:space="preserve">11.2520122528076</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">11.2248764038086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9806613922119</t>
+    <t xml:space="preserve">10.9806623458862</t>
   </si>
   <si>
     <t xml:space="preserve">11.3424625396729</t>
@@ -3746,13 +3746,13 @@
     <t xml:space="preserve">9.79576301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82289695739746</t>
+    <t xml:space="preserve">9.82289791107178</t>
   </si>
   <si>
     <t xml:space="preserve">10.3113288879395</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1123390197754</t>
+    <t xml:space="preserve">10.1123380661011</t>
   </si>
   <si>
     <t xml:space="preserve">9.67817783355713</t>
@@ -3767,19 +3767,19 @@
     <t xml:space="preserve">9.25306129455566</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12643146514893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10834121704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.49727725982666</t>
+    <t xml:space="preserve">9.12643051147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1083402633667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.49727630615234</t>
   </si>
   <si>
     <t xml:space="preserve">9.28924179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07216167449951</t>
+    <t xml:space="preserve">9.0721607208252</t>
   </si>
   <si>
     <t xml:space="preserve">8.93648529052734</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">8.84151268005371</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49780178070068</t>
+    <t xml:space="preserve">8.497802734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.46162128448486</t>
@@ -3809,7 +3809,7 @@
     <t xml:space="preserve">8.66061210632324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57468318939209</t>
+    <t xml:space="preserve">8.57468414306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.49327945709229</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">8.47518920898438</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58372974395752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53398132324219</t>
+    <t xml:space="preserve">8.5837287902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5339822769165</t>
   </si>
   <si>
     <t xml:space="preserve">8.64704513549805</t>
@@ -3836,28 +3836,28 @@
     <t xml:space="preserve">8.2988109588623</t>
   </si>
   <si>
-    <t xml:space="preserve">8.23097324371338</t>
+    <t xml:space="preserve">8.2309741973877</t>
   </si>
   <si>
     <t xml:space="preserve">8.42544174194336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22645092010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09529781341553</t>
+    <t xml:space="preserve">8.2264518737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09529876708984</t>
   </si>
   <si>
     <t xml:space="preserve">8.33951377868652</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24001884460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10434341430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14052391052246</t>
+    <t xml:space="preserve">8.24001789093018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10434246063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14052295684814</t>
   </si>
   <si>
     <t xml:space="preserve">8.01389312744141</t>
@@ -3866,22 +3866,22 @@
     <t xml:space="preserve">7.77872276306152</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89630794525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8646502494812</t>
+    <t xml:space="preserve">7.89630699157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86464929580688</t>
   </si>
   <si>
     <t xml:space="preserve">7.9912805557251</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8782172203064</t>
+    <t xml:space="preserve">7.87821769714355</t>
   </si>
   <si>
     <t xml:space="preserve">8.16861534118652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.82201147079468</t>
+    <t xml:space="preserve">7.82201099395752</t>
   </si>
   <si>
     <t xml:space="preserve">8.24824047088623</t>
@@ -3890,10 +3890,10 @@
     <t xml:space="preserve">8.27634429931641</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56205749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29507827758789</t>
+    <t xml:space="preserve">8.5620584487915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29507923126221</t>
   </si>
   <si>
     <t xml:space="preserve">8.13582897186279</t>
@@ -3914,10 +3914,10 @@
     <t xml:space="preserve">7.89695262908936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7470703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.39109754562378</t>
+    <t xml:space="preserve">7.74706983566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.39109802246094</t>
   </si>
   <si>
     <t xml:space="preserve">7.15222215652466</t>
@@ -3956,22 +3956,22 @@
     <t xml:space="preserve">6.87119150161743</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63700008392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66041898727417</t>
+    <t xml:space="preserve">6.63699960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66041946411133</t>
   </si>
   <si>
     <t xml:space="preserve">6.58547782897949</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35596942901611</t>
+    <t xml:space="preserve">6.35596990585327</t>
   </si>
   <si>
     <t xml:space="preserve">6.52927160263062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67915487289429</t>
+    <t xml:space="preserve">6.67915439605713</t>
   </si>
   <si>
     <t xml:space="preserve">6.71194171905518</t>
@@ -3986,16 +3986,16 @@
     <t xml:space="preserve">6.42622709274292</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26697635650635</t>
+    <t xml:space="preserve">6.26697683334351</t>
   </si>
   <si>
     <t xml:space="preserve">6.3700213432312</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45901393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68383884429932</t>
+    <t xml:space="preserve">6.45901441574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68383836746216</t>
   </si>
   <si>
     <t xml:space="preserve">6.63231611251831</t>
@@ -4004,16 +4004,16 @@
     <t xml:space="preserve">6.81030178070068</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75878000259399</t>
+    <t xml:space="preserve">6.75877952575684</t>
   </si>
   <si>
     <t xml:space="preserve">6.73536062240601</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66510248184204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82435321807861</t>
+    <t xml:space="preserve">6.6651029586792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82435369491577</t>
   </si>
   <si>
     <t xml:space="preserve">6.98828792572021</t>
@@ -4028,10 +4028,10 @@
     <t xml:space="preserve">6.99765539169312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6018705368042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55503177642822</t>
+    <t xml:space="preserve">7.60187101364136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55503225326538</t>
   </si>
   <si>
     <t xml:space="preserve">7.36299514770508</t>
@@ -4040,7 +4040,7 @@
     <t xml:space="preserve">7.38173055648804</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1241192817688</t>
+    <t xml:space="preserve">7.12411880493164</t>
   </si>
   <si>
     <t xml:space="preserve">7.20842838287354</t>
@@ -4061,7 +4061,7 @@
     <t xml:space="preserve">7.61123847961426</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32552480697632</t>
+    <t xml:space="preserve">7.32552433013916</t>
   </si>
   <si>
     <t xml:space="preserve">7.37704658508301</t>
@@ -4073,16 +4073,16 @@
     <t xml:space="preserve">8.34191703796387</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57142448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43091106414795</t>
+    <t xml:space="preserve">8.57142543792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43091011047363</t>
   </si>
   <si>
     <t xml:space="preserve">8.11709308624268</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02341651916504</t>
+    <t xml:space="preserve">8.02341556549072</t>
   </si>
   <si>
     <t xml:space="preserve">8.24355697631836</t>
@@ -4091,28 +4091,28 @@
     <t xml:space="preserve">8.10304164886475</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69086408615112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56908416748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44730424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54098081588745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72833442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7939076423645</t>
+    <t xml:space="preserve">7.69086313247681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56908369064331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44730377197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54098129272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72833395004272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79390811920166</t>
   </si>
   <si>
     <t xml:space="preserve">7.4285683631897</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6557354927063</t>
+    <t xml:space="preserve">6.65573501586914</t>
   </si>
   <si>
     <t xml:space="preserve">6.88524341583252</t>
@@ -4136,16 +4136,16 @@
     <t xml:space="preserve">6.11709403991699</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41685914993286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53863906860352</t>
+    <t xml:space="preserve">6.41685962677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53863954544067</t>
   </si>
   <si>
     <t xml:space="preserve">6.51053619384766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56205892562866</t>
+    <t xml:space="preserve">6.5620584487915</t>
   </si>
   <si>
     <t xml:space="preserve">6.45432996749878</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">6.76346349716187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71662569046021</t>
+    <t xml:space="preserve">6.71662521362305</t>
   </si>
   <si>
     <t xml:space="preserve">6.74472808837891</t>
@@ -4178,7 +4178,7 @@
     <t xml:space="preserve">6.68852186203003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83372163772583</t>
+    <t xml:space="preserve">6.83372116088867</t>
   </si>
   <si>
     <t xml:space="preserve">6.97891998291016</t>
@@ -4193,13 +4193,13 @@
     <t xml:space="preserve">7.0210747718811</t>
   </si>
   <si>
-    <t xml:space="preserve">6.74941158294678</t>
+    <t xml:space="preserve">6.74941205978394</t>
   </si>
   <si>
     <t xml:space="preserve">6.86650800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0117073059082</t>
+    <t xml:space="preserve">7.01170682907104</t>
   </si>
   <si>
     <t xml:space="preserve">7.1334867477417</t>
@@ -4220,19 +4220,19 @@
     <t xml:space="preserve">8.39343929290771</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33723258972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99531269073486</t>
+    <t xml:space="preserve">8.337233543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99531316757202</t>
   </si>
   <si>
     <t xml:space="preserve">7.90163707733154</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97189426422119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93442392349243</t>
+    <t xml:space="preserve">7.97189378738403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93442296981812</t>
   </si>
   <si>
     <t xml:space="preserve">7.86884927749634</t>
@@ -4241,22 +4241,22 @@
     <t xml:space="preserve">7.97657871246338</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91568756103516</t>
+    <t xml:space="preserve">7.91568851470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.12646102905273</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07493782043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92505598068237</t>
+    <t xml:space="preserve">8.07493877410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92505550384521</t>
   </si>
   <si>
     <t xml:space="preserve">7.77048921585083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83137798309326</t>
+    <t xml:space="preserve">7.83137845993042</t>
   </si>
   <si>
     <t xml:space="preserve">7.83606243133545</t>
@@ -4265,7 +4265,7 @@
     <t xml:space="preserve">7.75175333023071</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50819444656372</t>
+    <t xml:space="preserve">7.50819396972656</t>
   </si>
   <si>
     <t xml:space="preserve">7.47540712356567</t>
@@ -4280,10 +4280,10 @@
     <t xml:space="preserve">7.55034875869751</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47072315216064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71896696090698</t>
+    <t xml:space="preserve">7.4707236289978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71896648406982</t>
   </si>
   <si>
     <t xml:space="preserve">7.65339326858521</t>
@@ -4307,16 +4307,16 @@
     <t xml:space="preserve">8.56674194335938</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59016132354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04917621612549</t>
+    <t xml:space="preserve">8.59016036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0491771697998</t>
   </si>
   <si>
     <t xml:space="preserve">9.18032455444336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91803073883057</t>
+    <t xml:space="preserve">8.91802978515625</t>
   </si>
   <si>
     <t xml:space="preserve">8.89461040496826</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">8.96018314361572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94144916534424</t>
+    <t xml:space="preserve">8.94144821166992</t>
   </si>
   <si>
     <t xml:space="preserve">8.95550060272217</t>
@@ -4367,7 +4367,7 @@
     <t xml:space="preserve">8.44496250152588</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43559455871582</t>
+    <t xml:space="preserve">8.4355936050415</t>
   </si>
   <si>
     <t xml:space="preserve">8.46838092803955</t>
@@ -4382,31 +4382,31 @@
     <t xml:space="preserve">8.2154541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21077060699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04215240478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89226913452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70959854125977</t>
+    <t xml:space="preserve">8.21076965332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04215145111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89226865768433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70959901809692</t>
   </si>
   <si>
     <t xml:space="preserve">8.22013759613037</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26697635650635</t>
+    <t xml:space="preserve">8.26697540283203</t>
   </si>
   <si>
     <t xml:space="preserve">8.18266677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13114547729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25292491912842</t>
+    <t xml:space="preserve">8.13114452362061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2529239654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.30913066864014</t>
@@ -4418,43 +4418,43 @@
     <t xml:space="preserve">8.37002086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17798233032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31615686416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14753818511963</t>
+    <t xml:space="preserve">8.17798328399658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3161563873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.14753866195679</t>
   </si>
   <si>
     <t xml:space="preserve">7.52224540710449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40514993667603</t>
+    <t xml:space="preserve">7.40514945983887</t>
   </si>
   <si>
     <t xml:space="preserve">7.54566478729248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43325233459473</t>
+    <t xml:space="preserve">7.43325281143188</t>
   </si>
   <si>
     <t xml:space="preserve">7.3067889213562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20374488830566</t>
+    <t xml:space="preserve">7.20374441146851</t>
   </si>
   <si>
     <t xml:space="preserve">7.18969297409058</t>
   </si>
   <si>
-    <t xml:space="preserve">6.91803073883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04917812347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32084083557129</t>
+    <t xml:space="preserve">6.91803026199341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04917764663696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32084035873413</t>
   </si>
   <si>
     <t xml:space="preserve">7.06322908401489</t>
@@ -4463,7 +4463,7 @@
     <t xml:space="preserve">7.07728099822998</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96018505096436</t>
+    <t xml:space="preserve">6.9601845741272</t>
   </si>
   <si>
     <t xml:space="preserve">7.13817071914673</t>
@@ -4478,33 +4478,36 @@
     <t xml:space="preserve">7.09133243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94613313674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80093479156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79625082015991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60889673233032</t>
+    <t xml:space="preserve">6.94613361358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80093431472778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79625034332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60889720916748</t>
   </si>
   <si>
     <t xml:space="preserve">6.44964647293091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4730658531189</t>
+    <t xml:space="preserve">6.47306537628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59016180038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89349460601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80053758621216</t>
   </si>
   <si>
     <t xml:space="preserve">6.59016132354736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89349460601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80053758621216</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.56569910049438</t>
   </si>
   <si>
@@ -5148,6 +5151,9 @@
   </si>
   <si>
     <t xml:space="preserve">6.40000009536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21999979019165</t>
   </si>
 </sst>
 </file>
@@ -54413,7 +54419,7 @@
         <v>6.7350001335144</v>
       </c>
       <c r="G1882" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -54439,7 +54445,7 @@
         <v>6.71000003814697</v>
       </c>
       <c r="G1883" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -54465,7 +54471,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1884" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -54491,7 +54497,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G1885" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -54517,7 +54523,7 @@
         <v>6.84000015258789</v>
       </c>
       <c r="G1886" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -54543,7 +54549,7 @@
         <v>6.82999992370605</v>
       </c>
       <c r="G1887" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -54569,7 +54575,7 @@
         <v>6.82499980926514</v>
       </c>
       <c r="G1888" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -54595,7 +54601,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="G1889" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -54621,7 +54627,7 @@
         <v>7.01000022888184</v>
       </c>
       <c r="G1890" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -54647,7 +54653,7 @@
         <v>6.94500017166138</v>
       </c>
       <c r="G1891" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -54673,7 +54679,7 @@
         <v>7.00500011444092</v>
       </c>
       <c r="G1892" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -54699,7 +54705,7 @@
         <v>6.9850001335144</v>
       </c>
       <c r="G1893" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -54725,7 +54731,7 @@
         <v>6.99499988555908</v>
       </c>
       <c r="G1894" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -54751,7 +54757,7 @@
         <v>7.05999994277954</v>
       </c>
       <c r="G1895" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -54777,7 +54783,7 @@
         <v>7.2649998664856</v>
       </c>
       <c r="G1896" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -54803,7 +54809,7 @@
         <v>7.19999980926514</v>
       </c>
       <c r="G1897" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -54829,7 +54835,7 @@
         <v>7.18499994277954</v>
       </c>
       <c r="G1898" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -54855,7 +54861,7 @@
         <v>7.07999992370605</v>
       </c>
       <c r="G1899" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -54881,7 +54887,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1900" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -54907,7 +54913,7 @@
         <v>6.84999990463257</v>
       </c>
       <c r="G1901" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -54933,7 +54939,7 @@
         <v>6.88500022888184</v>
       </c>
       <c r="G1902" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -54959,7 +54965,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1903" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -54985,7 +54991,7 @@
         <v>6.81500005722046</v>
       </c>
       <c r="G1904" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -55011,7 +55017,7 @@
         <v>6.7649998664856</v>
       </c>
       <c r="G1905" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55037,7 +55043,7 @@
         <v>6.75</v>
       </c>
       <c r="G1906" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55089,7 +55095,7 @@
         <v>6.92000007629395</v>
       </c>
       <c r="G1908" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55141,7 +55147,7 @@
         <v>6.89499998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55167,7 +55173,7 @@
         <v>6.94000005722046</v>
       </c>
       <c r="G1911" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55193,7 +55199,7 @@
         <v>6.66499996185303</v>
       </c>
       <c r="G1912" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55219,7 +55225,7 @@
         <v>6.625</v>
       </c>
       <c r="G1913" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55245,7 +55251,7 @@
         <v>6.69000005722046</v>
       </c>
       <c r="G1914" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55271,7 +55277,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G1915" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55297,7 +55303,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1916" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55323,7 +55329,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G1917" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55349,7 +55355,7 @@
         <v>6.80000019073486</v>
       </c>
       <c r="G1918" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -55375,7 +55381,7 @@
         <v>6.67000007629395</v>
       </c>
       <c r="G1919" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -55401,7 +55407,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1920" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -55427,7 +55433,7 @@
         <v>6.70499992370605</v>
       </c>
       <c r="G1921" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -55453,7 +55459,7 @@
         <v>6.73000001907349</v>
       </c>
       <c r="G1922" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -55479,7 +55485,7 @@
         <v>6.70499992370605</v>
       </c>
       <c r="G1923" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -55505,7 +55511,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1924" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -55531,7 +55537,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G1925" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -55557,7 +55563,7 @@
         <v>6.63500022888184</v>
       </c>
       <c r="G1926" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -55583,7 +55589,7 @@
         <v>6.54500007629395</v>
       </c>
       <c r="G1927" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -55609,7 +55615,7 @@
         <v>6.64499998092651</v>
       </c>
       <c r="G1928" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -55635,7 +55641,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="G1929" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -55661,7 +55667,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G1930" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -55687,7 +55693,7 @@
         <v>6.625</v>
       </c>
       <c r="G1931" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -55713,7 +55719,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G1932" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -55739,7 +55745,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G1933" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -55765,7 +55771,7 @@
         <v>5.60500001907349</v>
       </c>
       <c r="G1934" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -55791,7 +55797,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G1935" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -55817,7 +55823,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G1936" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -55843,7 +55849,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="G1937" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -55869,7 +55875,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1938" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -55895,7 +55901,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G1939" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -55921,7 +55927,7 @@
         <v>6.2350001335144</v>
       </c>
       <c r="G1940" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -55947,7 +55953,7 @@
         <v>6.35500001907349</v>
       </c>
       <c r="G1941" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -55973,7 +55979,7 @@
         <v>6.24499988555908</v>
       </c>
       <c r="G1942" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -55999,7 +56005,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G1943" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56025,7 +56031,7 @@
         <v>6.125</v>
       </c>
       <c r="G1944" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56051,7 +56057,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G1945" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56077,7 +56083,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G1946" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56103,7 +56109,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G1947" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56129,7 +56135,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1948" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56155,7 +56161,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G1949" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56181,7 +56187,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1950" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56207,7 +56213,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G1951" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56233,7 +56239,7 @@
         <v>6.57000017166138</v>
       </c>
       <c r="G1952" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56259,7 +56265,7 @@
         <v>6.53499984741211</v>
       </c>
       <c r="G1953" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56285,7 +56291,7 @@
         <v>6.58500003814697</v>
       </c>
       <c r="G1954" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56311,7 +56317,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G1955" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -56337,7 +56343,7 @@
         <v>6.69500017166138</v>
       </c>
       <c r="G1956" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56363,7 +56369,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G1957" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -56389,7 +56395,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G1958" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -56415,7 +56421,7 @@
         <v>6.36499977111816</v>
       </c>
       <c r="G1959" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -56441,7 +56447,7 @@
         <v>6.23000001907349</v>
       </c>
       <c r="G1960" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -56467,7 +56473,7 @@
         <v>6.15999984741211</v>
       </c>
       <c r="G1961" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -56493,7 +56499,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G1962" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -56519,7 +56525,7 @@
         <v>6.07000017166138</v>
       </c>
       <c r="G1963" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -56545,7 +56551,7 @@
         <v>5.99499988555908</v>
       </c>
       <c r="G1964" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -56571,7 +56577,7 @@
         <v>5.9850001335144</v>
       </c>
       <c r="G1965" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -56597,7 +56603,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G1966" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -56623,7 +56629,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G1967" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -56649,7 +56655,7 @@
         <v>5.9850001335144</v>
       </c>
       <c r="G1968" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -56675,7 +56681,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G1969" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -56701,7 +56707,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G1970" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -56727,7 +56733,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G1971" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -56753,7 +56759,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G1972" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -56779,7 +56785,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G1973" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -56805,7 +56811,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G1974" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -56831,7 +56837,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1975" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -56857,7 +56863,7 @@
         <v>5.96500015258789</v>
       </c>
       <c r="G1976" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -56883,7 +56889,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G1977" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -56909,7 +56915,7 @@
         <v>6.05499982833862</v>
       </c>
       <c r="G1978" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -56935,7 +56941,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G1979" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -56961,7 +56967,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G1980" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -56987,7 +56993,7 @@
         <v>5.88500022888184</v>
       </c>
       <c r="G1981" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -57013,7 +57019,7 @@
         <v>5.79500007629395</v>
       </c>
       <c r="G1982" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57039,7 +57045,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G1983" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -57065,7 +57071,7 @@
         <v>5.63500022888184</v>
       </c>
       <c r="G1984" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57091,7 +57097,7 @@
         <v>5.69500017166138</v>
       </c>
       <c r="G1985" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57117,7 +57123,7 @@
         <v>5.55499982833862</v>
       </c>
       <c r="G1986" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57143,7 +57149,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G1987" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -57169,7 +57175,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G1988" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57195,7 +57201,7 @@
         <v>5.44500017166138</v>
       </c>
       <c r="G1989" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57221,7 +57227,7 @@
         <v>5.43499994277954</v>
       </c>
       <c r="G1990" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57247,7 +57253,7 @@
         <v>5.25500011444092</v>
       </c>
       <c r="G1991" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57273,7 +57279,7 @@
         <v>5.32499980926514</v>
       </c>
       <c r="G1992" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57299,7 +57305,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57325,7 +57331,7 @@
         <v>5.46500015258789</v>
       </c>
       <c r="G1994" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57351,7 +57357,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -57377,7 +57383,7 @@
         <v>5.61499977111816</v>
       </c>
       <c r="G1996" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -57403,7 +57409,7 @@
         <v>5.74499988555908</v>
       </c>
       <c r="G1997" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -57429,7 +57435,7 @@
         <v>5.92000007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -57455,7 +57461,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G1999" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -57481,7 +57487,7 @@
         <v>5.79500007629395</v>
       </c>
       <c r="G2000" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -57507,7 +57513,7 @@
         <v>5.92500019073486</v>
       </c>
       <c r="G2001" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -57533,7 +57539,7 @@
         <v>6</v>
       </c>
       <c r="G2002" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -57559,7 +57565,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -57585,7 +57591,7 @@
         <v>5.30000019073486</v>
       </c>
       <c r="G2004" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -57611,7 +57617,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G2005" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -57637,7 +57643,7 @@
         <v>5.66499996185303</v>
       </c>
       <c r="G2006" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -57663,7 +57669,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2007" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -57689,7 +57695,7 @@
         <v>5.52500009536743</v>
       </c>
       <c r="G2008" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -57715,7 +57721,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2009" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -57741,7 +57747,7 @@
         <v>5.50500011444092</v>
       </c>
       <c r="G2010" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -57767,7 +57773,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2011" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -57793,7 +57799,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2012" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -57819,7 +57825,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2013" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -57845,7 +57851,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2014" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -57871,7 +57877,7 @@
         <v>5.91499996185303</v>
       </c>
       <c r="G2015" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -57897,7 +57903,7 @@
         <v>6.02500009536743</v>
       </c>
       <c r="G2016" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -57923,7 +57929,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2017" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -57949,7 +57955,7 @@
         <v>6.09999990463257</v>
       </c>
       <c r="G2018" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -57975,7 +57981,7 @@
         <v>6.09499979019165</v>
       </c>
       <c r="G2019" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58001,7 +58007,7 @@
         <v>6.26999998092651</v>
       </c>
       <c r="G2020" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58027,7 +58033,7 @@
         <v>6.40500020980835</v>
       </c>
       <c r="G2021" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58053,7 +58059,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G2022" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58079,7 +58085,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G2023" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58105,7 +58111,7 @@
         <v>6.44500017166138</v>
       </c>
       <c r="G2024" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58131,7 +58137,7 @@
         <v>6.29500007629395</v>
       </c>
       <c r="G2025" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58157,7 +58163,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2026" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58183,7 +58189,7 @@
         <v>6.51999998092651</v>
       </c>
       <c r="G2027" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58209,7 +58215,7 @@
         <v>6.55000019073486</v>
       </c>
       <c r="G2028" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58235,7 +58241,7 @@
         <v>6.42999982833862</v>
       </c>
       <c r="G2029" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58261,7 +58267,7 @@
         <v>6.55499982833862</v>
       </c>
       <c r="G2030" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58287,7 +58293,7 @@
         <v>6.60500001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58313,7 +58319,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G2032" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58339,7 +58345,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G2033" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58365,7 +58371,7 @@
         <v>6.72499990463257</v>
       </c>
       <c r="G2034" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -58391,7 +58397,7 @@
         <v>6.78499984741211</v>
       </c>
       <c r="G2035" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -58417,7 +58423,7 @@
         <v>6.76000022888184</v>
       </c>
       <c r="G2036" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -58443,7 +58449,7 @@
         <v>6.59000015258789</v>
       </c>
       <c r="G2037" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -58469,7 +58475,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2038" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -58495,7 +58501,7 @@
         <v>6.38000011444092</v>
       </c>
       <c r="G2039" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -58521,7 +58527,7 @@
         <v>6.33500003814697</v>
       </c>
       <c r="G2040" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -58547,7 +58553,7 @@
         <v>6.44000005722046</v>
       </c>
       <c r="G2041" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -58573,7 +58579,7 @@
         <v>6.3899998664856</v>
       </c>
       <c r="G2042" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -58599,7 +58605,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G2043" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -58625,7 +58631,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2044" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -58651,7 +58657,7 @@
         <v>6.32499980926514</v>
       </c>
       <c r="G2045" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -58677,7 +58683,7 @@
         <v>6.28000020980835</v>
       </c>
       <c r="G2046" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58703,7 +58709,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2047" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -58729,7 +58735,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G2048" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58755,7 +58761,7 @@
         <v>6.17500019073486</v>
       </c>
       <c r="G2049" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58781,7 +58787,7 @@
         <v>6.07999992370605</v>
       </c>
       <c r="G2050" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58807,7 +58813,7 @@
         <v>6.17000007629395</v>
       </c>
       <c r="G2051" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58833,7 +58839,7 @@
         <v>6.20499992370605</v>
       </c>
       <c r="G2052" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58859,7 +58865,7 @@
         <v>6.27500009536743</v>
       </c>
       <c r="G2053" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58885,7 +58891,7 @@
         <v>6.32999992370605</v>
       </c>
       <c r="G2054" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58911,7 +58917,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G2055" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58937,7 +58943,7 @@
         <v>6.15500020980835</v>
       </c>
       <c r="G2056" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58963,7 +58969,7 @@
         <v>6.09000015258789</v>
       </c>
       <c r="G2057" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58989,7 +58995,7 @@
         <v>6.07499980926514</v>
       </c>
       <c r="G2058" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59015,7 +59021,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2059" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59041,7 +59047,7 @@
         <v>6.05999994277954</v>
       </c>
       <c r="G2060" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59067,7 +59073,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G2061" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59093,7 +59099,7 @@
         <v>5.96000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59119,7 +59125,7 @@
         <v>5.82000017166138</v>
       </c>
       <c r="G2063" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59145,7 +59151,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2064" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59171,7 +59177,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2065" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59197,7 +59203,7 @@
         <v>5.89499998092651</v>
       </c>
       <c r="G2066" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59223,7 +59229,7 @@
         <v>5.84499979019165</v>
       </c>
       <c r="G2067" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59249,7 +59255,7 @@
         <v>5.97499990463257</v>
       </c>
       <c r="G2068" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59275,7 +59281,7 @@
         <v>6.01999998092651</v>
       </c>
       <c r="G2069" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59301,7 +59307,7 @@
         <v>6.13500022888184</v>
       </c>
       <c r="G2070" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59327,7 +59333,7 @@
         <v>6.18499994277954</v>
       </c>
       <c r="G2071" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59353,7 +59359,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2072" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59379,7 +59385,7 @@
         <v>6.08500003814697</v>
       </c>
       <c r="G2073" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59405,7 +59411,7 @@
         <v>6.125</v>
       </c>
       <c r="G2074" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59431,7 +59437,7 @@
         <v>6.06500005722046</v>
       </c>
       <c r="G2075" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59457,7 +59463,7 @@
         <v>6.0149998664856</v>
       </c>
       <c r="G2076" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -59483,7 +59489,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2077" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -59509,7 +59515,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2078" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59535,7 +59541,7 @@
         <v>5.78999996185303</v>
       </c>
       <c r="G2079" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59561,7 +59567,7 @@
         <v>5.74499988555908</v>
       </c>
       <c r="G2080" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59587,7 +59593,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2081" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59613,7 +59619,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G2082" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59639,7 +59645,7 @@
         <v>5.7649998664856</v>
       </c>
       <c r="G2083" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59665,7 +59671,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2084" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59691,7 +59697,7 @@
         <v>5.82999992370605</v>
       </c>
       <c r="G2085" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59717,7 +59723,7 @@
         <v>5.80499982833862</v>
       </c>
       <c r="G2086" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -59743,7 +59749,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2087" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59769,7 +59775,7 @@
         <v>5.80999994277954</v>
       </c>
       <c r="G2088" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59795,7 +59801,7 @@
         <v>5.78000020980835</v>
       </c>
       <c r="G2089" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59821,7 +59827,7 @@
         <v>5.1100001335144</v>
       </c>
       <c r="G2090" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59847,7 +59853,7 @@
         <v>5.05000019073486</v>
       </c>
       <c r="G2091" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -59873,7 +59879,7 @@
         <v>5.21000003814697</v>
       </c>
       <c r="G2092" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59899,7 +59905,7 @@
         <v>5.15500020980835</v>
       </c>
       <c r="G2093" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59925,7 +59931,7 @@
         <v>5.07999992370605</v>
       </c>
       <c r="G2094" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59951,7 +59957,7 @@
         <v>5.34499979019165</v>
       </c>
       <c r="G2095" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59977,7 +59983,7 @@
         <v>5.54500007629395</v>
       </c>
       <c r="G2096" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60003,7 +60009,7 @@
         <v>5.59499979019165</v>
       </c>
       <c r="G2097" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60029,7 +60035,7 @@
         <v>5.65500020980835</v>
       </c>
       <c r="G2098" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60055,7 +60061,7 @@
         <v>5.73999977111816</v>
       </c>
       <c r="G2099" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60081,7 +60087,7 @@
         <v>5.63000011444092</v>
       </c>
       <c r="G2100" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60107,7 +60113,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G2101" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60133,7 +60139,7 @@
         <v>5.98000001907349</v>
       </c>
       <c r="G2102" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60159,7 +60165,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G2103" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60185,7 +60191,7 @@
         <v>5.94999980926514</v>
       </c>
       <c r="G2104" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60211,7 +60217,7 @@
         <v>5.84999990463257</v>
       </c>
       <c r="G2105" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60237,7 +60243,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2106" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60263,7 +60269,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2107" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60289,7 +60295,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2108" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60315,7 +60321,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G2109" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60341,7 +60347,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2110" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60367,7 +60373,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2111" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60393,7 +60399,7 @@
         <v>5.3899998664856</v>
       </c>
       <c r="G2112" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60419,7 +60425,7 @@
         <v>5.23999977111816</v>
       </c>
       <c r="G2113" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60445,7 +60451,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G2114" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60471,7 +60477,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60497,7 +60503,7 @@
         <v>5.46999979019165</v>
       </c>
       <c r="G2116" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60523,7 +60529,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G2117" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60549,7 +60555,7 @@
         <v>5.5</v>
       </c>
       <c r="G2118" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -60575,7 +60581,7 @@
         <v>5.67999982833862</v>
       </c>
       <c r="G2119" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60601,7 +60607,7 @@
         <v>5.69000005722046</v>
       </c>
       <c r="G2120" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60627,7 +60633,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2121" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60653,7 +60659,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60679,7 +60685,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2123" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60705,7 +60711,7 @@
         <v>5.69999980926514</v>
       </c>
       <c r="G2124" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60731,7 +60737,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2125" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60757,7 +60763,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2126" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60783,7 +60789,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2127" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60809,7 +60815,7 @@
         <v>5.88000011444092</v>
       </c>
       <c r="G2128" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60835,7 +60841,7 @@
         <v>5.8899998664856</v>
       </c>
       <c r="G2129" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60861,7 +60867,7 @@
         <v>5.80000019073486</v>
       </c>
       <c r="G2130" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60887,7 +60893,7 @@
         <v>6.26000022888184</v>
       </c>
       <c r="G2131" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60913,7 +60919,7 @@
         <v>6.03999996185303</v>
       </c>
       <c r="G2132" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60939,7 +60945,7 @@
         <v>5.86999988555908</v>
       </c>
       <c r="G2133" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60965,7 +60971,7 @@
         <v>5.84000015258789</v>
       </c>
       <c r="G2134" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60991,7 +60997,7 @@
         <v>6.19999980926514</v>
       </c>
       <c r="G2135" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61017,7 +61023,7 @@
         <v>6.17999982833862</v>
       </c>
       <c r="G2136" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61043,7 +61049,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G2137" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61069,7 +61075,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2138" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61095,7 +61101,7 @@
         <v>6.1399998664856</v>
       </c>
       <c r="G2139" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61121,7 +61127,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2140" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61147,7 +61153,7 @@
         <v>6.05000019073486</v>
       </c>
       <c r="G2141" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61173,7 +61179,7 @@
         <v>5.90999984741211</v>
       </c>
       <c r="G2142" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61199,7 +61205,7 @@
         <v>5.98999977111816</v>
       </c>
       <c r="G2143" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61225,7 +61231,7 @@
         <v>5.92999982833862</v>
       </c>
       <c r="G2144" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61251,7 +61257,7 @@
         <v>5.94000005722046</v>
       </c>
       <c r="G2145" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61277,7 +61283,7 @@
         <v>5.90000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61303,7 +61309,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2147" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61329,7 +61335,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2148" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61355,7 +61361,7 @@
         <v>5.71999979019165</v>
       </c>
       <c r="G2149" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61381,7 +61387,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2150" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61407,7 +61413,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2151" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61433,7 +61439,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2152" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61459,7 +61465,7 @@
         <v>5.6399998664856</v>
       </c>
       <c r="G2153" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61485,7 +61491,7 @@
         <v>5.71000003814697</v>
       </c>
       <c r="G2154" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61511,7 +61517,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2155" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61537,7 +61543,7 @@
         <v>5.76999998092651</v>
       </c>
       <c r="G2156" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61563,7 +61569,7 @@
         <v>5.65999984741211</v>
       </c>
       <c r="G2157" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61589,7 +61595,7 @@
         <v>5.65000009536743</v>
       </c>
       <c r="G2158" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61615,7 +61621,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2159" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61641,7 +61647,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2160" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61667,7 +61673,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61693,7 +61699,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G2162" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61719,7 +61725,7 @@
         <v>5.5</v>
       </c>
       <c r="G2163" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61745,7 +61751,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2164" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61771,7 +61777,7 @@
         <v>5.59000015258789</v>
       </c>
       <c r="G2165" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61797,7 +61803,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2166" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61823,7 +61829,7 @@
         <v>5.6100001335144</v>
       </c>
       <c r="G2167" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61849,7 +61855,7 @@
         <v>5.53999996185303</v>
       </c>
       <c r="G2168" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61875,7 +61881,7 @@
         <v>5.48999977111816</v>
       </c>
       <c r="G2169" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61901,7 +61907,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2170" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61927,7 +61933,7 @@
         <v>5.55999994277954</v>
       </c>
       <c r="G2171" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61953,7 +61959,7 @@
         <v>5.57999992370605</v>
       </c>
       <c r="G2172" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61979,7 +61985,7 @@
         <v>5.34999990463257</v>
       </c>
       <c r="G2173" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62005,7 +62011,7 @@
         <v>5.34000015258789</v>
       </c>
       <c r="G2174" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62031,7 +62037,7 @@
         <v>5.36999988555908</v>
       </c>
       <c r="G2175" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62057,7 +62063,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G2176" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62083,7 +62089,7 @@
         <v>5.38000011444092</v>
       </c>
       <c r="G2177" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62109,7 +62115,7 @@
         <v>5.44999980926514</v>
       </c>
       <c r="G2178" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62135,7 +62141,7 @@
         <v>5.40000009536743</v>
       </c>
       <c r="G2179" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62161,7 +62167,7 @@
         <v>5.42999982833862</v>
       </c>
       <c r="G2180" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62187,7 +62193,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2181" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62213,7 +62219,7 @@
         <v>5.46000003814697</v>
       </c>
       <c r="G2182" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62239,7 +62245,7 @@
         <v>5.40999984741211</v>
       </c>
       <c r="G2183" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62265,7 +62271,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G2184" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -62291,7 +62297,7 @@
         <v>5.51999998092651</v>
       </c>
       <c r="G2185" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -62317,7 +62323,7 @@
         <v>5.42000007629395</v>
       </c>
       <c r="G2186" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -62343,7 +62349,7 @@
         <v>5.51000022888184</v>
       </c>
       <c r="G2187" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -62369,7 +62375,7 @@
         <v>6.11999988555908</v>
       </c>
       <c r="G2188" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -62395,7 +62401,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G2189" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -62421,7 +62427,7 @@
         <v>6.1100001335144</v>
       </c>
       <c r="G2190" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -62447,7 +62453,7 @@
         <v>6.15000009536743</v>
       </c>
       <c r="G2191" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -62473,7 +62479,7 @@
         <v>6.30000019073486</v>
       </c>
       <c r="G2192" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -62499,7 +62505,7 @@
         <v>6.19000005722046</v>
       </c>
       <c r="G2193" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -62525,7 +62531,7 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G2194" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -62551,7 +62557,7 @@
         <v>6.42000007629395</v>
       </c>
       <c r="G2195" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -62577,7 +62583,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="G2196" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -62603,7 +62609,7 @@
         <v>6.5</v>
       </c>
       <c r="G2197" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -62629,7 +62635,7 @@
         <v>6.42000007629395</v>
       </c>
       <c r="G2198" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -62655,7 +62661,7 @@
         <v>6.65000009536743</v>
       </c>
       <c r="G2199" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -62681,7 +62687,7 @@
         <v>6.53999996185303</v>
       </c>
       <c r="G2200" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -62707,7 +62713,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G2201" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -62733,7 +62739,7 @@
         <v>6.63000011444092</v>
       </c>
       <c r="G2202" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -62759,7 +62765,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2203" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -62785,7 +62791,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2204" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -62811,7 +62817,7 @@
         <v>6.61999988555908</v>
       </c>
       <c r="G2205" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -62837,7 +62843,7 @@
         <v>6.67999982833862</v>
       </c>
       <c r="G2206" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -62863,7 +62869,7 @@
         <v>6.55999994277954</v>
       </c>
       <c r="G2207" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -62889,7 +62895,7 @@
         <v>6.36999988555908</v>
       </c>
       <c r="G2208" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -62915,7 +62921,7 @@
         <v>6.40000009536743</v>
       </c>
       <c r="G2209" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -62923,7 +62929,7 @@
     </row>
     <row r="2210">
       <c r="A2210" s="1" t="n">
-        <v>45540.6493055556</v>
+        <v>45540.2916666667</v>
       </c>
       <c r="B2210" t="n">
         <v>33279</v>
@@ -62941,9 +62947,35 @@
         <v>6.34000015258789</v>
       </c>
       <c r="G2210" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="H2210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" s="1" t="n">
+        <v>45541.6495023148</v>
+      </c>
+      <c r="B2211" t="n">
+        <v>62406</v>
+      </c>
+      <c r="C2211" t="n">
+        <v>6.32999992370605</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>6.19999980926514</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>6.32999992370605</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>6.21999979019165</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H2211" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DAL.MI.xlsx
+++ b/data/DAL.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">DAL.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1229209899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1147947311401</t>
+    <t xml:space="preserve">13.1229219436646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1147956848145</t>
   </si>
   <si>
     <t xml:space="preserve">12.8060216903687</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">12.1884717941284</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5947551727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8547744750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3179359436035</t>
+    <t xml:space="preserve">12.5947542190552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.854775428772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3179378509521</t>
   </si>
   <si>
     <t xml:space="preserve">12.8385238647461</t>
@@ -80,10 +80,10 @@
     <t xml:space="preserve">12.3753614425659</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7003889083862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4972486495972</t>
+    <t xml:space="preserve">12.7003879547119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4972467422485</t>
   </si>
   <si>
     <t xml:space="preserve">12.6678857803345</t>
@@ -92,40 +92,40 @@
     <t xml:space="preserve">12.5134973526001</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0828380584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9447031021118</t>
+    <t xml:space="preserve">12.082839012146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9447021484375</t>
   </si>
   <si>
     <t xml:space="preserve">12.3022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">11.432785987854</t>
+    <t xml:space="preserve">11.4327869415283</t>
   </si>
   <si>
     <t xml:space="preserve">11.286524772644</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7659368515015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4002838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7984418869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8471956253052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.660304069519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1722211837769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8228168487549</t>
+    <t xml:space="preserve">11.7659378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4002828598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7984409332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8471946716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6603050231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1722192764282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8228187561035</t>
   </si>
   <si>
     <t xml:space="preserve">12.0259580612183</t>
@@ -134,13 +134,13 @@
     <t xml:space="preserve">12.1478433609009</t>
   </si>
   <si>
-    <t xml:space="preserve">11.985330581665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9772043228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7009325027466</t>
+    <t xml:space="preserve">11.9853296279907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9772033691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7009334564209</t>
   </si>
   <si>
     <t xml:space="preserve">11.4815397262573</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">12.2859802246094</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7166385650635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.757266998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.554126739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.432240486145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4728679656982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4403686523438</t>
+    <t xml:space="preserve">12.7166376113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7572679519653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5541248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4322423934937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4728708267212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4403667449951</t>
   </si>
   <si>
     <t xml:space="preserve">13.1635494232178</t>
@@ -173,19 +173,19 @@
     <t xml:space="preserve">13.3260622024536</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2935600280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4885749816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6267137527466</t>
+    <t xml:space="preserve">13.2935609817505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4885768890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6267108917236</t>
   </si>
   <si>
     <t xml:space="preserve">13.7242183685303</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6917161941528</t>
+    <t xml:space="preserve">13.6917181015015</t>
   </si>
   <si>
     <t xml:space="preserve">13.8136014938354</t>
@@ -194,46 +194,46 @@
     <t xml:space="preserve">13.9354867935181</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9598627090454</t>
+    <t xml:space="preserve">13.959864616394</t>
   </si>
   <si>
     <t xml:space="preserve">13.7160930633545</t>
   </si>
   <si>
-    <t xml:space="preserve">13.382942199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0904188156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4641981124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.456072807312</t>
+    <t xml:space="preserve">13.3829402923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0904178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4641990661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4560718536377</t>
   </si>
   <si>
     <t xml:space="preserve">13.5454559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3341875076294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3666925430298</t>
+    <t xml:space="preserve">13.334189414978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3666915893555</t>
   </si>
   <si>
     <t xml:space="preserve">13.4398231506348</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4235706329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3748159408569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.033540725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9360303878784</t>
+    <t xml:space="preserve">13.4235715866089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3748149871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0335397720337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9360322952271</t>
   </si>
   <si>
     <t xml:space="preserve">12.9847841262817</t>
@@ -242,10 +242,10 @@
     <t xml:space="preserve">13.2041788101196</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9197816848755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7978963851929</t>
+    <t xml:space="preserve">12.9197807312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7978954315186</t>
   </si>
   <si>
     <t xml:space="preserve">12.6922626495361</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">12.9116544723511</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0655088424683</t>
+    <t xml:space="preserve">13.0655097961426</t>
   </si>
   <si>
     <t xml:space="preserve">12.470871925354</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">12.3056945800781</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2396230697632</t>
+    <t xml:space="preserve">12.2396221160889</t>
   </si>
   <si>
     <t xml:space="preserve">12.5452003479004</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">12.6195306777954</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5864953994751</t>
+    <t xml:space="preserve">12.5864963531494</t>
   </si>
   <si>
     <t xml:space="preserve">12.6112718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8260021209717</t>
+    <t xml:space="preserve">12.8260011672974</t>
   </si>
   <si>
     <t xml:space="preserve">13.0489912033081</t>
   </si>
   <si>
-    <t xml:space="preserve">13.148097038269</t>
+    <t xml:space="preserve">13.1480960845947</t>
   </si>
   <si>
     <t xml:space="preserve">13.214168548584</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">13.3710870742798</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1646146774292</t>
+    <t xml:space="preserve">13.1646137237549</t>
   </si>
   <si>
     <t xml:space="preserve">13.2059087753296</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1563577651978</t>
+    <t xml:space="preserve">13.1563558578491</t>
   </si>
   <si>
     <t xml:space="preserve">12.9333658218384</t>
@@ -317,19 +317,19 @@
     <t xml:space="preserve">12.6360483169556</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0496702194214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7027978897095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5871715545654</t>
+    <t xml:space="preserve">12.0496711730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7027969360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5871725082397</t>
   </si>
   <si>
     <t xml:space="preserve">11.1659736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3724431991577</t>
+    <t xml:space="preserve">11.372444152832</t>
   </si>
   <si>
     <t xml:space="preserve">11.9092693328857</t>
@@ -341,19 +341,19 @@
     <t xml:space="preserve">11.9175281524658</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6697635650635</t>
+    <t xml:space="preserve">11.6697616577148</t>
   </si>
   <si>
     <t xml:space="preserve">11.7936449050903</t>
   </si>
   <si>
-    <t xml:space="preserve">11.042088508606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3400859832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7365121841431</t>
+    <t xml:space="preserve">11.0420894622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3400850296021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7365112304688</t>
   </si>
   <si>
     <t xml:space="preserve">11.3146314620972</t>
@@ -365,34 +365,34 @@
     <t xml:space="preserve">11.9423046112061</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5293626785278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2733364105225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2155256271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5128440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0331506729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0579290390015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8762331008911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2065877914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8927516937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1900701522827</t>
+    <t xml:space="preserve">11.5293607711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2733373641968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2155246734619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.512843132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0331516265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0579299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8762350082397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2065868377686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8927507400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1900720596313</t>
   </si>
   <si>
     <t xml:space="preserve">12.1074829101562</t>
@@ -401,28 +401,28 @@
     <t xml:space="preserve">12.5121650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7599306106567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2306871414185</t>
+    <t xml:space="preserve">12.7599315643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2306861877441</t>
   </si>
   <si>
     <t xml:space="preserve">13.3958625793457</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3380508422852</t>
+    <t xml:space="preserve">13.3380517959595</t>
   </si>
   <si>
     <t xml:space="preserve">13.4701929092407</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5032300949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3297910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4206380844116</t>
+    <t xml:space="preserve">13.5032291412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3297920227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4206390380859</t>
   </si>
   <si>
     <t xml:space="preserve">13.7014408111572</t>
@@ -431,46 +431,46 @@
     <t xml:space="preserve">14.6264314651489</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2878198623657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7255363464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2217483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5355854034424</t>
+    <t xml:space="preserve">14.28782081604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7255382537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2217473983765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5355844497681</t>
   </si>
   <si>
     <t xml:space="preserve">15.0806694030762</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1549987792969</t>
+    <t xml:space="preserve">15.1549978256226</t>
   </si>
   <si>
     <t xml:space="preserve">15.0145988464355</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2128114700317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9898223876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7833499908447</t>
+    <t xml:space="preserve">15.2128076553345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9898204803467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7833490371704</t>
   </si>
   <si>
     <t xml:space="preserve">14.6925029754639</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0393762588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1467418670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5183925628662</t>
+    <t xml:space="preserve">15.0393772125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1467409133911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5183897018433</t>
   </si>
   <si>
     <t xml:space="preserve">15.5514249801636</t>
@@ -479,19 +479,19 @@
     <t xml:space="preserve">15.5266456604004</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4853544235229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4440593719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7000818252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8322267532349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8652620315552</t>
+    <t xml:space="preserve">15.4853525161743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4440603256226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.700080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8322229385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8652610778809</t>
   </si>
   <si>
     <t xml:space="preserve">15.7661561965942</t>
@@ -500,106 +500,106 @@
     <t xml:space="preserve">15.6918249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2623643875122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1137037277222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2293281555176</t>
+    <t xml:space="preserve">15.2623634338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1137046813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2293291091919</t>
   </si>
   <si>
     <t xml:space="preserve">15.1797742843628</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2871417999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8982963562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8487424850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6174964904785</t>
+    <t xml:space="preserve">15.2871408462524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8982954025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8487453460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6174955368042</t>
   </si>
   <si>
     <t xml:space="preserve">15.1962938308716</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7991876602173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6587886810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5679426193237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9395885467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6257562637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4110260009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.278881072998</t>
+    <t xml:space="preserve">15.7991886138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6587867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.567943572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6257543563843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4110231399536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2788829803467</t>
   </si>
   <si>
     <t xml:space="preserve">15.6009759902954</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7331190109253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7166042327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7744112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7083406448364</t>
+    <t xml:space="preserve">15.7331199645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7166013717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7744121551514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7083435058594</t>
   </si>
   <si>
     <t xml:space="preserve">15.5844593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">15.03111743927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3614730834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6505336761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2210731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9237518310547</t>
+    <t xml:space="preserve">15.0311183929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3614692687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6505327224731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2210702896118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9237508773804</t>
   </si>
   <si>
     <t xml:space="preserve">14.9402685165405</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4860315322876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8081274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6594686508179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8659410476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5933971405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7916097640991</t>
+    <t xml:space="preserve">14.4860334396362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8081283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6594676971436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8659400939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5933990478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7916088104248</t>
   </si>
   <si>
     <t xml:space="preserve">14.9485282897949</t>
@@ -608,103 +608,103 @@
     <t xml:space="preserve">14.8411617279053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6842432022095</t>
+    <t xml:space="preserve">14.6842441558838</t>
   </si>
   <si>
     <t xml:space="preserve">14.4777736663818</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7007627487183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.320855140686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0400543212891</t>
+    <t xml:space="preserve">14.7007598876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3208560943604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0400533676147</t>
   </si>
   <si>
     <t xml:space="preserve">13.7592525482178</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7179594039917</t>
+    <t xml:space="preserve">13.7179584503174</t>
   </si>
   <si>
     <t xml:space="preserve">13.536262512207</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2967567443848</t>
+    <t xml:space="preserve">13.2967576980591</t>
   </si>
   <si>
     <t xml:space="preserve">13.6684045791626</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9492063522339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.13916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.27956199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5768785476685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3704071044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3779888153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.4358015060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1054458618164</t>
+    <t xml:space="preserve">13.9492053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1391592025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2795610427856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5768814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3704080581665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3779878616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4358024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1054449081421</t>
   </si>
   <si>
     <t xml:space="preserve">15.2375888824463</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3119163513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.667046546936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0139198303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9643669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.9478492736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8735189437866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7909336090088</t>
+    <t xml:space="preserve">15.311918258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6670446395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0139217376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9643688201904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.947850227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8735198974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7909326553345</t>
   </si>
   <si>
     <t xml:space="preserve">16.022180557251</t>
   </si>
   <si>
-    <t xml:space="preserve">15.91481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8157081604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.5101318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6092367172241</t>
+    <t xml:space="preserve">15.9148120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8157062530518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5101337432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6092357635498</t>
   </si>
   <si>
     <t xml:space="preserve">16.2451686859131</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3112411499023</t>
+    <t xml:space="preserve">16.3112392425537</t>
   </si>
   <si>
     <t xml:space="preserve">16.3194999694824</t>
@@ -716,13 +716,13 @@
     <t xml:space="preserve">16.4351215362549</t>
   </si>
   <si>
-    <t xml:space="preserve">16.7819938659668</t>
+    <t xml:space="preserve">16.7819919586182</t>
   </si>
   <si>
     <t xml:space="preserve">16.7324409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">16.9719467163086</t>
+    <t xml:space="preserve">16.9719486236572</t>
   </si>
   <si>
     <t xml:space="preserve">17.0215015411377</t>
@@ -737,13 +737,13 @@
     <t xml:space="preserve">16.6002979278564</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5837821960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4020843505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1873569488525</t>
+    <t xml:space="preserve">16.5837802886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4020862579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1873550415039</t>
   </si>
   <si>
     <t xml:space="preserve">16.5177097320557</t>
@@ -752,34 +752,34 @@
     <t xml:space="preserve">16.4268646240234</t>
   </si>
   <si>
-    <t xml:space="preserve">16.4681568145752</t>
+    <t xml:space="preserve">16.4681587219238</t>
   </si>
   <si>
     <t xml:space="preserve">16.9141368865967</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3435955047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4261875152588</t>
+    <t xml:space="preserve">17.3435974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4261856079102</t>
   </si>
   <si>
     <t xml:space="preserve">17.4922542572021</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8391284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9795265197754</t>
+    <t xml:space="preserve">17.8391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.979528427124</t>
   </si>
   <si>
     <t xml:space="preserve">18.2438106536865</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8714828491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.2431316375732</t>
+    <t xml:space="preserve">18.8714847564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2431297302246</t>
   </si>
   <si>
     <t xml:space="preserve">19.2183570861816</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">19.5239334106445</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7799549102783</t>
+    <t xml:space="preserve">19.779956817627</t>
   </si>
   <si>
     <t xml:space="preserve">19.9038429260254</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">19.9203586578369</t>
   </si>
   <si>
-    <t xml:space="preserve">19.9616546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.2754878997803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0194664001465</t>
+    <t xml:space="preserve">19.9616527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2754898071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0194644927979</t>
   </si>
   <si>
     <t xml:space="preserve">20.1268329620361</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">20.1516056060791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2341976165771</t>
+    <t xml:space="preserve">20.2341938018799</t>
   </si>
   <si>
     <t xml:space="preserve">19.8955821990967</t>
@@ -824,28 +824,28 @@
     <t xml:space="preserve">19.821252822876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0607585906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9781723022461</t>
+    <t xml:space="preserve">20.0607624053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9781742095947</t>
   </si>
   <si>
     <t xml:space="preserve">19.5734882354736</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5817451477051</t>
+    <t xml:space="preserve">19.5817470550537</t>
   </si>
   <si>
     <t xml:space="preserve">19.3339805603027</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5321960449219</t>
+    <t xml:space="preserve">19.5321922302246</t>
   </si>
   <si>
     <t xml:space="preserve">19.4743804931641</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0531768798828</t>
+    <t xml:space="preserve">19.0531787872314</t>
   </si>
   <si>
     <t xml:space="preserve">18.9953670501709</t>
@@ -860,13 +860,13 @@
     <t xml:space="preserve">20.3415603637695</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7957973480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3078460693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1013736724854</t>
+    <t xml:space="preserve">20.7957954406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3078479766846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1013717651367</t>
   </si>
   <si>
     <t xml:space="preserve">21.5083904266357</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">21.742359161377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4749660491943</t>
+    <t xml:space="preserve">21.4749641418457</t>
   </si>
   <si>
     <t xml:space="preserve">21.6420860290527</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">21.5585269927979</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1434459686279</t>
+    <t xml:space="preserve">22.1434478759766</t>
   </si>
   <si>
     <t xml:space="preserve">21.0822334289551</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0989475250244</t>
+    <t xml:space="preserve">21.0989456176758</t>
   </si>
   <si>
     <t xml:space="preserve">21.032096862793</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9318237304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8649787902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.890043258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0571670532227</t>
+    <t xml:space="preserve">20.9318256378174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8649768829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8900451660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.057165145874</t>
   </si>
   <si>
     <t xml:space="preserve">21.5418148040771</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">21.5501728057861</t>
   </si>
   <si>
-    <t xml:space="preserve">21.491678237915</t>
+    <t xml:space="preserve">21.4916763305664</t>
   </si>
   <si>
     <t xml:space="preserve">21.6838684082031</t>
@@ -926,19 +926,16 @@
     <t xml:space="preserve">21.5919513702393</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3914051055908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3663387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7172889709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3078479766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8315525054932</t>
+    <t xml:space="preserve">21.3914070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.366340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7172908782959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8315544128418</t>
   </si>
   <si>
     <t xml:space="preserve">21.1407260894775</t>
@@ -947,19 +944,19 @@
     <t xml:space="preserve">20.8566207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">20.363618850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.614294052124</t>
+    <t xml:space="preserve">20.3636169433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6142959594727</t>
   </si>
   <si>
     <t xml:space="preserve">20.6811447143555</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5140228271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6644344329834</t>
+    <t xml:space="preserve">20.5140247344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6644306182861</t>
   </si>
   <si>
     <t xml:space="preserve">20.906759262085</t>
@@ -971,16 +968,16 @@
     <t xml:space="preserve">20.8482666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5056686401367</t>
+    <t xml:space="preserve">20.5056705474854</t>
   </si>
   <si>
     <t xml:space="preserve">19.8706111907959</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6951332092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4778785705566</t>
+    <t xml:space="preserve">19.6951313018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.477876663208</t>
   </si>
   <si>
     <t xml:space="preserve">19.3024024963379</t>
@@ -995,7 +992,7 @@
     <t xml:space="preserve">19.1269264221191</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6366443634033</t>
+    <t xml:space="preserve">19.6366424560547</t>
   </si>
   <si>
     <t xml:space="preserve">19.9959545135498</t>
@@ -1004,7 +1001,7 @@
     <t xml:space="preserve">20.0460872650146</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7396392822266</t>
+    <t xml:space="preserve">20.7396373748779</t>
   </si>
   <si>
     <t xml:space="preserve">20.3051242828369</t>
@@ -1013,40 +1010,40 @@
     <t xml:space="preserve">20.7145709991455</t>
   </si>
   <si>
-    <t xml:space="preserve">20.773063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.332914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.324556350708</t>
+    <t xml:space="preserve">20.7730617523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3329124450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3245582580566</t>
   </si>
   <si>
     <t xml:space="preserve">21.4582557678223</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2242851257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7256488800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8426303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6170196533203</t>
+    <t xml:space="preserve">21.2242870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7256469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8426322937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6170177459717</t>
   </si>
   <si>
     <t xml:space="preserve">21.6003074645996</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2326431274414</t>
+    <t xml:space="preserve">21.23264503479</t>
   </si>
   <si>
     <t xml:space="preserve">21.6588001251221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1100215911865</t>
+    <t xml:space="preserve">22.1100234985352</t>
   </si>
   <si>
     <t xml:space="preserve">21.9930400848389</t>
@@ -1058,16 +1055,16 @@
     <t xml:space="preserve">21.8844127655029</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5027561187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3607063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0682430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9596195220947</t>
+    <t xml:space="preserve">22.5027542114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3607044219971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0682411193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9596157073975</t>
   </si>
   <si>
     <t xml:space="preserve">22.3523483276367</t>
@@ -1076,7 +1073,7 @@
     <t xml:space="preserve">22.1935844421387</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6531658172607</t>
+    <t xml:space="preserve">22.6531677246094</t>
   </si>
   <si>
     <t xml:space="preserve">22.2854995727539</t>
@@ -1103,25 +1100,25 @@
     <t xml:space="preserve">23.7812271118164</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0904026031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4914894104004</t>
+    <t xml:space="preserve">24.0904006958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4914875030518</t>
   </si>
   <si>
     <t xml:space="preserve">24.3577919006348</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6669654846191</t>
+    <t xml:space="preserve">24.6669673919678</t>
   </si>
   <si>
     <t xml:space="preserve">24.600118637085</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6586112976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0095615386963</t>
+    <t xml:space="preserve">24.6586093902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0095634460449</t>
   </si>
   <si>
     <t xml:space="preserve">24.5332698822021</t>
@@ -1130,16 +1127,16 @@
     <t xml:space="preserve">24.6251850128174</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2240982055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1488933563232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2408065795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.616828918457</t>
+    <t xml:space="preserve">24.2240962982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1488952636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2408084869385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6168308258057</t>
   </si>
   <si>
     <t xml:space="preserve">24.8758659362793</t>
@@ -1148,7 +1145,7 @@
     <t xml:space="preserve">26.1125564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6529731750488</t>
+    <t xml:space="preserve">25.6529750823975</t>
   </si>
   <si>
     <t xml:space="preserve">25.7198238372803</t>
@@ -1157,10 +1154,10 @@
     <t xml:space="preserve">25.6696872711182</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5359916687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4858570098877</t>
+    <t xml:space="preserve">25.5359935760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4858551025391</t>
   </si>
   <si>
     <t xml:space="preserve">25.3187351226807</t>
@@ -1172,22 +1169,22 @@
     <t xml:space="preserve">26.3799476623535</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6473407745361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1543350219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8451633453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8006649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2101097106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4022960662842</t>
+    <t xml:space="preserve">26.6473388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.154333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8451652526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8006629943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2101078033447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4022941589355</t>
   </si>
   <si>
     <t xml:space="preserve">25.2268180847168</t>
@@ -1196,7 +1193,7 @@
     <t xml:space="preserve">26.1292686462402</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9732246398926</t>
+    <t xml:space="preserve">26.9732265472412</t>
   </si>
   <si>
     <t xml:space="preserve">26.6724109649658</t>
@@ -1211,10 +1208,10 @@
     <t xml:space="preserve">28.1096458435059</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6333541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2349891662598</t>
+    <t xml:space="preserve">27.6333522796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2349872589111</t>
   </si>
   <si>
     <t xml:space="preserve">27.725269317627</t>
@@ -1223,19 +1220,19 @@
     <t xml:space="preserve">27.3993854522705</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9454364776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5694160461426</t>
+    <t xml:space="preserve">25.9454345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5694198608398</t>
   </si>
   <si>
     <t xml:space="preserve">25.1516151428223</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2686004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2351760864258</t>
+    <t xml:space="preserve">25.2685985565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2351741790771</t>
   </si>
   <si>
     <t xml:space="preserve">25.9120121002197</t>
@@ -1244,7 +1241,7 @@
     <t xml:space="preserve">25.5025672912598</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3939418792725</t>
+    <t xml:space="preserve">25.3939399719238</t>
   </si>
   <si>
     <t xml:space="preserve">25.8618793487549</t>
@@ -1256,13 +1253,13 @@
     <t xml:space="preserve">26.2629661560059</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4050178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3715915679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2211875915527</t>
+    <t xml:space="preserve">26.4050197601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3715896606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2211837768555</t>
   </si>
   <si>
     <t xml:space="preserve">26.4384422302246</t>
@@ -1271,31 +1268,31 @@
     <t xml:space="preserve">26.1961154937744</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9872169494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0707778930664</t>
+    <t xml:space="preserve">25.9872188568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.070779800415</t>
   </si>
   <si>
     <t xml:space="preserve">26.1877613067627</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4467945098877</t>
+    <t xml:space="preserve">26.4467964172363</t>
   </si>
   <si>
     <t xml:space="preserve">26.7392597198486</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8702297210693</t>
+    <t xml:space="preserve">25.870231628418</t>
   </si>
   <si>
     <t xml:space="preserve">25.7114696502686</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1098346710205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0373516082764</t>
+    <t xml:space="preserve">25.1098384857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.037353515625</t>
   </si>
   <si>
     <t xml:space="preserve">25.6863994598389</t>
@@ -1316,7 +1313,7 @@
     <t xml:space="preserve">27.449520111084</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2824001312256</t>
+    <t xml:space="preserve">27.2824020385742</t>
   </si>
   <si>
     <t xml:space="preserve">28.1180019378662</t>
@@ -1325,19 +1322,19 @@
     <t xml:space="preserve">27.3659610748291</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1988410949707</t>
+    <t xml:space="preserve">27.1988372802734</t>
   </si>
   <si>
     <t xml:space="preserve">26.8228187561035</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2796764373779</t>
+    <t xml:space="preserve">26.2796783447266</t>
   </si>
   <si>
     <t xml:space="preserve">26.9063777923584</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9899387359619</t>
+    <t xml:space="preserve">26.9899406433105</t>
   </si>
   <si>
     <t xml:space="preserve">27.4913024902344</t>
@@ -1346,19 +1343,19 @@
     <t xml:space="preserve">28.0344409942627</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6193656921387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9508838653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5330810546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.324182510376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8645992279053</t>
+    <t xml:space="preserve">28.6193618774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9508819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5330791473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3241806030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8646011352539</t>
   </si>
   <si>
     <t xml:space="preserve">25.7365322113037</t>
@@ -1376,10 +1373,10 @@
     <t xml:space="preserve">26.2378959655762</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0289993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7783145904541</t>
+    <t xml:space="preserve">26.0289974212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7783164978027</t>
   </si>
   <si>
     <t xml:space="preserve">25.903657913208</t>
@@ -1391,46 +1388,46 @@
     <t xml:space="preserve">25.0680541992188</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9481582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.316011428833</t>
+    <t xml:space="preserve">26.9481601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3160095214844</t>
   </si>
   <si>
     <t xml:space="preserve">24.190673828125</t>
   </si>
   <si>
-    <t xml:space="preserve">20.72292137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1825084686279</t>
+    <t xml:space="preserve">20.7229232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1825065612793</t>
   </si>
   <si>
     <t xml:space="preserve">21.2660694122314</t>
   </si>
   <si>
-    <t xml:space="preserve">20.2215633392334</t>
+    <t xml:space="preserve">20.221565246582</t>
   </si>
   <si>
     <t xml:space="preserve">21.0153846740723</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7674293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2270107269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.310567855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0208282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3941287994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4331836700439</t>
+    <t xml:space="preserve">21.767427444458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2270126342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3105697631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0208301544189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3941268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4331855773926</t>
   </si>
   <si>
     <t xml:space="preserve">22.0181083679199</t>
@@ -1442,7 +1439,7 @@
     <t xml:space="preserve">22.2687892913818</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0626125335693</t>
+    <t xml:space="preserve">23.0626106262207</t>
   </si>
   <si>
     <t xml:space="preserve">22.770149230957</t>
@@ -1454,16 +1451,16 @@
     <t xml:space="preserve">22.6030292510986</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9372692108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7728729248047</t>
+    <t xml:space="preserve">22.9372673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7728710174561</t>
   </si>
   <si>
     <t xml:space="preserve">23.313289642334</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2324523925781</t>
+    <t xml:space="preserve">24.2324504852295</t>
   </si>
   <si>
     <t xml:space="preserve">26.4885787963867</t>
@@ -1472,19 +1469,19 @@
     <t xml:space="preserve">25.3605155944824</t>
   </si>
   <si>
-    <t xml:space="preserve">25.026273727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8591556549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8173732757568</t>
+    <t xml:space="preserve">25.0262756347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8591537475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8173751831055</t>
   </si>
   <si>
     <t xml:space="preserve">24.9427146911621</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4440746307373</t>
+    <t xml:space="preserve">25.4440765380859</t>
   </si>
   <si>
     <t xml:space="preserve">25.3591213226318</t>
@@ -1511,7 +1508,7 @@
     <t xml:space="preserve">26.4210605621338</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9962844848633</t>
+    <t xml:space="preserve">25.9962863922119</t>
   </si>
   <si>
     <t xml:space="preserve">26.9732685089111</t>
@@ -1529,16 +1526,16 @@
     <t xml:space="preserve">26.1661930084229</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2086696624756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.741418838501</t>
+    <t xml:space="preserve">26.2086715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7414169311523</t>
   </si>
   <si>
     <t xml:space="preserve">26.0387630462646</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3785839080811</t>
+    <t xml:space="preserve">26.3785820007324</t>
   </si>
   <si>
     <t xml:space="preserve">25.9538059234619</t>
@@ -1547,7 +1544,7 @@
     <t xml:space="preserve">26.3361053466797</t>
   </si>
   <si>
-    <t xml:space="preserve">26.845832824707</t>
+    <t xml:space="preserve">26.8458366394043</t>
   </si>
   <si>
     <t xml:space="preserve">26.5060157775879</t>
@@ -1556,13 +1553,13 @@
     <t xml:space="preserve">26.6334457397461</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7608814239502</t>
+    <t xml:space="preserve">26.7608833312988</t>
   </si>
   <si>
     <t xml:space="preserve">26.5909690856934</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0157470703125</t>
+    <t xml:space="preserve">27.0157451629639</t>
   </si>
   <si>
     <t xml:space="preserve">27.7803440093994</t>
@@ -1577,13 +1574,13 @@
     <t xml:space="preserve">24.2547016143799</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3821353912354</t>
+    <t xml:space="preserve">24.382137298584</t>
   </si>
   <si>
     <t xml:space="preserve">24.6794776916504</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4670925140381</t>
+    <t xml:space="preserve">24.4670906066895</t>
   </si>
   <si>
     <t xml:space="preserve">23.9998359680176</t>
@@ -1598,37 +1595,37 @@
     <t xml:space="preserve">24.5520458221436</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8493919372559</t>
+    <t xml:space="preserve">24.8493900299072</t>
   </si>
   <si>
     <t xml:space="preserve">24.9768218994141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1237144470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2281341552734</t>
+    <t xml:space="preserve">26.1237163543701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2281322479248</t>
   </si>
   <si>
     <t xml:space="preserve">26.5484943389893</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7184028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2706108093262</t>
+    <t xml:space="preserve">26.7184047698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2706127166748</t>
   </si>
   <si>
     <t xml:space="preserve">26.2511501312256</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3130893707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6953868865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6759262084961</t>
+    <t xml:space="preserve">27.3130912780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.695384979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6759243011475</t>
   </si>
   <si>
     <t xml:space="preserve">27.1431789398193</t>
@@ -1637,7 +1634,7 @@
     <t xml:space="preserve">27.3555660247803</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0582256317139</t>
+    <t xml:space="preserve">27.0582237243652</t>
   </si>
   <si>
     <t xml:space="preserve">25.1467323303223</t>
@@ -1649,13 +1646,13 @@
     <t xml:space="preserve">22.3007335662842</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0033893585205</t>
+    <t xml:space="preserve">22.0033912658691</t>
   </si>
   <si>
     <t xml:space="preserve">22.4706439971924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3237495422363</t>
+    <t xml:space="preserve">21.323751449585</t>
   </si>
   <si>
     <t xml:space="preserve">22.2157802581787</t>
@@ -1676,7 +1673,7 @@
     <t xml:space="preserve">20.3892440795898</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8989753723145</t>
+    <t xml:space="preserve">20.8989734649658</t>
   </si>
   <si>
     <t xml:space="preserve">20.7715435028076</t>
@@ -1685,19 +1682,19 @@
     <t xml:space="preserve">22.3856887817383</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4936618804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5131206512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6405544281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.532585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8529434204102</t>
+    <t xml:space="preserve">21.4936599731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5131225585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6405563354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5325832366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8529415130615</t>
   </si>
   <si>
     <t xml:space="preserve">18.4777507781982</t>
@@ -1709,13 +1706,13 @@
     <t xml:space="preserve">18.0104999542236</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1379299163818</t>
+    <t xml:space="preserve">18.1379280090332</t>
   </si>
   <si>
     <t xml:space="preserve">18.3503170013428</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6901416778564</t>
+    <t xml:space="preserve">18.6901397705078</t>
   </si>
   <si>
     <t xml:space="preserve">18.9874820709229</t>
@@ -1724,7 +1721,7 @@
     <t xml:space="preserve">19.1998710632324</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3273048400879</t>
+    <t xml:space="preserve">19.3273029327393</t>
   </si>
   <si>
     <t xml:space="preserve">19.1149139404297</t>
@@ -1739,7 +1736,7 @@
     <t xml:space="preserve">20.0494232177734</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0069427490234</t>
+    <t xml:space="preserve">20.0069408416748</t>
   </si>
   <si>
     <t xml:space="preserve">19.5821666717529</t>
@@ -1748,13 +1745,13 @@
     <t xml:space="preserve">19.6246471405029</t>
   </si>
   <si>
-    <t xml:space="preserve">18.520227432251</t>
+    <t xml:space="preserve">18.5202293395996</t>
   </si>
   <si>
     <t xml:space="preserve">18.2653636932373</t>
   </si>
   <si>
-    <t xml:space="preserve">17.2883796691895</t>
+    <t xml:space="preserve">17.2883777618408</t>
   </si>
   <si>
     <t xml:space="preserve">18.2228870391846</t>
@@ -1769,7 +1766,7 @@
     <t xml:space="preserve">17.4158096313477</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0759887695312</t>
+    <t xml:space="preserve">17.0759906768799</t>
   </si>
   <si>
     <t xml:space="preserve">17.2034225463867</t>
@@ -1787,16 +1784,16 @@
     <t xml:space="preserve">18.9025268554688</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6671237945557</t>
+    <t xml:space="preserve">19.667121887207</t>
   </si>
   <si>
     <t xml:space="preserve">19.921989440918</t>
   </si>
   <si>
-    <t xml:space="preserve">20.0918998718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9644680023193</t>
+    <t xml:space="preserve">20.0918979644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9644660949707</t>
   </si>
   <si>
     <t xml:space="preserve">20.4317188262939</t>
@@ -1808,7 +1805,7 @@
     <t xml:space="preserve">21.0688819885254</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1963157653809</t>
+    <t xml:space="preserve">21.1963176727295</t>
   </si>
   <si>
     <t xml:space="preserve">20.8564968109131</t>
@@ -1823,10 +1820,10 @@
     <t xml:space="preserve">19.7945556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5591526031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.1768531799316</t>
+    <t xml:space="preserve">20.559154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1768550872803</t>
   </si>
   <si>
     <t xml:space="preserve">20.4741992950439</t>
@@ -1835,7 +1832,7 @@
     <t xml:space="preserve">19.7520790100098</t>
   </si>
   <si>
-    <t xml:space="preserve">19.8370342254639</t>
+    <t xml:space="preserve">19.8370361328125</t>
   </si>
   <si>
     <t xml:space="preserve">19.5396900177002</t>
@@ -1847,7 +1844,7 @@
     <t xml:space="preserve">16.9740447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0335102081299</t>
+    <t xml:space="preserve">17.0335140228271</t>
   </si>
   <si>
     <t xml:space="preserve">16.9230728149414</t>
@@ -1856,19 +1853,19 @@
     <t xml:space="preserve">16.889087677002</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5432434082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.67067527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7896118164062</t>
+    <t xml:space="preserve">17.5432453155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6706771850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7896137237549</t>
   </si>
   <si>
     <t xml:space="preserve">17.8235969543457</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7750930786133</t>
+    <t xml:space="preserve">18.7750911712646</t>
   </si>
   <si>
     <t xml:space="preserve">19.0979232788086</t>
@@ -1889,13 +1886,13 @@
     <t xml:space="preserve">18.0954513549805</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5542106628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6051845550537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1294345855713</t>
+    <t xml:space="preserve">18.5542087554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6051826477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1294326782227</t>
   </si>
   <si>
     <t xml:space="preserve">18.2483711242676</t>
@@ -1907,13 +1904,13 @@
     <t xml:space="preserve">18.7071304321289</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2313785552979</t>
+    <t xml:space="preserve">18.2313804626465</t>
   </si>
   <si>
     <t xml:space="preserve">17.0250186920166</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0590000152588</t>
+    <t xml:space="preserve">17.0590019226074</t>
   </si>
   <si>
     <t xml:space="preserve">16.9400634765625</t>
@@ -1928,7 +1925,7 @@
     <t xml:space="preserve">15.6742315292358</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2324628829956</t>
+    <t xml:space="preserve">15.2324647903442</t>
   </si>
   <si>
     <t xml:space="preserve">15.0200757980347</t>
@@ -1940,10 +1937,10 @@
     <t xml:space="preserve">16.031042098999</t>
   </si>
   <si>
-    <t xml:space="preserve">16.447322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3538703918457</t>
+    <t xml:space="preserve">16.4473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3538722991943</t>
   </si>
   <si>
     <t xml:space="preserve">15.4618434906006</t>
@@ -1958,25 +1955,25 @@
     <t xml:space="preserve">15.0540571212769</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2154722213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7311029434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7485799789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1018600463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2329530715942</t>
+    <t xml:space="preserve">15.2154741287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.731104850769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7485818862915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.1018581390381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2329521179199</t>
   </si>
   <si>
     <t xml:space="preserve">15.0494222640991</t>
   </si>
   <si>
-    <t xml:space="preserve">15.031943321228</t>
+    <t xml:space="preserve">15.0319442749023</t>
   </si>
   <si>
     <t xml:space="preserve">15.1979923248291</t>
@@ -1985,31 +1982,31 @@
     <t xml:space="preserve">14.9270687103271</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2853879928589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4040431976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.0806827545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3028678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9095897674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8571529388428</t>
+    <t xml:space="preserve">15.2853889465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4040451049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0806846618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3028688430786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9095888137817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8571519851685</t>
   </si>
   <si>
     <t xml:space="preserve">14.5774898529053</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7697582244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9882459640503</t>
+    <t xml:space="preserve">14.769757270813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9882469177246</t>
   </si>
   <si>
     <t xml:space="preserve">14.8134565353394</t>
@@ -2018,16 +2015,16 @@
     <t xml:space="preserve">14.6124458312988</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4201765060425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5600099563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.2242126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.935809135437</t>
+    <t xml:space="preserve">14.4201774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5600109100342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2242116928101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9358072280884</t>
   </si>
   <si>
     <t xml:space="preserve">14.6998424530029</t>
@@ -2036,13 +2033,16 @@
     <t xml:space="preserve">15.1193380355835</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3990049362183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8047170639038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.717321395874</t>
+    <t xml:space="preserve">15.3990030288696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.2154731750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8047180175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7173223495483</t>
   </si>
   <si>
     <t xml:space="preserve">14.7348003387451</t>
@@ -2051,10 +2051,10 @@
     <t xml:space="preserve">14.3153028488159</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0531187057495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1055555343628</t>
+    <t xml:space="preserve">14.0531196594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1055564880371</t>
   </si>
   <si>
     <t xml:space="preserve">14.1579933166504</t>
@@ -2069,19 +2069,19 @@
     <t xml:space="preserve">13.6336231231689</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7784986495972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4726152420044</t>
+    <t xml:space="preserve">14.7784976959229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4726133346558</t>
   </si>
   <si>
     <t xml:space="preserve">14.2541265487671</t>
   </si>
   <si>
-    <t xml:space="preserve">14.184211730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5724458694458</t>
+    <t xml:space="preserve">14.1842107772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5724449157715</t>
   </si>
   <si>
     <t xml:space="preserve">13.9395055770874</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">13.8783292770386</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5287494659424</t>
+    <t xml:space="preserve">13.5287485122681</t>
   </si>
   <si>
     <t xml:space="preserve">13.5025300979614</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">12.4887475967407</t>
   </si>
   <si>
-    <t xml:space="preserve">11.256477355957</t>
+    <t xml:space="preserve">11.2564783096313</t>
   </si>
   <si>
     <t xml:space="preserve">11.2652177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2389984130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8282432556152</t>
+    <t xml:space="preserve">11.2389974594116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8282423019409</t>
   </si>
   <si>
     <t xml:space="preserve">11.0292510986328</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">11.0379915237427</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3263940811157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4574861526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1690835952759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0729494094849</t>
+    <t xml:space="preserve">11.32639503479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4574871063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1690826416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0729484558105</t>
   </si>
   <si>
     <t xml:space="preserve">11.0467309951782</t>
@@ -2153,16 +2153,16 @@
     <t xml:space="preserve">10.9505958557129</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0117721557617</t>
+    <t xml:space="preserve">11.0117712020874</t>
   </si>
   <si>
     <t xml:space="preserve">11.6672353744507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8420257568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731178283691</t>
+    <t xml:space="preserve">11.8420248031616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731168746948</t>
   </si>
   <si>
     <t xml:space="preserve">11.9993362426758</t>
@@ -2171,7 +2171,7 @@
     <t xml:space="preserve">12.0517721176147</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0605134963989</t>
+    <t xml:space="preserve">12.0605125427246</t>
   </si>
   <si>
     <t xml:space="preserve">12.5062274932861</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">12.3663940429688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7633695602417</t>
+    <t xml:space="preserve">11.7633686065674</t>
   </si>
   <si>
     <t xml:space="preserve">11.8070669174194</t>
@@ -2198,7 +2198,7 @@
     <t xml:space="preserve">11.4400081634521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1865615844727</t>
+    <t xml:space="preserve">11.186562538147</t>
   </si>
   <si>
     <t xml:space="preserve">11.5885791778564</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">10.9942932128906</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7495880126953</t>
+    <t xml:space="preserve">10.749587059021</t>
   </si>
   <si>
     <t xml:space="preserve">10.941855430603</t>
@@ -2222,7 +2222,7 @@
     <t xml:space="preserve">11.3788318634033</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3438730239868</t>
+    <t xml:space="preserve">11.3438720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.4225292205811</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">11.2914361953735</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3001766204834</t>
+    <t xml:space="preserve">11.3001756668091</t>
   </si>
   <si>
     <t xml:space="preserve">11.5623607635498</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">12.0080757141113</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9905967712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1216878890991</t>
+    <t xml:space="preserve">11.9905958175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1216888427734</t>
   </si>
   <si>
     <t xml:space="preserve">13.6773195266724</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">13.869589805603</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0356388092041</t>
+    <t xml:space="preserve">14.0356397628784</t>
   </si>
   <si>
     <t xml:space="preserve">13.9045467376709</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">14.5949687957764</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2453870773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1405143737793</t>
+    <t xml:space="preserve">14.2453861236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.140513420105</t>
   </si>
   <si>
     <t xml:space="preserve">13.7996730804443</t>
@@ -2288,10 +2288,10 @@
     <t xml:space="preserve">14.8309335708618</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0144634246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3203468322754</t>
+    <t xml:space="preserve">15.0144643783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3203477859497</t>
   </si>
   <si>
     <t xml:space="preserve">15.9146327972412</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">14.9795055389404</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9445495605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3378238677979</t>
+    <t xml:space="preserve">14.9445476531982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3378248214722</t>
   </si>
   <si>
     <t xml:space="preserve">15.3640432357788</t>
@@ -2312,7 +2312,7 @@
     <t xml:space="preserve">15.0756406784058</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4164800643921</t>
+    <t xml:space="preserve">15.4164810180664</t>
   </si>
   <si>
     <t xml:space="preserve">15.5475740432739</t>
@@ -2324,7 +2324,7 @@
     <t xml:space="preserve">16.0544662475586</t>
   </si>
   <si>
-    <t xml:space="preserve">15.8709335327148</t>
+    <t xml:space="preserve">15.8709354400635</t>
   </si>
   <si>
     <t xml:space="preserve">14.8484125137329</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">14.743540763855</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7085809707642</t>
+    <t xml:space="preserve">14.7085819244385</t>
   </si>
   <si>
     <t xml:space="preserve">14.8658933639526</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">14.9620265960693</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4900932312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8746328353882</t>
+    <t xml:space="preserve">14.4900941848755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8746318817139</t>
   </si>
   <si>
     <t xml:space="preserve">14.7610177993774</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8833723068237</t>
+    <t xml:space="preserve">14.883373260498</t>
   </si>
   <si>
     <t xml:space="preserve">15.1630363464355</t>
@@ -2369,16 +2369,16 @@
     <t xml:space="preserve">14.2978248596191</t>
   </si>
   <si>
-    <t xml:space="preserve">13.8608503341675</t>
+    <t xml:space="preserve">13.8608493804932</t>
   </si>
   <si>
     <t xml:space="preserve">13.6685810089111</t>
   </si>
   <si>
-    <t xml:space="preserve">13.9220266342163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8958082199097</t>
+    <t xml:space="preserve">13.922025680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8958072662354</t>
   </si>
   <si>
     <t xml:space="preserve">14.7872381210327</t>
@@ -2390,16 +2390,16 @@
     <t xml:space="preserve">14.673623085022</t>
   </si>
   <si>
-    <t xml:space="preserve">14.892110824585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9008493423462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.55126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5687494277954</t>
+    <t xml:space="preserve">14.8921117782593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9008483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5512704849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5687503814697</t>
   </si>
   <si>
     <t xml:space="preserve">14.1230354309082</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">13.773455619812</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8907651901245</t>
+    <t xml:space="preserve">12.8907642364502</t>
   </si>
   <si>
     <t xml:space="preserve">12.663537979126</t>
@@ -2420,7 +2420,7 @@
     <t xml:space="preserve">12.3052186965942</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9294185638428</t>
+    <t xml:space="preserve">11.9294204711914</t>
   </si>
   <si>
     <t xml:space="preserve">11.7458896636963</t>
@@ -2429,13 +2429,13 @@
     <t xml:space="preserve">10.6010150909424</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0853853225708</t>
+    <t xml:space="preserve">10.0853843688965</t>
   </si>
   <si>
     <t xml:space="preserve">9.67462921142578</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9979887008667</t>
+    <t xml:space="preserve">9.99798965454102</t>
   </si>
   <si>
     <t xml:space="preserve">8.29815769195557</t>
@@ -2444,7 +2444,7 @@
     <t xml:space="preserve">8.96672821044922</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49042510986328</t>
+    <t xml:space="preserve">8.4904260635376</t>
   </si>
   <si>
     <t xml:space="preserve">8.53412342071533</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">8.17143440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86555147171021</t>
+    <t xml:space="preserve">7.86555242538452</t>
   </si>
   <si>
     <t xml:space="preserve">9.3512659072876</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">9.24639320373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66588878631592</t>
+    <t xml:space="preserve">9.66588973999023</t>
   </si>
   <si>
     <t xml:space="preserve">9.72706508636475</t>
@@ -2477,13 +2477,13 @@
     <t xml:space="preserve">9.7183256149292</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33378887176514</t>
+    <t xml:space="preserve">9.33378791809082</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244316101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78824234008789</t>
+    <t xml:space="preserve">9.78824138641357</t>
   </si>
   <si>
     <t xml:space="preserve">9.73580551147461</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">10.5922756195068</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7058897018433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2215213775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4924449920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2302598953247</t>
+    <t xml:space="preserve">10.7058906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2215204238892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4924440383911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2302589416504</t>
   </si>
   <si>
     <t xml:space="preserve">10.2252168655396</t>
@@ -2543,22 +2543,22 @@
     <t xml:space="preserve">9.55227565765381</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76202297210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77076244354248</t>
+    <t xml:space="preserve">9.76202392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77076435089111</t>
   </si>
   <si>
     <t xml:space="preserve">9.47361946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50857925415039</t>
+    <t xml:space="preserve">9.50857830047607</t>
   </si>
   <si>
     <t xml:space="preserve">9.49983882904053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61345291137695</t>
+    <t xml:space="preserve">9.61345195770264</t>
   </si>
   <si>
     <t xml:space="preserve">9.09782123565674</t>
@@ -2567,22 +2567,22 @@
     <t xml:space="preserve">9.16773796081543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08908081054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52605628967285</t>
+    <t xml:space="preserve">9.08908176422119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52605724334717</t>
   </si>
   <si>
     <t xml:space="preserve">9.96303176879883</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88437747955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1116037368774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4837064743042</t>
+    <t xml:space="preserve">9.88437652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1116027832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4837055206299</t>
   </si>
   <si>
     <t xml:space="preserve">11.1166467666626</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">10.5048809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86689758300781</t>
+    <t xml:space="preserve">9.8668966293335</t>
   </si>
   <si>
     <t xml:space="preserve">10.2275371551514</t>
@@ -2609,10 +2609,10 @@
     <t xml:space="preserve">10.4697694778442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4338817596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3262243270874</t>
+    <t xml:space="preserve">10.4338827133179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3262252807617</t>
   </si>
   <si>
     <t xml:space="preserve">10.7209711074829</t>
@@ -2636,16 +2636,16 @@
     <t xml:space="preserve">9.81484699249268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66233253479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77896022796631</t>
+    <t xml:space="preserve">9.66233158111572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77896118164062</t>
   </si>
   <si>
     <t xml:space="preserve">9.74307441711426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65336132049561</t>
+    <t xml:space="preserve">9.65336036682129</t>
   </si>
   <si>
     <t xml:space="preserve">9.40215682983398</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">9.83279037475586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44701480865479</t>
+    <t xml:space="preserve">9.44701385498047</t>
   </si>
   <si>
     <t xml:space="preserve">9.60850143432617</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">9.69821834564209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53673076629639</t>
+    <t xml:space="preserve">9.5367317199707</t>
   </si>
   <si>
     <t xml:space="preserve">9.24964141845703</t>
@@ -2705,7 +2705,7 @@
     <t xml:space="preserve">11.6181230545044</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7706394195557</t>
+    <t xml:space="preserve">11.7706384658813</t>
   </si>
   <si>
     <t xml:space="preserve">11.3758926391602</t>
@@ -2717,7 +2717,7 @@
     <t xml:space="preserve">11.0798330307007</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9093732833862</t>
+    <t xml:space="preserve">10.9093723297119</t>
   </si>
   <si>
     <t xml:space="preserve">10.8286294937134</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">10.1378221511841</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2185668945312</t>
+    <t xml:space="preserve">10.2185659408569</t>
   </si>
   <si>
     <t xml:space="preserve">10.039134979248</t>
@@ -2759,7 +2759,7 @@
     <t xml:space="preserve">10.0122203826904</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91353416442871</t>
+    <t xml:space="preserve">9.91353321075439</t>
   </si>
   <si>
     <t xml:space="preserve">10.0032501220703</t>
@@ -2786,22 +2786,22 @@
     <t xml:space="preserve">10.6581707000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6402273178101</t>
+    <t xml:space="preserve">10.6402282714844</t>
   </si>
   <si>
     <t xml:space="preserve">10.7748003005981</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9721736907959</t>
+    <t xml:space="preserve">10.9721727371216</t>
   </si>
   <si>
     <t xml:space="preserve">10.8914308547974</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7568578720093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.855544090271</t>
+    <t xml:space="preserve">10.756856918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8555450439453</t>
   </si>
   <si>
     <t xml:space="preserve">10.8465728759766</t>
@@ -2810,13 +2810,13 @@
     <t xml:space="preserve">10.8017148971558</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8376016616821</t>
+    <t xml:space="preserve">10.8376007080078</t>
   </si>
   <si>
     <t xml:space="preserve">10.7478857040405</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0750207901001</t>
+    <t xml:space="preserve">10.0750217437744</t>
   </si>
   <si>
     <t xml:space="preserve">10.3351964950562</t>
@@ -2825,43 +2825,43 @@
     <t xml:space="preserve">10.2544527053833</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0839920043945</t>
+    <t xml:space="preserve">10.0839929580688</t>
   </si>
   <si>
     <t xml:space="preserve">10.1288509368896</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86867713928223</t>
+    <t xml:space="preserve">9.86867618560791</t>
   </si>
   <si>
     <t xml:space="preserve">9.24067115783691</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06124019622803</t>
+    <t xml:space="preserve">9.06123924255371</t>
   </si>
   <si>
     <t xml:space="preserve">8.59023380279541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76069355010986</t>
+    <t xml:space="preserve">8.76069259643555</t>
   </si>
   <si>
     <t xml:space="preserve">8.87283802032471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36627197265625</t>
+    <t xml:space="preserve">9.36627101898193</t>
   </si>
   <si>
     <t xml:space="preserve">9.41112899780273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12403964996338</t>
+    <t xml:space="preserve">9.1240406036377</t>
   </si>
   <si>
     <t xml:space="preserve">9.22272682189941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2095947265625</t>
+    <t xml:space="preserve">10.2095937728882</t>
   </si>
   <si>
     <t xml:space="preserve">9.94941997528076</t>
@@ -2915,13 +2915,13 @@
     <t xml:space="preserve">12.2640733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3807039260864</t>
+    <t xml:space="preserve">12.3807029724121</t>
   </si>
   <si>
     <t xml:space="preserve">12.4524755477905</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3627605438232</t>
+    <t xml:space="preserve">12.3627595901489</t>
   </si>
   <si>
     <t xml:space="preserve">12.210244178772</t>
@@ -2930,7 +2930,7 @@
     <t xml:space="preserve">12.3268737792969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3358459472656</t>
+    <t xml:space="preserve">12.3358469009399</t>
   </si>
   <si>
     <t xml:space="preserve">12.9907665252686</t>
@@ -2957,10 +2957,10 @@
     <t xml:space="preserve">12.560133934021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7754507064819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8472232818604</t>
+    <t xml:space="preserve">12.7754497528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.847222328186</t>
   </si>
   <si>
     <t xml:space="preserve">12.8831081390381</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">13.6008310317993</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0984258651733</t>
+    <t xml:space="preserve">13.0984268188477</t>
   </si>
   <si>
     <t xml:space="preserve">12.9638528823853</t>
@@ -3023,16 +3023,16 @@
     <t xml:space="preserve">13.5739154815674</t>
   </si>
   <si>
-    <t xml:space="preserve">14.166036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3992948532104</t>
+    <t xml:space="preserve">14.1660356521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3992958068848</t>
   </si>
   <si>
     <t xml:space="preserve">14.4800395965576</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7761001586914</t>
+    <t xml:space="preserve">14.7760992050171</t>
   </si>
   <si>
     <t xml:space="preserve">14.8837585449219</t>
@@ -3041,19 +3041,19 @@
     <t xml:space="preserve">14.7850723266602</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9465589523315</t>
+    <t xml:space="preserve">14.9465599060059</t>
   </si>
   <si>
     <t xml:space="preserve">14.5876979827881</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1122064590454</t>
+    <t xml:space="preserve">14.1122074127197</t>
   </si>
   <si>
     <t xml:space="preserve">14.4710674285889</t>
   </si>
   <si>
-    <t xml:space="preserve">14.0852937698364</t>
+    <t xml:space="preserve">14.0852928161621</t>
   </si>
   <si>
     <t xml:space="preserve">14.7671279907227</t>
@@ -3062,13 +3062,13 @@
     <t xml:space="preserve">15.0542182922363</t>
   </si>
   <si>
-    <t xml:space="preserve">15.0990743637085</t>
+    <t xml:space="preserve">15.0990753173828</t>
   </si>
   <si>
     <t xml:space="preserve">15.0093593597412</t>
   </si>
   <si>
-    <t xml:space="preserve">15.4130783081055</t>
+    <t xml:space="preserve">15.4130792617798</t>
   </si>
   <si>
     <t xml:space="preserve">15.5835380554199</t>
@@ -3080,28 +3080,28 @@
     <t xml:space="preserve">15.5207357406616</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8389024734497</t>
+    <t xml:space="preserve">14.8389015197754</t>
   </si>
   <si>
     <t xml:space="preserve">15.0003871917725</t>
   </si>
   <si>
-    <t xml:space="preserve">15.1529035568237</t>
+    <t xml:space="preserve">15.152904510498</t>
   </si>
   <si>
     <t xml:space="preserve">16.7767505645752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1984119415283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.4178886413574</t>
+    <t xml:space="preserve">17.1984100341797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4178867340088</t>
   </si>
   <si>
     <t xml:space="preserve">16.2564029693604</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3371448516846</t>
+    <t xml:space="preserve">16.3371467590332</t>
   </si>
   <si>
     <t xml:space="preserve">16.3461170196533</t>
@@ -3116,7 +3116,7 @@
     <t xml:space="preserve">15.8437128067017</t>
   </si>
   <si>
-    <t xml:space="preserve">15.9782857894897</t>
+    <t xml:space="preserve">15.9782838821411</t>
   </si>
   <si>
     <t xml:space="preserve">15.7629671096802</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">15.8526849746704</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7360534667969</t>
+    <t xml:space="preserve">15.7360544204712</t>
   </si>
   <si>
     <t xml:space="preserve">15.6463384628296</t>
@@ -3146,16 +3146,16 @@
     <t xml:space="preserve">15.4669065475464</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5386791229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.8347396850586</t>
+    <t xml:space="preserve">15.5386810302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8347415924072</t>
   </si>
   <si>
     <t xml:space="preserve">15.4220504760742</t>
   </si>
   <si>
-    <t xml:space="preserve">15.2874765396118</t>
+    <t xml:space="preserve">15.2874774932861</t>
   </si>
   <si>
     <t xml:space="preserve">15.2157049179077</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">15.3951349258423</t>
   </si>
   <si>
-    <t xml:space="preserve">15.3323354721069</t>
+    <t xml:space="preserve">15.3323335647583</t>
   </si>
   <si>
     <t xml:space="preserve">15.5476522445679</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">15.242618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">15.5027942657471</t>
+    <t xml:space="preserve">15.5027933120728</t>
   </si>
   <si>
     <t xml:space="preserve">15.6642799377441</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">15.2336463928223</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8030138015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9824466705322</t>
+    <t xml:space="preserve">14.803014755249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9824457168579</t>
   </si>
   <si>
     <t xml:space="preserve">17.2253265380859</t>
@@ -15087,7 +15087,7 @@
         <v>25.5</v>
       </c>
       <c r="G369" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15113,7 +15113,7 @@
         <v>24.9300003051758</v>
       </c>
       <c r="G370" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15139,7 +15139,7 @@
         <v>25.2999992370605</v>
       </c>
       <c r="G371" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15165,7 +15165,7 @@
         <v>24.9599990844727</v>
       </c>
       <c r="G372" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15191,7 +15191,7 @@
         <v>24.3700008392334</v>
       </c>
       <c r="G373" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15217,7 +15217,7 @@
         <v>24.6700000762939</v>
       </c>
       <c r="G374" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15243,7 +15243,7 @@
         <v>24.75</v>
       </c>
       <c r="G375" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15269,7 +15269,7 @@
         <v>24.5499992370605</v>
       </c>
       <c r="G376" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15295,7 +15295,7 @@
         <v>24.7299995422363</v>
       </c>
       <c r="G377" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15347,7 +15347,7 @@
         <v>25.0200004577637</v>
       </c>
       <c r="G379" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15373,7 +15373,7 @@
         <v>25.4599990844727</v>
       </c>
       <c r="G380" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15399,7 +15399,7 @@
         <v>24.9500007629395</v>
       </c>
       <c r="G381" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15425,7 +15425,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G382" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15451,7 +15451,7 @@
         <v>23.7800006866455</v>
       </c>
       <c r="G383" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15477,7 +15477,7 @@
         <v>23.5699996948242</v>
       </c>
       <c r="G384" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15503,7 +15503,7 @@
         <v>23.5699996948242</v>
       </c>
       <c r="G385" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15529,7 +15529,7 @@
         <v>23.3099994659424</v>
       </c>
       <c r="G386" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15555,7 +15555,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G387" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15581,7 +15581,7 @@
         <v>22.9799995422363</v>
       </c>
       <c r="G388" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15607,7 +15607,7 @@
         <v>23.1000003814697</v>
       </c>
       <c r="G389" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15633,7 +15633,7 @@
         <v>23.4599990844727</v>
       </c>
       <c r="G390" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15659,7 +15659,7 @@
         <v>22.8899993896484</v>
       </c>
       <c r="G391" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15685,7 +15685,7 @@
         <v>23.5</v>
       </c>
       <c r="G392" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15711,7 +15711,7 @@
         <v>23.9300003051758</v>
       </c>
       <c r="G393" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15737,7 +15737,7 @@
         <v>23.9899997711182</v>
       </c>
       <c r="G394" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15763,7 +15763,7 @@
         <v>24.8199996948242</v>
       </c>
       <c r="G395" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15789,7 +15789,7 @@
         <v>24.2999992370605</v>
       </c>
       <c r="G396" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15815,7 +15815,7 @@
         <v>24.5400009155273</v>
       </c>
       <c r="G397" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15841,7 +15841,7 @@
         <v>24.7900009155273</v>
       </c>
       <c r="G398" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15867,7 +15867,7 @@
         <v>24.8600006103516</v>
       </c>
       <c r="G399" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15893,7 +15893,7 @@
         <v>25.5300006866455</v>
       </c>
       <c r="G400" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15919,7 +15919,7 @@
         <v>25.5200004577637</v>
       </c>
       <c r="G401" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15971,7 +15971,7 @@
         <v>25.6800003051758</v>
       </c>
       <c r="G403" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15997,7 +15997,7 @@
         <v>25.3999996185303</v>
       </c>
       <c r="G404" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -16023,7 +16023,7 @@
         <v>26</v>
       </c>
       <c r="G405" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16049,7 +16049,7 @@
         <v>26.1399993896484</v>
       </c>
       <c r="G406" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16075,7 +16075,7 @@
         <v>25.8700008392334</v>
       </c>
       <c r="G407" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16101,7 +16101,7 @@
         <v>25.8500003814697</v>
       </c>
       <c r="G408" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16127,7 +16127,7 @@
         <v>25.4099998474121</v>
       </c>
       <c r="G409" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16153,7 +16153,7 @@
         <v>25.9200000762939</v>
       </c>
       <c r="G410" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16179,7 +16179,7 @@
         <v>26.4599990844727</v>
       </c>
       <c r="G411" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16205,7 +16205,7 @@
         <v>26.3199996948242</v>
       </c>
       <c r="G412" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16231,7 +16231,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G413" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16257,7 +16257,7 @@
         <v>26</v>
       </c>
       <c r="G414" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16283,7 +16283,7 @@
         <v>26.1900005340576</v>
       </c>
       <c r="G415" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16309,7 +16309,7 @@
         <v>26.9300003051758</v>
       </c>
       <c r="G416" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16335,7 +16335,7 @@
         <v>26.7600002288818</v>
       </c>
       <c r="G417" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16361,7 +16361,7 @@
         <v>26.4599990844727</v>
       </c>
       <c r="G418" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16387,7 +16387,7 @@
         <v>26.4099998474121</v>
       </c>
       <c r="G419" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16413,7 +16413,7 @@
         <v>26.2800006866455</v>
       </c>
       <c r="G420" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16439,7 +16439,7 @@
         <v>26.75</v>
       </c>
       <c r="G421" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16465,7 +16465,7 @@
         <v>26.5599994659424</v>
       </c>
       <c r="G422" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16491,7 +16491,7 @@
         <v>27.1100006103516</v>
       </c>
       <c r="G423" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16543,7 +16543,7 @@
         <v>26.4500007629395</v>
       </c>
       <c r="G425" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16569,7 +16569,7 @@
         <v>26.6700000762939</v>
       </c>
       <c r="G426" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16595,7 +16595,7 @@
         <v>27.6599998474121</v>
       </c>
       <c r="G427" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16621,7 +16621,7 @@
         <v>28.2299995422363</v>
       </c>
       <c r="G428" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16647,7 +16647,7 @@
         <v>27.7999992370605</v>
       </c>
       <c r="G429" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16673,7 +16673,7 @@
         <v>28.3199996948242</v>
       </c>
       <c r="G430" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16699,7 +16699,7 @@
         <v>28.2399997711182</v>
       </c>
       <c r="G431" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16725,7 +16725,7 @@
         <v>28.5</v>
       </c>
       <c r="G432" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16751,7 +16751,7 @@
         <v>28.4599990844727</v>
       </c>
       <c r="G433" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16777,7 +16777,7 @@
         <v>28.8299999237061</v>
       </c>
       <c r="G434" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16803,7 +16803,7 @@
         <v>29.3099994659424</v>
       </c>
       <c r="G435" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16829,7 +16829,7 @@
         <v>29.1499996185303</v>
       </c>
       <c r="G436" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16855,7 +16855,7 @@
         <v>29.5200004577637</v>
       </c>
       <c r="G437" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16881,7 +16881,7 @@
         <v>29.4400005340576</v>
       </c>
       <c r="G438" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16907,7 +16907,7 @@
         <v>29.5100002288818</v>
       </c>
       <c r="G439" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16933,7 +16933,7 @@
         <v>29.9300003051758</v>
       </c>
       <c r="G440" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16959,7 +16959,7 @@
         <v>29.3600006103516</v>
       </c>
       <c r="G441" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16985,7 +16985,7 @@
         <v>29.4699993133545</v>
       </c>
       <c r="G442" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -17011,7 +17011,7 @@
         <v>29.5100002288818</v>
       </c>
       <c r="G443" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17037,7 +17037,7 @@
         <v>28.9899997711182</v>
       </c>
       <c r="G444" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17063,7 +17063,7 @@
         <v>28.8999996185303</v>
       </c>
       <c r="G445" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17089,7 +17089,7 @@
         <v>29.0100002288818</v>
       </c>
       <c r="G446" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17115,7 +17115,7 @@
         <v>29.4599990844727</v>
       </c>
       <c r="G447" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17141,7 +17141,7 @@
         <v>29.7700004577637</v>
       </c>
       <c r="G448" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17167,7 +17167,7 @@
         <v>31.25</v>
       </c>
       <c r="G449" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17193,7 +17193,7 @@
         <v>30.7000007629395</v>
       </c>
       <c r="G450" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17219,7 +17219,7 @@
         <v>30.7800006866455</v>
       </c>
       <c r="G451" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17245,7 +17245,7 @@
         <v>30.7199993133545</v>
       </c>
       <c r="G452" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17271,7 +17271,7 @@
         <v>30.5599994659424</v>
       </c>
       <c r="G453" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17297,7 +17297,7 @@
         <v>30.5</v>
       </c>
       <c r="G454" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17323,7 +17323,7 @@
         <v>30.2999992370605</v>
       </c>
       <c r="G455" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17349,7 +17349,7 @@
         <v>30.2800006866455</v>
       </c>
       <c r="G456" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17375,7 +17375,7 @@
         <v>30.5</v>
       </c>
       <c r="G457" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17401,7 +17401,7 @@
         <v>31.5699996948242</v>
       </c>
       <c r="G458" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17427,7 +17427,7 @@
         <v>31.8899993896484</v>
       </c>
       <c r="G459" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17453,7 +17453,7 @@
         <v>31.2999992370605</v>
       </c>
       <c r="G460" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17479,7 +17479,7 @@
         <v>30.9300003051758</v>
       </c>
       <c r="G461" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17505,7 +17505,7 @@
         <v>29.6800003051758</v>
       </c>
       <c r="G462" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17531,7 +17531,7 @@
         <v>30.1700000762939</v>
       </c>
       <c r="G463" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17557,7 +17557,7 @@
         <v>30.3999996185303</v>
       </c>
       <c r="G464" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17583,7 +17583,7 @@
         <v>30.1900005340576</v>
       </c>
       <c r="G465" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17609,7 +17609,7 @@
         <v>31.2700004577637</v>
       </c>
       <c r="G466" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17635,7 +17635,7 @@
         <v>32.2799987792969</v>
       </c>
       <c r="G467" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17661,7 +17661,7 @@
         <v>31.9200000762939</v>
       </c>
       <c r="G468" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17687,7 +17687,7 @@
         <v>33.2999992370605</v>
       </c>
       <c r="G469" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17713,7 +17713,7 @@
         <v>34.1100006103516</v>
       </c>
       <c r="G470" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17739,7 +17739,7 @@
         <v>33.6399993896484</v>
       </c>
       <c r="G471" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17765,7 +17765,7 @@
         <v>33.0699996948242</v>
       </c>
       <c r="G472" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17791,7 +17791,7 @@
         <v>33.7900009155273</v>
       </c>
       <c r="G473" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17817,7 +17817,7 @@
         <v>33.1800003051758</v>
       </c>
       <c r="G474" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17843,7 +17843,7 @@
         <v>32.7900009155273</v>
       </c>
       <c r="G475" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17869,7 +17869,7 @@
         <v>31.5699996948242</v>
       </c>
       <c r="G476" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17895,7 +17895,7 @@
         <v>31.0499992370605</v>
       </c>
       <c r="G477" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17921,7 +17921,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G478" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17947,7 +17947,7 @@
         <v>30.1000003814697</v>
       </c>
       <c r="G479" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17973,7 +17973,7 @@
         <v>30.2399997711182</v>
       </c>
       <c r="G480" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17999,7 +17999,7 @@
         <v>30.2000007629395</v>
       </c>
       <c r="G481" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -18025,7 +18025,7 @@
         <v>31.0100002288818</v>
       </c>
       <c r="G482" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18051,7 +18051,7 @@
         <v>30.5200004577637</v>
       </c>
       <c r="G483" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18077,7 +18077,7 @@
         <v>30.3899993896484</v>
       </c>
       <c r="G484" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18103,7 +18103,7 @@
         <v>31.0499992370605</v>
       </c>
       <c r="G485" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18129,7 +18129,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G486" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18155,7 +18155,7 @@
         <v>31.2700004577637</v>
       </c>
       <c r="G487" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18181,7 +18181,7 @@
         <v>31.5</v>
       </c>
       <c r="G488" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18207,7 +18207,7 @@
         <v>31.25</v>
       </c>
       <c r="G489" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18233,7 +18233,7 @@
         <v>31.4300003051758</v>
       </c>
       <c r="G490" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18259,7 +18259,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G491" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18285,7 +18285,7 @@
         <v>31.5599994659424</v>
       </c>
       <c r="G492" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18311,7 +18311,7 @@
         <v>31.3799991607666</v>
       </c>
       <c r="G493" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18337,7 +18337,7 @@
         <v>31.6399993896484</v>
       </c>
       <c r="G494" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18363,7 +18363,7 @@
         <v>31.3500003814697</v>
       </c>
       <c r="G495" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18389,7 +18389,7 @@
         <v>31.1000003814697</v>
       </c>
       <c r="G496" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18415,7 +18415,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G497" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18441,7 +18441,7 @@
         <v>31.3400001525879</v>
       </c>
       <c r="G498" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18467,7 +18467,7 @@
         <v>31.6499996185303</v>
       </c>
       <c r="G499" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18493,7 +18493,7 @@
         <v>32</v>
       </c>
       <c r="G500" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18519,7 +18519,7 @@
         <v>30.9599990844727</v>
       </c>
       <c r="G501" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18545,7 +18545,7 @@
         <v>30.7700004577637</v>
       </c>
       <c r="G502" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18571,7 +18571,7 @@
         <v>30.5</v>
       </c>
       <c r="G503" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18597,7 +18597,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G504" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18623,7 +18623,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G505" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18649,7 +18649,7 @@
         <v>30.5599994659424</v>
       </c>
       <c r="G506" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18675,7 +18675,7 @@
         <v>31.1599998474121</v>
       </c>
       <c r="G507" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18701,7 +18701,7 @@
         <v>30.7399997711182</v>
       </c>
       <c r="G508" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18727,7 +18727,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G509" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18753,7 +18753,7 @@
         <v>31.1800003051758</v>
       </c>
       <c r="G510" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18779,7 +18779,7 @@
         <v>30.8199996948242</v>
       </c>
       <c r="G511" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18805,7 +18805,7 @@
         <v>30.3600006103516</v>
       </c>
       <c r="G512" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18831,7 +18831,7 @@
         <v>31.25</v>
       </c>
       <c r="G513" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18857,7 +18857,7 @@
         <v>31.5499992370605</v>
       </c>
       <c r="G514" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18883,7 +18883,7 @@
         <v>32.8499984741211</v>
       </c>
       <c r="G515" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18909,7 +18909,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G516" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18935,7 +18935,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G517" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18961,7 +18961,7 @@
         <v>32.6500015258789</v>
       </c>
       <c r="G518" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18987,7 +18987,7 @@
         <v>32.75</v>
       </c>
       <c r="G519" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -19013,7 +19013,7 @@
         <v>32.5499992370605</v>
       </c>
       <c r="G520" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19039,7 +19039,7 @@
         <v>32.0999984741211</v>
       </c>
       <c r="G521" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19065,7 +19065,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G522" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19091,7 +19091,7 @@
         <v>32.2000007629395</v>
       </c>
       <c r="G523" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19117,7 +19117,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G524" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19143,7 +19143,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G525" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19169,7 +19169,7 @@
         <v>33.5499992370605</v>
       </c>
       <c r="G526" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19195,7 +19195,7 @@
         <v>34.25</v>
       </c>
       <c r="G527" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19221,7 +19221,7 @@
         <v>33.4500007629395</v>
       </c>
       <c r="G528" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19247,7 +19247,7 @@
         <v>32.9000015258789</v>
       </c>
       <c r="G529" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19273,7 +19273,7 @@
         <v>32.9500007629395</v>
       </c>
       <c r="G530" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19299,7 +19299,7 @@
         <v>33.6500015258789</v>
       </c>
       <c r="G531" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19325,7 +19325,7 @@
         <v>32.7000007629395</v>
       </c>
       <c r="G532" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19351,7 +19351,7 @@
         <v>32.1500015258789</v>
       </c>
       <c r="G533" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19377,7 +19377,7 @@
         <v>32.2999992370605</v>
       </c>
       <c r="G534" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19403,7 +19403,7 @@
         <v>31.2000007629395</v>
       </c>
       <c r="G535" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19429,7 +19429,7 @@
         <v>30.7999992370605</v>
       </c>
       <c r="G536" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19455,7 +19455,7 @@
         <v>30.6000003814697</v>
       </c>
       <c r="G537" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19481,7 +19481,7 @@
         <v>31.4500007629395</v>
       </c>
       <c r="G538" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19507,7 +19507,7 @@
         <v>30.25</v>
       </c>
       <c r="G539" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19533,7 +19533,7 @@
         <v>29.2999992370605</v>
       </c>
       <c r="G540" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19559,7 +19559,7 @@
         <v>29.4500007629395</v>
       </c>
       <c r="G541" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19585,7 +19585,7 @@
         <v>30.0499992370605</v>
       </c>
       <c r="G542" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19611,7 +19611,7 @@
         <v>31.25</v>
       </c>
       <c r="G543" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19637,7 +19637,7 @@
         <v>31.3999996185303</v>
       </c>
       <c r="G544" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19663,7 +19663,7 @@
         <v>31.6000003814697</v>
       </c>
       <c r="G545" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19689,7 +19689,7 @@
         <v>30.9500007629395</v>
       </c>
       <c r="G546" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19715,7 +19715,7 @@
         <v>31.1499996185303</v>
       </c>
       <c r="G547" t="s">
-